--- a/3. Bears_and_Bugs.jar_Metrics/Bears_Complexity_42_Avg.xlsx
+++ b/3. Bears_and_Bugs.jar_Metrics/Bears_Complexity_42_Avg.xlsx
@@ -2131,7 +2131,27 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="5" tint="-0.24994659260841701"/>
@@ -2615,8 +2635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S252"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A153" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A160" sqref="A160"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A165" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A191" sqref="A191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
@@ -10496,437 +10516,437 @@
       <c r="M160" s="24"/>
       <c r="N160" s="24"/>
     </row>
-    <row r="162" spans="1:14" ht="28.8" x14ac:dyDescent="0.35">
-      <c r="A162" s="13" t="s">
+    <row r="162" spans="1:15" ht="28.8" x14ac:dyDescent="0.35">
+      <c r="B162" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="B162" s="13" t="s">
+      <c r="C162" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C162" s="13" t="s">
+      <c r="D162" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="D162" s="13" t="s">
+      <c r="E162" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="E162" s="13" t="s">
+      <c r="F162" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F162" s="13" t="s">
+      <c r="G162" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="G162" s="13" t="s">
+      <c r="H162" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H162" s="13" t="s">
+      <c r="I162" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="I162" s="13" t="s">
+      <c r="J162" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="J162" s="13" t="s">
+      <c r="K162" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="K162" s="13" t="s">
+      <c r="L162" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="L162" s="13" t="s">
+      <c r="M162" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="M162" s="13" t="s">
+      <c r="N162" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="N162" s="13" t="s">
+      <c r="O162" s="13" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A163" s="1" t="s">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B163" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B163" s="14">
-        <f t="shared" ref="B163:N163" si="12" xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Buggy",B$24:B$149)</f>
+      <c r="C163" s="14">
+        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Buggy",B$24:B$149)</f>
         <v>2.2026190476190473</v>
       </c>
-      <c r="C163" s="14">
-        <f t="shared" si="12"/>
+      <c r="D163" s="14">
+        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Buggy",C$24:C$149)</f>
         <v>78.397142857142882</v>
       </c>
-      <c r="D163" s="14">
-        <f t="shared" si="12"/>
+      <c r="E163" s="14">
+        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Buggy",D$24:D$149)</f>
         <v>11.101190476190476</v>
       </c>
-      <c r="E163" s="14">
-        <f t="shared" si="12"/>
+      <c r="F163" s="14">
+        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Buggy",E$24:E$149)</f>
         <v>7.1707142857142898</v>
       </c>
-      <c r="F163" s="14">
-        <f t="shared" si="12"/>
+      <c r="G163" s="14">
+        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Buggy",F$24:F$149)</f>
         <v>8.627380952380955</v>
       </c>
-      <c r="G163" s="14">
-        <f t="shared" si="12"/>
+      <c r="H163" s="14">
+        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Buggy",G$24:G$149)</f>
         <v>2.5138095238095235</v>
       </c>
-      <c r="H163" s="14">
-        <f t="shared" si="12"/>
+      <c r="I163" s="14">
+        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Buggy",H$24:H$149)</f>
         <v>9.6845238095238155</v>
       </c>
-      <c r="I163" s="14">
-        <f t="shared" si="12"/>
+      <c r="J163" s="14">
+        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Buggy",I$24:I$149)</f>
         <v>19.731190476190481</v>
       </c>
-      <c r="J163" s="14">
-        <f t="shared" si="12"/>
+      <c r="K163" s="14">
+        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Buggy",J$24:J$149)</f>
         <v>43.330952380952354</v>
       </c>
-      <c r="K163" s="14">
-        <f t="shared" si="12"/>
+      <c r="L163" s="14">
+        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Buggy",K$24:K$149)</f>
         <v>0.86357142857142843</v>
       </c>
-      <c r="L163" s="14">
-        <f t="shared" si="12"/>
+      <c r="M163" s="14">
+        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Buggy",L$24:L$149)</f>
         <v>4.761904761904763E-2</v>
       </c>
-      <c r="M163" s="14">
-        <f t="shared" si="12"/>
+      <c r="N163" s="14">
+        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Buggy",M$24:M$149)</f>
         <v>14.291904761904764</v>
       </c>
-      <c r="N163" s="14">
-        <f t="shared" si="12"/>
+      <c r="O163" s="14">
+        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Buggy",N$24:N$149)</f>
         <v>0.79480952380952397</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A164" s="1" t="s">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B164" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B164" s="14">
-        <f t="shared" ref="B164:N164" si="13" xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Fixed",B$24:B$149)</f>
+      <c r="C164" s="14">
+        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Fixed",B$24:B$149)</f>
         <v>2.2321428571428572</v>
       </c>
-      <c r="C164" s="14">
-        <f t="shared" si="13"/>
+      <c r="D164" s="14">
+        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Fixed",C$24:C$149)</f>
         <v>78.414047619047636</v>
       </c>
-      <c r="D164" s="14">
-        <f t="shared" si="13"/>
+      <c r="E164" s="14">
+        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Fixed",D$24:D$149)</f>
         <v>11.115</v>
       </c>
-      <c r="E164" s="14">
-        <f t="shared" si="13"/>
+      <c r="F164" s="14">
+        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Fixed",E$24:E$149)</f>
         <v>7.1685714285714326</v>
       </c>
-      <c r="F164" s="14">
-        <f t="shared" si="13"/>
+      <c r="G164" s="14">
+        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Fixed",F$24:F$149)</f>
         <v>8.6342857142857099</v>
       </c>
-      <c r="G164" s="14">
-        <f t="shared" si="13"/>
+      <c r="H164" s="14">
+        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Fixed",G$24:G$149)</f>
         <v>2.5192857142857141</v>
       </c>
-      <c r="H164" s="14">
-        <f t="shared" si="13"/>
+      <c r="I164" s="14">
+        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Fixed",H$24:H$149)</f>
         <v>9.6876190476190533</v>
       </c>
-      <c r="I164" s="14">
-        <f t="shared" si="13"/>
+      <c r="J164" s="14">
+        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Fixed",I$24:I$149)</f>
         <v>19.749047619047627</v>
       </c>
-      <c r="J164" s="14">
-        <f t="shared" si="13"/>
+      <c r="K164" s="14">
+        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Fixed",J$24:J$149)</f>
         <v>43.343333333333327</v>
       </c>
-      <c r="K164" s="14">
-        <f t="shared" si="13"/>
+      <c r="L164" s="14">
+        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Fixed",K$24:K$149)</f>
         <v>0.86309523809523814</v>
       </c>
-      <c r="L164" s="14">
-        <f t="shared" si="13"/>
+      <c r="M164" s="14">
+        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Fixed",L$24:L$149)</f>
         <v>4.761904761904763E-2</v>
       </c>
-      <c r="M164" s="14">
-        <f t="shared" si="13"/>
+      <c r="N164" s="14">
+        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Fixed",M$24:M$149)</f>
         <v>14.280000000000003</v>
       </c>
-      <c r="N164" s="14">
-        <f t="shared" si="13"/>
+      <c r="O164" s="14">
+        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Fixed",N$24:N$149)</f>
         <v>0.79385714285714304</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A165" s="1" t="s">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B165" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B165" s="14">
-        <f t="shared" ref="B165:N165" si="14" xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Repaired",B$24:B$149)</f>
+      <c r="C165" s="14">
+        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Repaired",B$24:B$149)</f>
         <v>2.1466666666666669</v>
       </c>
-      <c r="C165" s="14">
-        <f t="shared" si="14"/>
+      <c r="D165" s="14">
+        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Repaired",C$24:C$149)</f>
         <v>79.052142857142854</v>
       </c>
-      <c r="D165" s="14">
-        <f t="shared" si="14"/>
+      <c r="E165" s="14">
+        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Repaired",D$24:D$149)</f>
         <v>10.615476190476189</v>
       </c>
-      <c r="E165" s="14">
-        <f t="shared" si="14"/>
+      <c r="F165" s="14">
+        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Repaired",E$24:E$149)</f>
         <v>7.274285714285714</v>
       </c>
-      <c r="F165" s="14">
-        <f t="shared" si="14"/>
+      <c r="G165" s="14">
+        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Repaired",F$24:F$149)</f>
         <v>7.9573809523809516</v>
       </c>
-      <c r="G165" s="14">
-        <f t="shared" si="14"/>
+      <c r="H165" s="14">
+        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Repaired",G$24:G$149)</f>
         <v>2.4342857142857151</v>
       </c>
-      <c r="H165" s="14">
-        <f t="shared" si="14"/>
+      <c r="I165" s="14">
+        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Repaired",H$24:H$149)</f>
         <v>9.7092857142857127</v>
       </c>
-      <c r="I165" s="14">
-        <f t="shared" si="14"/>
+      <c r="J165" s="14">
+        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Repaired",I$24:I$149)</f>
         <v>18.572619047619046</v>
       </c>
-      <c r="J165" s="14">
-        <f t="shared" si="14"/>
+      <c r="K165" s="14">
+        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Repaired",J$24:J$149)</f>
         <v>42.644047619047626</v>
       </c>
-      <c r="K165" s="14">
-        <f t="shared" si="14"/>
+      <c r="L165" s="14">
+        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Repaired",K$24:K$149)</f>
         <v>0.87904761904761897</v>
       </c>
-      <c r="L165" s="14">
-        <f t="shared" si="14"/>
+      <c r="M165" s="14">
+        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Repaired",L$24:L$149)</f>
         <v>6.6585714285714276E-2</v>
       </c>
-      <c r="M165" s="14">
-        <f t="shared" si="14"/>
+      <c r="N165" s="14">
+        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Repaired",M$24:M$149)</f>
         <v>16.302857142857142</v>
       </c>
-      <c r="N165" s="14">
-        <f t="shared" si="14"/>
+      <c r="O165" s="14">
+        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Repaired",N$24:N$149)</f>
         <v>0.90623809523809518</v>
       </c>
     </row>
-    <row r="168" spans="1:14" ht="28.8" x14ac:dyDescent="0.35">
-      <c r="A168" s="13" t="s">
+    <row r="168" spans="1:15" ht="28.8" x14ac:dyDescent="0.35">
+      <c r="B168" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="B168" s="13" t="s">
+      <c r="C168" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C168" s="13" t="s">
+      <c r="D168" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="D168" s="13" t="s">
+      <c r="E168" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="E168" s="13" t="s">
+      <c r="F168" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F168" s="13" t="s">
+      <c r="G168" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="G168" s="13" t="s">
+      <c r="H168" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H168" s="13" t="s">
+      <c r="I168" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="I168" s="13" t="s">
+      <c r="J168" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="J168" s="13" t="s">
+      <c r="K168" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="K168" s="13" t="s">
+      <c r="L168" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="L168" s="13" t="s">
+      <c r="M168" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="M168" s="13" t="s">
+      <c r="N168" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="N168" s="13" t="s">
+      <c r="O168" s="13" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A169" s="1" t="s">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B169" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B169" s="14">
-        <f t="shared" ref="B169:N169" si="15" xml:space="preserve"> SUMIF($A$24:$A$149, "*Buggy",B$24:B$149)</f>
+      <c r="C169" s="14">
+        <f xml:space="preserve"> SUMIF($A$24:$A$149, "*Buggy",B$24:B$149)</f>
         <v>92.509999999999991</v>
       </c>
-      <c r="C169" s="14">
-        <f t="shared" si="15"/>
+      <c r="D169" s="14">
+        <f xml:space="preserve"> SUMIF($A$24:$A$149, "*Buggy",C$24:C$149)</f>
         <v>3292.6800000000007</v>
       </c>
-      <c r="D169" s="14">
-        <f t="shared" si="15"/>
+      <c r="E169" s="14">
+        <f xml:space="preserve"> SUMIF($A$24:$A$149, "*Buggy",D$24:D$149)</f>
         <v>466.25</v>
       </c>
-      <c r="E169" s="14">
-        <f t="shared" si="15"/>
+      <c r="F169" s="14">
+        <f xml:space="preserve"> SUMIF($A$24:$A$149, "*Buggy",E$24:E$149)</f>
         <v>301.17000000000019</v>
       </c>
-      <c r="F169" s="14">
-        <f t="shared" si="15"/>
+      <c r="G169" s="14">
+        <f xml:space="preserve"> SUMIF($A$24:$A$149, "*Buggy",F$24:F$149)</f>
         <v>362.35000000000014</v>
       </c>
-      <c r="G169" s="14">
-        <f t="shared" si="15"/>
+      <c r="H169" s="14">
+        <f xml:space="preserve"> SUMIF($A$24:$A$149, "*Buggy",G$24:G$149)</f>
         <v>105.57999999999998</v>
       </c>
-      <c r="H169" s="14">
-        <f t="shared" si="15"/>
+      <c r="I169" s="14">
+        <f xml:space="preserve"> SUMIF($A$24:$A$149, "*Buggy",H$24:H$149)</f>
         <v>406.75000000000023</v>
       </c>
-      <c r="I169" s="14">
-        <f t="shared" si="15"/>
+      <c r="J169" s="14">
+        <f xml:space="preserve"> SUMIF($A$24:$A$149, "*Buggy",I$24:I$149)</f>
         <v>828.71000000000015</v>
       </c>
-      <c r="J169" s="14">
-        <f t="shared" si="15"/>
+      <c r="K169" s="14">
+        <f xml:space="preserve"> SUMIF($A$24:$A$149, "*Buggy",J$24:J$149)</f>
         <v>1819.899999999999</v>
       </c>
-      <c r="K169" s="14">
-        <f t="shared" si="15"/>
+      <c r="L169" s="14">
+        <f xml:space="preserve"> SUMIF($A$24:$A$149, "*Buggy",K$24:K$149)</f>
         <v>36.269999999999996</v>
       </c>
-      <c r="L169" s="14">
-        <f t="shared" si="15"/>
+      <c r="M169" s="14">
+        <f xml:space="preserve"> SUMIF($A$24:$A$149, "*Buggy",L$24:L$149)</f>
         <v>2.0000000000000004</v>
       </c>
-      <c r="M169" s="14">
-        <f t="shared" si="15"/>
+      <c r="N169" s="14">
+        <f xml:space="preserve"> SUMIF($A$24:$A$149, "*Buggy",M$24:M$149)</f>
         <v>600.2600000000001</v>
       </c>
-      <c r="N169" s="14">
-        <f t="shared" si="15"/>
+      <c r="O169" s="14">
+        <f xml:space="preserve"> SUMIF($A$24:$A$149, "*Buggy",N$24:N$149)</f>
         <v>33.382000000000005</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A170" s="1" t="s">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B170" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B170" s="14">
-        <f t="shared" ref="B170:N170" si="16">SUMIF($A$24:$A$149, "*Fixed",B$24:B$149)</f>
+      <c r="C170" s="14">
+        <f>SUMIF($A$24:$A$149, "*Fixed",B$24:B$149)</f>
         <v>93.75</v>
       </c>
-      <c r="C170" s="14">
-        <f t="shared" si="16"/>
+      <c r="D170" s="14">
+        <f>SUMIF($A$24:$A$149, "*Fixed",C$24:C$149)</f>
         <v>3293.3900000000008</v>
       </c>
-      <c r="D170" s="14">
-        <f t="shared" si="16"/>
+      <c r="E170" s="14">
+        <f>SUMIF($A$24:$A$149, "*Fixed",D$24:D$149)</f>
         <v>466.83</v>
       </c>
-      <c r="E170" s="14">
-        <f t="shared" si="16"/>
+      <c r="F170" s="14">
+        <f>SUMIF($A$24:$A$149, "*Fixed",E$24:E$149)</f>
         <v>301.08000000000015</v>
       </c>
-      <c r="F170" s="14">
-        <f t="shared" si="16"/>
+      <c r="G170" s="14">
+        <f>SUMIF($A$24:$A$149, "*Fixed",F$24:F$149)</f>
         <v>362.63999999999982</v>
       </c>
-      <c r="G170" s="14">
-        <f t="shared" si="16"/>
+      <c r="H170" s="14">
+        <f>SUMIF($A$24:$A$149, "*Fixed",G$24:G$149)</f>
         <v>105.81</v>
       </c>
-      <c r="H170" s="14">
-        <f t="shared" si="16"/>
+      <c r="I170" s="14">
+        <f>SUMIF($A$24:$A$149, "*Fixed",H$24:H$149)</f>
         <v>406.88000000000022</v>
       </c>
-      <c r="I170" s="14">
-        <f t="shared" si="16"/>
+      <c r="J170" s="14">
+        <f>SUMIF($A$24:$A$149, "*Fixed",I$24:I$149)</f>
         <v>829.46000000000038</v>
       </c>
-      <c r="J170" s="14">
-        <f t="shared" si="16"/>
+      <c r="K170" s="14">
+        <f>SUMIF($A$24:$A$149, "*Fixed",J$24:J$149)</f>
         <v>1820.4199999999996</v>
       </c>
-      <c r="K170" s="14">
-        <f t="shared" si="16"/>
+      <c r="L170" s="14">
+        <f>SUMIF($A$24:$A$149, "*Fixed",K$24:K$149)</f>
         <v>36.25</v>
       </c>
-      <c r="L170" s="14">
-        <f t="shared" si="16"/>
+      <c r="M170" s="14">
+        <f>SUMIF($A$24:$A$149, "*Fixed",L$24:L$149)</f>
         <v>2.0000000000000004</v>
       </c>
-      <c r="M170" s="14">
-        <f t="shared" si="16"/>
+      <c r="N170" s="14">
+        <f>SUMIF($A$24:$A$149, "*Fixed",M$24:M$149)</f>
         <v>599.7600000000001</v>
       </c>
-      <c r="N170" s="14">
-        <f t="shared" si="16"/>
+      <c r="O170" s="14">
+        <f>SUMIF($A$24:$A$149, "*Fixed",N$24:N$149)</f>
         <v>33.342000000000006</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A171" s="1" t="s">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B171" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B171" s="14">
-        <f t="shared" ref="B171:N171" si="17">SUMIF($A$24:$A$149, "*Repaired",B$24:B$149)</f>
+      <c r="C171" s="14">
+        <f>SUMIF($A$24:$A$149, "*Repaired",B$24:B$149)</f>
         <v>90.160000000000011</v>
       </c>
-      <c r="C171" s="14">
-        <f t="shared" si="17"/>
+      <c r="D171" s="14">
+        <f>SUMIF($A$24:$A$149, "*Repaired",C$24:C$149)</f>
         <v>3320.19</v>
       </c>
-      <c r="D171" s="14">
-        <f t="shared" si="17"/>
+      <c r="E171" s="14">
+        <f>SUMIF($A$24:$A$149, "*Repaired",D$24:D$149)</f>
         <v>445.84999999999991</v>
       </c>
-      <c r="E171" s="14">
-        <f t="shared" si="17"/>
+      <c r="F171" s="14">
+        <f>SUMIF($A$24:$A$149, "*Repaired",E$24:E$149)</f>
         <v>305.52</v>
       </c>
-      <c r="F171" s="14">
-        <f t="shared" si="17"/>
+      <c r="G171" s="14">
+        <f>SUMIF($A$24:$A$149, "*Repaired",F$24:F$149)</f>
         <v>334.21</v>
       </c>
-      <c r="G171" s="14">
-        <f t="shared" si="17"/>
+      <c r="H171" s="14">
+        <f>SUMIF($A$24:$A$149, "*Repaired",G$24:G$149)</f>
         <v>102.24000000000002</v>
       </c>
-      <c r="H171" s="14">
-        <f t="shared" si="17"/>
+      <c r="I171" s="14">
+        <f>SUMIF($A$24:$A$149, "*Repaired",H$24:H$149)</f>
         <v>407.78999999999996</v>
       </c>
-      <c r="I171" s="14">
-        <f t="shared" si="17"/>
+      <c r="J171" s="14">
+        <f>SUMIF($A$24:$A$149, "*Repaired",I$24:I$149)</f>
         <v>780.05</v>
       </c>
-      <c r="J171" s="14">
-        <f t="shared" si="17"/>
+      <c r="K171" s="14">
+        <f>SUMIF($A$24:$A$149, "*Repaired",J$24:J$149)</f>
         <v>1791.0500000000002</v>
       </c>
-      <c r="K171" s="14">
-        <f t="shared" si="17"/>
+      <c r="L171" s="14">
+        <f>SUMIF($A$24:$A$149, "*Repaired",K$24:K$149)</f>
         <v>36.919999999999995</v>
       </c>
-      <c r="L171" s="14">
-        <f t="shared" si="17"/>
+      <c r="M171" s="14">
+        <f>SUMIF($A$24:$A$149, "*Repaired",L$24:L$149)</f>
         <v>2.7965999999999993</v>
       </c>
-      <c r="M171" s="14">
-        <f t="shared" si="17"/>
+      <c r="N171" s="14">
+        <f>SUMIF($A$24:$A$149, "*Repaired",M$24:M$149)</f>
         <v>684.71999999999991</v>
       </c>
-      <c r="N171" s="14">
-        <f t="shared" si="17"/>
+      <c r="O171" s="14">
+        <f>SUMIF($A$24:$A$149, "*Repaired",N$24:N$149)</f>
         <v>38.061999999999998</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A174" s="23" t="s">
         <v>175</v>
       </c>
@@ -10944,324 +10964,339 @@
       <c r="M174" s="24"/>
       <c r="N174" s="24"/>
     </row>
-    <row r="176" spans="1:14" ht="28.8" x14ac:dyDescent="0.35">
-      <c r="A176" s="13" t="s">
+    <row r="176" spans="1:15" ht="28.8" x14ac:dyDescent="0.35">
+      <c r="B176" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="B176" s="13" t="s">
+      <c r="C176" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="C176" s="13" t="s">
+      <c r="D176" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="D176" s="13" t="s">
+      <c r="E176" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="E176" s="13" t="s">
+      <c r="F176" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F176" s="13" t="s">
+      <c r="G176" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="G176" s="13" t="s">
+      <c r="H176" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H176" s="13" t="s">
+      <c r="I176" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="I176" s="13" t="s">
+      <c r="J176" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="J176" s="13" t="s">
+      <c r="K176" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="K176" s="13" t="s">
+      <c r="L176" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="L176" s="13" t="s">
+      <c r="M176" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="M176" s="13" t="s">
+      <c r="N176" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="N176" s="13" t="s">
+      <c r="O176" s="13" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A177" s="1" t="s">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A177" s="1">
+        <f>COUNTIFS($O$24:$O$149, "*Fixed", $P$24:$P$149, "&lt;2")</f>
+        <v>35</v>
+      </c>
+      <c r="B177" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B177" s="25">
-        <f t="shared" ref="B177:N177" si="18">AVERAGEIFS(B$24:B$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "&lt;2")</f>
+      <c r="C177" s="25">
+        <f>AVERAGEIFS(B$24:B$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "&lt;2")</f>
         <v>2.0485714285714285</v>
       </c>
-      <c r="C177" s="25">
-        <f t="shared" si="18"/>
+      <c r="D177" s="25">
+        <f>AVERAGEIFS(C$24:C$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "&lt;2")</f>
         <v>78.502571428571429</v>
       </c>
-      <c r="D177" s="25">
-        <f t="shared" si="18"/>
+      <c r="E177" s="25">
+        <f>AVERAGEIFS(D$24:D$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "&lt;2")</f>
         <v>11.001142857142858</v>
       </c>
-      <c r="E177" s="25">
-        <f t="shared" si="18"/>
+      <c r="F177" s="25">
+        <f>AVERAGEIFS(E$24:E$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "&lt;2")</f>
         <v>7.4385714285714322</v>
       </c>
-      <c r="F177" s="25">
-        <f t="shared" si="18"/>
+      <c r="G177" s="25">
+        <f>AVERAGEIFS(F$24:F$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "&lt;2")</f>
         <v>8.2911428571428551</v>
       </c>
-      <c r="G177" s="25">
-        <f t="shared" si="18"/>
+      <c r="H177" s="25">
+        <f>AVERAGEIFS(G$24:G$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "&lt;2")</f>
         <v>2.2791428571428574</v>
       </c>
-      <c r="H177" s="25">
-        <f t="shared" si="18"/>
+      <c r="I177" s="25">
+        <f>AVERAGEIFS(H$24:H$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "&lt;2")</f>
         <v>9.7168571428571475</v>
       </c>
-      <c r="I177" s="25">
-        <f t="shared" si="18"/>
+      <c r="J177" s="25">
+        <f>AVERAGEIFS(I$24:I$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "&lt;2")</f>
         <v>19.293428571428578</v>
       </c>
-      <c r="J177" s="25">
-        <f t="shared" si="18"/>
+      <c r="K177" s="25">
+        <f>AVERAGEIFS(J$24:J$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "&lt;2")</f>
         <v>43.453999999999986</v>
       </c>
-      <c r="K177" s="25">
-        <f t="shared" si="18"/>
+      <c r="L177" s="25">
+        <f>AVERAGEIFS(K$24:K$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "&lt;2")</f>
         <v>1.0031428571428571</v>
       </c>
-      <c r="L177" s="25">
-        <f t="shared" si="18"/>
+      <c r="M177" s="25">
+        <f>AVERAGEIFS(L$24:L$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "&lt;2")</f>
         <v>5.6285714285714307E-2</v>
       </c>
-      <c r="M177" s="25">
-        <f t="shared" si="18"/>
+      <c r="N177" s="25">
+        <f>AVERAGEIFS(M$24:M$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "&lt;2")</f>
         <v>16.384000000000004</v>
       </c>
-      <c r="N177" s="25">
-        <f t="shared" si="18"/>
+      <c r="O177" s="25">
+        <f>AVERAGEIFS(N$24:N$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "&lt;2")</f>
         <v>0.91091428571428601</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A178" s="1" t="s">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A178" s="1">
+        <f>COUNTIFS($O$24:$O$149, "*Repaired", $P$24:$P$149, "&lt;2")</f>
+        <v>22</v>
+      </c>
+      <c r="B178" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B178" s="25">
-        <f t="shared" ref="B178:N178" si="19">AVERAGEIFS(B$24:B$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "&lt;2")</f>
+      <c r="C178" s="25">
+        <f>AVERAGEIFS(B$24:B$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "&lt;2")</f>
         <v>2.8531818181818185</v>
       </c>
-      <c r="C178" s="25">
-        <f t="shared" si="19"/>
+      <c r="D178" s="25">
+        <f>AVERAGEIFS(C$24:C$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "&lt;2")</f>
         <v>82.204999999999984</v>
       </c>
-      <c r="D178" s="25">
-        <f t="shared" si="19"/>
+      <c r="E178" s="25">
+        <f>AVERAGEIFS(D$24:D$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "&lt;2")</f>
         <v>10.497272727272728</v>
       </c>
-      <c r="E178" s="25">
-        <f t="shared" si="19"/>
+      <c r="F178" s="25">
+        <f>AVERAGEIFS(E$24:E$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "&lt;2")</f>
         <v>5.6736363636363638</v>
       </c>
-      <c r="F178" s="25">
-        <f t="shared" si="19"/>
+      <c r="G178" s="25">
+        <f>AVERAGEIFS(F$24:F$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "&lt;2")</f>
         <v>8.6931818181818201</v>
       </c>
-      <c r="G178" s="25">
-        <f t="shared" si="19"/>
+      <c r="H178" s="25">
+        <f>AVERAGEIFS(G$24:G$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "&lt;2")</f>
         <v>2.4931818181818182</v>
       </c>
-      <c r="H178" s="25">
-        <f t="shared" si="19"/>
+      <c r="I178" s="25">
+        <f>AVERAGEIFS(H$24:H$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "&lt;2")</f>
         <v>8.1668181818181811</v>
       </c>
-      <c r="I178" s="25">
-        <f t="shared" si="19"/>
+      <c r="J178" s="25">
+        <f>AVERAGEIFS(I$24:I$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "&lt;2")</f>
         <v>19.189545454545456</v>
       </c>
-      <c r="J178" s="25">
-        <f t="shared" si="19"/>
+      <c r="K178" s="25">
+        <f>AVERAGEIFS(J$24:J$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "&lt;2")</f>
         <v>35.719090909090909</v>
       </c>
-      <c r="K178" s="25">
-        <f t="shared" si="19"/>
+      <c r="L178" s="25">
+        <f>AVERAGEIFS(K$24:K$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "&lt;2")</f>
         <v>0.32545454545454544</v>
       </c>
-      <c r="L178" s="25">
-        <f t="shared" si="19"/>
+      <c r="M178" s="25">
+        <f>AVERAGEIFS(L$24:L$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "&lt;2")</f>
         <v>6.8209090909090928E-2</v>
       </c>
-      <c r="M178" s="25">
-        <f t="shared" si="19"/>
+      <c r="N178" s="25">
+        <f>AVERAGEIFS(M$24:M$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "&lt;2")</f>
         <v>7.0422727272727261</v>
       </c>
-      <c r="N178" s="25">
-        <f t="shared" si="19"/>
+      <c r="O178" s="25">
+        <f>AVERAGEIFS(N$24:N$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "&lt;2")</f>
         <v>0.39190909090909093</v>
       </c>
     </row>
-    <row r="180" spans="1:14" ht="28.8" x14ac:dyDescent="0.35">
-      <c r="A180" s="13" t="s">
+    <row r="180" spans="1:15" ht="28.8" x14ac:dyDescent="0.35">
+      <c r="B180" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="B180" s="13" t="s">
+      <c r="C180" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="C180" s="13" t="s">
+      <c r="D180" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="D180" s="13" t="s">
+      <c r="E180" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="E180" s="13" t="s">
+      <c r="F180" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F180" s="13" t="s">
+      <c r="G180" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="G180" s="13" t="s">
+      <c r="H180" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H180" s="13" t="s">
+      <c r="I180" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="I180" s="13" t="s">
+      <c r="J180" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="J180" s="13" t="s">
+      <c r="K180" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="K180" s="13" t="s">
+      <c r="L180" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="L180" s="13" t="s">
+      <c r="M180" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="M180" s="13" t="s">
+      <c r="N180" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="N180" s="13" t="s">
+      <c r="O180" s="13" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A181" s="1" t="s">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A181" s="1">
+        <f>COUNTIFS($O$24:$O$149, "*Fixed", $P$24:$P$149, "&gt;1")</f>
+        <v>7</v>
+      </c>
+      <c r="B181" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B181" s="25">
-        <f t="shared" ref="B181:N181" si="20">AVERAGEIFS(B$24:B$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "&gt;1")</f>
+      <c r="C181" s="25">
+        <f>AVERAGEIFS(B$24:B$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "&gt;1")</f>
         <v>3.1499999999999995</v>
       </c>
-      <c r="C181" s="25">
-        <f t="shared" si="20"/>
+      <c r="D181" s="25">
+        <f>AVERAGEIFS(C$24:C$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "&gt;1")</f>
         <v>77.971428571428575</v>
       </c>
-      <c r="D181" s="25">
-        <f t="shared" si="20"/>
+      <c r="E181" s="25">
+        <f>AVERAGEIFS(D$24:D$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "&gt;1")</f>
         <v>11.684285714285716</v>
       </c>
-      <c r="E181" s="25">
-        <f t="shared" si="20"/>
+      <c r="F181" s="25">
+        <f>AVERAGEIFS(E$24:E$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "&gt;1")</f>
         <v>5.8185714285714285</v>
       </c>
-      <c r="F181" s="25">
-        <f t="shared" si="20"/>
+      <c r="G181" s="25">
+        <f>AVERAGEIFS(F$24:F$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "&gt;1")</f>
         <v>10.35</v>
       </c>
-      <c r="G181" s="25">
-        <f t="shared" si="20"/>
+      <c r="H181" s="25">
+        <f>AVERAGEIFS(G$24:G$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "&gt;1")</f>
         <v>3.7199999999999998</v>
       </c>
-      <c r="H181" s="25">
-        <f t="shared" si="20"/>
+      <c r="I181" s="25">
+        <f>AVERAGEIFS(H$24:H$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "&gt;1")</f>
         <v>9.54142857142857</v>
       </c>
-      <c r="I181" s="25">
-        <f t="shared" si="20"/>
+      <c r="J181" s="25">
+        <f>AVERAGEIFS(I$24:I$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "&gt;1")</f>
         <v>22.027142857142859</v>
       </c>
-      <c r="J181" s="25">
-        <f t="shared" si="20"/>
+      <c r="K181" s="25">
+        <f>AVERAGEIFS(J$24:J$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "&gt;1")</f>
         <v>42.79</v>
       </c>
-      <c r="K181" s="25">
-        <f t="shared" si="20"/>
+      <c r="L181" s="25">
+        <f>AVERAGEIFS(K$24:K$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "&gt;1")</f>
         <v>0.16285714285714284</v>
       </c>
-      <c r="L181" s="25">
-        <f t="shared" si="20"/>
+      <c r="M181" s="25">
+        <f>AVERAGEIFS(L$24:L$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "&gt;1")</f>
         <v>4.2857142857142859E-3</v>
       </c>
-      <c r="M181" s="25">
-        <f t="shared" si="20"/>
+      <c r="N181" s="25">
+        <f>AVERAGEIFS(M$24:M$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "&gt;1")</f>
         <v>3.7600000000000002</v>
       </c>
-      <c r="N181" s="25">
-        <f t="shared" si="20"/>
+      <c r="O181" s="25">
+        <f>AVERAGEIFS(N$24:N$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "&gt;1")</f>
         <v>0.20857142857142857</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A182" s="1" t="s">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A182" s="1">
+        <f>COUNTIFS($O$24:$O$149, "*Repaired", $P$24:$P$149, "&gt;1")</f>
+        <v>20</v>
+      </c>
+      <c r="B182" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B182" s="25">
-        <f t="shared" ref="B182:N182" si="21">AVERAGEIFS(B$24:B$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "&gt;1")</f>
+      <c r="C182" s="25">
+        <f>AVERAGEIFS(B$24:B$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "&gt;1")</f>
         <v>1.3694999999999999</v>
       </c>
-      <c r="C182" s="25">
-        <f t="shared" si="21"/>
+      <c r="D182" s="25">
+        <f>AVERAGEIFS(C$24:C$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "&gt;1")</f>
         <v>75.584000000000017</v>
       </c>
-      <c r="D182" s="25">
-        <f t="shared" si="21"/>
+      <c r="E182" s="25">
+        <f>AVERAGEIFS(D$24:D$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "&gt;1")</f>
         <v>10.745499999999998</v>
       </c>
-      <c r="E182" s="25">
-        <f t="shared" si="21"/>
+      <c r="F182" s="25">
+        <f>AVERAGEIFS(E$24:E$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "&gt;1")</f>
         <v>9.0350000000000001</v>
       </c>
-      <c r="F182" s="25">
-        <f t="shared" si="21"/>
+      <c r="G182" s="25">
+        <f>AVERAGEIFS(F$24:F$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "&gt;1")</f>
         <v>7.1480000000000006</v>
       </c>
-      <c r="G182" s="25">
-        <f t="shared" si="21"/>
+      <c r="H182" s="25">
+        <f>AVERAGEIFS(G$24:G$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "&gt;1")</f>
         <v>2.3694999999999999</v>
       </c>
-      <c r="H182" s="25">
-        <f t="shared" si="21"/>
+      <c r="I182" s="25">
+        <f>AVERAGEIFS(H$24:H$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "&gt;1")</f>
         <v>11.406000000000001</v>
       </c>
-      <c r="I182" s="25">
-        <f t="shared" si="21"/>
+      <c r="J182" s="25">
+        <f>AVERAGEIFS(I$24:I$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "&gt;1")</f>
         <v>17.894000000000002</v>
       </c>
-      <c r="J182" s="25">
-        <f t="shared" si="21"/>
+      <c r="K182" s="25">
+        <f>AVERAGEIFS(J$24:J$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "&gt;1")</f>
         <v>50.261499999999998</v>
       </c>
-      <c r="K182" s="25">
-        <f t="shared" si="21"/>
+      <c r="L182" s="25">
+        <f>AVERAGEIFS(K$24:K$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "&gt;1")</f>
         <v>1.488</v>
       </c>
-      <c r="L182" s="25">
-        <f t="shared" si="21"/>
+      <c r="M182" s="25">
+        <f>AVERAGEIFS(L$24:L$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "&gt;1")</f>
         <v>6.4799999999999996E-2</v>
       </c>
-      <c r="M182" s="25">
-        <f t="shared" si="21"/>
+      <c r="N182" s="25">
+        <f>AVERAGEIFS(M$24:M$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "&gt;1")</f>
         <v>26.48950000000001</v>
       </c>
-      <c r="N182" s="25">
-        <f t="shared" si="21"/>
+      <c r="O182" s="25">
+        <f>AVERAGEIFS(N$24:N$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "&gt;1")</f>
         <v>1.4720000000000002</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B183" s="25"/>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C183" s="25"/>
       <c r="D183" s="25"/>
       <c r="E183" s="25"/>
@@ -11274,167 +11309,175 @@
       <c r="L183" s="25"/>
       <c r="M183" s="25"/>
       <c r="N183" s="25"/>
-    </row>
-    <row r="184" spans="1:14" ht="28.8" x14ac:dyDescent="0.35">
-      <c r="A184" s="13" t="s">
+      <c r="O183" s="25"/>
+    </row>
+    <row r="184" spans="1:15" ht="28.8" x14ac:dyDescent="0.35">
+      <c r="B184" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="B184" s="13" t="s">
+      <c r="C184" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="C184" s="13" t="s">
+      <c r="D184" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="D184" s="13" t="s">
+      <c r="E184" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="E184" s="13" t="s">
+      <c r="F184" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F184" s="13" t="s">
+      <c r="G184" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="G184" s="13" t="s">
+      <c r="H184" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H184" s="13" t="s">
+      <c r="I184" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="I184" s="13" t="s">
+      <c r="J184" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="J184" s="13" t="s">
+      <c r="K184" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="K184" s="13" t="s">
+      <c r="L184" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="L184" s="13" t="s">
+      <c r="M184" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="M184" s="13" t="s">
+      <c r="N184" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="N184" s="13" t="s">
+      <c r="O184" s="13" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A185" s="1" t="s">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A185" s="1">
+        <f>COUNTIFS($O$24:$O$149, "*Fixed", $S$24:$S$149, "&lt;2")</f>
+        <v>10</v>
+      </c>
+      <c r="B185" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B185" s="25">
-        <f t="shared" ref="B185:N185" si="22">AVERAGEIFS(B$24:B$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "&lt;2")</f>
+      <c r="C185" s="25">
+        <f>AVERAGEIFS(B$24:B$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "&lt;2")</f>
         <v>1.4419999999999999</v>
       </c>
-      <c r="C185" s="25">
-        <f t="shared" si="22"/>
+      <c r="D185" s="25">
+        <f>AVERAGEIFS(C$24:C$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "&lt;2")</f>
         <v>87.74799999999999</v>
       </c>
-      <c r="D185" s="25">
-        <f t="shared" si="22"/>
+      <c r="E185" s="25">
+        <f>AVERAGEIFS(D$24:D$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "&lt;2")</f>
         <v>6.0370000000000008</v>
       </c>
-      <c r="E185" s="25">
-        <f t="shared" si="22"/>
+      <c r="F185" s="25">
+        <f>AVERAGEIFS(E$24:E$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "&lt;2")</f>
         <v>4.7859999999999996</v>
       </c>
-      <c r="F185" s="25">
-        <f t="shared" si="22"/>
+      <c r="G185" s="25">
+        <f>AVERAGEIFS(F$24:F$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "&lt;2")</f>
         <v>4.0830000000000002</v>
       </c>
-      <c r="G185" s="25">
-        <f t="shared" si="22"/>
+      <c r="H185" s="25">
+        <f>AVERAGEIFS(G$24:G$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "&lt;2")</f>
         <v>1.716</v>
       </c>
-      <c r="H185" s="25">
-        <f t="shared" si="22"/>
+      <c r="I185" s="25">
+        <f>AVERAGEIFS(H$24:H$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "&lt;2")</f>
         <v>6.4989999999999997</v>
       </c>
-      <c r="I185" s="25">
-        <f t="shared" si="22"/>
+      <c r="J185" s="25">
+        <f>AVERAGEIFS(I$24:I$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "&lt;2")</f>
         <v>10.124000000000001</v>
       </c>
-      <c r="J185" s="25">
-        <f t="shared" si="22"/>
+      <c r="K185" s="25">
+        <f>AVERAGEIFS(J$24:J$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "&lt;2")</f>
         <v>22.975000000000001</v>
       </c>
-      <c r="K185" s="25">
-        <f t="shared" si="22"/>
+      <c r="L185" s="25">
+        <f>AVERAGEIFS(K$24:K$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "&lt;2")</f>
         <v>0.27700000000000002</v>
       </c>
-      <c r="L185" s="25">
-        <f t="shared" si="22"/>
+      <c r="M185" s="25">
+        <f>AVERAGEIFS(L$24:L$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "&lt;2")</f>
         <v>8.299999999999999E-2</v>
       </c>
-      <c r="M185" s="25">
-        <f t="shared" si="22"/>
+      <c r="N185" s="25">
+        <f>AVERAGEIFS(M$24:M$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "&lt;2")</f>
         <v>8.4879999999999995</v>
       </c>
-      <c r="N185" s="25">
-        <f t="shared" si="22"/>
+      <c r="O185" s="25">
+        <f>AVERAGEIFS(N$24:N$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "&lt;2")</f>
         <v>0.47299999999999998</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A186" s="1" t="s">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A186" s="1">
+        <f>COUNTIFS($O$24:$O$149, "*Repaired", $S$24:$S$149, "&lt;2")</f>
+        <v>8</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B186" s="25">
-        <f t="shared" ref="B186:N186" si="23">AVERAGEIFS(B$24:B$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "&lt;2")</f>
+      <c r="C186" s="25">
+        <f>AVERAGEIFS(B$24:B$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "&lt;2")</f>
         <v>1.8137500000000002</v>
       </c>
-      <c r="C186" s="25">
-        <f t="shared" si="23"/>
+      <c r="D186" s="25">
+        <f>AVERAGEIFS(C$24:C$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "&lt;2")</f>
         <v>91.388750000000002</v>
       </c>
-      <c r="D186" s="25">
-        <f t="shared" si="23"/>
+      <c r="E186" s="25">
+        <f>AVERAGEIFS(D$24:D$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "&lt;2")</f>
         <v>6.1937499999999996</v>
       </c>
-      <c r="E186" s="25">
-        <f t="shared" si="23"/>
+      <c r="F186" s="25">
+        <f>AVERAGEIFS(E$24:E$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "&lt;2")</f>
         <v>4.8899999999999997</v>
       </c>
-      <c r="F186" s="25">
-        <f t="shared" si="23"/>
+      <c r="G186" s="25">
+        <f>AVERAGEIFS(F$24:F$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "&lt;2")</f>
         <v>3.7337499999999997</v>
       </c>
-      <c r="G186" s="25">
-        <f t="shared" si="23"/>
+      <c r="H186" s="25">
+        <f>AVERAGEIFS(G$24:G$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "&lt;2")</f>
         <v>1.3774999999999999</v>
       </c>
-      <c r="H186" s="25">
-        <f t="shared" si="23"/>
+      <c r="I186" s="25">
+        <f>AVERAGEIFS(H$24:H$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "&lt;2")</f>
         <v>6.2675000000000001</v>
       </c>
-      <c r="I186" s="25">
-        <f t="shared" si="23"/>
+      <c r="J186" s="25">
+        <f>AVERAGEIFS(I$24:I$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "&lt;2")</f>
         <v>9.9275000000000002</v>
       </c>
-      <c r="J186" s="25">
-        <f t="shared" si="23"/>
+      <c r="K186" s="25">
+        <f>AVERAGEIFS(J$24:J$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "&lt;2")</f>
         <v>20.771250000000002</v>
       </c>
-      <c r="K186" s="25">
-        <f t="shared" si="23"/>
+      <c r="L186" s="25">
+        <f>AVERAGEIFS(K$24:K$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "&lt;2")</f>
         <v>0.15125</v>
       </c>
-      <c r="L186" s="25">
-        <f t="shared" si="23"/>
+      <c r="M186" s="25">
+        <f>AVERAGEIFS(L$24:L$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "&lt;2")</f>
         <v>3.1875000000000001E-2</v>
       </c>
-      <c r="M186" s="25">
-        <f t="shared" si="23"/>
+      <c r="N186" s="25">
+        <f>AVERAGEIFS(M$24:M$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "&lt;2")</f>
         <v>4.4225000000000003</v>
       </c>
-      <c r="N186" s="25">
-        <f t="shared" si="23"/>
+      <c r="O186" s="25">
+        <f>AVERAGEIFS(N$24:N$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "&lt;2")</f>
         <v>0.24625000000000002</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B187" s="25"/>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C187" s="25"/>
       <c r="D187" s="25"/>
       <c r="E187" s="25"/>
@@ -11447,162 +11490,171 @@
       <c r="L187" s="25"/>
       <c r="M187" s="25"/>
       <c r="N187" s="25"/>
-    </row>
-    <row r="188" spans="1:14" ht="28.8" x14ac:dyDescent="0.35">
-      <c r="A188" s="13" t="s">
+      <c r="O187" s="25"/>
+    </row>
+    <row r="188" spans="1:15" ht="28.8" x14ac:dyDescent="0.35">
+      <c r="B188" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="B188" s="13" t="s">
+      <c r="C188" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="C188" s="13" t="s">
+      <c r="D188" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="D188" s="13" t="s">
+      <c r="E188" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="E188" s="13" t="s">
+      <c r="F188" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F188" s="13" t="s">
+      <c r="G188" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="G188" s="13" t="s">
+      <c r="H188" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H188" s="13" t="s">
+      <c r="I188" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="I188" s="13" t="s">
+      <c r="J188" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="J188" s="13" t="s">
+      <c r="K188" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="K188" s="13" t="s">
+      <c r="L188" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="L188" s="13" t="s">
+      <c r="M188" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="M188" s="13" t="s">
+      <c r="N188" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="N188" s="13" t="s">
+      <c r="O188" s="13" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A189" s="1" t="s">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A189" s="1">
+        <f>COUNTIFS($O$24:$O$149, "*Fixed", $S$24:$S$149, "&gt;1")</f>
+        <v>32</v>
+      </c>
+      <c r="B189" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B189" s="25">
-        <f t="shared" ref="B189:N189" si="24">AVERAGEIFS(B$24:B$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "&gt;1")</f>
+      <c r="C189" s="25">
+        <f>AVERAGEIFS(B$24:B$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "&gt;1")</f>
         <v>2.4790624999999999</v>
       </c>
-      <c r="C189" s="25">
-        <f t="shared" si="24"/>
+      <c r="D189" s="25">
+        <f>AVERAGEIFS(C$24:C$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "&gt;1")</f>
         <v>75.497187499999995</v>
       </c>
-      <c r="D189" s="25">
-        <f t="shared" si="24"/>
+      <c r="E189" s="25">
+        <f>AVERAGEIFS(D$24:D$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "&gt;1")</f>
         <v>12.701875000000001</v>
       </c>
-      <c r="E189" s="25">
-        <f t="shared" si="24"/>
+      <c r="F189" s="25">
+        <f>AVERAGEIFS(E$24:E$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "&gt;1")</f>
         <v>7.9131250000000044</v>
       </c>
-      <c r="F189" s="25">
-        <f t="shared" si="24"/>
+      <c r="G189" s="25">
+        <f>AVERAGEIFS(F$24:F$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "&gt;1")</f>
         <v>10.056562499999997</v>
       </c>
-      <c r="G189" s="25">
-        <f t="shared" si="24"/>
+      <c r="H189" s="25">
+        <f>AVERAGEIFS(G$24:G$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "&gt;1")</f>
         <v>2.7703125000000006</v>
       </c>
-      <c r="H189" s="25">
-        <f t="shared" si="24"/>
+      <c r="I189" s="25">
+        <f>AVERAGEIFS(H$24:H$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "&gt;1")</f>
         <v>10.684062500000003</v>
       </c>
-      <c r="I189" s="25">
-        <f t="shared" si="24"/>
+      <c r="J189" s="25">
+        <f>AVERAGEIFS(I$24:I$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "&gt;1")</f>
         <v>22.756875000000008</v>
       </c>
-      <c r="J189" s="25">
-        <f t="shared" si="24"/>
+      <c r="K189" s="25">
+        <f>AVERAGEIFS(J$24:J$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "&gt;1")</f>
         <v>49.708437499999988</v>
       </c>
-      <c r="K189" s="25">
-        <f t="shared" si="24"/>
+      <c r="L189" s="25">
+        <f>AVERAGEIFS(K$24:K$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "&gt;1")</f>
         <v>1.0462500000000001</v>
       </c>
-      <c r="L189" s="25">
-        <f t="shared" si="24"/>
+      <c r="M189" s="25">
+        <f>AVERAGEIFS(L$24:L$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "&gt;1")</f>
         <v>3.6562500000000019E-2</v>
       </c>
-      <c r="M189" s="25">
-        <f t="shared" si="24"/>
+      <c r="N189" s="25">
+        <f>AVERAGEIFS(M$24:M$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "&gt;1")</f>
         <v>16.090000000000007</v>
       </c>
-      <c r="N189" s="25">
-        <f t="shared" si="24"/>
+      <c r="O189" s="25">
+        <f>AVERAGEIFS(N$24:N$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "&gt;1")</f>
         <v>0.89412500000000017</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A190" s="1" t="s">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A190" s="1">
+        <f>COUNTIFS($O$24:$O$149, "*Repaired", $S$24:$S$149, "&gt;1")</f>
+        <v>34</v>
+      </c>
+      <c r="B190" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B190" s="25">
-        <f t="shared" ref="B190:N190" si="25">AVERAGEIFS(B$24:B$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "&gt;1")</f>
+      <c r="C190" s="25">
+        <f>AVERAGEIFS(B$24:B$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "&gt;1")</f>
         <v>2.2250000000000001</v>
       </c>
-      <c r="C190" s="25">
-        <f t="shared" si="25"/>
+      <c r="D190" s="25">
+        <f>AVERAGEIFS(C$24:C$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "&gt;1")</f>
         <v>76.149411764705874</v>
       </c>
-      <c r="D190" s="25">
-        <f t="shared" si="25"/>
+      <c r="E190" s="25">
+        <f>AVERAGEIFS(D$24:D$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "&gt;1")</f>
         <v>11.655882352941173</v>
       </c>
-      <c r="E190" s="25">
-        <f t="shared" si="25"/>
+      <c r="F190" s="25">
+        <f>AVERAGEIFS(E$24:E$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "&gt;1")</f>
         <v>7.8352941176470585</v>
       </c>
-      <c r="F190" s="25">
-        <f t="shared" si="25"/>
+      <c r="G190" s="25">
+        <f>AVERAGEIFS(F$24:F$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "&gt;1")</f>
         <v>8.9511764705882371</v>
       </c>
-      <c r="G190" s="25">
-        <f t="shared" si="25"/>
+      <c r="H190" s="25">
+        <f>AVERAGEIFS(G$24:G$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "&gt;1")</f>
         <v>2.6829411764705888</v>
       </c>
-      <c r="H190" s="25">
-        <f t="shared" si="25"/>
+      <c r="I190" s="25">
+        <f>AVERAGEIFS(H$24:H$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "&gt;1")</f>
         <v>10.51911764705882</v>
       </c>
-      <c r="I190" s="25">
-        <f t="shared" si="25"/>
+      <c r="J190" s="25">
+        <f>AVERAGEIFS(I$24:I$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "&gt;1")</f>
         <v>20.606764705882352</v>
       </c>
-      <c r="J190" s="25">
-        <f t="shared" si="25"/>
+      <c r="K190" s="25">
+        <f>AVERAGEIFS(J$24:J$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "&gt;1")</f>
         <v>47.790588235294123</v>
       </c>
-      <c r="K190" s="25">
-        <f t="shared" si="25"/>
+      <c r="L190" s="25">
+        <f>AVERAGEIFS(K$24:K$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "&gt;1")</f>
         <v>1.0502941176470586</v>
       </c>
-      <c r="L190" s="25">
-        <f t="shared" si="25"/>
+      <c r="M190" s="25">
+        <f>AVERAGEIFS(L$24:L$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "&gt;1")</f>
         <v>7.4752941176470578E-2</v>
       </c>
-      <c r="M190" s="25">
-        <f t="shared" si="25"/>
+      <c r="N190" s="25">
+        <f>AVERAGEIFS(M$24:M$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "&gt;1")</f>
         <v>19.098235294117643</v>
       </c>
-      <c r="N190" s="25">
-        <f t="shared" si="25"/>
+      <c r="O190" s="25">
+        <f>AVERAGEIFS(N$24:N$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "&gt;1")</f>
         <v>1.0615294117647058</v>
       </c>
     </row>
@@ -11696,55 +11748,55 @@
         <v>194</v>
       </c>
       <c r="C196" s="25">
-        <f t="shared" ref="C196:O196" si="26">AVERAGEIF($A$24:$A$149, "*albfernandez-GDS-PMD-Security*_Buggy", B$24:B$149)</f>
+        <f t="shared" ref="C196:O196" si="12">AVERAGEIF($A$24:$A$149, "*albfernandez-GDS-PMD-Security*_Buggy", B$24:B$149)</f>
         <v>3.218</v>
       </c>
       <c r="D196" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="12"/>
         <v>76.114000000000004</v>
       </c>
       <c r="E196" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="12"/>
         <v>11.389999999999999</v>
       </c>
       <c r="F196" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="12"/>
         <v>6.8020000000000014</v>
       </c>
       <c r="G196" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="12"/>
         <v>9.8800000000000008</v>
       </c>
       <c r="H196" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="12"/>
         <v>3.7</v>
       </c>
       <c r="I196" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="12"/>
         <v>10.5</v>
       </c>
       <c r="J196" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="12"/>
         <v>21.276</v>
       </c>
       <c r="K196" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="12"/>
         <v>46.86</v>
       </c>
       <c r="L196" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="12"/>
         <v>0.74199999999999999</v>
       </c>
       <c r="M196" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="12"/>
         <v>0.15</v>
       </c>
       <c r="N196" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="12"/>
         <v>21.845999999999997</v>
       </c>
       <c r="O196" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="12"/>
         <v>1.218</v>
       </c>
     </row>
@@ -11757,55 +11809,55 @@
         <v>195</v>
       </c>
       <c r="C197" s="25">
-        <f t="shared" ref="C197:O197" si="27">AVERAGEIF($A$24:$A$149, "*albfernandez-GDS-PMD-Security*_Fixed", B$24:B$149)</f>
+        <f t="shared" ref="C197:O197" si="13">AVERAGEIF($A$24:$A$149, "*albfernandez-GDS-PMD-Security*_Fixed", B$24:B$149)</f>
         <v>3.226</v>
       </c>
       <c r="D197" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="13"/>
         <v>76.013999999999996</v>
       </c>
       <c r="E197" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="13"/>
         <v>11.458</v>
       </c>
       <c r="F197" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="13"/>
         <v>6.8259999999999987</v>
       </c>
       <c r="G197" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="13"/>
         <v>9.8879999999999999</v>
       </c>
       <c r="H197" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="13"/>
         <v>3.6960000000000002</v>
       </c>
       <c r="I197" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="13"/>
         <v>10.52</v>
       </c>
       <c r="J197" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="13"/>
         <v>21.351999999999997</v>
       </c>
       <c r="K197" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="13"/>
         <v>47.007999999999996</v>
       </c>
       <c r="L197" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="13"/>
         <v>0.73799999999999999</v>
       </c>
       <c r="M197" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="13"/>
         <v>0.15</v>
       </c>
       <c r="N197" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="13"/>
         <v>21.745999999999999</v>
       </c>
       <c r="O197" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="13"/>
         <v>1.2100000000000002</v>
       </c>
     </row>
@@ -11818,55 +11870,55 @@
         <v>196</v>
       </c>
       <c r="C198" s="25">
-        <f t="shared" ref="C198:O198" si="28">AVERAGEIF($A$24:$A$149, "*albfernandez-GDS-PMD-Security*_Repaired", B$24:B$149)</f>
+        <f t="shared" ref="C198:O198" si="14">AVERAGEIF($A$24:$A$149, "*albfernandez-GDS-PMD-Security*_Repaired", B$24:B$149)</f>
         <v>3.1859999999999999</v>
       </c>
       <c r="D198" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="14"/>
         <v>76.397999999999996</v>
       </c>
       <c r="E198" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="14"/>
         <v>11.363999999999999</v>
       </c>
       <c r="F198" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="14"/>
         <v>6.7860000000000014</v>
       </c>
       <c r="G198" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="14"/>
         <v>9.7039999999999988</v>
       </c>
       <c r="H198" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="14"/>
         <v>3.6519999999999997</v>
       </c>
       <c r="I198" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="14"/>
         <v>10.436</v>
       </c>
       <c r="J198" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="14"/>
         <v>21.068000000000001</v>
       </c>
       <c r="K198" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="14"/>
         <v>46.462000000000003</v>
       </c>
       <c r="L198" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="14"/>
         <v>0.61199999999999999</v>
       </c>
       <c r="M198" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="14"/>
         <v>0.15212000000000001</v>
       </c>
       <c r="N198" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="14"/>
         <v>18.821999999999996</v>
       </c>
       <c r="O198" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="14"/>
         <v>1.046</v>
       </c>
     </row>
@@ -11923,55 +11975,55 @@
         <v>197</v>
       </c>
       <c r="C201" s="25">
-        <f t="shared" ref="C201:O201" si="29">AVERAGEIF($A$24:$A$149, "*dungba88-libra*_Buggy", B$24:B$149)</f>
+        <f t="shared" ref="C201:O201" si="15">AVERAGEIF($A$24:$A$149, "*dungba88-libra*_Buggy", B$24:B$149)</f>
         <v>1.7766666666666666</v>
       </c>
       <c r="D201" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="15"/>
         <v>89.11</v>
       </c>
       <c r="E201" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="15"/>
         <v>4.1100000000000003</v>
       </c>
       <c r="F201" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="15"/>
         <v>2.89</v>
       </c>
       <c r="G201" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="15"/>
         <v>2.7766666666666668</v>
       </c>
       <c r="H201" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="15"/>
         <v>1.4433333333333334</v>
       </c>
       <c r="I201" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="15"/>
         <v>4.3366666666666669</v>
       </c>
       <c r="J201" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="15"/>
         <v>6.8900000000000006</v>
       </c>
       <c r="K201" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="15"/>
         <v>13.39</v>
       </c>
       <c r="L201" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="15"/>
         <v>0.11333333333333334</v>
       </c>
       <c r="M201" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="15"/>
         <v>0.11333333333333334</v>
       </c>
       <c r="N201" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="15"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="O201" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="15"/>
         <v>3.7333333333333336E-2</v>
       </c>
     </row>
@@ -11984,55 +12036,55 @@
         <v>198</v>
       </c>
       <c r="C202" s="25">
-        <f t="shared" ref="C202:O202" si="30">AVERAGEIF($A$24:$A$149, "*dungba88-libra*_Fixed", B$24:B$149)</f>
+        <f t="shared" ref="C202:O202" si="16">AVERAGEIF($A$24:$A$149, "*dungba88-libra*_Fixed", B$24:B$149)</f>
         <v>2</v>
       </c>
       <c r="D202" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="16"/>
         <v>88.663333333333341</v>
       </c>
       <c r="E202" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="16"/>
         <v>4.5566666666666666</v>
       </c>
       <c r="F202" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="16"/>
         <v>3.0033333333333334</v>
       </c>
       <c r="G202" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="16"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="H202" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="16"/>
         <v>1.4433333333333334</v>
       </c>
       <c r="I202" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="16"/>
         <v>4.4466666666666663</v>
       </c>
       <c r="J202" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="16"/>
         <v>7.8900000000000006</v>
       </c>
       <c r="K202" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="16"/>
         <v>14.62</v>
       </c>
       <c r="L202" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="16"/>
         <v>0.11333333333333334</v>
       </c>
       <c r="M202" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="16"/>
         <v>0.11333333333333334</v>
       </c>
       <c r="N202" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="16"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="O202" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="16"/>
         <v>3.7333333333333336E-2</v>
       </c>
     </row>
@@ -12045,55 +12097,55 @@
         <v>199</v>
       </c>
       <c r="C203" s="25">
-        <f t="shared" ref="C203:O203" si="31">AVERAGEIF($A$24:$A$149, "*dungba88-libra*_Repaired", B$24:B$149)</f>
+        <f t="shared" ref="C203:O203" si="17">AVERAGEIF($A$24:$A$149, "*dungba88-libra*_Repaired", B$24:B$149)</f>
         <v>1.6633333333333333</v>
       </c>
       <c r="D203" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="17"/>
         <v>89.67</v>
       </c>
       <c r="E203" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="17"/>
         <v>3.5566666666666666</v>
       </c>
       <c r="F203" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="17"/>
         <v>2.89</v>
       </c>
       <c r="G203" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="17"/>
         <v>2.2233333333333332</v>
       </c>
       <c r="H203" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="17"/>
         <v>1.33</v>
       </c>
       <c r="I203" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="17"/>
         <v>4.2233333333333336</v>
       </c>
       <c r="J203" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="17"/>
         <v>5.7766666666666664</v>
       </c>
       <c r="K203" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="17"/>
         <v>12.07</v>
       </c>
       <c r="L203" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="17"/>
         <v>0.11333333333333334</v>
       </c>
       <c r="M203" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="17"/>
         <v>0.11333333333333334</v>
       </c>
       <c r="N203" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="17"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="O203" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="17"/>
         <v>3.7333333333333336E-2</v>
       </c>
     </row>
@@ -12150,55 +12202,55 @@
         <v>200</v>
       </c>
       <c r="C206" s="25">
-        <f t="shared" ref="C206:O206" si="32">AVERAGEIF($A$24:$A$149, "*julianps-modelmapper-module*_Buggy", B$24:B$149)</f>
+        <f t="shared" ref="C206:O206" si="18">AVERAGEIF($A$24:$A$149, "*julianps-modelmapper-module*_Buggy", B$24:B$149)</f>
         <v>1</v>
       </c>
       <c r="D206" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="18"/>
         <v>92</v>
       </c>
       <c r="E206" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="F206" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="G206" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="H206" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="I206" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="J206" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="18"/>
         <v>8</v>
       </c>
       <c r="K206" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="18"/>
         <v>15</v>
       </c>
       <c r="L206" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M206" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="N206" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O206" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -12211,55 +12263,55 @@
         <v>201</v>
       </c>
       <c r="C207" s="25">
-        <f t="shared" ref="C207:O207" si="33">AVERAGEIF($A$24:$A$149, "*julianps-modelmapper-module*_Fixed", B$24:B$149)</f>
+        <f t="shared" ref="C207:O207" si="19">AVERAGEIF($A$24:$A$149, "*julianps-modelmapper-module*_Fixed", B$24:B$149)</f>
         <v>1</v>
       </c>
       <c r="D207" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="19"/>
         <v>92</v>
       </c>
       <c r="E207" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="F207" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
       <c r="G207" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="H207" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="I207" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="J207" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
       <c r="K207" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="19"/>
         <v>15</v>
       </c>
       <c r="L207" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M207" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N207" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="O207" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -12272,55 +12324,55 @@
         <v>202</v>
       </c>
       <c r="C208" s="25">
-        <f t="shared" ref="C208:O208" si="34">AVERAGEIF($A$24:$A$149, "*julianps-modelmapper-module*_Repaired", B$24:B$149)</f>
+        <f t="shared" ref="C208:O208" si="20">AVERAGEIF($A$24:$A$149, "*julianps-modelmapper-module*_Repaired", B$24:B$149)</f>
         <v>1.1666666666666667</v>
       </c>
       <c r="D208" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="20"/>
         <v>96.666666666666671</v>
       </c>
       <c r="E208" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="20"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="F208" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="20"/>
         <v>4.166666666666667</v>
       </c>
       <c r="G208" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="20"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="H208" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="20"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="I208" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="20"/>
         <v>4.5</v>
       </c>
       <c r="J208" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
       <c r="K208" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="20"/>
         <v>8.9816666666666674</v>
       </c>
       <c r="L208" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="20"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="M208" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="20"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="N208" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="20"/>
         <v>7.3966666666666674</v>
       </c>
       <c r="O208" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="20"/>
         <v>0.41166666666666668</v>
       </c>
     </row>
@@ -12377,55 +12429,55 @@
         <v>203</v>
       </c>
       <c r="C211" s="25">
-        <f t="shared" ref="C211:O211" si="35">AVERAGEIF($A$24:$A$149, "*opentracing-contrib-java-p6sp*_Buggy", B$24:B$149)</f>
+        <f t="shared" ref="C211:O211" si="21">AVERAGEIF($A$24:$A$149, "*opentracing-contrib-java-p6sp*_Buggy", B$24:B$149)</f>
         <v>2.62</v>
       </c>
       <c r="D211" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="21"/>
         <v>79.849999999999994</v>
       </c>
       <c r="E211" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="21"/>
         <v>10.31</v>
       </c>
       <c r="F211" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="21"/>
         <v>5.54</v>
       </c>
       <c r="G211" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="21"/>
         <v>8.69</v>
       </c>
       <c r="H211" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="21"/>
         <v>3.31</v>
       </c>
       <c r="I211" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="21"/>
         <v>8.85</v>
       </c>
       <c r="J211" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="21"/>
         <v>19</v>
       </c>
       <c r="K211" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="21"/>
         <v>37.72</v>
       </c>
       <c r="L211" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M211" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N211" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O211" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -12438,55 +12490,55 @@
         <v>204</v>
       </c>
       <c r="C212" s="25">
-        <f t="shared" ref="C212:O212" si="36">AVERAGEIF($A$24:$A$149, "*opentracing-contrib-java-p6sp*_Fixed", B$24:B$149)</f>
+        <f t="shared" ref="C212:O212" si="22">AVERAGEIF($A$24:$A$149, "*opentracing-contrib-java-p6sp*_Fixed", B$24:B$149)</f>
         <v>2.57</v>
       </c>
       <c r="D212" s="25">
-        <f t="shared" si="36"/>
+        <f t="shared" si="22"/>
         <v>80.36</v>
       </c>
       <c r="E212" s="25">
-        <f t="shared" si="36"/>
+        <f t="shared" si="22"/>
         <v>9.7899999999999991</v>
       </c>
       <c r="F212" s="25">
-        <f t="shared" si="36"/>
+        <f t="shared" si="22"/>
         <v>5.43</v>
       </c>
       <c r="G212" s="25">
-        <f t="shared" si="36"/>
+        <f t="shared" si="22"/>
         <v>8.43</v>
       </c>
       <c r="H212" s="25">
-        <f t="shared" si="36"/>
+        <f t="shared" si="22"/>
         <v>3.3600000000000003</v>
       </c>
       <c r="I212" s="25">
-        <f t="shared" si="36"/>
+        <f t="shared" si="22"/>
         <v>8.7899999999999991</v>
       </c>
       <c r="J212" s="25">
-        <f t="shared" si="36"/>
+        <f t="shared" si="22"/>
         <v>18.21</v>
       </c>
       <c r="K212" s="25">
-        <f t="shared" si="36"/>
+        <f t="shared" si="22"/>
         <v>36.97</v>
       </c>
       <c r="L212" s="25">
-        <f t="shared" si="36"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M212" s="25">
-        <f t="shared" si="36"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N212" s="25">
-        <f t="shared" si="36"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O212" s="25">
-        <f t="shared" si="36"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -12499,55 +12551,55 @@
         <v>205</v>
       </c>
       <c r="C213" s="25">
-        <f t="shared" ref="C213:O213" si="37">AVERAGEIF($A$24:$A$149, "*opentracing-contrib-java-p6sp*_Repaired", B$24:B$149)</f>
+        <f t="shared" ref="C213:O213" si="23">AVERAGEIF($A$24:$A$149, "*opentracing-contrib-java-p6sp*_Repaired", B$24:B$149)</f>
         <v>2.54</v>
       </c>
       <c r="D213" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="23"/>
         <v>80.12</v>
       </c>
       <c r="E213" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="23"/>
         <v>10.044</v>
       </c>
       <c r="F213" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="23"/>
         <v>5.524</v>
       </c>
       <c r="G213" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="23"/>
         <v>8.3239999999999998</v>
       </c>
       <c r="H213" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="23"/>
         <v>3.1540000000000004</v>
       </c>
       <c r="I213" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="23"/>
         <v>8.68</v>
       </c>
       <c r="J213" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="23"/>
         <v>18.368000000000002</v>
       </c>
       <c r="K213" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="23"/>
         <v>36.53</v>
       </c>
       <c r="L213" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M213" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N213" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O213" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -12604,55 +12656,55 @@
         <v>206</v>
       </c>
       <c r="C216" s="25">
-        <f t="shared" ref="C216:O216" si="38">AVERAGEIF($A$24:$A$149, "*SzFMV2018-Tavasz-AutomatedCar*_Buggy", B$24:B$149)</f>
+        <f t="shared" ref="C216:O216" si="24">AVERAGEIF($A$24:$A$149, "*SzFMV2018-Tavasz-AutomatedCar*_Buggy", B$24:B$149)</f>
         <v>1</v>
       </c>
       <c r="D216" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="24"/>
         <v>74.569999999999993</v>
       </c>
       <c r="E216" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="24"/>
         <v>11</v>
       </c>
       <c r="F216" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="24"/>
         <v>9.86</v>
       </c>
       <c r="G216" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="24"/>
         <v>6.86</v>
       </c>
       <c r="H216" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="I216" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="24"/>
         <v>11.86</v>
       </c>
       <c r="J216" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="24"/>
         <v>17.86</v>
       </c>
       <c r="K216" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="24"/>
         <v>52.87</v>
       </c>
       <c r="L216" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="M216" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="24"/>
         <v>4.9999999999999996E-2</v>
       </c>
       <c r="N216" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="24"/>
         <v>30.41</v>
       </c>
       <c r="O216" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="24"/>
         <v>1.6899999999999997</v>
       </c>
     </row>
@@ -12665,55 +12717,55 @@
         <v>207</v>
       </c>
       <c r="C217" s="26">
-        <f t="shared" ref="C217:O217" si="39">AVERAGEIF($A$24:$A$149, "*SzFMV2018-Tavasz-AutomatedCar*_Fixed", B$24:B$149)</f>
+        <f t="shared" ref="C217:O217" si="25">AVERAGEIF($A$24:$A$149, "*SzFMV2018-Tavasz-AutomatedCar*_Fixed", B$24:B$149)</f>
         <v>1</v>
       </c>
       <c r="D217" s="26">
-        <f t="shared" si="39"/>
+        <f t="shared" si="25"/>
         <v>74.569999999999993</v>
       </c>
       <c r="E217" s="26">
-        <f t="shared" si="39"/>
+        <f t="shared" si="25"/>
         <v>11</v>
       </c>
       <c r="F217" s="26">
-        <f t="shared" si="39"/>
+        <f t="shared" si="25"/>
         <v>9.86</v>
       </c>
       <c r="G217" s="26">
-        <f t="shared" si="39"/>
+        <f t="shared" si="25"/>
         <v>6.71</v>
       </c>
       <c r="H217" s="26">
-        <f t="shared" si="39"/>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
       <c r="I217" s="26">
-        <f t="shared" si="39"/>
+        <f t="shared" si="25"/>
         <v>11.86</v>
       </c>
       <c r="J217" s="26">
-        <f t="shared" si="39"/>
+        <f t="shared" si="25"/>
         <v>17.710000000000004</v>
       </c>
       <c r="K217" s="26">
-        <f t="shared" si="39"/>
+        <f t="shared" si="25"/>
         <v>52.800000000000004</v>
       </c>
       <c r="L217" s="26">
-        <f t="shared" si="39"/>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
       <c r="M217" s="26">
-        <f t="shared" si="39"/>
+        <f t="shared" si="25"/>
         <v>4.9999999999999996E-2</v>
       </c>
       <c r="N217" s="26">
-        <f t="shared" si="39"/>
+        <f t="shared" si="25"/>
         <v>30.41</v>
       </c>
       <c r="O217" s="26">
-        <f t="shared" si="39"/>
+        <f t="shared" si="25"/>
         <v>1.6899999999999997</v>
       </c>
     </row>
@@ -12726,55 +12778,55 @@
         <v>208</v>
       </c>
       <c r="C218" s="26">
-        <f t="shared" ref="C218:O218" si="40">AVERAGEIF($A$24:$A$149, "*SzFMV2018-Tavasz-AutomatedCar*_Repaired", B$24:B$149)</f>
+        <f t="shared" ref="C218:O218" si="26">AVERAGEIF($A$24:$A$149, "*SzFMV2018-Tavasz-AutomatedCar*_Repaired", B$24:B$149)</f>
         <v>1.0233333333333332</v>
       </c>
       <c r="D218" s="26">
-        <f t="shared" si="40"/>
+        <f t="shared" si="26"/>
         <v>74.263333333333335</v>
       </c>
       <c r="E218" s="26">
-        <f t="shared" si="40"/>
+        <f t="shared" si="26"/>
         <v>10.998333333333335</v>
       </c>
       <c r="F218" s="26">
-        <f t="shared" si="40"/>
+        <f t="shared" si="26"/>
         <v>9.9533333333333331</v>
       </c>
       <c r="G218" s="26">
-        <f t="shared" si="40"/>
+        <f t="shared" si="26"/>
         <v>6.93</v>
       </c>
       <c r="H218" s="26">
-        <f t="shared" si="40"/>
+        <f t="shared" si="26"/>
         <v>2.0950000000000002</v>
       </c>
       <c r="I218" s="26">
-        <f t="shared" si="40"/>
+        <f t="shared" si="26"/>
         <v>12.048333333333332</v>
       </c>
       <c r="J218" s="26">
-        <f t="shared" si="40"/>
+        <f t="shared" si="26"/>
         <v>17.928333333333331</v>
       </c>
       <c r="K218" s="26">
-        <f t="shared" si="40"/>
+        <f t="shared" si="26"/>
         <v>53.723333333333329</v>
       </c>
       <c r="L218" s="26">
-        <f t="shared" si="40"/>
+        <f t="shared" si="26"/>
         <v>2.0483333333333333</v>
       </c>
       <c r="M218" s="26">
-        <f t="shared" si="40"/>
+        <f t="shared" si="26"/>
         <v>5.5333333333333325E-2</v>
       </c>
       <c r="N218" s="26">
-        <f t="shared" si="40"/>
+        <f t="shared" si="26"/>
         <v>35.678333333333335</v>
       </c>
       <c r="O218" s="26">
-        <f t="shared" si="40"/>
+        <f t="shared" si="26"/>
         <v>1.9833333333333332</v>
       </c>
     </row>
@@ -12831,55 +12883,55 @@
         <v>209</v>
       </c>
       <c r="C221" s="25">
-        <f t="shared" ref="C221:O221" si="41">AVERAGEIF($A$24:$A$149, "*traccar-traccar*_Buggy", B$24:B$149)</f>
+        <f t="shared" ref="C221:O221" si="27">AVERAGEIF($A$24:$A$149, "*traccar-traccar*_Buggy", B$24:B$149)</f>
         <v>5.75</v>
       </c>
       <c r="D221" s="25">
-        <f t="shared" si="41"/>
+        <f t="shared" si="27"/>
         <v>68.5</v>
       </c>
       <c r="E221" s="25">
-        <f t="shared" si="41"/>
+        <f t="shared" si="27"/>
         <v>22.25</v>
       </c>
       <c r="F221" s="25">
-        <f t="shared" si="41"/>
+        <f t="shared" si="27"/>
         <v>7.62</v>
       </c>
       <c r="G221" s="25">
-        <f t="shared" si="41"/>
+        <f t="shared" si="27"/>
         <v>21.62</v>
       </c>
       <c r="H221" s="25">
-        <f t="shared" si="41"/>
+        <f t="shared" si="27"/>
         <v>4.38</v>
       </c>
       <c r="I221" s="25">
-        <f t="shared" si="41"/>
+        <f t="shared" si="27"/>
         <v>12</v>
       </c>
       <c r="J221" s="25">
-        <f t="shared" si="41"/>
+        <f t="shared" si="27"/>
         <v>43.88</v>
       </c>
       <c r="K221" s="25">
-        <f t="shared" si="41"/>
+        <f t="shared" si="27"/>
         <v>66.92</v>
       </c>
       <c r="L221" s="25">
-        <f t="shared" si="41"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M221" s="25">
-        <f t="shared" si="41"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N221" s="25">
-        <f t="shared" si="41"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="O221" s="25">
-        <f t="shared" si="41"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
@@ -12892,55 +12944,55 @@
         <v>210</v>
       </c>
       <c r="C222" s="26">
-        <f t="shared" ref="C222:O222" si="42">AVERAGEIF($A$24:$A$149, "*traccar-traccar*_Fixed", B$24:B$149)</f>
+        <f t="shared" ref="C222:O222" si="28">AVERAGEIF($A$24:$A$149, "*traccar-traccar*_Fixed", B$24:B$149)</f>
         <v>5.88</v>
       </c>
       <c r="D222" s="26">
-        <f t="shared" si="42"/>
+        <f t="shared" si="28"/>
         <v>68.5</v>
       </c>
       <c r="E222" s="26">
-        <f t="shared" si="42"/>
+        <f t="shared" si="28"/>
         <v>22.5</v>
       </c>
       <c r="F222" s="26">
-        <f t="shared" si="42"/>
+        <f t="shared" si="28"/>
         <v>7.62</v>
       </c>
       <c r="G222" s="26">
-        <f t="shared" si="42"/>
+        <f t="shared" si="28"/>
         <v>22</v>
       </c>
       <c r="H222" s="26">
-        <f t="shared" si="42"/>
+        <f t="shared" si="28"/>
         <v>4.38</v>
       </c>
       <c r="I222" s="26">
-        <f t="shared" si="42"/>
+        <f t="shared" si="28"/>
         <v>12</v>
       </c>
       <c r="J222" s="26">
-        <f t="shared" si="42"/>
+        <f t="shared" si="28"/>
         <v>44.5</v>
       </c>
       <c r="K222" s="26">
-        <f t="shared" si="42"/>
+        <f t="shared" si="28"/>
         <v>67.08</v>
       </c>
       <c r="L222" s="26">
-        <f t="shared" si="42"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M222" s="26">
-        <f t="shared" si="42"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N222" s="26">
-        <f t="shared" si="42"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="O222" s="26">
-        <f t="shared" si="42"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
@@ -12953,55 +13005,55 @@
         <v>211</v>
       </c>
       <c r="C223" s="26">
-        <f t="shared" ref="C223:O223" si="43">AVERAGEIF($A$24:$A$149, "*traccar-traccar*_Repaired", B$24:B$149)</f>
+        <f t="shared" ref="C223:O223" si="29">AVERAGEIF($A$24:$A$149, "*traccar-traccar*_Repaired", B$24:B$149)</f>
         <v>5.3116666666666665</v>
       </c>
       <c r="D223" s="26">
-        <f t="shared" si="43"/>
+        <f t="shared" si="29"/>
         <v>68.916666666666671</v>
       </c>
       <c r="E223" s="26">
-        <f t="shared" si="43"/>
+        <f t="shared" si="29"/>
         <v>20.75</v>
       </c>
       <c r="F223" s="26">
-        <f t="shared" si="43"/>
+        <f t="shared" si="29"/>
         <v>7.52</v>
       </c>
       <c r="G223" s="26">
-        <f t="shared" si="43"/>
+        <f t="shared" si="29"/>
         <v>19.808333333333334</v>
       </c>
       <c r="H223" s="26">
-        <f t="shared" si="43"/>
+        <f t="shared" si="29"/>
         <v>4.38</v>
       </c>
       <c r="I223" s="26">
-        <f t="shared" si="43"/>
+        <f t="shared" si="29"/>
         <v>11.9</v>
       </c>
       <c r="J223" s="26">
-        <f t="shared" si="43"/>
+        <f t="shared" si="29"/>
         <v>40.55833333333333</v>
       </c>
       <c r="K223" s="26">
-        <f t="shared" si="43"/>
+        <f t="shared" si="29"/>
         <v>65.278333333333336</v>
       </c>
       <c r="L223" s="26">
-        <f t="shared" si="43"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="M223" s="26">
-        <f t="shared" si="43"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N223" s="26">
-        <f t="shared" si="43"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="O223" s="26">
-        <f t="shared" si="43"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -13101,47 +13153,47 @@
         <v>2.568461538461539</v>
       </c>
       <c r="D229" s="25">
-        <f t="shared" ref="D229:N229" si="44">AVERAGEIF($A$24:$A$149, "Arja*Fixed", C$24:C$149)</f>
+        <f t="shared" ref="D229:N229" si="30">AVERAGEIF($A$24:$A$149, "Arja*Fixed", C$24:C$149)</f>
         <v>79.533846153846127</v>
       </c>
       <c r="E229" s="25">
-        <f t="shared" si="44"/>
+        <f t="shared" si="30"/>
         <v>11.127692307692305</v>
       </c>
       <c r="F229" s="25">
-        <f t="shared" si="44"/>
+        <f t="shared" si="30"/>
         <v>6.3934615384615388</v>
       </c>
       <c r="G229" s="25">
-        <f t="shared" si="44"/>
+        <f t="shared" si="30"/>
         <v>9.1919230769230769</v>
       </c>
       <c r="H229" s="25">
-        <f t="shared" si="44"/>
+        <f t="shared" si="30"/>
         <v>2.6753846153846155</v>
       </c>
       <c r="I229" s="25">
-        <f t="shared" si="44"/>
+        <f t="shared" si="30"/>
         <v>9.0680769230769247</v>
       </c>
       <c r="J229" s="25">
-        <f t="shared" si="44"/>
+        <f t="shared" si="30"/>
         <v>20.318846153846152</v>
       </c>
       <c r="K229" s="25">
-        <f t="shared" si="44"/>
+        <f t="shared" si="30"/>
         <v>40.56807692307693</v>
       </c>
       <c r="L229" s="25">
-        <f t="shared" si="44"/>
+        <f t="shared" si="30"/>
         <v>0.51769230769230767</v>
       </c>
       <c r="M229" s="25">
-        <f t="shared" si="44"/>
+        <f t="shared" si="30"/>
         <v>5.0961538461538468E-2</v>
       </c>
       <c r="N229" s="25">
-        <f t="shared" si="44"/>
+        <f t="shared" si="30"/>
         <v>9.6007692307692292</v>
       </c>
       <c r="O229" s="25">
@@ -13162,51 +13214,51 @@
         <v>2.4215384615384616</v>
       </c>
       <c r="D230" s="29">
-        <f t="shared" ref="D230:O230" si="45">AVERAGEIF($A$24:$A$149, "Arja*Repaired", C$24:C$149)</f>
+        <f t="shared" ref="D230:O230" si="31">AVERAGEIF($A$24:$A$149, "Arja*Repaired", C$24:C$149)</f>
         <v>81.206923076923076</v>
       </c>
       <c r="E230" s="29">
-        <f t="shared" si="45"/>
+        <f t="shared" si="31"/>
         <v>10.330769230769231</v>
       </c>
       <c r="F230" s="29">
-        <f t="shared" si="45"/>
+        <f t="shared" si="31"/>
         <v>6.3992307692307691</v>
       </c>
       <c r="G230" s="29">
-        <f t="shared" si="45"/>
+        <f t="shared" si="31"/>
         <v>8.0784615384615392</v>
       </c>
       <c r="H230" s="29">
-        <f t="shared" si="45"/>
+        <f t="shared" si="31"/>
         <v>2.4384615384615387</v>
       </c>
       <c r="I230" s="29">
-        <f t="shared" si="45"/>
+        <f t="shared" si="31"/>
         <v>8.837692307692306</v>
       </c>
       <c r="J230" s="29">
-        <f t="shared" si="45"/>
+        <f t="shared" si="31"/>
         <v>18.408846153846152</v>
       </c>
       <c r="K230" s="29">
-        <f t="shared" si="45"/>
+        <f t="shared" si="31"/>
         <v>38.34269230769231</v>
       </c>
       <c r="L230" s="29">
-        <f t="shared" si="45"/>
+        <f t="shared" si="31"/>
         <v>0.50576923076923075</v>
       </c>
       <c r="M230" s="29">
-        <f t="shared" si="45"/>
+        <f t="shared" si="31"/>
         <v>5.296153846153847E-2</v>
       </c>
       <c r="N230" s="29">
-        <f t="shared" si="45"/>
+        <f t="shared" si="31"/>
         <v>10.267307692307693</v>
       </c>
       <c r="O230" s="29">
-        <f t="shared" si="45"/>
+        <f t="shared" si="31"/>
         <v>0.57084615384615389</v>
       </c>
     </row>
@@ -13223,51 +13275,51 @@
         <v>1</v>
       </c>
       <c r="D231" s="25">
-        <f t="shared" ref="D231:O231" si="46">AVERAGEIF($A$24:$A$149, "GenProg*Fixed", C$24:C$149)</f>
+        <f t="shared" ref="D231:O231" si="32">AVERAGEIF($A$24:$A$149, "GenProg*Fixed", C$24:C$149)</f>
         <v>74.569999999999993</v>
       </c>
       <c r="E231" s="25">
-        <f t="shared" si="46"/>
+        <f t="shared" si="32"/>
         <v>11</v>
       </c>
       <c r="F231" s="25">
-        <f t="shared" si="46"/>
+        <f t="shared" si="32"/>
         <v>9.86</v>
       </c>
       <c r="G231" s="25">
-        <f t="shared" si="46"/>
+        <f t="shared" si="32"/>
         <v>6.7099999999999991</v>
       </c>
       <c r="H231" s="25">
-        <f t="shared" si="46"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
       <c r="I231" s="25">
-        <f t="shared" si="46"/>
+        <f t="shared" si="32"/>
         <v>11.86</v>
       </c>
       <c r="J231" s="25">
-        <f t="shared" si="46"/>
+        <f t="shared" si="32"/>
         <v>17.71</v>
       </c>
       <c r="K231" s="25">
-        <f t="shared" si="46"/>
+        <f t="shared" si="32"/>
         <v>52.8</v>
       </c>
       <c r="L231" s="25">
-        <f t="shared" si="46"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
       <c r="M231" s="25">
-        <f t="shared" si="46"/>
+        <f t="shared" si="32"/>
         <v>0.05</v>
       </c>
       <c r="N231" s="25">
-        <f t="shared" si="46"/>
+        <f t="shared" si="32"/>
         <v>30.410000000000004</v>
       </c>
       <c r="O231" s="25">
-        <f t="shared" si="46"/>
+        <f t="shared" si="32"/>
         <v>1.69</v>
       </c>
     </row>
@@ -13284,51 +13336,51 @@
         <v>1</v>
       </c>
       <c r="D232" s="29">
-        <f t="shared" ref="D232:O232" si="47">AVERAGEIF($A$24:$A$149, "GenProg*Repaired", C$24:C$149)</f>
+        <f t="shared" ref="D232:O232" si="33">AVERAGEIF($A$24:$A$149, "GenProg*Repaired", C$24:C$149)</f>
         <v>73.486000000000004</v>
       </c>
       <c r="E232" s="29">
-        <f t="shared" si="47"/>
+        <f t="shared" si="33"/>
         <v>11.2</v>
       </c>
       <c r="F232" s="29">
-        <f t="shared" si="47"/>
+        <f t="shared" si="33"/>
         <v>10.370000000000001</v>
       </c>
       <c r="G232" s="29">
-        <f t="shared" si="47"/>
+        <f t="shared" si="33"/>
         <v>7.202</v>
       </c>
       <c r="H232" s="29">
-        <f t="shared" si="47"/>
+        <f t="shared" si="33"/>
         <v>2.2280000000000002</v>
       </c>
       <c r="I232" s="29">
-        <f t="shared" si="47"/>
+        <f t="shared" si="33"/>
         <v>12.6</v>
       </c>
       <c r="J232" s="29">
-        <f t="shared" si="47"/>
+        <f t="shared" si="33"/>
         <v>18.398000000000003</v>
       </c>
       <c r="K232" s="29">
-        <f t="shared" si="47"/>
+        <f t="shared" si="33"/>
         <v>56.54</v>
       </c>
       <c r="L232" s="29">
-        <f t="shared" si="47"/>
+        <f t="shared" si="33"/>
         <v>1.9440000000000002</v>
       </c>
       <c r="M232" s="29">
-        <f t="shared" si="47"/>
+        <f t="shared" si="33"/>
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="N232" s="29">
-        <f t="shared" si="47"/>
+        <f t="shared" si="33"/>
         <v>36.606000000000002</v>
       </c>
       <c r="O232" s="29">
-        <f t="shared" si="47"/>
+        <f t="shared" si="33"/>
         <v>2.0339999999999998</v>
       </c>
     </row>
@@ -13345,51 +13397,51 @@
         <v>3.0960000000000001</v>
       </c>
       <c r="D233" s="25">
-        <f t="shared" ref="D233:O233" si="48">AVERAGEIF($A$24:$A$149, "Kali*Fixed", C$24:C$149)</f>
+        <f t="shared" ref="D233:O233" si="34">AVERAGEIF($A$24:$A$149, "Kali*Fixed", C$24:C$149)</f>
         <v>78.08</v>
       </c>
       <c r="E233" s="25">
-        <f t="shared" si="48"/>
+        <f t="shared" si="34"/>
         <v>12.318000000000001</v>
       </c>
       <c r="F233" s="25">
-        <f t="shared" si="48"/>
+        <f t="shared" si="34"/>
         <v>6.5879999999999992</v>
       </c>
       <c r="G233" s="25">
-        <f t="shared" si="48"/>
+        <f t="shared" si="34"/>
         <v>10.571999999999999</v>
       </c>
       <c r="H233" s="25">
-        <f t="shared" si="48"/>
+        <f t="shared" si="34"/>
         <v>2.8659999999999997</v>
       </c>
       <c r="I233" s="25">
-        <f t="shared" si="48"/>
+        <f t="shared" si="34"/>
         <v>9.4559999999999995</v>
       </c>
       <c r="J233" s="25">
-        <f t="shared" si="48"/>
+        <f t="shared" si="34"/>
         <v>22.89</v>
       </c>
       <c r="K233" s="25">
-        <f t="shared" si="48"/>
+        <f t="shared" si="34"/>
         <v>43.652000000000001</v>
       </c>
       <c r="L233" s="25">
-        <f t="shared" si="48"/>
+        <f t="shared" si="34"/>
         <v>0.51400000000000001</v>
       </c>
       <c r="M233" s="25">
-        <f t="shared" si="48"/>
+        <f t="shared" si="34"/>
         <v>1.3000000000000001E-2</v>
       </c>
       <c r="N233" s="25">
-        <f t="shared" si="48"/>
+        <f t="shared" si="34"/>
         <v>8.7140000000000004</v>
       </c>
       <c r="O233" s="25">
-        <f t="shared" si="48"/>
+        <f t="shared" si="34"/>
         <v>0.48399999999999999</v>
       </c>
     </row>
@@ -13406,51 +13458,51 @@
         <v>3.1340000000000003</v>
       </c>
       <c r="D234" s="29">
-        <f t="shared" ref="D234:O234" si="49">AVERAGEIF($A$24:$A$149, "Kali*Repaired", C$24:C$149)</f>
+        <f t="shared" ref="D234:O234" si="35">AVERAGEIF($A$24:$A$149, "Kali*Repaired", C$24:C$149)</f>
         <v>75.86</v>
       </c>
       <c r="E234" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="35"/>
         <v>11.92</v>
       </c>
       <c r="F234" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="35"/>
         <v>6.7359999999999998</v>
       </c>
       <c r="G234" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="35"/>
         <v>10.24</v>
       </c>
       <c r="H234" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="35"/>
         <v>3.0939999999999999</v>
       </c>
       <c r="I234" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="35"/>
         <v>9.831999999999999</v>
       </c>
       <c r="J234" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="35"/>
         <v>22.16</v>
       </c>
       <c r="K234" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="35"/>
         <v>44.432000000000002</v>
       </c>
       <c r="L234" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="35"/>
         <v>0.90800000000000003</v>
       </c>
       <c r="M234" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="35"/>
         <v>0.11112000000000002</v>
       </c>
       <c r="N234" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="35"/>
         <v>17.521999999999998</v>
       </c>
       <c r="O234" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="35"/>
         <v>0.97399999999999998</v>
       </c>
     </row>
@@ -13467,51 +13519,51 @@
         <v>1.49</v>
       </c>
       <c r="D235" s="25">
-        <f t="shared" ref="D235:O235" si="50">AVERAGEIF($A$24:$A$149, "Nopol*Fixed", C$24:C$149)</f>
+        <f t="shared" ref="D235:O235" si="36">AVERAGEIF($A$24:$A$149, "Nopol*Fixed", C$24:C$149)</f>
         <v>89.41</v>
       </c>
       <c r="E235" s="25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="36"/>
         <v>5.92</v>
       </c>
       <c r="F235" s="25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="36"/>
         <v>3.31</v>
       </c>
       <c r="G235" s="25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="36"/>
         <v>3.69</v>
       </c>
       <c r="H235" s="25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="36"/>
         <v>1.92</v>
       </c>
       <c r="I235" s="25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="36"/>
         <v>5.23</v>
       </c>
       <c r="J235" s="25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="36"/>
         <v>9.6199999999999992</v>
       </c>
       <c r="K235" s="25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="36"/>
         <v>19.39</v>
       </c>
       <c r="L235" s="25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="36"/>
         <v>0.22</v>
       </c>
       <c r="M235" s="25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="36"/>
         <v>0.11</v>
       </c>
       <c r="N235" s="25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="36"/>
         <v>2.4700000000000002</v>
       </c>
       <c r="O235" s="25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="36"/>
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -13528,51 +13580,51 @@
         <v>1.53</v>
       </c>
       <c r="D236" s="29">
-        <f t="shared" ref="D236:O236" si="51">AVERAGEIF($A$24:$A$149, "Nopol*Repaired", C$24:C$149)</f>
+        <f t="shared" ref="D236:O236" si="37">AVERAGEIF($A$24:$A$149, "Nopol*Repaired", C$24:C$149)</f>
         <v>89.38</v>
       </c>
       <c r="E236" s="29">
-        <f t="shared" si="51"/>
+        <f t="shared" si="37"/>
         <v>5.95</v>
       </c>
       <c r="F236" s="29">
-        <f t="shared" si="51"/>
+        <f t="shared" si="37"/>
         <v>3.33</v>
       </c>
       <c r="G236" s="29">
-        <f t="shared" si="51"/>
+        <f t="shared" si="37"/>
         <v>3.82</v>
       </c>
       <c r="H236" s="29">
-        <f t="shared" si="51"/>
+        <f t="shared" si="37"/>
         <v>1.95</v>
       </c>
       <c r="I236" s="29">
-        <f t="shared" si="51"/>
+        <f t="shared" si="37"/>
         <v>5.28</v>
       </c>
       <c r="J236" s="29">
-        <f t="shared" si="51"/>
+        <f t="shared" si="37"/>
         <v>9.77</v>
       </c>
       <c r="K236" s="29">
-        <f t="shared" si="51"/>
+        <f t="shared" si="37"/>
         <v>19.79</v>
       </c>
       <c r="L236" s="29">
-        <f t="shared" si="51"/>
+        <f t="shared" si="37"/>
         <v>0.22</v>
       </c>
       <c r="M236" s="29">
-        <f t="shared" si="51"/>
+        <f t="shared" si="37"/>
         <v>0.11</v>
       </c>
       <c r="N236" s="29">
-        <f t="shared" si="51"/>
+        <f t="shared" si="37"/>
         <v>2.4700000000000002</v>
       </c>
       <c r="O236" s="29">
-        <f t="shared" si="51"/>
+        <f t="shared" si="37"/>
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -13589,51 +13641,51 @@
         <v>1</v>
       </c>
       <c r="D237" s="25">
-        <f t="shared" ref="D237:O237" si="52">AVERAGEIF($A$24:$A$149, "RSRepair*Fixed", C$24:C$149)</f>
+        <f t="shared" ref="D237:O237" si="38">AVERAGEIF($A$24:$A$149, "RSRepair*Fixed", C$24:C$149)</f>
         <v>74.569999999999993</v>
       </c>
       <c r="E237" s="25">
-        <f t="shared" si="52"/>
+        <f t="shared" si="38"/>
         <v>11</v>
       </c>
       <c r="F237" s="25">
-        <f t="shared" si="52"/>
+        <f t="shared" si="38"/>
         <v>9.86</v>
       </c>
       <c r="G237" s="25">
-        <f t="shared" si="52"/>
+        <f t="shared" si="38"/>
         <v>6.7099999999999991</v>
       </c>
       <c r="H237" s="25">
-        <f t="shared" si="52"/>
+        <f t="shared" si="38"/>
         <v>2</v>
       </c>
       <c r="I237" s="25">
-        <f t="shared" si="52"/>
+        <f t="shared" si="38"/>
         <v>11.86</v>
       </c>
       <c r="J237" s="25">
-        <f t="shared" si="52"/>
+        <f t="shared" si="38"/>
         <v>17.71</v>
       </c>
       <c r="K237" s="25">
-        <f t="shared" si="52"/>
+        <f t="shared" si="38"/>
         <v>52.8</v>
       </c>
       <c r="L237" s="25">
-        <f t="shared" si="52"/>
+        <f t="shared" si="38"/>
         <v>2</v>
       </c>
       <c r="M237" s="25">
-        <f t="shared" si="52"/>
+        <f t="shared" si="38"/>
         <v>0.05</v>
       </c>
       <c r="N237" s="25">
-        <f t="shared" si="52"/>
+        <f t="shared" si="38"/>
         <v>30.410000000000004</v>
       </c>
       <c r="O237" s="25">
-        <f t="shared" si="52"/>
+        <f t="shared" si="38"/>
         <v>1.69</v>
       </c>
     </row>
@@ -13650,51 +13702,51 @@
         <v>1</v>
       </c>
       <c r="D238" s="29">
-        <f t="shared" ref="D238:O238" si="53">AVERAGEIF($A$24:$A$149, "RSRepair*Repaired", C$24:C$149)</f>
+        <f t="shared" ref="D238:O238" si="39">AVERAGEIF($A$24:$A$149, "RSRepair*Repaired", C$24:C$149)</f>
         <v>74.539999999999992</v>
       </c>
       <c r="E238" s="29">
-        <f t="shared" si="53"/>
+        <f t="shared" si="39"/>
         <v>11.14</v>
       </c>
       <c r="F238" s="29">
-        <f t="shared" si="53"/>
+        <f t="shared" si="39"/>
         <v>10.056000000000001</v>
       </c>
       <c r="G238" s="29">
-        <f t="shared" si="53"/>
+        <f t="shared" si="39"/>
         <v>6.6280000000000001</v>
       </c>
       <c r="H238" s="29">
-        <f t="shared" si="53"/>
+        <f t="shared" si="39"/>
         <v>2.056</v>
       </c>
       <c r="I238" s="29">
-        <f t="shared" si="53"/>
+        <f t="shared" si="39"/>
         <v>12.114000000000001</v>
       </c>
       <c r="J238" s="29">
-        <f t="shared" si="53"/>
+        <f t="shared" si="39"/>
         <v>17.772000000000002</v>
       </c>
       <c r="K238" s="29">
-        <f t="shared" si="53"/>
+        <f t="shared" si="39"/>
         <v>53.898000000000003</v>
       </c>
       <c r="L238" s="29">
-        <f t="shared" si="53"/>
+        <f t="shared" si="39"/>
         <v>1.8579999999999999</v>
       </c>
       <c r="M238" s="29">
-        <f t="shared" si="53"/>
+        <f t="shared" si="39"/>
         <v>5.28E-2</v>
       </c>
       <c r="N238" s="29">
-        <f t="shared" si="53"/>
+        <f t="shared" si="39"/>
         <v>28.931999999999999</v>
       </c>
       <c r="O238" s="29">
-        <f t="shared" si="53"/>
+        <f t="shared" si="39"/>
         <v>1.6079999999999999</v>
       </c>
     </row>
@@ -13941,82 +13993,82 @@
     <sortCondition ref="O25:O150"/>
     <sortCondition ref="A25:A150"/>
   </sortState>
-  <conditionalFormatting sqref="B165:N165 B171:N171">
-    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
-      <formula>B164</formula>
+  <conditionalFormatting sqref="C165:O165 C171:O171">
+    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
+      <formula>C164</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="greaterThan">
-      <formula>B164</formula>
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="greaterThan">
+      <formula>C164</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B164:N164 B170:N170">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
-      <formula>B165</formula>
+  <conditionalFormatting sqref="C164:O164 C170:O170">
+    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
+      <formula>C165</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="18" operator="greaterThan">
-      <formula>B165</formula>
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="greaterThan">
+      <formula>C165</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P66:P149">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="15" operator="greaterThan">
       <formula>$P$70</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q66:Q149">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="14" operator="greaterThan">
       <formula>$P$70</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R66:R149">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="greaterThan">
       <formula>$P$70</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B182:N182 B178:N178 B186:N186 B190:N190">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
-      <formula>B177</formula>
+  <conditionalFormatting sqref="C182:O182 C178:O178 C186:O186 C190:O190">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
+      <formula>C177</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="greaterThan">
-      <formula>B177</formula>
+    <cfRule type="cellIs" dxfId="12" priority="11" operator="greaterThan">
+      <formula>C177</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B177:N177 B181:N181 B185:N185 B189:N189">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
-      <formula>B178</formula>
+  <conditionalFormatting sqref="C177:O177 C181:O181 C185:O185 C189:O189">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+      <formula>C178</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="greaterThan">
-      <formula>B178</formula>
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="greaterThan">
+      <formula>C178</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C198:O198 C203:O203 C208:O208 C213:O213 C218:O218 C223:O223">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>C197</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="greaterThan">
       <formula>C197</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C197:O197 C202:O202 C207:O207 C212:O212 C217:O217 C222:O222">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>C198</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
       <formula>C198</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C229:O229 C231:O231 C233:O233 C235:O235 C237:O237">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>C230</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
       <formula>C230</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C230:O230 C232:O232 C234:O234 C236:O236 C238:O238">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>C229</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>C229</formula>
     </cfRule>
   </conditionalFormatting>

--- a/3. Bears_and_Bugs.jar_Metrics/Bears_Complexity_42_Avg.xlsx
+++ b/3. Bears_and_Bugs.jar_Metrics/Bears_Complexity_42_Avg.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UROS\Desktop\VM Shared Folder\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UROS\Documents\GitHub\APR-PQA\3. Bears_and_Bugs.jar_Metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="223">
   <si>
     <t>Bears (analysis done Today 04:34 most recent)</t>
   </si>
@@ -1278,18 +1278,6 @@
     <t>Cyclomatic Complexity</t>
   </si>
   <si>
-    <t>Single-Avg-Fixed</t>
-  </si>
-  <si>
-    <t>Single-Avg-Repaired</t>
-  </si>
-  <si>
-    <t>Multi-Avg-Fixed</t>
-  </si>
-  <si>
-    <t>Multi-Avg-Repaired</t>
-  </si>
-  <si>
     <t>Project Type</t>
   </si>
   <si>
@@ -1381,6 +1369,51 @@
   </si>
   <si>
     <t>Avg-traccar-traccar-Repaired</t>
+  </si>
+  <si>
+    <t>Lines</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>Single-Chunk-Avg-Fixed</t>
+  </si>
+  <si>
+    <t>Single-Chunk-Avg-Repaired</t>
+  </si>
+  <si>
+    <t>Multi-Chunk-Avg-Fixed</t>
+  </si>
+  <si>
+    <t>Multi-Chunk-Avg-Repaired</t>
+  </si>
+  <si>
+    <t>Single-Chunk-Single-Edit-Avg-Fixed</t>
+  </si>
+  <si>
+    <t>Single-Chunk-Single-Edit-Avg-Repaired</t>
+  </si>
+  <si>
+    <t>Single-Chunk-Multi-Edits-Avg-Fixed</t>
+  </si>
+  <si>
+    <t>Single-Chunk-Multi-Edits-Avg-Repaired</t>
+  </si>
+  <si>
+    <t>Multi-Chunk-Single-Edit-Avg-Fixed</t>
+  </si>
+  <si>
+    <t>Multi-Chunk-Single-Edit-Avg-Repaired</t>
+  </si>
+  <si>
+    <t>Multi-Chunk-Multi-Edits-Avg-Fixed</t>
+  </si>
+  <si>
+    <t>Multi-Chunk-Multi-Edits-Avg-Repaired</t>
   </si>
 </sst>
 </file>
@@ -1801,7 +1834,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1968,6 +2001,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2013,7 +2057,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2086,6 +2130,8 @@
     <xf numFmtId="2" fontId="24" fillId="37" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2131,7 +2177,127 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="33">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2633,10 +2799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S252"/>
+  <dimension ref="A1:AF252"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A165" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A191" sqref="A191"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N158" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="T178" sqref="T178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
@@ -2747,32 +2913,32 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="28.8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" ht="28.8" x14ac:dyDescent="0.35">
       <c r="A23" s="13" t="s">
         <v>172</v>
       </c>
@@ -2827,8 +2993,11 @@
       <c r="R23" s="13" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S23" s="13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>145</v>
       </c>
@@ -2878,8 +3047,9 @@
       <c r="P24" s="12"/>
       <c r="Q24" s="12"/>
       <c r="R24" s="12"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S24" s="12"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>34</v>
       </c>
@@ -2929,8 +3099,9 @@
       <c r="P25" s="12"/>
       <c r="Q25" s="12"/>
       <c r="R25" s="12"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S25" s="12"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>96</v>
       </c>
@@ -2980,8 +3151,9 @@
       <c r="P26" s="12"/>
       <c r="Q26" s="12"/>
       <c r="R26" s="12"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S26" s="12"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>51</v>
       </c>
@@ -3031,8 +3203,9 @@
       <c r="P27" s="12"/>
       <c r="Q27" s="12"/>
       <c r="R27" s="12"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S27" s="12"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>42</v>
       </c>
@@ -3082,8 +3255,9 @@
       <c r="P28" s="12"/>
       <c r="Q28" s="12"/>
       <c r="R28" s="12"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S28" s="12"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>105</v>
       </c>
@@ -3133,8 +3307,9 @@
       <c r="P29" s="12"/>
       <c r="Q29" s="12"/>
       <c r="R29" s="12"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S29" s="12"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>79</v>
       </c>
@@ -3184,8 +3359,9 @@
       <c r="P30" s="12"/>
       <c r="Q30" s="12"/>
       <c r="R30" s="12"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S30" s="12"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>64</v>
       </c>
@@ -3235,8 +3411,9 @@
       <c r="P31" s="12"/>
       <c r="Q31" s="12"/>
       <c r="R31" s="12"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S31" s="12"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>73</v>
       </c>
@@ -3286,8 +3463,9 @@
       <c r="P32" s="12"/>
       <c r="Q32" s="12"/>
       <c r="R32" s="12"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S32" s="12"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>146</v>
       </c>
@@ -3337,8 +3515,9 @@
       <c r="P33" s="12"/>
       <c r="Q33" s="12"/>
       <c r="R33" s="12"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S33" s="12"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>68</v>
       </c>
@@ -3388,8 +3567,9 @@
       <c r="P34" s="12"/>
       <c r="Q34" s="12"/>
       <c r="R34" s="12"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S34" s="12"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>56</v>
       </c>
@@ -3439,8 +3619,9 @@
       <c r="P35" s="12"/>
       <c r="Q35" s="12"/>
       <c r="R35" s="12"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S35" s="12"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>84</v>
       </c>
@@ -3490,8 +3671,9 @@
       <c r="P36" s="12"/>
       <c r="Q36" s="12"/>
       <c r="R36" s="12"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S36" s="12"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>52</v>
       </c>
@@ -3541,8 +3723,9 @@
       <c r="P37" s="12"/>
       <c r="Q37" s="12"/>
       <c r="R37" s="12"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S37" s="12"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>122</v>
       </c>
@@ -3592,8 +3775,9 @@
       <c r="P38" s="12"/>
       <c r="Q38" s="12"/>
       <c r="R38" s="12"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S38" s="12"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>148</v>
       </c>
@@ -3643,8 +3827,9 @@
       <c r="P39" s="12"/>
       <c r="Q39" s="12"/>
       <c r="R39" s="12"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S39" s="12"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>97</v>
       </c>
@@ -3694,8 +3879,9 @@
       <c r="P40" s="12"/>
       <c r="Q40" s="12"/>
       <c r="R40" s="12"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S40" s="12"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>136</v>
       </c>
@@ -3745,8 +3931,9 @@
       <c r="P41" s="12"/>
       <c r="Q41" s="12"/>
       <c r="R41" s="12"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S41" s="12"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>147</v>
       </c>
@@ -3796,8 +3983,9 @@
       <c r="P42" s="12"/>
       <c r="Q42" s="12"/>
       <c r="R42" s="12"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S42" s="12"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
         <v>140</v>
       </c>
@@ -3847,8 +4035,9 @@
       <c r="P43" s="12"/>
       <c r="Q43" s="12"/>
       <c r="R43" s="12"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S43" s="12"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>103</v>
       </c>
@@ -3898,8 +4087,9 @@
       <c r="P44" s="12"/>
       <c r="Q44" s="12"/>
       <c r="R44" s="12"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S44" s="12"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>100</v>
       </c>
@@ -3949,8 +4139,9 @@
       <c r="P45" s="12"/>
       <c r="Q45" s="12"/>
       <c r="R45" s="12"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S45" s="12"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>75</v>
       </c>
@@ -4000,8 +4191,9 @@
       <c r="P46" s="12"/>
       <c r="Q46" s="12"/>
       <c r="R46" s="12"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S46" s="12"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
         <v>48</v>
       </c>
@@ -4051,8 +4243,9 @@
       <c r="P47" s="12"/>
       <c r="Q47" s="12"/>
       <c r="R47" s="12"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S47" s="12"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>99</v>
       </c>
@@ -4102,8 +4295,9 @@
       <c r="P48" s="12"/>
       <c r="Q48" s="12"/>
       <c r="R48" s="12"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S48" s="12"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>57</v>
       </c>
@@ -4153,8 +4347,9 @@
       <c r="P49" s="12"/>
       <c r="Q49" s="12"/>
       <c r="R49" s="12"/>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S49" s="12"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
         <v>28</v>
       </c>
@@ -4204,8 +4399,9 @@
       <c r="P50" s="12"/>
       <c r="Q50" s="12"/>
       <c r="R50" s="12"/>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S50" s="12"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>91</v>
       </c>
@@ -4255,8 +4451,9 @@
       <c r="P51" s="12"/>
       <c r="Q51" s="12"/>
       <c r="R51" s="12"/>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S51" s="12"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>32</v>
       </c>
@@ -4306,8 +4503,9 @@
       <c r="P52" s="12"/>
       <c r="Q52" s="12"/>
       <c r="R52" s="12"/>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S52" s="12"/>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>139</v>
       </c>
@@ -4357,8 +4555,9 @@
       <c r="P53" s="12"/>
       <c r="Q53" s="12"/>
       <c r="R53" s="12"/>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S53" s="12"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
         <v>59</v>
       </c>
@@ -4408,8 +4607,9 @@
       <c r="P54" s="12"/>
       <c r="Q54" s="12"/>
       <c r="R54" s="12"/>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S54" s="12"/>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
         <v>108</v>
       </c>
@@ -4459,8 +4659,9 @@
       <c r="P55" s="12"/>
       <c r="Q55" s="12"/>
       <c r="R55" s="12"/>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S55" s="12"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
         <v>41</v>
       </c>
@@ -4510,8 +4711,9 @@
       <c r="P56" s="12"/>
       <c r="Q56" s="12"/>
       <c r="R56" s="12"/>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S56" s="12"/>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
         <v>124</v>
       </c>
@@ -4561,8 +4763,9 @@
       <c r="P57" s="12"/>
       <c r="Q57" s="12"/>
       <c r="R57" s="12"/>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S57" s="12"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
         <v>43</v>
       </c>
@@ -4612,8 +4815,9 @@
       <c r="P58" s="12"/>
       <c r="Q58" s="12"/>
       <c r="R58" s="12"/>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S58" s="12"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
         <v>85</v>
       </c>
@@ -4663,8 +4867,9 @@
       <c r="P59" s="12"/>
       <c r="Q59" s="12"/>
       <c r="R59" s="12"/>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S59" s="12"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
         <v>26</v>
       </c>
@@ -4714,8 +4919,9 @@
       <c r="P60" s="12"/>
       <c r="Q60" s="12"/>
       <c r="R60" s="12"/>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S60" s="12"/>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
         <v>112</v>
       </c>
@@ -4765,8 +4971,9 @@
       <c r="P61" s="12"/>
       <c r="Q61" s="12"/>
       <c r="R61" s="12"/>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S61" s="12"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
         <v>61</v>
       </c>
@@ -4816,8 +5023,9 @@
       <c r="P62" s="12"/>
       <c r="Q62" s="12"/>
       <c r="R62" s="12"/>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S62" s="12"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
         <v>25</v>
       </c>
@@ -4867,8 +5075,9 @@
       <c r="P63" s="12"/>
       <c r="Q63" s="12"/>
       <c r="R63" s="12"/>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S63" s="12"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
         <v>60</v>
       </c>
@@ -4918,8 +5127,9 @@
       <c r="P64" s="12"/>
       <c r="Q64" s="12"/>
       <c r="R64" s="12"/>
-    </row>
-    <row r="65" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="S64" s="12"/>
+    </row>
+    <row r="65" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="21" t="s">
         <v>78</v>
       </c>
@@ -4969,8 +5179,9 @@
       <c r="P65" s="20"/>
       <c r="Q65" s="20"/>
       <c r="R65" s="20"/>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S65" s="20"/>
+    </row>
+    <row r="66" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A66" s="15" t="s">
         <v>45</v>
       </c>
@@ -5026,12 +5237,27 @@
       <c r="R66" s="12">
         <v>0</v>
       </c>
-      <c r="S66" s="1">
-        <f>Q66+R66</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S66" s="6">
+        <v>0</v>
+      </c>
+      <c r="U66" s="1" t="str">
+        <f>IF(AND(P66&gt;1,P66=S66), "YES", "NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="V66" s="1" t="str">
+        <f>IF(AND(P66&gt;1,P66&lt;S66), "YES", "NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="W66" t="str">
+        <f>IF(AND(P66&gt;1,P108&gt;1,P66=S66,P108=S108), "YES", "NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="X66" t="str">
+        <f>IF(AND(P66&gt;1,P108&gt;1,P66&lt;S66,P108&lt;S108), "YES", "NO")</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
         <v>137</v>
       </c>
@@ -5087,12 +5313,27 @@
       <c r="R67" s="12">
         <v>0</v>
       </c>
-      <c r="S67" s="1">
-        <f t="shared" ref="S67:S130" si="2">Q67+R67</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S67" s="6">
+        <v>0</v>
+      </c>
+      <c r="U67" s="1" t="str">
+        <f t="shared" ref="U67:U130" si="2">IF(AND(P67&gt;1,P67=S67), "YES", "NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="V67" s="1" t="str">
+        <f t="shared" ref="V67:V130" si="3">IF(AND(P67&gt;1,P67&lt;S67), "YES", "NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="W67" t="str">
+        <f t="shared" ref="W67:W130" si="4">IF(AND(P67&gt;1,P109&gt;1,P67=S67,P109=S109), "YES", "NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="X67" t="str">
+        <f t="shared" ref="X67:X130" si="5">IF(AND(P67&gt;1,P109&gt;1,P67&lt;S67,P109&lt;S109), "YES", "NO")</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
         <v>80</v>
       </c>
@@ -5143,17 +5384,32 @@
         <v>2</v>
       </c>
       <c r="Q68" s="12">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="R68" s="12">
+        <v>0</v>
+      </c>
+      <c r="S68" s="6">
         <v>24</v>
       </c>
-      <c r="S68" s="1">
+      <c r="U68" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
+        <v>NO</v>
+      </c>
+      <c r="V68" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>YES</v>
+      </c>
+      <c r="W68" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="X68" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>109</v>
       </c>
@@ -5209,12 +5465,27 @@
       <c r="R69" s="12">
         <v>0</v>
       </c>
-      <c r="S69" s="1">
+      <c r="S69" s="6">
+        <v>0</v>
+      </c>
+      <c r="U69" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
+        <v>NO</v>
+      </c>
+      <c r="V69" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="W69" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="X69" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>67</v>
       </c>
@@ -5270,12 +5541,27 @@
       <c r="R70" s="12">
         <v>52</v>
       </c>
-      <c r="S70" s="1">
+      <c r="S70" s="6">
+        <v>52</v>
+      </c>
+      <c r="U70" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>104</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
+        <v>NO</v>
+      </c>
+      <c r="V70" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="W70" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="X70" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
         <v>55</v>
       </c>
@@ -5331,12 +5617,27 @@
       <c r="R71" s="12">
         <v>52</v>
       </c>
-      <c r="S71" s="1">
+      <c r="S71" s="6">
+        <v>52</v>
+      </c>
+      <c r="U71" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>104</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
+        <v>NO</v>
+      </c>
+      <c r="V71" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="W71" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="X71" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
         <v>111</v>
       </c>
@@ -5392,12 +5693,27 @@
       <c r="R72" s="12">
         <v>0</v>
       </c>
-      <c r="S72" s="1">
+      <c r="S72" s="6">
+        <v>0</v>
+      </c>
+      <c r="U72" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
+        <v>NO</v>
+      </c>
+      <c r="V72" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="W72" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="X72" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
         <v>93</v>
       </c>
@@ -5453,12 +5769,27 @@
       <c r="R73" s="12">
         <v>0</v>
       </c>
-      <c r="S73" s="1">
+      <c r="S73" s="6">
+        <v>0</v>
+      </c>
+      <c r="U73" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
+        <v>NO</v>
+      </c>
+      <c r="V73" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="W73" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="X73" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
         <v>116</v>
       </c>
@@ -5514,12 +5845,27 @@
       <c r="R74" s="12">
         <v>0</v>
       </c>
-      <c r="S74" s="1">
+      <c r="S74" s="6">
+        <v>0</v>
+      </c>
+      <c r="U74" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
+        <v>NO</v>
+      </c>
+      <c r="V74" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="W74" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="X74" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A75" s="7" t="s">
         <v>40</v>
       </c>
@@ -5575,12 +5921,27 @@
       <c r="R75" s="12">
         <v>0</v>
       </c>
-      <c r="S75" s="1">
+      <c r="S75" s="6">
+        <v>0</v>
+      </c>
+      <c r="U75" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
+        <v>NO</v>
+      </c>
+      <c r="V75" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="W75" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="X75" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
         <v>49</v>
       </c>
@@ -5636,12 +5997,27 @@
       <c r="R76" s="12">
         <v>0</v>
       </c>
-      <c r="S76" s="1">
+      <c r="S76" s="6">
+        <v>0</v>
+      </c>
+      <c r="U76" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
+        <v>NO</v>
+      </c>
+      <c r="V76" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="W76" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="X76" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A77" s="7" t="s">
         <v>120</v>
       </c>
@@ -5692,17 +6068,32 @@
         <v>4</v>
       </c>
       <c r="Q77" s="12">
+        <v>18</v>
+      </c>
+      <c r="R77" s="12">
         <v>8</v>
       </c>
-      <c r="R77" s="12">
+      <c r="S77" s="6">
         <v>18</v>
       </c>
-      <c r="S77" s="1">
+      <c r="U77" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
+        <v>NO</v>
+      </c>
+      <c r="V77" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>YES</v>
+      </c>
+      <c r="W77" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="X77" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A78" s="7" t="s">
         <v>72</v>
       </c>
@@ -5753,17 +6144,32 @@
         <v>4</v>
       </c>
       <c r="Q78" s="12">
+        <v>18</v>
+      </c>
+      <c r="R78" s="12">
         <v>8</v>
       </c>
-      <c r="R78" s="12">
+      <c r="S78" s="6">
         <v>18</v>
       </c>
-      <c r="S78" s="1">
+      <c r="U78" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
+        <v>NO</v>
+      </c>
+      <c r="V78" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>YES</v>
+      </c>
+      <c r="W78" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="X78" t="str">
+        <f t="shared" si="5"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A79" s="7" t="s">
         <v>58</v>
       </c>
@@ -5814,17 +6220,32 @@
         <v>4</v>
       </c>
       <c r="Q79" s="12">
+        <v>18</v>
+      </c>
+      <c r="R79" s="12">
         <v>8</v>
       </c>
-      <c r="R79" s="12">
+      <c r="S79" s="6">
         <v>18</v>
       </c>
-      <c r="S79" s="1">
+      <c r="U79" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
+        <v>NO</v>
+      </c>
+      <c r="V79" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>YES</v>
+      </c>
+      <c r="W79" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="X79" t="str">
+        <f t="shared" si="5"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
         <v>135</v>
       </c>
@@ -5875,17 +6296,32 @@
         <v>4</v>
       </c>
       <c r="Q80" s="12">
+        <v>18</v>
+      </c>
+      <c r="R80" s="12">
         <v>8</v>
       </c>
-      <c r="R80" s="12">
+      <c r="S80" s="6">
         <v>18</v>
       </c>
-      <c r="S80" s="1">
+      <c r="U80" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
+        <v>NO</v>
+      </c>
+      <c r="V80" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>YES</v>
+      </c>
+      <c r="W80" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="X80" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
         <v>27</v>
       </c>
@@ -5936,17 +6372,32 @@
         <v>4</v>
       </c>
       <c r="Q81" s="12">
+        <v>18</v>
+      </c>
+      <c r="R81" s="12">
         <v>8</v>
       </c>
-      <c r="R81" s="12">
+      <c r="S81" s="6">
         <v>18</v>
       </c>
-      <c r="S81" s="1">
+      <c r="U81" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
+        <v>NO</v>
+      </c>
+      <c r="V81" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>YES</v>
+      </c>
+      <c r="W81" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="X81" t="str">
+        <f t="shared" si="5"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
         <v>31</v>
       </c>
@@ -6002,12 +6453,27 @@
       <c r="R82" s="12">
         <v>1</v>
       </c>
-      <c r="S82" s="1">
+      <c r="S82" s="6">
+        <v>1</v>
+      </c>
+      <c r="U82" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
+        <v>NO</v>
+      </c>
+      <c r="V82" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="W82" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="X82" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
         <v>141</v>
       </c>
@@ -6063,12 +6529,27 @@
       <c r="R83" s="12">
         <v>1</v>
       </c>
-      <c r="S83" s="1">
+      <c r="S83" s="6">
+        <v>1</v>
+      </c>
+      <c r="U83" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
+        <v>NO</v>
+      </c>
+      <c r="V83" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="W83" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="X83" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
         <v>65</v>
       </c>
@@ -6124,12 +6605,27 @@
       <c r="R84" s="12">
         <v>1</v>
       </c>
-      <c r="S84" s="1">
+      <c r="S84" s="6">
+        <v>1</v>
+      </c>
+      <c r="U84" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
+        <v>NO</v>
+      </c>
+      <c r="V84" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="W84" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="X84" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A85" s="7" t="s">
         <v>94</v>
       </c>
@@ -6185,12 +6681,27 @@
       <c r="R85" s="12">
         <v>1</v>
       </c>
-      <c r="S85" s="1">
+      <c r="S85" s="6">
+        <v>1</v>
+      </c>
+      <c r="U85" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
+        <v>NO</v>
+      </c>
+      <c r="V85" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="W85" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="X85" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
         <v>53</v>
       </c>
@@ -6246,12 +6757,27 @@
       <c r="R86" s="12">
         <v>1</v>
       </c>
-      <c r="S86" s="1">
+      <c r="S86" s="6">
+        <v>1</v>
+      </c>
+      <c r="U86" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
+        <v>NO</v>
+      </c>
+      <c r="V86" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="W86" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="X86" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
         <v>35</v>
       </c>
@@ -6307,12 +6833,27 @@
       <c r="R87" s="12">
         <v>1</v>
       </c>
-      <c r="S87" s="1">
+      <c r="S87" s="6">
+        <v>1</v>
+      </c>
+      <c r="U87" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
+        <v>NO</v>
+      </c>
+      <c r="V87" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="W87" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="X87" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
         <v>39</v>
       </c>
@@ -6356,7 +6897,7 @@
         <v>0</v>
       </c>
       <c r="O88" s="12" t="str">
-        <f t="shared" ref="O88:O119" si="3">IF(NOT(ISERR(SEARCH("*_Buggy",$A88))), "Buggy", IF(NOT(ISERR(SEARCH("*_Fixed",$A88))), "Fixed", IF(NOT(ISERR(SEARCH("*_Repaired",$A88))), "Repaired", "")))</f>
+        <f t="shared" ref="O88:O119" si="6">IF(NOT(ISERR(SEARCH("*_Buggy",$A88))), "Buggy", IF(NOT(ISERR(SEARCH("*_Fixed",$A88))), "Fixed", IF(NOT(ISERR(SEARCH("*_Repaired",$A88))), "Repaired", "")))</f>
         <v>Fixed</v>
       </c>
       <c r="P88" s="12">
@@ -6368,12 +6909,27 @@
       <c r="R88" s="12">
         <v>1</v>
       </c>
-      <c r="S88" s="1">
+      <c r="S88" s="6">
+        <v>1</v>
+      </c>
+      <c r="U88" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
+        <v>NO</v>
+      </c>
+      <c r="V88" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="W88" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="X88" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
         <v>115</v>
       </c>
@@ -6417,24 +6973,39 @@
         <v>0</v>
       </c>
       <c r="O89" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>Fixed</v>
+      </c>
+      <c r="P89" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q89" s="12">
+        <v>1</v>
+      </c>
+      <c r="R89" s="12">
+        <v>1</v>
+      </c>
+      <c r="S89" s="6">
+        <v>1</v>
+      </c>
+      <c r="U89" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NO</v>
+      </c>
+      <c r="V89" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Fixed</v>
-      </c>
-      <c r="P89" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q89" s="12">
-        <v>1</v>
-      </c>
-      <c r="R89" s="12">
-        <v>1</v>
-      </c>
-      <c r="S89" s="1">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
+        <v>NO</v>
+      </c>
+      <c r="W89" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="X89" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A90" s="7" t="s">
         <v>118</v>
       </c>
@@ -6478,24 +7049,39 @@
         <v>0</v>
       </c>
       <c r="O90" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>Fixed</v>
+      </c>
+      <c r="P90" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q90" s="12">
+        <v>1</v>
+      </c>
+      <c r="R90" s="12">
+        <v>1</v>
+      </c>
+      <c r="S90" s="6">
+        <v>1</v>
+      </c>
+      <c r="U90" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NO</v>
+      </c>
+      <c r="V90" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Fixed</v>
-      </c>
-      <c r="P90" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q90" s="12">
-        <v>1</v>
-      </c>
-      <c r="R90" s="12">
-        <v>1</v>
-      </c>
-      <c r="S90" s="1">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
+        <v>NO</v>
+      </c>
+      <c r="W90" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="X90" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A91" s="7" t="s">
         <v>128</v>
       </c>
@@ -6539,24 +7125,39 @@
         <v>0</v>
       </c>
       <c r="O91" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>Fixed</v>
+      </c>
+      <c r="P91" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q91" s="12">
+        <v>1</v>
+      </c>
+      <c r="R91" s="12">
+        <v>1</v>
+      </c>
+      <c r="S91" s="6">
+        <v>1</v>
+      </c>
+      <c r="U91" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NO</v>
+      </c>
+      <c r="V91" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Fixed</v>
-      </c>
-      <c r="P91" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q91" s="12">
-        <v>1</v>
-      </c>
-      <c r="R91" s="12">
-        <v>1</v>
-      </c>
-      <c r="S91" s="1">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
+        <v>NO</v>
+      </c>
+      <c r="W91" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="X91" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A92" s="7" t="s">
         <v>24</v>
       </c>
@@ -6600,24 +7201,39 @@
         <v>1.69</v>
       </c>
       <c r="O92" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>Fixed</v>
+      </c>
+      <c r="P92" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q92" s="12">
+        <v>1</v>
+      </c>
+      <c r="R92" s="12">
+        <v>1</v>
+      </c>
+      <c r="S92" s="6">
+        <v>1</v>
+      </c>
+      <c r="U92" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NO</v>
+      </c>
+      <c r="V92" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Fixed</v>
-      </c>
-      <c r="P92" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q92" s="12">
-        <v>1</v>
-      </c>
-      <c r="R92" s="12">
-        <v>1</v>
-      </c>
-      <c r="S92" s="1">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
+        <v>NO</v>
+      </c>
+      <c r="W92" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="X92" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
         <v>101</v>
       </c>
@@ -6661,24 +7277,39 @@
         <v>1.69</v>
       </c>
       <c r="O93" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>Fixed</v>
+      </c>
+      <c r="P93" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q93" s="12">
+        <v>1</v>
+      </c>
+      <c r="R93" s="12">
+        <v>1</v>
+      </c>
+      <c r="S93" s="6">
+        <v>1</v>
+      </c>
+      <c r="U93" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NO</v>
+      </c>
+      <c r="V93" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Fixed</v>
-      </c>
-      <c r="P93" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q93" s="12">
-        <v>1</v>
-      </c>
-      <c r="R93" s="12">
-        <v>1</v>
-      </c>
-      <c r="S93" s="1">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
+        <v>NO</v>
+      </c>
+      <c r="W93" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="X93" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A94" s="7" t="s">
         <v>54</v>
       </c>
@@ -6722,24 +7353,39 @@
         <v>1.69</v>
       </c>
       <c r="O94" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>Fixed</v>
+      </c>
+      <c r="P94" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q94" s="12">
+        <v>1</v>
+      </c>
+      <c r="R94" s="12">
+        <v>1</v>
+      </c>
+      <c r="S94" s="6">
+        <v>1</v>
+      </c>
+      <c r="U94" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NO</v>
+      </c>
+      <c r="V94" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Fixed</v>
-      </c>
-      <c r="P94" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q94" s="12">
-        <v>1</v>
-      </c>
-      <c r="R94" s="12">
-        <v>1</v>
-      </c>
-      <c r="S94" s="1">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
+        <v>NO</v>
+      </c>
+      <c r="W94" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="X94" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
         <v>37</v>
       </c>
@@ -6783,24 +7429,39 @@
         <v>1.69</v>
       </c>
       <c r="O95" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>Fixed</v>
+      </c>
+      <c r="P95" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q95" s="12">
+        <v>1</v>
+      </c>
+      <c r="R95" s="12">
+        <v>1</v>
+      </c>
+      <c r="S95" s="6">
+        <v>1</v>
+      </c>
+      <c r="U95" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NO</v>
+      </c>
+      <c r="V95" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Fixed</v>
-      </c>
-      <c r="P95" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q95" s="12">
-        <v>1</v>
-      </c>
-      <c r="R95" s="12">
-        <v>1</v>
-      </c>
-      <c r="S95" s="1">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
+        <v>NO</v>
+      </c>
+      <c r="W95" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="X95" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
         <v>121</v>
       </c>
@@ -6844,24 +7505,39 @@
         <v>1.69</v>
       </c>
       <c r="O96" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>Fixed</v>
+      </c>
+      <c r="P96" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q96" s="12">
+        <v>1</v>
+      </c>
+      <c r="R96" s="12">
+        <v>1</v>
+      </c>
+      <c r="S96" s="6">
+        <v>1</v>
+      </c>
+      <c r="U96" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NO</v>
+      </c>
+      <c r="V96" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Fixed</v>
-      </c>
-      <c r="P96" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q96" s="12">
-        <v>1</v>
-      </c>
-      <c r="R96" s="12">
-        <v>1</v>
-      </c>
-      <c r="S96" s="1">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
+        <v>NO</v>
+      </c>
+      <c r="W96" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="X96" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A97" s="7" t="s">
         <v>36</v>
       </c>
@@ -6905,24 +7581,39 @@
         <v>0.73</v>
       </c>
       <c r="O97" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Fixed</v>
       </c>
       <c r="P97" s="12">
         <v>2</v>
       </c>
       <c r="Q97" s="12">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="R97" s="12">
+        <v>0</v>
+      </c>
+      <c r="S97" s="6">
         <v>24</v>
       </c>
-      <c r="S97" s="1">
+      <c r="U97" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
+        <v>NO</v>
+      </c>
+      <c r="V97" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>YES</v>
+      </c>
+      <c r="W97" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="X97" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
         <v>113</v>
       </c>
@@ -6966,24 +7657,39 @@
         <v>0</v>
       </c>
       <c r="O98" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>Fixed</v>
+      </c>
+      <c r="P98" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q98" s="12">
+        <v>48</v>
+      </c>
+      <c r="R98" s="12">
+        <v>42</v>
+      </c>
+      <c r="S98" s="6">
+        <v>48</v>
+      </c>
+      <c r="U98" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NO</v>
+      </c>
+      <c r="V98" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Fixed</v>
-      </c>
-      <c r="P98" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q98" s="12">
-        <v>42</v>
-      </c>
-      <c r="R98" s="12">
-        <v>48</v>
-      </c>
-      <c r="S98" s="1">
-        <f t="shared" si="2"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
+        <v>NO</v>
+      </c>
+      <c r="W98" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="X98" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
         <v>131</v>
       </c>
@@ -7027,24 +7733,39 @@
         <v>0</v>
       </c>
       <c r="O99" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>Fixed</v>
+      </c>
+      <c r="P99" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="12">
+        <v>0</v>
+      </c>
+      <c r="R99" s="12">
+        <v>0</v>
+      </c>
+      <c r="S99" s="6">
+        <v>0</v>
+      </c>
+      <c r="U99" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NO</v>
+      </c>
+      <c r="V99" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Fixed</v>
-      </c>
-      <c r="P99" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q99" s="12">
-        <v>0</v>
-      </c>
-      <c r="R99" s="12">
-        <v>0</v>
-      </c>
-      <c r="S99" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
+        <v>NO</v>
+      </c>
+      <c r="W99" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="X99" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A100" s="7" t="s">
         <v>144</v>
       </c>
@@ -7088,24 +7809,39 @@
         <v>1.69</v>
       </c>
       <c r="O100" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>Fixed</v>
+      </c>
+      <c r="P100" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q100" s="12">
+        <v>1</v>
+      </c>
+      <c r="R100" s="12">
+        <v>1</v>
+      </c>
+      <c r="S100" s="6">
+        <v>1</v>
+      </c>
+      <c r="U100" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NO</v>
+      </c>
+      <c r="V100" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Fixed</v>
-      </c>
-      <c r="P100" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q100" s="12">
-        <v>1</v>
-      </c>
-      <c r="R100" s="12">
-        <v>1</v>
-      </c>
-      <c r="S100" s="1">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
+        <v>NO</v>
+      </c>
+      <c r="W100" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="X100" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A101" s="7" t="s">
         <v>126</v>
       </c>
@@ -7149,24 +7885,39 @@
         <v>0</v>
       </c>
       <c r="O101" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>Fixed</v>
+      </c>
+      <c r="P101" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q101" s="12">
+        <v>1</v>
+      </c>
+      <c r="R101" s="12">
+        <v>1</v>
+      </c>
+      <c r="S101" s="6">
+        <v>1</v>
+      </c>
+      <c r="U101" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NO</v>
+      </c>
+      <c r="V101" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Fixed</v>
-      </c>
-      <c r="P101" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q101" s="12">
-        <v>1</v>
-      </c>
-      <c r="R101" s="12">
-        <v>1</v>
-      </c>
-      <c r="S101" s="1">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
+        <v>NO</v>
+      </c>
+      <c r="W101" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="X101" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
         <v>83</v>
       </c>
@@ -7210,24 +7961,39 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="O102" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>Fixed</v>
+      </c>
+      <c r="P102" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="12">
+        <v>0</v>
+      </c>
+      <c r="R102" s="12">
+        <v>0</v>
+      </c>
+      <c r="S102" s="6">
+        <v>0</v>
+      </c>
+      <c r="U102" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NO</v>
+      </c>
+      <c r="V102" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Fixed</v>
-      </c>
-      <c r="P102" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="12">
-        <v>0</v>
-      </c>
-      <c r="R102" s="12">
-        <v>0</v>
-      </c>
-      <c r="S102" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
+        <v>NO</v>
+      </c>
+      <c r="W102" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="X102" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A103" s="7" t="s">
         <v>114</v>
       </c>
@@ -7271,24 +8037,39 @@
         <v>1.69</v>
       </c>
       <c r="O103" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>Fixed</v>
+      </c>
+      <c r="P103" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q103" s="12">
+        <v>1</v>
+      </c>
+      <c r="R103" s="12">
+        <v>1</v>
+      </c>
+      <c r="S103" s="6">
+        <v>1</v>
+      </c>
+      <c r="U103" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NO</v>
+      </c>
+      <c r="V103" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Fixed</v>
-      </c>
-      <c r="P103" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q103" s="12">
-        <v>1</v>
-      </c>
-      <c r="R103" s="12">
-        <v>1</v>
-      </c>
-      <c r="S103" s="1">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.35">
+        <v>NO</v>
+      </c>
+      <c r="W103" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="X103" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
         <v>71</v>
       </c>
@@ -7332,24 +8113,39 @@
         <v>1.69</v>
       </c>
       <c r="O104" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>Fixed</v>
+      </c>
+      <c r="P104" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q104" s="12">
+        <v>1</v>
+      </c>
+      <c r="R104" s="12">
+        <v>1</v>
+      </c>
+      <c r="S104" s="6">
+        <v>1</v>
+      </c>
+      <c r="U104" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NO</v>
+      </c>
+      <c r="V104" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Fixed</v>
-      </c>
-      <c r="P104" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q104" s="12">
-        <v>1</v>
-      </c>
-      <c r="R104" s="12">
-        <v>1</v>
-      </c>
-      <c r="S104" s="1">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.35">
+        <v>NO</v>
+      </c>
+      <c r="W104" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="X104" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
         <v>129</v>
       </c>
@@ -7393,24 +8189,39 @@
         <v>1.69</v>
       </c>
       <c r="O105" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>Fixed</v>
+      </c>
+      <c r="P105" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q105" s="12">
+        <v>1</v>
+      </c>
+      <c r="R105" s="12">
+        <v>1</v>
+      </c>
+      <c r="S105" s="6">
+        <v>1</v>
+      </c>
+      <c r="U105" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NO</v>
+      </c>
+      <c r="V105" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Fixed</v>
-      </c>
-      <c r="P105" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q105" s="12">
-        <v>1</v>
-      </c>
-      <c r="R105" s="12">
-        <v>1</v>
-      </c>
-      <c r="S105" s="1">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.35">
+        <v>NO</v>
+      </c>
+      <c r="W105" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="X105" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
         <v>92</v>
       </c>
@@ -7454,24 +8265,39 @@
         <v>1.69</v>
       </c>
       <c r="O106" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>Fixed</v>
+      </c>
+      <c r="P106" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q106" s="12">
+        <v>1</v>
+      </c>
+      <c r="R106" s="12">
+        <v>1</v>
+      </c>
+      <c r="S106" s="6">
+        <v>1</v>
+      </c>
+      <c r="U106" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NO</v>
+      </c>
+      <c r="V106" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Fixed</v>
-      </c>
-      <c r="P106" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q106" s="12">
-        <v>1</v>
-      </c>
-      <c r="R106" s="12">
-        <v>1</v>
-      </c>
-      <c r="S106" s="1">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>NO</v>
+      </c>
+      <c r="W106" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="X106" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A107" s="18" t="s">
         <v>69</v>
       </c>
@@ -7515,24 +8341,40 @@
         <v>1.69</v>
       </c>
       <c r="O107" s="20" t="str">
+        <f t="shared" si="6"/>
+        <v>Fixed</v>
+      </c>
+      <c r="P107" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q107" s="20">
+        <v>1</v>
+      </c>
+      <c r="R107" s="20">
+        <v>1</v>
+      </c>
+      <c r="S107" s="19">
+        <v>1</v>
+      </c>
+      <c r="T107" s="32"/>
+      <c r="U107" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>NO</v>
+      </c>
+      <c r="V107" s="28" t="str">
         <f t="shared" si="3"/>
-        <v>Fixed</v>
-      </c>
-      <c r="P107" s="20">
-        <v>1</v>
-      </c>
-      <c r="Q107" s="20">
-        <v>1</v>
-      </c>
-      <c r="R107" s="20">
-        <v>1</v>
-      </c>
-      <c r="S107" s="1">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.35">
+        <v>NO</v>
+      </c>
+      <c r="W107" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="X107" s="33" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A108" s="15" t="s">
         <v>119</v>
       </c>
@@ -7576,24 +8418,37 @@
         <v>1.31</v>
       </c>
       <c r="O108" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v>Repaired</v>
+      </c>
+      <c r="P108" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q108" s="17">
+        <v>0</v>
+      </c>
+      <c r="R108" s="17">
+        <v>1</v>
+      </c>
+      <c r="S108" s="16">
+        <v>1</v>
+      </c>
+      <c r="U108" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NO</v>
+      </c>
+      <c r="V108" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Repaired</v>
-      </c>
-      <c r="P108" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q108" s="17">
-        <v>1</v>
-      </c>
-      <c r="R108" s="17">
-        <v>0</v>
-      </c>
-      <c r="S108" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.35">
+        <v>NO</v>
+      </c>
+      <c r="W108" t="s">
+        <v>209</v>
+      </c>
+      <c r="X108" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
         <v>33</v>
       </c>
@@ -7637,24 +8492,37 @@
         <v>1.02</v>
       </c>
       <c r="O109" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>Repaired</v>
       </c>
       <c r="P109" s="12">
         <v>2</v>
       </c>
       <c r="Q109" s="12">
+        <v>0</v>
+      </c>
+      <c r="R109" s="12">
         <v>2</v>
       </c>
-      <c r="R109" s="12">
-        <v>0</v>
-      </c>
-      <c r="S109" s="1">
+      <c r="S109" s="6">
+        <v>2</v>
+      </c>
+      <c r="U109" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.35">
+        <v>YES</v>
+      </c>
+      <c r="V109" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="W109" t="s">
+        <v>209</v>
+      </c>
+      <c r="X109" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A110" s="7" t="s">
         <v>50</v>
       </c>
@@ -7698,24 +8566,37 @@
         <v>0.66</v>
       </c>
       <c r="O110" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>Repaired</v>
+      </c>
+      <c r="P110" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q110" s="12">
+        <v>0</v>
+      </c>
+      <c r="R110" s="12">
+        <v>1</v>
+      </c>
+      <c r="S110" s="6">
+        <v>1</v>
+      </c>
+      <c r="U110" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NO</v>
+      </c>
+      <c r="V110" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Repaired</v>
-      </c>
-      <c r="P110" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q110" s="12">
-        <v>1</v>
-      </c>
-      <c r="R110" s="12">
-        <v>0</v>
-      </c>
-      <c r="S110" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
+        <v>NO</v>
+      </c>
+      <c r="W110" t="s">
+        <v>209</v>
+      </c>
+      <c r="X110" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A111" s="7" t="s">
         <v>30</v>
       </c>
@@ -7759,24 +8640,37 @@
         <v>1.53</v>
       </c>
       <c r="O111" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>Repaired</v>
+      </c>
+      <c r="P111" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q111" s="12">
+        <v>0</v>
+      </c>
+      <c r="R111" s="12">
+        <v>6</v>
+      </c>
+      <c r="S111" s="6">
+        <v>6</v>
+      </c>
+      <c r="U111" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NO</v>
+      </c>
+      <c r="V111" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Repaired</v>
-      </c>
-      <c r="P111" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q111" s="12">
-        <v>6</v>
-      </c>
-      <c r="R111" s="12">
-        <v>0</v>
-      </c>
-      <c r="S111" s="1">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.35">
+        <v>NO</v>
+      </c>
+      <c r="W111" t="s">
+        <v>209</v>
+      </c>
+      <c r="X111" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
         <v>143</v>
       </c>
@@ -7820,24 +8714,37 @@
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="O112" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>Repaired</v>
+      </c>
+      <c r="P112" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q112" s="12">
+        <v>0</v>
+      </c>
+      <c r="R112" s="12">
+        <v>4</v>
+      </c>
+      <c r="S112" s="6">
+        <v>4</v>
+      </c>
+      <c r="U112" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NO</v>
+      </c>
+      <c r="V112" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Repaired</v>
-      </c>
-      <c r="P112" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q112" s="12">
-        <v>4</v>
-      </c>
-      <c r="R112" s="12">
-        <v>0</v>
-      </c>
-      <c r="S112" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.35">
+        <v>NO</v>
+      </c>
+      <c r="W112" t="s">
+        <v>209</v>
+      </c>
+      <c r="X112" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A113" s="7" t="s">
         <v>142</v>
       </c>
@@ -7881,24 +8788,37 @@
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="O113" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>Repaired</v>
+      </c>
+      <c r="P113" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q113" s="12">
+        <v>0</v>
+      </c>
+      <c r="R113" s="12">
+        <v>4</v>
+      </c>
+      <c r="S113" s="6">
+        <v>4</v>
+      </c>
+      <c r="U113" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NO</v>
+      </c>
+      <c r="V113" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Repaired</v>
-      </c>
-      <c r="P113" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q113" s="12">
-        <v>4</v>
-      </c>
-      <c r="R113" s="12">
-        <v>0</v>
-      </c>
-      <c r="S113" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.35">
+        <v>NO</v>
+      </c>
+      <c r="W113" t="s">
+        <v>209</v>
+      </c>
+      <c r="X113" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A114" s="5" t="s">
         <v>77</v>
       </c>
@@ -7942,24 +8862,37 @@
         <v>0</v>
       </c>
       <c r="O114" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>Repaired</v>
+      </c>
+      <c r="P114" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q114" s="12">
+        <v>0</v>
+      </c>
+      <c r="R114" s="12">
+        <v>1</v>
+      </c>
+      <c r="S114" s="6">
+        <v>1</v>
+      </c>
+      <c r="U114" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NO</v>
+      </c>
+      <c r="V114" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Repaired</v>
-      </c>
-      <c r="P114" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q114" s="12">
-        <v>1</v>
-      </c>
-      <c r="R114" s="12">
-        <v>0</v>
-      </c>
-      <c r="S114" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.35">
+        <v>NO</v>
+      </c>
+      <c r="W114" t="s">
+        <v>209</v>
+      </c>
+      <c r="X114" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A115" s="7" t="s">
         <v>88</v>
       </c>
@@ -8003,24 +8936,37 @@
         <v>0</v>
       </c>
       <c r="O115" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>Repaired</v>
+      </c>
+      <c r="P115" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q115" s="12">
+        <v>0</v>
+      </c>
+      <c r="R115" s="12">
+        <v>1</v>
+      </c>
+      <c r="S115" s="6">
+        <v>1</v>
+      </c>
+      <c r="U115" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NO</v>
+      </c>
+      <c r="V115" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Repaired</v>
-      </c>
-      <c r="P115" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q115" s="12">
-        <v>1</v>
-      </c>
-      <c r="R115" s="12">
-        <v>0</v>
-      </c>
-      <c r="S115" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.35">
+        <v>NO</v>
+      </c>
+      <c r="W115" t="s">
+        <v>209</v>
+      </c>
+      <c r="X115" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A116" s="7" t="s">
         <v>38</v>
       </c>
@@ -8064,24 +9010,37 @@
         <v>0</v>
       </c>
       <c r="O116" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>Repaired</v>
+      </c>
+      <c r="P116" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q116" s="12">
+        <v>0</v>
+      </c>
+      <c r="R116" s="12">
+        <v>1</v>
+      </c>
+      <c r="S116" s="6">
+        <v>1</v>
+      </c>
+      <c r="U116" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NO</v>
+      </c>
+      <c r="V116" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Repaired</v>
-      </c>
-      <c r="P116" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q116" s="12">
-        <v>1</v>
-      </c>
-      <c r="R116" s="12">
-        <v>0</v>
-      </c>
-      <c r="S116" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.35">
+        <v>NO</v>
+      </c>
+      <c r="W116" t="s">
+        <v>209</v>
+      </c>
+      <c r="X116" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A117" s="7" t="s">
         <v>132</v>
       </c>
@@ -8125,24 +9084,37 @@
         <v>0</v>
       </c>
       <c r="O117" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>Repaired</v>
+      </c>
+      <c r="P117" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q117" s="12">
+        <v>0</v>
+      </c>
+      <c r="R117" s="12">
+        <v>1</v>
+      </c>
+      <c r="S117" s="6">
+        <v>1</v>
+      </c>
+      <c r="U117" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NO</v>
+      </c>
+      <c r="V117" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Repaired</v>
-      </c>
-      <c r="P117" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q117" s="12">
-        <v>1</v>
-      </c>
-      <c r="R117" s="12">
-        <v>0</v>
-      </c>
-      <c r="S117" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.35">
+        <v>NO</v>
+      </c>
+      <c r="W117" t="s">
+        <v>209</v>
+      </c>
+      <c r="X117" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
         <v>123</v>
       </c>
@@ -8186,24 +9158,37 @@
         <v>0</v>
       </c>
       <c r="O118" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>Repaired</v>
+      </c>
+      <c r="P118" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q118" s="12">
+        <v>0</v>
+      </c>
+      <c r="R118" s="12">
+        <v>1</v>
+      </c>
+      <c r="S118" s="6">
+        <v>1</v>
+      </c>
+      <c r="U118" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NO</v>
+      </c>
+      <c r="V118" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Repaired</v>
-      </c>
-      <c r="P118" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q118" s="12">
-        <v>1</v>
-      </c>
-      <c r="R118" s="12">
-        <v>0</v>
-      </c>
-      <c r="S118" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.35">
+        <v>NO</v>
+      </c>
+      <c r="W118" t="s">
+        <v>209</v>
+      </c>
+      <c r="X118" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
         <v>89</v>
       </c>
@@ -8247,24 +9232,37 @@
         <v>0</v>
       </c>
       <c r="O119" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>Repaired</v>
+      </c>
+      <c r="P119" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q119" s="12">
+        <v>0</v>
+      </c>
+      <c r="R119" s="12">
+        <v>1</v>
+      </c>
+      <c r="S119" s="6">
+        <v>1</v>
+      </c>
+      <c r="U119" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NO</v>
+      </c>
+      <c r="V119" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Repaired</v>
-      </c>
-      <c r="P119" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q119" s="12">
-        <v>1</v>
-      </c>
-      <c r="R119" s="12">
-        <v>0</v>
-      </c>
-      <c r="S119" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.35">
+        <v>NO</v>
+      </c>
+      <c r="W119" t="s">
+        <v>209</v>
+      </c>
+      <c r="X119" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A120" s="5" t="s">
         <v>47</v>
       </c>
@@ -8308,7 +9306,7 @@
         <v>0</v>
       </c>
       <c r="O120" s="12" t="str">
-        <f t="shared" ref="O120:O149" si="4">IF(NOT(ISERR(SEARCH("*_Buggy",$A120))), "Buggy", IF(NOT(ISERR(SEARCH("*_Fixed",$A120))), "Fixed", IF(NOT(ISERR(SEARCH("*_Repaired",$A120))), "Repaired", "")))</f>
+        <f t="shared" ref="O120:O149" si="7">IF(NOT(ISERR(SEARCH("*_Buggy",$A120))), "Buggy", IF(NOT(ISERR(SEARCH("*_Fixed",$A120))), "Fixed", IF(NOT(ISERR(SEARCH("*_Repaired",$A120))), "Repaired", "")))</f>
         <v>Repaired</v>
       </c>
       <c r="P120" s="12">
@@ -8320,12 +9318,25 @@
       <c r="R120" s="12">
         <v>2</v>
       </c>
-      <c r="S120" s="1">
+      <c r="S120" s="6">
+        <v>3</v>
+      </c>
+      <c r="U120" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.35">
+        <v>NO</v>
+      </c>
+      <c r="V120" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>YES</v>
+      </c>
+      <c r="W120" t="s">
+        <v>209</v>
+      </c>
+      <c r="X120" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A121" s="7" t="s">
         <v>46</v>
       </c>
@@ -8369,24 +9380,37 @@
         <v>0</v>
       </c>
       <c r="O121" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Repaired</v>
       </c>
       <c r="P121" s="12">
         <v>3</v>
       </c>
       <c r="Q121" s="12">
+        <v>0</v>
+      </c>
+      <c r="R121" s="12">
         <v>6</v>
       </c>
-      <c r="R121" s="12">
-        <v>0</v>
-      </c>
-      <c r="S121" s="1">
+      <c r="S121" s="6">
+        <v>6</v>
+      </c>
+      <c r="U121" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.35">
+        <v>NO</v>
+      </c>
+      <c r="V121" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>YES</v>
+      </c>
+      <c r="W121" t="s">
+        <v>209</v>
+      </c>
+      <c r="X121" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="122" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A122" s="7" t="s">
         <v>138</v>
       </c>
@@ -8430,24 +9454,37 @@
         <v>0</v>
       </c>
       <c r="O122" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Repaired</v>
       </c>
       <c r="P122" s="12">
         <v>2</v>
       </c>
       <c r="Q122" s="12">
+        <v>0</v>
+      </c>
+      <c r="R122" s="12">
         <v>2</v>
       </c>
-      <c r="R122" s="12">
-        <v>0</v>
-      </c>
-      <c r="S122" s="1">
+      <c r="S122" s="6">
+        <v>2</v>
+      </c>
+      <c r="U122" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.35">
+        <v>YES</v>
+      </c>
+      <c r="V122" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="W122" t="s">
+        <v>209</v>
+      </c>
+      <c r="X122" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="123" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A123" s="7" t="s">
         <v>130</v>
       </c>
@@ -8491,24 +9528,37 @@
         <v>0</v>
       </c>
       <c r="O123" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Repaired</v>
       </c>
       <c r="P123" s="12">
         <v>2</v>
       </c>
       <c r="Q123" s="12">
+        <v>0</v>
+      </c>
+      <c r="R123" s="12">
         <v>5</v>
       </c>
-      <c r="R123" s="12">
-        <v>0</v>
-      </c>
-      <c r="S123" s="1">
+      <c r="S123" s="6">
+        <v>5</v>
+      </c>
+      <c r="U123" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.35">
+        <v>NO</v>
+      </c>
+      <c r="V123" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>YES</v>
+      </c>
+      <c r="W123" t="s">
+        <v>209</v>
+      </c>
+      <c r="X123" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="124" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A124" s="5" t="s">
         <v>63</v>
       </c>
@@ -8552,24 +9602,37 @@
         <v>1.69</v>
       </c>
       <c r="O124" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Repaired</v>
       </c>
       <c r="P124" s="12">
         <v>2</v>
       </c>
       <c r="Q124" s="12">
+        <v>3</v>
+      </c>
+      <c r="R124" s="12">
         <v>2</v>
       </c>
-      <c r="R124" s="12">
+      <c r="S124" s="6">
         <v>3</v>
       </c>
-      <c r="S124" s="1">
+      <c r="U124" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.35">
+        <v>NO</v>
+      </c>
+      <c r="V124" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>YES</v>
+      </c>
+      <c r="W124" t="s">
+        <v>209</v>
+      </c>
+      <c r="X124" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="125" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A125" s="5" t="s">
         <v>125</v>
       </c>
@@ -8613,7 +9676,7 @@
         <v>2.4</v>
       </c>
       <c r="O125" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Repaired</v>
       </c>
       <c r="P125" s="12">
@@ -8625,12 +9688,25 @@
       <c r="R125" s="12">
         <v>3</v>
       </c>
-      <c r="S125" s="1">
+      <c r="S125" s="6">
+        <v>4</v>
+      </c>
+      <c r="U125" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.35">
+        <v>NO</v>
+      </c>
+      <c r="V125" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>YES</v>
+      </c>
+      <c r="W125" t="s">
+        <v>209</v>
+      </c>
+      <c r="X125" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="126" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A126" s="5" t="s">
         <v>23</v>
       </c>
@@ -8674,24 +9750,37 @@
         <v>1.6</v>
       </c>
       <c r="O126" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Repaired</v>
       </c>
       <c r="P126" s="12">
         <v>2</v>
       </c>
       <c r="Q126" s="12">
+        <v>3</v>
+      </c>
+      <c r="R126" s="12">
         <v>2</v>
       </c>
-      <c r="R126" s="12">
+      <c r="S126" s="6">
         <v>3</v>
       </c>
-      <c r="S126" s="1">
+      <c r="U126" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.35">
+        <v>NO</v>
+      </c>
+      <c r="V126" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>YES</v>
+      </c>
+      <c r="W126" t="s">
+        <v>209</v>
+      </c>
+      <c r="X126" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="127" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A127" s="5" t="s">
         <v>107</v>
       </c>
@@ -8735,24 +9824,37 @@
         <v>1.69</v>
       </c>
       <c r="O127" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Repaired</v>
       </c>
       <c r="P127" s="12">
         <v>2</v>
       </c>
       <c r="Q127" s="12">
+        <v>3</v>
+      </c>
+      <c r="R127" s="12">
         <v>2</v>
       </c>
-      <c r="R127" s="12">
+      <c r="S127" s="6">
         <v>3</v>
       </c>
-      <c r="S127" s="1">
+      <c r="U127" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.35">
+        <v>NO</v>
+      </c>
+      <c r="V127" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>YES</v>
+      </c>
+      <c r="W127" t="s">
+        <v>209</v>
+      </c>
+      <c r="X127" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="128" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A128" s="7" t="s">
         <v>106</v>
       </c>
@@ -8796,24 +9898,37 @@
         <v>2.83</v>
       </c>
       <c r="O128" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Repaired</v>
       </c>
       <c r="P128" s="12">
         <v>4</v>
       </c>
       <c r="Q128" s="12">
+        <v>5</v>
+      </c>
+      <c r="R128" s="12">
         <v>4</v>
       </c>
-      <c r="R128" s="12">
-        <v>5</v>
-      </c>
-      <c r="S128" s="1">
+      <c r="S128" s="6">
+        <v>6</v>
+      </c>
+      <c r="U128" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.35">
+        <v>NO</v>
+      </c>
+      <c r="V128" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>YES</v>
+      </c>
+      <c r="W128" t="s">
+        <v>209</v>
+      </c>
+      <c r="X128" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="129" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A129" s="7" t="s">
         <v>76</v>
       </c>
@@ -8857,24 +9972,37 @@
         <v>0</v>
       </c>
       <c r="O129" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Repaired</v>
       </c>
       <c r="P129" s="12">
         <v>1</v>
       </c>
       <c r="Q129" s="12">
+        <v>0</v>
+      </c>
+      <c r="R129" s="12">
         <v>12</v>
       </c>
-      <c r="R129" s="12">
-        <v>0</v>
-      </c>
-      <c r="S129" s="1">
+      <c r="S129" s="6">
+        <v>12</v>
+      </c>
+      <c r="U129" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.35">
+        <v>NO</v>
+      </c>
+      <c r="V129" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="W129" t="s">
+        <v>209</v>
+      </c>
+      <c r="X129" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="130" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A130" s="7" t="s">
         <v>62</v>
       </c>
@@ -8918,24 +10046,37 @@
         <v>0</v>
       </c>
       <c r="O130" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Repaired</v>
       </c>
       <c r="P130" s="12">
         <v>1</v>
       </c>
       <c r="Q130" s="12">
+        <v>0</v>
+      </c>
+      <c r="R130" s="12">
         <v>12</v>
       </c>
-      <c r="R130" s="12">
-        <v>0</v>
-      </c>
-      <c r="S130" s="1">
+      <c r="S130" s="6">
+        <v>12</v>
+      </c>
+      <c r="U130" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.35">
+        <v>NO</v>
+      </c>
+      <c r="V130" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="W130" t="s">
+        <v>209</v>
+      </c>
+      <c r="X130" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="131" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A131" s="7" t="s">
         <v>82</v>
       </c>
@@ -8979,24 +10120,37 @@
         <v>0</v>
       </c>
       <c r="O131" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Repaired</v>
       </c>
       <c r="P131" s="12">
         <v>1</v>
       </c>
       <c r="Q131" s="12">
+        <v>0</v>
+      </c>
+      <c r="R131" s="12">
         <v>12</v>
       </c>
-      <c r="R131" s="12">
-        <v>0</v>
-      </c>
-      <c r="S131" s="1">
-        <f t="shared" ref="S131:S149" si="5">Q131+R131</f>
+      <c r="S131" s="6">
         <v>12</v>
       </c>
-    </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U131" s="1" t="str">
+        <f t="shared" ref="U131:U149" si="8">IF(AND(P131&gt;1,P131=S131), "YES", "NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="V131" s="1" t="str">
+        <f t="shared" ref="V131:V149" si="9">IF(AND(P131&gt;1,P131&lt;S131), "YES", "NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="W131" t="s">
+        <v>209</v>
+      </c>
+      <c r="X131" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="132" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A132" s="7" t="s">
         <v>74</v>
       </c>
@@ -9040,24 +10194,37 @@
         <v>0</v>
       </c>
       <c r="O132" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Repaired</v>
       </c>
       <c r="P132" s="12">
         <v>1</v>
       </c>
       <c r="Q132" s="12">
+        <v>0</v>
+      </c>
+      <c r="R132" s="12">
         <v>12</v>
       </c>
-      <c r="R132" s="12">
-        <v>0</v>
-      </c>
-      <c r="S132" s="1">
-        <f t="shared" si="5"/>
+      <c r="S132" s="6">
         <v>12</v>
       </c>
-    </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U132" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="V132" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="W132" t="s">
+        <v>209</v>
+      </c>
+      <c r="X132" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="133" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A133" s="7" t="s">
         <v>104</v>
       </c>
@@ -9101,24 +10268,37 @@
         <v>0</v>
       </c>
       <c r="O133" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Repaired</v>
       </c>
       <c r="P133" s="12">
         <v>1</v>
       </c>
       <c r="Q133" s="12">
+        <v>0</v>
+      </c>
+      <c r="R133" s="12">
         <v>12</v>
       </c>
-      <c r="R133" s="12">
-        <v>0</v>
-      </c>
-      <c r="S133" s="1">
-        <f t="shared" si="5"/>
+      <c r="S133" s="6">
         <v>12</v>
       </c>
-    </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U133" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="V133" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="W133" t="s">
+        <v>209</v>
+      </c>
+      <c r="X133" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="134" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A134" s="7" t="s">
         <v>66</v>
       </c>
@@ -9162,24 +10342,37 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="O134" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Repaired</v>
       </c>
       <c r="P134" s="12">
         <v>8</v>
       </c>
       <c r="Q134" s="12">
+        <v>15</v>
+      </c>
+      <c r="R134" s="12">
         <v>12</v>
       </c>
-      <c r="R134" s="12">
-        <v>15</v>
-      </c>
-      <c r="S134" s="1">
-        <f t="shared" si="5"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S134" s="6">
+        <v>16</v>
+      </c>
+      <c r="U134" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="V134" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>YES</v>
+      </c>
+      <c r="W134" t="s">
+        <v>209</v>
+      </c>
+      <c r="X134" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="135" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A135" s="5" t="s">
         <v>117</v>
       </c>
@@ -9223,24 +10416,37 @@
         <v>1.39</v>
       </c>
       <c r="O135" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Repaired</v>
       </c>
       <c r="P135" s="12">
         <v>11</v>
       </c>
       <c r="Q135" s="12">
+        <v>29</v>
+      </c>
+      <c r="R135" s="12">
         <v>19</v>
       </c>
-      <c r="R135" s="12">
-        <v>29</v>
-      </c>
-      <c r="S135" s="1">
-        <f t="shared" si="5"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S135" s="6">
+        <v>39</v>
+      </c>
+      <c r="U135" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="V135" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>YES</v>
+      </c>
+      <c r="W135" t="s">
+        <v>209</v>
+      </c>
+      <c r="X135" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="136" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A136" s="5" t="s">
         <v>133</v>
       </c>
@@ -9284,24 +10490,37 @@
         <v>2.16</v>
       </c>
       <c r="O136" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Repaired</v>
       </c>
       <c r="P136" s="12">
         <v>8</v>
       </c>
       <c r="Q136" s="12">
+        <v>11</v>
+      </c>
+      <c r="R136" s="12">
         <v>9</v>
       </c>
-      <c r="R136" s="12">
-        <v>11</v>
-      </c>
-      <c r="S136" s="1">
-        <f t="shared" si="5"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S136" s="6">
+        <v>13</v>
+      </c>
+      <c r="U136" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="V136" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>YES</v>
+      </c>
+      <c r="W136" t="s">
+        <v>209</v>
+      </c>
+      <c r="X136" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="137" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A137" s="7" t="s">
         <v>86</v>
       </c>
@@ -9345,24 +10564,37 @@
         <v>0.79</v>
       </c>
       <c r="O137" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Repaired</v>
       </c>
       <c r="P137" s="12">
         <v>6</v>
       </c>
       <c r="Q137" s="12">
+        <v>7</v>
+      </c>
+      <c r="R137" s="12">
         <v>6</v>
       </c>
-      <c r="R137" s="12">
-        <v>7</v>
-      </c>
-      <c r="S137" s="1">
-        <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S137" s="6">
+        <v>9</v>
+      </c>
+      <c r="U137" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="V137" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>YES</v>
+      </c>
+      <c r="W137" t="s">
+        <v>209</v>
+      </c>
+      <c r="X137" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="138" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A138" s="7" t="s">
         <v>90</v>
       </c>
@@ -9406,24 +10638,37 @@
         <v>3.38</v>
       </c>
       <c r="O138" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Repaired</v>
       </c>
       <c r="P138" s="12">
         <v>7</v>
       </c>
       <c r="Q138" s="12">
+        <v>17</v>
+      </c>
+      <c r="R138" s="12">
         <v>12</v>
       </c>
-      <c r="R138" s="12">
-        <v>17</v>
-      </c>
-      <c r="S138" s="1">
-        <f t="shared" si="5"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S138" s="6">
+        <v>20</v>
+      </c>
+      <c r="U138" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="V138" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>YES</v>
+      </c>
+      <c r="W138" t="s">
+        <v>209</v>
+      </c>
+      <c r="X138" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="139" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A139" s="7" t="s">
         <v>98</v>
       </c>
@@ -9467,7 +10712,7 @@
         <v>0.71</v>
       </c>
       <c r="O139" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Repaired</v>
       </c>
       <c r="P139" s="12">
@@ -9479,12 +10724,25 @@
       <c r="R139" s="12">
         <v>1</v>
       </c>
-      <c r="S139" s="1">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S139" s="6">
+        <v>1</v>
+      </c>
+      <c r="U139" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="V139" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="W139" t="s">
+        <v>209</v>
+      </c>
+      <c r="X139" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="140" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A140" s="7" t="s">
         <v>110</v>
       </c>
@@ -9528,7 +10786,7 @@
         <v>0</v>
       </c>
       <c r="O140" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Repaired</v>
       </c>
       <c r="P140" s="12">
@@ -9540,12 +10798,25 @@
       <c r="R140" s="12">
         <v>1</v>
       </c>
-      <c r="S140" s="1">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S140" s="6">
+        <v>1</v>
+      </c>
+      <c r="U140" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="V140" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="W140" t="s">
+        <v>209</v>
+      </c>
+      <c r="X140" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="141" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A141" s="7" t="s">
         <v>44</v>
       </c>
@@ -9589,24 +10860,37 @@
         <v>2.4700000000000002</v>
       </c>
       <c r="O141" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Repaired</v>
       </c>
       <c r="P141" s="12">
         <v>1</v>
       </c>
       <c r="Q141" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R141" s="12">
+        <v>0</v>
+      </c>
+      <c r="S141" s="6">
         <v>2</v>
       </c>
-      <c r="S141" s="1">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U141" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="V141" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="W141" t="s">
+        <v>209</v>
+      </c>
+      <c r="X141" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="142" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A142" s="7" t="s">
         <v>70</v>
       </c>
@@ -9650,24 +10934,37 @@
         <v>1.69</v>
       </c>
       <c r="O142" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Repaired</v>
       </c>
       <c r="P142" s="12">
         <v>1</v>
       </c>
       <c r="Q142" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R142" s="12">
+        <v>1</v>
+      </c>
+      <c r="S142" s="6">
         <v>3</v>
       </c>
-      <c r="S142" s="1">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U142" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="V142" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="W142" t="s">
+        <v>209</v>
+      </c>
+      <c r="X142" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="143" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A143" s="5" t="s">
         <v>95</v>
       </c>
@@ -9711,24 +11008,37 @@
         <v>0</v>
       </c>
       <c r="O143" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Repaired</v>
       </c>
       <c r="P143" s="12">
         <v>1</v>
       </c>
       <c r="Q143" s="12">
+        <v>1</v>
+      </c>
+      <c r="R143" s="12">
         <v>2</v>
       </c>
-      <c r="R143" s="12">
-        <v>1</v>
-      </c>
-      <c r="S143" s="1">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S143" s="6">
+        <v>2</v>
+      </c>
+      <c r="U143" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="V143" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="W143" t="s">
+        <v>209</v>
+      </c>
+      <c r="X143" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="144" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A144" s="5" t="s">
         <v>29</v>
       </c>
@@ -9772,24 +11082,37 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="O144" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Repaired</v>
       </c>
       <c r="P144" s="12">
         <v>1</v>
       </c>
       <c r="Q144" s="12">
+        <v>4</v>
+      </c>
+      <c r="R144" s="12">
         <v>2</v>
       </c>
-      <c r="R144" s="12">
+      <c r="S144" s="6">
         <v>4</v>
       </c>
-      <c r="S144" s="1">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U144" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="V144" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="W144" t="s">
+        <v>209</v>
+      </c>
+      <c r="X144" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="145" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A145" s="5" t="s">
         <v>81</v>
       </c>
@@ -9833,24 +11156,37 @@
         <v>1.69</v>
       </c>
       <c r="O145" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Repaired</v>
       </c>
       <c r="P145" s="12">
         <v>3</v>
       </c>
       <c r="Q145" s="12">
+        <v>1</v>
+      </c>
+      <c r="R145" s="12">
         <v>3</v>
       </c>
-      <c r="R145" s="12">
-        <v>1</v>
-      </c>
-      <c r="S145" s="1">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S145" s="6">
+        <v>3</v>
+      </c>
+      <c r="U145" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>YES</v>
+      </c>
+      <c r="V145" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="W145" t="s">
+        <v>209</v>
+      </c>
+      <c r="X145" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="146" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A146" s="7" t="s">
         <v>102</v>
       </c>
@@ -9894,7 +11230,7 @@
         <v>1.69</v>
       </c>
       <c r="O146" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Repaired</v>
       </c>
       <c r="P146" s="12">
@@ -9906,12 +11242,25 @@
       <c r="R146" s="12">
         <v>2</v>
       </c>
-      <c r="S146" s="1">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S146" s="6">
+        <v>3</v>
+      </c>
+      <c r="U146" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>YES</v>
+      </c>
+      <c r="V146" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="W146" t="s">
+        <v>209</v>
+      </c>
+      <c r="X146" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="147" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A147" s="5" t="s">
         <v>127</v>
       </c>
@@ -9955,24 +11304,37 @@
         <v>1.69</v>
       </c>
       <c r="O147" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Repaired</v>
       </c>
       <c r="P147" s="12">
         <v>2</v>
       </c>
       <c r="Q147" s="12">
+        <v>3</v>
+      </c>
+      <c r="R147" s="12">
         <v>2</v>
       </c>
-      <c r="R147" s="12">
+      <c r="S147" s="6">
         <v>3</v>
       </c>
-      <c r="S147" s="1">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U147" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="V147" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>YES</v>
+      </c>
+      <c r="W147" t="s">
+        <v>209</v>
+      </c>
+      <c r="X147" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="148" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A148" s="5" t="s">
         <v>87</v>
       </c>
@@ -10016,24 +11378,37 @@
         <v>1.69</v>
       </c>
       <c r="O148" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Repaired</v>
       </c>
       <c r="P148" s="12">
         <v>3</v>
       </c>
       <c r="Q148" s="12">
+        <v>4</v>
+      </c>
+      <c r="R148" s="12">
         <v>3</v>
       </c>
-      <c r="R148" s="12">
-        <v>4</v>
-      </c>
-      <c r="S148" s="1">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S148" s="6">
+        <v>5</v>
+      </c>
+      <c r="U148" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="V148" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>YES</v>
+      </c>
+      <c r="W148" t="s">
+        <v>209</v>
+      </c>
+      <c r="X148" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="149" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A149" s="7" t="s">
         <v>134</v>
       </c>
@@ -10077,24 +11452,37 @@
         <v>1.28</v>
       </c>
       <c r="O149" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Repaired</v>
       </c>
       <c r="P149" s="12">
         <v>2</v>
       </c>
       <c r="Q149" s="12">
+        <v>1</v>
+      </c>
+      <c r="R149" s="12">
         <v>2</v>
       </c>
-      <c r="R149" s="12">
-        <v>1</v>
-      </c>
-      <c r="S149" s="1">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="150" spans="1:19" ht="28.8" x14ac:dyDescent="0.35">
+      <c r="S149" s="6">
+        <v>2</v>
+      </c>
+      <c r="U149" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>YES</v>
+      </c>
+      <c r="V149" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="W149" t="s">
+        <v>209</v>
+      </c>
+      <c r="X149" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="150" spans="1:24" ht="28.8" x14ac:dyDescent="0.35">
       <c r="A150" s="13" t="s">
         <v>172</v>
       </c>
@@ -10149,8 +11537,11 @@
       <c r="R150" s="13" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S150" s="13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="151" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A151" s="9" t="s">
         <v>149</v>
       </c>
@@ -10159,56 +11550,56 @@
         <v>276.41999999999996</v>
       </c>
       <c r="C151" s="30">
-        <f t="shared" ref="C151:N151" si="6">SUM(C24:C149)</f>
+        <f t="shared" ref="C151:N151" si="10">SUM(C24:C149)</f>
         <v>9906.2599999999929</v>
       </c>
       <c r="D151" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1378.93</v>
       </c>
       <c r="E151" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>907.77000000000044</v>
       </c>
       <c r="F151" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1059.2000000000003</v>
       </c>
       <c r="G151" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>313.62999999999994</v>
       </c>
       <c r="H151" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1221.420000000001</v>
       </c>
       <c r="I151" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2438.2200000000003</v>
       </c>
       <c r="J151" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5431.3700000000026</v>
       </c>
       <c r="K151" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>109.44000000000003</v>
       </c>
       <c r="L151" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6.7965999999999962</v>
       </c>
       <c r="M151" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1884.7400000000007</v>
       </c>
       <c r="N151" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>104.78599999999993</v>
       </c>
       <c r="O151" s="10"/>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A152" s="11" t="s">
         <v>150</v>
       </c>
@@ -10217,56 +11608,56 @@
         <v>2.1938095238095237</v>
       </c>
       <c r="C152" s="31">
-        <f t="shared" ref="C152:N152" si="7">AVERAGE(C24:C149)</f>
+        <f t="shared" ref="C152:N152" si="11">AVERAGE(C24:C149)</f>
         <v>78.621111111111048</v>
       </c>
       <c r="D152" s="31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>10.943888888888889</v>
       </c>
       <c r="E152" s="31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>7.2045238095238133</v>
       </c>
       <c r="F152" s="31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>8.4063492063492085</v>
       </c>
       <c r="G152" s="31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.4891269841269836</v>
       </c>
       <c r="H152" s="31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>9.6938095238095308</v>
       </c>
       <c r="I152" s="31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>19.350952380952382</v>
       </c>
       <c r="J152" s="31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>43.106111111111133</v>
       </c>
       <c r="K152" s="31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.86857142857142877</v>
       </c>
       <c r="L152" s="31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5.3941269841269811E-2</v>
       </c>
       <c r="M152" s="31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>14.958253968253974</v>
       </c>
       <c r="N152" s="31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.83163492063492006</v>
       </c>
       <c r="O152" s="10"/>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A153" s="9" t="s">
         <v>151</v>
       </c>
@@ -10275,56 +11666,56 @@
         <v>1</v>
       </c>
       <c r="C153" s="30">
-        <f t="shared" ref="C153:N153" si="8">MIN(C24:C149)</f>
+        <f t="shared" ref="C153:N153" si="12">MIN(C24:C149)</f>
         <v>68.5</v>
       </c>
       <c r="D153" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2.67</v>
       </c>
       <c r="E153" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2.17</v>
       </c>
       <c r="F153" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G153" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H153" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="I153" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="J153" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>6.34</v>
       </c>
       <c r="K153" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L153" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M153" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N153" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O153" s="10"/>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A154" s="11" t="s">
         <v>152</v>
       </c>
@@ -10333,56 +11724,56 @@
         <v>5.88</v>
       </c>
       <c r="C154" s="31">
-        <f t="shared" ref="C154:N154" si="9">MAX(C24:C149)</f>
+        <f t="shared" ref="C154:N154" si="13">MAX(C24:C149)</f>
         <v>100</v>
       </c>
       <c r="D154" s="31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>22.5</v>
       </c>
       <c r="E154" s="31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>10.71</v>
       </c>
       <c r="F154" s="31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>22</v>
       </c>
       <c r="G154" s="31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4.63</v>
       </c>
       <c r="H154" s="31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>12.86</v>
       </c>
       <c r="I154" s="31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>44.5</v>
       </c>
       <c r="J154" s="31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>67.08</v>
       </c>
       <c r="K154" s="31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3.14</v>
       </c>
       <c r="L154" s="31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
       <c r="M154" s="31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>60.82</v>
       </c>
       <c r="N154" s="31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3.38</v>
       </c>
       <c r="O154" s="10"/>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A155" s="9" t="s">
         <v>153</v>
       </c>
@@ -10391,56 +11782,56 @@
         <v>1.6743924783122304</v>
       </c>
       <c r="C155" s="30">
-        <f t="shared" ref="C155:N155" si="10">_xlfn.STDEV.S(C24:C149)</f>
+        <f t="shared" ref="C155:N155" si="14">_xlfn.STDEV.S(C24:C149)</f>
         <v>8.403984599912345</v>
       </c>
       <c r="D155" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>5.4370625852159886</v>
       </c>
       <c r="E155" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2.5467597003699698</v>
       </c>
       <c r="F155" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>5.9789503564655355</v>
       </c>
       <c r="G155" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1.2243045502431305</v>
       </c>
       <c r="H155" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>3.042608317123396</v>
       </c>
       <c r="I155" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>11.341977988239703</v>
       </c>
       <c r="J155" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>18.678845573416833</v>
       </c>
       <c r="K155" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.93866519209840837</v>
       </c>
       <c r="L155" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>7.9573117339806404E-2</v>
       </c>
       <c r="M155" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>15.708798863279913</v>
       </c>
       <c r="N155" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.87321025741272273</v>
       </c>
       <c r="O155" s="10"/>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A156" s="11" t="s">
         <v>154</v>
       </c>
@@ -10449,56 +11840,56 @@
         <v>2.8035901714285729</v>
       </c>
       <c r="C156" s="31">
-        <f t="shared" ref="C156:N156" si="11">_xlfn.VAR.S(C24:C149)</f>
+        <f t="shared" ref="C156:N156" si="15">_xlfn.VAR.S(C24:C149)</f>
         <v>70.626957155563872</v>
       </c>
       <c r="D156" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>29.561649555555572</v>
       </c>
       <c r="E156" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>6.4859849714285378</v>
       </c>
       <c r="F156" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>35.747847365079359</v>
       </c>
       <c r="G156" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1.4989216317460341</v>
       </c>
       <c r="H156" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>9.2574653714284647</v>
       </c>
       <c r="I156" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>128.64046468571394</v>
       </c>
       <c r="J156" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>348.89927195555367</v>
       </c>
       <c r="K156" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.881092342857142</v>
       </c>
       <c r="L156" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>6.3318810031745979E-3</v>
       </c>
       <c r="M156" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>246.76636172698431</v>
       </c>
       <c r="N156" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.7624961536507936</v>
       </c>
       <c r="O156" s="10"/>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A160" s="23" t="s">
         <v>174</v>
       </c>
@@ -10516,7 +11907,7 @@
       <c r="M160" s="24"/>
       <c r="N160" s="24"/>
     </row>
-    <row r="162" spans="1:15" ht="28.8" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:32" ht="28.8" x14ac:dyDescent="0.35">
       <c r="B162" s="13" t="s">
         <v>173</v>
       </c>
@@ -10560,178 +11951,178 @@
         <v>168</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B163" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C163" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Buggy",B$24:B$149)</f>
+        <f t="shared" ref="C163:O163" si="16" xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Buggy",B$24:B$149)</f>
         <v>2.2026190476190473</v>
       </c>
       <c r="D163" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Buggy",C$24:C$149)</f>
+        <f t="shared" si="16"/>
         <v>78.397142857142882</v>
       </c>
       <c r="E163" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Buggy",D$24:D$149)</f>
+        <f t="shared" si="16"/>
         <v>11.101190476190476</v>
       </c>
       <c r="F163" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Buggy",E$24:E$149)</f>
+        <f t="shared" si="16"/>
         <v>7.1707142857142898</v>
       </c>
       <c r="G163" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Buggy",F$24:F$149)</f>
+        <f t="shared" si="16"/>
         <v>8.627380952380955</v>
       </c>
       <c r="H163" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Buggy",G$24:G$149)</f>
+        <f t="shared" si="16"/>
         <v>2.5138095238095235</v>
       </c>
       <c r="I163" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Buggy",H$24:H$149)</f>
+        <f t="shared" si="16"/>
         <v>9.6845238095238155</v>
       </c>
       <c r="J163" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Buggy",I$24:I$149)</f>
+        <f t="shared" si="16"/>
         <v>19.731190476190481</v>
       </c>
       <c r="K163" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Buggy",J$24:J$149)</f>
+        <f t="shared" si="16"/>
         <v>43.330952380952354</v>
       </c>
       <c r="L163" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Buggy",K$24:K$149)</f>
+        <f t="shared" si="16"/>
         <v>0.86357142857142843</v>
       </c>
       <c r="M163" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Buggy",L$24:L$149)</f>
+        <f t="shared" si="16"/>
         <v>4.761904761904763E-2</v>
       </c>
       <c r="N163" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Buggy",M$24:M$149)</f>
+        <f t="shared" si="16"/>
         <v>14.291904761904764</v>
       </c>
       <c r="O163" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Buggy",N$24:N$149)</f>
+        <f t="shared" si="16"/>
         <v>0.79480952380952397</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B164" s="1" t="s">
         <v>157</v>
       </c>
       <c r="C164" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Fixed",B$24:B$149)</f>
+        <f t="shared" ref="C164:O164" si="17" xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Fixed",B$24:B$149)</f>
         <v>2.2321428571428572</v>
       </c>
       <c r="D164" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Fixed",C$24:C$149)</f>
+        <f t="shared" si="17"/>
         <v>78.414047619047636</v>
       </c>
       <c r="E164" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Fixed",D$24:D$149)</f>
+        <f t="shared" si="17"/>
         <v>11.115</v>
       </c>
       <c r="F164" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Fixed",E$24:E$149)</f>
+        <f t="shared" si="17"/>
         <v>7.1685714285714326</v>
       </c>
       <c r="G164" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Fixed",F$24:F$149)</f>
+        <f t="shared" si="17"/>
         <v>8.6342857142857099</v>
       </c>
       <c r="H164" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Fixed",G$24:G$149)</f>
+        <f t="shared" si="17"/>
         <v>2.5192857142857141</v>
       </c>
       <c r="I164" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Fixed",H$24:H$149)</f>
+        <f t="shared" si="17"/>
         <v>9.6876190476190533</v>
       </c>
       <c r="J164" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Fixed",I$24:I$149)</f>
+        <f t="shared" si="17"/>
         <v>19.749047619047627</v>
       </c>
       <c r="K164" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Fixed",J$24:J$149)</f>
+        <f t="shared" si="17"/>
         <v>43.343333333333327</v>
       </c>
       <c r="L164" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Fixed",K$24:K$149)</f>
+        <f t="shared" si="17"/>
         <v>0.86309523809523814</v>
       </c>
       <c r="M164" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Fixed",L$24:L$149)</f>
+        <f t="shared" si="17"/>
         <v>4.761904761904763E-2</v>
       </c>
       <c r="N164" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Fixed",M$24:M$149)</f>
+        <f t="shared" si="17"/>
         <v>14.280000000000003</v>
       </c>
       <c r="O164" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Fixed",N$24:N$149)</f>
+        <f t="shared" si="17"/>
         <v>0.79385714285714304</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B165" s="1" t="s">
         <v>158</v>
       </c>
       <c r="C165" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Repaired",B$24:B$149)</f>
+        <f t="shared" ref="C165:O165" si="18" xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Repaired",B$24:B$149)</f>
         <v>2.1466666666666669</v>
       </c>
       <c r="D165" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Repaired",C$24:C$149)</f>
+        <f t="shared" si="18"/>
         <v>79.052142857142854</v>
       </c>
       <c r="E165" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Repaired",D$24:D$149)</f>
+        <f t="shared" si="18"/>
         <v>10.615476190476189</v>
       </c>
       <c r="F165" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Repaired",E$24:E$149)</f>
+        <f t="shared" si="18"/>
         <v>7.274285714285714</v>
       </c>
       <c r="G165" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Repaired",F$24:F$149)</f>
+        <f t="shared" si="18"/>
         <v>7.9573809523809516</v>
       </c>
       <c r="H165" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Repaired",G$24:G$149)</f>
+        <f t="shared" si="18"/>
         <v>2.4342857142857151</v>
       </c>
       <c r="I165" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Repaired",H$24:H$149)</f>
+        <f t="shared" si="18"/>
         <v>9.7092857142857127</v>
       </c>
       <c r="J165" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Repaired",I$24:I$149)</f>
+        <f t="shared" si="18"/>
         <v>18.572619047619046</v>
       </c>
       <c r="K165" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Repaired",J$24:J$149)</f>
+        <f t="shared" si="18"/>
         <v>42.644047619047626</v>
       </c>
       <c r="L165" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Repaired",K$24:K$149)</f>
+        <f t="shared" si="18"/>
         <v>0.87904761904761897</v>
       </c>
       <c r="M165" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Repaired",L$24:L$149)</f>
+        <f t="shared" si="18"/>
         <v>6.6585714285714276E-2</v>
       </c>
       <c r="N165" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Repaired",M$24:M$149)</f>
+        <f t="shared" si="18"/>
         <v>16.302857142857142</v>
       </c>
       <c r="O165" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Repaired",N$24:N$149)</f>
+        <f t="shared" si="18"/>
         <v>0.90623809523809518</v>
       </c>
     </row>
-    <row r="168" spans="1:15" ht="28.8" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:32" ht="28.8" x14ac:dyDescent="0.35">
       <c r="B168" s="13" t="s">
         <v>173</v>
       </c>
@@ -10775,178 +12166,178 @@
         <v>168</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B169" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C169" s="14">
-        <f xml:space="preserve"> SUMIF($A$24:$A$149, "*Buggy",B$24:B$149)</f>
+        <f t="shared" ref="C169:O169" si="19" xml:space="preserve"> SUMIF($A$24:$A$149, "*Buggy",B$24:B$149)</f>
         <v>92.509999999999991</v>
       </c>
       <c r="D169" s="14">
-        <f xml:space="preserve"> SUMIF($A$24:$A$149, "*Buggy",C$24:C$149)</f>
+        <f t="shared" si="19"/>
         <v>3292.6800000000007</v>
       </c>
       <c r="E169" s="14">
-        <f xml:space="preserve"> SUMIF($A$24:$A$149, "*Buggy",D$24:D$149)</f>
+        <f t="shared" si="19"/>
         <v>466.25</v>
       </c>
       <c r="F169" s="14">
-        <f xml:space="preserve"> SUMIF($A$24:$A$149, "*Buggy",E$24:E$149)</f>
+        <f t="shared" si="19"/>
         <v>301.17000000000019</v>
       </c>
       <c r="G169" s="14">
-        <f xml:space="preserve"> SUMIF($A$24:$A$149, "*Buggy",F$24:F$149)</f>
+        <f t="shared" si="19"/>
         <v>362.35000000000014</v>
       </c>
       <c r="H169" s="14">
-        <f xml:space="preserve"> SUMIF($A$24:$A$149, "*Buggy",G$24:G$149)</f>
+        <f t="shared" si="19"/>
         <v>105.57999999999998</v>
       </c>
       <c r="I169" s="14">
-        <f xml:space="preserve"> SUMIF($A$24:$A$149, "*Buggy",H$24:H$149)</f>
+        <f t="shared" si="19"/>
         <v>406.75000000000023</v>
       </c>
       <c r="J169" s="14">
-        <f xml:space="preserve"> SUMIF($A$24:$A$149, "*Buggy",I$24:I$149)</f>
+        <f t="shared" si="19"/>
         <v>828.71000000000015</v>
       </c>
       <c r="K169" s="14">
-        <f xml:space="preserve"> SUMIF($A$24:$A$149, "*Buggy",J$24:J$149)</f>
+        <f t="shared" si="19"/>
         <v>1819.899999999999</v>
       </c>
       <c r="L169" s="14">
-        <f xml:space="preserve"> SUMIF($A$24:$A$149, "*Buggy",K$24:K$149)</f>
+        <f t="shared" si="19"/>
         <v>36.269999999999996</v>
       </c>
       <c r="M169" s="14">
-        <f xml:space="preserve"> SUMIF($A$24:$A$149, "*Buggy",L$24:L$149)</f>
+        <f t="shared" si="19"/>
         <v>2.0000000000000004</v>
       </c>
       <c r="N169" s="14">
-        <f xml:space="preserve"> SUMIF($A$24:$A$149, "*Buggy",M$24:M$149)</f>
+        <f t="shared" si="19"/>
         <v>600.2600000000001</v>
       </c>
       <c r="O169" s="14">
-        <f xml:space="preserve"> SUMIF($A$24:$A$149, "*Buggy",N$24:N$149)</f>
+        <f t="shared" si="19"/>
         <v>33.382000000000005</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B170" s="1" t="s">
         <v>157</v>
       </c>
       <c r="C170" s="14">
-        <f>SUMIF($A$24:$A$149, "*Fixed",B$24:B$149)</f>
+        <f t="shared" ref="C170:O170" si="20">SUMIF($A$24:$A$149, "*Fixed",B$24:B$149)</f>
         <v>93.75</v>
       </c>
       <c r="D170" s="14">
-        <f>SUMIF($A$24:$A$149, "*Fixed",C$24:C$149)</f>
+        <f t="shared" si="20"/>
         <v>3293.3900000000008</v>
       </c>
       <c r="E170" s="14">
-        <f>SUMIF($A$24:$A$149, "*Fixed",D$24:D$149)</f>
+        <f t="shared" si="20"/>
         <v>466.83</v>
       </c>
       <c r="F170" s="14">
-        <f>SUMIF($A$24:$A$149, "*Fixed",E$24:E$149)</f>
+        <f t="shared" si="20"/>
         <v>301.08000000000015</v>
       </c>
       <c r="G170" s="14">
-        <f>SUMIF($A$24:$A$149, "*Fixed",F$24:F$149)</f>
+        <f t="shared" si="20"/>
         <v>362.63999999999982</v>
       </c>
       <c r="H170" s="14">
-        <f>SUMIF($A$24:$A$149, "*Fixed",G$24:G$149)</f>
+        <f t="shared" si="20"/>
         <v>105.81</v>
       </c>
       <c r="I170" s="14">
-        <f>SUMIF($A$24:$A$149, "*Fixed",H$24:H$149)</f>
+        <f t="shared" si="20"/>
         <v>406.88000000000022</v>
       </c>
       <c r="J170" s="14">
-        <f>SUMIF($A$24:$A$149, "*Fixed",I$24:I$149)</f>
+        <f t="shared" si="20"/>
         <v>829.46000000000038</v>
       </c>
       <c r="K170" s="14">
-        <f>SUMIF($A$24:$A$149, "*Fixed",J$24:J$149)</f>
+        <f t="shared" si="20"/>
         <v>1820.4199999999996</v>
       </c>
       <c r="L170" s="14">
-        <f>SUMIF($A$24:$A$149, "*Fixed",K$24:K$149)</f>
+        <f t="shared" si="20"/>
         <v>36.25</v>
       </c>
       <c r="M170" s="14">
-        <f>SUMIF($A$24:$A$149, "*Fixed",L$24:L$149)</f>
+        <f t="shared" si="20"/>
         <v>2.0000000000000004</v>
       </c>
       <c r="N170" s="14">
-        <f>SUMIF($A$24:$A$149, "*Fixed",M$24:M$149)</f>
+        <f t="shared" si="20"/>
         <v>599.7600000000001</v>
       </c>
       <c r="O170" s="14">
-        <f>SUMIF($A$24:$A$149, "*Fixed",N$24:N$149)</f>
+        <f t="shared" si="20"/>
         <v>33.342000000000006</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B171" s="1" t="s">
         <v>158</v>
       </c>
       <c r="C171" s="14">
-        <f>SUMIF($A$24:$A$149, "*Repaired",B$24:B$149)</f>
+        <f t="shared" ref="C171:O171" si="21">SUMIF($A$24:$A$149, "*Repaired",B$24:B$149)</f>
         <v>90.160000000000011</v>
       </c>
       <c r="D171" s="14">
-        <f>SUMIF($A$24:$A$149, "*Repaired",C$24:C$149)</f>
+        <f t="shared" si="21"/>
         <v>3320.19</v>
       </c>
       <c r="E171" s="14">
-        <f>SUMIF($A$24:$A$149, "*Repaired",D$24:D$149)</f>
+        <f t="shared" si="21"/>
         <v>445.84999999999991</v>
       </c>
       <c r="F171" s="14">
-        <f>SUMIF($A$24:$A$149, "*Repaired",E$24:E$149)</f>
+        <f t="shared" si="21"/>
         <v>305.52</v>
       </c>
       <c r="G171" s="14">
-        <f>SUMIF($A$24:$A$149, "*Repaired",F$24:F$149)</f>
+        <f t="shared" si="21"/>
         <v>334.21</v>
       </c>
       <c r="H171" s="14">
-        <f>SUMIF($A$24:$A$149, "*Repaired",G$24:G$149)</f>
+        <f t="shared" si="21"/>
         <v>102.24000000000002</v>
       </c>
       <c r="I171" s="14">
-        <f>SUMIF($A$24:$A$149, "*Repaired",H$24:H$149)</f>
+        <f t="shared" si="21"/>
         <v>407.78999999999996</v>
       </c>
       <c r="J171" s="14">
-        <f>SUMIF($A$24:$A$149, "*Repaired",I$24:I$149)</f>
+        <f t="shared" si="21"/>
         <v>780.05</v>
       </c>
       <c r="K171" s="14">
-        <f>SUMIF($A$24:$A$149, "*Repaired",J$24:J$149)</f>
+        <f t="shared" si="21"/>
         <v>1791.0500000000002</v>
       </c>
       <c r="L171" s="14">
-        <f>SUMIF($A$24:$A$149, "*Repaired",K$24:K$149)</f>
+        <f t="shared" si="21"/>
         <v>36.919999999999995</v>
       </c>
       <c r="M171" s="14">
-        <f>SUMIF($A$24:$A$149, "*Repaired",L$24:L$149)</f>
+        <f t="shared" si="21"/>
         <v>2.7965999999999993</v>
       </c>
       <c r="N171" s="14">
-        <f>SUMIF($A$24:$A$149, "*Repaired",M$24:M$149)</f>
+        <f t="shared" si="21"/>
         <v>684.71999999999991</v>
       </c>
       <c r="O171" s="14">
-        <f>SUMIF($A$24:$A$149, "*Repaired",N$24:N$149)</f>
+        <f t="shared" si="21"/>
         <v>38.061999999999998</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A174" s="23" t="s">
         <v>175</v>
       </c>
@@ -10964,7 +12355,7 @@
       <c r="M174" s="24"/>
       <c r="N174" s="24"/>
     </row>
-    <row r="176" spans="1:15" ht="28.8" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:32" ht="33.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B176" s="13" t="s">
         <v>173</v>
       </c>
@@ -11007,130 +12398,293 @@
       <c r="O176" s="13" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="S176" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="T176" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="U176" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="V176" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="W176" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="X176" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y176" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z176" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA176" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB176" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC176" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD176" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE176" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="AF176" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="177" spans="1:32" ht="15" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
-        <f>COUNTIFS($O$24:$O$149, "*Fixed", $P$24:$P$149, "&lt;2")</f>
-        <v>35</v>
+        <f>COUNTIFS($O$24:$O$149, "*Fixed", $P$24:$P$149, "=1")</f>
+        <v>25</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="C177" s="25">
-        <f>AVERAGEIFS(B$24:B$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "&lt;2")</f>
-        <v>2.0485714285714285</v>
+        <f>AVERAGEIFS(B$24:B$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "=1")</f>
+        <v>2.2911999999999999</v>
       </c>
       <c r="D177" s="25">
-        <f>AVERAGEIFS(C$24:C$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "&lt;2")</f>
-        <v>78.502571428571429</v>
+        <f>AVERAGEIFS(C$24:C$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "=1")</f>
+        <v>74.804399999999973</v>
       </c>
       <c r="E177" s="25">
-        <f>AVERAGEIFS(D$24:D$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "&lt;2")</f>
-        <v>11.001142857142858</v>
+        <f>AVERAGEIFS(D$24:D$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "=1")</f>
+        <v>12.986799999999999</v>
       </c>
       <c r="F177" s="25">
-        <f>AVERAGEIFS(E$24:E$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "&lt;2")</f>
-        <v>7.4385714285714322</v>
+        <f>AVERAGEIFS(E$24:E$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "=1")</f>
+        <v>8.4996000000000027</v>
       </c>
       <c r="G177" s="25">
-        <f>AVERAGEIFS(F$24:F$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "&lt;2")</f>
-        <v>8.2911428571428551</v>
+        <f>AVERAGEIFS(F$24:F$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "=1")</f>
+        <v>9.9744000000000046</v>
       </c>
       <c r="H177" s="25">
-        <f>AVERAGEIFS(G$24:G$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "&lt;2")</f>
-        <v>2.2791428571428574</v>
+        <f>AVERAGEIFS(G$24:G$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "=1")</f>
+        <v>2.5044</v>
       </c>
       <c r="I177" s="25">
-        <f>AVERAGEIFS(H$24:H$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "&lt;2")</f>
-        <v>9.7168571428571475</v>
+        <f>AVERAGEIFS(H$24:H$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "=1")</f>
+        <v>11.004000000000005</v>
       </c>
       <c r="J177" s="25">
-        <f>AVERAGEIFS(I$24:I$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "&lt;2")</f>
-        <v>19.293428571428578</v>
+        <f>AVERAGEIFS(I$24:I$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "=1")</f>
+        <v>22.961199999999998</v>
       </c>
       <c r="K177" s="25">
-        <f>AVERAGEIFS(J$24:J$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "&lt;2")</f>
-        <v>43.453999999999986</v>
+        <f>AVERAGEIFS(J$24:J$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "=1")</f>
+        <v>51.645599999999973</v>
       </c>
       <c r="L177" s="25">
-        <f>AVERAGEIFS(K$24:K$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "&lt;2")</f>
-        <v>1.0031428571428571</v>
+        <f>AVERAGEIFS(K$24:K$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "=1")</f>
+        <v>1.2936000000000001</v>
       </c>
       <c r="M177" s="25">
-        <f>AVERAGEIFS(L$24:L$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "&lt;2")</f>
-        <v>5.6285714285714307E-2</v>
+        <f>AVERAGEIFS(L$24:L$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "=1")</f>
+        <v>4.5600000000000022E-2</v>
       </c>
       <c r="N177" s="25">
-        <f>AVERAGEIFS(M$24:M$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "&lt;2")</f>
-        <v>16.384000000000004</v>
+        <f>AVERAGEIFS(M$24:M$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "=1")</f>
+        <v>19.542400000000008</v>
       </c>
       <c r="O177" s="25">
-        <f>AVERAGEIFS(N$24:N$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "&lt;2")</f>
-        <v>0.91091428571428601</v>
-      </c>
-    </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.35">
+        <f>AVERAGEIFS(N$24:N$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "=1")</f>
+        <v>1.0860800000000002</v>
+      </c>
+      <c r="R177">
+        <f>COUNTIFS($O$66:$O$149, "*Fixed", $P$66:$P$149, "=1", $S$66:$S$149, "=1")</f>
+        <v>22</v>
+      </c>
+      <c r="S177" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="T177" s="25">
+        <f>AVERAGEIFS(B$66:B$149, $O$66:$O$149, "*Fixed", $P$66:$P$149, "=1", $S$66:$S$149, "=1")</f>
+        <v>2.330909090909091</v>
+      </c>
+      <c r="U177" s="25">
+        <f>AVERAGEIFS(C$66:C$149, $O$66:$O$149, "*Fixed", $P$66:$P$149, "=1", $S$66:$S$149, "=1")</f>
+        <v>72.914545454545419</v>
+      </c>
+      <c r="V177" s="25">
+        <f>AVERAGEIFS(D$66:D$149, $O$66:$O$149, "*Fixed", $P$66:$P$149, "=1", $S$66:$S$149, "=1")</f>
+        <v>14.136363636363637</v>
+      </c>
+      <c r="W177" s="25">
+        <f>AVERAGEIFS(E$66:E$149, $O$66:$O$149, "*Fixed", $P$66:$P$149, "=1", $S$66:$S$149, "=1")</f>
+        <v>9.2490909090909117</v>
+      </c>
+      <c r="X177" s="25">
+        <f>AVERAGEIFS(F$66:F$149, $O$66:$O$149, "*Fixed", $P$66:$P$149, "=1", $S$66:$S$149, "=1")</f>
+        <v>10.880000000000004</v>
+      </c>
+      <c r="Y177" s="25">
+        <f>AVERAGEIFS(G$66:G$149, $O$66:$O$149, "*Fixed", $P$66:$P$149, "=1", $S$66:$S$149, "=1")</f>
+        <v>2.6490909090909089</v>
+      </c>
+      <c r="Z177" s="25">
+        <f>AVERAGEIFS(H$66:H$149, $O$66:$O$149, "*Fixed", $P$66:$P$149, "=1", $S$66:$S$149, "=1")</f>
+        <v>11.898181818181824</v>
+      </c>
+      <c r="AA177" s="25">
+        <f>AVERAGEIFS(I$66:I$149, $O$66:$O$149, "*Fixed", $P$66:$P$149, "=1", $S$66:$S$149, "=1")</f>
+        <v>25.016363636363632</v>
+      </c>
+      <c r="AB177" s="25">
+        <f>AVERAGEIFS(J$66:J$149, $O$66:$O$149, "*Fixed", $P$66:$P$149, "=1", $S$66:$S$149, "=1")</f>
+        <v>56.694545454545434</v>
+      </c>
+      <c r="AC177" s="25">
+        <f>AVERAGEIFS(K$66:K$149, $O$66:$O$149, "*Fixed", $P$66:$P$149, "=1", $S$66:$S$149, "=1")</f>
+        <v>1.4545454545454546</v>
+      </c>
+      <c r="AD177" s="25">
+        <f>AVERAGEIFS(L$66:L$149, $O$66:$O$149, "*Fixed", $P$66:$P$149, "=1", $S$66:$S$149, "=1")</f>
+        <v>3.6363636363636369E-2</v>
+      </c>
+      <c r="AE177" s="25">
+        <f>AVERAGEIFS(M$66:M$149, $O$66:$O$149, "*Fixed", $P$66:$P$149, "=1", $S$66:$S$149, "=1")</f>
+        <v>22.116363636363644</v>
+      </c>
+      <c r="AF177" s="25">
+        <f>AVERAGEIFS(N$66:N$149, $O$66:$O$149, "*Fixed", $P$66:$P$149, "=1", $S$66:$S$149, "=1")</f>
+        <v>1.2290909090909095</v>
+      </c>
+    </row>
+    <row r="178" spans="1:32" ht="15" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
-        <f>COUNTIFS($O$24:$O$149, "*Repaired", $P$24:$P$149, "&lt;2")</f>
+        <f>COUNTIFS($O$24:$O$149, "*Repaired", $P$24:$P$149, "=1")</f>
         <v>22</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="C178" s="25">
-        <f>AVERAGEIFS(B$24:B$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "&lt;2")</f>
+        <f>AVERAGEIFS(B$24:B$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "=1")</f>
         <v>2.8531818181818185</v>
       </c>
       <c r="D178" s="25">
-        <f>AVERAGEIFS(C$24:C$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "&lt;2")</f>
+        <f>AVERAGEIFS(C$24:C$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "=1")</f>
         <v>82.204999999999984</v>
       </c>
       <c r="E178" s="25">
-        <f>AVERAGEIFS(D$24:D$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "&lt;2")</f>
+        <f>AVERAGEIFS(D$24:D$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "=1")</f>
         <v>10.497272727272728</v>
       </c>
       <c r="F178" s="25">
-        <f>AVERAGEIFS(E$24:E$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "&lt;2")</f>
+        <f>AVERAGEIFS(E$24:E$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "=1")</f>
         <v>5.6736363636363638</v>
       </c>
       <c r="G178" s="25">
-        <f>AVERAGEIFS(F$24:F$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "&lt;2")</f>
+        <f>AVERAGEIFS(F$24:F$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "=1")</f>
         <v>8.6931818181818201</v>
       </c>
       <c r="H178" s="25">
-        <f>AVERAGEIFS(G$24:G$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "&lt;2")</f>
+        <f>AVERAGEIFS(G$24:G$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "=1")</f>
         <v>2.4931818181818182</v>
       </c>
       <c r="I178" s="25">
-        <f>AVERAGEIFS(H$24:H$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "&lt;2")</f>
+        <f>AVERAGEIFS(H$24:H$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "=1")</f>
         <v>8.1668181818181811</v>
       </c>
       <c r="J178" s="25">
-        <f>AVERAGEIFS(I$24:I$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "&lt;2")</f>
+        <f>AVERAGEIFS(I$24:I$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "=1")</f>
         <v>19.189545454545456</v>
       </c>
       <c r="K178" s="25">
-        <f>AVERAGEIFS(J$24:J$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "&lt;2")</f>
+        <f>AVERAGEIFS(J$24:J$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "=1")</f>
         <v>35.719090909090909</v>
       </c>
       <c r="L178" s="25">
-        <f>AVERAGEIFS(K$24:K$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "&lt;2")</f>
+        <f>AVERAGEIFS(K$24:K$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "=1")</f>
         <v>0.32545454545454544</v>
       </c>
       <c r="M178" s="25">
-        <f>AVERAGEIFS(L$24:L$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "&lt;2")</f>
+        <f>AVERAGEIFS(L$24:L$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "=1")</f>
         <v>6.8209090909090928E-2</v>
       </c>
       <c r="N178" s="25">
-        <f>AVERAGEIFS(M$24:M$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "&lt;2")</f>
+        <f>AVERAGEIFS(M$24:M$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "=1")</f>
         <v>7.0422727272727261</v>
       </c>
       <c r="O178" s="25">
-        <f>AVERAGEIFS(N$24:N$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "&lt;2")</f>
+        <f>AVERAGEIFS(N$24:N$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "=1")</f>
         <v>0.39190909090909093</v>
       </c>
-    </row>
-    <row r="180" spans="1:15" ht="28.8" x14ac:dyDescent="0.35">
+      <c r="R178">
+        <f>COUNTIFS($O$66:$O$149, "*Repaired", $P$66:$P$149, "=1", $S$66:$S$149, "=1")</f>
+        <v>10</v>
+      </c>
+      <c r="S178" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="T178" s="25">
+        <f>AVERAGEIFS(B$66:B$149, $O$66:$O$149, "*Repaired", $P$66:$P$149, "=1", $S$66:$S$149, "=1")</f>
+        <v>2.1420000000000003</v>
+      </c>
+      <c r="U178" s="25">
+        <f>AVERAGEIFS(C$66:C$149, $O$66:$O$149, "*Repaired", $P$66:$P$149, "=1", $S$66:$S$149, "=1")</f>
+        <v>88.804999999999993</v>
+      </c>
+      <c r="V178" s="25">
+        <f>AVERAGEIFS(D$66:D$149, $O$66:$O$149, "*Repaired", $P$66:$P$149, "=1", $S$66:$S$149, "=1")</f>
+        <v>7.1149999999999993</v>
+      </c>
+      <c r="W178" s="25">
+        <f>AVERAGEIFS(E$66:E$149, $O$66:$O$149, "*Repaired", $P$66:$P$149, "=1", $S$66:$S$149, "=1")</f>
+        <v>5.0179999999999989</v>
+      </c>
+      <c r="X178" s="25">
+        <f>AVERAGEIFS(F$66:F$149, $O$66:$O$149, "*Repaired", $P$66:$P$149, "=1", $S$66:$S$149, "=1")</f>
+        <v>4.9319999999999995</v>
+      </c>
+      <c r="Y178" s="25">
+        <f>AVERAGEIFS(G$66:G$149, $O$66:$O$149, "*Repaired", $P$66:$P$149, "=1", $S$66:$S$149, "=1")</f>
+        <v>1.7969999999999999</v>
+      </c>
+      <c r="Z178" s="25">
+        <f>AVERAGEIFS(H$66:H$149, $O$66:$O$149, "*Repaired", $P$66:$P$149, "=1", $S$66:$S$149, "=1")</f>
+        <v>6.8159999999999998</v>
+      </c>
+      <c r="AA178" s="25">
+        <f>AVERAGEIFS(I$66:I$149, $O$66:$O$149, "*Repaired", $P$66:$P$149, "=1", $S$66:$S$149, "=1")</f>
+        <v>12.047000000000001</v>
+      </c>
+      <c r="AB178" s="25">
+        <f>AVERAGEIFS(J$66:J$149, $O$66:$O$149, "*Repaired", $P$66:$P$149, "=1", $S$66:$S$149, "=1")</f>
+        <v>24.544000000000004</v>
+      </c>
+      <c r="AC178" s="25">
+        <f>AVERAGEIFS(K$66:K$149, $O$66:$O$149, "*Repaired", $P$66:$P$149, "=1", $S$66:$S$149, "=1")</f>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="AD178" s="25">
+        <f>AVERAGEIFS(L$66:L$149, $O$66:$O$149, "*Repaired", $P$66:$P$149, "=1", $S$66:$S$149, "=1")</f>
+        <v>2.606E-2</v>
+      </c>
+      <c r="AE178" s="25">
+        <f>AVERAGEIFS(M$66:M$149, $O$66:$O$149, "*Repaired", $P$66:$P$149, "=1", $S$66:$S$149, "=1")</f>
+        <v>4.82</v>
+      </c>
+      <c r="AF178" s="25">
+        <f>AVERAGEIFS(N$66:N$149, $O$66:$O$149, "*Repaired", $P$66:$P$149, "=1", $S$66:$S$149, "=1")</f>
+        <v>0.26800000000000002</v>
+      </c>
+    </row>
+    <row r="179" spans="1:32" ht="15" x14ac:dyDescent="0.35">
+      <c r="R179"/>
+    </row>
+    <row r="180" spans="1:32" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B180" s="13" t="s">
         <v>173</v>
       </c>
@@ -11173,130 +12727,291 @@
       <c r="O180" s="13" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R180"/>
+      <c r="S180" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="T180" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="U180" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="V180" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="W180" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="X180" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y180" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z180" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA180" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB180" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC180" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD180" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE180" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="AF180" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="181" spans="1:32" ht="15" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <f>COUNTIFS($O$24:$O$149, "*Fixed", $P$24:$P$149, "&gt;1")</f>
         <v>7</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="C181" s="25">
-        <f>AVERAGEIFS(B$24:B$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "&gt;1")</f>
+        <f t="shared" ref="C181:O181" si="22">AVERAGEIFS(B$24:B$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "&gt;1")</f>
         <v>3.1499999999999995</v>
       </c>
       <c r="D181" s="25">
-        <f>AVERAGEIFS(C$24:C$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "&gt;1")</f>
+        <f t="shared" si="22"/>
         <v>77.971428571428575</v>
       </c>
       <c r="E181" s="25">
-        <f>AVERAGEIFS(D$24:D$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "&gt;1")</f>
+        <f t="shared" si="22"/>
         <v>11.684285714285716</v>
       </c>
       <c r="F181" s="25">
-        <f>AVERAGEIFS(E$24:E$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "&gt;1")</f>
+        <f t="shared" si="22"/>
         <v>5.8185714285714285</v>
       </c>
       <c r="G181" s="25">
-        <f>AVERAGEIFS(F$24:F$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "&gt;1")</f>
+        <f t="shared" si="22"/>
         <v>10.35</v>
       </c>
       <c r="H181" s="25">
-        <f>AVERAGEIFS(G$24:G$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "&gt;1")</f>
+        <f t="shared" si="22"/>
         <v>3.7199999999999998</v>
       </c>
       <c r="I181" s="25">
-        <f>AVERAGEIFS(H$24:H$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "&gt;1")</f>
+        <f t="shared" si="22"/>
         <v>9.54142857142857</v>
       </c>
       <c r="J181" s="25">
-        <f>AVERAGEIFS(I$24:I$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "&gt;1")</f>
+        <f t="shared" si="22"/>
         <v>22.027142857142859</v>
       </c>
       <c r="K181" s="25">
-        <f>AVERAGEIFS(J$24:J$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "&gt;1")</f>
+        <f t="shared" si="22"/>
         <v>42.79</v>
       </c>
       <c r="L181" s="25">
-        <f>AVERAGEIFS(K$24:K$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "&gt;1")</f>
+        <f t="shared" si="22"/>
         <v>0.16285714285714284</v>
       </c>
       <c r="M181" s="25">
-        <f>AVERAGEIFS(L$24:L$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "&gt;1")</f>
+        <f t="shared" si="22"/>
         <v>4.2857142857142859E-3</v>
       </c>
       <c r="N181" s="25">
-        <f>AVERAGEIFS(M$24:M$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "&gt;1")</f>
+        <f t="shared" si="22"/>
         <v>3.7600000000000002</v>
       </c>
       <c r="O181" s="25">
-        <f>AVERAGEIFS(N$24:N$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "&gt;1")</f>
+        <f t="shared" si="22"/>
         <v>0.20857142857142857</v>
       </c>
-    </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R181">
+        <f>COUNTIFS($O$66:$O$149, "*Fixed", $P$66:$P$149, "=1", $S$66:$S$149, "&gt;1")</f>
+        <v>3</v>
+      </c>
+      <c r="S181" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="T181" s="25">
+        <f>AVERAGEIFS(B$66:B$149, $O$66:$O$149, "*Fixed", $P$66:$P$149, "=1", $S$66:$S$149, "&gt;1")</f>
+        <v>2</v>
+      </c>
+      <c r="U181" s="25">
+        <f>AVERAGEIFS(C$66:C$149, $O$66:$O$149, "*Fixed", $P$66:$P$149, "=1", $S$66:$S$149, "&gt;1")</f>
+        <v>88.663333333333341</v>
+      </c>
+      <c r="V181" s="25">
+        <f>AVERAGEIFS(D$66:D$149, $O$66:$O$149, "*Fixed", $P$66:$P$149, "=1", $S$66:$S$149, "&gt;1")</f>
+        <v>4.5566666666666666</v>
+      </c>
+      <c r="W181" s="25">
+        <f>AVERAGEIFS(E$66:E$149, $O$66:$O$149, "*Fixed", $P$66:$P$149, "=1", $S$66:$S$149, "&gt;1")</f>
+        <v>3.0033333333333334</v>
+      </c>
+      <c r="X181" s="25">
+        <f>AVERAGEIFS(F$66:F$149, $O$66:$O$149, "*Fixed", $P$66:$P$149, "=1", $S$66:$S$149, "&gt;1")</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="Y181" s="25">
+        <f>AVERAGEIFS(G$66:G$149, $O$66:$O$149, "*Fixed", $P$66:$P$149, "=1", $S$66:$S$149, "&gt;1")</f>
+        <v>1.4433333333333334</v>
+      </c>
+      <c r="Z181" s="25">
+        <f>AVERAGEIFS(H$66:H$149, $O$66:$O$149, "*Fixed", $P$66:$P$149, "=1", $S$66:$S$149, "&gt;1")</f>
+        <v>4.4466666666666663</v>
+      </c>
+      <c r="AA181" s="25">
+        <f>AVERAGEIFS(I$66:I$149, $O$66:$O$149, "*Fixed", $P$66:$P$149, "=1", $S$66:$S$149, "&gt;1")</f>
+        <v>7.8900000000000006</v>
+      </c>
+      <c r="AB181" s="25">
+        <f>AVERAGEIFS(J$66:J$149, $O$66:$O$149, "*Fixed", $P$66:$P$149, "=1", $S$66:$S$149, "&gt;1")</f>
+        <v>14.62</v>
+      </c>
+      <c r="AC181" s="25">
+        <f>AVERAGEIFS(K$66:K$149, $O$66:$O$149, "*Fixed", $P$66:$P$149, "=1", $S$66:$S$149, "&gt;1")</f>
+        <v>0.11333333333333334</v>
+      </c>
+      <c r="AD181" s="25">
+        <f>AVERAGEIFS(L$66:L$149, $O$66:$O$149, "*Fixed", $P$66:$P$149, "=1", $S$66:$S$149, "&gt;1")</f>
+        <v>0.11333333333333334</v>
+      </c>
+      <c r="AE181" s="25">
+        <f>AVERAGEIFS(M$66:M$149, $O$66:$O$149, "*Fixed", $P$66:$P$149, "=1", $S$66:$S$149, "&gt;1")</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AF181" s="25">
+        <f>AVERAGEIFS(N$66:N$149, $O$66:$O$149, "*Fixed", $P$66:$P$149, "=1", $S$66:$S$149, "&gt;1")</f>
+        <v>3.7333333333333336E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:32" ht="15" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <f>COUNTIFS($O$24:$O$149, "*Repaired", $P$24:$P$149, "&gt;1")</f>
         <v>20</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="C182" s="25">
-        <f>AVERAGEIFS(B$24:B$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "&gt;1")</f>
+        <f t="shared" ref="C182:O182" si="23">AVERAGEIFS(B$24:B$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "&gt;1")</f>
         <v>1.3694999999999999</v>
       </c>
       <c r="D182" s="25">
-        <f>AVERAGEIFS(C$24:C$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "&gt;1")</f>
+        <f t="shared" si="23"/>
         <v>75.584000000000017</v>
       </c>
       <c r="E182" s="25">
-        <f>AVERAGEIFS(D$24:D$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "&gt;1")</f>
+        <f t="shared" si="23"/>
         <v>10.745499999999998</v>
       </c>
       <c r="F182" s="25">
-        <f>AVERAGEIFS(E$24:E$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "&gt;1")</f>
+        <f t="shared" si="23"/>
         <v>9.0350000000000001</v>
       </c>
       <c r="G182" s="25">
-        <f>AVERAGEIFS(F$24:F$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "&gt;1")</f>
+        <f t="shared" si="23"/>
         <v>7.1480000000000006</v>
       </c>
       <c r="H182" s="25">
-        <f>AVERAGEIFS(G$24:G$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "&gt;1")</f>
+        <f t="shared" si="23"/>
         <v>2.3694999999999999</v>
       </c>
       <c r="I182" s="25">
-        <f>AVERAGEIFS(H$24:H$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "&gt;1")</f>
+        <f t="shared" si="23"/>
         <v>11.406000000000001</v>
       </c>
       <c r="J182" s="25">
-        <f>AVERAGEIFS(I$24:I$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "&gt;1")</f>
+        <f t="shared" si="23"/>
         <v>17.894000000000002</v>
       </c>
       <c r="K182" s="25">
-        <f>AVERAGEIFS(J$24:J$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "&gt;1")</f>
+        <f t="shared" si="23"/>
         <v>50.261499999999998</v>
       </c>
       <c r="L182" s="25">
-        <f>AVERAGEIFS(K$24:K$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "&gt;1")</f>
+        <f t="shared" si="23"/>
         <v>1.488</v>
       </c>
       <c r="M182" s="25">
-        <f>AVERAGEIFS(L$24:L$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "&gt;1")</f>
+        <f t="shared" si="23"/>
         <v>6.4799999999999996E-2</v>
       </c>
       <c r="N182" s="25">
-        <f>AVERAGEIFS(M$24:M$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "&gt;1")</f>
+        <f t="shared" si="23"/>
         <v>26.48950000000001</v>
       </c>
       <c r="O182" s="25">
-        <f>AVERAGEIFS(N$24:N$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "&gt;1")</f>
+        <f t="shared" si="23"/>
         <v>1.4720000000000002</v>
       </c>
-    </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R182">
+        <f>COUNTIFS($O$66:$O$149, "*Repaired", $P$66:$P$149, "=1", $S$66:$S$149, "&gt;1")</f>
+        <v>12</v>
+      </c>
+      <c r="S182" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="T182" s="25">
+        <f>AVERAGEIFS(B$66:B$149, $O$66:$O$149, "*Repaired", $P$66:$P$149, "=1", $S$66:$S$149, "&gt;1")</f>
+        <v>3.4458333333333333</v>
+      </c>
+      <c r="U182" s="25">
+        <f>AVERAGEIFS(C$66:C$149, $O$66:$O$149, "*Repaired", $P$66:$P$149, "=1", $S$66:$S$149, "&gt;1")</f>
+        <v>76.704999999999998</v>
+      </c>
+      <c r="V182" s="25">
+        <f>AVERAGEIFS(D$66:D$149, $O$66:$O$149, "*Repaired", $P$66:$P$149, "=1", $S$66:$S$149, "&gt;1")</f>
+        <v>13.315833333333332</v>
+      </c>
+      <c r="W182" s="25">
+        <f>AVERAGEIFS(E$66:E$149, $O$66:$O$149, "*Repaired", $P$66:$P$149, "=1", $S$66:$S$149, "&gt;1")</f>
+        <v>6.22</v>
+      </c>
+      <c r="X182" s="25">
+        <f>AVERAGEIFS(F$66:F$149, $O$66:$O$149, "*Repaired", $P$66:$P$149, "=1", $S$66:$S$149, "&gt;1")</f>
+        <v>11.827500000000001</v>
+      </c>
+      <c r="Y182" s="25">
+        <f>AVERAGEIFS(G$66:G$149, $O$66:$O$149, "*Repaired", $P$66:$P$149, "=1", $S$66:$S$149, "&gt;1")</f>
+        <v>3.0733333333333337</v>
+      </c>
+      <c r="Z182" s="25">
+        <f>AVERAGEIFS(H$66:H$149, $O$66:$O$149, "*Repaired", $P$66:$P$149, "=1", $S$66:$S$149, "&gt;1")</f>
+        <v>9.2925000000000004</v>
+      </c>
+      <c r="AA182" s="25">
+        <f>AVERAGEIFS(I$66:I$149, $O$66:$O$149, "*Repaired", $P$66:$P$149, "=1", $S$66:$S$149, "&gt;1")</f>
+        <v>25.141666666666666</v>
+      </c>
+      <c r="AB182" s="25">
+        <f>AVERAGEIFS(J$66:J$149, $O$66:$O$149, "*Repaired", $P$66:$P$149, "=1", $S$66:$S$149, "&gt;1")</f>
+        <v>45.031666666666659</v>
+      </c>
+      <c r="AC182" s="25">
+        <f>AVERAGEIFS(K$66:K$149, $O$66:$O$149, "*Repaired", $P$66:$P$149, "=1", $S$66:$S$149, "&gt;1")</f>
+        <v>0.45083333333333325</v>
+      </c>
+      <c r="AD182" s="25">
+        <f>AVERAGEIFS(L$66:L$149, $O$66:$O$149, "*Repaired", $P$66:$P$149, "=1", $S$66:$S$149, "&gt;1")</f>
+        <v>0.10333333333333335</v>
+      </c>
+      <c r="AE182" s="25">
+        <f>AVERAGEIFS(M$66:M$149, $O$66:$O$149, "*Repaired", $P$66:$P$149, "=1", $S$66:$S$149, "&gt;1")</f>
+        <v>8.8941666666666652</v>
+      </c>
+      <c r="AF182" s="25">
+        <f>AVERAGEIFS(N$66:N$149, $O$66:$O$149, "*Repaired", $P$66:$P$149, "=1", $S$66:$S$149, "&gt;1")</f>
+        <v>0.49516666666666659</v>
+      </c>
+    </row>
+    <row r="183" spans="1:32" ht="15" x14ac:dyDescent="0.35">
       <c r="C183" s="25"/>
       <c r="D183" s="25"/>
       <c r="E183" s="25"/>
@@ -11310,8 +13025,22 @@
       <c r="M183" s="25"/>
       <c r="N183" s="25"/>
       <c r="O183" s="25"/>
-    </row>
-    <row r="184" spans="1:15" ht="28.8" x14ac:dyDescent="0.35">
+      <c r="R183"/>
+      <c r="T183" s="25"/>
+      <c r="U183" s="25"/>
+      <c r="V183" s="25"/>
+      <c r="W183" s="25"/>
+      <c r="X183" s="25"/>
+      <c r="Y183" s="25"/>
+      <c r="Z183" s="25"/>
+      <c r="AA183" s="25"/>
+      <c r="AB183" s="25"/>
+      <c r="AC183" s="25"/>
+      <c r="AD183" s="25"/>
+      <c r="AE183" s="25"/>
+      <c r="AF183" s="25"/>
+    </row>
+    <row r="184" spans="1:32" ht="32.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B184" s="13" t="s">
         <v>173</v>
       </c>
@@ -11354,130 +13083,291 @@
       <c r="O184" s="13" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R184"/>
+      <c r="S184" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="T184" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="U184" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="V184" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="W184" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="X184" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y184" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z184" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA184" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB184" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC184" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD184" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE184" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="AF184" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="185" spans="1:32" ht="15" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
-        <f>COUNTIFS($O$24:$O$149, "*Fixed", $S$24:$S$149, "&lt;2")</f>
+        <f>COUNTIFS($O$24:$O$149, "*Fixed", $S$24:$S$149, "=1")</f>
+        <v>22</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C185" s="25">
+        <f>AVERAGEIFS(B$24:B$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "=1")</f>
+        <v>2.330909090909091</v>
+      </c>
+      <c r="D185" s="25">
+        <f>AVERAGEIFS(C$24:C$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "=1")</f>
+        <v>72.914545454545419</v>
+      </c>
+      <c r="E185" s="25">
+        <f>AVERAGEIFS(D$24:D$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "=1")</f>
+        <v>14.136363636363637</v>
+      </c>
+      <c r="F185" s="25">
+        <f>AVERAGEIFS(E$24:E$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "=1")</f>
+        <v>9.2490909090909117</v>
+      </c>
+      <c r="G185" s="25">
+        <f>AVERAGEIFS(F$24:F$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "=1")</f>
+        <v>10.880000000000004</v>
+      </c>
+      <c r="H185" s="25">
+        <f>AVERAGEIFS(G$24:G$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "=1")</f>
+        <v>2.6490909090909089</v>
+      </c>
+      <c r="I185" s="25">
+        <f>AVERAGEIFS(H$24:H$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "=1")</f>
+        <v>11.898181818181824</v>
+      </c>
+      <c r="J185" s="25">
+        <f>AVERAGEIFS(I$24:I$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "=1")</f>
+        <v>25.016363636363632</v>
+      </c>
+      <c r="K185" s="25">
+        <f>AVERAGEIFS(J$24:J$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "=1")</f>
+        <v>56.694545454545434</v>
+      </c>
+      <c r="L185" s="25">
+        <f>AVERAGEIFS(K$24:K$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "=1")</f>
+        <v>1.4545454545454546</v>
+      </c>
+      <c r="M185" s="25">
+        <f>AVERAGEIFS(L$24:L$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "=1")</f>
+        <v>3.6363636363636369E-2</v>
+      </c>
+      <c r="N185" s="25">
+        <f>AVERAGEIFS(M$24:M$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "=1")</f>
+        <v>22.116363636363644</v>
+      </c>
+      <c r="O185" s="25">
+        <f>AVERAGEIFS(N$24:N$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "=1")</f>
+        <v>1.2290909090909095</v>
+      </c>
+      <c r="R185">
+        <f>COUNTIFS($O$66:$O$149, "*Fixed", $U$66:$U$149, "YES")</f>
+        <v>0</v>
+      </c>
+      <c r="S185" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="T185" s="25" t="e">
+        <f>AVERAGEIFS(B$66:B$149, $O$66:$O$149, "*Fixed", $U$66:$U$149, "YES")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U185" s="25" t="e">
+        <f>AVERAGEIFS(C$66:C$149, $O$66:$O$149, "*Fixed", $U$66:$U$149, "YES")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V185" s="25" t="e">
+        <f>AVERAGEIFS(D$66:D$149, $O$66:$O$149, "*Fixed", $U$66:$U$149, "YES")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W185" s="25" t="e">
+        <f>AVERAGEIFS(E$66:E$149, $O$66:$O$149, "*Fixed", $U$66:$U$149, "YES")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X185" s="25" t="e">
+        <f>AVERAGEIFS(F$66:F$149, $O$66:$O$149, "*Fixed", $U$66:$U$149, "YES")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y185" s="25" t="e">
+        <f>AVERAGEIFS(G$66:G$149, $O$66:$O$149, "*Fixed", $U$66:$U$149, "YES")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z185" s="25" t="e">
+        <f>AVERAGEIFS(H$66:H$149, $O$66:$O$149, "*Fixed", $U$66:$U$149, "YES")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA185" s="25" t="e">
+        <f>AVERAGEIFS(I$66:I$149, $O$66:$O$149, "*Fixed", $U$66:$U$149, "YES")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB185" s="25" t="e">
+        <f>AVERAGEIFS(J$66:J$149, $O$66:$O$149, "*Fixed", $U$66:$U$149, "YES")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC185" s="25" t="e">
+        <f>AVERAGEIFS(K$66:K$149, $O$66:$O$149, "*Fixed", $U$66:$U$149, "YES")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD185" s="25" t="e">
+        <f>AVERAGEIFS(L$66:L$149, $O$66:$O$149, "*Fixed", $U$66:$U$149, "YES")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE185" s="25" t="e">
+        <f>AVERAGEIFS(M$66:M$149, $O$66:$O$149, "*Fixed", $U$66:$U$149, "YES")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF185" s="25" t="e">
+        <f>AVERAGEIFS(N$66:N$149, $O$66:$O$149, "*Fixed", $U$66:$U$149, "YES")</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="186" spans="1:32" ht="15" x14ac:dyDescent="0.35">
+      <c r="A186" s="1">
+        <f>COUNTIFS($O$24:$O$149, "*Repaired", $S$24:$S$149, "=1")</f>
         <v>10</v>
       </c>
-      <c r="B185" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C185" s="25">
-        <f>AVERAGEIFS(B$24:B$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "&lt;2")</f>
-        <v>1.4419999999999999</v>
-      </c>
-      <c r="D185" s="25">
-        <f>AVERAGEIFS(C$24:C$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "&lt;2")</f>
-        <v>87.74799999999999</v>
-      </c>
-      <c r="E185" s="25">
-        <f>AVERAGEIFS(D$24:D$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "&lt;2")</f>
-        <v>6.0370000000000008</v>
-      </c>
-      <c r="F185" s="25">
-        <f>AVERAGEIFS(E$24:E$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "&lt;2")</f>
-        <v>4.7859999999999996</v>
-      </c>
-      <c r="G185" s="25">
-        <f>AVERAGEIFS(F$24:F$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "&lt;2")</f>
-        <v>4.0830000000000002</v>
-      </c>
-      <c r="H185" s="25">
-        <f>AVERAGEIFS(G$24:G$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "&lt;2")</f>
-        <v>1.716</v>
-      </c>
-      <c r="I185" s="25">
-        <f>AVERAGEIFS(H$24:H$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "&lt;2")</f>
-        <v>6.4989999999999997</v>
-      </c>
-      <c r="J185" s="25">
-        <f>AVERAGEIFS(I$24:I$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "&lt;2")</f>
-        <v>10.124000000000001</v>
-      </c>
-      <c r="K185" s="25">
-        <f>AVERAGEIFS(J$24:J$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "&lt;2")</f>
-        <v>22.975000000000001</v>
-      </c>
-      <c r="L185" s="25">
-        <f>AVERAGEIFS(K$24:K$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "&lt;2")</f>
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="M185" s="25">
-        <f>AVERAGEIFS(L$24:L$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "&lt;2")</f>
-        <v>8.299999999999999E-2</v>
-      </c>
-      <c r="N185" s="25">
-        <f>AVERAGEIFS(M$24:M$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "&lt;2")</f>
-        <v>8.4879999999999995</v>
-      </c>
-      <c r="O185" s="25">
-        <f>AVERAGEIFS(N$24:N$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "&lt;2")</f>
-        <v>0.47299999999999998</v>
-      </c>
-    </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A186" s="1">
-        <f>COUNTIFS($O$24:$O$149, "*Repaired", $S$24:$S$149, "&lt;2")</f>
-        <v>8</v>
-      </c>
       <c r="B186" s="1" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="C186" s="25">
-        <f>AVERAGEIFS(B$24:B$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "&lt;2")</f>
-        <v>1.8137500000000002</v>
+        <f>AVERAGEIFS(B$24:B$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "=1")</f>
+        <v>2.1420000000000003</v>
       </c>
       <c r="D186" s="25">
-        <f>AVERAGEIFS(C$24:C$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "&lt;2")</f>
-        <v>91.388750000000002</v>
+        <f>AVERAGEIFS(C$24:C$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "=1")</f>
+        <v>88.804999999999993</v>
       </c>
       <c r="E186" s="25">
-        <f>AVERAGEIFS(D$24:D$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "&lt;2")</f>
-        <v>6.1937499999999996</v>
+        <f>AVERAGEIFS(D$24:D$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "=1")</f>
+        <v>7.1149999999999993</v>
       </c>
       <c r="F186" s="25">
-        <f>AVERAGEIFS(E$24:E$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "&lt;2")</f>
-        <v>4.8899999999999997</v>
+        <f>AVERAGEIFS(E$24:E$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "=1")</f>
+        <v>5.0179999999999989</v>
       </c>
       <c r="G186" s="25">
-        <f>AVERAGEIFS(F$24:F$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "&lt;2")</f>
-        <v>3.7337499999999997</v>
+        <f>AVERAGEIFS(F$24:F$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "=1")</f>
+        <v>4.9319999999999995</v>
       </c>
       <c r="H186" s="25">
-        <f>AVERAGEIFS(G$24:G$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "&lt;2")</f>
-        <v>1.3774999999999999</v>
+        <f>AVERAGEIFS(G$24:G$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "=1")</f>
+        <v>1.7969999999999999</v>
       </c>
       <c r="I186" s="25">
-        <f>AVERAGEIFS(H$24:H$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "&lt;2")</f>
-        <v>6.2675000000000001</v>
+        <f>AVERAGEIFS(H$24:H$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "=1")</f>
+        <v>6.8159999999999998</v>
       </c>
       <c r="J186" s="25">
-        <f>AVERAGEIFS(I$24:I$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "&lt;2")</f>
-        <v>9.9275000000000002</v>
+        <f>AVERAGEIFS(I$24:I$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "=1")</f>
+        <v>12.047000000000001</v>
       </c>
       <c r="K186" s="25">
-        <f>AVERAGEIFS(J$24:J$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "&lt;2")</f>
-        <v>20.771250000000002</v>
+        <f>AVERAGEIFS(J$24:J$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "=1")</f>
+        <v>24.544000000000004</v>
       </c>
       <c r="L186" s="25">
-        <f>AVERAGEIFS(K$24:K$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "&lt;2")</f>
-        <v>0.15125</v>
+        <f>AVERAGEIFS(K$24:K$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "=1")</f>
+        <v>0.17499999999999999</v>
       </c>
       <c r="M186" s="25">
-        <f>AVERAGEIFS(L$24:L$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "&lt;2")</f>
-        <v>3.1875000000000001E-2</v>
+        <f>AVERAGEIFS(L$24:L$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "=1")</f>
+        <v>2.606E-2</v>
       </c>
       <c r="N186" s="25">
-        <f>AVERAGEIFS(M$24:M$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "&lt;2")</f>
-        <v>4.4225000000000003</v>
+        <f>AVERAGEIFS(M$24:M$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "=1")</f>
+        <v>4.82</v>
       </c>
       <c r="O186" s="25">
-        <f>AVERAGEIFS(N$24:N$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "&lt;2")</f>
-        <v>0.24625000000000002</v>
-      </c>
-    </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.35">
+        <f>AVERAGEIFS(N$24:N$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "=1")</f>
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="R186">
+        <f>COUNTIFS($O$66:$O$149, "*Repaired", $U$66:$U$149, "YES")</f>
+        <v>5</v>
+      </c>
+      <c r="S186" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="T186" s="25">
+        <f>AVERAGEIFS(B$66:B$149, $O$66:$O$149, "*Repaired", $U$66:$U$149, "YES")</f>
+        <v>1.5699999999999998</v>
+      </c>
+      <c r="U186" s="25">
+        <f>AVERAGEIFS(C$66:C$149, $O$66:$O$149, "*Repaired", $U$66:$U$149, "YES")</f>
+        <v>76.789999999999992</v>
+      </c>
+      <c r="V186" s="25">
+        <f>AVERAGEIFS(D$66:D$149, $O$66:$O$149, "*Repaired", $U$66:$U$149, "YES")</f>
+        <v>10.244</v>
+      </c>
+      <c r="W186" s="25">
+        <f>AVERAGEIFS(E$66:E$149, $O$66:$O$149, "*Repaired", $U$66:$U$149, "YES")</f>
+        <v>8.4460000000000015</v>
+      </c>
+      <c r="X186" s="25">
+        <f>AVERAGEIFS(F$66:F$149, $O$66:$O$149, "*Repaired", $U$66:$U$149, "YES")</f>
+        <v>6.85</v>
+      </c>
+      <c r="Y186" s="25">
+        <f>AVERAGEIFS(G$66:G$149, $O$66:$O$149, "*Repaired", $U$66:$U$149, "YES")</f>
+        <v>2.4740000000000002</v>
+      </c>
+      <c r="Z186" s="25">
+        <f>AVERAGEIFS(H$66:H$149, $O$66:$O$149, "*Repaired", $U$66:$U$149, "YES")</f>
+        <v>10.922000000000001</v>
+      </c>
+      <c r="AA186" s="25">
+        <f>AVERAGEIFS(I$66:I$149, $O$66:$O$149, "*Repaired", $U$66:$U$149, "YES")</f>
+        <v>17.096000000000004</v>
+      </c>
+      <c r="AB186" s="25">
+        <f>AVERAGEIFS(J$66:J$149, $O$66:$O$149, "*Repaired", $U$66:$U$149, "YES")</f>
+        <v>47.302</v>
+      </c>
+      <c r="AC186" s="25">
+        <f>AVERAGEIFS(K$66:K$149, $O$66:$O$149, "*Repaired", $U$66:$U$149, "YES")</f>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AD186" s="25">
+        <f>AVERAGEIFS(L$66:L$149, $O$66:$O$149, "*Repaired", $U$66:$U$149, "YES")</f>
+        <v>8.48E-2</v>
+      </c>
+      <c r="AE186" s="25">
+        <f>AVERAGEIFS(M$66:M$149, $O$66:$O$149, "*Repaired", $U$66:$U$149, "YES")</f>
+        <v>20.456</v>
+      </c>
+      <c r="AF186" s="25">
+        <f>AVERAGEIFS(N$66:N$149, $O$66:$O$149, "*Repaired", $U$66:$U$149, "YES")</f>
+        <v>1.1360000000000001</v>
+      </c>
+    </row>
+    <row r="187" spans="1:32" ht="15" x14ac:dyDescent="0.35">
       <c r="C187" s="25"/>
       <c r="D187" s="25"/>
       <c r="E187" s="25"/>
@@ -11491,8 +13381,22 @@
       <c r="M187" s="25"/>
       <c r="N187" s="25"/>
       <c r="O187" s="25"/>
-    </row>
-    <row r="188" spans="1:15" ht="28.8" x14ac:dyDescent="0.35">
+      <c r="R187"/>
+      <c r="T187" s="25"/>
+      <c r="U187" s="25"/>
+      <c r="V187" s="25"/>
+      <c r="W187" s="25"/>
+      <c r="X187" s="25"/>
+      <c r="Y187" s="25"/>
+      <c r="Z187" s="25"/>
+      <c r="AA187" s="25"/>
+      <c r="AB187" s="25"/>
+      <c r="AC187" s="25"/>
+      <c r="AD187" s="25"/>
+      <c r="AE187" s="25"/>
+      <c r="AF187" s="25"/>
+    </row>
+    <row r="188" spans="1:32" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B188" s="13" t="s">
         <v>173</v>
       </c>
@@ -11535,132 +13439,293 @@
       <c r="O188" s="13" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R188"/>
+      <c r="S188" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="T188" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="U188" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="V188" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="W188" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="X188" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y188" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z188" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA188" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB188" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC188" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD188" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE188" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="AF188" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="189" spans="1:32" ht="15" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <f>COUNTIFS($O$24:$O$149, "*Fixed", $S$24:$S$149, "&gt;1")</f>
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="C189" s="25">
-        <f>AVERAGEIFS(B$24:B$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "&gt;1")</f>
-        <v>2.4790624999999999</v>
+        <f t="shared" ref="C189:O189" si="24">AVERAGEIFS(B$24:B$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "&gt;1")</f>
+        <v>2.8049999999999997</v>
       </c>
       <c r="D189" s="25">
-        <f>AVERAGEIFS(C$24:C$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "&gt;1")</f>
-        <v>75.497187499999995</v>
+        <f t="shared" si="24"/>
+        <v>81.179000000000002</v>
       </c>
       <c r="E189" s="25">
-        <f>AVERAGEIFS(D$24:D$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "&gt;1")</f>
-        <v>12.701875000000001</v>
+        <f t="shared" si="24"/>
+        <v>9.5460000000000012</v>
       </c>
       <c r="F189" s="25">
-        <f>AVERAGEIFS(E$24:E$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "&gt;1")</f>
-        <v>7.9131250000000044</v>
+        <f t="shared" si="24"/>
+        <v>4.9740000000000002</v>
       </c>
       <c r="G189" s="25">
-        <f>AVERAGEIFS(F$24:F$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "&gt;1")</f>
-        <v>10.056562499999997</v>
+        <f t="shared" si="24"/>
+        <v>8.245000000000001</v>
       </c>
       <c r="H189" s="25">
-        <f>AVERAGEIFS(G$24:G$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "&gt;1")</f>
-        <v>2.7703125000000006</v>
+        <f t="shared" si="24"/>
+        <v>3.0369999999999999</v>
       </c>
       <c r="I189" s="25">
-        <f>AVERAGEIFS(H$24:H$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "&gt;1")</f>
-        <v>10.684062500000003</v>
+        <f t="shared" si="24"/>
+        <v>8.0129999999999999</v>
       </c>
       <c r="J189" s="25">
-        <f>AVERAGEIFS(I$24:I$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "&gt;1")</f>
-        <v>22.756875000000008</v>
+        <f t="shared" si="24"/>
+        <v>17.786000000000001</v>
       </c>
       <c r="K189" s="25">
-        <f>AVERAGEIFS(J$24:J$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "&gt;1")</f>
-        <v>49.708437499999988</v>
+        <f t="shared" si="24"/>
+        <v>34.339000000000006</v>
       </c>
       <c r="L189" s="25">
-        <f>AVERAGEIFS(K$24:K$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "&gt;1")</f>
-        <v>1.0462500000000001</v>
+        <f t="shared" si="24"/>
+        <v>0.14799999999999999</v>
       </c>
       <c r="M189" s="25">
-        <f>AVERAGEIFS(L$24:L$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "&gt;1")</f>
-        <v>3.6562500000000019E-2</v>
+        <f t="shared" si="24"/>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="N189" s="25">
-        <f>AVERAGEIFS(M$24:M$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "&gt;1")</f>
-        <v>16.090000000000007</v>
+        <f t="shared" si="24"/>
+        <v>2.8319999999999999</v>
       </c>
       <c r="O189" s="25">
-        <f>AVERAGEIFS(N$24:N$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "&gt;1")</f>
-        <v>0.89412500000000017</v>
-      </c>
-    </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="24"/>
+        <v>0.15720000000000001</v>
+      </c>
+      <c r="R189">
+        <f>COUNTIFS($O$66:$O$149, "*Fixed", $V$66:$V$149, "YES")</f>
+        <v>7</v>
+      </c>
+      <c r="S189" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="T189" s="25">
+        <f>AVERAGEIFS(B$66:B$149, $O$66:$O$149, "*Fixed", $V$66:$V$149, "YES")</f>
+        <v>3.1499999999999995</v>
+      </c>
+      <c r="U189" s="25">
+        <f>AVERAGEIFS(C$66:C$149, $O$66:$O$149, "*Fixed", $V$66:$V$149, "YES")</f>
+        <v>77.971428571428575</v>
+      </c>
+      <c r="V189" s="25">
+        <f>AVERAGEIFS(D$66:D$149, $O$66:$O$149, "*Fixed", $V$66:$V$149, "YES")</f>
+        <v>11.684285714285716</v>
+      </c>
+      <c r="W189" s="25">
+        <f>AVERAGEIFS(E$66:E$149, $O$66:$O$149, "*Fixed", $V$66:$V$149, "YES")</f>
+        <v>5.8185714285714285</v>
+      </c>
+      <c r="X189" s="25">
+        <f>AVERAGEIFS(F$66:F$149, $O$66:$O$149, "*Fixed", $V$66:$V$149, "YES")</f>
+        <v>10.35</v>
+      </c>
+      <c r="Y189" s="25">
+        <f>AVERAGEIFS(G$66:G$149, $O$66:$O$149, "*Fixed", $V$66:$V$149, "YES")</f>
+        <v>3.7199999999999998</v>
+      </c>
+      <c r="Z189" s="25">
+        <f>AVERAGEIFS(H$66:H$149, $O$66:$O$149, "*Fixed", $V$66:$V$149, "YES")</f>
+        <v>9.54142857142857</v>
+      </c>
+      <c r="AA189" s="25">
+        <f>AVERAGEIFS(I$66:I$149, $O$66:$O$149, "*Fixed", $V$66:$V$149, "YES")</f>
+        <v>22.027142857142859</v>
+      </c>
+      <c r="AB189" s="25">
+        <f>AVERAGEIFS(J$66:J$149, $O$66:$O$149, "*Fixed", $V$66:$V$149, "YES")</f>
+        <v>42.79</v>
+      </c>
+      <c r="AC189" s="25">
+        <f>AVERAGEIFS(K$66:K$149, $O$66:$O$149, "*Fixed", $V$66:$V$149, "YES")</f>
+        <v>0.16285714285714284</v>
+      </c>
+      <c r="AD189" s="25">
+        <f>AVERAGEIFS(L$66:L$149, $O$66:$O$149, "*Fixed", $V$66:$V$149, "YES")</f>
+        <v>4.2857142857142859E-3</v>
+      </c>
+      <c r="AE189" s="25">
+        <f>AVERAGEIFS(M$66:M$149, $O$66:$O$149, "*Fixed", $V$66:$V$149, "YES")</f>
+        <v>3.7600000000000002</v>
+      </c>
+      <c r="AF189" s="25">
+        <f>AVERAGEIFS(N$66:N$149, $O$66:$O$149, "*Fixed", $V$66:$V$149, "YES")</f>
+        <v>0.20857142857142857</v>
+      </c>
+    </row>
+    <row r="190" spans="1:32" ht="15" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <f>COUNTIFS($O$24:$O$149, "*Repaired", $S$24:$S$149, "&gt;1")</f>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="C190" s="25">
-        <f>AVERAGEIFS(B$24:B$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "&gt;1")</f>
-        <v>2.2250000000000001</v>
+        <f t="shared" ref="C190:O190" si="25">AVERAGEIFS(B$24:B$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "&gt;1")</f>
+        <v>2.1481250000000003</v>
       </c>
       <c r="D190" s="25">
-        <f>AVERAGEIFS(C$24:C$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "&gt;1")</f>
-        <v>76.149411764705874</v>
+        <f t="shared" si="25"/>
+        <v>76.004374999999996</v>
       </c>
       <c r="E190" s="25">
-        <f>AVERAGEIFS(D$24:D$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "&gt;1")</f>
-        <v>11.655882352941173</v>
+        <f t="shared" si="25"/>
+        <v>11.709374999999998</v>
       </c>
       <c r="F190" s="25">
-        <f>AVERAGEIFS(E$24:E$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "&gt;1")</f>
-        <v>7.8352941176470585</v>
+        <f t="shared" si="25"/>
+        <v>7.9793749999999992</v>
       </c>
       <c r="G190" s="25">
-        <f>AVERAGEIFS(F$24:F$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "&gt;1")</f>
-        <v>8.9511764705882371</v>
+        <f t="shared" si="25"/>
+        <v>8.9028124999999996</v>
       </c>
       <c r="H190" s="25">
-        <f>AVERAGEIFS(G$24:G$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "&gt;1")</f>
-        <v>2.6829411764705888</v>
+        <f t="shared" si="25"/>
+        <v>2.6334375000000003</v>
       </c>
       <c r="I190" s="25">
-        <f>AVERAGEIFS(H$24:H$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "&gt;1")</f>
-        <v>10.51911764705882</v>
+        <f t="shared" si="25"/>
+        <v>10.613437499999998</v>
       </c>
       <c r="J190" s="25">
-        <f>AVERAGEIFS(I$24:I$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "&gt;1")</f>
-        <v>20.606764705882352</v>
+        <f t="shared" si="25"/>
+        <v>20.611875000000001</v>
       </c>
       <c r="K190" s="25">
-        <f>AVERAGEIFS(J$24:J$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "&gt;1")</f>
-        <v>47.790588235294123</v>
+        <f t="shared" si="25"/>
+        <v>48.300312500000004</v>
       </c>
       <c r="L190" s="25">
-        <f>AVERAGEIFS(K$24:K$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "&gt;1")</f>
-        <v>1.0502941176470586</v>
+        <f t="shared" si="25"/>
+        <v>1.0990624999999998</v>
       </c>
       <c r="M190" s="25">
-        <f>AVERAGEIFS(L$24:L$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "&gt;1")</f>
-        <v>7.4752941176470578E-2</v>
+        <f t="shared" si="25"/>
+        <v>7.9249999999999973E-2</v>
       </c>
       <c r="N190" s="25">
-        <f>AVERAGEIFS(M$24:M$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "&gt;1")</f>
-        <v>19.098235294117643</v>
+        <f t="shared" si="25"/>
+        <v>19.891249999999999</v>
       </c>
       <c r="O190" s="25">
-        <f>AVERAGEIFS(N$24:N$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "&gt;1")</f>
-        <v>1.0615294117647058</v>
+        <f t="shared" si="25"/>
+        <v>1.1056874999999999</v>
+      </c>
+      <c r="R190">
+        <f>COUNTIFS($O$66:$O$149, "*Repaired", $V$66:$V$149, "YES")</f>
+        <v>15</v>
+      </c>
+      <c r="S190" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="T190" s="25">
+        <f>AVERAGEIFS(B$66:B$149, $O$66:$O$149, "*Repaired", $V$66:$V$149, "YES")</f>
+        <v>1.3026666666666666</v>
+      </c>
+      <c r="U190" s="25">
+        <f>AVERAGEIFS(C$66:C$149, $O$66:$O$149, "*Repaired", $V$66:$V$149, "YES")</f>
+        <v>75.182000000000016</v>
+      </c>
+      <c r="V190" s="25">
+        <f>AVERAGEIFS(D$66:D$149, $O$66:$O$149, "*Repaired", $V$66:$V$149, "YES")</f>
+        <v>10.912666666666667</v>
+      </c>
+      <c r="W190" s="25">
+        <f>AVERAGEIFS(E$66:E$149, $O$66:$O$149, "*Repaired", $V$66:$V$149, "YES")</f>
+        <v>9.2313333333333318</v>
+      </c>
+      <c r="X190" s="25">
+        <f>AVERAGEIFS(F$66:F$149, $O$66:$O$149, "*Repaired", $V$66:$V$149, "YES")</f>
+        <v>7.2473333333333327</v>
+      </c>
+      <c r="Y190" s="25">
+        <f>AVERAGEIFS(G$66:G$149, $O$66:$O$149, "*Repaired", $V$66:$V$149, "YES")</f>
+        <v>2.3346666666666667</v>
+      </c>
+      <c r="Z190" s="25">
+        <f>AVERAGEIFS(H$66:H$149, $O$66:$O$149, "*Repaired", $V$66:$V$149, "YES")</f>
+        <v>11.567333333333332</v>
+      </c>
+      <c r="AA190" s="25">
+        <f>AVERAGEIFS(I$66:I$149, $O$66:$O$149, "*Repaired", $V$66:$V$149, "YES")</f>
+        <v>18.160000000000004</v>
+      </c>
+      <c r="AB190" s="25">
+        <f>AVERAGEIFS(J$66:J$149, $O$66:$O$149, "*Repaired", $V$66:$V$149, "YES")</f>
+        <v>51.247999999999998</v>
+      </c>
+      <c r="AC190" s="25">
+        <f>AVERAGEIFS(K$66:K$149, $O$66:$O$149, "*Repaired", $V$66:$V$149, "YES")</f>
+        <v>1.6006666666666665</v>
+      </c>
+      <c r="AD190" s="25">
+        <f>AVERAGEIFS(L$66:L$149, $O$66:$O$149, "*Repaired", $V$66:$V$149, "YES")</f>
+        <v>5.8133333333333342E-2</v>
+      </c>
+      <c r="AE190" s="25">
+        <f>AVERAGEIFS(M$66:M$149, $O$66:$O$149, "*Repaired", $V$66:$V$149, "YES")</f>
+        <v>28.500666666666675</v>
+      </c>
+      <c r="AF190" s="25">
+        <f>AVERAGEIFS(N$66:N$149, $O$66:$O$149, "*Repaired", $V$66:$V$149, "YES")</f>
+        <v>1.5840000000000001</v>
       </c>
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A193" s="23" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B193" s="24"/>
       <c r="C193" s="24"/>
@@ -11694,7 +13759,7 @@
     </row>
     <row r="195" spans="1:15" ht="28.8" x14ac:dyDescent="0.35">
       <c r="A195" s="13" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B195" s="13" t="s">
         <v>173</v>
@@ -11745,58 +13810,58 @@
         <v>5</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C196" s="25">
-        <f t="shared" ref="C196:O196" si="12">AVERAGEIF($A$24:$A$149, "*albfernandez-GDS-PMD-Security*_Buggy", B$24:B$149)</f>
+        <f t="shared" ref="C196:O196" si="26">AVERAGEIF($A$24:$A$149, "*albfernandez-GDS-PMD-Security*_Buggy", B$24:B$149)</f>
         <v>3.218</v>
       </c>
       <c r="D196" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>76.114000000000004</v>
       </c>
       <c r="E196" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>11.389999999999999</v>
       </c>
       <c r="F196" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>6.8020000000000014</v>
       </c>
       <c r="G196" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>9.8800000000000008</v>
       </c>
       <c r="H196" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>3.7</v>
       </c>
       <c r="I196" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>10.5</v>
       </c>
       <c r="J196" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>21.276</v>
       </c>
       <c r="K196" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>46.86</v>
       </c>
       <c r="L196" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0.74199999999999999</v>
       </c>
       <c r="M196" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0.15</v>
       </c>
       <c r="N196" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>21.845999999999997</v>
       </c>
       <c r="O196" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>1.218</v>
       </c>
     </row>
@@ -11806,58 +13871,58 @@
         <v>5</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C197" s="25">
-        <f t="shared" ref="C197:O197" si="13">AVERAGEIF($A$24:$A$149, "*albfernandez-GDS-PMD-Security*_Fixed", B$24:B$149)</f>
+        <f t="shared" ref="C197:O197" si="27">AVERAGEIF($A$24:$A$149, "*albfernandez-GDS-PMD-Security*_Fixed", B$24:B$149)</f>
         <v>3.226</v>
       </c>
       <c r="D197" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>76.013999999999996</v>
       </c>
       <c r="E197" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>11.458</v>
       </c>
       <c r="F197" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>6.8259999999999987</v>
       </c>
       <c r="G197" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>9.8879999999999999</v>
       </c>
       <c r="H197" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>3.6960000000000002</v>
       </c>
       <c r="I197" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>10.52</v>
       </c>
       <c r="J197" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>21.351999999999997</v>
       </c>
       <c r="K197" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>47.007999999999996</v>
       </c>
       <c r="L197" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>0.73799999999999999</v>
       </c>
       <c r="M197" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>0.15</v>
       </c>
       <c r="N197" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>21.745999999999999</v>
       </c>
       <c r="O197" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>1.2100000000000002</v>
       </c>
     </row>
@@ -11867,58 +13932,58 @@
         <v>5</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C198" s="25">
-        <f t="shared" ref="C198:O198" si="14">AVERAGEIF($A$24:$A$149, "*albfernandez-GDS-PMD-Security*_Repaired", B$24:B$149)</f>
+        <f t="shared" ref="C198:O198" si="28">AVERAGEIF($A$24:$A$149, "*albfernandez-GDS-PMD-Security*_Repaired", B$24:B$149)</f>
         <v>3.1859999999999999</v>
       </c>
       <c r="D198" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>76.397999999999996</v>
       </c>
       <c r="E198" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>11.363999999999999</v>
       </c>
       <c r="F198" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>6.7860000000000014</v>
       </c>
       <c r="G198" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>9.7039999999999988</v>
       </c>
       <c r="H198" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>3.6519999999999997</v>
       </c>
       <c r="I198" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>10.436</v>
       </c>
       <c r="J198" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>21.068000000000001</v>
       </c>
       <c r="K198" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>46.462000000000003</v>
       </c>
       <c r="L198" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>0.61199999999999999</v>
       </c>
       <c r="M198" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>0.15212000000000001</v>
       </c>
       <c r="N198" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>18.821999999999996</v>
       </c>
       <c r="O198" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>1.046</v>
       </c>
     </row>
@@ -11972,58 +14037,58 @@
         <v>3</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C201" s="25">
-        <f t="shared" ref="C201:O201" si="15">AVERAGEIF($A$24:$A$149, "*dungba88-libra*_Buggy", B$24:B$149)</f>
+        <f t="shared" ref="C201:O201" si="29">AVERAGEIF($A$24:$A$149, "*dungba88-libra*_Buggy", B$24:B$149)</f>
         <v>1.7766666666666666</v>
       </c>
       <c r="D201" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>89.11</v>
       </c>
       <c r="E201" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>4.1100000000000003</v>
       </c>
       <c r="F201" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>2.89</v>
       </c>
       <c r="G201" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>2.7766666666666668</v>
       </c>
       <c r="H201" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>1.4433333333333334</v>
       </c>
       <c r="I201" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>4.3366666666666669</v>
       </c>
       <c r="J201" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>6.8900000000000006</v>
       </c>
       <c r="K201" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>13.39</v>
       </c>
       <c r="L201" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>0.11333333333333334</v>
       </c>
       <c r="M201" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>0.11333333333333334</v>
       </c>
       <c r="N201" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="O201" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>3.7333333333333336E-2</v>
       </c>
     </row>
@@ -12033,58 +14098,58 @@
         <v>3</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C202" s="25">
-        <f t="shared" ref="C202:O202" si="16">AVERAGEIF($A$24:$A$149, "*dungba88-libra*_Fixed", B$24:B$149)</f>
+        <f t="shared" ref="C202:O202" si="30">AVERAGEIF($A$24:$A$149, "*dungba88-libra*_Fixed", B$24:B$149)</f>
         <v>2</v>
       </c>
       <c r="D202" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>88.663333333333341</v>
       </c>
       <c r="E202" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>4.5566666666666666</v>
       </c>
       <c r="F202" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>3.0033333333333334</v>
       </c>
       <c r="G202" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="H202" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>1.4433333333333334</v>
       </c>
       <c r="I202" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>4.4466666666666663</v>
       </c>
       <c r="J202" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>7.8900000000000006</v>
       </c>
       <c r="K202" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>14.62</v>
       </c>
       <c r="L202" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>0.11333333333333334</v>
       </c>
       <c r="M202" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>0.11333333333333334</v>
       </c>
       <c r="N202" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="O202" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>3.7333333333333336E-2</v>
       </c>
     </row>
@@ -12094,58 +14159,58 @@
         <v>3</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C203" s="25">
-        <f t="shared" ref="C203:O203" si="17">AVERAGEIF($A$24:$A$149, "*dungba88-libra*_Repaired", B$24:B$149)</f>
+        <f t="shared" ref="C203:O203" si="31">AVERAGEIF($A$24:$A$149, "*dungba88-libra*_Repaired", B$24:B$149)</f>
         <v>1.6633333333333333</v>
       </c>
       <c r="D203" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="31"/>
         <v>89.67</v>
       </c>
       <c r="E203" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="31"/>
         <v>3.5566666666666666</v>
       </c>
       <c r="F203" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="31"/>
         <v>2.89</v>
       </c>
       <c r="G203" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="31"/>
         <v>2.2233333333333332</v>
       </c>
       <c r="H203" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="31"/>
         <v>1.33</v>
       </c>
       <c r="I203" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="31"/>
         <v>4.2233333333333336</v>
       </c>
       <c r="J203" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="31"/>
         <v>5.7766666666666664</v>
       </c>
       <c r="K203" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="31"/>
         <v>12.07</v>
       </c>
       <c r="L203" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="31"/>
         <v>0.11333333333333334</v>
       </c>
       <c r="M203" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="31"/>
         <v>0.11333333333333334</v>
       </c>
       <c r="N203" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="31"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="O203" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="31"/>
         <v>3.7333333333333336E-2</v>
       </c>
     </row>
@@ -12199,58 +14264,58 @@
         <v>6</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C206" s="25">
-        <f t="shared" ref="C206:O206" si="18">AVERAGEIF($A$24:$A$149, "*julianps-modelmapper-module*_Buggy", B$24:B$149)</f>
+        <f t="shared" ref="C206:O206" si="32">AVERAGEIF($A$24:$A$149, "*julianps-modelmapper-module*_Buggy", B$24:B$149)</f>
         <v>1</v>
       </c>
       <c r="D206" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="32"/>
         <v>92</v>
       </c>
       <c r="E206" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="32"/>
         <v>5</v>
       </c>
       <c r="F206" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="32"/>
         <v>4</v>
       </c>
       <c r="G206" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
       <c r="H206" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="I206" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="32"/>
         <v>5</v>
       </c>
       <c r="J206" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="32"/>
         <v>8</v>
       </c>
       <c r="K206" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="32"/>
         <v>15</v>
       </c>
       <c r="L206" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="M206" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N206" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="O206" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
@@ -12260,58 +14325,58 @@
         <v>6</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C207" s="25">
-        <f t="shared" ref="C207:O207" si="19">AVERAGEIF($A$24:$A$149, "*julianps-modelmapper-module*_Fixed", B$24:B$149)</f>
+        <f t="shared" ref="C207:O207" si="33">AVERAGEIF($A$24:$A$149, "*julianps-modelmapper-module*_Fixed", B$24:B$149)</f>
         <v>1</v>
       </c>
       <c r="D207" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="33"/>
         <v>92</v>
       </c>
       <c r="E207" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="33"/>
         <v>5</v>
       </c>
       <c r="F207" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="33"/>
         <v>4</v>
       </c>
       <c r="G207" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="33"/>
         <v>3</v>
       </c>
       <c r="H207" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="I207" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="33"/>
         <v>5</v>
       </c>
       <c r="J207" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="33"/>
         <v>8</v>
       </c>
       <c r="K207" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="33"/>
         <v>15</v>
       </c>
       <c r="L207" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="M207" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N207" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="O207" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
@@ -12321,58 +14386,58 @@
         <v>6</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C208" s="25">
-        <f t="shared" ref="C208:O208" si="20">AVERAGEIF($A$24:$A$149, "*julianps-modelmapper-module*_Repaired", B$24:B$149)</f>
+        <f t="shared" ref="C208:O208" si="34">AVERAGEIF($A$24:$A$149, "*julianps-modelmapper-module*_Repaired", B$24:B$149)</f>
         <v>1.1666666666666667</v>
       </c>
       <c r="D208" s="25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="34"/>
         <v>96.666666666666671</v>
       </c>
       <c r="E208" s="25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="34"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="F208" s="25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="34"/>
         <v>4.166666666666667</v>
       </c>
       <c r="G208" s="25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="34"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="H208" s="25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="34"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="I208" s="25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="34"/>
         <v>4.5</v>
       </c>
       <c r="J208" s="25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="34"/>
         <v>4</v>
       </c>
       <c r="K208" s="25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="34"/>
         <v>8.9816666666666674</v>
       </c>
       <c r="L208" s="25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="34"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="M208" s="25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="34"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="N208" s="25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="34"/>
         <v>7.3966666666666674</v>
       </c>
       <c r="O208" s="25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="34"/>
         <v>0.41166666666666668</v>
       </c>
     </row>
@@ -12426,58 +14491,58 @@
         <v>5</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C211" s="25">
-        <f t="shared" ref="C211:O211" si="21">AVERAGEIF($A$24:$A$149, "*opentracing-contrib-java-p6sp*_Buggy", B$24:B$149)</f>
+        <f t="shared" ref="C211:O211" si="35">AVERAGEIF($A$24:$A$149, "*opentracing-contrib-java-p6sp*_Buggy", B$24:B$149)</f>
         <v>2.62</v>
       </c>
       <c r="D211" s="25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="35"/>
         <v>79.849999999999994</v>
       </c>
       <c r="E211" s="25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="35"/>
         <v>10.31</v>
       </c>
       <c r="F211" s="25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="35"/>
         <v>5.54</v>
       </c>
       <c r="G211" s="25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="35"/>
         <v>8.69</v>
       </c>
       <c r="H211" s="25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="35"/>
         <v>3.31</v>
       </c>
       <c r="I211" s="25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="35"/>
         <v>8.85</v>
       </c>
       <c r="J211" s="25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="35"/>
         <v>19</v>
       </c>
       <c r="K211" s="25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="35"/>
         <v>37.72</v>
       </c>
       <c r="L211" s="25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="M211" s="25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N211" s="25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="O211" s="25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
@@ -12487,58 +14552,58 @@
         <v>5</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C212" s="25">
-        <f t="shared" ref="C212:O212" si="22">AVERAGEIF($A$24:$A$149, "*opentracing-contrib-java-p6sp*_Fixed", B$24:B$149)</f>
+        <f t="shared" ref="C212:O212" si="36">AVERAGEIF($A$24:$A$149, "*opentracing-contrib-java-p6sp*_Fixed", B$24:B$149)</f>
         <v>2.57</v>
       </c>
       <c r="D212" s="25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="36"/>
         <v>80.36</v>
       </c>
       <c r="E212" s="25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="36"/>
         <v>9.7899999999999991</v>
       </c>
       <c r="F212" s="25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="36"/>
         <v>5.43</v>
       </c>
       <c r="G212" s="25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="36"/>
         <v>8.43</v>
       </c>
       <c r="H212" s="25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="36"/>
         <v>3.3600000000000003</v>
       </c>
       <c r="I212" s="25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="36"/>
         <v>8.7899999999999991</v>
       </c>
       <c r="J212" s="25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="36"/>
         <v>18.21</v>
       </c>
       <c r="K212" s="25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="36"/>
         <v>36.97</v>
       </c>
       <c r="L212" s="25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="M212" s="25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="N212" s="25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O212" s="25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
@@ -12548,58 +14613,58 @@
         <v>5</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C213" s="25">
-        <f t="shared" ref="C213:O213" si="23">AVERAGEIF($A$24:$A$149, "*opentracing-contrib-java-p6sp*_Repaired", B$24:B$149)</f>
+        <f t="shared" ref="C213:O213" si="37">AVERAGEIF($A$24:$A$149, "*opentracing-contrib-java-p6sp*_Repaired", B$24:B$149)</f>
         <v>2.54</v>
       </c>
       <c r="D213" s="25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>80.12</v>
       </c>
       <c r="E213" s="25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>10.044</v>
       </c>
       <c r="F213" s="25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>5.524</v>
       </c>
       <c r="G213" s="25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>8.3239999999999998</v>
       </c>
       <c r="H213" s="25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>3.1540000000000004</v>
       </c>
       <c r="I213" s="25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>8.68</v>
       </c>
       <c r="J213" s="25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>18.368000000000002</v>
       </c>
       <c r="K213" s="25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>36.53</v>
       </c>
       <c r="L213" s="25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="M213" s="25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N213" s="25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="O213" s="25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
     </row>
@@ -12653,58 +14718,58 @@
         <v>6</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C216" s="25">
-        <f t="shared" ref="C216:O216" si="24">AVERAGEIF($A$24:$A$149, "*SzFMV2018-Tavasz-AutomatedCar*_Buggy", B$24:B$149)</f>
+        <f t="shared" ref="C216:O216" si="38">AVERAGEIF($A$24:$A$149, "*SzFMV2018-Tavasz-AutomatedCar*_Buggy", B$24:B$149)</f>
         <v>1</v>
       </c>
       <c r="D216" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>74.569999999999993</v>
       </c>
       <c r="E216" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>11</v>
       </c>
       <c r="F216" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>9.86</v>
       </c>
       <c r="G216" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>6.86</v>
       </c>
       <c r="H216" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>2</v>
       </c>
       <c r="I216" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>11.86</v>
       </c>
       <c r="J216" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>17.86</v>
       </c>
       <c r="K216" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>52.87</v>
       </c>
       <c r="L216" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>2</v>
       </c>
       <c r="M216" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>4.9999999999999996E-2</v>
       </c>
       <c r="N216" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>30.41</v>
       </c>
       <c r="O216" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>1.6899999999999997</v>
       </c>
     </row>
@@ -12714,58 +14779,58 @@
         <v>6</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C217" s="26">
-        <f t="shared" ref="C217:O217" si="25">AVERAGEIF($A$24:$A$149, "*SzFMV2018-Tavasz-AutomatedCar*_Fixed", B$24:B$149)</f>
+        <f t="shared" ref="C217:O217" si="39">AVERAGEIF($A$24:$A$149, "*SzFMV2018-Tavasz-AutomatedCar*_Fixed", B$24:B$149)</f>
         <v>1</v>
       </c>
       <c r="D217" s="26">
-        <f t="shared" si="25"/>
+        <f t="shared" si="39"/>
         <v>74.569999999999993</v>
       </c>
       <c r="E217" s="26">
-        <f t="shared" si="25"/>
+        <f t="shared" si="39"/>
         <v>11</v>
       </c>
       <c r="F217" s="26">
-        <f t="shared" si="25"/>
+        <f t="shared" si="39"/>
         <v>9.86</v>
       </c>
       <c r="G217" s="26">
-        <f t="shared" si="25"/>
+        <f t="shared" si="39"/>
         <v>6.71</v>
       </c>
       <c r="H217" s="26">
-        <f t="shared" si="25"/>
+        <f t="shared" si="39"/>
         <v>2</v>
       </c>
       <c r="I217" s="26">
-        <f t="shared" si="25"/>
+        <f t="shared" si="39"/>
         <v>11.86</v>
       </c>
       <c r="J217" s="26">
-        <f t="shared" si="25"/>
+        <f t="shared" si="39"/>
         <v>17.710000000000004</v>
       </c>
       <c r="K217" s="26">
-        <f t="shared" si="25"/>
+        <f t="shared" si="39"/>
         <v>52.800000000000004</v>
       </c>
       <c r="L217" s="26">
-        <f t="shared" si="25"/>
+        <f t="shared" si="39"/>
         <v>2</v>
       </c>
       <c r="M217" s="26">
-        <f t="shared" si="25"/>
+        <f t="shared" si="39"/>
         <v>4.9999999999999996E-2</v>
       </c>
       <c r="N217" s="26">
-        <f t="shared" si="25"/>
+        <f t="shared" si="39"/>
         <v>30.41</v>
       </c>
       <c r="O217" s="26">
-        <f t="shared" si="25"/>
+        <f t="shared" si="39"/>
         <v>1.6899999999999997</v>
       </c>
     </row>
@@ -12775,58 +14840,58 @@
         <v>6</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C218" s="26">
-        <f t="shared" ref="C218:O218" si="26">AVERAGEIF($A$24:$A$149, "*SzFMV2018-Tavasz-AutomatedCar*_Repaired", B$24:B$149)</f>
+        <f t="shared" ref="C218:O218" si="40">AVERAGEIF($A$24:$A$149, "*SzFMV2018-Tavasz-AutomatedCar*_Repaired", B$24:B$149)</f>
         <v>1.0233333333333332</v>
       </c>
       <c r="D218" s="26">
-        <f t="shared" si="26"/>
+        <f t="shared" si="40"/>
         <v>74.263333333333335</v>
       </c>
       <c r="E218" s="26">
-        <f t="shared" si="26"/>
+        <f t="shared" si="40"/>
         <v>10.998333333333335</v>
       </c>
       <c r="F218" s="26">
-        <f t="shared" si="26"/>
+        <f t="shared" si="40"/>
         <v>9.9533333333333331</v>
       </c>
       <c r="G218" s="26">
-        <f t="shared" si="26"/>
+        <f t="shared" si="40"/>
         <v>6.93</v>
       </c>
       <c r="H218" s="26">
-        <f t="shared" si="26"/>
+        <f t="shared" si="40"/>
         <v>2.0950000000000002</v>
       </c>
       <c r="I218" s="26">
-        <f t="shared" si="26"/>
+        <f t="shared" si="40"/>
         <v>12.048333333333332</v>
       </c>
       <c r="J218" s="26">
-        <f t="shared" si="26"/>
+        <f t="shared" si="40"/>
         <v>17.928333333333331</v>
       </c>
       <c r="K218" s="26">
-        <f t="shared" si="26"/>
+        <f t="shared" si="40"/>
         <v>53.723333333333329</v>
       </c>
       <c r="L218" s="26">
-        <f t="shared" si="26"/>
+        <f t="shared" si="40"/>
         <v>2.0483333333333333</v>
       </c>
       <c r="M218" s="26">
-        <f t="shared" si="26"/>
+        <f t="shared" si="40"/>
         <v>5.5333333333333325E-2</v>
       </c>
       <c r="N218" s="26">
-        <f t="shared" si="26"/>
+        <f t="shared" si="40"/>
         <v>35.678333333333335</v>
       </c>
       <c r="O218" s="26">
-        <f t="shared" si="26"/>
+        <f t="shared" si="40"/>
         <v>1.9833333333333332</v>
       </c>
     </row>
@@ -12880,58 +14945,58 @@
         <v>6</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C221" s="25">
-        <f t="shared" ref="C221:O221" si="27">AVERAGEIF($A$24:$A$149, "*traccar-traccar*_Buggy", B$24:B$149)</f>
+        <f t="shared" ref="C221:O221" si="41">AVERAGEIF($A$24:$A$149, "*traccar-traccar*_Buggy", B$24:B$149)</f>
         <v>5.75</v>
       </c>
       <c r="D221" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="41"/>
         <v>68.5</v>
       </c>
       <c r="E221" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="41"/>
         <v>22.25</v>
       </c>
       <c r="F221" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="41"/>
         <v>7.62</v>
       </c>
       <c r="G221" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="41"/>
         <v>21.62</v>
       </c>
       <c r="H221" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="41"/>
         <v>4.38</v>
       </c>
       <c r="I221" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="41"/>
         <v>12</v>
       </c>
       <c r="J221" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="41"/>
         <v>43.88</v>
       </c>
       <c r="K221" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="41"/>
         <v>66.92</v>
       </c>
       <c r="L221" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="M221" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N221" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="O221" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -12941,58 +15006,58 @@
         <v>6</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C222" s="26">
-        <f t="shared" ref="C222:O222" si="28">AVERAGEIF($A$24:$A$149, "*traccar-traccar*_Fixed", B$24:B$149)</f>
+        <f t="shared" ref="C222:O222" si="42">AVERAGEIF($A$24:$A$149, "*traccar-traccar*_Fixed", B$24:B$149)</f>
         <v>5.88</v>
       </c>
       <c r="D222" s="26">
-        <f t="shared" si="28"/>
+        <f t="shared" si="42"/>
         <v>68.5</v>
       </c>
       <c r="E222" s="26">
-        <f t="shared" si="28"/>
+        <f t="shared" si="42"/>
         <v>22.5</v>
       </c>
       <c r="F222" s="26">
-        <f t="shared" si="28"/>
+        <f t="shared" si="42"/>
         <v>7.62</v>
       </c>
       <c r="G222" s="26">
-        <f t="shared" si="28"/>
+        <f t="shared" si="42"/>
         <v>22</v>
       </c>
       <c r="H222" s="26">
-        <f t="shared" si="28"/>
+        <f t="shared" si="42"/>
         <v>4.38</v>
       </c>
       <c r="I222" s="26">
-        <f t="shared" si="28"/>
+        <f t="shared" si="42"/>
         <v>12</v>
       </c>
       <c r="J222" s="26">
-        <f t="shared" si="28"/>
+        <f t="shared" si="42"/>
         <v>44.5</v>
       </c>
       <c r="K222" s="26">
-        <f t="shared" si="28"/>
+        <f t="shared" si="42"/>
         <v>67.08</v>
       </c>
       <c r="L222" s="26">
-        <f t="shared" si="28"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="M222" s="26">
-        <f t="shared" si="28"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="N222" s="26">
-        <f t="shared" si="28"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="O222" s="26">
-        <f t="shared" si="28"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
     </row>
@@ -13002,64 +15067,64 @@
         <v>6</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C223" s="26">
-        <f t="shared" ref="C223:O223" si="29">AVERAGEIF($A$24:$A$149, "*traccar-traccar*_Repaired", B$24:B$149)</f>
+        <f t="shared" ref="C223:O223" si="43">AVERAGEIF($A$24:$A$149, "*traccar-traccar*_Repaired", B$24:B$149)</f>
         <v>5.3116666666666665</v>
       </c>
       <c r="D223" s="26">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>68.916666666666671</v>
       </c>
       <c r="E223" s="26">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>20.75</v>
       </c>
       <c r="F223" s="26">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>7.52</v>
       </c>
       <c r="G223" s="26">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>19.808333333333334</v>
       </c>
       <c r="H223" s="26">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>4.38</v>
       </c>
       <c r="I223" s="26">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>11.9</v>
       </c>
       <c r="J223" s="26">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>40.55833333333333</v>
       </c>
       <c r="K223" s="26">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>65.278333333333336</v>
       </c>
       <c r="L223" s="26">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="M223" s="26">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="N223" s="26">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="O223" s="26">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A226" s="23" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B226" s="24"/>
       <c r="C226" s="27"/>
@@ -13095,7 +15160,7 @@
     </row>
     <row r="228" spans="1:15" ht="28.8" x14ac:dyDescent="0.35">
       <c r="A228" s="13" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B228" s="13" t="s">
         <v>173</v>
@@ -13146,54 +15211,54 @@
         <v>26</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C229" s="25">
         <f>AVERAGEIF($A$24:$A$149, "Arja*Fixed", B$24:B$149)</f>
         <v>2.568461538461539</v>
       </c>
       <c r="D229" s="25">
-        <f t="shared" ref="D229:N229" si="30">AVERAGEIF($A$24:$A$149, "Arja*Fixed", C$24:C$149)</f>
+        <f t="shared" ref="D229:N229" si="44">AVERAGEIF($A$24:$A$149, "Arja*Fixed", C$24:C$149)</f>
         <v>79.533846153846127</v>
       </c>
       <c r="E229" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>11.127692307692305</v>
       </c>
       <c r="F229" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>6.3934615384615388</v>
       </c>
       <c r="G229" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>9.1919230769230769</v>
       </c>
       <c r="H229" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>2.6753846153846155</v>
       </c>
       <c r="I229" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>9.0680769230769247</v>
       </c>
       <c r="J229" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>20.318846153846152</v>
       </c>
       <c r="K229" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>40.56807692307693</v>
       </c>
       <c r="L229" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>0.51769230769230767</v>
       </c>
       <c r="M229" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>5.0961538461538468E-2</v>
       </c>
       <c r="N229" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>9.6007692307692292</v>
       </c>
       <c r="O229" s="25">
@@ -13207,58 +15272,58 @@
         <v>26</v>
       </c>
       <c r="B230" s="28" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C230" s="29">
         <f>AVERAGEIF($A$24:$A$149, "Arja*Repaired", B$24:B$149)</f>
         <v>2.4215384615384616</v>
       </c>
       <c r="D230" s="29">
-        <f t="shared" ref="D230:O230" si="31">AVERAGEIF($A$24:$A$149, "Arja*Repaired", C$24:C$149)</f>
+        <f t="shared" ref="D230:O230" si="45">AVERAGEIF($A$24:$A$149, "Arja*Repaired", C$24:C$149)</f>
         <v>81.206923076923076</v>
       </c>
       <c r="E230" s="29">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>10.330769230769231</v>
       </c>
       <c r="F230" s="29">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>6.3992307692307691</v>
       </c>
       <c r="G230" s="29">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>8.0784615384615392</v>
       </c>
       <c r="H230" s="29">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>2.4384615384615387</v>
       </c>
       <c r="I230" s="29">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>8.837692307692306</v>
       </c>
       <c r="J230" s="29">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>18.408846153846152</v>
       </c>
       <c r="K230" s="29">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>38.34269230769231</v>
       </c>
       <c r="L230" s="29">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>0.50576923076923075</v>
       </c>
       <c r="M230" s="29">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>5.296153846153847E-2</v>
       </c>
       <c r="N230" s="29">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>10.267307692307693</v>
       </c>
       <c r="O230" s="29">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>0.57084615384615389</v>
       </c>
     </row>
@@ -13268,58 +15333,58 @@
         <v>5</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C231" s="25">
         <f>AVERAGEIF($A$24:$A$149, "GenProg*Fixed", B$24:B$149)</f>
         <v>1</v>
       </c>
       <c r="D231" s="25">
-        <f t="shared" ref="D231:O231" si="32">AVERAGEIF($A$24:$A$149, "GenProg*Fixed", C$24:C$149)</f>
+        <f t="shared" ref="D231:O231" si="46">AVERAGEIF($A$24:$A$149, "GenProg*Fixed", C$24:C$149)</f>
         <v>74.569999999999993</v>
       </c>
       <c r="E231" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="46"/>
         <v>11</v>
       </c>
       <c r="F231" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="46"/>
         <v>9.86</v>
       </c>
       <c r="G231" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="46"/>
         <v>6.7099999999999991</v>
       </c>
       <c r="H231" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="46"/>
         <v>2</v>
       </c>
       <c r="I231" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="46"/>
         <v>11.86</v>
       </c>
       <c r="J231" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="46"/>
         <v>17.71</v>
       </c>
       <c r="K231" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="46"/>
         <v>52.8</v>
       </c>
       <c r="L231" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="46"/>
         <v>2</v>
       </c>
       <c r="M231" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="46"/>
         <v>0.05</v>
       </c>
       <c r="N231" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="46"/>
         <v>30.410000000000004</v>
       </c>
       <c r="O231" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="46"/>
         <v>1.69</v>
       </c>
     </row>
@@ -13329,58 +15394,58 @@
         <v>5</v>
       </c>
       <c r="B232" s="28" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C232" s="29">
         <f>AVERAGEIF($A$24:$A$149, "GenProg*Repaired", B$24:B$149)</f>
         <v>1</v>
       </c>
       <c r="D232" s="29">
-        <f t="shared" ref="D232:O232" si="33">AVERAGEIF($A$24:$A$149, "GenProg*Repaired", C$24:C$149)</f>
+        <f t="shared" ref="D232:O232" si="47">AVERAGEIF($A$24:$A$149, "GenProg*Repaired", C$24:C$149)</f>
         <v>73.486000000000004</v>
       </c>
       <c r="E232" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="47"/>
         <v>11.2</v>
       </c>
       <c r="F232" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="47"/>
         <v>10.370000000000001</v>
       </c>
       <c r="G232" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="47"/>
         <v>7.202</v>
       </c>
       <c r="H232" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="47"/>
         <v>2.2280000000000002</v>
       </c>
       <c r="I232" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="47"/>
         <v>12.6</v>
       </c>
       <c r="J232" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="47"/>
         <v>18.398000000000003</v>
       </c>
       <c r="K232" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="47"/>
         <v>56.54</v>
       </c>
       <c r="L232" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="47"/>
         <v>1.9440000000000002</v>
       </c>
       <c r="M232" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="47"/>
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="N232" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="47"/>
         <v>36.606000000000002</v>
       </c>
       <c r="O232" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="47"/>
         <v>2.0339999999999998</v>
       </c>
     </row>
@@ -13390,58 +15455,58 @@
         <v>5</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C233" s="25">
         <f>AVERAGEIF($A$24:$A$149, "Kali*Fixed", B$24:B$149)</f>
         <v>3.0960000000000001</v>
       </c>
       <c r="D233" s="25">
-        <f t="shared" ref="D233:O233" si="34">AVERAGEIF($A$24:$A$149, "Kali*Fixed", C$24:C$149)</f>
+        <f t="shared" ref="D233:O233" si="48">AVERAGEIF($A$24:$A$149, "Kali*Fixed", C$24:C$149)</f>
         <v>78.08</v>
       </c>
       <c r="E233" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="48"/>
         <v>12.318000000000001</v>
       </c>
       <c r="F233" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="48"/>
         <v>6.5879999999999992</v>
       </c>
       <c r="G233" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="48"/>
         <v>10.571999999999999</v>
       </c>
       <c r="H233" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="48"/>
         <v>2.8659999999999997</v>
       </c>
       <c r="I233" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="48"/>
         <v>9.4559999999999995</v>
       </c>
       <c r="J233" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="48"/>
         <v>22.89</v>
       </c>
       <c r="K233" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="48"/>
         <v>43.652000000000001</v>
       </c>
       <c r="L233" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="48"/>
         <v>0.51400000000000001</v>
       </c>
       <c r="M233" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="48"/>
         <v>1.3000000000000001E-2</v>
       </c>
       <c r="N233" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="48"/>
         <v>8.7140000000000004</v>
       </c>
       <c r="O233" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="48"/>
         <v>0.48399999999999999</v>
       </c>
     </row>
@@ -13451,58 +15516,58 @@
         <v>5</v>
       </c>
       <c r="B234" s="28" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C234" s="29">
         <f>AVERAGEIF($A$24:$A$149, "Kali*Repaired", B$24:B$149)</f>
         <v>3.1340000000000003</v>
       </c>
       <c r="D234" s="29">
-        <f t="shared" ref="D234:O234" si="35">AVERAGEIF($A$24:$A$149, "Kali*Repaired", C$24:C$149)</f>
+        <f t="shared" ref="D234:O234" si="49">AVERAGEIF($A$24:$A$149, "Kali*Repaired", C$24:C$149)</f>
         <v>75.86</v>
       </c>
       <c r="E234" s="29">
-        <f t="shared" si="35"/>
+        <f t="shared" si="49"/>
         <v>11.92</v>
       </c>
       <c r="F234" s="29">
-        <f t="shared" si="35"/>
+        <f t="shared" si="49"/>
         <v>6.7359999999999998</v>
       </c>
       <c r="G234" s="29">
-        <f t="shared" si="35"/>
+        <f t="shared" si="49"/>
         <v>10.24</v>
       </c>
       <c r="H234" s="29">
-        <f t="shared" si="35"/>
+        <f t="shared" si="49"/>
         <v>3.0939999999999999</v>
       </c>
       <c r="I234" s="29">
-        <f t="shared" si="35"/>
+        <f t="shared" si="49"/>
         <v>9.831999999999999</v>
       </c>
       <c r="J234" s="29">
-        <f t="shared" si="35"/>
+        <f t="shared" si="49"/>
         <v>22.16</v>
       </c>
       <c r="K234" s="29">
-        <f t="shared" si="35"/>
+        <f t="shared" si="49"/>
         <v>44.432000000000002</v>
       </c>
       <c r="L234" s="29">
-        <f t="shared" si="35"/>
+        <f t="shared" si="49"/>
         <v>0.90800000000000003</v>
       </c>
       <c r="M234" s="29">
-        <f t="shared" si="35"/>
+        <f t="shared" si="49"/>
         <v>0.11112000000000002</v>
       </c>
       <c r="N234" s="29">
-        <f t="shared" si="35"/>
+        <f t="shared" si="49"/>
         <v>17.521999999999998</v>
       </c>
       <c r="O234" s="29">
-        <f t="shared" si="35"/>
+        <f t="shared" si="49"/>
         <v>0.97399999999999998</v>
       </c>
     </row>
@@ -13512,58 +15577,58 @@
         <v>1</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C235" s="25">
         <f>AVERAGEIF($A$24:$A$149, "Nopol*Fixed", B$24:B$149)</f>
         <v>1.49</v>
       </c>
       <c r="D235" s="25">
-        <f t="shared" ref="D235:O235" si="36">AVERAGEIF($A$24:$A$149, "Nopol*Fixed", C$24:C$149)</f>
+        <f t="shared" ref="D235:O235" si="50">AVERAGEIF($A$24:$A$149, "Nopol*Fixed", C$24:C$149)</f>
         <v>89.41</v>
       </c>
       <c r="E235" s="25">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>5.92</v>
       </c>
       <c r="F235" s="25">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>3.31</v>
       </c>
       <c r="G235" s="25">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>3.69</v>
       </c>
       <c r="H235" s="25">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>1.92</v>
       </c>
       <c r="I235" s="25">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>5.23</v>
       </c>
       <c r="J235" s="25">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>9.6199999999999992</v>
       </c>
       <c r="K235" s="25">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>19.39</v>
       </c>
       <c r="L235" s="25">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>0.22</v>
       </c>
       <c r="M235" s="25">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>0.11</v>
       </c>
       <c r="N235" s="25">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>2.4700000000000002</v>
       </c>
       <c r="O235" s="25">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -13573,58 +15638,58 @@
         <v>1</v>
       </c>
       <c r="B236" s="28" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C236" s="29">
         <f>AVERAGEIF($A$24:$A$149, "Nopol*Repaired", B$24:B$149)</f>
         <v>1.53</v>
       </c>
       <c r="D236" s="29">
-        <f t="shared" ref="D236:O236" si="37">AVERAGEIF($A$24:$A$149, "Nopol*Repaired", C$24:C$149)</f>
+        <f t="shared" ref="D236:O236" si="51">AVERAGEIF($A$24:$A$149, "Nopol*Repaired", C$24:C$149)</f>
         <v>89.38</v>
       </c>
       <c r="E236" s="29">
-        <f t="shared" si="37"/>
+        <f t="shared" si="51"/>
         <v>5.95</v>
       </c>
       <c r="F236" s="29">
-        <f t="shared" si="37"/>
+        <f t="shared" si="51"/>
         <v>3.33</v>
       </c>
       <c r="G236" s="29">
-        <f t="shared" si="37"/>
+        <f t="shared" si="51"/>
         <v>3.82</v>
       </c>
       <c r="H236" s="29">
-        <f t="shared" si="37"/>
+        <f t="shared" si="51"/>
         <v>1.95</v>
       </c>
       <c r="I236" s="29">
-        <f t="shared" si="37"/>
+        <f t="shared" si="51"/>
         <v>5.28</v>
       </c>
       <c r="J236" s="29">
-        <f t="shared" si="37"/>
+        <f t="shared" si="51"/>
         <v>9.77</v>
       </c>
       <c r="K236" s="29">
-        <f t="shared" si="37"/>
+        <f t="shared" si="51"/>
         <v>19.79</v>
       </c>
       <c r="L236" s="29">
-        <f t="shared" si="37"/>
+        <f t="shared" si="51"/>
         <v>0.22</v>
       </c>
       <c r="M236" s="29">
-        <f t="shared" si="37"/>
+        <f t="shared" si="51"/>
         <v>0.11</v>
       </c>
       <c r="N236" s="29">
-        <f t="shared" si="37"/>
+        <f t="shared" si="51"/>
         <v>2.4700000000000002</v>
       </c>
       <c r="O236" s="29">
-        <f t="shared" si="37"/>
+        <f t="shared" si="51"/>
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -13634,58 +15699,58 @@
         <v>5</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C237" s="25">
         <f>AVERAGEIF($A$24:$A$149, "RSRepair*Fixed", B$24:B$149)</f>
         <v>1</v>
       </c>
       <c r="D237" s="25">
-        <f t="shared" ref="D237:O237" si="38">AVERAGEIF($A$24:$A$149, "RSRepair*Fixed", C$24:C$149)</f>
+        <f t="shared" ref="D237:O237" si="52">AVERAGEIF($A$24:$A$149, "RSRepair*Fixed", C$24:C$149)</f>
         <v>74.569999999999993</v>
       </c>
       <c r="E237" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="52"/>
         <v>11</v>
       </c>
       <c r="F237" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="52"/>
         <v>9.86</v>
       </c>
       <c r="G237" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="52"/>
         <v>6.7099999999999991</v>
       </c>
       <c r="H237" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="52"/>
         <v>2</v>
       </c>
       <c r="I237" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="52"/>
         <v>11.86</v>
       </c>
       <c r="J237" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="52"/>
         <v>17.71</v>
       </c>
       <c r="K237" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="52"/>
         <v>52.8</v>
       </c>
       <c r="L237" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="52"/>
         <v>2</v>
       </c>
       <c r="M237" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="52"/>
         <v>0.05</v>
       </c>
       <c r="N237" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="52"/>
         <v>30.410000000000004</v>
       </c>
       <c r="O237" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="52"/>
         <v>1.69</v>
       </c>
     </row>
@@ -13695,58 +15760,58 @@
         <v>5</v>
       </c>
       <c r="B238" s="28" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C238" s="29">
         <f>AVERAGEIF($A$24:$A$149, "RSRepair*Repaired", B$24:B$149)</f>
         <v>1</v>
       </c>
       <c r="D238" s="29">
-        <f t="shared" ref="D238:O238" si="39">AVERAGEIF($A$24:$A$149, "RSRepair*Repaired", C$24:C$149)</f>
+        <f t="shared" ref="D238:O238" si="53">AVERAGEIF($A$24:$A$149, "RSRepair*Repaired", C$24:C$149)</f>
         <v>74.539999999999992</v>
       </c>
       <c r="E238" s="29">
-        <f t="shared" si="39"/>
+        <f t="shared" si="53"/>
         <v>11.14</v>
       </c>
       <c r="F238" s="29">
-        <f t="shared" si="39"/>
+        <f t="shared" si="53"/>
         <v>10.056000000000001</v>
       </c>
       <c r="G238" s="29">
-        <f t="shared" si="39"/>
+        <f t="shared" si="53"/>
         <v>6.6280000000000001</v>
       </c>
       <c r="H238" s="29">
-        <f t="shared" si="39"/>
+        <f t="shared" si="53"/>
         <v>2.056</v>
       </c>
       <c r="I238" s="29">
-        <f t="shared" si="39"/>
+        <f t="shared" si="53"/>
         <v>12.114000000000001</v>
       </c>
       <c r="J238" s="29">
-        <f t="shared" si="39"/>
+        <f t="shared" si="53"/>
         <v>17.772000000000002</v>
       </c>
       <c r="K238" s="29">
-        <f t="shared" si="39"/>
+        <f t="shared" si="53"/>
         <v>53.898000000000003</v>
       </c>
       <c r="L238" s="29">
-        <f t="shared" si="39"/>
+        <f t="shared" si="53"/>
         <v>1.8579999999999999</v>
       </c>
       <c r="M238" s="29">
-        <f t="shared" si="39"/>
+        <f t="shared" si="53"/>
         <v>5.28E-2</v>
       </c>
       <c r="N238" s="29">
-        <f t="shared" si="39"/>
+        <f t="shared" si="53"/>
         <v>28.931999999999999</v>
       </c>
       <c r="O238" s="29">
-        <f t="shared" si="39"/>
+        <f t="shared" si="53"/>
         <v>1.6079999999999999</v>
       </c>
     </row>
@@ -13994,82 +16059,130 @@
     <sortCondition ref="A25:A150"/>
   </sortState>
   <conditionalFormatting sqref="C165:O165 C171:O171">
-    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="30" operator="equal">
       <formula>C164</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="33" operator="greaterThan">
       <formula>C164</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C164:O164 C170:O170">
-    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
       <formula>C165</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="32" operator="greaterThan">
       <formula>C165</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P66:P149">
-    <cfRule type="cellIs" dxfId="16" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="greaterThan">
       <formula>$P$70</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q66:Q149">
-    <cfRule type="cellIs" dxfId="15" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="28" operator="greaterThan">
       <formula>$P$70</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R66:R149">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="greaterThan">
       <formula>$P$70</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C182:O182 C178:O178 C186:O186 C190:O190">
-    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
       <formula>C177</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="greaterThan">
       <formula>C177</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C177:O177 C181:O181 C185:O185 C189:O189">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
       <formula>C178</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="26" operator="greaterThan">
       <formula>C178</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C198:O198 C203:O203 C208:O208 C213:O213 C218:O218 C223:O223">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
       <formula>C197</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="greaterThan">
       <formula>C197</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C197:O197 C202:O202 C207:O207 C212:O212 C217:O217 C222:O222">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
       <formula>C198</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="22" operator="greaterThan">
       <formula>C198</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C229:O229 C231:O231 C233:O233 C235:O235 C237:O237">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>C230</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="greaterThan">
       <formula>C230</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C230:O230 C232:O232 C234:O234 C236:O236 C238:O238">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>C229</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="17" operator="greaterThan">
       <formula>C229</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T177:AF177 T181:AF181">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+      <formula>T178</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="greaterThan">
+      <formula>T178</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T178:AF178">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+      <formula>T179</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="greaterThan">
+      <formula>T179</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T182:AF182">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+      <formula>T183</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
+      <formula>T183</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T185:AF186">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>T186</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
+      <formula>T186</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T189:AF189">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>T190</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+      <formula>T190</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T190:AF190">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>T191</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>T191</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/3. Bears_and_Bugs.jar_Metrics/Bears_Complexity_42_Avg.xlsx
+++ b/3. Bears_and_Bugs.jar_Metrics/Bears_Complexity_42_Avg.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="231">
   <si>
     <t>Bears (analysis done Today 04:34 most recent)</t>
   </si>
@@ -1414,6 +1414,30 @@
   </si>
   <si>
     <t>Multi-Chunk-Multi-Edits-Avg-Repaired</t>
+  </si>
+  <si>
+    <t>MC-SL Diff</t>
+  </si>
+  <si>
+    <t>MC-ML Diff</t>
+  </si>
+  <si>
+    <t>MC-SL Comm</t>
+  </si>
+  <si>
+    <t>MC-ML Comm</t>
+  </si>
+  <si>
+    <t>SC-SL Comm</t>
+  </si>
+  <si>
+    <t>SC-ML Comm</t>
+  </si>
+  <si>
+    <t>SL Comm</t>
+  </si>
+  <si>
+    <t>ML Comm</t>
   </si>
 </sst>
 </file>
@@ -2057,7 +2081,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2132,6 +2156,9 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2177,27 +2204,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="33">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="31">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2801,8 +2808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF252"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N158" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="T178" sqref="T178"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O60" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AB66" sqref="AB66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
@@ -5129,7 +5136,7 @@
       <c r="R64" s="12"/>
       <c r="S64" s="12"/>
     </row>
-    <row r="65" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:28" ht="29.4" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="21" t="s">
         <v>78</v>
       </c>
@@ -5180,8 +5187,32 @@
       <c r="Q65" s="20"/>
       <c r="R65" s="20"/>
       <c r="S65" s="20"/>
-    </row>
-    <row r="66" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="U65" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="V65" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="W65" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="X65" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y65" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z65" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="AA65" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="AB65" s="34" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A66" s="15" t="s">
         <v>45</v>
       </c>
@@ -5256,8 +5287,24 @@
         <f>IF(AND(P66&gt;1,P108&gt;1,P66&lt;S66,P108&lt;S108), "YES", "NO")</f>
         <v>NO</v>
       </c>
-    </row>
-    <row r="67" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y66" t="str">
+        <f>IF(AND($P66=1,$P108=1,$P66=$S66,$P108=$S108), "YES", "NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="Z66" t="str">
+        <f>IF(AND($P66=1,$P108=1,$P66&lt;$S66,$P108&lt;$S108), "YES", "NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="AA66" t="str">
+        <f>IF(AND($S66=1,$S108=1), "YES", "NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="AB66" t="str">
+        <f>IF(AND($S66&gt;1,$S108&gt;1), "YES", "NO")</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
         <v>137</v>
       </c>
@@ -5325,15 +5372,31 @@
         <v>NO</v>
       </c>
       <c r="W67" t="str">
-        <f t="shared" ref="W67:W130" si="4">IF(AND(P67&gt;1,P109&gt;1,P67=S67,P109=S109), "YES", "NO")</f>
+        <f t="shared" ref="W67:W107" si="4">IF(AND(P67&gt;1,P109&gt;1,P67=S67,P109=S109), "YES", "NO")</f>
         <v>NO</v>
       </c>
       <c r="X67" t="str">
-        <f t="shared" ref="X67:X130" si="5">IF(AND(P67&gt;1,P109&gt;1,P67&lt;S67,P109&lt;S109), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="68" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+        <f t="shared" ref="X67:X107" si="5">IF(AND(P67&gt;1,P109&gt;1,P67&lt;S67,P109&lt;S109), "YES", "NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="Y67" t="str">
+        <f t="shared" ref="Y67:Y130" si="6">IF(AND($P67=1,$P109=1,$P67=$S67,$P109=$S109), "YES", "NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="Z67" t="str">
+        <f t="shared" ref="Z67:Z130" si="7">IF(AND($S67=1,$S109=1,$S67&lt;$P67,$S109&lt;$P109), "YES", "NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="AA67" t="str">
+        <f t="shared" ref="AA67:AA130" si="8">IF(AND($P67=1,$P109=1), "YES", "NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="AB67" t="str">
+        <f t="shared" ref="AB67:AB130" si="9">IF(AND($P67&gt;1,$P109&gt;1), "YES", "NO")</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
         <v>80</v>
       </c>
@@ -5408,8 +5471,24 @@
         <f t="shared" si="5"/>
         <v>NO</v>
       </c>
-    </row>
-    <row r="69" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y68" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Z68" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AA68" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="AB68" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>109</v>
       </c>
@@ -5484,8 +5563,24 @@
         <f t="shared" si="5"/>
         <v>NO</v>
       </c>
-    </row>
-    <row r="70" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y69" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Z69" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AA69" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="AB69" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>67</v>
       </c>
@@ -5560,8 +5655,24 @@
         <f t="shared" si="5"/>
         <v>NO</v>
       </c>
-    </row>
-    <row r="71" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y70" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Z70" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AA70" t="str">
+        <f t="shared" si="8"/>
+        <v>YES</v>
+      </c>
+      <c r="AB70" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
         <v>55</v>
       </c>
@@ -5636,8 +5747,24 @@
         <f t="shared" si="5"/>
         <v>NO</v>
       </c>
-    </row>
-    <row r="72" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y71" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Z71" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AA71" t="str">
+        <f t="shared" si="8"/>
+        <v>YES</v>
+      </c>
+      <c r="AB71" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
         <v>111</v>
       </c>
@@ -5712,8 +5839,24 @@
         <f t="shared" si="5"/>
         <v>NO</v>
       </c>
-    </row>
-    <row r="73" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y72" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Z72" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AA72" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="AB72" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
         <v>93</v>
       </c>
@@ -5788,8 +5931,24 @@
         <f t="shared" si="5"/>
         <v>NO</v>
       </c>
-    </row>
-    <row r="74" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y73" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Z73" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AA73" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="AB73" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
         <v>116</v>
       </c>
@@ -5864,8 +6023,24 @@
         <f t="shared" si="5"/>
         <v>NO</v>
       </c>
-    </row>
-    <row r="75" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y74" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Z74" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AA74" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="AB74" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A75" s="7" t="s">
         <v>40</v>
       </c>
@@ -5940,8 +6115,24 @@
         <f t="shared" si="5"/>
         <v>NO</v>
       </c>
-    </row>
-    <row r="76" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y75" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Z75" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AA75" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="AB75" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
         <v>49</v>
       </c>
@@ -6016,8 +6207,24 @@
         <f t="shared" si="5"/>
         <v>NO</v>
       </c>
-    </row>
-    <row r="77" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y76" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Z76" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AA76" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="AB76" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A77" s="7" t="s">
         <v>120</v>
       </c>
@@ -6092,8 +6299,24 @@
         <f t="shared" si="5"/>
         <v>NO</v>
       </c>
-    </row>
-    <row r="78" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y77" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Z77" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AA77" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="AB77" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A78" s="7" t="s">
         <v>72</v>
       </c>
@@ -6168,8 +6391,24 @@
         <f t="shared" si="5"/>
         <v>YES</v>
       </c>
-    </row>
-    <row r="79" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y78" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Z78" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AA78" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="AB78" t="str">
+        <f t="shared" si="9"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A79" s="7" t="s">
         <v>58</v>
       </c>
@@ -6244,8 +6483,24 @@
         <f t="shared" si="5"/>
         <v>YES</v>
       </c>
-    </row>
-    <row r="80" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y79" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Z79" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AA79" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="AB79" t="str">
+        <f t="shared" si="9"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
         <v>135</v>
       </c>
@@ -6320,8 +6575,24 @@
         <f t="shared" si="5"/>
         <v>NO</v>
       </c>
-    </row>
-    <row r="81" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y80" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Z80" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AA80" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="AB80" t="str">
+        <f t="shared" si="9"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
         <v>27</v>
       </c>
@@ -6396,8 +6667,24 @@
         <f t="shared" si="5"/>
         <v>YES</v>
       </c>
-    </row>
-    <row r="82" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y81" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Z81" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AA81" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="AB81" t="str">
+        <f t="shared" si="9"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
         <v>31</v>
       </c>
@@ -6472,8 +6759,24 @@
         <f t="shared" si="5"/>
         <v>NO</v>
       </c>
-    </row>
-    <row r="83" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y82" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Z82" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AA82" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="AB82" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
         <v>141</v>
       </c>
@@ -6548,8 +6851,24 @@
         <f t="shared" si="5"/>
         <v>NO</v>
       </c>
-    </row>
-    <row r="84" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y83" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
         <v>65</v>
       </c>
@@ -6624,8 +6943,24 @@
         <f t="shared" si="5"/>
         <v>NO</v>
       </c>
-    </row>
-    <row r="85" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y84" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A85" s="7" t="s">
         <v>94</v>
       </c>
@@ -6700,8 +7035,24 @@
         <f t="shared" si="5"/>
         <v>NO</v>
       </c>
-    </row>
-    <row r="86" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y85" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
         <v>53</v>
       </c>
@@ -6776,8 +7127,24 @@
         <f t="shared" si="5"/>
         <v>NO</v>
       </c>
-    </row>
-    <row r="87" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y86" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
         <v>35</v>
       </c>
@@ -6852,8 +7219,24 @@
         <f t="shared" si="5"/>
         <v>NO</v>
       </c>
-    </row>
-    <row r="88" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y87" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="8"/>
+        <v>YES</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
         <v>39</v>
       </c>
@@ -6897,7 +7280,7 @@
         <v>0</v>
       </c>
       <c r="O88" s="12" t="str">
-        <f t="shared" ref="O88:O119" si="6">IF(NOT(ISERR(SEARCH("*_Buggy",$A88))), "Buggy", IF(NOT(ISERR(SEARCH("*_Fixed",$A88))), "Fixed", IF(NOT(ISERR(SEARCH("*_Repaired",$A88))), "Repaired", "")))</f>
+        <f t="shared" ref="O88:O119" si="10">IF(NOT(ISERR(SEARCH("*_Buggy",$A88))), "Buggy", IF(NOT(ISERR(SEARCH("*_Fixed",$A88))), "Fixed", IF(NOT(ISERR(SEARCH("*_Repaired",$A88))), "Repaired", "")))</f>
         <v>Fixed</v>
       </c>
       <c r="P88" s="12">
@@ -6928,8 +7311,24 @@
         <f t="shared" si="5"/>
         <v>NO</v>
       </c>
-    </row>
-    <row r="89" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y88" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="8"/>
+        <v>YES</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
         <v>115</v>
       </c>
@@ -6973,7 +7372,7 @@
         <v>0</v>
       </c>
       <c r="O89" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Fixed</v>
       </c>
       <c r="P89" s="12">
@@ -7004,8 +7403,24 @@
         <f t="shared" si="5"/>
         <v>NO</v>
       </c>
-    </row>
-    <row r="90" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y89" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="8"/>
+        <v>YES</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A90" s="7" t="s">
         <v>118</v>
       </c>
@@ -7049,7 +7464,7 @@
         <v>0</v>
       </c>
       <c r="O90" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Fixed</v>
       </c>
       <c r="P90" s="12">
@@ -7080,8 +7495,24 @@
         <f t="shared" si="5"/>
         <v>NO</v>
       </c>
-    </row>
-    <row r="91" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y90" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="8"/>
+        <v>YES</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A91" s="7" t="s">
         <v>128</v>
       </c>
@@ -7125,7 +7556,7 @@
         <v>0</v>
       </c>
       <c r="O91" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Fixed</v>
       </c>
       <c r="P91" s="12">
@@ -7156,8 +7587,24 @@
         <f t="shared" si="5"/>
         <v>NO</v>
       </c>
-    </row>
-    <row r="92" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y91" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="8"/>
+        <v>YES</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A92" s="7" t="s">
         <v>24</v>
       </c>
@@ -7201,7 +7648,7 @@
         <v>1.69</v>
       </c>
       <c r="O92" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Fixed</v>
       </c>
       <c r="P92" s="12">
@@ -7232,8 +7679,24 @@
         <f t="shared" si="5"/>
         <v>NO</v>
       </c>
-    </row>
-    <row r="93" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y92" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
         <v>101</v>
       </c>
@@ -7277,7 +7740,7 @@
         <v>1.69</v>
       </c>
       <c r="O93" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Fixed</v>
       </c>
       <c r="P93" s="12">
@@ -7308,8 +7771,24 @@
         <f t="shared" si="5"/>
         <v>NO</v>
       </c>
-    </row>
-    <row r="94" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y93" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A94" s="7" t="s">
         <v>54</v>
       </c>
@@ -7353,7 +7832,7 @@
         <v>1.69</v>
       </c>
       <c r="O94" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Fixed</v>
       </c>
       <c r="P94" s="12">
@@ -7384,8 +7863,24 @@
         <f t="shared" si="5"/>
         <v>NO</v>
       </c>
-    </row>
-    <row r="95" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y94" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
         <v>37</v>
       </c>
@@ -7429,7 +7924,7 @@
         <v>1.69</v>
       </c>
       <c r="O95" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Fixed</v>
       </c>
       <c r="P95" s="12">
@@ -7460,8 +7955,24 @@
         <f t="shared" si="5"/>
         <v>NO</v>
       </c>
-    </row>
-    <row r="96" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y95" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
         <v>121</v>
       </c>
@@ -7505,7 +8016,7 @@
         <v>1.69</v>
       </c>
       <c r="O96" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Fixed</v>
       </c>
       <c r="P96" s="12">
@@ -7536,8 +8047,24 @@
         <f t="shared" si="5"/>
         <v>NO</v>
       </c>
-    </row>
-    <row r="97" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y96" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A97" s="7" t="s">
         <v>36</v>
       </c>
@@ -7581,7 +8108,7 @@
         <v>0.73</v>
       </c>
       <c r="O97" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Fixed</v>
       </c>
       <c r="P97" s="12">
@@ -7612,8 +8139,24 @@
         <f t="shared" si="5"/>
         <v>NO</v>
       </c>
-    </row>
-    <row r="98" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y97" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="98" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
         <v>113</v>
       </c>
@@ -7657,7 +8200,7 @@
         <v>0</v>
       </c>
       <c r="O98" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Fixed</v>
       </c>
       <c r="P98" s="12">
@@ -7688,8 +8231,24 @@
         <f t="shared" si="5"/>
         <v>NO</v>
       </c>
-    </row>
-    <row r="99" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y98" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="8"/>
+        <v>YES</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
         <v>131</v>
       </c>
@@ -7733,7 +8292,7 @@
         <v>0</v>
       </c>
       <c r="O99" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Fixed</v>
       </c>
       <c r="P99" s="12">
@@ -7764,8 +8323,24 @@
         <f t="shared" si="5"/>
         <v>NO</v>
       </c>
-    </row>
-    <row r="100" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y99" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A100" s="7" t="s">
         <v>144</v>
       </c>
@@ -7809,7 +8384,7 @@
         <v>1.69</v>
       </c>
       <c r="O100" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Fixed</v>
       </c>
       <c r="P100" s="12">
@@ -7840,8 +8415,24 @@
         <f t="shared" si="5"/>
         <v>NO</v>
       </c>
-    </row>
-    <row r="101" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y100" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="8"/>
+        <v>YES</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A101" s="7" t="s">
         <v>126</v>
       </c>
@@ -7885,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="O101" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Fixed</v>
       </c>
       <c r="P101" s="12">
@@ -7916,8 +8507,24 @@
         <f t="shared" si="5"/>
         <v>NO</v>
       </c>
-    </row>
-    <row r="102" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y101" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="8"/>
+        <v>YES</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
         <v>83</v>
       </c>
@@ -7961,7 +8568,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="O102" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Fixed</v>
       </c>
       <c r="P102" s="12">
@@ -7992,8 +8599,24 @@
         <f t="shared" si="5"/>
         <v>NO</v>
       </c>
-    </row>
-    <row r="103" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y102" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="103" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A103" s="7" t="s">
         <v>114</v>
       </c>
@@ -8037,7 +8660,7 @@
         <v>1.69</v>
       </c>
       <c r="O103" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Fixed</v>
       </c>
       <c r="P103" s="12">
@@ -8068,8 +8691,24 @@
         <f t="shared" si="5"/>
         <v>NO</v>
       </c>
-    </row>
-    <row r="104" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y103" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="104" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
         <v>71</v>
       </c>
@@ -8113,7 +8752,7 @@
         <v>1.69</v>
       </c>
       <c r="O104" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Fixed</v>
       </c>
       <c r="P104" s="12">
@@ -8144,8 +8783,24 @@
         <f t="shared" si="5"/>
         <v>NO</v>
       </c>
-    </row>
-    <row r="105" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y104" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
         <v>129</v>
       </c>
@@ -8189,7 +8844,7 @@
         <v>1.69</v>
       </c>
       <c r="O105" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Fixed</v>
       </c>
       <c r="P105" s="12">
@@ -8220,8 +8875,24 @@
         <f t="shared" si="5"/>
         <v>NO</v>
       </c>
-    </row>
-    <row r="106" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y105" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="106" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
         <v>92</v>
       </c>
@@ -8265,7 +8936,7 @@
         <v>1.69</v>
       </c>
       <c r="O106" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Fixed</v>
       </c>
       <c r="P106" s="12">
@@ -8296,8 +8967,24 @@
         <f t="shared" si="5"/>
         <v>NO</v>
       </c>
-    </row>
-    <row r="107" spans="1:24" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y106" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="107" spans="1:28" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A107" s="18" t="s">
         <v>69</v>
       </c>
@@ -8341,7 +9028,7 @@
         <v>1.69</v>
       </c>
       <c r="O107" s="20" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Fixed</v>
       </c>
       <c r="P107" s="20">
@@ -8373,8 +9060,24 @@
         <f t="shared" si="5"/>
         <v>NO</v>
       </c>
-    </row>
-    <row r="108" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y107" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Z107" s="33" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AA107" s="33" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="AB107" s="33" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="108" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A108" s="15" t="s">
         <v>119</v>
       </c>
@@ -8418,7 +9121,7 @@
         <v>1.31</v>
       </c>
       <c r="O108" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Repaired</v>
       </c>
       <c r="P108" s="17">
@@ -8447,8 +9150,24 @@
       <c r="X108" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="109" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y108" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Z108" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AA108" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="AB108" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="109" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
         <v>33</v>
       </c>
@@ -8492,7 +9211,7 @@
         <v>1.02</v>
       </c>
       <c r="O109" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Repaired</v>
       </c>
       <c r="P109" s="12">
@@ -8521,8 +9240,24 @@
       <c r="X109" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="110" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y109" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Z109" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AA109" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="AB109" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="110" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A110" s="7" t="s">
         <v>50</v>
       </c>
@@ -8566,7 +9301,7 @@
         <v>0.66</v>
       </c>
       <c r="O110" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Repaired</v>
       </c>
       <c r="P110" s="12">
@@ -8595,8 +9330,24 @@
       <c r="X110" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="111" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y110" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Z110" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AA110" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="AB110" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="111" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A111" s="7" t="s">
         <v>30</v>
       </c>
@@ -8640,7 +9391,7 @@
         <v>1.53</v>
       </c>
       <c r="O111" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Repaired</v>
       </c>
       <c r="P111" s="12">
@@ -8669,8 +9420,24 @@
       <c r="X111" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="112" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y111" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Z111" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AA111" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="AB111" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="112" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
         <v>143</v>
       </c>
@@ -8714,7 +9481,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="O112" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Repaired</v>
       </c>
       <c r="P112" s="12">
@@ -8743,8 +9510,24 @@
       <c r="X112" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="113" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y112" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Z112" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AA112" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="AB112" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="113" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A113" s="7" t="s">
         <v>142</v>
       </c>
@@ -8788,7 +9571,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="O113" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Repaired</v>
       </c>
       <c r="P113" s="12">
@@ -8817,8 +9600,24 @@
       <c r="X113" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="114" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y113" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Z113" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AA113" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="AB113" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="114" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A114" s="5" t="s">
         <v>77</v>
       </c>
@@ -8862,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="O114" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Repaired</v>
       </c>
       <c r="P114" s="12">
@@ -8891,8 +9690,24 @@
       <c r="X114" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="115" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y114" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Z114" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AA114" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="AB114" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="115" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A115" s="7" t="s">
         <v>88</v>
       </c>
@@ -8936,7 +9751,7 @@
         <v>0</v>
       </c>
       <c r="O115" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Repaired</v>
       </c>
       <c r="P115" s="12">
@@ -8965,8 +9780,24 @@
       <c r="X115" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="116" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y115" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Z115" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AA115" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="AB115" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="116" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A116" s="7" t="s">
         <v>38</v>
       </c>
@@ -9010,7 +9841,7 @@
         <v>0</v>
       </c>
       <c r="O116" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Repaired</v>
       </c>
       <c r="P116" s="12">
@@ -9039,8 +9870,24 @@
       <c r="X116" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="117" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y116" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Z116" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AA116" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="AB116" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="117" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A117" s="7" t="s">
         <v>132</v>
       </c>
@@ -9084,7 +9931,7 @@
         <v>0</v>
       </c>
       <c r="O117" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Repaired</v>
       </c>
       <c r="P117" s="12">
@@ -9113,8 +9960,24 @@
       <c r="X117" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="118" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y117" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Z117" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AA117" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="AB117" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="118" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
         <v>123</v>
       </c>
@@ -9158,7 +10021,7 @@
         <v>0</v>
       </c>
       <c r="O118" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Repaired</v>
       </c>
       <c r="P118" s="12">
@@ -9187,8 +10050,24 @@
       <c r="X118" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="119" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y118" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Z118" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AA118" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="AB118" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="119" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
         <v>89</v>
       </c>
@@ -9232,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="O119" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Repaired</v>
       </c>
       <c r="P119" s="12">
@@ -9261,8 +10140,24 @@
       <c r="X119" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="120" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y119" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Z119" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AA119" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="AB119" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="120" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A120" s="5" t="s">
         <v>47</v>
       </c>
@@ -9306,7 +10201,7 @@
         <v>0</v>
       </c>
       <c r="O120" s="12" t="str">
-        <f t="shared" ref="O120:O149" si="7">IF(NOT(ISERR(SEARCH("*_Buggy",$A120))), "Buggy", IF(NOT(ISERR(SEARCH("*_Fixed",$A120))), "Fixed", IF(NOT(ISERR(SEARCH("*_Repaired",$A120))), "Repaired", "")))</f>
+        <f t="shared" ref="O120:O149" si="11">IF(NOT(ISERR(SEARCH("*_Buggy",$A120))), "Buggy", IF(NOT(ISERR(SEARCH("*_Fixed",$A120))), "Fixed", IF(NOT(ISERR(SEARCH("*_Repaired",$A120))), "Repaired", "")))</f>
         <v>Repaired</v>
       </c>
       <c r="P120" s="12">
@@ -9335,8 +10230,24 @@
       <c r="X120" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="121" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y120" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Z120" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AA120" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="AB120" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="121" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A121" s="7" t="s">
         <v>46</v>
       </c>
@@ -9380,7 +10291,7 @@
         <v>0</v>
       </c>
       <c r="O121" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>Repaired</v>
       </c>
       <c r="P121" s="12">
@@ -9409,8 +10320,24 @@
       <c r="X121" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="122" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y121" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Z121" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AA121" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="AB121" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="122" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A122" s="7" t="s">
         <v>138</v>
       </c>
@@ -9454,7 +10381,7 @@
         <v>0</v>
       </c>
       <c r="O122" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>Repaired</v>
       </c>
       <c r="P122" s="12">
@@ -9483,8 +10410,24 @@
       <c r="X122" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="123" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y122" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Z122" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AA122" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="AB122" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="123" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A123" s="7" t="s">
         <v>130</v>
       </c>
@@ -9528,7 +10471,7 @@
         <v>0</v>
       </c>
       <c r="O123" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>Repaired</v>
       </c>
       <c r="P123" s="12">
@@ -9557,8 +10500,24 @@
       <c r="X123" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="124" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y123" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Z123" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AA123" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="AB123" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="124" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A124" s="5" t="s">
         <v>63</v>
       </c>
@@ -9602,7 +10561,7 @@
         <v>1.69</v>
       </c>
       <c r="O124" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>Repaired</v>
       </c>
       <c r="P124" s="12">
@@ -9631,8 +10590,24 @@
       <c r="X124" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="125" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y124" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Z124" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AA124" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="AB124" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="125" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A125" s="5" t="s">
         <v>125</v>
       </c>
@@ -9676,7 +10651,7 @@
         <v>2.4</v>
       </c>
       <c r="O125" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>Repaired</v>
       </c>
       <c r="P125" s="12">
@@ -9705,8 +10680,24 @@
       <c r="X125" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="126" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y125" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Z125" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AA125" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="AB125" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="126" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A126" s="5" t="s">
         <v>23</v>
       </c>
@@ -9750,7 +10741,7 @@
         <v>1.6</v>
       </c>
       <c r="O126" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>Repaired</v>
       </c>
       <c r="P126" s="12">
@@ -9779,8 +10770,24 @@
       <c r="X126" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="127" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y126" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Z126" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AA126" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="AB126" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="127" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A127" s="5" t="s">
         <v>107</v>
       </c>
@@ -9824,7 +10831,7 @@
         <v>1.69</v>
       </c>
       <c r="O127" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>Repaired</v>
       </c>
       <c r="P127" s="12">
@@ -9853,8 +10860,24 @@
       <c r="X127" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="128" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y127" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Z127" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AA127" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="AB127" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="128" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A128" s="7" t="s">
         <v>106</v>
       </c>
@@ -9898,7 +10921,7 @@
         <v>2.83</v>
       </c>
       <c r="O128" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>Repaired</v>
       </c>
       <c r="P128" s="12">
@@ -9927,8 +10950,24 @@
       <c r="X128" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="129" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y128" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Z128" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AA128" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="AB128" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="129" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A129" s="7" t="s">
         <v>76</v>
       </c>
@@ -9972,7 +11011,7 @@
         <v>0</v>
       </c>
       <c r="O129" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>Repaired</v>
       </c>
       <c r="P129" s="12">
@@ -10001,8 +11040,24 @@
       <c r="X129" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="130" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y129" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Z129" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AA129" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="AB129" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="130" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A130" s="7" t="s">
         <v>62</v>
       </c>
@@ -10046,7 +11101,7 @@
         <v>0</v>
       </c>
       <c r="O130" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>Repaired</v>
       </c>
       <c r="P130" s="12">
@@ -10075,8 +11130,24 @@
       <c r="X130" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="131" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y130" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Z130" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AA130" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="AB130" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="131" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A131" s="7" t="s">
         <v>82</v>
       </c>
@@ -10120,7 +11191,7 @@
         <v>0</v>
       </c>
       <c r="O131" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>Repaired</v>
       </c>
       <c r="P131" s="12">
@@ -10136,11 +11207,11 @@
         <v>12</v>
       </c>
       <c r="U131" s="1" t="str">
-        <f t="shared" ref="U131:U149" si="8">IF(AND(P131&gt;1,P131=S131), "YES", "NO")</f>
+        <f t="shared" ref="U131:U149" si="12">IF(AND(P131&gt;1,P131=S131), "YES", "NO")</f>
         <v>NO</v>
       </c>
       <c r="V131" s="1" t="str">
-        <f t="shared" ref="V131:V149" si="9">IF(AND(P131&gt;1,P131&lt;S131), "YES", "NO")</f>
+        <f t="shared" ref="V131:V149" si="13">IF(AND(P131&gt;1,P131&lt;S131), "YES", "NO")</f>
         <v>NO</v>
       </c>
       <c r="W131" t="s">
@@ -10149,8 +11220,24 @@
       <c r="X131" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="132" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y131" t="str">
+        <f t="shared" ref="Y131:Y150" si="14">IF(AND($P131=1,$P173=1,$P131=$S131,$P173=$S173), "YES", "NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="Z131" t="str">
+        <f t="shared" ref="Z131:Z149" si="15">IF(AND($S131=1,$S173=1,$S131&lt;$P131,$S173&lt;$P173), "YES", "NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="AA131" t="str">
+        <f t="shared" ref="AA131:AA149" si="16">IF(AND($P131=1,$P173=1), "YES", "NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="AB131" t="str">
+        <f t="shared" ref="AB131:AB149" si="17">IF(AND($P131&gt;1,$P173&gt;1), "YES", "NO")</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="132" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A132" s="7" t="s">
         <v>74</v>
       </c>
@@ -10194,7 +11281,7 @@
         <v>0</v>
       </c>
       <c r="O132" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>Repaired</v>
       </c>
       <c r="P132" s="12">
@@ -10210,11 +11297,11 @@
         <v>12</v>
       </c>
       <c r="U132" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>NO</v>
       </c>
       <c r="V132" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>NO</v>
       </c>
       <c r="W132" t="s">
@@ -10223,8 +11310,24 @@
       <c r="X132" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="133" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y132" t="str">
+        <f t="shared" si="14"/>
+        <v>NO</v>
+      </c>
+      <c r="Z132" t="str">
+        <f t="shared" si="15"/>
+        <v>NO</v>
+      </c>
+      <c r="AA132" t="str">
+        <f t="shared" si="16"/>
+        <v>NO</v>
+      </c>
+      <c r="AB132" t="str">
+        <f t="shared" si="17"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="133" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A133" s="7" t="s">
         <v>104</v>
       </c>
@@ -10268,7 +11371,7 @@
         <v>0</v>
       </c>
       <c r="O133" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>Repaired</v>
       </c>
       <c r="P133" s="12">
@@ -10284,11 +11387,11 @@
         <v>12</v>
       </c>
       <c r="U133" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>NO</v>
       </c>
       <c r="V133" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>NO</v>
       </c>
       <c r="W133" t="s">
@@ -10297,8 +11400,24 @@
       <c r="X133" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="134" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y133" t="str">
+        <f t="shared" si="14"/>
+        <v>NO</v>
+      </c>
+      <c r="Z133" t="str">
+        <f t="shared" si="15"/>
+        <v>NO</v>
+      </c>
+      <c r="AA133" t="str">
+        <f t="shared" si="16"/>
+        <v>NO</v>
+      </c>
+      <c r="AB133" t="str">
+        <f t="shared" si="17"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="134" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A134" s="7" t="s">
         <v>66</v>
       </c>
@@ -10342,7 +11461,7 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="O134" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>Repaired</v>
       </c>
       <c r="P134" s="12">
@@ -10358,11 +11477,11 @@
         <v>16</v>
       </c>
       <c r="U134" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>NO</v>
       </c>
       <c r="V134" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>YES</v>
       </c>
       <c r="W134" t="s">
@@ -10371,8 +11490,24 @@
       <c r="X134" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="135" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y134" t="str">
+        <f t="shared" si="14"/>
+        <v>NO</v>
+      </c>
+      <c r="Z134" t="str">
+        <f t="shared" si="15"/>
+        <v>NO</v>
+      </c>
+      <c r="AA134" t="str">
+        <f t="shared" si="16"/>
+        <v>NO</v>
+      </c>
+      <c r="AB134" t="str">
+        <f t="shared" si="17"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="135" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A135" s="5" t="s">
         <v>117</v>
       </c>
@@ -10416,7 +11551,7 @@
         <v>1.39</v>
       </c>
       <c r="O135" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>Repaired</v>
       </c>
       <c r="P135" s="12">
@@ -10432,11 +11567,11 @@
         <v>39</v>
       </c>
       <c r="U135" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>NO</v>
       </c>
       <c r="V135" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>YES</v>
       </c>
       <c r="W135" t="s">
@@ -10445,8 +11580,24 @@
       <c r="X135" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="136" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y135" t="str">
+        <f t="shared" si="14"/>
+        <v>NO</v>
+      </c>
+      <c r="Z135" t="str">
+        <f t="shared" si="15"/>
+        <v>NO</v>
+      </c>
+      <c r="AA135" t="str">
+        <f t="shared" si="16"/>
+        <v>NO</v>
+      </c>
+      <c r="AB135" t="str">
+        <f t="shared" si="17"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="136" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A136" s="5" t="s">
         <v>133</v>
       </c>
@@ -10490,7 +11641,7 @@
         <v>2.16</v>
       </c>
       <c r="O136" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>Repaired</v>
       </c>
       <c r="P136" s="12">
@@ -10506,11 +11657,11 @@
         <v>13</v>
       </c>
       <c r="U136" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>NO</v>
       </c>
       <c r="V136" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>YES</v>
       </c>
       <c r="W136" t="s">
@@ -10519,8 +11670,24 @@
       <c r="X136" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="137" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y136" t="str">
+        <f t="shared" si="14"/>
+        <v>NO</v>
+      </c>
+      <c r="Z136" t="str">
+        <f t="shared" si="15"/>
+        <v>NO</v>
+      </c>
+      <c r="AA136" t="str">
+        <f t="shared" si="16"/>
+        <v>NO</v>
+      </c>
+      <c r="AB136" t="str">
+        <f t="shared" si="17"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="137" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A137" s="7" t="s">
         <v>86</v>
       </c>
@@ -10564,7 +11731,7 @@
         <v>0.79</v>
       </c>
       <c r="O137" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>Repaired</v>
       </c>
       <c r="P137" s="12">
@@ -10580,11 +11747,11 @@
         <v>9</v>
       </c>
       <c r="U137" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>NO</v>
       </c>
       <c r="V137" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>YES</v>
       </c>
       <c r="W137" t="s">
@@ -10593,8 +11760,24 @@
       <c r="X137" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="138" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y137" t="str">
+        <f t="shared" si="14"/>
+        <v>NO</v>
+      </c>
+      <c r="Z137" t="str">
+        <f t="shared" si="15"/>
+        <v>NO</v>
+      </c>
+      <c r="AA137" t="str">
+        <f t="shared" si="16"/>
+        <v>NO</v>
+      </c>
+      <c r="AB137" t="str">
+        <f t="shared" si="17"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="138" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A138" s="7" t="s">
         <v>90</v>
       </c>
@@ -10638,7 +11821,7 @@
         <v>3.38</v>
       </c>
       <c r="O138" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>Repaired</v>
       </c>
       <c r="P138" s="12">
@@ -10654,11 +11837,11 @@
         <v>20</v>
       </c>
       <c r="U138" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>NO</v>
       </c>
       <c r="V138" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>YES</v>
       </c>
       <c r="W138" t="s">
@@ -10667,8 +11850,24 @@
       <c r="X138" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="139" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y138" t="str">
+        <f t="shared" si="14"/>
+        <v>NO</v>
+      </c>
+      <c r="Z138" t="str">
+        <f t="shared" si="15"/>
+        <v>NO</v>
+      </c>
+      <c r="AA138" t="str">
+        <f t="shared" si="16"/>
+        <v>NO</v>
+      </c>
+      <c r="AB138" t="str">
+        <f t="shared" si="17"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="139" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A139" s="7" t="s">
         <v>98</v>
       </c>
@@ -10712,7 +11911,7 @@
         <v>0.71</v>
       </c>
       <c r="O139" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>Repaired</v>
       </c>
       <c r="P139" s="12">
@@ -10728,11 +11927,11 @@
         <v>1</v>
       </c>
       <c r="U139" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>NO</v>
       </c>
       <c r="V139" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>NO</v>
       </c>
       <c r="W139" t="s">
@@ -10741,8 +11940,24 @@
       <c r="X139" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="140" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y139" t="str">
+        <f t="shared" si="14"/>
+        <v>NO</v>
+      </c>
+      <c r="Z139" t="str">
+        <f t="shared" si="15"/>
+        <v>NO</v>
+      </c>
+      <c r="AA139" t="str">
+        <f t="shared" si="16"/>
+        <v>NO</v>
+      </c>
+      <c r="AB139" t="str">
+        <f t="shared" si="17"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="140" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A140" s="7" t="s">
         <v>110</v>
       </c>
@@ -10786,7 +12001,7 @@
         <v>0</v>
       </c>
       <c r="O140" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>Repaired</v>
       </c>
       <c r="P140" s="12">
@@ -10802,11 +12017,11 @@
         <v>1</v>
       </c>
       <c r="U140" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>NO</v>
       </c>
       <c r="V140" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>NO</v>
       </c>
       <c r="W140" t="s">
@@ -10815,8 +12030,24 @@
       <c r="X140" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="141" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y140" t="str">
+        <f t="shared" si="14"/>
+        <v>NO</v>
+      </c>
+      <c r="Z140" t="str">
+        <f t="shared" si="15"/>
+        <v>NO</v>
+      </c>
+      <c r="AA140" t="str">
+        <f t="shared" si="16"/>
+        <v>NO</v>
+      </c>
+      <c r="AB140" t="str">
+        <f t="shared" si="17"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="141" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A141" s="7" t="s">
         <v>44</v>
       </c>
@@ -10860,7 +12091,7 @@
         <v>2.4700000000000002</v>
       </c>
       <c r="O141" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>Repaired</v>
       </c>
       <c r="P141" s="12">
@@ -10876,11 +12107,11 @@
         <v>2</v>
       </c>
       <c r="U141" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>NO</v>
       </c>
       <c r="V141" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>NO</v>
       </c>
       <c r="W141" t="s">
@@ -10889,8 +12120,24 @@
       <c r="X141" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="142" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y141" t="str">
+        <f t="shared" si="14"/>
+        <v>NO</v>
+      </c>
+      <c r="Z141" t="str">
+        <f t="shared" si="15"/>
+        <v>NO</v>
+      </c>
+      <c r="AA141" t="str">
+        <f t="shared" si="16"/>
+        <v>NO</v>
+      </c>
+      <c r="AB141" t="str">
+        <f t="shared" si="17"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="142" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A142" s="7" t="s">
         <v>70</v>
       </c>
@@ -10934,7 +12181,7 @@
         <v>1.69</v>
       </c>
       <c r="O142" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>Repaired</v>
       </c>
       <c r="P142" s="12">
@@ -10950,11 +12197,11 @@
         <v>3</v>
       </c>
       <c r="U142" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>NO</v>
       </c>
       <c r="V142" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>NO</v>
       </c>
       <c r="W142" t="s">
@@ -10963,8 +12210,24 @@
       <c r="X142" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="143" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y142" t="str">
+        <f t="shared" si="14"/>
+        <v>NO</v>
+      </c>
+      <c r="Z142" t="str">
+        <f t="shared" si="15"/>
+        <v>NO</v>
+      </c>
+      <c r="AA142" t="str">
+        <f t="shared" si="16"/>
+        <v>NO</v>
+      </c>
+      <c r="AB142" t="str">
+        <f t="shared" si="17"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="143" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A143" s="5" t="s">
         <v>95</v>
       </c>
@@ -11008,7 +12271,7 @@
         <v>0</v>
       </c>
       <c r="O143" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>Repaired</v>
       </c>
       <c r="P143" s="12">
@@ -11024,11 +12287,11 @@
         <v>2</v>
       </c>
       <c r="U143" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>NO</v>
       </c>
       <c r="V143" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>NO</v>
       </c>
       <c r="W143" t="s">
@@ -11037,8 +12300,24 @@
       <c r="X143" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="144" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y143" t="str">
+        <f t="shared" si="14"/>
+        <v>NO</v>
+      </c>
+      <c r="Z143" t="str">
+        <f t="shared" si="15"/>
+        <v>NO</v>
+      </c>
+      <c r="AA143" t="str">
+        <f t="shared" si="16"/>
+        <v>NO</v>
+      </c>
+      <c r="AB143" t="str">
+        <f t="shared" si="17"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="144" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A144" s="5" t="s">
         <v>29</v>
       </c>
@@ -11082,7 +12361,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="O144" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>Repaired</v>
       </c>
       <c r="P144" s="12">
@@ -11098,11 +12377,11 @@
         <v>4</v>
       </c>
       <c r="U144" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>NO</v>
       </c>
       <c r="V144" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>NO</v>
       </c>
       <c r="W144" t="s">
@@ -11111,8 +12390,24 @@
       <c r="X144" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="145" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y144" t="str">
+        <f t="shared" si="14"/>
+        <v>NO</v>
+      </c>
+      <c r="Z144" t="str">
+        <f t="shared" si="15"/>
+        <v>NO</v>
+      </c>
+      <c r="AA144" t="str">
+        <f t="shared" si="16"/>
+        <v>NO</v>
+      </c>
+      <c r="AB144" t="str">
+        <f t="shared" si="17"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="145" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A145" s="5" t="s">
         <v>81</v>
       </c>
@@ -11156,7 +12451,7 @@
         <v>1.69</v>
       </c>
       <c r="O145" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>Repaired</v>
       </c>
       <c r="P145" s="12">
@@ -11172,11 +12467,11 @@
         <v>3</v>
       </c>
       <c r="U145" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>YES</v>
       </c>
       <c r="V145" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>NO</v>
       </c>
       <c r="W145" t="s">
@@ -11185,8 +12480,24 @@
       <c r="X145" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="146" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y145" t="str">
+        <f t="shared" si="14"/>
+        <v>NO</v>
+      </c>
+      <c r="Z145" t="str">
+        <f t="shared" si="15"/>
+        <v>NO</v>
+      </c>
+      <c r="AA145" t="str">
+        <f t="shared" si="16"/>
+        <v>NO</v>
+      </c>
+      <c r="AB145" t="str">
+        <f t="shared" si="17"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="146" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A146" s="7" t="s">
         <v>102</v>
       </c>
@@ -11230,7 +12541,7 @@
         <v>1.69</v>
       </c>
       <c r="O146" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>Repaired</v>
       </c>
       <c r="P146" s="12">
@@ -11246,11 +12557,11 @@
         <v>3</v>
       </c>
       <c r="U146" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>YES</v>
       </c>
       <c r="V146" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>NO</v>
       </c>
       <c r="W146" t="s">
@@ -11259,8 +12570,24 @@
       <c r="X146" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="147" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y146" t="str">
+        <f t="shared" si="14"/>
+        <v>NO</v>
+      </c>
+      <c r="Z146" t="str">
+        <f t="shared" si="15"/>
+        <v>NO</v>
+      </c>
+      <c r="AA146" t="str">
+        <f t="shared" si="16"/>
+        <v>NO</v>
+      </c>
+      <c r="AB146" t="str">
+        <f t="shared" si="17"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="147" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A147" s="5" t="s">
         <v>127</v>
       </c>
@@ -11304,7 +12631,7 @@
         <v>1.69</v>
       </c>
       <c r="O147" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>Repaired</v>
       </c>
       <c r="P147" s="12">
@@ -11320,11 +12647,11 @@
         <v>3</v>
       </c>
       <c r="U147" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>NO</v>
       </c>
       <c r="V147" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>YES</v>
       </c>
       <c r="W147" t="s">
@@ -11333,8 +12660,24 @@
       <c r="X147" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="148" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y147" t="str">
+        <f t="shared" si="14"/>
+        <v>NO</v>
+      </c>
+      <c r="Z147" t="str">
+        <f t="shared" si="15"/>
+        <v>NO</v>
+      </c>
+      <c r="AA147" t="str">
+        <f t="shared" si="16"/>
+        <v>NO</v>
+      </c>
+      <c r="AB147" t="str">
+        <f t="shared" si="17"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="148" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A148" s="5" t="s">
         <v>87</v>
       </c>
@@ -11378,7 +12721,7 @@
         <v>1.69</v>
       </c>
       <c r="O148" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>Repaired</v>
       </c>
       <c r="P148" s="12">
@@ -11394,11 +12737,11 @@
         <v>5</v>
       </c>
       <c r="U148" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>NO</v>
       </c>
       <c r="V148" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>YES</v>
       </c>
       <c r="W148" t="s">
@@ -11407,8 +12750,24 @@
       <c r="X148" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="149" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y148" t="str">
+        <f t="shared" si="14"/>
+        <v>NO</v>
+      </c>
+      <c r="Z148" t="str">
+        <f t="shared" si="15"/>
+        <v>NO</v>
+      </c>
+      <c r="AA148" t="str">
+        <f t="shared" si="16"/>
+        <v>NO</v>
+      </c>
+      <c r="AB148" t="str">
+        <f t="shared" si="17"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="149" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A149" s="7" t="s">
         <v>134</v>
       </c>
@@ -11452,7 +12811,7 @@
         <v>1.28</v>
       </c>
       <c r="O149" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>Repaired</v>
       </c>
       <c r="P149" s="12">
@@ -11468,11 +12827,11 @@
         <v>2</v>
       </c>
       <c r="U149" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>YES</v>
       </c>
       <c r="V149" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>NO</v>
       </c>
       <c r="W149" t="s">
@@ -11481,8 +12840,24 @@
       <c r="X149" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="150" spans="1:24" ht="28.8" x14ac:dyDescent="0.35">
+      <c r="Y149" t="str">
+        <f t="shared" si="14"/>
+        <v>NO</v>
+      </c>
+      <c r="Z149" t="str">
+        <f t="shared" si="15"/>
+        <v>NO</v>
+      </c>
+      <c r="AA149" t="str">
+        <f t="shared" si="16"/>
+        <v>NO</v>
+      </c>
+      <c r="AB149" t="str">
+        <f t="shared" si="17"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="150" spans="1:28" ht="28.8" x14ac:dyDescent="0.35">
       <c r="A150" s="13" t="s">
         <v>172</v>
       </c>
@@ -11540,8 +12915,32 @@
       <c r="S150" s="13" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="U150" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="V150" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="W150" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="X150" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y150" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z150" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="AA150" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="AB150" s="34" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="151" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A151" s="9" t="s">
         <v>149</v>
       </c>
@@ -11550,56 +12949,56 @@
         <v>276.41999999999996</v>
       </c>
       <c r="C151" s="30">
-        <f t="shared" ref="C151:N151" si="10">SUM(C24:C149)</f>
+        <f t="shared" ref="C151:N151" si="18">SUM(C24:C149)</f>
         <v>9906.2599999999929</v>
       </c>
       <c r="D151" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1378.93</v>
       </c>
       <c r="E151" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>907.77000000000044</v>
       </c>
       <c r="F151" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1059.2000000000003</v>
       </c>
       <c r="G151" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>313.62999999999994</v>
       </c>
       <c r="H151" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1221.420000000001</v>
       </c>
       <c r="I151" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>2438.2200000000003</v>
       </c>
       <c r="J151" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>5431.3700000000026</v>
       </c>
       <c r="K151" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>109.44000000000003</v>
       </c>
       <c r="L151" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>6.7965999999999962</v>
       </c>
       <c r="M151" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1884.7400000000007</v>
       </c>
       <c r="N151" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>104.78599999999993</v>
       </c>
       <c r="O151" s="10"/>
     </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A152" s="11" t="s">
         <v>150</v>
       </c>
@@ -11608,56 +13007,56 @@
         <v>2.1938095238095237</v>
       </c>
       <c r="C152" s="31">
-        <f t="shared" ref="C152:N152" si="11">AVERAGE(C24:C149)</f>
+        <f t="shared" ref="C152:N152" si="19">AVERAGE(C24:C149)</f>
         <v>78.621111111111048</v>
       </c>
       <c r="D152" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>10.943888888888889</v>
       </c>
       <c r="E152" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>7.2045238095238133</v>
       </c>
       <c r="F152" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>8.4063492063492085</v>
       </c>
       <c r="G152" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.4891269841269836</v>
       </c>
       <c r="H152" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>9.6938095238095308</v>
       </c>
       <c r="I152" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>19.350952380952382</v>
       </c>
       <c r="J152" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>43.106111111111133</v>
       </c>
       <c r="K152" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0.86857142857142877</v>
       </c>
       <c r="L152" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>5.3941269841269811E-2</v>
       </c>
       <c r="M152" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>14.958253968253974</v>
       </c>
       <c r="N152" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0.83163492063492006</v>
       </c>
       <c r="O152" s="10"/>
     </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A153" s="9" t="s">
         <v>151</v>
       </c>
@@ -11666,56 +13065,56 @@
         <v>1</v>
       </c>
       <c r="C153" s="30">
-        <f t="shared" ref="C153:N153" si="12">MIN(C24:C149)</f>
+        <f t="shared" ref="C153:N153" si="20">MIN(C24:C149)</f>
         <v>68.5</v>
       </c>
       <c r="D153" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>2.67</v>
       </c>
       <c r="E153" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>2.17</v>
       </c>
       <c r="F153" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G153" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H153" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="I153" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="J153" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>6.34</v>
       </c>
       <c r="K153" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L153" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M153" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N153" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="O153" s="10"/>
     </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A154" s="11" t="s">
         <v>152</v>
       </c>
@@ -11724,56 +13123,56 @@
         <v>5.88</v>
       </c>
       <c r="C154" s="31">
-        <f t="shared" ref="C154:N154" si="13">MAX(C24:C149)</f>
+        <f t="shared" ref="C154:N154" si="21">MAX(C24:C149)</f>
         <v>100</v>
       </c>
       <c r="D154" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>22.5</v>
       </c>
       <c r="E154" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>10.71</v>
       </c>
       <c r="F154" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>22</v>
       </c>
       <c r="G154" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>4.63</v>
       </c>
       <c r="H154" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>12.86</v>
       </c>
       <c r="I154" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>44.5</v>
       </c>
       <c r="J154" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>67.08</v>
       </c>
       <c r="K154" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>3.14</v>
       </c>
       <c r="L154" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.5</v>
       </c>
       <c r="M154" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>60.82</v>
       </c>
       <c r="N154" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>3.38</v>
       </c>
       <c r="O154" s="10"/>
     </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A155" s="9" t="s">
         <v>153</v>
       </c>
@@ -11782,56 +13181,56 @@
         <v>1.6743924783122304</v>
       </c>
       <c r="C155" s="30">
-        <f t="shared" ref="C155:N155" si="14">_xlfn.STDEV.S(C24:C149)</f>
+        <f t="shared" ref="C155:N155" si="22">_xlfn.STDEV.S(C24:C149)</f>
         <v>8.403984599912345</v>
       </c>
       <c r="D155" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>5.4370625852159886</v>
       </c>
       <c r="E155" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>2.5467597003699698</v>
       </c>
       <c r="F155" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>5.9789503564655355</v>
       </c>
       <c r="G155" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>1.2243045502431305</v>
       </c>
       <c r="H155" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>3.042608317123396</v>
       </c>
       <c r="I155" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>11.341977988239703</v>
       </c>
       <c r="J155" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>18.678845573416833</v>
       </c>
       <c r="K155" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0.93866519209840837</v>
       </c>
       <c r="L155" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>7.9573117339806404E-2</v>
       </c>
       <c r="M155" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>15.708798863279913</v>
       </c>
       <c r="N155" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0.87321025741272273</v>
       </c>
       <c r="O155" s="10"/>
     </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A156" s="11" t="s">
         <v>154</v>
       </c>
@@ -11840,56 +13239,56 @@
         <v>2.8035901714285729</v>
       </c>
       <c r="C156" s="31">
-        <f t="shared" ref="C156:N156" si="15">_xlfn.VAR.S(C24:C149)</f>
+        <f t="shared" ref="C156:N156" si="23">_xlfn.VAR.S(C24:C149)</f>
         <v>70.626957155563872</v>
       </c>
       <c r="D156" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>29.561649555555572</v>
       </c>
       <c r="E156" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>6.4859849714285378</v>
       </c>
       <c r="F156" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>35.747847365079359</v>
       </c>
       <c r="G156" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>1.4989216317460341</v>
       </c>
       <c r="H156" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>9.2574653714284647</v>
       </c>
       <c r="I156" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>128.64046468571394</v>
       </c>
       <c r="J156" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>348.89927195555367</v>
       </c>
       <c r="K156" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.881092342857142</v>
       </c>
       <c r="L156" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>6.3318810031745979E-3</v>
       </c>
       <c r="M156" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>246.76636172698431</v>
       </c>
       <c r="N156" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.7624961536507936</v>
       </c>
       <c r="O156" s="10"/>
     </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A160" s="23" t="s">
         <v>174</v>
       </c>
@@ -11956,55 +13355,55 @@
         <v>156</v>
       </c>
       <c r="C163" s="14">
-        <f t="shared" ref="C163:O163" si="16" xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Buggy",B$24:B$149)</f>
+        <f t="shared" ref="C163:O163" si="24" xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Buggy",B$24:B$149)</f>
         <v>2.2026190476190473</v>
       </c>
       <c r="D163" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>78.397142857142882</v>
       </c>
       <c r="E163" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>11.101190476190476</v>
       </c>
       <c r="F163" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>7.1707142857142898</v>
       </c>
       <c r="G163" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>8.627380952380955</v>
       </c>
       <c r="H163" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>2.5138095238095235</v>
       </c>
       <c r="I163" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>9.6845238095238155</v>
       </c>
       <c r="J163" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>19.731190476190481</v>
       </c>
       <c r="K163" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>43.330952380952354</v>
       </c>
       <c r="L163" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0.86357142857142843</v>
       </c>
       <c r="M163" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>4.761904761904763E-2</v>
       </c>
       <c r="N163" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>14.291904761904764</v>
       </c>
       <c r="O163" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0.79480952380952397</v>
       </c>
     </row>
@@ -12013,55 +13412,55 @@
         <v>157</v>
       </c>
       <c r="C164" s="14">
-        <f t="shared" ref="C164:O164" si="17" xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Fixed",B$24:B$149)</f>
+        <f t="shared" ref="C164:O164" si="25" xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Fixed",B$24:B$149)</f>
         <v>2.2321428571428572</v>
       </c>
       <c r="D164" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>78.414047619047636</v>
       </c>
       <c r="E164" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>11.115</v>
       </c>
       <c r="F164" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>7.1685714285714326</v>
       </c>
       <c r="G164" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>8.6342857142857099</v>
       </c>
       <c r="H164" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>2.5192857142857141</v>
       </c>
       <c r="I164" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>9.6876190476190533</v>
       </c>
       <c r="J164" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>19.749047619047627</v>
       </c>
       <c r="K164" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>43.343333333333327</v>
       </c>
       <c r="L164" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0.86309523809523814</v>
       </c>
       <c r="M164" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>4.761904761904763E-2</v>
       </c>
       <c r="N164" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>14.280000000000003</v>
       </c>
       <c r="O164" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0.79385714285714304</v>
       </c>
     </row>
@@ -12070,55 +13469,55 @@
         <v>158</v>
       </c>
       <c r="C165" s="14">
-        <f t="shared" ref="C165:O165" si="18" xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Repaired",B$24:B$149)</f>
+        <f t="shared" ref="C165:O165" si="26" xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Repaired",B$24:B$149)</f>
         <v>2.1466666666666669</v>
       </c>
       <c r="D165" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>79.052142857142854</v>
       </c>
       <c r="E165" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>10.615476190476189</v>
       </c>
       <c r="F165" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>7.274285714285714</v>
       </c>
       <c r="G165" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>7.9573809523809516</v>
       </c>
       <c r="H165" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>2.4342857142857151</v>
       </c>
       <c r="I165" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>9.7092857142857127</v>
       </c>
       <c r="J165" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>18.572619047619046</v>
       </c>
       <c r="K165" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>42.644047619047626</v>
       </c>
       <c r="L165" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0.87904761904761897</v>
       </c>
       <c r="M165" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>6.6585714285714276E-2</v>
       </c>
       <c r="N165" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>16.302857142857142</v>
       </c>
       <c r="O165" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0.90623809523809518</v>
       </c>
     </row>
@@ -12171,55 +13570,55 @@
         <v>156</v>
       </c>
       <c r="C169" s="14">
-        <f t="shared" ref="C169:O169" si="19" xml:space="preserve"> SUMIF($A$24:$A$149, "*Buggy",B$24:B$149)</f>
+        <f t="shared" ref="C169:O169" si="27" xml:space="preserve"> SUMIF($A$24:$A$149, "*Buggy",B$24:B$149)</f>
         <v>92.509999999999991</v>
       </c>
       <c r="D169" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>3292.6800000000007</v>
       </c>
       <c r="E169" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>466.25</v>
       </c>
       <c r="F169" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>301.17000000000019</v>
       </c>
       <c r="G169" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>362.35000000000014</v>
       </c>
       <c r="H169" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>105.57999999999998</v>
       </c>
       <c r="I169" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>406.75000000000023</v>
       </c>
       <c r="J169" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>828.71000000000015</v>
       </c>
       <c r="K169" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>1819.899999999999</v>
       </c>
       <c r="L169" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>36.269999999999996</v>
       </c>
       <c r="M169" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>2.0000000000000004</v>
       </c>
       <c r="N169" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>600.2600000000001</v>
       </c>
       <c r="O169" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>33.382000000000005</v>
       </c>
     </row>
@@ -12228,55 +13627,55 @@
         <v>157</v>
       </c>
       <c r="C170" s="14">
-        <f t="shared" ref="C170:O170" si="20">SUMIF($A$24:$A$149, "*Fixed",B$24:B$149)</f>
+        <f t="shared" ref="C170:O170" si="28">SUMIF($A$24:$A$149, "*Fixed",B$24:B$149)</f>
         <v>93.75</v>
       </c>
       <c r="D170" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>3293.3900000000008</v>
       </c>
       <c r="E170" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>466.83</v>
       </c>
       <c r="F170" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>301.08000000000015</v>
       </c>
       <c r="G170" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>362.63999999999982</v>
       </c>
       <c r="H170" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>105.81</v>
       </c>
       <c r="I170" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>406.88000000000022</v>
       </c>
       <c r="J170" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>829.46000000000038</v>
       </c>
       <c r="K170" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>1820.4199999999996</v>
       </c>
       <c r="L170" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>36.25</v>
       </c>
       <c r="M170" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>2.0000000000000004</v>
       </c>
       <c r="N170" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>599.7600000000001</v>
       </c>
       <c r="O170" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>33.342000000000006</v>
       </c>
     </row>
@@ -12285,55 +13684,55 @@
         <v>158</v>
       </c>
       <c r="C171" s="14">
-        <f t="shared" ref="C171:O171" si="21">SUMIF($A$24:$A$149, "*Repaired",B$24:B$149)</f>
+        <f t="shared" ref="C171:O171" si="29">SUMIF($A$24:$A$149, "*Repaired",B$24:B$149)</f>
         <v>90.160000000000011</v>
       </c>
       <c r="D171" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>3320.19</v>
       </c>
       <c r="E171" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>445.84999999999991</v>
       </c>
       <c r="F171" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>305.52</v>
       </c>
       <c r="G171" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>334.21</v>
       </c>
       <c r="H171" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>102.24000000000002</v>
       </c>
       <c r="I171" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>407.78999999999996</v>
       </c>
       <c r="J171" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>780.05</v>
       </c>
       <c r="K171" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>1791.0500000000002</v>
       </c>
       <c r="L171" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>36.919999999999995</v>
       </c>
       <c r="M171" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>2.7965999999999993</v>
       </c>
       <c r="N171" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>684.71999999999991</v>
       </c>
       <c r="O171" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>38.061999999999998</v>
       </c>
     </row>
@@ -12450,55 +13849,55 @@
         <v>211</v>
       </c>
       <c r="C177" s="25">
-        <f>AVERAGEIFS(B$24:B$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "=1")</f>
+        <f t="shared" ref="C177:O177" si="30">AVERAGEIFS(B$24:B$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "=1")</f>
         <v>2.2911999999999999</v>
       </c>
       <c r="D177" s="25">
-        <f>AVERAGEIFS(C$24:C$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "=1")</f>
+        <f t="shared" si="30"/>
         <v>74.804399999999973</v>
       </c>
       <c r="E177" s="25">
-        <f>AVERAGEIFS(D$24:D$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "=1")</f>
+        <f t="shared" si="30"/>
         <v>12.986799999999999</v>
       </c>
       <c r="F177" s="25">
-        <f>AVERAGEIFS(E$24:E$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "=1")</f>
+        <f t="shared" si="30"/>
         <v>8.4996000000000027</v>
       </c>
       <c r="G177" s="25">
-        <f>AVERAGEIFS(F$24:F$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "=1")</f>
+        <f t="shared" si="30"/>
         <v>9.9744000000000046</v>
       </c>
       <c r="H177" s="25">
-        <f>AVERAGEIFS(G$24:G$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "=1")</f>
+        <f t="shared" si="30"/>
         <v>2.5044</v>
       </c>
       <c r="I177" s="25">
-        <f>AVERAGEIFS(H$24:H$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "=1")</f>
+        <f t="shared" si="30"/>
         <v>11.004000000000005</v>
       </c>
       <c r="J177" s="25">
-        <f>AVERAGEIFS(I$24:I$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "=1")</f>
+        <f t="shared" si="30"/>
         <v>22.961199999999998</v>
       </c>
       <c r="K177" s="25">
-        <f>AVERAGEIFS(J$24:J$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "=1")</f>
+        <f t="shared" si="30"/>
         <v>51.645599999999973</v>
       </c>
       <c r="L177" s="25">
-        <f>AVERAGEIFS(K$24:K$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "=1")</f>
+        <f t="shared" si="30"/>
         <v>1.2936000000000001</v>
       </c>
       <c r="M177" s="25">
-        <f>AVERAGEIFS(L$24:L$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "=1")</f>
+        <f t="shared" si="30"/>
         <v>4.5600000000000022E-2</v>
       </c>
       <c r="N177" s="25">
-        <f>AVERAGEIFS(M$24:M$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "=1")</f>
+        <f t="shared" si="30"/>
         <v>19.542400000000008</v>
       </c>
       <c r="O177" s="25">
-        <f>AVERAGEIFS(N$24:N$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "=1")</f>
+        <f t="shared" si="30"/>
         <v>1.0860800000000002</v>
       </c>
       <c r="R177">
@@ -12509,55 +13908,55 @@
         <v>215</v>
       </c>
       <c r="T177" s="25">
-        <f>AVERAGEIFS(B$66:B$149, $O$66:$O$149, "*Fixed", $P$66:$P$149, "=1", $S$66:$S$149, "=1")</f>
+        <f t="shared" ref="T177:AF177" si="31">AVERAGEIFS(B$66:B$149, $O$66:$O$149, "*Fixed", $P$66:$P$149, "=1", $S$66:$S$149, "=1")</f>
         <v>2.330909090909091</v>
       </c>
       <c r="U177" s="25">
-        <f>AVERAGEIFS(C$66:C$149, $O$66:$O$149, "*Fixed", $P$66:$P$149, "=1", $S$66:$S$149, "=1")</f>
+        <f t="shared" si="31"/>
         <v>72.914545454545419</v>
       </c>
       <c r="V177" s="25">
-        <f>AVERAGEIFS(D$66:D$149, $O$66:$O$149, "*Fixed", $P$66:$P$149, "=1", $S$66:$S$149, "=1")</f>
+        <f t="shared" si="31"/>
         <v>14.136363636363637</v>
       </c>
       <c r="W177" s="25">
-        <f>AVERAGEIFS(E$66:E$149, $O$66:$O$149, "*Fixed", $P$66:$P$149, "=1", $S$66:$S$149, "=1")</f>
+        <f t="shared" si="31"/>
         <v>9.2490909090909117</v>
       </c>
       <c r="X177" s="25">
-        <f>AVERAGEIFS(F$66:F$149, $O$66:$O$149, "*Fixed", $P$66:$P$149, "=1", $S$66:$S$149, "=1")</f>
+        <f t="shared" si="31"/>
         <v>10.880000000000004</v>
       </c>
       <c r="Y177" s="25">
-        <f>AVERAGEIFS(G$66:G$149, $O$66:$O$149, "*Fixed", $P$66:$P$149, "=1", $S$66:$S$149, "=1")</f>
+        <f t="shared" si="31"/>
         <v>2.6490909090909089</v>
       </c>
       <c r="Z177" s="25">
-        <f>AVERAGEIFS(H$66:H$149, $O$66:$O$149, "*Fixed", $P$66:$P$149, "=1", $S$66:$S$149, "=1")</f>
+        <f t="shared" si="31"/>
         <v>11.898181818181824</v>
       </c>
       <c r="AA177" s="25">
-        <f>AVERAGEIFS(I$66:I$149, $O$66:$O$149, "*Fixed", $P$66:$P$149, "=1", $S$66:$S$149, "=1")</f>
+        <f t="shared" si="31"/>
         <v>25.016363636363632</v>
       </c>
       <c r="AB177" s="25">
-        <f>AVERAGEIFS(J$66:J$149, $O$66:$O$149, "*Fixed", $P$66:$P$149, "=1", $S$66:$S$149, "=1")</f>
+        <f t="shared" si="31"/>
         <v>56.694545454545434</v>
       </c>
       <c r="AC177" s="25">
-        <f>AVERAGEIFS(K$66:K$149, $O$66:$O$149, "*Fixed", $P$66:$P$149, "=1", $S$66:$S$149, "=1")</f>
+        <f t="shared" si="31"/>
         <v>1.4545454545454546</v>
       </c>
       <c r="AD177" s="25">
-        <f>AVERAGEIFS(L$66:L$149, $O$66:$O$149, "*Fixed", $P$66:$P$149, "=1", $S$66:$S$149, "=1")</f>
+        <f t="shared" si="31"/>
         <v>3.6363636363636369E-2</v>
       </c>
       <c r="AE177" s="25">
-        <f>AVERAGEIFS(M$66:M$149, $O$66:$O$149, "*Fixed", $P$66:$P$149, "=1", $S$66:$S$149, "=1")</f>
+        <f t="shared" si="31"/>
         <v>22.116363636363644</v>
       </c>
       <c r="AF177" s="25">
-        <f>AVERAGEIFS(N$66:N$149, $O$66:$O$149, "*Fixed", $P$66:$P$149, "=1", $S$66:$S$149, "=1")</f>
+        <f t="shared" si="31"/>
         <v>1.2290909090909095</v>
       </c>
     </row>
@@ -12570,55 +13969,55 @@
         <v>212</v>
       </c>
       <c r="C178" s="25">
-        <f>AVERAGEIFS(B$24:B$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "=1")</f>
+        <f t="shared" ref="C178:O178" si="32">AVERAGEIFS(B$24:B$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "=1")</f>
         <v>2.8531818181818185</v>
       </c>
       <c r="D178" s="25">
-        <f>AVERAGEIFS(C$24:C$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "=1")</f>
+        <f t="shared" si="32"/>
         <v>82.204999999999984</v>
       </c>
       <c r="E178" s="25">
-        <f>AVERAGEIFS(D$24:D$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "=1")</f>
+        <f t="shared" si="32"/>
         <v>10.497272727272728</v>
       </c>
       <c r="F178" s="25">
-        <f>AVERAGEIFS(E$24:E$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "=1")</f>
+        <f t="shared" si="32"/>
         <v>5.6736363636363638</v>
       </c>
       <c r="G178" s="25">
-        <f>AVERAGEIFS(F$24:F$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "=1")</f>
+        <f t="shared" si="32"/>
         <v>8.6931818181818201</v>
       </c>
       <c r="H178" s="25">
-        <f>AVERAGEIFS(G$24:G$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "=1")</f>
+        <f t="shared" si="32"/>
         <v>2.4931818181818182</v>
       </c>
       <c r="I178" s="25">
-        <f>AVERAGEIFS(H$24:H$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "=1")</f>
+        <f t="shared" si="32"/>
         <v>8.1668181818181811</v>
       </c>
       <c r="J178" s="25">
-        <f>AVERAGEIFS(I$24:I$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "=1")</f>
+        <f t="shared" si="32"/>
         <v>19.189545454545456</v>
       </c>
       <c r="K178" s="25">
-        <f>AVERAGEIFS(J$24:J$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "=1")</f>
+        <f t="shared" si="32"/>
         <v>35.719090909090909</v>
       </c>
       <c r="L178" s="25">
-        <f>AVERAGEIFS(K$24:K$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "=1")</f>
+        <f t="shared" si="32"/>
         <v>0.32545454545454544</v>
       </c>
       <c r="M178" s="25">
-        <f>AVERAGEIFS(L$24:L$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "=1")</f>
+        <f t="shared" si="32"/>
         <v>6.8209090909090928E-2</v>
       </c>
       <c r="N178" s="25">
-        <f>AVERAGEIFS(M$24:M$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "=1")</f>
+        <f t="shared" si="32"/>
         <v>7.0422727272727261</v>
       </c>
       <c r="O178" s="25">
-        <f>AVERAGEIFS(N$24:N$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "=1")</f>
+        <f t="shared" si="32"/>
         <v>0.39190909090909093</v>
       </c>
       <c r="R178">
@@ -12629,55 +14028,55 @@
         <v>216</v>
       </c>
       <c r="T178" s="25">
-        <f>AVERAGEIFS(B$66:B$149, $O$66:$O$149, "*Repaired", $P$66:$P$149, "=1", $S$66:$S$149, "=1")</f>
+        <f t="shared" ref="T178:AF178" si="33">AVERAGEIFS(B$66:B$149, $O$66:$O$149, "*Repaired", $P$66:$P$149, "=1", $S$66:$S$149, "=1")</f>
         <v>2.1420000000000003</v>
       </c>
       <c r="U178" s="25">
-        <f>AVERAGEIFS(C$66:C$149, $O$66:$O$149, "*Repaired", $P$66:$P$149, "=1", $S$66:$S$149, "=1")</f>
+        <f t="shared" si="33"/>
         <v>88.804999999999993</v>
       </c>
       <c r="V178" s="25">
-        <f>AVERAGEIFS(D$66:D$149, $O$66:$O$149, "*Repaired", $P$66:$P$149, "=1", $S$66:$S$149, "=1")</f>
+        <f t="shared" si="33"/>
         <v>7.1149999999999993</v>
       </c>
       <c r="W178" s="25">
-        <f>AVERAGEIFS(E$66:E$149, $O$66:$O$149, "*Repaired", $P$66:$P$149, "=1", $S$66:$S$149, "=1")</f>
+        <f t="shared" si="33"/>
         <v>5.0179999999999989</v>
       </c>
       <c r="X178" s="25">
-        <f>AVERAGEIFS(F$66:F$149, $O$66:$O$149, "*Repaired", $P$66:$P$149, "=1", $S$66:$S$149, "=1")</f>
+        <f t="shared" si="33"/>
         <v>4.9319999999999995</v>
       </c>
       <c r="Y178" s="25">
-        <f>AVERAGEIFS(G$66:G$149, $O$66:$O$149, "*Repaired", $P$66:$P$149, "=1", $S$66:$S$149, "=1")</f>
+        <f t="shared" si="33"/>
         <v>1.7969999999999999</v>
       </c>
       <c r="Z178" s="25">
-        <f>AVERAGEIFS(H$66:H$149, $O$66:$O$149, "*Repaired", $P$66:$P$149, "=1", $S$66:$S$149, "=1")</f>
+        <f t="shared" si="33"/>
         <v>6.8159999999999998</v>
       </c>
       <c r="AA178" s="25">
-        <f>AVERAGEIFS(I$66:I$149, $O$66:$O$149, "*Repaired", $P$66:$P$149, "=1", $S$66:$S$149, "=1")</f>
+        <f t="shared" si="33"/>
         <v>12.047000000000001</v>
       </c>
       <c r="AB178" s="25">
-        <f>AVERAGEIFS(J$66:J$149, $O$66:$O$149, "*Repaired", $P$66:$P$149, "=1", $S$66:$S$149, "=1")</f>
+        <f t="shared" si="33"/>
         <v>24.544000000000004</v>
       </c>
       <c r="AC178" s="25">
-        <f>AVERAGEIFS(K$66:K$149, $O$66:$O$149, "*Repaired", $P$66:$P$149, "=1", $S$66:$S$149, "=1")</f>
+        <f t="shared" si="33"/>
         <v>0.17499999999999999</v>
       </c>
       <c r="AD178" s="25">
-        <f>AVERAGEIFS(L$66:L$149, $O$66:$O$149, "*Repaired", $P$66:$P$149, "=1", $S$66:$S$149, "=1")</f>
+        <f t="shared" si="33"/>
         <v>2.606E-2</v>
       </c>
       <c r="AE178" s="25">
-        <f>AVERAGEIFS(M$66:M$149, $O$66:$O$149, "*Repaired", $P$66:$P$149, "=1", $S$66:$S$149, "=1")</f>
+        <f t="shared" si="33"/>
         <v>4.82</v>
       </c>
       <c r="AF178" s="25">
-        <f>AVERAGEIFS(N$66:N$149, $O$66:$O$149, "*Repaired", $P$66:$P$149, "=1", $S$66:$S$149, "=1")</f>
+        <f t="shared" si="33"/>
         <v>0.26800000000000002</v>
       </c>
     </row>
@@ -12780,55 +14179,55 @@
         <v>213</v>
       </c>
       <c r="C181" s="25">
-        <f t="shared" ref="C181:O181" si="22">AVERAGEIFS(B$24:B$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "&gt;1")</f>
+        <f t="shared" ref="C181:O181" si="34">AVERAGEIFS(B$24:B$149, $O$24:$O$149, "*Fixed", $P$24:$P$149, "&gt;1")</f>
         <v>3.1499999999999995</v>
       </c>
       <c r="D181" s="25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>77.971428571428575</v>
       </c>
       <c r="E181" s="25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>11.684285714285716</v>
       </c>
       <c r="F181" s="25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>5.8185714285714285</v>
       </c>
       <c r="G181" s="25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>10.35</v>
       </c>
       <c r="H181" s="25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>3.7199999999999998</v>
       </c>
       <c r="I181" s="25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>9.54142857142857</v>
       </c>
       <c r="J181" s="25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>22.027142857142859</v>
       </c>
       <c r="K181" s="25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>42.79</v>
       </c>
       <c r="L181" s="25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>0.16285714285714284</v>
       </c>
       <c r="M181" s="25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>4.2857142857142859E-3</v>
       </c>
       <c r="N181" s="25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>3.7600000000000002</v>
       </c>
       <c r="O181" s="25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>0.20857142857142857</v>
       </c>
       <c r="R181">
@@ -12839,55 +14238,55 @@
         <v>217</v>
       </c>
       <c r="T181" s="25">
-        <f>AVERAGEIFS(B$66:B$149, $O$66:$O$149, "*Fixed", $P$66:$P$149, "=1", $S$66:$S$149, "&gt;1")</f>
+        <f t="shared" ref="T181:AF181" si="35">AVERAGEIFS(B$66:B$149, $O$66:$O$149, "*Fixed", $P$66:$P$149, "=1", $S$66:$S$149, "&gt;1")</f>
         <v>2</v>
       </c>
       <c r="U181" s="25">
-        <f>AVERAGEIFS(C$66:C$149, $O$66:$O$149, "*Fixed", $P$66:$P$149, "=1", $S$66:$S$149, "&gt;1")</f>
+        <f t="shared" si="35"/>
         <v>88.663333333333341</v>
       </c>
       <c r="V181" s="25">
-        <f>AVERAGEIFS(D$66:D$149, $O$66:$O$149, "*Fixed", $P$66:$P$149, "=1", $S$66:$S$149, "&gt;1")</f>
+        <f t="shared" si="35"/>
         <v>4.5566666666666666</v>
       </c>
       <c r="W181" s="25">
-        <f>AVERAGEIFS(E$66:E$149, $O$66:$O$149, "*Fixed", $P$66:$P$149, "=1", $S$66:$S$149, "&gt;1")</f>
+        <f t="shared" si="35"/>
         <v>3.0033333333333334</v>
       </c>
       <c r="X181" s="25">
-        <f>AVERAGEIFS(F$66:F$149, $O$66:$O$149, "*Fixed", $P$66:$P$149, "=1", $S$66:$S$149, "&gt;1")</f>
+        <f t="shared" si="35"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="Y181" s="25">
-        <f>AVERAGEIFS(G$66:G$149, $O$66:$O$149, "*Fixed", $P$66:$P$149, "=1", $S$66:$S$149, "&gt;1")</f>
+        <f t="shared" si="35"/>
         <v>1.4433333333333334</v>
       </c>
       <c r="Z181" s="25">
-        <f>AVERAGEIFS(H$66:H$149, $O$66:$O$149, "*Fixed", $P$66:$P$149, "=1", $S$66:$S$149, "&gt;1")</f>
+        <f t="shared" si="35"/>
         <v>4.4466666666666663</v>
       </c>
       <c r="AA181" s="25">
-        <f>AVERAGEIFS(I$66:I$149, $O$66:$O$149, "*Fixed", $P$66:$P$149, "=1", $S$66:$S$149, "&gt;1")</f>
+        <f t="shared" si="35"/>
         <v>7.8900000000000006</v>
       </c>
       <c r="AB181" s="25">
-        <f>AVERAGEIFS(J$66:J$149, $O$66:$O$149, "*Fixed", $P$66:$P$149, "=1", $S$66:$S$149, "&gt;1")</f>
+        <f t="shared" si="35"/>
         <v>14.62</v>
       </c>
       <c r="AC181" s="25">
-        <f>AVERAGEIFS(K$66:K$149, $O$66:$O$149, "*Fixed", $P$66:$P$149, "=1", $S$66:$S$149, "&gt;1")</f>
+        <f t="shared" si="35"/>
         <v>0.11333333333333334</v>
       </c>
       <c r="AD181" s="25">
-        <f>AVERAGEIFS(L$66:L$149, $O$66:$O$149, "*Fixed", $P$66:$P$149, "=1", $S$66:$S$149, "&gt;1")</f>
+        <f t="shared" si="35"/>
         <v>0.11333333333333334</v>
       </c>
       <c r="AE181" s="25">
-        <f>AVERAGEIFS(M$66:M$149, $O$66:$O$149, "*Fixed", $P$66:$P$149, "=1", $S$66:$S$149, "&gt;1")</f>
+        <f t="shared" si="35"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="AF181" s="25">
-        <f>AVERAGEIFS(N$66:N$149, $O$66:$O$149, "*Fixed", $P$66:$P$149, "=1", $S$66:$S$149, "&gt;1")</f>
+        <f t="shared" si="35"/>
         <v>3.7333333333333336E-2</v>
       </c>
     </row>
@@ -12900,55 +14299,55 @@
         <v>214</v>
       </c>
       <c r="C182" s="25">
-        <f t="shared" ref="C182:O182" si="23">AVERAGEIFS(B$24:B$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "&gt;1")</f>
+        <f t="shared" ref="C182:O182" si="36">AVERAGEIFS(B$24:B$149, $O$24:$O$149, "*Repaired", $P$24:$P$149, "&gt;1")</f>
         <v>1.3694999999999999</v>
       </c>
       <c r="D182" s="25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="36"/>
         <v>75.584000000000017</v>
       </c>
       <c r="E182" s="25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="36"/>
         <v>10.745499999999998</v>
       </c>
       <c r="F182" s="25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="36"/>
         <v>9.0350000000000001</v>
       </c>
       <c r="G182" s="25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="36"/>
         <v>7.1480000000000006</v>
       </c>
       <c r="H182" s="25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="36"/>
         <v>2.3694999999999999</v>
       </c>
       <c r="I182" s="25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="36"/>
         <v>11.406000000000001</v>
       </c>
       <c r="J182" s="25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="36"/>
         <v>17.894000000000002</v>
       </c>
       <c r="K182" s="25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="36"/>
         <v>50.261499999999998</v>
       </c>
       <c r="L182" s="25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="36"/>
         <v>1.488</v>
       </c>
       <c r="M182" s="25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="36"/>
         <v>6.4799999999999996E-2</v>
       </c>
       <c r="N182" s="25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="36"/>
         <v>26.48950000000001</v>
       </c>
       <c r="O182" s="25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="36"/>
         <v>1.4720000000000002</v>
       </c>
       <c r="R182">
@@ -12959,55 +14358,55 @@
         <v>218</v>
       </c>
       <c r="T182" s="25">
-        <f>AVERAGEIFS(B$66:B$149, $O$66:$O$149, "*Repaired", $P$66:$P$149, "=1", $S$66:$S$149, "&gt;1")</f>
+        <f t="shared" ref="T182:AF182" si="37">AVERAGEIFS(B$66:B$149, $O$66:$O$149, "*Repaired", $P$66:$P$149, "=1", $S$66:$S$149, "&gt;1")</f>
         <v>3.4458333333333333</v>
       </c>
       <c r="U182" s="25">
-        <f>AVERAGEIFS(C$66:C$149, $O$66:$O$149, "*Repaired", $P$66:$P$149, "=1", $S$66:$S$149, "&gt;1")</f>
+        <f t="shared" si="37"/>
         <v>76.704999999999998</v>
       </c>
       <c r="V182" s="25">
-        <f>AVERAGEIFS(D$66:D$149, $O$66:$O$149, "*Repaired", $P$66:$P$149, "=1", $S$66:$S$149, "&gt;1")</f>
+        <f t="shared" si="37"/>
         <v>13.315833333333332</v>
       </c>
       <c r="W182" s="25">
-        <f>AVERAGEIFS(E$66:E$149, $O$66:$O$149, "*Repaired", $P$66:$P$149, "=1", $S$66:$S$149, "&gt;1")</f>
+        <f t="shared" si="37"/>
         <v>6.22</v>
       </c>
       <c r="X182" s="25">
-        <f>AVERAGEIFS(F$66:F$149, $O$66:$O$149, "*Repaired", $P$66:$P$149, "=1", $S$66:$S$149, "&gt;1")</f>
+        <f t="shared" si="37"/>
         <v>11.827500000000001</v>
       </c>
       <c r="Y182" s="25">
-        <f>AVERAGEIFS(G$66:G$149, $O$66:$O$149, "*Repaired", $P$66:$P$149, "=1", $S$66:$S$149, "&gt;1")</f>
+        <f t="shared" si="37"/>
         <v>3.0733333333333337</v>
       </c>
       <c r="Z182" s="25">
-        <f>AVERAGEIFS(H$66:H$149, $O$66:$O$149, "*Repaired", $P$66:$P$149, "=1", $S$66:$S$149, "&gt;1")</f>
+        <f t="shared" si="37"/>
         <v>9.2925000000000004</v>
       </c>
       <c r="AA182" s="25">
-        <f>AVERAGEIFS(I$66:I$149, $O$66:$O$149, "*Repaired", $P$66:$P$149, "=1", $S$66:$S$149, "&gt;1")</f>
+        <f t="shared" si="37"/>
         <v>25.141666666666666</v>
       </c>
       <c r="AB182" s="25">
-        <f>AVERAGEIFS(J$66:J$149, $O$66:$O$149, "*Repaired", $P$66:$P$149, "=1", $S$66:$S$149, "&gt;1")</f>
+        <f t="shared" si="37"/>
         <v>45.031666666666659</v>
       </c>
       <c r="AC182" s="25">
-        <f>AVERAGEIFS(K$66:K$149, $O$66:$O$149, "*Repaired", $P$66:$P$149, "=1", $S$66:$S$149, "&gt;1")</f>
+        <f t="shared" si="37"/>
         <v>0.45083333333333325</v>
       </c>
       <c r="AD182" s="25">
-        <f>AVERAGEIFS(L$66:L$149, $O$66:$O$149, "*Repaired", $P$66:$P$149, "=1", $S$66:$S$149, "&gt;1")</f>
+        <f t="shared" si="37"/>
         <v>0.10333333333333335</v>
       </c>
       <c r="AE182" s="25">
-        <f>AVERAGEIFS(M$66:M$149, $O$66:$O$149, "*Repaired", $P$66:$P$149, "=1", $S$66:$S$149, "&gt;1")</f>
+        <f t="shared" si="37"/>
         <v>8.8941666666666652</v>
       </c>
       <c r="AF182" s="25">
-        <f>AVERAGEIFS(N$66:N$149, $O$66:$O$149, "*Repaired", $P$66:$P$149, "=1", $S$66:$S$149, "&gt;1")</f>
+        <f t="shared" si="37"/>
         <v>0.49516666666666659</v>
       </c>
     </row>
@@ -13136,55 +14535,55 @@
         <v>211</v>
       </c>
       <c r="C185" s="25">
-        <f>AVERAGEIFS(B$24:B$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "=1")</f>
+        <f t="shared" ref="C185:O185" si="38">AVERAGEIFS(B$24:B$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "=1")</f>
         <v>2.330909090909091</v>
       </c>
       <c r="D185" s="25">
-        <f>AVERAGEIFS(C$24:C$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "=1")</f>
+        <f t="shared" si="38"/>
         <v>72.914545454545419</v>
       </c>
       <c r="E185" s="25">
-        <f>AVERAGEIFS(D$24:D$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "=1")</f>
+        <f t="shared" si="38"/>
         <v>14.136363636363637</v>
       </c>
       <c r="F185" s="25">
-        <f>AVERAGEIFS(E$24:E$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "=1")</f>
+        <f t="shared" si="38"/>
         <v>9.2490909090909117</v>
       </c>
       <c r="G185" s="25">
-        <f>AVERAGEIFS(F$24:F$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "=1")</f>
+        <f t="shared" si="38"/>
         <v>10.880000000000004</v>
       </c>
       <c r="H185" s="25">
-        <f>AVERAGEIFS(G$24:G$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "=1")</f>
+        <f t="shared" si="38"/>
         <v>2.6490909090909089</v>
       </c>
       <c r="I185" s="25">
-        <f>AVERAGEIFS(H$24:H$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "=1")</f>
+        <f t="shared" si="38"/>
         <v>11.898181818181824</v>
       </c>
       <c r="J185" s="25">
-        <f>AVERAGEIFS(I$24:I$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "=1")</f>
+        <f t="shared" si="38"/>
         <v>25.016363636363632</v>
       </c>
       <c r="K185" s="25">
-        <f>AVERAGEIFS(J$24:J$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "=1")</f>
+        <f t="shared" si="38"/>
         <v>56.694545454545434</v>
       </c>
       <c r="L185" s="25">
-        <f>AVERAGEIFS(K$24:K$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "=1")</f>
+        <f t="shared" si="38"/>
         <v>1.4545454545454546</v>
       </c>
       <c r="M185" s="25">
-        <f>AVERAGEIFS(L$24:L$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "=1")</f>
+        <f t="shared" si="38"/>
         <v>3.6363636363636369E-2</v>
       </c>
       <c r="N185" s="25">
-        <f>AVERAGEIFS(M$24:M$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "=1")</f>
+        <f t="shared" si="38"/>
         <v>22.116363636363644</v>
       </c>
       <c r="O185" s="25">
-        <f>AVERAGEIFS(N$24:N$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "=1")</f>
+        <f t="shared" si="38"/>
         <v>1.2290909090909095</v>
       </c>
       <c r="R185">
@@ -13195,55 +14594,55 @@
         <v>219</v>
       </c>
       <c r="T185" s="25" t="e">
-        <f>AVERAGEIFS(B$66:B$149, $O$66:$O$149, "*Fixed", $U$66:$U$149, "YES")</f>
+        <f t="shared" ref="T185:AF185" si="39">AVERAGEIFS(B$66:B$149, $O$66:$O$149, "*Fixed", $U$66:$U$149, "YES")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U185" s="25" t="e">
-        <f>AVERAGEIFS(C$66:C$149, $O$66:$O$149, "*Fixed", $U$66:$U$149, "YES")</f>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V185" s="25" t="e">
-        <f>AVERAGEIFS(D$66:D$149, $O$66:$O$149, "*Fixed", $U$66:$U$149, "YES")</f>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W185" s="25" t="e">
-        <f>AVERAGEIFS(E$66:E$149, $O$66:$O$149, "*Fixed", $U$66:$U$149, "YES")</f>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X185" s="25" t="e">
-        <f>AVERAGEIFS(F$66:F$149, $O$66:$O$149, "*Fixed", $U$66:$U$149, "YES")</f>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y185" s="25" t="e">
-        <f>AVERAGEIFS(G$66:G$149, $O$66:$O$149, "*Fixed", $U$66:$U$149, "YES")</f>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z185" s="25" t="e">
-        <f>AVERAGEIFS(H$66:H$149, $O$66:$O$149, "*Fixed", $U$66:$U$149, "YES")</f>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA185" s="25" t="e">
-        <f>AVERAGEIFS(I$66:I$149, $O$66:$O$149, "*Fixed", $U$66:$U$149, "YES")</f>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB185" s="25" t="e">
-        <f>AVERAGEIFS(J$66:J$149, $O$66:$O$149, "*Fixed", $U$66:$U$149, "YES")</f>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC185" s="25" t="e">
-        <f>AVERAGEIFS(K$66:K$149, $O$66:$O$149, "*Fixed", $U$66:$U$149, "YES")</f>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD185" s="25" t="e">
-        <f>AVERAGEIFS(L$66:L$149, $O$66:$O$149, "*Fixed", $U$66:$U$149, "YES")</f>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE185" s="25" t="e">
-        <f>AVERAGEIFS(M$66:M$149, $O$66:$O$149, "*Fixed", $U$66:$U$149, "YES")</f>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF185" s="25" t="e">
-        <f>AVERAGEIFS(N$66:N$149, $O$66:$O$149, "*Fixed", $U$66:$U$149, "YES")</f>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13256,55 +14655,55 @@
         <v>212</v>
       </c>
       <c r="C186" s="25">
-        <f>AVERAGEIFS(B$24:B$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "=1")</f>
+        <f t="shared" ref="C186:O186" si="40">AVERAGEIFS(B$24:B$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "=1")</f>
         <v>2.1420000000000003</v>
       </c>
       <c r="D186" s="25">
-        <f>AVERAGEIFS(C$24:C$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "=1")</f>
+        <f t="shared" si="40"/>
         <v>88.804999999999993</v>
       </c>
       <c r="E186" s="25">
-        <f>AVERAGEIFS(D$24:D$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "=1")</f>
+        <f t="shared" si="40"/>
         <v>7.1149999999999993</v>
       </c>
       <c r="F186" s="25">
-        <f>AVERAGEIFS(E$24:E$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "=1")</f>
+        <f t="shared" si="40"/>
         <v>5.0179999999999989</v>
       </c>
       <c r="G186" s="25">
-        <f>AVERAGEIFS(F$24:F$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "=1")</f>
+        <f t="shared" si="40"/>
         <v>4.9319999999999995</v>
       </c>
       <c r="H186" s="25">
-        <f>AVERAGEIFS(G$24:G$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "=1")</f>
+        <f t="shared" si="40"/>
         <v>1.7969999999999999</v>
       </c>
       <c r="I186" s="25">
-        <f>AVERAGEIFS(H$24:H$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "=1")</f>
+        <f t="shared" si="40"/>
         <v>6.8159999999999998</v>
       </c>
       <c r="J186" s="25">
-        <f>AVERAGEIFS(I$24:I$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "=1")</f>
+        <f t="shared" si="40"/>
         <v>12.047000000000001</v>
       </c>
       <c r="K186" s="25">
-        <f>AVERAGEIFS(J$24:J$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "=1")</f>
+        <f t="shared" si="40"/>
         <v>24.544000000000004</v>
       </c>
       <c r="L186" s="25">
-        <f>AVERAGEIFS(K$24:K$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "=1")</f>
+        <f t="shared" si="40"/>
         <v>0.17499999999999999</v>
       </c>
       <c r="M186" s="25">
-        <f>AVERAGEIFS(L$24:L$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "=1")</f>
+        <f t="shared" si="40"/>
         <v>2.606E-2</v>
       </c>
       <c r="N186" s="25">
-        <f>AVERAGEIFS(M$24:M$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "=1")</f>
+        <f t="shared" si="40"/>
         <v>4.82</v>
       </c>
       <c r="O186" s="25">
-        <f>AVERAGEIFS(N$24:N$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "=1")</f>
+        <f t="shared" si="40"/>
         <v>0.26800000000000002</v>
       </c>
       <c r="R186">
@@ -13315,55 +14714,55 @@
         <v>220</v>
       </c>
       <c r="T186" s="25">
-        <f>AVERAGEIFS(B$66:B$149, $O$66:$O$149, "*Repaired", $U$66:$U$149, "YES")</f>
+        <f t="shared" ref="T186:AF186" si="41">AVERAGEIFS(B$66:B$149, $O$66:$O$149, "*Repaired", $U$66:$U$149, "YES")</f>
         <v>1.5699999999999998</v>
       </c>
       <c r="U186" s="25">
-        <f>AVERAGEIFS(C$66:C$149, $O$66:$O$149, "*Repaired", $U$66:$U$149, "YES")</f>
+        <f t="shared" si="41"/>
         <v>76.789999999999992</v>
       </c>
       <c r="V186" s="25">
-        <f>AVERAGEIFS(D$66:D$149, $O$66:$O$149, "*Repaired", $U$66:$U$149, "YES")</f>
+        <f t="shared" si="41"/>
         <v>10.244</v>
       </c>
       <c r="W186" s="25">
-        <f>AVERAGEIFS(E$66:E$149, $O$66:$O$149, "*Repaired", $U$66:$U$149, "YES")</f>
+        <f t="shared" si="41"/>
         <v>8.4460000000000015</v>
       </c>
       <c r="X186" s="25">
-        <f>AVERAGEIFS(F$66:F$149, $O$66:$O$149, "*Repaired", $U$66:$U$149, "YES")</f>
+        <f t="shared" si="41"/>
         <v>6.85</v>
       </c>
       <c r="Y186" s="25">
-        <f>AVERAGEIFS(G$66:G$149, $O$66:$O$149, "*Repaired", $U$66:$U$149, "YES")</f>
+        <f t="shared" si="41"/>
         <v>2.4740000000000002</v>
       </c>
       <c r="Z186" s="25">
-        <f>AVERAGEIFS(H$66:H$149, $O$66:$O$149, "*Repaired", $U$66:$U$149, "YES")</f>
+        <f t="shared" si="41"/>
         <v>10.922000000000001</v>
       </c>
       <c r="AA186" s="25">
-        <f>AVERAGEIFS(I$66:I$149, $O$66:$O$149, "*Repaired", $U$66:$U$149, "YES")</f>
+        <f t="shared" si="41"/>
         <v>17.096000000000004</v>
       </c>
       <c r="AB186" s="25">
-        <f>AVERAGEIFS(J$66:J$149, $O$66:$O$149, "*Repaired", $U$66:$U$149, "YES")</f>
+        <f t="shared" si="41"/>
         <v>47.302</v>
       </c>
       <c r="AC186" s="25">
-        <f>AVERAGEIFS(K$66:K$149, $O$66:$O$149, "*Repaired", $U$66:$U$149, "YES")</f>
+        <f t="shared" si="41"/>
         <v>1.1499999999999999</v>
       </c>
       <c r="AD186" s="25">
-        <f>AVERAGEIFS(L$66:L$149, $O$66:$O$149, "*Repaired", $U$66:$U$149, "YES")</f>
+        <f t="shared" si="41"/>
         <v>8.48E-2</v>
       </c>
       <c r="AE186" s="25">
-        <f>AVERAGEIFS(M$66:M$149, $O$66:$O$149, "*Repaired", $U$66:$U$149, "YES")</f>
+        <f t="shared" si="41"/>
         <v>20.456</v>
       </c>
       <c r="AF186" s="25">
-        <f>AVERAGEIFS(N$66:N$149, $O$66:$O$149, "*Repaired", $U$66:$U$149, "YES")</f>
+        <f t="shared" si="41"/>
         <v>1.1360000000000001</v>
       </c>
     </row>
@@ -13492,55 +14891,55 @@
         <v>213</v>
       </c>
       <c r="C189" s="25">
-        <f t="shared" ref="C189:O189" si="24">AVERAGEIFS(B$24:B$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "&gt;1")</f>
+        <f t="shared" ref="C189:O189" si="42">AVERAGEIFS(B$24:B$149, $O$24:$O$149, "*Fixed", $S$24:$S$149, "&gt;1")</f>
         <v>2.8049999999999997</v>
       </c>
       <c r="D189" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="42"/>
         <v>81.179000000000002</v>
       </c>
       <c r="E189" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="42"/>
         <v>9.5460000000000012</v>
       </c>
       <c r="F189" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="42"/>
         <v>4.9740000000000002</v>
       </c>
       <c r="G189" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="42"/>
         <v>8.245000000000001</v>
       </c>
       <c r="H189" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="42"/>
         <v>3.0369999999999999</v>
       </c>
       <c r="I189" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="42"/>
         <v>8.0129999999999999</v>
       </c>
       <c r="J189" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="42"/>
         <v>17.786000000000001</v>
       </c>
       <c r="K189" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="42"/>
         <v>34.339000000000006</v>
       </c>
       <c r="L189" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="42"/>
         <v>0.14799999999999999</v>
       </c>
       <c r="M189" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="42"/>
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="N189" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="42"/>
         <v>2.8319999999999999</v>
       </c>
       <c r="O189" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="42"/>
         <v>0.15720000000000001</v>
       </c>
       <c r="R189">
@@ -13551,55 +14950,55 @@
         <v>221</v>
       </c>
       <c r="T189" s="25">
-        <f>AVERAGEIFS(B$66:B$149, $O$66:$O$149, "*Fixed", $V$66:$V$149, "YES")</f>
+        <f t="shared" ref="T189:AF189" si="43">AVERAGEIFS(B$66:B$149, $O$66:$O$149, "*Fixed", $V$66:$V$149, "YES")</f>
         <v>3.1499999999999995</v>
       </c>
       <c r="U189" s="25">
-        <f>AVERAGEIFS(C$66:C$149, $O$66:$O$149, "*Fixed", $V$66:$V$149, "YES")</f>
+        <f t="shared" si="43"/>
         <v>77.971428571428575</v>
       </c>
       <c r="V189" s="25">
-        <f>AVERAGEIFS(D$66:D$149, $O$66:$O$149, "*Fixed", $V$66:$V$149, "YES")</f>
+        <f t="shared" si="43"/>
         <v>11.684285714285716</v>
       </c>
       <c r="W189" s="25">
-        <f>AVERAGEIFS(E$66:E$149, $O$66:$O$149, "*Fixed", $V$66:$V$149, "YES")</f>
+        <f t="shared" si="43"/>
         <v>5.8185714285714285</v>
       </c>
       <c r="X189" s="25">
-        <f>AVERAGEIFS(F$66:F$149, $O$66:$O$149, "*Fixed", $V$66:$V$149, "YES")</f>
+        <f t="shared" si="43"/>
         <v>10.35</v>
       </c>
       <c r="Y189" s="25">
-        <f>AVERAGEIFS(G$66:G$149, $O$66:$O$149, "*Fixed", $V$66:$V$149, "YES")</f>
+        <f t="shared" si="43"/>
         <v>3.7199999999999998</v>
       </c>
       <c r="Z189" s="25">
-        <f>AVERAGEIFS(H$66:H$149, $O$66:$O$149, "*Fixed", $V$66:$V$149, "YES")</f>
+        <f t="shared" si="43"/>
         <v>9.54142857142857</v>
       </c>
       <c r="AA189" s="25">
-        <f>AVERAGEIFS(I$66:I$149, $O$66:$O$149, "*Fixed", $V$66:$V$149, "YES")</f>
+        <f t="shared" si="43"/>
         <v>22.027142857142859</v>
       </c>
       <c r="AB189" s="25">
-        <f>AVERAGEIFS(J$66:J$149, $O$66:$O$149, "*Fixed", $V$66:$V$149, "YES")</f>
+        <f t="shared" si="43"/>
         <v>42.79</v>
       </c>
       <c r="AC189" s="25">
-        <f>AVERAGEIFS(K$66:K$149, $O$66:$O$149, "*Fixed", $V$66:$V$149, "YES")</f>
+        <f t="shared" si="43"/>
         <v>0.16285714285714284</v>
       </c>
       <c r="AD189" s="25">
-        <f>AVERAGEIFS(L$66:L$149, $O$66:$O$149, "*Fixed", $V$66:$V$149, "YES")</f>
+        <f t="shared" si="43"/>
         <v>4.2857142857142859E-3</v>
       </c>
       <c r="AE189" s="25">
-        <f>AVERAGEIFS(M$66:M$149, $O$66:$O$149, "*Fixed", $V$66:$V$149, "YES")</f>
+        <f t="shared" si="43"/>
         <v>3.7600000000000002</v>
       </c>
       <c r="AF189" s="25">
-        <f>AVERAGEIFS(N$66:N$149, $O$66:$O$149, "*Fixed", $V$66:$V$149, "YES")</f>
+        <f t="shared" si="43"/>
         <v>0.20857142857142857</v>
       </c>
     </row>
@@ -13612,55 +15011,55 @@
         <v>214</v>
       </c>
       <c r="C190" s="25">
-        <f t="shared" ref="C190:O190" si="25">AVERAGEIFS(B$24:B$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "&gt;1")</f>
+        <f t="shared" ref="C190:O190" si="44">AVERAGEIFS(B$24:B$149, $O$24:$O$149, "*Repaired", $S$24:$S$149, "&gt;1")</f>
         <v>2.1481250000000003</v>
       </c>
       <c r="D190" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="44"/>
         <v>76.004374999999996</v>
       </c>
       <c r="E190" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="44"/>
         <v>11.709374999999998</v>
       </c>
       <c r="F190" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="44"/>
         <v>7.9793749999999992</v>
       </c>
       <c r="G190" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="44"/>
         <v>8.9028124999999996</v>
       </c>
       <c r="H190" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="44"/>
         <v>2.6334375000000003</v>
       </c>
       <c r="I190" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="44"/>
         <v>10.613437499999998</v>
       </c>
       <c r="J190" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="44"/>
         <v>20.611875000000001</v>
       </c>
       <c r="K190" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="44"/>
         <v>48.300312500000004</v>
       </c>
       <c r="L190" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="44"/>
         <v>1.0990624999999998</v>
       </c>
       <c r="M190" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="44"/>
         <v>7.9249999999999973E-2</v>
       </c>
       <c r="N190" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="44"/>
         <v>19.891249999999999</v>
       </c>
       <c r="O190" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="44"/>
         <v>1.1056874999999999</v>
       </c>
       <c r="R190">
@@ -13671,55 +15070,55 @@
         <v>222</v>
       </c>
       <c r="T190" s="25">
-        <f>AVERAGEIFS(B$66:B$149, $O$66:$O$149, "*Repaired", $V$66:$V$149, "YES")</f>
+        <f t="shared" ref="T190:AF190" si="45">AVERAGEIFS(B$66:B$149, $O$66:$O$149, "*Repaired", $V$66:$V$149, "YES")</f>
         <v>1.3026666666666666</v>
       </c>
       <c r="U190" s="25">
-        <f>AVERAGEIFS(C$66:C$149, $O$66:$O$149, "*Repaired", $V$66:$V$149, "YES")</f>
+        <f t="shared" si="45"/>
         <v>75.182000000000016</v>
       </c>
       <c r="V190" s="25">
-        <f>AVERAGEIFS(D$66:D$149, $O$66:$O$149, "*Repaired", $V$66:$V$149, "YES")</f>
+        <f t="shared" si="45"/>
         <v>10.912666666666667</v>
       </c>
       <c r="W190" s="25">
-        <f>AVERAGEIFS(E$66:E$149, $O$66:$O$149, "*Repaired", $V$66:$V$149, "YES")</f>
+        <f t="shared" si="45"/>
         <v>9.2313333333333318</v>
       </c>
       <c r="X190" s="25">
-        <f>AVERAGEIFS(F$66:F$149, $O$66:$O$149, "*Repaired", $V$66:$V$149, "YES")</f>
+        <f t="shared" si="45"/>
         <v>7.2473333333333327</v>
       </c>
       <c r="Y190" s="25">
-        <f>AVERAGEIFS(G$66:G$149, $O$66:$O$149, "*Repaired", $V$66:$V$149, "YES")</f>
+        <f t="shared" si="45"/>
         <v>2.3346666666666667</v>
       </c>
       <c r="Z190" s="25">
-        <f>AVERAGEIFS(H$66:H$149, $O$66:$O$149, "*Repaired", $V$66:$V$149, "YES")</f>
+        <f t="shared" si="45"/>
         <v>11.567333333333332</v>
       </c>
       <c r="AA190" s="25">
-        <f>AVERAGEIFS(I$66:I$149, $O$66:$O$149, "*Repaired", $V$66:$V$149, "YES")</f>
+        <f t="shared" si="45"/>
         <v>18.160000000000004</v>
       </c>
       <c r="AB190" s="25">
-        <f>AVERAGEIFS(J$66:J$149, $O$66:$O$149, "*Repaired", $V$66:$V$149, "YES")</f>
+        <f t="shared" si="45"/>
         <v>51.247999999999998</v>
       </c>
       <c r="AC190" s="25">
-        <f>AVERAGEIFS(K$66:K$149, $O$66:$O$149, "*Repaired", $V$66:$V$149, "YES")</f>
+        <f t="shared" si="45"/>
         <v>1.6006666666666665</v>
       </c>
       <c r="AD190" s="25">
-        <f>AVERAGEIFS(L$66:L$149, $O$66:$O$149, "*Repaired", $V$66:$V$149, "YES")</f>
+        <f t="shared" si="45"/>
         <v>5.8133333333333342E-2</v>
       </c>
       <c r="AE190" s="25">
-        <f>AVERAGEIFS(M$66:M$149, $O$66:$O$149, "*Repaired", $V$66:$V$149, "YES")</f>
+        <f t="shared" si="45"/>
         <v>28.500666666666675</v>
       </c>
       <c r="AF190" s="25">
-        <f>AVERAGEIFS(N$66:N$149, $O$66:$O$149, "*Repaired", $V$66:$V$149, "YES")</f>
+        <f t="shared" si="45"/>
         <v>1.5840000000000001</v>
       </c>
     </row>
@@ -13813,55 +15212,55 @@
         <v>190</v>
       </c>
       <c r="C196" s="25">
-        <f t="shared" ref="C196:O196" si="26">AVERAGEIF($A$24:$A$149, "*albfernandez-GDS-PMD-Security*_Buggy", B$24:B$149)</f>
+        <f t="shared" ref="C196:O196" si="46">AVERAGEIF($A$24:$A$149, "*albfernandez-GDS-PMD-Security*_Buggy", B$24:B$149)</f>
         <v>3.218</v>
       </c>
       <c r="D196" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>76.114000000000004</v>
       </c>
       <c r="E196" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>11.389999999999999</v>
       </c>
       <c r="F196" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>6.8020000000000014</v>
       </c>
       <c r="G196" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>9.8800000000000008</v>
       </c>
       <c r="H196" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>3.7</v>
       </c>
       <c r="I196" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>10.5</v>
       </c>
       <c r="J196" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>21.276</v>
       </c>
       <c r="K196" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>46.86</v>
       </c>
       <c r="L196" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>0.74199999999999999</v>
       </c>
       <c r="M196" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>0.15</v>
       </c>
       <c r="N196" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>21.845999999999997</v>
       </c>
       <c r="O196" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="46"/>
         <v>1.218</v>
       </c>
     </row>
@@ -13874,55 +15273,55 @@
         <v>191</v>
       </c>
       <c r="C197" s="25">
-        <f t="shared" ref="C197:O197" si="27">AVERAGEIF($A$24:$A$149, "*albfernandez-GDS-PMD-Security*_Fixed", B$24:B$149)</f>
+        <f t="shared" ref="C197:O197" si="47">AVERAGEIF($A$24:$A$149, "*albfernandez-GDS-PMD-Security*_Fixed", B$24:B$149)</f>
         <v>3.226</v>
       </c>
       <c r="D197" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>76.013999999999996</v>
       </c>
       <c r="E197" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>11.458</v>
       </c>
       <c r="F197" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>6.8259999999999987</v>
       </c>
       <c r="G197" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>9.8879999999999999</v>
       </c>
       <c r="H197" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>3.6960000000000002</v>
       </c>
       <c r="I197" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>10.52</v>
       </c>
       <c r="J197" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>21.351999999999997</v>
       </c>
       <c r="K197" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>47.007999999999996</v>
       </c>
       <c r="L197" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>0.73799999999999999</v>
       </c>
       <c r="M197" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>0.15</v>
       </c>
       <c r="N197" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>21.745999999999999</v>
       </c>
       <c r="O197" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="47"/>
         <v>1.2100000000000002</v>
       </c>
     </row>
@@ -13935,55 +15334,55 @@
         <v>192</v>
       </c>
       <c r="C198" s="25">
-        <f t="shared" ref="C198:O198" si="28">AVERAGEIF($A$24:$A$149, "*albfernandez-GDS-PMD-Security*_Repaired", B$24:B$149)</f>
+        <f t="shared" ref="C198:O198" si="48">AVERAGEIF($A$24:$A$149, "*albfernandez-GDS-PMD-Security*_Repaired", B$24:B$149)</f>
         <v>3.1859999999999999</v>
       </c>
       <c r="D198" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="48"/>
         <v>76.397999999999996</v>
       </c>
       <c r="E198" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="48"/>
         <v>11.363999999999999</v>
       </c>
       <c r="F198" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="48"/>
         <v>6.7860000000000014</v>
       </c>
       <c r="G198" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="48"/>
         <v>9.7039999999999988</v>
       </c>
       <c r="H198" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="48"/>
         <v>3.6519999999999997</v>
       </c>
       <c r="I198" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="48"/>
         <v>10.436</v>
       </c>
       <c r="J198" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="48"/>
         <v>21.068000000000001</v>
       </c>
       <c r="K198" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="48"/>
         <v>46.462000000000003</v>
       </c>
       <c r="L198" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="48"/>
         <v>0.61199999999999999</v>
       </c>
       <c r="M198" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="48"/>
         <v>0.15212000000000001</v>
       </c>
       <c r="N198" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="48"/>
         <v>18.821999999999996</v>
       </c>
       <c r="O198" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="48"/>
         <v>1.046</v>
       </c>
     </row>
@@ -14040,55 +15439,55 @@
         <v>193</v>
       </c>
       <c r="C201" s="25">
-        <f t="shared" ref="C201:O201" si="29">AVERAGEIF($A$24:$A$149, "*dungba88-libra*_Buggy", B$24:B$149)</f>
+        <f t="shared" ref="C201:O201" si="49">AVERAGEIF($A$24:$A$149, "*dungba88-libra*_Buggy", B$24:B$149)</f>
         <v>1.7766666666666666</v>
       </c>
       <c r="D201" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="49"/>
         <v>89.11</v>
       </c>
       <c r="E201" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="49"/>
         <v>4.1100000000000003</v>
       </c>
       <c r="F201" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="49"/>
         <v>2.89</v>
       </c>
       <c r="G201" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="49"/>
         <v>2.7766666666666668</v>
       </c>
       <c r="H201" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="49"/>
         <v>1.4433333333333334</v>
       </c>
       <c r="I201" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="49"/>
         <v>4.3366666666666669</v>
       </c>
       <c r="J201" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="49"/>
         <v>6.8900000000000006</v>
       </c>
       <c r="K201" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="49"/>
         <v>13.39</v>
       </c>
       <c r="L201" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="49"/>
         <v>0.11333333333333334</v>
       </c>
       <c r="M201" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="49"/>
         <v>0.11333333333333334</v>
       </c>
       <c r="N201" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="49"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="O201" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="49"/>
         <v>3.7333333333333336E-2</v>
       </c>
     </row>
@@ -14101,55 +15500,55 @@
         <v>194</v>
       </c>
       <c r="C202" s="25">
-        <f t="shared" ref="C202:O202" si="30">AVERAGEIF($A$24:$A$149, "*dungba88-libra*_Fixed", B$24:B$149)</f>
+        <f t="shared" ref="C202:O202" si="50">AVERAGEIF($A$24:$A$149, "*dungba88-libra*_Fixed", B$24:B$149)</f>
         <v>2</v>
       </c>
       <c r="D202" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="50"/>
         <v>88.663333333333341</v>
       </c>
       <c r="E202" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="50"/>
         <v>4.5566666666666666</v>
       </c>
       <c r="F202" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="50"/>
         <v>3.0033333333333334</v>
       </c>
       <c r="G202" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="50"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="H202" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="50"/>
         <v>1.4433333333333334</v>
       </c>
       <c r="I202" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="50"/>
         <v>4.4466666666666663</v>
       </c>
       <c r="J202" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="50"/>
         <v>7.8900000000000006</v>
       </c>
       <c r="K202" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="50"/>
         <v>14.62</v>
       </c>
       <c r="L202" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="50"/>
         <v>0.11333333333333334</v>
       </c>
       <c r="M202" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="50"/>
         <v>0.11333333333333334</v>
       </c>
       <c r="N202" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="50"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="O202" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="50"/>
         <v>3.7333333333333336E-2</v>
       </c>
     </row>
@@ -14162,55 +15561,55 @@
         <v>195</v>
       </c>
       <c r="C203" s="25">
-        <f t="shared" ref="C203:O203" si="31">AVERAGEIF($A$24:$A$149, "*dungba88-libra*_Repaired", B$24:B$149)</f>
+        <f t="shared" ref="C203:O203" si="51">AVERAGEIF($A$24:$A$149, "*dungba88-libra*_Repaired", B$24:B$149)</f>
         <v>1.6633333333333333</v>
       </c>
       <c r="D203" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="51"/>
         <v>89.67</v>
       </c>
       <c r="E203" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="51"/>
         <v>3.5566666666666666</v>
       </c>
       <c r="F203" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="51"/>
         <v>2.89</v>
       </c>
       <c r="G203" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="51"/>
         <v>2.2233333333333332</v>
       </c>
       <c r="H203" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="51"/>
         <v>1.33</v>
       </c>
       <c r="I203" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="51"/>
         <v>4.2233333333333336</v>
       </c>
       <c r="J203" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="51"/>
         <v>5.7766666666666664</v>
       </c>
       <c r="K203" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="51"/>
         <v>12.07</v>
       </c>
       <c r="L203" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="51"/>
         <v>0.11333333333333334</v>
       </c>
       <c r="M203" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="51"/>
         <v>0.11333333333333334</v>
       </c>
       <c r="N203" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="51"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="O203" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="51"/>
         <v>3.7333333333333336E-2</v>
       </c>
     </row>
@@ -14267,55 +15666,55 @@
         <v>196</v>
       </c>
       <c r="C206" s="25">
-        <f t="shared" ref="C206:O206" si="32">AVERAGEIF($A$24:$A$149, "*julianps-modelmapper-module*_Buggy", B$24:B$149)</f>
+        <f t="shared" ref="C206:O206" si="52">AVERAGEIF($A$24:$A$149, "*julianps-modelmapper-module*_Buggy", B$24:B$149)</f>
         <v>1</v>
       </c>
       <c r="D206" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="52"/>
         <v>92</v>
       </c>
       <c r="E206" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="52"/>
         <v>5</v>
       </c>
       <c r="F206" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="52"/>
         <v>4</v>
       </c>
       <c r="G206" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="52"/>
         <v>3</v>
       </c>
       <c r="H206" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="I206" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="52"/>
         <v>5</v>
       </c>
       <c r="J206" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="52"/>
         <v>8</v>
       </c>
       <c r="K206" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="52"/>
         <v>15</v>
       </c>
       <c r="L206" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="M206" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="N206" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="O206" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
     </row>
@@ -14328,55 +15727,55 @@
         <v>197</v>
       </c>
       <c r="C207" s="25">
-        <f t="shared" ref="C207:O207" si="33">AVERAGEIF($A$24:$A$149, "*julianps-modelmapper-module*_Fixed", B$24:B$149)</f>
+        <f t="shared" ref="C207:O207" si="53">AVERAGEIF($A$24:$A$149, "*julianps-modelmapper-module*_Fixed", B$24:B$149)</f>
         <v>1</v>
       </c>
       <c r="D207" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>92</v>
       </c>
       <c r="E207" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>5</v>
       </c>
       <c r="F207" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="G207" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>3</v>
       </c>
       <c r="H207" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="I207" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>5</v>
       </c>
       <c r="J207" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>8</v>
       </c>
       <c r="K207" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>15</v>
       </c>
       <c r="L207" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="M207" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="N207" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="O207" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
     </row>
@@ -14389,55 +15788,55 @@
         <v>198</v>
       </c>
       <c r="C208" s="25">
-        <f t="shared" ref="C208:O208" si="34">AVERAGEIF($A$24:$A$149, "*julianps-modelmapper-module*_Repaired", B$24:B$149)</f>
+        <f t="shared" ref="C208:O208" si="54">AVERAGEIF($A$24:$A$149, "*julianps-modelmapper-module*_Repaired", B$24:B$149)</f>
         <v>1.1666666666666667</v>
       </c>
       <c r="D208" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="54"/>
         <v>96.666666666666671</v>
       </c>
       <c r="E208" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="54"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="F208" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="54"/>
         <v>4.166666666666667</v>
       </c>
       <c r="G208" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="54"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="H208" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="54"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="I208" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="54"/>
         <v>4.5</v>
       </c>
       <c r="J208" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="54"/>
         <v>4</v>
       </c>
       <c r="K208" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="54"/>
         <v>8.9816666666666674</v>
       </c>
       <c r="L208" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="54"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="M208" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="54"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="N208" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="54"/>
         <v>7.3966666666666674</v>
       </c>
       <c r="O208" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="54"/>
         <v>0.41166666666666668</v>
       </c>
     </row>
@@ -14494,55 +15893,55 @@
         <v>199</v>
       </c>
       <c r="C211" s="25">
-        <f t="shared" ref="C211:O211" si="35">AVERAGEIF($A$24:$A$149, "*opentracing-contrib-java-p6sp*_Buggy", B$24:B$149)</f>
+        <f t="shared" ref="C211:O211" si="55">AVERAGEIF($A$24:$A$149, "*opentracing-contrib-java-p6sp*_Buggy", B$24:B$149)</f>
         <v>2.62</v>
       </c>
       <c r="D211" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="55"/>
         <v>79.849999999999994</v>
       </c>
       <c r="E211" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="55"/>
         <v>10.31</v>
       </c>
       <c r="F211" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="55"/>
         <v>5.54</v>
       </c>
       <c r="G211" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="55"/>
         <v>8.69</v>
       </c>
       <c r="H211" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="55"/>
         <v>3.31</v>
       </c>
       <c r="I211" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="55"/>
         <v>8.85</v>
       </c>
       <c r="J211" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="55"/>
         <v>19</v>
       </c>
       <c r="K211" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="55"/>
         <v>37.72</v>
       </c>
       <c r="L211" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="M211" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="N211" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="O211" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
     </row>
@@ -14555,55 +15954,55 @@
         <v>200</v>
       </c>
       <c r="C212" s="25">
-        <f t="shared" ref="C212:O212" si="36">AVERAGEIF($A$24:$A$149, "*opentracing-contrib-java-p6sp*_Fixed", B$24:B$149)</f>
+        <f t="shared" ref="C212:O212" si="56">AVERAGEIF($A$24:$A$149, "*opentracing-contrib-java-p6sp*_Fixed", B$24:B$149)</f>
         <v>2.57</v>
       </c>
       <c r="D212" s="25">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>80.36</v>
       </c>
       <c r="E212" s="25">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>9.7899999999999991</v>
       </c>
       <c r="F212" s="25">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>5.43</v>
       </c>
       <c r="G212" s="25">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>8.43</v>
       </c>
       <c r="H212" s="25">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>3.3600000000000003</v>
       </c>
       <c r="I212" s="25">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>8.7899999999999991</v>
       </c>
       <c r="J212" s="25">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>18.21</v>
       </c>
       <c r="K212" s="25">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>36.97</v>
       </c>
       <c r="L212" s="25">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="M212" s="25">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="N212" s="25">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="O212" s="25">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
     </row>
@@ -14616,55 +16015,55 @@
         <v>201</v>
       </c>
       <c r="C213" s="25">
-        <f t="shared" ref="C213:O213" si="37">AVERAGEIF($A$24:$A$149, "*opentracing-contrib-java-p6sp*_Repaired", B$24:B$149)</f>
+        <f t="shared" ref="C213:O213" si="57">AVERAGEIF($A$24:$A$149, "*opentracing-contrib-java-p6sp*_Repaired", B$24:B$149)</f>
         <v>2.54</v>
       </c>
       <c r="D213" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>80.12</v>
       </c>
       <c r="E213" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>10.044</v>
       </c>
       <c r="F213" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>5.524</v>
       </c>
       <c r="G213" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>8.3239999999999998</v>
       </c>
       <c r="H213" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>3.1540000000000004</v>
       </c>
       <c r="I213" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>8.68</v>
       </c>
       <c r="J213" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>18.368000000000002</v>
       </c>
       <c r="K213" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>36.53</v>
       </c>
       <c r="L213" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="M213" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="N213" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="O213" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
     </row>
@@ -14721,55 +16120,55 @@
         <v>202</v>
       </c>
       <c r="C216" s="25">
-        <f t="shared" ref="C216:O216" si="38">AVERAGEIF($A$24:$A$149, "*SzFMV2018-Tavasz-AutomatedCar*_Buggy", B$24:B$149)</f>
+        <f t="shared" ref="C216:O216" si="58">AVERAGEIF($A$24:$A$149, "*SzFMV2018-Tavasz-AutomatedCar*_Buggy", B$24:B$149)</f>
         <v>1</v>
       </c>
       <c r="D216" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>74.569999999999993</v>
       </c>
       <c r="E216" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>11</v>
       </c>
       <c r="F216" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>9.86</v>
       </c>
       <c r="G216" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>6.86</v>
       </c>
       <c r="H216" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>2</v>
       </c>
       <c r="I216" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>11.86</v>
       </c>
       <c r="J216" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>17.86</v>
       </c>
       <c r="K216" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>52.87</v>
       </c>
       <c r="L216" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>2</v>
       </c>
       <c r="M216" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>4.9999999999999996E-2</v>
       </c>
       <c r="N216" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>30.41</v>
       </c>
       <c r="O216" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>1.6899999999999997</v>
       </c>
     </row>
@@ -14782,55 +16181,55 @@
         <v>203</v>
       </c>
       <c r="C217" s="26">
-        <f t="shared" ref="C217:O217" si="39">AVERAGEIF($A$24:$A$149, "*SzFMV2018-Tavasz-AutomatedCar*_Fixed", B$24:B$149)</f>
+        <f t="shared" ref="C217:O217" si="59">AVERAGEIF($A$24:$A$149, "*SzFMV2018-Tavasz-AutomatedCar*_Fixed", B$24:B$149)</f>
         <v>1</v>
       </c>
       <c r="D217" s="26">
-        <f t="shared" si="39"/>
+        <f t="shared" si="59"/>
         <v>74.569999999999993</v>
       </c>
       <c r="E217" s="26">
-        <f t="shared" si="39"/>
+        <f t="shared" si="59"/>
         <v>11</v>
       </c>
       <c r="F217" s="26">
-        <f t="shared" si="39"/>
+        <f t="shared" si="59"/>
         <v>9.86</v>
       </c>
       <c r="G217" s="26">
-        <f t="shared" si="39"/>
+        <f t="shared" si="59"/>
         <v>6.71</v>
       </c>
       <c r="H217" s="26">
-        <f t="shared" si="39"/>
+        <f t="shared" si="59"/>
         <v>2</v>
       </c>
       <c r="I217" s="26">
-        <f t="shared" si="39"/>
+        <f t="shared" si="59"/>
         <v>11.86</v>
       </c>
       <c r="J217" s="26">
-        <f t="shared" si="39"/>
+        <f t="shared" si="59"/>
         <v>17.710000000000004</v>
       </c>
       <c r="K217" s="26">
-        <f t="shared" si="39"/>
+        <f t="shared" si="59"/>
         <v>52.800000000000004</v>
       </c>
       <c r="L217" s="26">
-        <f t="shared" si="39"/>
+        <f t="shared" si="59"/>
         <v>2</v>
       </c>
       <c r="M217" s="26">
-        <f t="shared" si="39"/>
+        <f t="shared" si="59"/>
         <v>4.9999999999999996E-2</v>
       </c>
       <c r="N217" s="26">
-        <f t="shared" si="39"/>
+        <f t="shared" si="59"/>
         <v>30.41</v>
       </c>
       <c r="O217" s="26">
-        <f t="shared" si="39"/>
+        <f t="shared" si="59"/>
         <v>1.6899999999999997</v>
       </c>
     </row>
@@ -14843,55 +16242,55 @@
         <v>204</v>
       </c>
       <c r="C218" s="26">
-        <f t="shared" ref="C218:O218" si="40">AVERAGEIF($A$24:$A$149, "*SzFMV2018-Tavasz-AutomatedCar*_Repaired", B$24:B$149)</f>
+        <f t="shared" ref="C218:O218" si="60">AVERAGEIF($A$24:$A$149, "*SzFMV2018-Tavasz-AutomatedCar*_Repaired", B$24:B$149)</f>
         <v>1.0233333333333332</v>
       </c>
       <c r="D218" s="26">
-        <f t="shared" si="40"/>
+        <f t="shared" si="60"/>
         <v>74.263333333333335</v>
       </c>
       <c r="E218" s="26">
-        <f t="shared" si="40"/>
+        <f t="shared" si="60"/>
         <v>10.998333333333335</v>
       </c>
       <c r="F218" s="26">
-        <f t="shared" si="40"/>
+        <f t="shared" si="60"/>
         <v>9.9533333333333331</v>
       </c>
       <c r="G218" s="26">
-        <f t="shared" si="40"/>
+        <f t="shared" si="60"/>
         <v>6.93</v>
       </c>
       <c r="H218" s="26">
-        <f t="shared" si="40"/>
+        <f t="shared" si="60"/>
         <v>2.0950000000000002</v>
       </c>
       <c r="I218" s="26">
-        <f t="shared" si="40"/>
+        <f t="shared" si="60"/>
         <v>12.048333333333332</v>
       </c>
       <c r="J218" s="26">
-        <f t="shared" si="40"/>
+        <f t="shared" si="60"/>
         <v>17.928333333333331</v>
       </c>
       <c r="K218" s="26">
-        <f t="shared" si="40"/>
+        <f t="shared" si="60"/>
         <v>53.723333333333329</v>
       </c>
       <c r="L218" s="26">
-        <f t="shared" si="40"/>
+        <f t="shared" si="60"/>
         <v>2.0483333333333333</v>
       </c>
       <c r="M218" s="26">
-        <f t="shared" si="40"/>
+        <f t="shared" si="60"/>
         <v>5.5333333333333325E-2</v>
       </c>
       <c r="N218" s="26">
-        <f t="shared" si="40"/>
+        <f t="shared" si="60"/>
         <v>35.678333333333335</v>
       </c>
       <c r="O218" s="26">
-        <f t="shared" si="40"/>
+        <f t="shared" si="60"/>
         <v>1.9833333333333332</v>
       </c>
     </row>
@@ -14948,55 +16347,55 @@
         <v>205</v>
       </c>
       <c r="C221" s="25">
-        <f t="shared" ref="C221:O221" si="41">AVERAGEIF($A$24:$A$149, "*traccar-traccar*_Buggy", B$24:B$149)</f>
+        <f t="shared" ref="C221:O221" si="61">AVERAGEIF($A$24:$A$149, "*traccar-traccar*_Buggy", B$24:B$149)</f>
         <v>5.75</v>
       </c>
       <c r="D221" s="25">
-        <f t="shared" si="41"/>
+        <f t="shared" si="61"/>
         <v>68.5</v>
       </c>
       <c r="E221" s="25">
-        <f t="shared" si="41"/>
+        <f t="shared" si="61"/>
         <v>22.25</v>
       </c>
       <c r="F221" s="25">
-        <f t="shared" si="41"/>
+        <f t="shared" si="61"/>
         <v>7.62</v>
       </c>
       <c r="G221" s="25">
-        <f t="shared" si="41"/>
+        <f t="shared" si="61"/>
         <v>21.62</v>
       </c>
       <c r="H221" s="25">
-        <f t="shared" si="41"/>
+        <f t="shared" si="61"/>
         <v>4.38</v>
       </c>
       <c r="I221" s="25">
-        <f t="shared" si="41"/>
+        <f t="shared" si="61"/>
         <v>12</v>
       </c>
       <c r="J221" s="25">
-        <f t="shared" si="41"/>
+        <f t="shared" si="61"/>
         <v>43.88</v>
       </c>
       <c r="K221" s="25">
-        <f t="shared" si="41"/>
+        <f t="shared" si="61"/>
         <v>66.92</v>
       </c>
       <c r="L221" s="25">
-        <f t="shared" si="41"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="M221" s="25">
-        <f t="shared" si="41"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="N221" s="25">
-        <f t="shared" si="41"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="O221" s="25">
-        <f t="shared" si="41"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
     </row>
@@ -15009,55 +16408,55 @@
         <v>206</v>
       </c>
       <c r="C222" s="26">
-        <f t="shared" ref="C222:O222" si="42">AVERAGEIF($A$24:$A$149, "*traccar-traccar*_Fixed", B$24:B$149)</f>
+        <f t="shared" ref="C222:O222" si="62">AVERAGEIF($A$24:$A$149, "*traccar-traccar*_Fixed", B$24:B$149)</f>
         <v>5.88</v>
       </c>
       <c r="D222" s="26">
-        <f t="shared" si="42"/>
+        <f t="shared" si="62"/>
         <v>68.5</v>
       </c>
       <c r="E222" s="26">
-        <f t="shared" si="42"/>
+        <f t="shared" si="62"/>
         <v>22.5</v>
       </c>
       <c r="F222" s="26">
-        <f t="shared" si="42"/>
+        <f t="shared" si="62"/>
         <v>7.62</v>
       </c>
       <c r="G222" s="26">
-        <f t="shared" si="42"/>
+        <f t="shared" si="62"/>
         <v>22</v>
       </c>
       <c r="H222" s="26">
-        <f t="shared" si="42"/>
+        <f t="shared" si="62"/>
         <v>4.38</v>
       </c>
       <c r="I222" s="26">
-        <f t="shared" si="42"/>
+        <f t="shared" si="62"/>
         <v>12</v>
       </c>
       <c r="J222" s="26">
-        <f t="shared" si="42"/>
+        <f t="shared" si="62"/>
         <v>44.5</v>
       </c>
       <c r="K222" s="26">
-        <f t="shared" si="42"/>
+        <f t="shared" si="62"/>
         <v>67.08</v>
       </c>
       <c r="L222" s="26">
-        <f t="shared" si="42"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="M222" s="26">
-        <f t="shared" si="42"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="N222" s="26">
-        <f t="shared" si="42"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="O222" s="26">
-        <f t="shared" si="42"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
     </row>
@@ -15070,55 +16469,55 @@
         <v>207</v>
       </c>
       <c r="C223" s="26">
-        <f t="shared" ref="C223:O223" si="43">AVERAGEIF($A$24:$A$149, "*traccar-traccar*_Repaired", B$24:B$149)</f>
+        <f t="shared" ref="C223:O223" si="63">AVERAGEIF($A$24:$A$149, "*traccar-traccar*_Repaired", B$24:B$149)</f>
         <v>5.3116666666666665</v>
       </c>
       <c r="D223" s="26">
-        <f t="shared" si="43"/>
+        <f t="shared" si="63"/>
         <v>68.916666666666671</v>
       </c>
       <c r="E223" s="26">
-        <f t="shared" si="43"/>
+        <f t="shared" si="63"/>
         <v>20.75</v>
       </c>
       <c r="F223" s="26">
-        <f t="shared" si="43"/>
+        <f t="shared" si="63"/>
         <v>7.52</v>
       </c>
       <c r="G223" s="26">
-        <f t="shared" si="43"/>
+        <f t="shared" si="63"/>
         <v>19.808333333333334</v>
       </c>
       <c r="H223" s="26">
-        <f t="shared" si="43"/>
+        <f t="shared" si="63"/>
         <v>4.38</v>
       </c>
       <c r="I223" s="26">
-        <f t="shared" si="43"/>
+        <f t="shared" si="63"/>
         <v>11.9</v>
       </c>
       <c r="J223" s="26">
-        <f t="shared" si="43"/>
+        <f t="shared" si="63"/>
         <v>40.55833333333333</v>
       </c>
       <c r="K223" s="26">
-        <f t="shared" si="43"/>
+        <f t="shared" si="63"/>
         <v>65.278333333333336</v>
       </c>
       <c r="L223" s="26">
-        <f t="shared" si="43"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="M223" s="26">
-        <f t="shared" si="43"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="N223" s="26">
-        <f t="shared" si="43"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="O223" s="26">
-        <f t="shared" si="43"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
     </row>
@@ -15218,47 +16617,47 @@
         <v>2.568461538461539</v>
       </c>
       <c r="D229" s="25">
-        <f t="shared" ref="D229:N229" si="44">AVERAGEIF($A$24:$A$149, "Arja*Fixed", C$24:C$149)</f>
+        <f t="shared" ref="D229:N229" si="64">AVERAGEIF($A$24:$A$149, "Arja*Fixed", C$24:C$149)</f>
         <v>79.533846153846127</v>
       </c>
       <c r="E229" s="25">
-        <f t="shared" si="44"/>
+        <f t="shared" si="64"/>
         <v>11.127692307692305</v>
       </c>
       <c r="F229" s="25">
-        <f t="shared" si="44"/>
+        <f t="shared" si="64"/>
         <v>6.3934615384615388</v>
       </c>
       <c r="G229" s="25">
-        <f t="shared" si="44"/>
+        <f t="shared" si="64"/>
         <v>9.1919230769230769</v>
       </c>
       <c r="H229" s="25">
-        <f t="shared" si="44"/>
+        <f t="shared" si="64"/>
         <v>2.6753846153846155</v>
       </c>
       <c r="I229" s="25">
-        <f t="shared" si="44"/>
+        <f t="shared" si="64"/>
         <v>9.0680769230769247</v>
       </c>
       <c r="J229" s="25">
-        <f t="shared" si="44"/>
+        <f t="shared" si="64"/>
         <v>20.318846153846152</v>
       </c>
       <c r="K229" s="25">
-        <f t="shared" si="44"/>
+        <f t="shared" si="64"/>
         <v>40.56807692307693</v>
       </c>
       <c r="L229" s="25">
-        <f t="shared" si="44"/>
+        <f t="shared" si="64"/>
         <v>0.51769230769230767</v>
       </c>
       <c r="M229" s="25">
-        <f t="shared" si="44"/>
+        <f t="shared" si="64"/>
         <v>5.0961538461538468E-2</v>
       </c>
       <c r="N229" s="25">
-        <f t="shared" si="44"/>
+        <f t="shared" si="64"/>
         <v>9.6007692307692292</v>
       </c>
       <c r="O229" s="25">
@@ -15279,51 +16678,51 @@
         <v>2.4215384615384616</v>
       </c>
       <c r="D230" s="29">
-        <f t="shared" ref="D230:O230" si="45">AVERAGEIF($A$24:$A$149, "Arja*Repaired", C$24:C$149)</f>
+        <f t="shared" ref="D230:O230" si="65">AVERAGEIF($A$24:$A$149, "Arja*Repaired", C$24:C$149)</f>
         <v>81.206923076923076</v>
       </c>
       <c r="E230" s="29">
-        <f t="shared" si="45"/>
+        <f t="shared" si="65"/>
         <v>10.330769230769231</v>
       </c>
       <c r="F230" s="29">
-        <f t="shared" si="45"/>
+        <f t="shared" si="65"/>
         <v>6.3992307692307691</v>
       </c>
       <c r="G230" s="29">
-        <f t="shared" si="45"/>
+        <f t="shared" si="65"/>
         <v>8.0784615384615392</v>
       </c>
       <c r="H230" s="29">
-        <f t="shared" si="45"/>
+        <f t="shared" si="65"/>
         <v>2.4384615384615387</v>
       </c>
       <c r="I230" s="29">
-        <f t="shared" si="45"/>
+        <f t="shared" si="65"/>
         <v>8.837692307692306</v>
       </c>
       <c r="J230" s="29">
-        <f t="shared" si="45"/>
+        <f t="shared" si="65"/>
         <v>18.408846153846152</v>
       </c>
       <c r="K230" s="29">
-        <f t="shared" si="45"/>
+        <f t="shared" si="65"/>
         <v>38.34269230769231</v>
       </c>
       <c r="L230" s="29">
-        <f t="shared" si="45"/>
+        <f t="shared" si="65"/>
         <v>0.50576923076923075</v>
       </c>
       <c r="M230" s="29">
-        <f t="shared" si="45"/>
+        <f t="shared" si="65"/>
         <v>5.296153846153847E-2</v>
       </c>
       <c r="N230" s="29">
-        <f t="shared" si="45"/>
+        <f t="shared" si="65"/>
         <v>10.267307692307693</v>
       </c>
       <c r="O230" s="29">
-        <f t="shared" si="45"/>
+        <f t="shared" si="65"/>
         <v>0.57084615384615389</v>
       </c>
     </row>
@@ -15340,51 +16739,51 @@
         <v>1</v>
       </c>
       <c r="D231" s="25">
-        <f t="shared" ref="D231:O231" si="46">AVERAGEIF($A$24:$A$149, "GenProg*Fixed", C$24:C$149)</f>
+        <f t="shared" ref="D231:O231" si="66">AVERAGEIF($A$24:$A$149, "GenProg*Fixed", C$24:C$149)</f>
         <v>74.569999999999993</v>
       </c>
       <c r="E231" s="25">
-        <f t="shared" si="46"/>
+        <f t="shared" si="66"/>
         <v>11</v>
       </c>
       <c r="F231" s="25">
-        <f t="shared" si="46"/>
+        <f t="shared" si="66"/>
         <v>9.86</v>
       </c>
       <c r="G231" s="25">
-        <f t="shared" si="46"/>
+        <f t="shared" si="66"/>
         <v>6.7099999999999991</v>
       </c>
       <c r="H231" s="25">
-        <f t="shared" si="46"/>
+        <f t="shared" si="66"/>
         <v>2</v>
       </c>
       <c r="I231" s="25">
-        <f t="shared" si="46"/>
+        <f t="shared" si="66"/>
         <v>11.86</v>
       </c>
       <c r="J231" s="25">
-        <f t="shared" si="46"/>
+        <f t="shared" si="66"/>
         <v>17.71</v>
       </c>
       <c r="K231" s="25">
-        <f t="shared" si="46"/>
+        <f t="shared" si="66"/>
         <v>52.8</v>
       </c>
       <c r="L231" s="25">
-        <f t="shared" si="46"/>
+        <f t="shared" si="66"/>
         <v>2</v>
       </c>
       <c r="M231" s="25">
-        <f t="shared" si="46"/>
+        <f t="shared" si="66"/>
         <v>0.05</v>
       </c>
       <c r="N231" s="25">
-        <f t="shared" si="46"/>
+        <f t="shared" si="66"/>
         <v>30.410000000000004</v>
       </c>
       <c r="O231" s="25">
-        <f t="shared" si="46"/>
+        <f t="shared" si="66"/>
         <v>1.69</v>
       </c>
     </row>
@@ -15401,51 +16800,51 @@
         <v>1</v>
       </c>
       <c r="D232" s="29">
-        <f t="shared" ref="D232:O232" si="47">AVERAGEIF($A$24:$A$149, "GenProg*Repaired", C$24:C$149)</f>
+        <f t="shared" ref="D232:O232" si="67">AVERAGEIF($A$24:$A$149, "GenProg*Repaired", C$24:C$149)</f>
         <v>73.486000000000004</v>
       </c>
       <c r="E232" s="29">
-        <f t="shared" si="47"/>
+        <f t="shared" si="67"/>
         <v>11.2</v>
       </c>
       <c r="F232" s="29">
-        <f t="shared" si="47"/>
+        <f t="shared" si="67"/>
         <v>10.370000000000001</v>
       </c>
       <c r="G232" s="29">
-        <f t="shared" si="47"/>
+        <f t="shared" si="67"/>
         <v>7.202</v>
       </c>
       <c r="H232" s="29">
-        <f t="shared" si="47"/>
+        <f t="shared" si="67"/>
         <v>2.2280000000000002</v>
       </c>
       <c r="I232" s="29">
-        <f t="shared" si="47"/>
+        <f t="shared" si="67"/>
         <v>12.6</v>
       </c>
       <c r="J232" s="29">
-        <f t="shared" si="47"/>
+        <f t="shared" si="67"/>
         <v>18.398000000000003</v>
       </c>
       <c r="K232" s="29">
-        <f t="shared" si="47"/>
+        <f t="shared" si="67"/>
         <v>56.54</v>
       </c>
       <c r="L232" s="29">
-        <f t="shared" si="47"/>
+        <f t="shared" si="67"/>
         <v>1.9440000000000002</v>
       </c>
       <c r="M232" s="29">
-        <f t="shared" si="47"/>
+        <f t="shared" si="67"/>
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="N232" s="29">
-        <f t="shared" si="47"/>
+        <f t="shared" si="67"/>
         <v>36.606000000000002</v>
       </c>
       <c r="O232" s="29">
-        <f t="shared" si="47"/>
+        <f t="shared" si="67"/>
         <v>2.0339999999999998</v>
       </c>
     </row>
@@ -15462,51 +16861,51 @@
         <v>3.0960000000000001</v>
       </c>
       <c r="D233" s="25">
-        <f t="shared" ref="D233:O233" si="48">AVERAGEIF($A$24:$A$149, "Kali*Fixed", C$24:C$149)</f>
+        <f t="shared" ref="D233:O233" si="68">AVERAGEIF($A$24:$A$149, "Kali*Fixed", C$24:C$149)</f>
         <v>78.08</v>
       </c>
       <c r="E233" s="25">
-        <f t="shared" si="48"/>
+        <f t="shared" si="68"/>
         <v>12.318000000000001</v>
       </c>
       <c r="F233" s="25">
-        <f t="shared" si="48"/>
+        <f t="shared" si="68"/>
         <v>6.5879999999999992</v>
       </c>
       <c r="G233" s="25">
-        <f t="shared" si="48"/>
+        <f t="shared" si="68"/>
         <v>10.571999999999999</v>
       </c>
       <c r="H233" s="25">
-        <f t="shared" si="48"/>
+        <f t="shared" si="68"/>
         <v>2.8659999999999997</v>
       </c>
       <c r="I233" s="25">
-        <f t="shared" si="48"/>
+        <f t="shared" si="68"/>
         <v>9.4559999999999995</v>
       </c>
       <c r="J233" s="25">
-        <f t="shared" si="48"/>
+        <f t="shared" si="68"/>
         <v>22.89</v>
       </c>
       <c r="K233" s="25">
-        <f t="shared" si="48"/>
+        <f t="shared" si="68"/>
         <v>43.652000000000001</v>
       </c>
       <c r="L233" s="25">
-        <f t="shared" si="48"/>
+        <f t="shared" si="68"/>
         <v>0.51400000000000001</v>
       </c>
       <c r="M233" s="25">
-        <f t="shared" si="48"/>
+        <f t="shared" si="68"/>
         <v>1.3000000000000001E-2</v>
       </c>
       <c r="N233" s="25">
-        <f t="shared" si="48"/>
+        <f t="shared" si="68"/>
         <v>8.7140000000000004</v>
       </c>
       <c r="O233" s="25">
-        <f t="shared" si="48"/>
+        <f t="shared" si="68"/>
         <v>0.48399999999999999</v>
       </c>
     </row>
@@ -15523,51 +16922,51 @@
         <v>3.1340000000000003</v>
       </c>
       <c r="D234" s="29">
-        <f t="shared" ref="D234:O234" si="49">AVERAGEIF($A$24:$A$149, "Kali*Repaired", C$24:C$149)</f>
+        <f t="shared" ref="D234:O234" si="69">AVERAGEIF($A$24:$A$149, "Kali*Repaired", C$24:C$149)</f>
         <v>75.86</v>
       </c>
       <c r="E234" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>11.92</v>
       </c>
       <c r="F234" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>6.7359999999999998</v>
       </c>
       <c r="G234" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>10.24</v>
       </c>
       <c r="H234" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>3.0939999999999999</v>
       </c>
       <c r="I234" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>9.831999999999999</v>
       </c>
       <c r="J234" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>22.16</v>
       </c>
       <c r="K234" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>44.432000000000002</v>
       </c>
       <c r="L234" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>0.90800000000000003</v>
       </c>
       <c r="M234" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>0.11112000000000002</v>
       </c>
       <c r="N234" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>17.521999999999998</v>
       </c>
       <c r="O234" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="69"/>
         <v>0.97399999999999998</v>
       </c>
     </row>
@@ -15584,51 +16983,51 @@
         <v>1.49</v>
       </c>
       <c r="D235" s="25">
-        <f t="shared" ref="D235:O235" si="50">AVERAGEIF($A$24:$A$149, "Nopol*Fixed", C$24:C$149)</f>
+        <f t="shared" ref="D235:O235" si="70">AVERAGEIF($A$24:$A$149, "Nopol*Fixed", C$24:C$149)</f>
         <v>89.41</v>
       </c>
       <c r="E235" s="25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="70"/>
         <v>5.92</v>
       </c>
       <c r="F235" s="25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="70"/>
         <v>3.31</v>
       </c>
       <c r="G235" s="25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="70"/>
         <v>3.69</v>
       </c>
       <c r="H235" s="25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="70"/>
         <v>1.92</v>
       </c>
       <c r="I235" s="25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="70"/>
         <v>5.23</v>
       </c>
       <c r="J235" s="25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="70"/>
         <v>9.6199999999999992</v>
       </c>
       <c r="K235" s="25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="70"/>
         <v>19.39</v>
       </c>
       <c r="L235" s="25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="70"/>
         <v>0.22</v>
       </c>
       <c r="M235" s="25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="70"/>
         <v>0.11</v>
       </c>
       <c r="N235" s="25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="70"/>
         <v>2.4700000000000002</v>
       </c>
       <c r="O235" s="25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="70"/>
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -15645,51 +17044,51 @@
         <v>1.53</v>
       </c>
       <c r="D236" s="29">
-        <f t="shared" ref="D236:O236" si="51">AVERAGEIF($A$24:$A$149, "Nopol*Repaired", C$24:C$149)</f>
+        <f t="shared" ref="D236:O236" si="71">AVERAGEIF($A$24:$A$149, "Nopol*Repaired", C$24:C$149)</f>
         <v>89.38</v>
       </c>
       <c r="E236" s="29">
-        <f t="shared" si="51"/>
+        <f t="shared" si="71"/>
         <v>5.95</v>
       </c>
       <c r="F236" s="29">
-        <f t="shared" si="51"/>
+        <f t="shared" si="71"/>
         <v>3.33</v>
       </c>
       <c r="G236" s="29">
-        <f t="shared" si="51"/>
+        <f t="shared" si="71"/>
         <v>3.82</v>
       </c>
       <c r="H236" s="29">
-        <f t="shared" si="51"/>
+        <f t="shared" si="71"/>
         <v>1.95</v>
       </c>
       <c r="I236" s="29">
-        <f t="shared" si="51"/>
+        <f t="shared" si="71"/>
         <v>5.28</v>
       </c>
       <c r="J236" s="29">
-        <f t="shared" si="51"/>
+        <f t="shared" si="71"/>
         <v>9.77</v>
       </c>
       <c r="K236" s="29">
-        <f t="shared" si="51"/>
+        <f t="shared" si="71"/>
         <v>19.79</v>
       </c>
       <c r="L236" s="29">
-        <f t="shared" si="51"/>
+        <f t="shared" si="71"/>
         <v>0.22</v>
       </c>
       <c r="M236" s="29">
-        <f t="shared" si="51"/>
+        <f t="shared" si="71"/>
         <v>0.11</v>
       </c>
       <c r="N236" s="29">
-        <f t="shared" si="51"/>
+        <f t="shared" si="71"/>
         <v>2.4700000000000002</v>
       </c>
       <c r="O236" s="29">
-        <f t="shared" si="51"/>
+        <f t="shared" si="71"/>
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -15706,51 +17105,51 @@
         <v>1</v>
       </c>
       <c r="D237" s="25">
-        <f t="shared" ref="D237:O237" si="52">AVERAGEIF($A$24:$A$149, "RSRepair*Fixed", C$24:C$149)</f>
+        <f t="shared" ref="D237:O237" si="72">AVERAGEIF($A$24:$A$149, "RSRepair*Fixed", C$24:C$149)</f>
         <v>74.569999999999993</v>
       </c>
       <c r="E237" s="25">
-        <f t="shared" si="52"/>
+        <f t="shared" si="72"/>
         <v>11</v>
       </c>
       <c r="F237" s="25">
-        <f t="shared" si="52"/>
+        <f t="shared" si="72"/>
         <v>9.86</v>
       </c>
       <c r="G237" s="25">
-        <f t="shared" si="52"/>
+        <f t="shared" si="72"/>
         <v>6.7099999999999991</v>
       </c>
       <c r="H237" s="25">
-        <f t="shared" si="52"/>
+        <f t="shared" si="72"/>
         <v>2</v>
       </c>
       <c r="I237" s="25">
-        <f t="shared" si="52"/>
+        <f t="shared" si="72"/>
         <v>11.86</v>
       </c>
       <c r="J237" s="25">
-        <f t="shared" si="52"/>
+        <f t="shared" si="72"/>
         <v>17.71</v>
       </c>
       <c r="K237" s="25">
-        <f t="shared" si="52"/>
+        <f t="shared" si="72"/>
         <v>52.8</v>
       </c>
       <c r="L237" s="25">
-        <f t="shared" si="52"/>
+        <f t="shared" si="72"/>
         <v>2</v>
       </c>
       <c r="M237" s="25">
-        <f t="shared" si="52"/>
+        <f t="shared" si="72"/>
         <v>0.05</v>
       </c>
       <c r="N237" s="25">
-        <f t="shared" si="52"/>
+        <f t="shared" si="72"/>
         <v>30.410000000000004</v>
       </c>
       <c r="O237" s="25">
-        <f t="shared" si="52"/>
+        <f t="shared" si="72"/>
         <v>1.69</v>
       </c>
     </row>
@@ -15767,51 +17166,51 @@
         <v>1</v>
       </c>
       <c r="D238" s="29">
-        <f t="shared" ref="D238:O238" si="53">AVERAGEIF($A$24:$A$149, "RSRepair*Repaired", C$24:C$149)</f>
+        <f t="shared" ref="D238:O238" si="73">AVERAGEIF($A$24:$A$149, "RSRepair*Repaired", C$24:C$149)</f>
         <v>74.539999999999992</v>
       </c>
       <c r="E238" s="29">
-        <f t="shared" si="53"/>
+        <f t="shared" si="73"/>
         <v>11.14</v>
       </c>
       <c r="F238" s="29">
-        <f t="shared" si="53"/>
+        <f t="shared" si="73"/>
         <v>10.056000000000001</v>
       </c>
       <c r="G238" s="29">
-        <f t="shared" si="53"/>
+        <f t="shared" si="73"/>
         <v>6.6280000000000001</v>
       </c>
       <c r="H238" s="29">
-        <f t="shared" si="53"/>
+        <f t="shared" si="73"/>
         <v>2.056</v>
       </c>
       <c r="I238" s="29">
-        <f t="shared" si="53"/>
+        <f t="shared" si="73"/>
         <v>12.114000000000001</v>
       </c>
       <c r="J238" s="29">
-        <f t="shared" si="53"/>
+        <f t="shared" si="73"/>
         <v>17.772000000000002</v>
       </c>
       <c r="K238" s="29">
-        <f t="shared" si="53"/>
+        <f t="shared" si="73"/>
         <v>53.898000000000003</v>
       </c>
       <c r="L238" s="29">
-        <f t="shared" si="53"/>
+        <f t="shared" si="73"/>
         <v>1.8579999999999999</v>
       </c>
       <c r="M238" s="29">
-        <f t="shared" si="53"/>
+        <f t="shared" si="73"/>
         <v>5.28E-2</v>
       </c>
       <c r="N238" s="29">
-        <f t="shared" si="53"/>
+        <f t="shared" si="73"/>
         <v>28.931999999999999</v>
       </c>
       <c r="O238" s="29">
-        <f t="shared" si="53"/>
+        <f t="shared" si="73"/>
         <v>1.6079999999999999</v>
       </c>
     </row>
@@ -16059,81 +17458,81 @@
     <sortCondition ref="A25:A150"/>
   </sortState>
   <conditionalFormatting sqref="C165:O165 C171:O171">
-    <cfRule type="cellIs" dxfId="32" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
       <formula>C164</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="33" operator="greaterThan">
       <formula>C164</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C164:O164 C170:O170">
-    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="31" operator="equal">
       <formula>C165</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="32" operator="greaterThan">
       <formula>C165</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P66:P149">
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="29" operator="greaterThan">
       <formula>$P$70</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q66:Q149">
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="28" operator="greaterThan">
       <formula>$P$70</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R66:R149">
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="27" operator="greaterThan">
       <formula>$P$70</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C182:O182 C178:O178 C186:O186 C190:O190">
-    <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
       <formula>C177</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="25" operator="greaterThan">
       <formula>C177</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C177:O177 C181:O181 C185:O185 C189:O189">
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
       <formula>C178</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="26" operator="greaterThan">
       <formula>C178</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C198:O198 C203:O203 C208:O208 C213:O213 C218:O218 C223:O223">
-    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
       <formula>C197</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="21" operator="greaterThan">
       <formula>C197</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C197:O197 C202:O202 C207:O207 C212:O212 C217:O217 C222:O222">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
       <formula>C198</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="22" operator="greaterThan">
       <formula>C198</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C229:O229 C231:O231 C233:O233 C235:O235 C237:O237">
-    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>C230</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="18" operator="greaterThan">
       <formula>C230</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C230:O230 C232:O232 C234:O234 C236:O236 C238:O238">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
       <formula>C229</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="17" operator="greaterThan">
       <formula>C229</formula>
     </cfRule>
   </conditionalFormatting>

--- a/3. Bears_and_Bugs.jar_Metrics/Bears_Complexity_42_Avg.xlsx
+++ b/3. Bears_and_Bugs.jar_Metrics/Bears_Complexity_42_Avg.xlsx
@@ -1422,9 +1422,6 @@
     <t>ML - HE Comm</t>
   </si>
   <si>
-    <t>Multi-Chunk &amp; Multi-Line Common</t>
-  </si>
-  <si>
     <t>Single-Line-Avg-Fixed</t>
   </si>
   <si>
@@ -1444,6 +1441,9 @@
   </si>
   <si>
     <t>Multi-Chunk-High-Edits-Avg-Repaired</t>
+  </si>
+  <si>
+    <t>Chunks &amp; Lines Common</t>
   </si>
 </sst>
 </file>
@@ -2218,7 +2218,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="7">
     <dxf>
       <font>
         <color theme="4" tint="-0.24994659260841701"/>
@@ -2277,187 +2277,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2761,10 +2580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF246"/>
+  <dimension ref="A1:AF250"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J226" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="S184" sqref="S184"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A148" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A159" sqref="A159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
@@ -7748,11 +7567,11 @@
         <v>NO</v>
       </c>
       <c r="W108" t="str">
-        <f>IF(AND(P66&gt;1,P108&gt;1,P66=S66,P108=S108), "YES", "NO")</f>
+        <f t="shared" ref="W108:W149" si="3">IF(AND(P66&gt;1,P108&gt;1,P66=S66,P108=S108), "YES", "NO")</f>
         <v>NO</v>
       </c>
       <c r="X108" t="str">
-        <f>IF(AND(P66&gt;1,P108&gt;1,P66&lt;S66,P108&lt;S108), "YES", "NO")</f>
+        <f t="shared" ref="X108:X149" si="4">IF(AND(P66&gt;1,P108&gt;1,P66&lt;S66,P108&lt;S108), "YES", "NO")</f>
         <v>NO</v>
       </c>
       <c r="Y108" t="str">
@@ -7821,23 +7640,23 @@
         <v>2</v>
       </c>
       <c r="U109" t="str">
-        <f t="shared" ref="U109:U149" si="3">IF(AND($P67=1,$P109=1,$S67=1,$S109=1), "YES", "NO")</f>
+        <f t="shared" ref="U109:U149" si="5">IF(AND($P67=1,$P109=1,$S67=1,$S109=1), "YES", "NO")</f>
         <v>NO</v>
       </c>
       <c r="V109" t="str">
-        <f t="shared" ref="V109:V150" si="4">IF(AND($P67=1,$P109=1,$S67&gt;1,$S109&gt;1), "YES", "NO")</f>
+        <f t="shared" ref="V109:V149" si="6">IF(AND($P67=1,$P109=1,$S67&gt;1,$S109&gt;1), "YES", "NO")</f>
         <v>NO</v>
       </c>
       <c r="W109" t="str">
-        <f>IF(AND(P67&gt;1,P109&gt;1,P67=S67,P109=S109), "YES", "NO")</f>
+        <f t="shared" si="3"/>
         <v>NO</v>
       </c>
       <c r="X109" t="str">
-        <f>IF(AND(P67&gt;1,P109&gt;1,P67&lt;S67,P109&lt;S109), "YES", "NO")</f>
+        <f t="shared" si="4"/>
         <v>NO</v>
       </c>
       <c r="Y109" t="str">
-        <f t="shared" ref="Y109:AA149" si="5">IF(AND($S67&gt;5,$S109&gt;5), "YES", "NO")</f>
+        <f t="shared" ref="Y109:Y149" si="7">IF(AND($S67&gt;5,$S109&gt;5), "YES", "NO")</f>
         <v>NO</v>
       </c>
       <c r="Z109"/>
@@ -7902,23 +7721,23 @@
         <v>1</v>
       </c>
       <c r="U110" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="V110" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W110" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="V110" t="str">
+      <c r="X110" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="W110" t="str">
-        <f>IF(AND(P68&gt;1,P110&gt;1,P68=S68,P110=S110), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="X110" t="str">
-        <f>IF(AND(P68&gt;1,P110&gt;1,P68&lt;S68,P110&lt;S110), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
       <c r="Y110" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>NO</v>
       </c>
       <c r="Z110"/>
@@ -7983,23 +7802,23 @@
         <v>6</v>
       </c>
       <c r="U111" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="V111" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W111" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="V111" t="str">
+      <c r="X111" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="W111" t="str">
-        <f>IF(AND(P69&gt;1,P111&gt;1,P69=S69,P111=S111), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="X111" t="str">
-        <f>IF(AND(P69&gt;1,P111&gt;1,P69&lt;S69,P111&lt;S111), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
       <c r="Y111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>NO</v>
       </c>
       <c r="Z111"/>
@@ -8064,23 +7883,23 @@
         <v>4</v>
       </c>
       <c r="U112" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="V112" t="str">
+        <f t="shared" si="6"/>
+        <v>YES</v>
+      </c>
+      <c r="W112" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="V112" t="str">
+      <c r="X112" t="str">
         <f t="shared" si="4"/>
-        <v>YES</v>
-      </c>
-      <c r="W112" t="str">
-        <f>IF(AND(P70&gt;1,P112&gt;1,P70=S70,P112=S112), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="X112" t="str">
-        <f>IF(AND(P70&gt;1,P112&gt;1,P70&lt;S70,P112&lt;S112), "YES", "NO")</f>
         <v>NO</v>
       </c>
       <c r="Y112" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>NO</v>
       </c>
       <c r="Z112"/>
@@ -8145,23 +7964,23 @@
         <v>4</v>
       </c>
       <c r="U113" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="V113" t="str">
+        <f t="shared" si="6"/>
+        <v>YES</v>
+      </c>
+      <c r="W113" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="V113" t="str">
+      <c r="X113" t="str">
         <f t="shared" si="4"/>
-        <v>YES</v>
-      </c>
-      <c r="W113" t="str">
-        <f>IF(AND(P71&gt;1,P113&gt;1,P71=S71,P113=S113), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="X113" t="str">
-        <f>IF(AND(P71&gt;1,P113&gt;1,P71&lt;S71,P113&lt;S113), "YES", "NO")</f>
         <v>NO</v>
       </c>
       <c r="Y113" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>NO</v>
       </c>
       <c r="Z113"/>
@@ -8226,23 +8045,23 @@
         <v>1</v>
       </c>
       <c r="U114" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="V114" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W114" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="V114" t="str">
+      <c r="X114" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="W114" t="str">
-        <f>IF(AND(P72&gt;1,P114&gt;1,P72=S72,P114=S114), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="X114" t="str">
-        <f>IF(AND(P72&gt;1,P114&gt;1,P72&lt;S72,P114&lt;S114), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
       <c r="Y114" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>NO</v>
       </c>
       <c r="Z114"/>
@@ -8307,23 +8126,23 @@
         <v>1</v>
       </c>
       <c r="U115" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="V115" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W115" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="V115" t="str">
+      <c r="X115" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="W115" t="str">
-        <f>IF(AND(P73&gt;1,P115&gt;1,P73=S73,P115=S115), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="X115" t="str">
-        <f>IF(AND(P73&gt;1,P115&gt;1,P73&lt;S73,P115&lt;S115), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
       <c r="Y115" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>NO</v>
       </c>
       <c r="Z115"/>
@@ -8388,23 +8207,23 @@
         <v>1</v>
       </c>
       <c r="U116" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="V116" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W116" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="V116" t="str">
+      <c r="X116" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="W116" t="str">
-        <f>IF(AND(P74&gt;1,P116&gt;1,P74=S74,P116=S116), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="X116" t="str">
-        <f>IF(AND(P74&gt;1,P116&gt;1,P74&lt;S74,P116&lt;S116), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
       <c r="Y116" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>NO</v>
       </c>
       <c r="Z116"/>
@@ -8469,23 +8288,23 @@
         <v>1</v>
       </c>
       <c r="U117" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="V117" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W117" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="V117" t="str">
+      <c r="X117" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="W117" t="str">
-        <f>IF(AND(P75&gt;1,P117&gt;1,P75=S75,P117=S117), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="X117" t="str">
-        <f>IF(AND(P75&gt;1,P117&gt;1,P75&lt;S75,P117&lt;S117), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
       <c r="Y117" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>NO</v>
       </c>
       <c r="Z117"/>
@@ -8550,23 +8369,23 @@
         <v>1</v>
       </c>
       <c r="U118" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="V118" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W118" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="V118" t="str">
+      <c r="X118" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="W118" t="str">
-        <f>IF(AND(P76&gt;1,P118&gt;1,P76=S76,P118=S118), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="X118" t="str">
-        <f>IF(AND(P76&gt;1,P118&gt;1,P76&lt;S76,P118&lt;S118), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
       <c r="Y118" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>NO</v>
       </c>
       <c r="Z118"/>
@@ -8631,23 +8450,23 @@
         <v>1</v>
       </c>
       <c r="U119" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="V119" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W119" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="V119" t="str">
+      <c r="X119" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="W119" t="str">
-        <f>IF(AND(P77&gt;1,P119&gt;1,P77=S77,P119=S119), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="X119" t="str">
-        <f>IF(AND(P77&gt;1,P119&gt;1,P77&lt;S77,P119&lt;S119), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
       <c r="Y119" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>NO</v>
       </c>
       <c r="Z119"/>
@@ -8696,7 +8515,7 @@
         <v>0</v>
       </c>
       <c r="O120" s="12" t="str">
-        <f t="shared" ref="O120:O149" si="6">IF(NOT(ISERR(SEARCH("*_Buggy",$A120))), "Buggy", IF(NOT(ISERR(SEARCH("*_Fixed",$A120))), "Fixed", IF(NOT(ISERR(SEARCH("*_Repaired",$A120))), "Repaired", "")))</f>
+        <f t="shared" ref="O120:O149" si="8">IF(NOT(ISERR(SEARCH("*_Buggy",$A120))), "Buggy", IF(NOT(ISERR(SEARCH("*_Fixed",$A120))), "Fixed", IF(NOT(ISERR(SEARCH("*_Repaired",$A120))), "Repaired", "")))</f>
         <v>Repaired</v>
       </c>
       <c r="P120" s="12">
@@ -8712,23 +8531,23 @@
         <v>3</v>
       </c>
       <c r="U120" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="V120" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W120" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="V120" t="str">
+      <c r="X120" t="str">
         <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-      <c r="W120" t="str">
-        <f>IF(AND(P78&gt;1,P120&gt;1,P78=S78,P120=S120), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="X120" t="str">
-        <f>IF(AND(P78&gt;1,P120&gt;1,P78&lt;S78,P120&lt;S120), "YES", "NO")</f>
         <v>YES</v>
       </c>
       <c r="Y120" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>NO</v>
       </c>
       <c r="Z120"/>
@@ -8777,7 +8596,7 @@
         <v>0</v>
       </c>
       <c r="O121" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Repaired</v>
       </c>
       <c r="P121" s="12">
@@ -8793,23 +8612,23 @@
         <v>6</v>
       </c>
       <c r="U121" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="V121" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W121" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="V121" t="str">
+      <c r="X121" t="str">
         <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-      <c r="W121" t="str">
-        <f>IF(AND(P79&gt;1,P121&gt;1,P79=S79,P121=S121), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="X121" t="str">
-        <f>IF(AND(P79&gt;1,P121&gt;1,P79&lt;S79,P121&lt;S121), "YES", "NO")</f>
         <v>YES</v>
       </c>
       <c r="Y121" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>YES</v>
       </c>
       <c r="Z121"/>
@@ -8858,7 +8677,7 @@
         <v>0</v>
       </c>
       <c r="O122" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Repaired</v>
       </c>
       <c r="P122" s="12">
@@ -8874,23 +8693,23 @@
         <v>2</v>
       </c>
       <c r="U122" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="V122" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W122" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="V122" t="str">
+      <c r="X122" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="W122" t="str">
-        <f>IF(AND(P80&gt;1,P122&gt;1,P80=S80,P122=S122), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="X122" t="str">
-        <f>IF(AND(P80&gt;1,P122&gt;1,P80&lt;S80,P122&lt;S122), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
       <c r="Y122" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>NO</v>
       </c>
       <c r="Z122"/>
@@ -8939,7 +8758,7 @@
         <v>0</v>
       </c>
       <c r="O123" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Repaired</v>
       </c>
       <c r="P123" s="12">
@@ -8955,23 +8774,23 @@
         <v>5</v>
       </c>
       <c r="U123" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="V123" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W123" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="V123" t="str">
+      <c r="X123" t="str">
         <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-      <c r="W123" t="str">
-        <f>IF(AND(P81&gt;1,P123&gt;1,P81=S81,P123=S123), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="X123" t="str">
-        <f>IF(AND(P81&gt;1,P123&gt;1,P81&lt;S81,P123&lt;S123), "YES", "NO")</f>
         <v>YES</v>
       </c>
       <c r="Y123" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>NO</v>
       </c>
       <c r="Z123"/>
@@ -9020,7 +8839,7 @@
         <v>1.69</v>
       </c>
       <c r="O124" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Repaired</v>
       </c>
       <c r="P124" s="12">
@@ -9036,23 +8855,23 @@
         <v>3</v>
       </c>
       <c r="U124" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="V124" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W124" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="V124" t="str">
+      <c r="X124" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="W124" t="str">
-        <f>IF(AND(P82&gt;1,P124&gt;1,P82=S82,P124=S124), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="X124" t="str">
-        <f>IF(AND(P82&gt;1,P124&gt;1,P82&lt;S82,P124&lt;S124), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
       <c r="Y124" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>NO</v>
       </c>
       <c r="Z124"/>
@@ -9101,7 +8920,7 @@
         <v>2.4</v>
       </c>
       <c r="O125" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Repaired</v>
       </c>
       <c r="P125" s="12">
@@ -9117,23 +8936,23 @@
         <v>4</v>
       </c>
       <c r="U125" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="V125" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W125" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="V125" t="str">
+      <c r="X125" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="W125" t="str">
-        <f>IF(AND(P83&gt;1,P125&gt;1,P83=S83,P125=S125), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="X125" t="str">
-        <f>IF(AND(P83&gt;1,P125&gt;1,P83&lt;S83,P125&lt;S125), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
       <c r="Y125" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>NO</v>
       </c>
       <c r="Z125"/>
@@ -9182,7 +9001,7 @@
         <v>1.6</v>
       </c>
       <c r="O126" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Repaired</v>
       </c>
       <c r="P126" s="12">
@@ -9198,23 +9017,23 @@
         <v>3</v>
       </c>
       <c r="U126" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="V126" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W126" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="V126" t="str">
+      <c r="X126" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="W126" t="str">
-        <f>IF(AND(P84&gt;1,P126&gt;1,P84=S84,P126=S126), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="X126" t="str">
-        <f>IF(AND(P84&gt;1,P126&gt;1,P84&lt;S84,P126&lt;S126), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
       <c r="Y126" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>NO</v>
       </c>
       <c r="Z126"/>
@@ -9263,7 +9082,7 @@
         <v>1.69</v>
       </c>
       <c r="O127" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Repaired</v>
       </c>
       <c r="P127" s="12">
@@ -9279,23 +9098,23 @@
         <v>3</v>
       </c>
       <c r="U127" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="V127" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W127" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="V127" t="str">
+      <c r="X127" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="W127" t="str">
-        <f>IF(AND(P85&gt;1,P127&gt;1,P85=S85,P127=S127), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="X127" t="str">
-        <f>IF(AND(P85&gt;1,P127&gt;1,P85&lt;S85,P127&lt;S127), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
       <c r="Y127" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>NO</v>
       </c>
       <c r="Z127"/>
@@ -9344,7 +9163,7 @@
         <v>2.83</v>
       </c>
       <c r="O128" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Repaired</v>
       </c>
       <c r="P128" s="12">
@@ -9360,23 +9179,23 @@
         <v>6</v>
       </c>
       <c r="U128" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="V128" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W128" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="V128" t="str">
+      <c r="X128" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="W128" t="str">
-        <f>IF(AND(P86&gt;1,P128&gt;1,P86=S86,P128=S128), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="X128" t="str">
-        <f>IF(AND(P86&gt;1,P128&gt;1,P86&lt;S86,P128&lt;S128), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
       <c r="Y128" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>NO</v>
       </c>
       <c r="Z128"/>
@@ -9425,7 +9244,7 @@
         <v>0</v>
       </c>
       <c r="O129" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Repaired</v>
       </c>
       <c r="P129" s="12">
@@ -9441,23 +9260,23 @@
         <v>12</v>
       </c>
       <c r="U129" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="V129" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W129" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="V129" t="str">
+      <c r="X129" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="W129" t="str">
-        <f>IF(AND(P87&gt;1,P129&gt;1,P87=S87,P129=S129), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="X129" t="str">
-        <f>IF(AND(P87&gt;1,P129&gt;1,P87&lt;S87,P129&lt;S129), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
       <c r="Y129" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>NO</v>
       </c>
       <c r="Z129"/>
@@ -9506,7 +9325,7 @@
         <v>0</v>
       </c>
       <c r="O130" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Repaired</v>
       </c>
       <c r="P130" s="12">
@@ -9522,23 +9341,23 @@
         <v>12</v>
       </c>
       <c r="U130" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="V130" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W130" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="V130" t="str">
+      <c r="X130" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="W130" t="str">
-        <f>IF(AND(P88&gt;1,P130&gt;1,P88=S88,P130=S130), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="X130" t="str">
-        <f>IF(AND(P88&gt;1,P130&gt;1,P88&lt;S88,P130&lt;S130), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
       <c r="Y130" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>NO</v>
       </c>
       <c r="Z130"/>
@@ -9587,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="O131" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Repaired</v>
       </c>
       <c r="P131" s="12">
@@ -9603,23 +9422,23 @@
         <v>12</v>
       </c>
       <c r="U131" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="V131" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W131" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="V131" t="str">
+      <c r="X131" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="W131" t="str">
-        <f>IF(AND(P89&gt;1,P131&gt;1,P89=S89,P131=S131), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="X131" t="str">
-        <f>IF(AND(P89&gt;1,P131&gt;1,P89&lt;S89,P131&lt;S131), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
       <c r="Y131" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>NO</v>
       </c>
       <c r="Z131"/>
@@ -9668,7 +9487,7 @@
         <v>0</v>
       </c>
       <c r="O132" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Repaired</v>
       </c>
       <c r="P132" s="12">
@@ -9684,23 +9503,23 @@
         <v>12</v>
       </c>
       <c r="U132" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="V132" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W132" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="V132" t="str">
+      <c r="X132" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="W132" t="str">
-        <f>IF(AND(P90&gt;1,P132&gt;1,P90=S90,P132=S132), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="X132" t="str">
-        <f>IF(AND(P90&gt;1,P132&gt;1,P90&lt;S90,P132&lt;S132), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
       <c r="Y132" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>NO</v>
       </c>
       <c r="Z132"/>
@@ -9749,7 +9568,7 @@
         <v>0</v>
       </c>
       <c r="O133" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Repaired</v>
       </c>
       <c r="P133" s="12">
@@ -9765,23 +9584,23 @@
         <v>12</v>
       </c>
       <c r="U133" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="V133" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W133" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="V133" t="str">
+      <c r="X133" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="W133" t="str">
-        <f>IF(AND(P91&gt;1,P133&gt;1,P91=S91,P133=S133), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="X133" t="str">
-        <f>IF(AND(P91&gt;1,P133&gt;1,P91&lt;S91,P133&lt;S133), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
       <c r="Y133" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>NO</v>
       </c>
       <c r="Z133"/>
@@ -9830,7 +9649,7 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="O134" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Repaired</v>
       </c>
       <c r="P134" s="12">
@@ -9846,23 +9665,23 @@
         <v>16</v>
       </c>
       <c r="U134" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="V134" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W134" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="V134" t="str">
+      <c r="X134" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="W134" t="str">
-        <f>IF(AND(P92&gt;1,P134&gt;1,P92=S92,P134=S134), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="X134" t="str">
-        <f>IF(AND(P92&gt;1,P134&gt;1,P92&lt;S92,P134&lt;S134), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
       <c r="Y134" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>NO</v>
       </c>
       <c r="Z134"/>
@@ -9911,7 +9730,7 @@
         <v>1.39</v>
       </c>
       <c r="O135" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Repaired</v>
       </c>
       <c r="P135" s="12">
@@ -9927,23 +9746,23 @@
         <v>39</v>
       </c>
       <c r="U135" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="V135" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W135" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="V135" t="str">
+      <c r="X135" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="W135" t="str">
-        <f>IF(AND(P93&gt;1,P135&gt;1,P93=S93,P135=S135), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="X135" t="str">
-        <f>IF(AND(P93&gt;1,P135&gt;1,P93&lt;S93,P135&lt;S135), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
       <c r="Y135" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>NO</v>
       </c>
       <c r="Z135"/>
@@ -9992,7 +9811,7 @@
         <v>2.16</v>
       </c>
       <c r="O136" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Repaired</v>
       </c>
       <c r="P136" s="12">
@@ -10008,23 +9827,23 @@
         <v>13</v>
       </c>
       <c r="U136" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="V136" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W136" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="V136" t="str">
+      <c r="X136" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="W136" t="str">
-        <f>IF(AND(P94&gt;1,P136&gt;1,P94=S94,P136=S136), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="X136" t="str">
-        <f>IF(AND(P94&gt;1,P136&gt;1,P94&lt;S94,P136&lt;S136), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
       <c r="Y136" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>NO</v>
       </c>
       <c r="Z136"/>
@@ -10073,7 +9892,7 @@
         <v>0.79</v>
       </c>
       <c r="O137" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Repaired</v>
       </c>
       <c r="P137" s="12">
@@ -10089,23 +9908,23 @@
         <v>9</v>
       </c>
       <c r="U137" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="V137" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W137" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="V137" t="str">
+      <c r="X137" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="W137" t="str">
-        <f>IF(AND(P95&gt;1,P137&gt;1,P95=S95,P137=S137), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="X137" t="str">
-        <f>IF(AND(P95&gt;1,P137&gt;1,P95&lt;S95,P137&lt;S137), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
       <c r="Y137" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>NO</v>
       </c>
       <c r="Z137"/>
@@ -10154,7 +9973,7 @@
         <v>3.38</v>
       </c>
       <c r="O138" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Repaired</v>
       </c>
       <c r="P138" s="12">
@@ -10170,23 +9989,23 @@
         <v>20</v>
       </c>
       <c r="U138" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="V138" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W138" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="V138" t="str">
+      <c r="X138" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="W138" t="str">
-        <f>IF(AND(P96&gt;1,P138&gt;1,P96=S96,P138=S138), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="X138" t="str">
-        <f>IF(AND(P96&gt;1,P138&gt;1,P96&lt;S96,P138&lt;S138), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
       <c r="Y138" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>NO</v>
       </c>
       <c r="Z138"/>
@@ -10235,39 +10054,39 @@
         <v>0.71</v>
       </c>
       <c r="O139" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>Repaired</v>
+      </c>
+      <c r="P139" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q139" s="12">
+        <v>1</v>
+      </c>
+      <c r="R139" s="12">
+        <v>1</v>
+      </c>
+      <c r="S139" s="6">
+        <v>1</v>
+      </c>
+      <c r="U139" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="V139" t="str">
         <f t="shared" si="6"/>
-        <v>Repaired</v>
-      </c>
-      <c r="P139" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q139" s="12">
-        <v>1</v>
-      </c>
-      <c r="R139" s="12">
-        <v>1</v>
-      </c>
-      <c r="S139" s="6">
-        <v>1</v>
-      </c>
-      <c r="U139" t="str">
+        <v>NO</v>
+      </c>
+      <c r="W139" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="V139" t="str">
+      <c r="X139" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="W139" t="str">
-        <f>IF(AND(P97&gt;1,P139&gt;1,P97=S97,P139=S139), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="X139" t="str">
-        <f>IF(AND(P97&gt;1,P139&gt;1,P97&lt;S97,P139&lt;S139), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
       <c r="Y139" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>NO</v>
       </c>
       <c r="Z139"/>
@@ -10316,39 +10135,39 @@
         <v>0</v>
       </c>
       <c r="O140" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>Repaired</v>
+      </c>
+      <c r="P140" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q140" s="12">
+        <v>1</v>
+      </c>
+      <c r="R140" s="12">
+        <v>1</v>
+      </c>
+      <c r="S140" s="6">
+        <v>1</v>
+      </c>
+      <c r="U140" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="V140" t="str">
         <f t="shared" si="6"/>
-        <v>Repaired</v>
-      </c>
-      <c r="P140" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q140" s="12">
-        <v>1</v>
-      </c>
-      <c r="R140" s="12">
-        <v>1</v>
-      </c>
-      <c r="S140" s="6">
-        <v>1</v>
-      </c>
-      <c r="U140" t="str">
+        <v>NO</v>
+      </c>
+      <c r="W140" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="V140" t="str">
+      <c r="X140" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="W140" t="str">
-        <f>IF(AND(P98&gt;1,P140&gt;1,P98=S98,P140=S140), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="X140" t="str">
-        <f>IF(AND(P98&gt;1,P140&gt;1,P98&lt;S98,P140&lt;S140), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
       <c r="Y140" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>NO</v>
       </c>
       <c r="Z140"/>
@@ -10397,7 +10216,7 @@
         <v>2.4700000000000002</v>
       </c>
       <c r="O141" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Repaired</v>
       </c>
       <c r="P141" s="12">
@@ -10413,23 +10232,23 @@
         <v>2</v>
       </c>
       <c r="U141" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="V141" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W141" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="V141" t="str">
+      <c r="X141" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="W141" t="str">
-        <f>IF(AND(P99&gt;1,P141&gt;1,P99=S99,P141=S141), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="X141" t="str">
-        <f>IF(AND(P99&gt;1,P141&gt;1,P99&lt;S99,P141&lt;S141), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
       <c r="Y141" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>NO</v>
       </c>
       <c r="Z141"/>
@@ -10478,7 +10297,7 @@
         <v>1.69</v>
       </c>
       <c r="O142" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Repaired</v>
       </c>
       <c r="P142" s="12">
@@ -10494,23 +10313,23 @@
         <v>3</v>
       </c>
       <c r="U142" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="V142" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W142" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="V142" t="str">
+      <c r="X142" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="W142" t="str">
-        <f>IF(AND(P100&gt;1,P142&gt;1,P100=S100,P142=S142), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="X142" t="str">
-        <f>IF(AND(P100&gt;1,P142&gt;1,P100&lt;S100,P142&lt;S142), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
       <c r="Y142" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>NO</v>
       </c>
       <c r="Z142"/>
@@ -10559,7 +10378,7 @@
         <v>0</v>
       </c>
       <c r="O143" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Repaired</v>
       </c>
       <c r="P143" s="12">
@@ -10575,23 +10394,23 @@
         <v>2</v>
       </c>
       <c r="U143" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="V143" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W143" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="V143" t="str">
+      <c r="X143" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="W143" t="str">
-        <f>IF(AND(P101&gt;1,P143&gt;1,P101=S101,P143=S143), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="X143" t="str">
-        <f>IF(AND(P101&gt;1,P143&gt;1,P101&lt;S101,P143&lt;S143), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
       <c r="Y143" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>NO</v>
       </c>
       <c r="Z143"/>
@@ -10640,7 +10459,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="O144" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Repaired</v>
       </c>
       <c r="P144" s="12">
@@ -10656,23 +10475,23 @@
         <v>4</v>
       </c>
       <c r="U144" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="V144" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W144" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="V144" t="str">
+      <c r="X144" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="W144" t="str">
-        <f>IF(AND(P102&gt;1,P144&gt;1,P102=S102,P144=S144), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="X144" t="str">
-        <f>IF(AND(P102&gt;1,P144&gt;1,P102&lt;S102,P144&lt;S144), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
       <c r="Y144" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>NO</v>
       </c>
       <c r="Z144"/>
@@ -10721,7 +10540,7 @@
         <v>1.69</v>
       </c>
       <c r="O145" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Repaired</v>
       </c>
       <c r="P145" s="12">
@@ -10737,23 +10556,23 @@
         <v>3</v>
       </c>
       <c r="U145" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="V145" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W145" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="V145" t="str">
+      <c r="X145" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="W145" t="str">
-        <f>IF(AND(P103&gt;1,P145&gt;1,P103=S103,P145=S145), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="X145" t="str">
-        <f>IF(AND(P103&gt;1,P145&gt;1,P103&lt;S103,P145&lt;S145), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
       <c r="Y145" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>NO</v>
       </c>
       <c r="Z145"/>
@@ -10802,7 +10621,7 @@
         <v>1.69</v>
       </c>
       <c r="O146" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Repaired</v>
       </c>
       <c r="P146" s="12">
@@ -10818,23 +10637,23 @@
         <v>3</v>
       </c>
       <c r="U146" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="V146" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W146" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="V146" t="str">
+      <c r="X146" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="W146" t="str">
-        <f>IF(AND(P104&gt;1,P146&gt;1,P104=S104,P146=S146), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="X146" t="str">
-        <f>IF(AND(P104&gt;1,P146&gt;1,P104&lt;S104,P146&lt;S146), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
       <c r="Y146" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>NO</v>
       </c>
       <c r="Z146"/>
@@ -10883,7 +10702,7 @@
         <v>1.69</v>
       </c>
       <c r="O147" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Repaired</v>
       </c>
       <c r="P147" s="12">
@@ -10899,23 +10718,23 @@
         <v>3</v>
       </c>
       <c r="U147" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="V147" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W147" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="V147" t="str">
+      <c r="X147" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="W147" t="str">
-        <f>IF(AND(P105&gt;1,P147&gt;1,P105=S105,P147=S147), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="X147" t="str">
-        <f>IF(AND(P105&gt;1,P147&gt;1,P105&lt;S105,P147&lt;S147), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
       <c r="Y147" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>NO</v>
       </c>
       <c r="Z147"/>
@@ -10964,7 +10783,7 @@
         <v>1.69</v>
       </c>
       <c r="O148" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Repaired</v>
       </c>
       <c r="P148" s="12">
@@ -10980,23 +10799,23 @@
         <v>5</v>
       </c>
       <c r="U148" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="V148" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W148" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="V148" t="str">
+      <c r="X148" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="W148" t="str">
-        <f>IF(AND(P106&gt;1,P148&gt;1,P106=S106,P148=S148), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="X148" t="str">
-        <f>IF(AND(P106&gt;1,P148&gt;1,P106&lt;S106,P148&lt;S148), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
       <c r="Y148" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>NO</v>
       </c>
       <c r="Z148"/>
@@ -11045,7 +10864,7 @@
         <v>1.28</v>
       </c>
       <c r="O149" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Repaired</v>
       </c>
       <c r="P149" s="12">
@@ -11061,23 +10880,23 @@
         <v>2</v>
       </c>
       <c r="U149" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="V149" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="W149" s="34" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="V149" t="str">
+      <c r="X149" s="34" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="W149" s="34" t="str">
-        <f>IF(AND(P107&gt;1,P149&gt;1,P107=S107,P149=S149), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="X149" s="34" t="str">
-        <f>IF(AND(P107&gt;1,P149&gt;1,P107&lt;S107,P149&lt;S149), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
       <c r="Y149" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>NO</v>
       </c>
       <c r="Z149"/>
@@ -11166,51 +10985,51 @@
         <v>276.41999999999996</v>
       </c>
       <c r="C151" s="30">
-        <f t="shared" ref="C151:N151" si="7">SUM(C24:C149)</f>
+        <f t="shared" ref="C151:N151" si="9">SUM(C24:C149)</f>
         <v>9906.2599999999929</v>
       </c>
       <c r="D151" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1378.93</v>
       </c>
       <c r="E151" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>907.77000000000044</v>
       </c>
       <c r="F151" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1059.2000000000003</v>
       </c>
       <c r="G151" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>313.62999999999994</v>
       </c>
       <c r="H151" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1221.420000000001</v>
       </c>
       <c r="I151" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2438.2200000000003</v>
       </c>
       <c r="J151" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5431.3700000000026</v>
       </c>
       <c r="K151" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>109.44000000000003</v>
       </c>
       <c r="L151" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.7965999999999962</v>
       </c>
       <c r="M151" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1884.7400000000007</v>
       </c>
       <c r="N151" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>104.78599999999993</v>
       </c>
       <c r="O151" s="10"/>
@@ -11224,51 +11043,51 @@
         <v>2.1938095238095237</v>
       </c>
       <c r="C152" s="31">
-        <f t="shared" ref="C152:N152" si="8">AVERAGE(C24:C149)</f>
+        <f t="shared" ref="C152:N152" si="10">AVERAGE(C24:C149)</f>
         <v>78.621111111111048</v>
       </c>
       <c r="D152" s="31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10.943888888888889</v>
       </c>
       <c r="E152" s="31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7.2045238095238133</v>
       </c>
       <c r="F152" s="31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8.4063492063492085</v>
       </c>
       <c r="G152" s="31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.4891269841269836</v>
       </c>
       <c r="H152" s="31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9.6938095238095308</v>
       </c>
       <c r="I152" s="31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>19.350952380952382</v>
       </c>
       <c r="J152" s="31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>43.106111111111133</v>
       </c>
       <c r="K152" s="31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.86857142857142877</v>
       </c>
       <c r="L152" s="31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.3941269841269811E-2</v>
       </c>
       <c r="M152" s="31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>14.958253968253974</v>
       </c>
       <c r="N152" s="31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.83163492063492006</v>
       </c>
       <c r="O152" s="10"/>
@@ -11282,51 +11101,51 @@
         <v>1</v>
       </c>
       <c r="C153" s="30">
-        <f t="shared" ref="C153:N153" si="9">MIN(C24:C149)</f>
+        <f t="shared" ref="C153:N153" si="11">MIN(C24:C149)</f>
         <v>68.5</v>
       </c>
       <c r="D153" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.67</v>
       </c>
       <c r="E153" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.17</v>
       </c>
       <c r="F153" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G153" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H153" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="I153" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="J153" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6.34</v>
       </c>
       <c r="K153" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L153" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M153" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N153" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O153" s="10"/>
@@ -11340,51 +11159,51 @@
         <v>5.88</v>
       </c>
       <c r="C154" s="31">
-        <f t="shared" ref="C154:N154" si="10">MAX(C24:C149)</f>
+        <f t="shared" ref="C154:N154" si="12">MAX(C24:C149)</f>
         <v>100</v>
       </c>
       <c r="D154" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>22.5</v>
       </c>
       <c r="E154" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>10.71</v>
       </c>
       <c r="F154" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>22</v>
       </c>
       <c r="G154" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4.63</v>
       </c>
       <c r="H154" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>12.86</v>
       </c>
       <c r="I154" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>44.5</v>
       </c>
       <c r="J154" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>67.08</v>
       </c>
       <c r="K154" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.14</v>
       </c>
       <c r="L154" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
       <c r="M154" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>60.82</v>
       </c>
       <c r="N154" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.38</v>
       </c>
       <c r="O154" s="10"/>
@@ -11398,51 +11217,51 @@
         <v>1.6743924783122304</v>
       </c>
       <c r="C155" s="30">
-        <f t="shared" ref="C155:N155" si="11">_xlfn.STDEV.S(C24:C149)</f>
+        <f t="shared" ref="C155:N155" si="13">_xlfn.STDEV.S(C24:C149)</f>
         <v>8.403984599912345</v>
       </c>
       <c r="D155" s="30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5.4370625852159886</v>
       </c>
       <c r="E155" s="30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.5467597003699698</v>
       </c>
       <c r="F155" s="30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5.9789503564655355</v>
       </c>
       <c r="G155" s="30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.2243045502431305</v>
       </c>
       <c r="H155" s="30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3.042608317123396</v>
       </c>
       <c r="I155" s="30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>11.341977988239703</v>
       </c>
       <c r="J155" s="30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>18.678845573416833</v>
       </c>
       <c r="K155" s="30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.93866519209840837</v>
       </c>
       <c r="L155" s="30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>7.9573117339806404E-2</v>
       </c>
       <c r="M155" s="30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>15.708798863279913</v>
       </c>
       <c r="N155" s="30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.87321025741272273</v>
       </c>
       <c r="O155" s="10"/>
@@ -11456,51 +11275,51 @@
         <v>2.8035901714285729</v>
       </c>
       <c r="C156" s="31">
-        <f t="shared" ref="C156:N156" si="12">_xlfn.VAR.S(C24:C149)</f>
+        <f t="shared" ref="C156:N156" si="14">_xlfn.VAR.S(C24:C149)</f>
         <v>70.626957155563872</v>
       </c>
       <c r="D156" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>29.561649555555572</v>
       </c>
       <c r="E156" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.4859849714285378</v>
       </c>
       <c r="F156" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>35.747847365079359</v>
       </c>
       <c r="G156" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.4989216317460341</v>
       </c>
       <c r="H156" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>9.2574653714284647</v>
       </c>
       <c r="I156" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>128.64046468571394</v>
       </c>
       <c r="J156" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>348.89927195555367</v>
       </c>
       <c r="K156" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.881092342857142</v>
       </c>
       <c r="L156" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.3318810031745979E-3</v>
       </c>
       <c r="M156" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>246.76636172698431</v>
       </c>
       <c r="N156" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.7624961536507936</v>
       </c>
       <c r="O156" s="10"/>
@@ -11577,55 +11396,55 @@
         <v>156</v>
       </c>
       <c r="C163" s="14">
-        <f t="shared" ref="C163:O163" si="13" xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Buggy",B$24:B$149)</f>
+        <f t="shared" ref="C163:O163" si="15" xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Buggy",B$24:B$149)</f>
         <v>2.2026190476190473</v>
       </c>
       <c r="D163" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>78.397142857142882</v>
       </c>
       <c r="E163" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>11.101190476190476</v>
       </c>
       <c r="F163" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>7.1707142857142898</v>
       </c>
       <c r="G163" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>8.627380952380955</v>
       </c>
       <c r="H163" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.5138095238095235</v>
       </c>
       <c r="I163" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.6845238095238155</v>
       </c>
       <c r="J163" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>19.731190476190481</v>
       </c>
       <c r="K163" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>43.330952380952354</v>
       </c>
       <c r="L163" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.86357142857142843</v>
       </c>
       <c r="M163" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4.761904761904763E-2</v>
       </c>
       <c r="N163" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>14.291904761904764</v>
       </c>
       <c r="O163" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.79480952380952397</v>
       </c>
     </row>
@@ -11638,55 +11457,55 @@
         <v>157</v>
       </c>
       <c r="C164" s="14">
-        <f t="shared" ref="C164:O164" si="14" xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Fixed",B$24:B$149)</f>
+        <f t="shared" ref="C164:O164" si="16" xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Fixed",B$24:B$149)</f>
         <v>2.2321428571428572</v>
       </c>
       <c r="D164" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>78.414047619047636</v>
       </c>
       <c r="E164" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>11.115</v>
       </c>
       <c r="F164" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>7.1685714285714326</v>
       </c>
       <c r="G164" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>8.6342857142857099</v>
       </c>
       <c r="H164" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2.5192857142857141</v>
       </c>
       <c r="I164" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>9.6876190476190533</v>
       </c>
       <c r="J164" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>19.749047619047627</v>
       </c>
       <c r="K164" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>43.343333333333327</v>
       </c>
       <c r="L164" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.86309523809523814</v>
       </c>
       <c r="M164" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>4.761904761904763E-2</v>
       </c>
       <c r="N164" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>14.280000000000003</v>
       </c>
       <c r="O164" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.79385714285714304</v>
       </c>
     </row>
@@ -11699,61 +11518,61 @@
         <v>158</v>
       </c>
       <c r="C165" s="14">
-        <f t="shared" ref="C165:O165" si="15" xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Repaired",B$24:B$149)</f>
+        <f t="shared" ref="C165:O165" si="17" xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Repaired",B$24:B$149)</f>
         <v>2.1466666666666669</v>
       </c>
       <c r="D165" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>79.052142857142854</v>
       </c>
       <c r="E165" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>10.615476190476189</v>
       </c>
       <c r="F165" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7.274285714285714</v>
       </c>
       <c r="G165" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7.9573809523809516</v>
       </c>
       <c r="H165" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.4342857142857151</v>
       </c>
       <c r="I165" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.7092857142857127</v>
       </c>
       <c r="J165" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>18.572619047619046</v>
       </c>
       <c r="K165" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>42.644047619047626</v>
       </c>
       <c r="L165" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.87904761904761897</v>
       </c>
       <c r="M165" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>6.6585714285714276E-2</v>
       </c>
       <c r="N165" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>16.302857142857142</v>
       </c>
       <c r="O165" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.90623809523809518</v>
       </c>
     </row>
     <row r="168" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A168" s="23" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="B168" s="24"/>
       <c r="C168" s="24"/>
@@ -11770,7 +11589,7 @@
       <c r="N168" s="24"/>
       <c r="O168" s="24"/>
       <c r="R168" s="36" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="S168" s="36"/>
       <c r="T168" s="36"/>
@@ -11886,51 +11705,51 @@
         <v>4.2279999999999998</v>
       </c>
       <c r="D171" s="25">
-        <f t="shared" ref="D171:O171" si="16">AVERAGEIFS(C$66:C$107, $P$66:$P$107, "=1", $P$108:$P$149, "=1")</f>
+        <f t="shared" ref="D171:O171" si="18">AVERAGEIFS(C$66:C$107, $P$66:$P$107, "=1", $P$108:$P$149, "=1")</f>
         <v>75.155999999999992</v>
       </c>
       <c r="E171" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>15.967000000000002</v>
       </c>
       <c r="F171" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>6.4590000000000005</v>
       </c>
       <c r="G171" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>14.870999999999999</v>
       </c>
       <c r="H171" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3.2610000000000001</v>
       </c>
       <c r="I171" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>9.7200000000000006</v>
       </c>
       <c r="J171" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>30.838000000000001</v>
       </c>
       <c r="K171" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>49.914000000000001</v>
       </c>
       <c r="L171" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.23399999999999999</v>
       </c>
       <c r="M171" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3.9E-2</v>
       </c>
       <c r="N171" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3.2409999999999997</v>
       </c>
       <c r="O171" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.1802</v>
       </c>
       <c r="R171" s="1">
@@ -11941,55 +11760,55 @@
         <v>212</v>
       </c>
       <c r="T171" s="25" t="e">
-        <f>AVERAGEIFS(B$66:B$107, $U$108:$U$149, "YES")</f>
+        <f t="shared" ref="T171:AF171" si="19">AVERAGEIFS(B$66:B$107, $U$108:$U$149, "YES")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U171" s="25" t="e">
-        <f>AVERAGEIFS(C$66:C$107, $U$108:$U$149, "YES")</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V171" s="25" t="e">
-        <f>AVERAGEIFS(D$66:D$107, $U$108:$U$149, "YES")</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W171" s="25" t="e">
-        <f>AVERAGEIFS(E$66:E$107, $U$108:$U$149, "YES")</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X171" s="25" t="e">
-        <f>AVERAGEIFS(F$66:F$107, $U$108:$U$149, "YES")</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y171" s="25" t="e">
-        <f>AVERAGEIFS(G$66:G$107, $U$108:$U$149, "YES")</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z171" s="25" t="e">
-        <f>AVERAGEIFS(H$66:H$107, $U$108:$U$149, "YES")</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA171" s="25" t="e">
-        <f>AVERAGEIFS(I$66:I$107, $U$108:$U$149, "YES")</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB171" s="25" t="e">
-        <f>AVERAGEIFS(J$66:J$107, $U$108:$U$149, "YES")</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC171" s="25" t="e">
-        <f>AVERAGEIFS(K$66:K$107, $U$108:$U$149, "YES")</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD171" s="25" t="e">
-        <f>AVERAGEIFS(L$66:L$107, $U$108:$U$149, "YES")</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE171" s="25" t="e">
-        <f>AVERAGEIFS(M$66:M$107, $U$108:$U$149, "YES")</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF171" s="25" t="e">
-        <f>AVERAGEIFS(N$66:N$107, $U$108:$U$149, "YES")</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12006,51 +11825,51 @@
         <v>3.8</v>
       </c>
       <c r="D172" s="25">
-        <f t="shared" ref="D172:O172" si="17">AVERAGEIFS(C$108:C$149, $P$66:$P$107, "=1", $P$108:$P$149, "=1")</f>
+        <f t="shared" ref="D172:O172" si="20">AVERAGEIFS(C$108:C$149, $P$66:$P$107, "=1", $P$108:$P$149, "=1")</f>
         <v>75.637</v>
       </c>
       <c r="E172" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>14.617000000000001</v>
       </c>
       <c r="F172" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6.3789999999999996</v>
       </c>
       <c r="G172" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>13.252000000000001</v>
       </c>
       <c r="H172" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3.2410000000000005</v>
       </c>
       <c r="I172" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>9.6210000000000004</v>
       </c>
       <c r="J172" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>27.868000000000002</v>
       </c>
       <c r="K172" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>48.195999999999998</v>
       </c>
       <c r="L172" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.23399999999999999</v>
       </c>
       <c r="M172" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3.9E-2</v>
       </c>
       <c r="N172" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3.2409999999999997</v>
       </c>
       <c r="O172" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.1802</v>
       </c>
       <c r="R172" s="1">
@@ -12065,51 +11884,51 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U172" s="25" t="e">
-        <f t="shared" ref="U172:AF172" si="18">AVERAGEIFS(C$108:C$149, $U$108:$U$149, "YES")</f>
+        <f t="shared" ref="U172:AF172" si="21">AVERAGEIFS(C$108:C$149, $U$108:$U$149, "YES")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="V172" s="25" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W172" s="25" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X172" s="25" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y172" s="25" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z172" s="25" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA172" s="25" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB172" s="25" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC172" s="25" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD172" s="25" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE172" s="25" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF172" s="25" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12215,51 +12034,51 @@
         <v>2.57</v>
       </c>
       <c r="D175" s="25">
-        <f t="shared" ref="D175:O175" si="19">AVERAGEIFS(C$66:C$107, $P$66:$P$107, "&gt;1", $P$108:$P$149, "&gt;1")</f>
+        <f t="shared" ref="D175:O175" si="22">AVERAGEIFS(C$66:C$107, $P$66:$P$107, "&gt;1", $P$108:$P$149, "&gt;1")</f>
         <v>80.36</v>
       </c>
       <c r="E175" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>9.7899999999999991</v>
       </c>
       <c r="F175" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5.43</v>
       </c>
       <c r="G175" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>8.43</v>
       </c>
       <c r="H175" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>3.36</v>
       </c>
       <c r="I175" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>8.7899999999999991</v>
       </c>
       <c r="J175" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>18.21</v>
       </c>
       <c r="K175" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>36.97</v>
       </c>
       <c r="L175" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M175" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N175" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O175" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="R175" s="1">
@@ -12270,55 +12089,55 @@
         <v>214</v>
       </c>
       <c r="T175" s="25">
-        <f>AVERAGEIFS(B$66:B$107, $V$108:$V$149, "YES")</f>
+        <f t="shared" ref="T175:AF175" si="23">AVERAGEIFS(B$66:B$107, $V$108:$V$149, "YES")</f>
         <v>1.5</v>
       </c>
       <c r="U175" s="25">
-        <f>AVERAGEIFS(C$66:C$107, $V$108:$V$149, "YES")</f>
+        <f t="shared" si="23"/>
         <v>91.33</v>
       </c>
       <c r="V175" s="25">
-        <f>AVERAGEIFS(D$66:D$107, $V$108:$V$149, "YES")</f>
+        <f t="shared" si="23"/>
         <v>3.5</v>
       </c>
       <c r="W175" s="25">
-        <f>AVERAGEIFS(E$66:E$107, $V$108:$V$149, "YES")</f>
+        <f t="shared" si="23"/>
         <v>2.17</v>
       </c>
       <c r="X175" s="25">
-        <f>AVERAGEIFS(F$66:F$107, $V$108:$V$149, "YES")</f>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="Y175" s="25">
-        <f>AVERAGEIFS(G$66:G$107, $V$108:$V$149, "YES")</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="Z175" s="25">
-        <f>AVERAGEIFS(H$66:H$107, $V$108:$V$149, "YES")</f>
+        <f t="shared" si="23"/>
         <v>3.17</v>
       </c>
       <c r="AA175" s="25">
-        <f>AVERAGEIFS(I$66:I$107, $V$108:$V$149, "YES")</f>
+        <f t="shared" si="23"/>
         <v>5.5</v>
       </c>
       <c r="AB175" s="25">
-        <f>AVERAGEIFS(J$66:J$107, $V$108:$V$149, "YES")</f>
+        <f t="shared" si="23"/>
         <v>8.91</v>
       </c>
       <c r="AC175" s="25">
-        <f>AVERAGEIFS(K$66:K$107, $V$108:$V$149, "YES")</f>
+        <f t="shared" si="23"/>
         <v>0.17</v>
       </c>
       <c r="AD175" s="25">
-        <f>AVERAGEIFS(L$66:L$107, $V$108:$V$149, "YES")</f>
+        <f t="shared" si="23"/>
         <v>0.17</v>
       </c>
       <c r="AE175" s="25">
-        <f>AVERAGEIFS(M$66:M$107, $V$108:$V$149, "YES")</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="AF175" s="25">
-        <f>AVERAGEIFS(N$66:N$107, $V$108:$V$149, "YES")</f>
+        <f t="shared" si="23"/>
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
@@ -12335,51 +12154,51 @@
         <v>2.52</v>
       </c>
       <c r="D176" s="25">
-        <f t="shared" ref="D176:O176" si="20">AVERAGEIFS(C$108:C$149, $P$66:$P$107, "&gt;1", $P$108:$P$149, "&gt;1")</f>
+        <f t="shared" ref="D176:O176" si="24">AVERAGEIFS(C$108:C$149, $P$66:$P$107, "&gt;1", $P$108:$P$149, "&gt;1")</f>
         <v>80.17</v>
       </c>
       <c r="E176" s="25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>10.0175</v>
       </c>
       <c r="F176" s="25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>5.52</v>
       </c>
       <c r="G176" s="25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>8.27</v>
       </c>
       <c r="H176" s="25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>3.1150000000000002</v>
       </c>
       <c r="I176" s="25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>8.6374999999999993</v>
       </c>
       <c r="J176" s="25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>18.287500000000001</v>
       </c>
       <c r="K176" s="25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>36.277499999999996</v>
       </c>
       <c r="L176" s="25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M176" s="25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N176" s="25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="O176" s="25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R176" s="1">
@@ -12394,51 +12213,51 @@
         <v>1.33</v>
       </c>
       <c r="U176" s="25">
-        <f t="shared" ref="U176:AF176" si="21">AVERAGEIFS(C$108:C$149, $V$108:$V$149, "YES")</f>
+        <f t="shared" ref="U176:AF176" si="25">AVERAGEIFS(C$108:C$149, $V$108:$V$149, "YES")</f>
         <v>92.17</v>
       </c>
       <c r="V176" s="25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>2.67</v>
       </c>
       <c r="W176" s="25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>2.17</v>
       </c>
       <c r="X176" s="25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1.17</v>
       </c>
       <c r="Y176" s="25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.83</v>
       </c>
       <c r="Z176" s="25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>3</v>
       </c>
       <c r="AA176" s="25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>3.83</v>
       </c>
       <c r="AB176" s="25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>6.93</v>
       </c>
       <c r="AC176" s="25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.17</v>
       </c>
       <c r="AD176" s="25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.17</v>
       </c>
       <c r="AE176" s="25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="AF176" s="25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
@@ -12563,58 +12382,58 @@
         <v>0</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C179" s="25" t="e">
         <f>AVERAGEIFS(B$66:B$107, $S$66:$S$107, "=1", $S$108:$S$149, "=1")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D179" s="25" t="e">
-        <f t="shared" ref="D179:O179" si="22">AVERAGEIFS(C$66:C$107, $S$66:$S$107, "=1", $S$108:$S$149, "=1")</f>
+        <f t="shared" ref="D179:O179" si="26">AVERAGEIFS(C$66:C$107, $S$66:$S$107, "=1", $S$108:$S$149, "=1")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E179" s="25" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F179" s="25" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G179" s="25" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H179" s="25" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I179" s="25" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J179" s="25" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K179" s="25" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L179" s="25" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M179" s="25" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N179" s="25" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O179" s="25" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R179" s="1">
@@ -12625,55 +12444,55 @@
         <v>216</v>
       </c>
       <c r="T179" s="25" t="e">
-        <f>AVERAGEIFS(B$66:B$107, $W$108:$W$149, "YES")</f>
+        <f t="shared" ref="T179:AF179" si="27">AVERAGEIFS(B$66:B$107, $W$108:$W$149, "YES")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U179" s="25" t="e">
-        <f>AVERAGEIFS(C$66:C$107, $W$108:$W$149, "YES")</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V179" s="25" t="e">
-        <f>AVERAGEIFS(D$66:D$107, $W$108:$W$149, "YES")</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W179" s="25" t="e">
-        <f>AVERAGEIFS(E$66:E$107, $W$108:$W$149, "YES")</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X179" s="25" t="e">
-        <f>AVERAGEIFS(F$66:F$107, $W$108:$W$149, "YES")</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y179" s="25" t="e">
-        <f>AVERAGEIFS(G$66:G$107, $W$108:$W$149, "YES")</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z179" s="25" t="e">
-        <f>AVERAGEIFS(H$66:H$107, $W$108:$W$149, "YES")</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA179" s="25" t="e">
-        <f>AVERAGEIFS(I$66:I$107, $W$108:$W$149, "YES")</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB179" s="25" t="e">
-        <f>AVERAGEIFS(J$66:J$107, $W$108:$W$149, "YES")</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC179" s="25" t="e">
-        <f>AVERAGEIFS(K$66:K$107, $W$108:$W$149, "YES")</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD179" s="25" t="e">
-        <f>AVERAGEIFS(L$66:L$107, $W$108:$W$149, "YES")</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE179" s="25" t="e">
-        <f>AVERAGEIFS(M$66:M$107, $W$108:$W$149, "YES")</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF179" s="25" t="e">
-        <f>AVERAGEIFS(N$66:N$107, $W$108:$W$149, "YES")</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12683,58 +12502,58 @@
         <v>0</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C180" s="25" t="e">
         <f>AVERAGEIFS(B$108:B$149, $S$66:$S$107, "=1", $S$108:$S$149, "=1")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D180" s="25" t="e">
-        <f t="shared" ref="D180:O180" si="23">AVERAGEIFS(C$108:C$149, $S$66:$S$107, "=1", $S$108:$S$149, "=1")</f>
+        <f t="shared" ref="D180:O180" si="28">AVERAGEIFS(C$108:C$149, $S$66:$S$107, "=1", $S$108:$S$149, "=1")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E180" s="25" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F180" s="25" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G180" s="25" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H180" s="25" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I180" s="25" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J180" s="25" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K180" s="25" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L180" s="25" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M180" s="25" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N180" s="25" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O180" s="25" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R180" s="1">
@@ -12749,51 +12568,51 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U180" s="25" t="e">
-        <f t="shared" ref="U180:AF180" si="24">AVERAGEIFS(C$108:C$149, $W$108:$W$149, "YES")</f>
+        <f t="shared" ref="U180:AF180" si="29">AVERAGEIFS(C$108:C$149, $W$108:$W$149, "YES")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="V180" s="25" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W180" s="25" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X180" s="25" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y180" s="25" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z180" s="25" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA180" s="25" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB180" s="25" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC180" s="25" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD180" s="25" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE180" s="25" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF180" s="25" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12918,58 +12737,58 @@
         <v>6</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C183" s="25">
         <f>AVERAGEIFS(B$66:B$107, $S$66:$S$107, "&gt;1", $S$108:$S$149, "&gt;1")</f>
         <v>2.2133333333333334</v>
       </c>
       <c r="D183" s="25">
-        <f t="shared" ref="D183:O183" si="25">AVERAGEIFS(C$66:C$107, $S$66:$S$107, "&gt;1", $S$108:$S$149, "&gt;1")</f>
+        <f t="shared" ref="D183:O183" si="30">AVERAGEIFS(C$66:C$107, $S$66:$S$107, "&gt;1", $S$108:$S$149, "&gt;1")</f>
         <v>84.016666666666666</v>
       </c>
       <c r="E183" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>7.6933333333333325</v>
       </c>
       <c r="F183" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>4.3433333333333328</v>
       </c>
       <c r="G183" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>6.2866666666666662</v>
       </c>
       <c r="H183" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>2.5733333333333328</v>
       </c>
       <c r="I183" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>6.9166666666666652</v>
       </c>
       <c r="J183" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>13.973333333333334</v>
       </c>
       <c r="K183" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>27.616666666666664</v>
       </c>
       <c r="L183" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>5.6666666666666671E-2</v>
       </c>
       <c r="M183" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>5.6666666666666671E-2</v>
       </c>
       <c r="N183" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="O183" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>1.8666666666666668E-2</v>
       </c>
       <c r="R183" s="1">
@@ -12980,55 +12799,55 @@
         <v>218</v>
       </c>
       <c r="T183" s="25">
-        <f>AVERAGEIFS(B$66:B$107, $X$108:$X$149, "YES")</f>
+        <f t="shared" ref="T183:AF183" si="31">AVERAGEIFS(B$66:B$107, $X$108:$X$149, "YES")</f>
         <v>2.57</v>
       </c>
       <c r="U183" s="25">
-        <f>AVERAGEIFS(C$66:C$107, $X$108:$X$149, "YES")</f>
+        <f t="shared" si="31"/>
         <v>80.36</v>
       </c>
       <c r="V183" s="25">
-        <f>AVERAGEIFS(D$66:D$107, $X$108:$X$149, "YES")</f>
+        <f t="shared" si="31"/>
         <v>9.7899999999999991</v>
       </c>
       <c r="W183" s="25">
-        <f>AVERAGEIFS(E$66:E$107, $X$108:$X$149, "YES")</f>
+        <f t="shared" si="31"/>
         <v>5.43</v>
       </c>
       <c r="X183" s="25">
-        <f>AVERAGEIFS(F$66:F$107, $X$108:$X$149, "YES")</f>
+        <f t="shared" si="31"/>
         <v>8.43</v>
       </c>
       <c r="Y183" s="25">
-        <f>AVERAGEIFS(G$66:G$107, $X$108:$X$149, "YES")</f>
+        <f t="shared" si="31"/>
         <v>3.36</v>
       </c>
       <c r="Z183" s="25">
-        <f>AVERAGEIFS(H$66:H$107, $X$108:$X$149, "YES")</f>
+        <f t="shared" si="31"/>
         <v>8.7899999999999991</v>
       </c>
       <c r="AA183" s="25">
-        <f>AVERAGEIFS(I$66:I$107, $X$108:$X$149, "YES")</f>
+        <f t="shared" si="31"/>
         <v>18.21</v>
       </c>
       <c r="AB183" s="25">
-        <f>AVERAGEIFS(J$66:J$107, $X$108:$X$149, "YES")</f>
+        <f t="shared" si="31"/>
         <v>36.97</v>
       </c>
       <c r="AC183" s="25">
-        <f>AVERAGEIFS(K$66:K$107, $X$108:$X$149, "YES")</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AD183" s="25">
-        <f>AVERAGEIFS(L$66:L$107, $X$108:$X$149, "YES")</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AE183" s="25">
-        <f>AVERAGEIFS(M$66:M$107, $X$108:$X$149, "YES")</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AF183" s="25">
-        <f>AVERAGEIFS(N$66:N$107, $X$108:$X$149, "YES")</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
@@ -13038,58 +12857,58 @@
         <v>6</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C184" s="25">
         <f>AVERAGEIFS(B$108:B$149, $S$66:$S$107, "&gt;1", $S$108:$S$149, "&gt;1")</f>
         <v>2.1233333333333335</v>
       </c>
       <c r="D184" s="25">
-        <f t="shared" ref="D184:O184" si="26">AVERAGEIFS(C$108:C$149, $S$66:$S$107, "&gt;1", $S$108:$S$149, "&gt;1")</f>
+        <f t="shared" ref="D184:O184" si="32">AVERAGEIFS(C$108:C$149, $S$66:$S$107, "&gt;1", $S$108:$S$149, "&gt;1")</f>
         <v>84.17</v>
       </c>
       <c r="E184" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>7.5683333333333342</v>
       </c>
       <c r="F184" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>4.4033333333333333</v>
       </c>
       <c r="G184" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>5.9033333333333333</v>
       </c>
       <c r="H184" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>2.3533333333333331</v>
       </c>
       <c r="I184" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>6.7583333333333329</v>
       </c>
       <c r="J184" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>13.468333333333334</v>
       </c>
       <c r="K184" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>26.495000000000001</v>
       </c>
       <c r="L184" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>5.6666666666666671E-2</v>
       </c>
       <c r="M184" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>5.6666666666666671E-2</v>
       </c>
       <c r="N184" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="O184" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1.8666666666666668E-2</v>
       </c>
       <c r="R184" s="1">
@@ -13104,2377 +12923,2315 @@
         <v>2.5133333333333332</v>
       </c>
       <c r="U184" s="25">
-        <f t="shared" ref="U184:AF184" si="27">AVERAGEIFS(C$108:C$149, $X$108:$X$149, "YES")</f>
+        <f t="shared" ref="U184:AF184" si="33">AVERAGEIFS(C$108:C$149, $X$108:$X$149, "YES")</f>
         <v>80.100000000000009</v>
       </c>
       <c r="V184" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>9.9966666666666679</v>
       </c>
       <c r="W184" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>5.54</v>
       </c>
       <c r="X184" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>8.2333333333333325</v>
       </c>
       <c r="Y184" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>3.1033333333333335</v>
       </c>
       <c r="Z184" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>8.6433333333333326</v>
       </c>
       <c r="AA184" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>18.23</v>
       </c>
       <c r="AB184" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>36.206666666666671</v>
       </c>
       <c r="AC184" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AD184" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AE184" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AF184" s="25">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:32" ht="33.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="R186" s="35"/>
-      <c r="S186" s="13" t="s">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:32" ht="28.8" x14ac:dyDescent="0.35">
+      <c r="A186" s="35"/>
+      <c r="B186" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="T186" s="13" t="s">
+      <c r="C186" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="U186" s="13" t="s">
+      <c r="D186" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="V186" s="13" t="s">
+      <c r="E186" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="W186" s="13" t="s">
+      <c r="F186" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="X186" s="13" t="s">
+      <c r="G186" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="Y186" s="13" t="s">
+      <c r="H186" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="Z186" s="13" t="s">
+      <c r="I186" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="AA186" s="13" t="s">
+      <c r="J186" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="AB186" s="13" t="s">
+      <c r="K186" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="AC186" s="13" t="s">
+      <c r="L186" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="AD186" s="13" t="s">
+      <c r="M186" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="AE186" s="13" t="s">
+      <c r="N186" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="AF186" s="13" t="s">
+      <c r="O186" s="13" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="187" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A187" s="23" t="s">
+      <c r="A187" s="1">
+        <f>COUNTIFS($Y$108:$Y$149, "YES")</f>
+        <v>1</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C187" s="25">
+        <f t="shared" ref="C186:O187" si="34">AVERAGEIFS(B$66:B$107, $Y$108:$Y$149, "YES")</f>
+        <v>2.57</v>
+      </c>
+      <c r="D187" s="25">
+        <f t="shared" si="34"/>
+        <v>80.36</v>
+      </c>
+      <c r="E187" s="25">
+        <f t="shared" si="34"/>
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="F187" s="25">
+        <f t="shared" si="34"/>
+        <v>5.43</v>
+      </c>
+      <c r="G187" s="25">
+        <f t="shared" si="34"/>
+        <v>8.43</v>
+      </c>
+      <c r="H187" s="25">
+        <f t="shared" si="34"/>
+        <v>3.36</v>
+      </c>
+      <c r="I187" s="25">
+        <f t="shared" si="34"/>
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="J187" s="25">
+        <f t="shared" si="34"/>
+        <v>18.21</v>
+      </c>
+      <c r="K187" s="25">
+        <f t="shared" si="34"/>
+        <v>36.97</v>
+      </c>
+      <c r="L187" s="25">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="M187" s="25">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="N187" s="25">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="O187" s="25">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A188" s="1">
+        <f>COUNTIFS($Y$108:$Y$149, "YES")</f>
+        <v>1</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C188" s="25">
+        <f t="shared" ref="C187:O188" si="35">AVERAGEIFS(B$108:B$149, $Y$108:$Y$149, "YES")</f>
+        <v>2.46</v>
+      </c>
+      <c r="D188" s="25">
+        <f t="shared" si="35"/>
+        <v>80.23</v>
+      </c>
+      <c r="E188" s="25">
+        <f t="shared" si="35"/>
+        <v>9.92</v>
+      </c>
+      <c r="F188" s="25">
+        <f t="shared" si="35"/>
+        <v>5.54</v>
+      </c>
+      <c r="G188" s="25">
+        <f t="shared" si="35"/>
+        <v>8.08</v>
+      </c>
+      <c r="H188" s="25">
+        <f t="shared" si="35"/>
+        <v>3</v>
+      </c>
+      <c r="I188" s="25">
+        <f t="shared" si="35"/>
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="J188" s="25">
+        <f t="shared" si="35"/>
+        <v>18</v>
+      </c>
+      <c r="K188" s="25">
+        <f t="shared" si="35"/>
+        <v>35.54</v>
+      </c>
+      <c r="L188" s="25">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="M188" s="25">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="N188" s="25">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="O188" s="25">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="190" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="191" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A191" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="B187" s="24"/>
-      <c r="C187" s="24"/>
-      <c r="D187" s="24"/>
-      <c r="E187" s="24"/>
-      <c r="F187" s="24"/>
-      <c r="G187" s="24"/>
-      <c r="H187" s="24"/>
-      <c r="I187" s="24"/>
-      <c r="J187" s="24"/>
-      <c r="K187" s="24"/>
-      <c r="L187" s="24"/>
-      <c r="M187" s="24"/>
-      <c r="N187" s="24"/>
-      <c r="O187" s="24"/>
-      <c r="R187" s="1">
-        <f>COUNTIFS($Y$108:$Y$149, "YES")</f>
-        <v>1</v>
-      </c>
-      <c r="S187" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="T187" s="25">
-        <f>AVERAGEIFS(B$66:B$107, $Y$108:$Y$149, "YES")</f>
-        <v>2.57</v>
-      </c>
-      <c r="U187" s="25">
-        <f>AVERAGEIFS(C$66:C$107, $Y$108:$Y$149, "YES")</f>
-        <v>80.36</v>
-      </c>
-      <c r="V187" s="25">
-        <f>AVERAGEIFS(D$66:D$107, $Y$108:$Y$149, "YES")</f>
-        <v>9.7899999999999991</v>
-      </c>
-      <c r="W187" s="25">
-        <f>AVERAGEIFS(E$66:E$107, $Y$108:$Y$149, "YES")</f>
-        <v>5.43</v>
-      </c>
-      <c r="X187" s="25">
-        <f>AVERAGEIFS(F$66:F$107, $Y$108:$Y$149, "YES")</f>
-        <v>8.43</v>
-      </c>
-      <c r="Y187" s="25">
-        <f>AVERAGEIFS(G$66:G$107, $Y$108:$Y$149, "YES")</f>
-        <v>3.36</v>
-      </c>
-      <c r="Z187" s="25">
-        <f>AVERAGEIFS(H$66:H$107, $Y$108:$Y$149, "YES")</f>
-        <v>8.7899999999999991</v>
-      </c>
-      <c r="AA187" s="25">
-        <f>AVERAGEIFS(I$66:I$107, $Y$108:$Y$149, "YES")</f>
-        <v>18.21</v>
-      </c>
-      <c r="AB187" s="25">
-        <f>AVERAGEIFS(J$66:J$107, $Y$108:$Y$149, "YES")</f>
-        <v>36.97</v>
-      </c>
-      <c r="AC187" s="25">
-        <f>AVERAGEIFS(K$66:K$107, $Y$108:$Y$149, "YES")</f>
-        <v>0</v>
-      </c>
-      <c r="AD187" s="25">
-        <f>AVERAGEIFS(L$66:L$107, $Y$108:$Y$149, "YES")</f>
-        <v>0</v>
-      </c>
-      <c r="AE187" s="25">
-        <f>AVERAGEIFS(M$66:M$107, $Y$108:$Y$149, "YES")</f>
-        <v>0</v>
-      </c>
-      <c r="AF187" s="25">
-        <f>AVERAGEIFS(N$66:N$107, $Y$108:$Y$149, "YES")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:32" ht="15" x14ac:dyDescent="0.35">
-      <c r="A188"/>
-      <c r="B188"/>
-      <c r="C188"/>
-      <c r="D188"/>
-      <c r="E188"/>
-      <c r="F188"/>
-      <c r="G188"/>
-      <c r="H188"/>
-      <c r="I188"/>
-      <c r="J188"/>
-      <c r="K188"/>
-      <c r="L188"/>
-      <c r="M188"/>
-      <c r="N188"/>
-      <c r="R188" s="1">
-        <f>COUNTIFS($Y$108:$Y$149, "YES")</f>
-        <v>1</v>
-      </c>
-      <c r="S188" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="T188" s="25">
-        <f>AVERAGEIFS(B$108:B$149, $Y$108:$Y$149, "YES")</f>
-        <v>2.46</v>
-      </c>
-      <c r="U188" s="25">
-        <f>AVERAGEIFS(C$108:C$149, $Y$108:$Y$149, "YES")</f>
-        <v>80.23</v>
-      </c>
-      <c r="V188" s="25">
-        <f>AVERAGEIFS(D$108:D$149, $Y$108:$Y$149, "YES")</f>
-        <v>9.92</v>
-      </c>
-      <c r="W188" s="25">
-        <f>AVERAGEIFS(E$108:E$149, $Y$108:$Y$149, "YES")</f>
-        <v>5.54</v>
-      </c>
-      <c r="X188" s="25">
-        <f>AVERAGEIFS(F$108:F$149, $Y$108:$Y$149, "YES")</f>
-        <v>8.08</v>
-      </c>
-      <c r="Y188" s="25">
-        <f>AVERAGEIFS(G$108:G$149, $Y$108:$Y$149, "YES")</f>
-        <v>3</v>
-      </c>
-      <c r="Z188" s="25">
-        <f>AVERAGEIFS(H$108:H$149, $Y$108:$Y$149, "YES")</f>
-        <v>8.5399999999999991</v>
-      </c>
-      <c r="AA188" s="25">
-        <f>AVERAGEIFS(I$108:I$149, $Y$108:$Y$149, "YES")</f>
-        <v>18</v>
-      </c>
-      <c r="AB188" s="25">
-        <f>AVERAGEIFS(J$108:J$149, $Y$108:$Y$149, "YES")</f>
-        <v>35.54</v>
-      </c>
-      <c r="AC188" s="25">
-        <f>AVERAGEIFS(K$108:K$149, $Y$108:$Y$149, "YES")</f>
-        <v>0</v>
-      </c>
-      <c r="AD188" s="25">
-        <f>AVERAGEIFS(L$108:L$149, $Y$108:$Y$149, "YES")</f>
-        <v>0</v>
-      </c>
-      <c r="AE188" s="25">
-        <f>AVERAGEIFS(M$108:M$149, $Y$108:$Y$149, "YES")</f>
-        <v>0</v>
-      </c>
-      <c r="AF188" s="25">
-        <f>AVERAGEIFS(N$108:N$149, $Y$108:$Y$149, "YES")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:32" ht="28.8" x14ac:dyDescent="0.35">
-      <c r="A189" s="13" t="s">
+      <c r="B191" s="24"/>
+      <c r="C191" s="24"/>
+      <c r="D191" s="24"/>
+      <c r="E191" s="24"/>
+      <c r="F191" s="24"/>
+      <c r="G191" s="24"/>
+      <c r="H191" s="24"/>
+      <c r="I191" s="24"/>
+      <c r="J191" s="24"/>
+      <c r="K191" s="24"/>
+      <c r="L191" s="24"/>
+      <c r="M191" s="24"/>
+      <c r="N191" s="24"/>
+      <c r="O191" s="24"/>
+    </row>
+    <row r="192" spans="1:32" ht="15" x14ac:dyDescent="0.35">
+      <c r="A192"/>
+      <c r="B192"/>
+      <c r="C192"/>
+      <c r="D192"/>
+      <c r="E192"/>
+      <c r="F192"/>
+      <c r="G192"/>
+      <c r="H192"/>
+      <c r="I192"/>
+      <c r="J192"/>
+      <c r="K192"/>
+      <c r="L192"/>
+      <c r="M192"/>
+      <c r="N192"/>
+    </row>
+    <row r="193" spans="1:15" ht="28.8" x14ac:dyDescent="0.35">
+      <c r="A193" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="B189" s="13" t="s">
+      <c r="B193" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="C189" s="13" t="s">
+      <c r="C193" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="D189" s="13" t="s">
+      <c r="D193" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="E189" s="13" t="s">
+      <c r="E193" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="F189" s="13" t="s">
+      <c r="F193" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G189" s="13" t="s">
+      <c r="G193" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="H189" s="13" t="s">
+      <c r="H193" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I189" s="13" t="s">
+      <c r="I193" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="J189" s="13" t="s">
+      <c r="J193" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="K189" s="13" t="s">
+      <c r="K193" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="L189" s="13" t="s">
+      <c r="L193" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="M189" s="13" t="s">
+      <c r="M193" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="N189" s="13" t="s">
+      <c r="N193" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="O189" s="13" t="s">
+      <c r="O193" s="13" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="190" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A190" s="1">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A194" s="1">
         <f>COUNTIF($A$24:$A$149, "*albfernandez-GDS-PMD-Security*Buggy")</f>
         <v>5</v>
       </c>
-      <c r="B190" s="1" t="s">
+      <c r="B194" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C190" s="25">
-        <f t="shared" ref="C190:O190" si="28">AVERAGEIF($A$24:$A$149, "*albfernandez-GDS-PMD-Security*_Buggy", B$24:B$149)</f>
+      <c r="C194" s="25">
+        <f t="shared" ref="C194:O194" si="36">AVERAGEIF($A$24:$A$149, "*albfernandez-GDS-PMD-Security*_Buggy", B$24:B$149)</f>
         <v>3.218</v>
       </c>
-      <c r="D190" s="25">
-        <f t="shared" si="28"/>
+      <c r="D194" s="25">
+        <f t="shared" si="36"/>
         <v>76.114000000000004</v>
       </c>
-      <c r="E190" s="25">
-        <f t="shared" si="28"/>
+      <c r="E194" s="25">
+        <f t="shared" si="36"/>
         <v>11.389999999999999</v>
       </c>
-      <c r="F190" s="25">
-        <f t="shared" si="28"/>
+      <c r="F194" s="25">
+        <f t="shared" si="36"/>
         <v>6.8020000000000014</v>
       </c>
-      <c r="G190" s="25">
-        <f t="shared" si="28"/>
+      <c r="G194" s="25">
+        <f t="shared" si="36"/>
         <v>9.8800000000000008</v>
       </c>
-      <c r="H190" s="25">
-        <f t="shared" si="28"/>
+      <c r="H194" s="25">
+        <f t="shared" si="36"/>
         <v>3.7</v>
       </c>
-      <c r="I190" s="25">
-        <f t="shared" si="28"/>
+      <c r="I194" s="25">
+        <f t="shared" si="36"/>
         <v>10.5</v>
       </c>
-      <c r="J190" s="25">
-        <f t="shared" si="28"/>
+      <c r="J194" s="25">
+        <f t="shared" si="36"/>
         <v>21.276</v>
       </c>
-      <c r="K190" s="25">
-        <f t="shared" si="28"/>
+      <c r="K194" s="25">
+        <f t="shared" si="36"/>
         <v>46.86</v>
       </c>
-      <c r="L190" s="25">
-        <f t="shared" si="28"/>
+      <c r="L194" s="25">
+        <f t="shared" si="36"/>
         <v>0.74199999999999999</v>
       </c>
-      <c r="M190" s="25">
-        <f t="shared" si="28"/>
+      <c r="M194" s="25">
+        <f t="shared" si="36"/>
         <v>0.15</v>
       </c>
-      <c r="N190" s="25">
-        <f t="shared" si="28"/>
+      <c r="N194" s="25">
+        <f t="shared" si="36"/>
         <v>21.845999999999997</v>
       </c>
-      <c r="O190" s="25">
-        <f t="shared" si="28"/>
+      <c r="O194" s="25">
+        <f t="shared" si="36"/>
         <v>1.218</v>
       </c>
     </row>
-    <row r="191" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A191" s="1">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A195" s="1">
         <f>COUNTIF($A$24:$A$149, "*albfernandez-GDS-PMD-Security*Fixed")</f>
         <v>5</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="B195" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C191" s="25">
-        <f t="shared" ref="C191:O191" si="29">AVERAGEIF($A$24:$A$149, "*albfernandez-GDS-PMD-Security*_Fixed", B$24:B$149)</f>
+      <c r="C195" s="25">
+        <f t="shared" ref="C195:O195" si="37">AVERAGEIF($A$24:$A$149, "*albfernandez-GDS-PMD-Security*_Fixed", B$24:B$149)</f>
         <v>3.226</v>
       </c>
-      <c r="D191" s="25">
-        <f t="shared" si="29"/>
+      <c r="D195" s="25">
+        <f t="shared" si="37"/>
         <v>76.013999999999996</v>
       </c>
-      <c r="E191" s="25">
-        <f t="shared" si="29"/>
+      <c r="E195" s="25">
+        <f t="shared" si="37"/>
         <v>11.458</v>
       </c>
-      <c r="F191" s="25">
-        <f t="shared" si="29"/>
+      <c r="F195" s="25">
+        <f t="shared" si="37"/>
         <v>6.8259999999999987</v>
       </c>
-      <c r="G191" s="25">
-        <f t="shared" si="29"/>
+      <c r="G195" s="25">
+        <f t="shared" si="37"/>
         <v>9.8879999999999999</v>
       </c>
-      <c r="H191" s="25">
-        <f t="shared" si="29"/>
+      <c r="H195" s="25">
+        <f t="shared" si="37"/>
         <v>3.6960000000000002</v>
       </c>
-      <c r="I191" s="25">
-        <f t="shared" si="29"/>
+      <c r="I195" s="25">
+        <f t="shared" si="37"/>
         <v>10.52</v>
       </c>
-      <c r="J191" s="25">
-        <f t="shared" si="29"/>
+      <c r="J195" s="25">
+        <f t="shared" si="37"/>
         <v>21.351999999999997</v>
       </c>
-      <c r="K191" s="25">
-        <f t="shared" si="29"/>
+      <c r="K195" s="25">
+        <f t="shared" si="37"/>
         <v>47.007999999999996</v>
       </c>
-      <c r="L191" s="25">
-        <f t="shared" si="29"/>
+      <c r="L195" s="25">
+        <f t="shared" si="37"/>
         <v>0.73799999999999999</v>
       </c>
-      <c r="M191" s="25">
-        <f t="shared" si="29"/>
+      <c r="M195" s="25">
+        <f t="shared" si="37"/>
         <v>0.15</v>
       </c>
-      <c r="N191" s="25">
-        <f t="shared" si="29"/>
+      <c r="N195" s="25">
+        <f t="shared" si="37"/>
         <v>21.745999999999999</v>
       </c>
-      <c r="O191" s="25">
-        <f t="shared" si="29"/>
+      <c r="O195" s="25">
+        <f t="shared" si="37"/>
         <v>1.2100000000000002</v>
       </c>
     </row>
-    <row r="192" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A192" s="1">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A196" s="1">
         <f>COUNTIF($A$24:$A$149, "*albfernandez-GDS-PMD-Security*Repaired")</f>
         <v>5</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="B196" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C192" s="25">
-        <f t="shared" ref="C192:O192" si="30">AVERAGEIF($A$24:$A$149, "*albfernandez-GDS-PMD-Security*_Repaired", B$24:B$149)</f>
+      <c r="C196" s="25">
+        <f t="shared" ref="C196:O196" si="38">AVERAGEIF($A$24:$A$149, "*albfernandez-GDS-PMD-Security*_Repaired", B$24:B$149)</f>
         <v>3.1859999999999999</v>
       </c>
-      <c r="D192" s="25">
-        <f t="shared" si="30"/>
+      <c r="D196" s="25">
+        <f t="shared" si="38"/>
         <v>76.397999999999996</v>
       </c>
-      <c r="E192" s="25">
-        <f t="shared" si="30"/>
+      <c r="E196" s="25">
+        <f t="shared" si="38"/>
         <v>11.363999999999999</v>
       </c>
-      <c r="F192" s="25">
-        <f t="shared" si="30"/>
+      <c r="F196" s="25">
+        <f t="shared" si="38"/>
         <v>6.7860000000000014</v>
       </c>
-      <c r="G192" s="25">
-        <f t="shared" si="30"/>
+      <c r="G196" s="25">
+        <f t="shared" si="38"/>
         <v>9.7039999999999988</v>
       </c>
-      <c r="H192" s="25">
-        <f t="shared" si="30"/>
+      <c r="H196" s="25">
+        <f t="shared" si="38"/>
         <v>3.6519999999999997</v>
       </c>
-      <c r="I192" s="25">
-        <f t="shared" si="30"/>
+      <c r="I196" s="25">
+        <f t="shared" si="38"/>
         <v>10.436</v>
       </c>
-      <c r="J192" s="25">
-        <f t="shared" si="30"/>
+      <c r="J196" s="25">
+        <f t="shared" si="38"/>
         <v>21.068000000000001</v>
       </c>
-      <c r="K192" s="25">
-        <f t="shared" si="30"/>
+      <c r="K196" s="25">
+        <f t="shared" si="38"/>
         <v>46.462000000000003</v>
       </c>
-      <c r="L192" s="25">
-        <f t="shared" si="30"/>
+      <c r="L196" s="25">
+        <f t="shared" si="38"/>
         <v>0.61199999999999999</v>
       </c>
-      <c r="M192" s="25">
-        <f t="shared" si="30"/>
+      <c r="M196" s="25">
+        <f t="shared" si="38"/>
         <v>0.15212000000000001</v>
       </c>
-      <c r="N192" s="25">
-        <f t="shared" si="30"/>
+      <c r="N196" s="25">
+        <f t="shared" si="38"/>
         <v>18.821999999999996</v>
       </c>
-      <c r="O192" s="25">
-        <f t="shared" si="30"/>
+      <c r="O196" s="25">
+        <f t="shared" si="38"/>
         <v>1.046</v>
       </c>
     </row>
-    <row r="194" spans="1:15" ht="28.8" x14ac:dyDescent="0.35">
-      <c r="B194" s="13" t="s">
+    <row r="198" spans="1:15" ht="28.8" x14ac:dyDescent="0.35">
+      <c r="B198" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="C194" s="13" t="s">
+      <c r="C198" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="D194" s="13" t="s">
+      <c r="D198" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="E194" s="13" t="s">
+      <c r="E198" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="F194" s="13" t="s">
+      <c r="F198" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G194" s="13" t="s">
+      <c r="G198" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="H194" s="13" t="s">
+      <c r="H198" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I194" s="13" t="s">
+      <c r="I198" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="J194" s="13" t="s">
+      <c r="J198" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="K194" s="13" t="s">
+      <c r="K198" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="L194" s="13" t="s">
+      <c r="L198" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="M194" s="13" t="s">
+      <c r="M198" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="N194" s="13" t="s">
+      <c r="N198" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="O194" s="13" t="s">
+      <c r="O198" s="13" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A195" s="1">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A199" s="1">
         <f>COUNTIF($A$24:$A$149, "*dungba88-libra*Buggy")</f>
         <v>3</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="B199" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C195" s="25">
-        <f t="shared" ref="C195:O195" si="31">AVERAGEIF($A$24:$A$149, "*dungba88-libra*_Buggy", B$24:B$149)</f>
+      <c r="C199" s="25">
+        <f t="shared" ref="C199:O199" si="39">AVERAGEIF($A$24:$A$149, "*dungba88-libra*_Buggy", B$24:B$149)</f>
         <v>1.7766666666666666</v>
       </c>
-      <c r="D195" s="25">
-        <f t="shared" si="31"/>
+      <c r="D199" s="25">
+        <f t="shared" si="39"/>
         <v>89.11</v>
       </c>
-      <c r="E195" s="25">
-        <f t="shared" si="31"/>
+      <c r="E199" s="25">
+        <f t="shared" si="39"/>
         <v>4.1100000000000003</v>
       </c>
-      <c r="F195" s="25">
-        <f t="shared" si="31"/>
+      <c r="F199" s="25">
+        <f t="shared" si="39"/>
         <v>2.89</v>
       </c>
-      <c r="G195" s="25">
-        <f t="shared" si="31"/>
+      <c r="G199" s="25">
+        <f t="shared" si="39"/>
         <v>2.7766666666666668</v>
       </c>
-      <c r="H195" s="25">
-        <f t="shared" si="31"/>
+      <c r="H199" s="25">
+        <f t="shared" si="39"/>
         <v>1.4433333333333334</v>
       </c>
-      <c r="I195" s="25">
-        <f t="shared" si="31"/>
+      <c r="I199" s="25">
+        <f t="shared" si="39"/>
         <v>4.3366666666666669</v>
       </c>
-      <c r="J195" s="25">
-        <f t="shared" si="31"/>
+      <c r="J199" s="25">
+        <f t="shared" si="39"/>
         <v>6.8900000000000006</v>
       </c>
-      <c r="K195" s="25">
-        <f t="shared" si="31"/>
+      <c r="K199" s="25">
+        <f t="shared" si="39"/>
         <v>13.39</v>
       </c>
-      <c r="L195" s="25">
-        <f t="shared" si="31"/>
+      <c r="L199" s="25">
+        <f t="shared" si="39"/>
         <v>0.11333333333333334</v>
       </c>
-      <c r="M195" s="25">
-        <f t="shared" si="31"/>
+      <c r="M199" s="25">
+        <f t="shared" si="39"/>
         <v>0.11333333333333334</v>
       </c>
-      <c r="N195" s="25">
-        <f t="shared" si="31"/>
+      <c r="N199" s="25">
+        <f t="shared" si="39"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="O195" s="25">
-        <f t="shared" si="31"/>
+      <c r="O199" s="25">
+        <f t="shared" si="39"/>
         <v>3.7333333333333336E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A196" s="1">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A200" s="1">
         <f>COUNTIF($A$24:$A$149, "*dungba88-libra*Fixed")</f>
         <v>3</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="B200" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C196" s="25">
-        <f t="shared" ref="C196:O196" si="32">AVERAGEIF($A$24:$A$149, "*dungba88-libra*_Fixed", B$24:B$149)</f>
+      <c r="C200" s="25">
+        <f t="shared" ref="C200:O200" si="40">AVERAGEIF($A$24:$A$149, "*dungba88-libra*_Fixed", B$24:B$149)</f>
         <v>2</v>
       </c>
-      <c r="D196" s="25">
-        <f t="shared" si="32"/>
+      <c r="D200" s="25">
+        <f t="shared" si="40"/>
         <v>88.663333333333341</v>
       </c>
-      <c r="E196" s="25">
-        <f t="shared" si="32"/>
+      <c r="E200" s="25">
+        <f t="shared" si="40"/>
         <v>4.5566666666666666</v>
       </c>
-      <c r="F196" s="25">
-        <f t="shared" si="32"/>
+      <c r="F200" s="25">
+        <f t="shared" si="40"/>
         <v>3.0033333333333334</v>
       </c>
-      <c r="G196" s="25">
-        <f t="shared" si="32"/>
+      <c r="G200" s="25">
+        <f t="shared" si="40"/>
         <v>3.3333333333333335</v>
       </c>
-      <c r="H196" s="25">
-        <f t="shared" si="32"/>
+      <c r="H200" s="25">
+        <f t="shared" si="40"/>
         <v>1.4433333333333334</v>
       </c>
-      <c r="I196" s="25">
-        <f t="shared" si="32"/>
+      <c r="I200" s="25">
+        <f t="shared" si="40"/>
         <v>4.4466666666666663</v>
       </c>
-      <c r="J196" s="25">
-        <f t="shared" si="32"/>
+      <c r="J200" s="25">
+        <f t="shared" si="40"/>
         <v>7.8900000000000006</v>
       </c>
-      <c r="K196" s="25">
-        <f t="shared" si="32"/>
+      <c r="K200" s="25">
+        <f t="shared" si="40"/>
         <v>14.62</v>
       </c>
-      <c r="L196" s="25">
-        <f t="shared" si="32"/>
+      <c r="L200" s="25">
+        <f t="shared" si="40"/>
         <v>0.11333333333333334</v>
       </c>
-      <c r="M196" s="25">
-        <f t="shared" si="32"/>
+      <c r="M200" s="25">
+        <f t="shared" si="40"/>
         <v>0.11333333333333334</v>
       </c>
-      <c r="N196" s="25">
-        <f t="shared" si="32"/>
+      <c r="N200" s="25">
+        <f t="shared" si="40"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="O196" s="25">
-        <f t="shared" si="32"/>
+      <c r="O200" s="25">
+        <f t="shared" si="40"/>
         <v>3.7333333333333336E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A197" s="1">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A201" s="1">
         <f>COUNTIF($A$24:$A$149, "*dungba88-libra*Repaired")</f>
         <v>3</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="B201" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C197" s="25">
-        <f t="shared" ref="C197:O197" si="33">AVERAGEIF($A$24:$A$149, "*dungba88-libra*_Repaired", B$24:B$149)</f>
+      <c r="C201" s="25">
+        <f t="shared" ref="C201:O201" si="41">AVERAGEIF($A$24:$A$149, "*dungba88-libra*_Repaired", B$24:B$149)</f>
         <v>1.6633333333333333</v>
       </c>
-      <c r="D197" s="25">
-        <f t="shared" si="33"/>
+      <c r="D201" s="25">
+        <f t="shared" si="41"/>
         <v>89.67</v>
       </c>
-      <c r="E197" s="25">
-        <f t="shared" si="33"/>
+      <c r="E201" s="25">
+        <f t="shared" si="41"/>
         <v>3.5566666666666666</v>
       </c>
-      <c r="F197" s="25">
-        <f t="shared" si="33"/>
+      <c r="F201" s="25">
+        <f t="shared" si="41"/>
         <v>2.89</v>
       </c>
-      <c r="G197" s="25">
-        <f t="shared" si="33"/>
+      <c r="G201" s="25">
+        <f t="shared" si="41"/>
         <v>2.2233333333333332</v>
       </c>
-      <c r="H197" s="25">
-        <f t="shared" si="33"/>
+      <c r="H201" s="25">
+        <f t="shared" si="41"/>
         <v>1.33</v>
       </c>
-      <c r="I197" s="25">
-        <f t="shared" si="33"/>
+      <c r="I201" s="25">
+        <f t="shared" si="41"/>
         <v>4.2233333333333336</v>
       </c>
-      <c r="J197" s="25">
-        <f t="shared" si="33"/>
+      <c r="J201" s="25">
+        <f t="shared" si="41"/>
         <v>5.7766666666666664</v>
       </c>
-      <c r="K197" s="25">
-        <f t="shared" si="33"/>
+      <c r="K201" s="25">
+        <f t="shared" si="41"/>
         <v>12.07</v>
       </c>
-      <c r="L197" s="25">
-        <f t="shared" si="33"/>
+      <c r="L201" s="25">
+        <f t="shared" si="41"/>
         <v>0.11333333333333334</v>
       </c>
-      <c r="M197" s="25">
-        <f t="shared" si="33"/>
+      <c r="M201" s="25">
+        <f t="shared" si="41"/>
         <v>0.11333333333333334</v>
       </c>
-      <c r="N197" s="25">
-        <f t="shared" si="33"/>
+      <c r="N201" s="25">
+        <f t="shared" si="41"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="O197" s="25">
-        <f t="shared" si="33"/>
+      <c r="O201" s="25">
+        <f t="shared" si="41"/>
         <v>3.7333333333333336E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:15" ht="28.8" x14ac:dyDescent="0.35">
-      <c r="B199" s="13" t="s">
+    <row r="203" spans="1:15" ht="28.8" x14ac:dyDescent="0.35">
+      <c r="B203" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="C199" s="13" t="s">
+      <c r="C203" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="D199" s="13" t="s">
+      <c r="D203" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="E199" s="13" t="s">
+      <c r="E203" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="F199" s="13" t="s">
+      <c r="F203" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G199" s="13" t="s">
+      <c r="G203" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="H199" s="13" t="s">
+      <c r="H203" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I199" s="13" t="s">
+      <c r="I203" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="J199" s="13" t="s">
+      <c r="J203" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="K199" s="13" t="s">
+      <c r="K203" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="L199" s="13" t="s">
+      <c r="L203" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="M199" s="13" t="s">
+      <c r="M203" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="N199" s="13" t="s">
+      <c r="N203" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="O199" s="13" t="s">
+      <c r="O203" s="13" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A200" s="1">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A204" s="1">
         <f>COUNTIF($A$24:$A$149, "*julianps-modelmapper-module*Buggy")</f>
         <v>6</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="B204" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C200" s="25">
-        <f t="shared" ref="C200:O200" si="34">AVERAGEIF($A$24:$A$149, "*julianps-modelmapper-module*_Buggy", B$24:B$149)</f>
-        <v>1</v>
-      </c>
-      <c r="D200" s="25">
-        <f t="shared" si="34"/>
+      <c r="C204" s="25">
+        <f t="shared" ref="C204:O204" si="42">AVERAGEIF($A$24:$A$149, "*julianps-modelmapper-module*_Buggy", B$24:B$149)</f>
+        <v>1</v>
+      </c>
+      <c r="D204" s="25">
+        <f t="shared" si="42"/>
         <v>92</v>
       </c>
-      <c r="E200" s="25">
-        <f t="shared" si="34"/>
+      <c r="E204" s="25">
+        <f t="shared" si="42"/>
         <v>5</v>
       </c>
-      <c r="F200" s="25">
-        <f t="shared" si="34"/>
+      <c r="F204" s="25">
+        <f t="shared" si="42"/>
         <v>4</v>
       </c>
-      <c r="G200" s="25">
-        <f t="shared" si="34"/>
+      <c r="G204" s="25">
+        <f t="shared" si="42"/>
         <v>3</v>
       </c>
-      <c r="H200" s="25">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="I200" s="25">
-        <f t="shared" si="34"/>
+      <c r="H204" s="25">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="I204" s="25">
+        <f t="shared" si="42"/>
         <v>5</v>
       </c>
-      <c r="J200" s="25">
-        <f t="shared" si="34"/>
+      <c r="J204" s="25">
+        <f t="shared" si="42"/>
         <v>8</v>
       </c>
-      <c r="K200" s="25">
-        <f t="shared" si="34"/>
+      <c r="K204" s="25">
+        <f t="shared" si="42"/>
         <v>15</v>
       </c>
-      <c r="L200" s="25">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="M200" s="25">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="N200" s="25">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="O200" s="25">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A201" s="1">
+      <c r="L204" s="25">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="M204" s="25">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="N204" s="25">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="O204" s="25">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A205" s="1">
         <f>COUNTIF($A$24:$A$149, "*julianps-modelmapper-module*Fixed")</f>
         <v>6</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="B205" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C201" s="25">
-        <f t="shared" ref="C201:O201" si="35">AVERAGEIF($A$24:$A$149, "*julianps-modelmapper-module*_Fixed", B$24:B$149)</f>
-        <v>1</v>
-      </c>
-      <c r="D201" s="25">
-        <f t="shared" si="35"/>
+      <c r="C205" s="25">
+        <f t="shared" ref="C205:O205" si="43">AVERAGEIF($A$24:$A$149, "*julianps-modelmapper-module*_Fixed", B$24:B$149)</f>
+        <v>1</v>
+      </c>
+      <c r="D205" s="25">
+        <f t="shared" si="43"/>
         <v>92</v>
       </c>
-      <c r="E201" s="25">
-        <f t="shared" si="35"/>
+      <c r="E205" s="25">
+        <f t="shared" si="43"/>
         <v>5</v>
       </c>
-      <c r="F201" s="25">
-        <f t="shared" si="35"/>
+      <c r="F205" s="25">
+        <f t="shared" si="43"/>
         <v>4</v>
       </c>
-      <c r="G201" s="25">
-        <f t="shared" si="35"/>
+      <c r="G205" s="25">
+        <f t="shared" si="43"/>
         <v>3</v>
       </c>
-      <c r="H201" s="25">
-        <f t="shared" si="35"/>
-        <v>1</v>
-      </c>
-      <c r="I201" s="25">
-        <f t="shared" si="35"/>
+      <c r="H205" s="25">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="I205" s="25">
+        <f t="shared" si="43"/>
         <v>5</v>
       </c>
-      <c r="J201" s="25">
-        <f t="shared" si="35"/>
+      <c r="J205" s="25">
+        <f t="shared" si="43"/>
         <v>8</v>
       </c>
-      <c r="K201" s="25">
-        <f t="shared" si="35"/>
+      <c r="K205" s="25">
+        <f t="shared" si="43"/>
         <v>15</v>
       </c>
-      <c r="L201" s="25">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="M201" s="25">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="N201" s="25">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="O201" s="25">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A202" s="1">
+      <c r="L205" s="25">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="M205" s="25">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="N205" s="25">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O205" s="25">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A206" s="1">
         <f>COUNTIF($A$24:$A$149, "*julianps-modelmapper-module*Repaired")</f>
         <v>6</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="B206" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C202" s="25">
-        <f t="shared" ref="C202:O202" si="36">AVERAGEIF($A$24:$A$149, "*julianps-modelmapper-module*_Repaired", B$24:B$149)</f>
+      <c r="C206" s="25">
+        <f t="shared" ref="C206:O206" si="44">AVERAGEIF($A$24:$A$149, "*julianps-modelmapper-module*_Repaired", B$24:B$149)</f>
         <v>1.1666666666666667</v>
       </c>
-      <c r="D202" s="25">
-        <f t="shared" si="36"/>
+      <c r="D206" s="25">
+        <f t="shared" si="44"/>
         <v>96.666666666666671</v>
       </c>
-      <c r="E202" s="25">
-        <f t="shared" si="36"/>
+      <c r="E206" s="25">
+        <f t="shared" si="44"/>
         <v>3.3333333333333335</v>
       </c>
-      <c r="F202" s="25">
-        <f t="shared" si="36"/>
+      <c r="F206" s="25">
+        <f t="shared" si="44"/>
         <v>4.166666666666667</v>
       </c>
-      <c r="G202" s="25">
-        <f t="shared" si="36"/>
+      <c r="G206" s="25">
+        <f t="shared" si="44"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="H202" s="25">
-        <f t="shared" si="36"/>
+      <c r="H206" s="25">
+        <f t="shared" si="44"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="I202" s="25">
-        <f t="shared" si="36"/>
+      <c r="I206" s="25">
+        <f t="shared" si="44"/>
         <v>4.5</v>
       </c>
-      <c r="J202" s="25">
-        <f t="shared" si="36"/>
+      <c r="J206" s="25">
+        <f t="shared" si="44"/>
         <v>4</v>
       </c>
-      <c r="K202" s="25">
-        <f t="shared" si="36"/>
+      <c r="K206" s="25">
+        <f t="shared" si="44"/>
         <v>8.9816666666666674</v>
       </c>
-      <c r="L202" s="25">
-        <f t="shared" si="36"/>
+      <c r="L206" s="25">
+        <f t="shared" si="44"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="M202" s="25">
-        <f t="shared" si="36"/>
+      <c r="M206" s="25">
+        <f t="shared" si="44"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="N202" s="25">
-        <f t="shared" si="36"/>
+      <c r="N206" s="25">
+        <f t="shared" si="44"/>
         <v>7.3966666666666674</v>
       </c>
-      <c r="O202" s="25">
-        <f t="shared" si="36"/>
+      <c r="O206" s="25">
+        <f t="shared" si="44"/>
         <v>0.41166666666666668</v>
       </c>
     </row>
-    <row r="204" spans="1:15" ht="28.8" x14ac:dyDescent="0.35">
-      <c r="B204" s="13" t="s">
+    <row r="208" spans="1:15" ht="28.8" x14ac:dyDescent="0.35">
+      <c r="B208" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="C204" s="13" t="s">
+      <c r="C208" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="D204" s="13" t="s">
+      <c r="D208" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="E204" s="13" t="s">
+      <c r="E208" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="F204" s="13" t="s">
+      <c r="F208" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G204" s="13" t="s">
+      <c r="G208" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="H204" s="13" t="s">
+      <c r="H208" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I204" s="13" t="s">
+      <c r="I208" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="J204" s="13" t="s">
+      <c r="J208" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="K204" s="13" t="s">
+      <c r="K208" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="L204" s="13" t="s">
+      <c r="L208" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="M204" s="13" t="s">
+      <c r="M208" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="N204" s="13" t="s">
+      <c r="N208" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="O204" s="13" t="s">
+      <c r="O208" s="13" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A205" s="1">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A209" s="1">
         <f>COUNTIF($A$24:$A$149, "*opentracing-contrib-java-p6sp*Buggy")</f>
         <v>5</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="B209" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C205" s="25">
-        <f t="shared" ref="C205:O205" si="37">AVERAGEIF($A$24:$A$149, "*opentracing-contrib-java-p6sp*_Buggy", B$24:B$149)</f>
+      <c r="C209" s="25">
+        <f t="shared" ref="C209:O209" si="45">AVERAGEIF($A$24:$A$149, "*opentracing-contrib-java-p6sp*_Buggy", B$24:B$149)</f>
         <v>2.62</v>
       </c>
-      <c r="D205" s="25">
-        <f t="shared" si="37"/>
+      <c r="D209" s="25">
+        <f t="shared" si="45"/>
         <v>79.849999999999994</v>
       </c>
-      <c r="E205" s="25">
-        <f t="shared" si="37"/>
+      <c r="E209" s="25">
+        <f t="shared" si="45"/>
         <v>10.31</v>
       </c>
-      <c r="F205" s="25">
-        <f t="shared" si="37"/>
+      <c r="F209" s="25">
+        <f t="shared" si="45"/>
         <v>5.54</v>
       </c>
-      <c r="G205" s="25">
-        <f t="shared" si="37"/>
+      <c r="G209" s="25">
+        <f t="shared" si="45"/>
         <v>8.69</v>
       </c>
-      <c r="H205" s="25">
-        <f t="shared" si="37"/>
+      <c r="H209" s="25">
+        <f t="shared" si="45"/>
         <v>3.31</v>
       </c>
-      <c r="I205" s="25">
-        <f t="shared" si="37"/>
+      <c r="I209" s="25">
+        <f t="shared" si="45"/>
         <v>8.85</v>
       </c>
-      <c r="J205" s="25">
-        <f t="shared" si="37"/>
+      <c r="J209" s="25">
+        <f t="shared" si="45"/>
         <v>19</v>
       </c>
-      <c r="K205" s="25">
-        <f t="shared" si="37"/>
+      <c r="K209" s="25">
+        <f t="shared" si="45"/>
         <v>37.72</v>
       </c>
-      <c r="L205" s="25">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="M205" s="25">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="N205" s="25">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="O205" s="25">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A206" s="1">
+      <c r="L209" s="25">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="M209" s="25">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="N209" s="25">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="O209" s="25">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A210" s="1">
         <f>COUNTIF($A$24:$A$149, "*opentracing-contrib-java-p6sp*Fixed")</f>
         <v>5</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="B210" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C206" s="25">
-        <f t="shared" ref="C206:O206" si="38">AVERAGEIF($A$24:$A$149, "*opentracing-contrib-java-p6sp*_Fixed", B$24:B$149)</f>
+      <c r="C210" s="25">
+        <f t="shared" ref="C210:O210" si="46">AVERAGEIF($A$24:$A$149, "*opentracing-contrib-java-p6sp*_Fixed", B$24:B$149)</f>
         <v>2.57</v>
       </c>
-      <c r="D206" s="25">
-        <f t="shared" si="38"/>
+      <c r="D210" s="25">
+        <f t="shared" si="46"/>
         <v>80.36</v>
       </c>
-      <c r="E206" s="25">
-        <f t="shared" si="38"/>
+      <c r="E210" s="25">
+        <f t="shared" si="46"/>
         <v>9.7899999999999991</v>
       </c>
-      <c r="F206" s="25">
-        <f t="shared" si="38"/>
+      <c r="F210" s="25">
+        <f t="shared" si="46"/>
         <v>5.43</v>
       </c>
-      <c r="G206" s="25">
-        <f t="shared" si="38"/>
+      <c r="G210" s="25">
+        <f t="shared" si="46"/>
         <v>8.43</v>
       </c>
-      <c r="H206" s="25">
-        <f t="shared" si="38"/>
+      <c r="H210" s="25">
+        <f t="shared" si="46"/>
         <v>3.3600000000000003</v>
       </c>
-      <c r="I206" s="25">
-        <f t="shared" si="38"/>
+      <c r="I210" s="25">
+        <f t="shared" si="46"/>
         <v>8.7899999999999991</v>
       </c>
-      <c r="J206" s="25">
-        <f t="shared" si="38"/>
+      <c r="J210" s="25">
+        <f t="shared" si="46"/>
         <v>18.21</v>
       </c>
-      <c r="K206" s="25">
-        <f t="shared" si="38"/>
+      <c r="K210" s="25">
+        <f t="shared" si="46"/>
         <v>36.97</v>
       </c>
-      <c r="L206" s="25">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="M206" s="25">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="N206" s="25">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="O206" s="25">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A207" s="1">
+      <c r="L210" s="25">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="M210" s="25">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="N210" s="25">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="O210" s="25">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A211" s="1">
         <f>COUNTIF($A$24:$A$149, "*opentracing-contrib-java-p6sp*Repaired")</f>
         <v>5</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="B211" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C207" s="25">
-        <f t="shared" ref="C207:O207" si="39">AVERAGEIF($A$24:$A$149, "*opentracing-contrib-java-p6sp*_Repaired", B$24:B$149)</f>
+      <c r="C211" s="25">
+        <f t="shared" ref="C211:O211" si="47">AVERAGEIF($A$24:$A$149, "*opentracing-contrib-java-p6sp*_Repaired", B$24:B$149)</f>
         <v>2.54</v>
       </c>
-      <c r="D207" s="25">
-        <f t="shared" si="39"/>
+      <c r="D211" s="25">
+        <f t="shared" si="47"/>
         <v>80.12</v>
       </c>
-      <c r="E207" s="25">
-        <f t="shared" si="39"/>
+      <c r="E211" s="25">
+        <f t="shared" si="47"/>
         <v>10.044</v>
       </c>
-      <c r="F207" s="25">
-        <f t="shared" si="39"/>
+      <c r="F211" s="25">
+        <f t="shared" si="47"/>
         <v>5.524</v>
       </c>
-      <c r="G207" s="25">
-        <f t="shared" si="39"/>
+      <c r="G211" s="25">
+        <f t="shared" si="47"/>
         <v>8.3239999999999998</v>
       </c>
-      <c r="H207" s="25">
-        <f t="shared" si="39"/>
+      <c r="H211" s="25">
+        <f t="shared" si="47"/>
         <v>3.1540000000000004</v>
       </c>
-      <c r="I207" s="25">
-        <f t="shared" si="39"/>
+      <c r="I211" s="25">
+        <f t="shared" si="47"/>
         <v>8.68</v>
       </c>
-      <c r="J207" s="25">
-        <f t="shared" si="39"/>
+      <c r="J211" s="25">
+        <f t="shared" si="47"/>
         <v>18.368000000000002</v>
       </c>
-      <c r="K207" s="25">
-        <f t="shared" si="39"/>
+      <c r="K211" s="25">
+        <f t="shared" si="47"/>
         <v>36.53</v>
       </c>
-      <c r="L207" s="25">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="M207" s="25">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="N207" s="25">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="O207" s="25">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:15" ht="28.8" x14ac:dyDescent="0.35">
-      <c r="B209" s="13" t="s">
+      <c r="L211" s="25">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="M211" s="25">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="N211" s="25">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="O211" s="25">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" ht="28.8" x14ac:dyDescent="0.35">
+      <c r="B213" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="C209" s="13" t="s">
+      <c r="C213" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="D209" s="13" t="s">
+      <c r="D213" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="E209" s="13" t="s">
+      <c r="E213" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="F209" s="13" t="s">
+      <c r="F213" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G209" s="13" t="s">
+      <c r="G213" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="H209" s="13" t="s">
+      <c r="H213" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I209" s="13" t="s">
+      <c r="I213" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="J209" s="13" t="s">
+      <c r="J213" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="K209" s="13" t="s">
+      <c r="K213" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="L209" s="13" t="s">
+      <c r="L213" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="M209" s="13" t="s">
+      <c r="M213" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="N209" s="13" t="s">
+      <c r="N213" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="O209" s="13" t="s">
+      <c r="O213" s="13" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A210" s="1">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A214" s="1">
         <f>COUNTIF($A$24:$A$149, "*SzFMV2018-Tavasz-AutomatedCar*Buggy")</f>
         <v>6</v>
       </c>
-      <c r="B210" s="1" t="s">
+      <c r="B214" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C210" s="25">
-        <f t="shared" ref="C210:O210" si="40">AVERAGEIF($A$24:$A$149, "*SzFMV2018-Tavasz-AutomatedCar*_Buggy", B$24:B$149)</f>
-        <v>1</v>
-      </c>
-      <c r="D210" s="25">
-        <f t="shared" si="40"/>
+      <c r="C214" s="25">
+        <f t="shared" ref="C214:O214" si="48">AVERAGEIF($A$24:$A$149, "*SzFMV2018-Tavasz-AutomatedCar*_Buggy", B$24:B$149)</f>
+        <v>1</v>
+      </c>
+      <c r="D214" s="25">
+        <f t="shared" si="48"/>
         <v>74.569999999999993</v>
       </c>
-      <c r="E210" s="25">
-        <f t="shared" si="40"/>
+      <c r="E214" s="25">
+        <f t="shared" si="48"/>
         <v>11</v>
       </c>
-      <c r="F210" s="25">
-        <f t="shared" si="40"/>
+      <c r="F214" s="25">
+        <f t="shared" si="48"/>
         <v>9.86</v>
       </c>
-      <c r="G210" s="25">
-        <f t="shared" si="40"/>
+      <c r="G214" s="25">
+        <f t="shared" si="48"/>
         <v>6.86</v>
       </c>
-      <c r="H210" s="25">
-        <f t="shared" si="40"/>
+      <c r="H214" s="25">
+        <f t="shared" si="48"/>
         <v>2</v>
       </c>
-      <c r="I210" s="25">
-        <f t="shared" si="40"/>
+      <c r="I214" s="25">
+        <f t="shared" si="48"/>
         <v>11.86</v>
       </c>
-      <c r="J210" s="25">
-        <f t="shared" si="40"/>
+      <c r="J214" s="25">
+        <f t="shared" si="48"/>
         <v>17.86</v>
       </c>
-      <c r="K210" s="25">
-        <f t="shared" si="40"/>
+      <c r="K214" s="25">
+        <f t="shared" si="48"/>
         <v>52.87</v>
       </c>
-      <c r="L210" s="25">
-        <f t="shared" si="40"/>
+      <c r="L214" s="25">
+        <f t="shared" si="48"/>
         <v>2</v>
       </c>
-      <c r="M210" s="25">
-        <f t="shared" si="40"/>
+      <c r="M214" s="25">
+        <f t="shared" si="48"/>
         <v>4.9999999999999996E-2</v>
       </c>
-      <c r="N210" s="25">
-        <f t="shared" si="40"/>
+      <c r="N214" s="25">
+        <f t="shared" si="48"/>
         <v>30.41</v>
       </c>
-      <c r="O210" s="25">
-        <f t="shared" si="40"/>
+      <c r="O214" s="25">
+        <f t="shared" si="48"/>
         <v>1.6899999999999997</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A211" s="1">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A215" s="1">
         <f>COUNTIF($A$24:$A$149, "*SzFMV2018-Tavasz-AutomatedCar*Fixed")</f>
         <v>6</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="B215" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C211" s="26">
-        <f t="shared" ref="C211:O211" si="41">AVERAGEIF($A$24:$A$149, "*SzFMV2018-Tavasz-AutomatedCar*_Fixed", B$24:B$149)</f>
-        <v>1</v>
-      </c>
-      <c r="D211" s="26">
-        <f t="shared" si="41"/>
+      <c r="C215" s="26">
+        <f t="shared" ref="C215:O215" si="49">AVERAGEIF($A$24:$A$149, "*SzFMV2018-Tavasz-AutomatedCar*_Fixed", B$24:B$149)</f>
+        <v>1</v>
+      </c>
+      <c r="D215" s="26">
+        <f t="shared" si="49"/>
         <v>74.569999999999993</v>
       </c>
-      <c r="E211" s="26">
-        <f t="shared" si="41"/>
+      <c r="E215" s="26">
+        <f t="shared" si="49"/>
         <v>11</v>
       </c>
-      <c r="F211" s="26">
-        <f t="shared" si="41"/>
+      <c r="F215" s="26">
+        <f t="shared" si="49"/>
         <v>9.86</v>
       </c>
-      <c r="G211" s="26">
-        <f t="shared" si="41"/>
+      <c r="G215" s="26">
+        <f t="shared" si="49"/>
         <v>6.71</v>
       </c>
-      <c r="H211" s="26">
-        <f t="shared" si="41"/>
+      <c r="H215" s="26">
+        <f t="shared" si="49"/>
         <v>2</v>
       </c>
-      <c r="I211" s="26">
-        <f t="shared" si="41"/>
+      <c r="I215" s="26">
+        <f t="shared" si="49"/>
         <v>11.86</v>
       </c>
-      <c r="J211" s="26">
-        <f t="shared" si="41"/>
+      <c r="J215" s="26">
+        <f t="shared" si="49"/>
         <v>17.710000000000004</v>
       </c>
-      <c r="K211" s="26">
-        <f t="shared" si="41"/>
+      <c r="K215" s="26">
+        <f t="shared" si="49"/>
         <v>52.800000000000004</v>
       </c>
-      <c r="L211" s="26">
-        <f t="shared" si="41"/>
+      <c r="L215" s="26">
+        <f t="shared" si="49"/>
         <v>2</v>
       </c>
-      <c r="M211" s="26">
-        <f t="shared" si="41"/>
+      <c r="M215" s="26">
+        <f t="shared" si="49"/>
         <v>4.9999999999999996E-2</v>
       </c>
-      <c r="N211" s="26">
-        <f t="shared" si="41"/>
+      <c r="N215" s="26">
+        <f t="shared" si="49"/>
         <v>30.41</v>
       </c>
-      <c r="O211" s="26">
-        <f t="shared" si="41"/>
+      <c r="O215" s="26">
+        <f t="shared" si="49"/>
         <v>1.6899999999999997</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A212" s="1">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A216" s="1">
         <f>COUNTIF($A$24:$A$149, "*SzFMV2018-Tavasz-AutomatedCar*Repaired")</f>
         <v>6</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="B216" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C212" s="26">
-        <f t="shared" ref="C212:O212" si="42">AVERAGEIF($A$24:$A$149, "*SzFMV2018-Tavasz-AutomatedCar*_Repaired", B$24:B$149)</f>
+      <c r="C216" s="26">
+        <f t="shared" ref="C216:O216" si="50">AVERAGEIF($A$24:$A$149, "*SzFMV2018-Tavasz-AutomatedCar*_Repaired", B$24:B$149)</f>
         <v>1.0233333333333332</v>
       </c>
-      <c r="D212" s="26">
-        <f t="shared" si="42"/>
+      <c r="D216" s="26">
+        <f t="shared" si="50"/>
         <v>74.263333333333335</v>
       </c>
-      <c r="E212" s="26">
-        <f t="shared" si="42"/>
+      <c r="E216" s="26">
+        <f t="shared" si="50"/>
         <v>10.998333333333335</v>
       </c>
-      <c r="F212" s="26">
-        <f t="shared" si="42"/>
+      <c r="F216" s="26">
+        <f t="shared" si="50"/>
         <v>9.9533333333333331</v>
       </c>
-      <c r="G212" s="26">
-        <f t="shared" si="42"/>
+      <c r="G216" s="26">
+        <f t="shared" si="50"/>
         <v>6.93</v>
       </c>
-      <c r="H212" s="26">
-        <f t="shared" si="42"/>
+      <c r="H216" s="26">
+        <f t="shared" si="50"/>
         <v>2.0950000000000002</v>
       </c>
-      <c r="I212" s="26">
-        <f t="shared" si="42"/>
+      <c r="I216" s="26">
+        <f t="shared" si="50"/>
         <v>12.048333333333332</v>
       </c>
-      <c r="J212" s="26">
-        <f t="shared" si="42"/>
+      <c r="J216" s="26">
+        <f t="shared" si="50"/>
         <v>17.928333333333331</v>
       </c>
-      <c r="K212" s="26">
-        <f t="shared" si="42"/>
+      <c r="K216" s="26">
+        <f t="shared" si="50"/>
         <v>53.723333333333329</v>
       </c>
-      <c r="L212" s="26">
-        <f t="shared" si="42"/>
+      <c r="L216" s="26">
+        <f t="shared" si="50"/>
         <v>2.0483333333333333</v>
       </c>
-      <c r="M212" s="26">
-        <f t="shared" si="42"/>
+      <c r="M216" s="26">
+        <f t="shared" si="50"/>
         <v>5.5333333333333325E-2</v>
       </c>
-      <c r="N212" s="26">
-        <f t="shared" si="42"/>
+      <c r="N216" s="26">
+        <f t="shared" si="50"/>
         <v>35.678333333333335</v>
       </c>
-      <c r="O212" s="26">
-        <f t="shared" si="42"/>
+      <c r="O216" s="26">
+        <f t="shared" si="50"/>
         <v>1.9833333333333332</v>
       </c>
     </row>
-    <row r="214" spans="1:15" ht="28.8" x14ac:dyDescent="0.35">
-      <c r="B214" s="13" t="s">
+    <row r="218" spans="1:15" ht="28.8" x14ac:dyDescent="0.35">
+      <c r="B218" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="C214" s="13" t="s">
+      <c r="C218" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="D214" s="13" t="s">
+      <c r="D218" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="E214" s="13" t="s">
+      <c r="E218" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="F214" s="13" t="s">
+      <c r="F218" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G214" s="13" t="s">
+      <c r="G218" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="H214" s="13" t="s">
+      <c r="H218" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I214" s="13" t="s">
+      <c r="I218" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="J214" s="13" t="s">
+      <c r="J218" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="K214" s="13" t="s">
+      <c r="K218" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="L214" s="13" t="s">
+      <c r="L218" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="M214" s="13" t="s">
+      <c r="M218" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="N214" s="13" t="s">
+      <c r="N218" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="O214" s="13" t="s">
+      <c r="O218" s="13" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A215" s="1">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A219" s="1">
         <f>COUNTIF($A$24:$A$149, "*traccar-traccar*Buggy")</f>
         <v>6</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="B219" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C215" s="25">
-        <f t="shared" ref="C215:O215" si="43">AVERAGEIF($A$24:$A$149, "*traccar-traccar*_Buggy", B$24:B$149)</f>
+      <c r="C219" s="25">
+        <f t="shared" ref="C219:O219" si="51">AVERAGEIF($A$24:$A$149, "*traccar-traccar*_Buggy", B$24:B$149)</f>
         <v>5.75</v>
       </c>
-      <c r="D215" s="25">
-        <f t="shared" si="43"/>
+      <c r="D219" s="25">
+        <f t="shared" si="51"/>
         <v>68.5</v>
       </c>
-      <c r="E215" s="25">
-        <f t="shared" si="43"/>
+      <c r="E219" s="25">
+        <f t="shared" si="51"/>
         <v>22.25</v>
       </c>
-      <c r="F215" s="25">
-        <f t="shared" si="43"/>
+      <c r="F219" s="25">
+        <f t="shared" si="51"/>
         <v>7.62</v>
       </c>
-      <c r="G215" s="25">
-        <f t="shared" si="43"/>
+      <c r="G219" s="25">
+        <f t="shared" si="51"/>
         <v>21.62</v>
       </c>
-      <c r="H215" s="25">
-        <f t="shared" si="43"/>
+      <c r="H219" s="25">
+        <f t="shared" si="51"/>
         <v>4.38</v>
       </c>
-      <c r="I215" s="25">
-        <f t="shared" si="43"/>
+      <c r="I219" s="25">
+        <f t="shared" si="51"/>
         <v>12</v>
       </c>
-      <c r="J215" s="25">
-        <f t="shared" si="43"/>
+      <c r="J219" s="25">
+        <f t="shared" si="51"/>
         <v>43.88</v>
       </c>
-      <c r="K215" s="25">
-        <f t="shared" si="43"/>
+      <c r="K219" s="25">
+        <f t="shared" si="51"/>
         <v>66.92</v>
       </c>
-      <c r="L215" s="25">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="M215" s="25">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="N215" s="25">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="O215" s="25">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A216" s="1">
+      <c r="L219" s="25">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="M219" s="25">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="N219" s="25">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="O219" s="25">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A220" s="1">
         <f>COUNTIF($A$24:$A$149, "*traccar-traccar*Fixed")</f>
         <v>6</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="B220" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C216" s="26">
-        <f t="shared" ref="C216:O216" si="44">AVERAGEIF($A$24:$A$149, "*traccar-traccar*_Fixed", B$24:B$149)</f>
+      <c r="C220" s="26">
+        <f t="shared" ref="C220:O220" si="52">AVERAGEIF($A$24:$A$149, "*traccar-traccar*_Fixed", B$24:B$149)</f>
         <v>5.88</v>
       </c>
-      <c r="D216" s="26">
-        <f t="shared" si="44"/>
+      <c r="D220" s="26">
+        <f t="shared" si="52"/>
         <v>68.5</v>
       </c>
-      <c r="E216" s="26">
-        <f t="shared" si="44"/>
+      <c r="E220" s="26">
+        <f t="shared" si="52"/>
         <v>22.5</v>
       </c>
-      <c r="F216" s="26">
-        <f t="shared" si="44"/>
+      <c r="F220" s="26">
+        <f t="shared" si="52"/>
         <v>7.62</v>
       </c>
-      <c r="G216" s="26">
-        <f t="shared" si="44"/>
+      <c r="G220" s="26">
+        <f t="shared" si="52"/>
         <v>22</v>
       </c>
-      <c r="H216" s="26">
-        <f t="shared" si="44"/>
+      <c r="H220" s="26">
+        <f t="shared" si="52"/>
         <v>4.38</v>
       </c>
-      <c r="I216" s="26">
-        <f t="shared" si="44"/>
+      <c r="I220" s="26">
+        <f t="shared" si="52"/>
         <v>12</v>
       </c>
-      <c r="J216" s="26">
-        <f t="shared" si="44"/>
+      <c r="J220" s="26">
+        <f t="shared" si="52"/>
         <v>44.5</v>
       </c>
-      <c r="K216" s="26">
-        <f t="shared" si="44"/>
+      <c r="K220" s="26">
+        <f t="shared" si="52"/>
         <v>67.08</v>
       </c>
-      <c r="L216" s="26">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="M216" s="26">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="N216" s="26">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="O216" s="26">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A217" s="1">
+      <c r="L220" s="26">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="M220" s="26">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="N220" s="26">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="O220" s="26">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A221" s="1">
         <f>COUNTIF($A$24:$A$149, "*traccar-traccar*Repaired")</f>
         <v>6</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="B221" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C217" s="26">
-        <f t="shared" ref="C217:O217" si="45">AVERAGEIF($A$24:$A$149, "*traccar-traccar*_Repaired", B$24:B$149)</f>
+      <c r="C221" s="26">
+        <f t="shared" ref="C221:O221" si="53">AVERAGEIF($A$24:$A$149, "*traccar-traccar*_Repaired", B$24:B$149)</f>
         <v>5.3116666666666665</v>
       </c>
-      <c r="D217" s="26">
-        <f t="shared" si="45"/>
+      <c r="D221" s="26">
+        <f t="shared" si="53"/>
         <v>68.916666666666671</v>
       </c>
-      <c r="E217" s="26">
-        <f t="shared" si="45"/>
+      <c r="E221" s="26">
+        <f t="shared" si="53"/>
         <v>20.75</v>
       </c>
-      <c r="F217" s="26">
-        <f t="shared" si="45"/>
+      <c r="F221" s="26">
+        <f t="shared" si="53"/>
         <v>7.52</v>
       </c>
-      <c r="G217" s="26">
-        <f t="shared" si="45"/>
+      <c r="G221" s="26">
+        <f t="shared" si="53"/>
         <v>19.808333333333334</v>
       </c>
-      <c r="H217" s="26">
-        <f t="shared" si="45"/>
+      <c r="H221" s="26">
+        <f t="shared" si="53"/>
         <v>4.38</v>
       </c>
-      <c r="I217" s="26">
-        <f t="shared" si="45"/>
+      <c r="I221" s="26">
+        <f t="shared" si="53"/>
         <v>11.9</v>
       </c>
-      <c r="J217" s="26">
-        <f t="shared" si="45"/>
+      <c r="J221" s="26">
+        <f t="shared" si="53"/>
         <v>40.55833333333333</v>
       </c>
-      <c r="K217" s="26">
-        <f t="shared" si="45"/>
+      <c r="K221" s="26">
+        <f t="shared" si="53"/>
         <v>65.278333333333336</v>
       </c>
-      <c r="L217" s="26">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="M217" s="26">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="N217" s="26">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="O217" s="26">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A220" s="23" t="s">
+      <c r="L221" s="26">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="M221" s="26">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="N221" s="26">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="O221" s="26">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A224" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="B220" s="24"/>
-      <c r="C220" s="27"/>
-      <c r="D220" s="27"/>
-      <c r="E220" s="27"/>
-      <c r="F220" s="27"/>
-      <c r="G220" s="27"/>
-      <c r="H220" s="27"/>
-      <c r="I220" s="27"/>
-      <c r="J220" s="27"/>
-      <c r="K220" s="27"/>
-      <c r="L220" s="27"/>
-      <c r="M220" s="27"/>
-      <c r="N220" s="27"/>
-      <c r="O220" s="27"/>
-    </row>
-    <row r="221" spans="1:15" ht="15" x14ac:dyDescent="0.35">
-      <c r="A221"/>
-      <c r="B221"/>
-      <c r="C221"/>
-      <c r="D221"/>
-      <c r="E221"/>
-      <c r="F221"/>
-      <c r="G221"/>
-      <c r="H221"/>
-      <c r="I221"/>
-      <c r="J221"/>
-      <c r="K221"/>
-      <c r="L221"/>
-      <c r="M221"/>
-      <c r="N221"/>
-      <c r="O221"/>
-    </row>
-    <row r="222" spans="1:15" ht="28.8" x14ac:dyDescent="0.35">
-      <c r="A222" s="13" t="s">
+      <c r="B224" s="24"/>
+      <c r="C224" s="27"/>
+      <c r="D224" s="27"/>
+      <c r="E224" s="27"/>
+      <c r="F224" s="27"/>
+      <c r="G224" s="27"/>
+      <c r="H224" s="27"/>
+      <c r="I224" s="27"/>
+      <c r="J224" s="27"/>
+      <c r="K224" s="27"/>
+      <c r="L224" s="27"/>
+      <c r="M224" s="27"/>
+      <c r="N224" s="27"/>
+      <c r="O224" s="27"/>
+    </row>
+    <row r="225" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="A225"/>
+      <c r="B225"/>
+      <c r="C225"/>
+      <c r="D225"/>
+      <c r="E225"/>
+      <c r="F225"/>
+      <c r="G225"/>
+      <c r="H225"/>
+      <c r="I225"/>
+      <c r="J225"/>
+      <c r="K225"/>
+      <c r="L225"/>
+      <c r="M225"/>
+      <c r="N225"/>
+      <c r="O225"/>
+    </row>
+    <row r="226" spans="1:15" ht="28.8" x14ac:dyDescent="0.35">
+      <c r="A226" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="B222" s="13" t="s">
+      <c r="B226" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="C222" s="13" t="s">
+      <c r="C226" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="D222" s="13" t="s">
+      <c r="D226" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="E222" s="13" t="s">
+      <c r="E226" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="F222" s="13" t="s">
+      <c r="F226" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G222" s="13" t="s">
+      <c r="G226" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="H222" s="13" t="s">
+      <c r="H226" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I222" s="13" t="s">
+      <c r="I226" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="J222" s="13" t="s">
+      <c r="J226" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="K222" s="13" t="s">
+      <c r="K226" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="L222" s="13" t="s">
+      <c r="L226" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="M222" s="13" t="s">
+      <c r="M226" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="N222" s="13" t="s">
+      <c r="N226" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="O222" s="13" t="s">
+      <c r="O226" s="13" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A223" s="1">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A227" s="1">
         <f>COUNTIF($A$24:$A$149, "Arja*Fixed")</f>
         <v>26</v>
       </c>
-      <c r="B223" s="1" t="s">
+      <c r="B227" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C223" s="25">
+      <c r="C227" s="25">
         <f>AVERAGEIF($A$24:$A$149, "Arja*Fixed", B$24:B$149)</f>
         <v>2.568461538461539</v>
       </c>
-      <c r="D223" s="25">
-        <f t="shared" ref="D223:N223" si="46">AVERAGEIF($A$24:$A$149, "Arja*Fixed", C$24:C$149)</f>
+      <c r="D227" s="25">
+        <f t="shared" ref="D227:N227" si="54">AVERAGEIF($A$24:$A$149, "Arja*Fixed", C$24:C$149)</f>
         <v>79.533846153846127</v>
       </c>
-      <c r="E223" s="25">
-        <f t="shared" si="46"/>
+      <c r="E227" s="25">
+        <f t="shared" si="54"/>
         <v>11.127692307692305</v>
       </c>
-      <c r="F223" s="25">
-        <f t="shared" si="46"/>
+      <c r="F227" s="25">
+        <f t="shared" si="54"/>
         <v>6.3934615384615388</v>
       </c>
-      <c r="G223" s="25">
-        <f t="shared" si="46"/>
+      <c r="G227" s="25">
+        <f t="shared" si="54"/>
         <v>9.1919230769230769</v>
       </c>
-      <c r="H223" s="25">
-        <f t="shared" si="46"/>
+      <c r="H227" s="25">
+        <f t="shared" si="54"/>
         <v>2.6753846153846155</v>
       </c>
-      <c r="I223" s="25">
-        <f t="shared" si="46"/>
+      <c r="I227" s="25">
+        <f t="shared" si="54"/>
         <v>9.0680769230769247</v>
       </c>
-      <c r="J223" s="25">
-        <f t="shared" si="46"/>
+      <c r="J227" s="25">
+        <f t="shared" si="54"/>
         <v>20.318846153846152</v>
       </c>
-      <c r="K223" s="25">
-        <f t="shared" si="46"/>
+      <c r="K227" s="25">
+        <f t="shared" si="54"/>
         <v>40.56807692307693</v>
       </c>
-      <c r="L223" s="25">
-        <f t="shared" si="46"/>
+      <c r="L227" s="25">
+        <f t="shared" si="54"/>
         <v>0.51769230769230767</v>
       </c>
-      <c r="M223" s="25">
-        <f t="shared" si="46"/>
+      <c r="M227" s="25">
+        <f t="shared" si="54"/>
         <v>5.0961538461538468E-2</v>
       </c>
-      <c r="N223" s="25">
-        <f t="shared" si="46"/>
+      <c r="N227" s="25">
+        <f t="shared" si="54"/>
         <v>9.6007692307692292</v>
       </c>
-      <c r="O223" s="25">
+      <c r="O227" s="25">
         <f>AVERAGEIF($A$24:$A$149, "Arja*Fixed", N$24:N$149)</f>
         <v>0.53392307692307683</v>
       </c>
     </row>
-    <row r="224" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A224" s="28">
+    <row r="228" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A228" s="28">
         <f>COUNTIF($A$24:$A$149, "Arja*Repaired")</f>
         <v>26</v>
       </c>
-      <c r="B224" s="28" t="s">
+      <c r="B228" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="C224" s="29">
+      <c r="C228" s="29">
         <f>AVERAGEIF($A$24:$A$149, "Arja*Repaired", B$24:B$149)</f>
         <v>2.4215384615384616</v>
       </c>
-      <c r="D224" s="29">
-        <f t="shared" ref="D224:O224" si="47">AVERAGEIF($A$24:$A$149, "Arja*Repaired", C$24:C$149)</f>
+      <c r="D228" s="29">
+        <f t="shared" ref="D228:O228" si="55">AVERAGEIF($A$24:$A$149, "Arja*Repaired", C$24:C$149)</f>
         <v>81.206923076923076</v>
       </c>
-      <c r="E224" s="29">
-        <f t="shared" si="47"/>
+      <c r="E228" s="29">
+        <f t="shared" si="55"/>
         <v>10.330769230769231</v>
       </c>
-      <c r="F224" s="29">
-        <f t="shared" si="47"/>
+      <c r="F228" s="29">
+        <f t="shared" si="55"/>
         <v>6.3992307692307691</v>
       </c>
-      <c r="G224" s="29">
-        <f t="shared" si="47"/>
+      <c r="G228" s="29">
+        <f t="shared" si="55"/>
         <v>8.0784615384615392</v>
       </c>
-      <c r="H224" s="29">
-        <f t="shared" si="47"/>
+      <c r="H228" s="29">
+        <f t="shared" si="55"/>
         <v>2.4384615384615387</v>
       </c>
-      <c r="I224" s="29">
-        <f t="shared" si="47"/>
+      <c r="I228" s="29">
+        <f t="shared" si="55"/>
         <v>8.837692307692306</v>
       </c>
-      <c r="J224" s="29">
-        <f t="shared" si="47"/>
+      <c r="J228" s="29">
+        <f t="shared" si="55"/>
         <v>18.408846153846152</v>
       </c>
-      <c r="K224" s="29">
-        <f t="shared" si="47"/>
+      <c r="K228" s="29">
+        <f t="shared" si="55"/>
         <v>38.34269230769231</v>
       </c>
-      <c r="L224" s="29">
-        <f t="shared" si="47"/>
+      <c r="L228" s="29">
+        <f t="shared" si="55"/>
         <v>0.50576923076923075</v>
       </c>
-      <c r="M224" s="29">
-        <f t="shared" si="47"/>
+      <c r="M228" s="29">
+        <f t="shared" si="55"/>
         <v>5.296153846153847E-2</v>
       </c>
-      <c r="N224" s="29">
-        <f t="shared" si="47"/>
+      <c r="N228" s="29">
+        <f t="shared" si="55"/>
         <v>10.267307692307693</v>
       </c>
-      <c r="O224" s="29">
-        <f t="shared" si="47"/>
+      <c r="O228" s="29">
+        <f t="shared" si="55"/>
         <v>0.57084615384615389</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A225" s="1">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A229" s="1">
         <f>COUNTIF($A$24:$A$149, "GenProg*Fixed")</f>
         <v>5</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="B229" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C225" s="25">
+      <c r="C229" s="25">
         <f>AVERAGEIF($A$24:$A$149, "GenProg*Fixed", B$24:B$149)</f>
         <v>1</v>
       </c>
-      <c r="D225" s="25">
-        <f t="shared" ref="D225:O225" si="48">AVERAGEIF($A$24:$A$149, "GenProg*Fixed", C$24:C$149)</f>
+      <c r="D229" s="25">
+        <f t="shared" ref="D229:O229" si="56">AVERAGEIF($A$24:$A$149, "GenProg*Fixed", C$24:C$149)</f>
         <v>74.569999999999993</v>
       </c>
-      <c r="E225" s="25">
-        <f t="shared" si="48"/>
+      <c r="E229" s="25">
+        <f t="shared" si="56"/>
         <v>11</v>
       </c>
-      <c r="F225" s="25">
-        <f t="shared" si="48"/>
+      <c r="F229" s="25">
+        <f t="shared" si="56"/>
         <v>9.86</v>
       </c>
-      <c r="G225" s="25">
-        <f t="shared" si="48"/>
+      <c r="G229" s="25">
+        <f t="shared" si="56"/>
         <v>6.7099999999999991</v>
       </c>
-      <c r="H225" s="25">
-        <f t="shared" si="48"/>
+      <c r="H229" s="25">
+        <f t="shared" si="56"/>
         <v>2</v>
       </c>
-      <c r="I225" s="25">
-        <f t="shared" si="48"/>
+      <c r="I229" s="25">
+        <f t="shared" si="56"/>
         <v>11.86</v>
       </c>
-      <c r="J225" s="25">
-        <f t="shared" si="48"/>
+      <c r="J229" s="25">
+        <f t="shared" si="56"/>
         <v>17.71</v>
       </c>
-      <c r="K225" s="25">
-        <f t="shared" si="48"/>
+      <c r="K229" s="25">
+        <f t="shared" si="56"/>
         <v>52.8</v>
       </c>
-      <c r="L225" s="25">
-        <f t="shared" si="48"/>
+      <c r="L229" s="25">
+        <f t="shared" si="56"/>
         <v>2</v>
       </c>
-      <c r="M225" s="25">
-        <f t="shared" si="48"/>
+      <c r="M229" s="25">
+        <f t="shared" si="56"/>
         <v>0.05</v>
       </c>
-      <c r="N225" s="25">
-        <f t="shared" si="48"/>
+      <c r="N229" s="25">
+        <f t="shared" si="56"/>
         <v>30.410000000000004</v>
       </c>
-      <c r="O225" s="25">
-        <f t="shared" si="48"/>
+      <c r="O229" s="25">
+        <f t="shared" si="56"/>
         <v>1.69</v>
       </c>
     </row>
-    <row r="226" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A226" s="28">
+    <row r="230" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A230" s="28">
         <f>COUNTIF($A$24:$A$149, "GenProg*Repaired")</f>
         <v>5</v>
       </c>
-      <c r="B226" s="28" t="s">
+      <c r="B230" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="C226" s="29">
+      <c r="C230" s="29">
         <f>AVERAGEIF($A$24:$A$149, "GenProg*Repaired", B$24:B$149)</f>
         <v>1</v>
       </c>
-      <c r="D226" s="29">
-        <f t="shared" ref="D226:O226" si="49">AVERAGEIF($A$24:$A$149, "GenProg*Repaired", C$24:C$149)</f>
+      <c r="D230" s="29">
+        <f t="shared" ref="D230:O230" si="57">AVERAGEIF($A$24:$A$149, "GenProg*Repaired", C$24:C$149)</f>
         <v>73.486000000000004</v>
       </c>
-      <c r="E226" s="29">
-        <f t="shared" si="49"/>
+      <c r="E230" s="29">
+        <f t="shared" si="57"/>
         <v>11.2</v>
       </c>
-      <c r="F226" s="29">
-        <f t="shared" si="49"/>
+      <c r="F230" s="29">
+        <f t="shared" si="57"/>
         <v>10.370000000000001</v>
       </c>
-      <c r="G226" s="29">
-        <f t="shared" si="49"/>
+      <c r="G230" s="29">
+        <f t="shared" si="57"/>
         <v>7.202</v>
       </c>
-      <c r="H226" s="29">
-        <f t="shared" si="49"/>
+      <c r="H230" s="29">
+        <f t="shared" si="57"/>
         <v>2.2280000000000002</v>
       </c>
-      <c r="I226" s="29">
-        <f t="shared" si="49"/>
+      <c r="I230" s="29">
+        <f t="shared" si="57"/>
         <v>12.6</v>
       </c>
-      <c r="J226" s="29">
-        <f t="shared" si="49"/>
+      <c r="J230" s="29">
+        <f t="shared" si="57"/>
         <v>18.398000000000003</v>
       </c>
-      <c r="K226" s="29">
-        <f t="shared" si="49"/>
+      <c r="K230" s="29">
+        <f t="shared" si="57"/>
         <v>56.54</v>
       </c>
-      <c r="L226" s="29">
-        <f t="shared" si="49"/>
+      <c r="L230" s="29">
+        <f t="shared" si="57"/>
         <v>1.9440000000000002</v>
       </c>
-      <c r="M226" s="29">
-        <f t="shared" si="49"/>
+      <c r="M230" s="29">
+        <f t="shared" si="57"/>
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="N226" s="29">
-        <f t="shared" si="49"/>
+      <c r="N230" s="29">
+        <f t="shared" si="57"/>
         <v>36.606000000000002</v>
       </c>
-      <c r="O226" s="29">
-        <f t="shared" si="49"/>
+      <c r="O230" s="29">
+        <f t="shared" si="57"/>
         <v>2.0339999999999998</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A227" s="1">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A231" s="1">
         <f>COUNTIF($A$24:$A$149, "Kali*Fixed")</f>
         <v>5</v>
       </c>
-      <c r="B227" s="1" t="s">
+      <c r="B231" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C227" s="25">
+      <c r="C231" s="25">
         <f>AVERAGEIF($A$24:$A$149, "Kali*Fixed", B$24:B$149)</f>
         <v>3.0960000000000001</v>
       </c>
-      <c r="D227" s="25">
-        <f t="shared" ref="D227:O227" si="50">AVERAGEIF($A$24:$A$149, "Kali*Fixed", C$24:C$149)</f>
+      <c r="D231" s="25">
+        <f t="shared" ref="D231:O231" si="58">AVERAGEIF($A$24:$A$149, "Kali*Fixed", C$24:C$149)</f>
         <v>78.08</v>
       </c>
-      <c r="E227" s="25">
-        <f t="shared" si="50"/>
+      <c r="E231" s="25">
+        <f t="shared" si="58"/>
         <v>12.318000000000001</v>
       </c>
-      <c r="F227" s="25">
-        <f t="shared" si="50"/>
+      <c r="F231" s="25">
+        <f t="shared" si="58"/>
         <v>6.5879999999999992</v>
       </c>
-      <c r="G227" s="25">
-        <f t="shared" si="50"/>
+      <c r="G231" s="25">
+        <f t="shared" si="58"/>
         <v>10.571999999999999</v>
       </c>
-      <c r="H227" s="25">
-        <f t="shared" si="50"/>
+      <c r="H231" s="25">
+        <f t="shared" si="58"/>
         <v>2.8659999999999997</v>
       </c>
-      <c r="I227" s="25">
-        <f t="shared" si="50"/>
+      <c r="I231" s="25">
+        <f t="shared" si="58"/>
         <v>9.4559999999999995</v>
       </c>
-      <c r="J227" s="25">
-        <f t="shared" si="50"/>
+      <c r="J231" s="25">
+        <f t="shared" si="58"/>
         <v>22.89</v>
       </c>
-      <c r="K227" s="25">
-        <f t="shared" si="50"/>
+      <c r="K231" s="25">
+        <f t="shared" si="58"/>
         <v>43.652000000000001</v>
       </c>
-      <c r="L227" s="25">
-        <f t="shared" si="50"/>
+      <c r="L231" s="25">
+        <f t="shared" si="58"/>
         <v>0.51400000000000001</v>
       </c>
-      <c r="M227" s="25">
-        <f t="shared" si="50"/>
+      <c r="M231" s="25">
+        <f t="shared" si="58"/>
         <v>1.3000000000000001E-2</v>
       </c>
-      <c r="N227" s="25">
-        <f t="shared" si="50"/>
+      <c r="N231" s="25">
+        <f t="shared" si="58"/>
         <v>8.7140000000000004</v>
       </c>
-      <c r="O227" s="25">
-        <f t="shared" si="50"/>
+      <c r="O231" s="25">
+        <f t="shared" si="58"/>
         <v>0.48399999999999999</v>
       </c>
     </row>
-    <row r="228" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A228" s="28">
+    <row r="232" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A232" s="28">
         <f>COUNTIF($A$24:$A$149, "Kali*Repaired")</f>
         <v>5</v>
       </c>
-      <c r="B228" s="28" t="s">
+      <c r="B232" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="C228" s="29">
+      <c r="C232" s="29">
         <f>AVERAGEIF($A$24:$A$149, "Kali*Repaired", B$24:B$149)</f>
         <v>3.1340000000000003</v>
       </c>
-      <c r="D228" s="29">
-        <f t="shared" ref="D228:O228" si="51">AVERAGEIF($A$24:$A$149, "Kali*Repaired", C$24:C$149)</f>
+      <c r="D232" s="29">
+        <f t="shared" ref="D232:O232" si="59">AVERAGEIF($A$24:$A$149, "Kali*Repaired", C$24:C$149)</f>
         <v>75.86</v>
       </c>
-      <c r="E228" s="29">
-        <f t="shared" si="51"/>
+      <c r="E232" s="29">
+        <f t="shared" si="59"/>
         <v>11.92</v>
       </c>
-      <c r="F228" s="29">
-        <f t="shared" si="51"/>
+      <c r="F232" s="29">
+        <f t="shared" si="59"/>
         <v>6.7359999999999998</v>
       </c>
-      <c r="G228" s="29">
-        <f t="shared" si="51"/>
+      <c r="G232" s="29">
+        <f t="shared" si="59"/>
         <v>10.24</v>
       </c>
-      <c r="H228" s="29">
-        <f t="shared" si="51"/>
+      <c r="H232" s="29">
+        <f t="shared" si="59"/>
         <v>3.0939999999999999</v>
       </c>
-      <c r="I228" s="29">
-        <f t="shared" si="51"/>
+      <c r="I232" s="29">
+        <f t="shared" si="59"/>
         <v>9.831999999999999</v>
       </c>
-      <c r="J228" s="29">
-        <f t="shared" si="51"/>
+      <c r="J232" s="29">
+        <f t="shared" si="59"/>
         <v>22.16</v>
       </c>
-      <c r="K228" s="29">
-        <f t="shared" si="51"/>
+      <c r="K232" s="29">
+        <f t="shared" si="59"/>
         <v>44.432000000000002</v>
       </c>
-      <c r="L228" s="29">
-        <f t="shared" si="51"/>
+      <c r="L232" s="29">
+        <f t="shared" si="59"/>
         <v>0.90800000000000003</v>
       </c>
-      <c r="M228" s="29">
-        <f t="shared" si="51"/>
+      <c r="M232" s="29">
+        <f t="shared" si="59"/>
         <v>0.11112000000000002</v>
       </c>
-      <c r="N228" s="29">
-        <f t="shared" si="51"/>
+      <c r="N232" s="29">
+        <f t="shared" si="59"/>
         <v>17.521999999999998</v>
       </c>
-      <c r="O228" s="29">
-        <f t="shared" si="51"/>
+      <c r="O232" s="29">
+        <f t="shared" si="59"/>
         <v>0.97399999999999998</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A229" s="1">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A233" s="1">
         <f>COUNTIF($A$24:$A$149, "Nopol*Fixed")</f>
         <v>1</v>
       </c>
-      <c r="B229" s="1" t="s">
+      <c r="B233" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C229" s="25">
+      <c r="C233" s="25">
         <f>AVERAGEIF($A$24:$A$149, "Nopol*Fixed", B$24:B$149)</f>
         <v>1.49</v>
       </c>
-      <c r="D229" s="25">
-        <f t="shared" ref="D229:O229" si="52">AVERAGEIF($A$24:$A$149, "Nopol*Fixed", C$24:C$149)</f>
+      <c r="D233" s="25">
+        <f t="shared" ref="D233:O233" si="60">AVERAGEIF($A$24:$A$149, "Nopol*Fixed", C$24:C$149)</f>
         <v>89.41</v>
       </c>
-      <c r="E229" s="25">
-        <f t="shared" si="52"/>
+      <c r="E233" s="25">
+        <f t="shared" si="60"/>
         <v>5.92</v>
       </c>
-      <c r="F229" s="25">
-        <f t="shared" si="52"/>
+      <c r="F233" s="25">
+        <f t="shared" si="60"/>
         <v>3.31</v>
       </c>
-      <c r="G229" s="25">
-        <f t="shared" si="52"/>
+      <c r="G233" s="25">
+        <f t="shared" si="60"/>
         <v>3.69</v>
       </c>
-      <c r="H229" s="25">
-        <f t="shared" si="52"/>
+      <c r="H233" s="25">
+        <f t="shared" si="60"/>
         <v>1.92</v>
       </c>
-      <c r="I229" s="25">
-        <f t="shared" si="52"/>
+      <c r="I233" s="25">
+        <f t="shared" si="60"/>
         <v>5.23</v>
       </c>
-      <c r="J229" s="25">
-        <f t="shared" si="52"/>
+      <c r="J233" s="25">
+        <f t="shared" si="60"/>
         <v>9.6199999999999992</v>
       </c>
-      <c r="K229" s="25">
-        <f t="shared" si="52"/>
+      <c r="K233" s="25">
+        <f t="shared" si="60"/>
         <v>19.39</v>
       </c>
-      <c r="L229" s="25">
-        <f t="shared" si="52"/>
+      <c r="L233" s="25">
+        <f t="shared" si="60"/>
         <v>0.22</v>
       </c>
-      <c r="M229" s="25">
-        <f t="shared" si="52"/>
+      <c r="M233" s="25">
+        <f t="shared" si="60"/>
         <v>0.11</v>
       </c>
-      <c r="N229" s="25">
-        <f t="shared" si="52"/>
+      <c r="N233" s="25">
+        <f t="shared" si="60"/>
         <v>2.4700000000000002</v>
       </c>
-      <c r="O229" s="25">
-        <f t="shared" si="52"/>
+      <c r="O233" s="25">
+        <f t="shared" si="60"/>
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="230" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A230" s="28">
+    <row r="234" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A234" s="28">
         <f>COUNTIF($A$24:$A$149, "Nopol*Repaired")</f>
         <v>1</v>
       </c>
-      <c r="B230" s="28" t="s">
+      <c r="B234" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="C230" s="29">
+      <c r="C234" s="29">
         <f>AVERAGEIF($A$24:$A$149, "Nopol*Repaired", B$24:B$149)</f>
         <v>1.53</v>
       </c>
-      <c r="D230" s="29">
-        <f t="shared" ref="D230:O230" si="53">AVERAGEIF($A$24:$A$149, "Nopol*Repaired", C$24:C$149)</f>
+      <c r="D234" s="29">
+        <f t="shared" ref="D234:O234" si="61">AVERAGEIF($A$24:$A$149, "Nopol*Repaired", C$24:C$149)</f>
         <v>89.38</v>
       </c>
-      <c r="E230" s="29">
-        <f t="shared" si="53"/>
+      <c r="E234" s="29">
+        <f t="shared" si="61"/>
         <v>5.95</v>
       </c>
-      <c r="F230" s="29">
-        <f t="shared" si="53"/>
+      <c r="F234" s="29">
+        <f t="shared" si="61"/>
         <v>3.33</v>
       </c>
-      <c r="G230" s="29">
-        <f t="shared" si="53"/>
+      <c r="G234" s="29">
+        <f t="shared" si="61"/>
         <v>3.82</v>
       </c>
-      <c r="H230" s="29">
-        <f t="shared" si="53"/>
+      <c r="H234" s="29">
+        <f t="shared" si="61"/>
         <v>1.95</v>
       </c>
-      <c r="I230" s="29">
-        <f t="shared" si="53"/>
+      <c r="I234" s="29">
+        <f t="shared" si="61"/>
         <v>5.28</v>
       </c>
-      <c r="J230" s="29">
-        <f t="shared" si="53"/>
+      <c r="J234" s="29">
+        <f t="shared" si="61"/>
         <v>9.77</v>
       </c>
-      <c r="K230" s="29">
-        <f t="shared" si="53"/>
+      <c r="K234" s="29">
+        <f t="shared" si="61"/>
         <v>19.79</v>
       </c>
-      <c r="L230" s="29">
-        <f t="shared" si="53"/>
+      <c r="L234" s="29">
+        <f t="shared" si="61"/>
         <v>0.22</v>
       </c>
-      <c r="M230" s="29">
-        <f t="shared" si="53"/>
+      <c r="M234" s="29">
+        <f t="shared" si="61"/>
         <v>0.11</v>
       </c>
-      <c r="N230" s="29">
-        <f t="shared" si="53"/>
+      <c r="N234" s="29">
+        <f t="shared" si="61"/>
         <v>2.4700000000000002</v>
       </c>
-      <c r="O230" s="29">
-        <f t="shared" si="53"/>
+      <c r="O234" s="29">
+        <f t="shared" si="61"/>
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A231" s="1">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A235" s="1">
         <f>COUNTIF($A$24:$A$149, "RSRepair*Fixed")</f>
         <v>5</v>
       </c>
-      <c r="B231" s="1" t="s">
+      <c r="B235" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C231" s="25">
+      <c r="C235" s="25">
         <f>AVERAGEIF($A$24:$A$149, "RSRepair*Fixed", B$24:B$149)</f>
         <v>1</v>
       </c>
-      <c r="D231" s="25">
-        <f t="shared" ref="D231:O231" si="54">AVERAGEIF($A$24:$A$149, "RSRepair*Fixed", C$24:C$149)</f>
+      <c r="D235" s="25">
+        <f t="shared" ref="D235:O235" si="62">AVERAGEIF($A$24:$A$149, "RSRepair*Fixed", C$24:C$149)</f>
         <v>74.569999999999993</v>
       </c>
-      <c r="E231" s="25">
-        <f t="shared" si="54"/>
+      <c r="E235" s="25">
+        <f t="shared" si="62"/>
         <v>11</v>
       </c>
-      <c r="F231" s="25">
-        <f t="shared" si="54"/>
+      <c r="F235" s="25">
+        <f t="shared" si="62"/>
         <v>9.86</v>
       </c>
-      <c r="G231" s="25">
-        <f t="shared" si="54"/>
+      <c r="G235" s="25">
+        <f t="shared" si="62"/>
         <v>6.7099999999999991</v>
       </c>
-      <c r="H231" s="25">
-        <f t="shared" si="54"/>
+      <c r="H235" s="25">
+        <f t="shared" si="62"/>
         <v>2</v>
       </c>
-      <c r="I231" s="25">
-        <f t="shared" si="54"/>
+      <c r="I235" s="25">
+        <f t="shared" si="62"/>
         <v>11.86</v>
       </c>
-      <c r="J231" s="25">
-        <f t="shared" si="54"/>
+      <c r="J235" s="25">
+        <f t="shared" si="62"/>
         <v>17.71</v>
       </c>
-      <c r="K231" s="25">
-        <f t="shared" si="54"/>
+      <c r="K235" s="25">
+        <f t="shared" si="62"/>
         <v>52.8</v>
       </c>
-      <c r="L231" s="25">
-        <f t="shared" si="54"/>
+      <c r="L235" s="25">
+        <f t="shared" si="62"/>
         <v>2</v>
       </c>
-      <c r="M231" s="25">
-        <f t="shared" si="54"/>
+      <c r="M235" s="25">
+        <f t="shared" si="62"/>
         <v>0.05</v>
       </c>
-      <c r="N231" s="25">
-        <f t="shared" si="54"/>
+      <c r="N235" s="25">
+        <f t="shared" si="62"/>
         <v>30.410000000000004</v>
       </c>
-      <c r="O231" s="25">
-        <f t="shared" si="54"/>
+      <c r="O235" s="25">
+        <f t="shared" si="62"/>
         <v>1.69</v>
       </c>
     </row>
-    <row r="232" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A232" s="28">
+    <row r="236" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A236" s="28">
         <f>COUNTIF($A$24:$A$149, "RSRepair*Repaired")</f>
         <v>5</v>
       </c>
-      <c r="B232" s="28" t="s">
+      <c r="B236" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="C232" s="29">
+      <c r="C236" s="29">
         <f>AVERAGEIF($A$24:$A$149, "RSRepair*Repaired", B$24:B$149)</f>
         <v>1</v>
       </c>
-      <c r="D232" s="29">
-        <f t="shared" ref="D232:O232" si="55">AVERAGEIF($A$24:$A$149, "RSRepair*Repaired", C$24:C$149)</f>
+      <c r="D236" s="29">
+        <f t="shared" ref="D236:O236" si="63">AVERAGEIF($A$24:$A$149, "RSRepair*Repaired", C$24:C$149)</f>
         <v>74.539999999999992</v>
       </c>
-      <c r="E232" s="29">
-        <f t="shared" si="55"/>
+      <c r="E236" s="29">
+        <f t="shared" si="63"/>
         <v>11.14</v>
       </c>
-      <c r="F232" s="29">
-        <f t="shared" si="55"/>
+      <c r="F236" s="29">
+        <f t="shared" si="63"/>
         <v>10.056000000000001</v>
       </c>
-      <c r="G232" s="29">
-        <f t="shared" si="55"/>
+      <c r="G236" s="29">
+        <f t="shared" si="63"/>
         <v>6.6280000000000001</v>
       </c>
-      <c r="H232" s="29">
-        <f t="shared" si="55"/>
+      <c r="H236" s="29">
+        <f t="shared" si="63"/>
         <v>2.056</v>
       </c>
-      <c r="I232" s="29">
-        <f t="shared" si="55"/>
+      <c r="I236" s="29">
+        <f t="shared" si="63"/>
         <v>12.114000000000001</v>
       </c>
-      <c r="J232" s="29">
-        <f t="shared" si="55"/>
+      <c r="J236" s="29">
+        <f t="shared" si="63"/>
         <v>17.772000000000002</v>
       </c>
-      <c r="K232" s="29">
-        <f t="shared" si="55"/>
+      <c r="K236" s="29">
+        <f t="shared" si="63"/>
         <v>53.898000000000003</v>
       </c>
-      <c r="L232" s="29">
-        <f t="shared" si="55"/>
+      <c r="L236" s="29">
+        <f t="shared" si="63"/>
         <v>1.8579999999999999</v>
       </c>
-      <c r="M232" s="29">
-        <f t="shared" si="55"/>
+      <c r="M236" s="29">
+        <f t="shared" si="63"/>
         <v>5.28E-2</v>
       </c>
-      <c r="N232" s="29">
-        <f t="shared" si="55"/>
+      <c r="N236" s="29">
+        <f t="shared" si="63"/>
         <v>28.931999999999999</v>
       </c>
-      <c r="O232" s="29">
-        <f t="shared" si="55"/>
+      <c r="O236" s="29">
+        <f t="shared" si="63"/>
         <v>1.6079999999999999</v>
       </c>
-    </row>
-    <row r="233" spans="1:15" ht="15" x14ac:dyDescent="0.35">
-      <c r="A233"/>
-      <c r="B233"/>
-      <c r="C233"/>
-      <c r="D233"/>
-      <c r="E233"/>
-      <c r="F233"/>
-      <c r="G233"/>
-      <c r="H233"/>
-      <c r="I233"/>
-      <c r="J233"/>
-      <c r="K233"/>
-      <c r="L233"/>
-      <c r="M233"/>
-      <c r="N233"/>
-      <c r="O233"/>
-    </row>
-    <row r="234" spans="1:15" ht="15" x14ac:dyDescent="0.35">
-      <c r="A234"/>
-      <c r="B234"/>
-      <c r="C234"/>
-      <c r="D234"/>
-      <c r="E234"/>
-      <c r="F234"/>
-      <c r="G234"/>
-      <c r="H234"/>
-      <c r="I234"/>
-      <c r="J234"/>
-      <c r="K234"/>
-      <c r="L234"/>
-      <c r="M234"/>
-      <c r="N234"/>
-      <c r="O234"/>
-    </row>
-    <row r="235" spans="1:15" ht="15" x14ac:dyDescent="0.35">
-      <c r="A235"/>
-      <c r="B235"/>
-      <c r="C235"/>
-      <c r="D235"/>
-      <c r="E235"/>
-      <c r="F235"/>
-      <c r="G235"/>
-      <c r="H235"/>
-      <c r="I235"/>
-      <c r="J235"/>
-      <c r="K235"/>
-      <c r="L235"/>
-      <c r="M235"/>
-      <c r="N235"/>
-      <c r="O235"/>
-    </row>
-    <row r="236" spans="1:15" ht="15" x14ac:dyDescent="0.35">
-      <c r="A236"/>
-      <c r="B236"/>
-      <c r="C236"/>
-      <c r="D236"/>
-      <c r="E236"/>
-      <c r="F236"/>
-      <c r="G236"/>
-      <c r="H236"/>
-      <c r="I236"/>
-      <c r="J236"/>
-      <c r="K236"/>
-      <c r="L236"/>
-      <c r="M236"/>
-      <c r="N236"/>
-      <c r="O236"/>
     </row>
     <row r="237" spans="1:15" ht="15" x14ac:dyDescent="0.35">
       <c r="A237"/>
@@ -15645,6 +15402,74 @@
       <c r="M246"/>
       <c r="N246"/>
       <c r="O246"/>
+    </row>
+    <row r="247" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="A247"/>
+      <c r="B247"/>
+      <c r="C247"/>
+      <c r="D247"/>
+      <c r="E247"/>
+      <c r="F247"/>
+      <c r="G247"/>
+      <c r="H247"/>
+      <c r="I247"/>
+      <c r="J247"/>
+      <c r="K247"/>
+      <c r="L247"/>
+      <c r="M247"/>
+      <c r="N247"/>
+      <c r="O247"/>
+    </row>
+    <row r="248" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="A248"/>
+      <c r="B248"/>
+      <c r="C248"/>
+      <c r="D248"/>
+      <c r="E248"/>
+      <c r="F248"/>
+      <c r="G248"/>
+      <c r="H248"/>
+      <c r="I248"/>
+      <c r="J248"/>
+      <c r="K248"/>
+      <c r="L248"/>
+      <c r="M248"/>
+      <c r="N248"/>
+      <c r="O248"/>
+    </row>
+    <row r="249" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="A249"/>
+      <c r="B249"/>
+      <c r="C249"/>
+      <c r="D249"/>
+      <c r="E249"/>
+      <c r="F249"/>
+      <c r="G249"/>
+      <c r="H249"/>
+      <c r="I249"/>
+      <c r="J249"/>
+      <c r="K249"/>
+      <c r="L249"/>
+      <c r="M249"/>
+      <c r="N249"/>
+      <c r="O249"/>
+    </row>
+    <row r="250" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="A250"/>
+      <c r="B250"/>
+      <c r="C250"/>
+      <c r="D250"/>
+      <c r="E250"/>
+      <c r="F250"/>
+      <c r="G250"/>
+      <c r="H250"/>
+      <c r="I250"/>
+      <c r="J250"/>
+      <c r="K250"/>
+      <c r="L250"/>
+      <c r="M250"/>
+      <c r="N250"/>
+      <c r="O250"/>
     </row>
   </sheetData>
   <sortState ref="A25:O150">
@@ -15669,7 +15494,7 @@
       <formula>$P$70</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C191:O191 C196:O196 C201:O201 C206:O206 C211:O211 C216:O216 C164:O164 C171:O171 C175:O175 C179:O179 C183:O183 T171:AF171 T175:AF175 T179:AF179 T183:AF183 T187:AF187 C223:O223 C225:O225 C227:O227 C229:O229 C231:O231">
+  <conditionalFormatting sqref="C195:O195 C200:O200 C205:O205 C210:O210 C215:O215 C220:O220 C164:O164 C171:O171 C175:O175 C179:O179 C183:O183 T171:AF171 T175:AF175 T179:AF179 T183:AF183 C187:O187 C227:O227 C229:O229 C231:O231 C233:O233 C235:O235">
     <cfRule type="cellIs" dxfId="3" priority="83" operator="greaterThan">
       <formula>C165</formula>
     </cfRule>
@@ -15677,7 +15502,7 @@
       <formula>C165</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C192:O192 C197:O197 C202:O202 C207:O207 C212:O212 C217:O217 C165:O165 C172:O172 C176:O176 C180:O180 C184:O184 T172:AF172 T176:AF176 T180:AF180 T184:AF184 T188:AF188 C224:O224 C226:O226 C228:O228 C230:O230 C232:O232">
+  <conditionalFormatting sqref="C196:O196 C201:O201 C206:O206 C211:O211 C216:O216 C221:O221 C165:O165 C172:O172 C176:O176 C180:O180 C184:O184 T172:AF172 T176:AF176 T180:AF180 T184:AF184 C188:O188 C228:O228 C230:O230 C232:O232 C234:O234 C236:O236">
     <cfRule type="cellIs" dxfId="1" priority="84" operator="greaterThan">
       <formula>C164</formula>
     </cfRule>

--- a/3. Bears_and_Bugs.jar_Metrics/Bears_Complexity_42_Avg.xlsx
+++ b/3. Bears_and_Bugs.jar_Metrics/Bears_Complexity_42_Avg.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="235">
   <si>
     <t>Bears (analysis done Today 04:34 most recent)</t>
   </si>
@@ -1444,6 +1444,12 @@
   </si>
   <si>
     <t>Avg-RSRepair-Auto</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>Move</t>
   </si>
 </sst>
 </file>
@@ -2091,7 +2097,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2171,7 +2177,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2218,7 +2237,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="12">
     <dxf>
       <font>
         <color theme="4" tint="-0.24994659260841701"/>
@@ -2270,6 +2289,53 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2580,10 +2646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF250"/>
+  <dimension ref="A1:AH250"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A148" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A159" sqref="A159"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H113" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="T70" sqref="T70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
@@ -2606,17 +2672,18 @@
     <col min="16" max="16" width="9.109375" style="1"/>
     <col min="17" max="17" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.77734375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.21875" style="1" customWidth="1"/>
-    <col min="23" max="23" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.88671875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="11.88671875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="10.21875" style="1" customWidth="1"/>
-    <col min="27" max="27" width="11.21875" style="1" customWidth="1"/>
-    <col min="28" max="30" width="11.109375" style="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.109375" style="1"/>
+    <col min="19" max="20" width="11.33203125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.77734375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.21875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.88671875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="11.88671875" style="1" customWidth="1"/>
+    <col min="28" max="28" width="10.21875" style="1" customWidth="1"/>
+    <col min="29" max="29" width="11.21875" style="1" customWidth="1"/>
+    <col min="30" max="32" width="11.109375" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
@@ -2694,32 +2761,32 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="28.8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" ht="28.8" x14ac:dyDescent="0.35">
       <c r="A23" s="13" t="s">
         <v>86</v>
       </c>
@@ -2775,10 +2842,16 @@
         <v>85</v>
       </c>
       <c r="S23" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="T23" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="U23" s="13" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>61</v>
       </c>
@@ -2822,15 +2895,17 @@
         <v>1.53</v>
       </c>
       <c r="O24" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A24))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A24))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A24))), "Auto", "")))</f>
+        <f t="shared" ref="O24:O55" si="0">IF(NOT(ISERR(SEARCH("*_Buggy",$A24))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A24))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A24))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P24" s="12"/>
       <c r="Q24" s="12"/>
       <c r="R24" s="12"/>
       <c r="S24" s="12"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>27</v>
       </c>
@@ -2874,15 +2949,17 @@
         <v>1.53</v>
       </c>
       <c r="O25" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A25))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A25))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A25))), "Auto", "")))</f>
+        <f t="shared" si="0"/>
         <v>Buggy</v>
       </c>
       <c r="P25" s="12"/>
       <c r="Q25" s="12"/>
       <c r="R25" s="12"/>
       <c r="S25" s="12"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>48</v>
       </c>
@@ -2926,15 +3003,17 @@
         <v>0.75</v>
       </c>
       <c r="O26" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A26))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A26))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A26))), "Auto", "")))</f>
+        <f t="shared" si="0"/>
         <v>Buggy</v>
       </c>
       <c r="P26" s="12"/>
       <c r="Q26" s="12"/>
       <c r="R26" s="12"/>
       <c r="S26" s="12"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>32</v>
       </c>
@@ -2978,15 +3057,17 @@
         <v>1.53</v>
       </c>
       <c r="O27" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A27))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A27))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A27))), "Auto", "")))</f>
+        <f t="shared" si="0"/>
         <v>Buggy</v>
       </c>
       <c r="P27" s="12"/>
       <c r="Q27" s="12"/>
       <c r="R27" s="12"/>
       <c r="S27" s="12"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>29</v>
       </c>
@@ -3030,15 +3111,17 @@
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="O28" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A28))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A28))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A28))), "Auto", "")))</f>
+        <f t="shared" si="0"/>
         <v>Buggy</v>
       </c>
       <c r="P28" s="12"/>
       <c r="Q28" s="12"/>
       <c r="R28" s="12"/>
       <c r="S28" s="12"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>53</v>
       </c>
@@ -3082,15 +3165,17 @@
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="O29" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A29))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A29))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A29))), "Auto", "")))</f>
+        <f t="shared" si="0"/>
         <v>Buggy</v>
       </c>
       <c r="P29" s="12"/>
       <c r="Q29" s="12"/>
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>44</v>
       </c>
@@ -3134,15 +3219,17 @@
         <v>0</v>
       </c>
       <c r="O30" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A30))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A30))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A30))), "Auto", "")))</f>
+        <f t="shared" si="0"/>
         <v>Buggy</v>
       </c>
       <c r="P30" s="12"/>
       <c r="Q30" s="12"/>
       <c r="R30" s="12"/>
       <c r="S30" s="12"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>39</v>
       </c>
@@ -3186,15 +3273,17 @@
         <v>0</v>
       </c>
       <c r="O31" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A31))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A31))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A31))), "Auto", "")))</f>
+        <f t="shared" si="0"/>
         <v>Buggy</v>
       </c>
       <c r="P31" s="12"/>
       <c r="Q31" s="12"/>
       <c r="R31" s="12"/>
       <c r="S31" s="12"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>41</v>
       </c>
@@ -3238,15 +3327,17 @@
         <v>0</v>
       </c>
       <c r="O32" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A32))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A32))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A32))), "Auto", "")))</f>
+        <f t="shared" si="0"/>
         <v>Buggy</v>
       </c>
       <c r="P32" s="12"/>
       <c r="Q32" s="12"/>
       <c r="R32" s="12"/>
       <c r="S32" s="12"/>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>62</v>
       </c>
@@ -3290,15 +3381,17 @@
         <v>0</v>
       </c>
       <c r="O33" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A33))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A33))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A33))), "Auto", "")))</f>
+        <f t="shared" si="0"/>
         <v>Buggy</v>
       </c>
       <c r="P33" s="12"/>
       <c r="Q33" s="12"/>
       <c r="R33" s="12"/>
       <c r="S33" s="12"/>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>40</v>
       </c>
@@ -3342,15 +3435,17 @@
         <v>0</v>
       </c>
       <c r="O34" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A34))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A34))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A34))), "Auto", "")))</f>
+        <f t="shared" si="0"/>
         <v>Buggy</v>
       </c>
       <c r="P34" s="12"/>
       <c r="Q34" s="12"/>
       <c r="R34" s="12"/>
       <c r="S34" s="12"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>34</v>
       </c>
@@ -3394,15 +3489,17 @@
         <v>0</v>
       </c>
       <c r="O35" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A35))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A35))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A35))), "Auto", "")))</f>
+        <f t="shared" si="0"/>
         <v>Buggy</v>
       </c>
       <c r="P35" s="12"/>
       <c r="Q35" s="12"/>
       <c r="R35" s="12"/>
       <c r="S35" s="12"/>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>45</v>
       </c>
@@ -3446,15 +3543,17 @@
         <v>0</v>
       </c>
       <c r="O36" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A36))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A36))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A36))), "Auto", "")))</f>
+        <f t="shared" si="0"/>
         <v>Buggy</v>
       </c>
       <c r="P36" s="12"/>
       <c r="Q36" s="12"/>
       <c r="R36" s="12"/>
       <c r="S36" s="12"/>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>33</v>
       </c>
@@ -3498,15 +3597,17 @@
         <v>0</v>
       </c>
       <c r="O37" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A37))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A37))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A37))), "Auto", "")))</f>
+        <f t="shared" si="0"/>
         <v>Buggy</v>
       </c>
       <c r="P37" s="12"/>
       <c r="Q37" s="12"/>
       <c r="R37" s="12"/>
       <c r="S37" s="12"/>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>56</v>
       </c>
@@ -3550,15 +3651,17 @@
         <v>0</v>
       </c>
       <c r="O38" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A38))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A38))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A38))), "Auto", "")))</f>
+        <f t="shared" si="0"/>
         <v>Buggy</v>
       </c>
       <c r="P38" s="12"/>
       <c r="Q38" s="12"/>
       <c r="R38" s="12"/>
       <c r="S38" s="12"/>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>64</v>
       </c>
@@ -3602,15 +3705,17 @@
         <v>0</v>
       </c>
       <c r="O39" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A39))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A39))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A39))), "Auto", "")))</f>
+        <f t="shared" si="0"/>
         <v>Buggy</v>
       </c>
       <c r="P39" s="12"/>
       <c r="Q39" s="12"/>
       <c r="R39" s="12"/>
       <c r="S39" s="12"/>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>49</v>
       </c>
@@ -3654,15 +3759,17 @@
         <v>1.69</v>
       </c>
       <c r="O40" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A40))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A40))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A40))), "Auto", "")))</f>
+        <f t="shared" si="0"/>
         <v>Buggy</v>
       </c>
       <c r="P40" s="12"/>
       <c r="Q40" s="12"/>
       <c r="R40" s="12"/>
       <c r="S40" s="12"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>58</v>
       </c>
@@ -3706,15 +3813,17 @@
         <v>1.69</v>
       </c>
       <c r="O41" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A41))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A41))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A41))), "Auto", "")))</f>
+        <f t="shared" si="0"/>
         <v>Buggy</v>
       </c>
       <c r="P41" s="12"/>
       <c r="Q41" s="12"/>
       <c r="R41" s="12"/>
       <c r="S41" s="12"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>63</v>
       </c>
@@ -3758,15 +3867,17 @@
         <v>1.69</v>
       </c>
       <c r="O42" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A42))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A42))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A42))), "Auto", "")))</f>
+        <f t="shared" si="0"/>
         <v>Buggy</v>
       </c>
       <c r="P42" s="12"/>
       <c r="Q42" s="12"/>
       <c r="R42" s="12"/>
       <c r="S42" s="12"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
         <v>60</v>
       </c>
@@ -3810,15 +3921,17 @@
         <v>1.69</v>
       </c>
       <c r="O43" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A43))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A43))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A43))), "Auto", "")))</f>
+        <f t="shared" si="0"/>
         <v>Buggy</v>
       </c>
       <c r="P43" s="12"/>
       <c r="Q43" s="12"/>
       <c r="R43" s="12"/>
       <c r="S43" s="12"/>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>52</v>
       </c>
@@ -3862,15 +3975,17 @@
         <v>1.69</v>
       </c>
       <c r="O44" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A44))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A44))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A44))), "Auto", "")))</f>
+        <f t="shared" si="0"/>
         <v>Buggy</v>
       </c>
       <c r="P44" s="12"/>
       <c r="Q44" s="12"/>
       <c r="R44" s="12"/>
       <c r="S44" s="12"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>51</v>
       </c>
@@ -3914,15 +4029,17 @@
         <v>0</v>
       </c>
       <c r="O45" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A45))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A45))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A45))), "Auto", "")))</f>
+        <f t="shared" si="0"/>
         <v>Buggy</v>
       </c>
       <c r="P45" s="12"/>
       <c r="Q45" s="12"/>
       <c r="R45" s="12"/>
       <c r="S45" s="12"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T45" s="12"/>
+      <c r="U45" s="12"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>42</v>
       </c>
@@ -3966,15 +4083,17 @@
         <v>0</v>
       </c>
       <c r="O46" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A46))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A46))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A46))), "Auto", "")))</f>
+        <f t="shared" si="0"/>
         <v>Buggy</v>
       </c>
       <c r="P46" s="12"/>
       <c r="Q46" s="12"/>
       <c r="R46" s="12"/>
       <c r="S46" s="12"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T46" s="12"/>
+      <c r="U46" s="12"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
         <v>31</v>
       </c>
@@ -4018,15 +4137,17 @@
         <v>0</v>
       </c>
       <c r="O47" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A47))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A47))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A47))), "Auto", "")))</f>
+        <f t="shared" si="0"/>
         <v>Buggy</v>
       </c>
       <c r="P47" s="12"/>
       <c r="Q47" s="12"/>
       <c r="R47" s="12"/>
       <c r="S47" s="12"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T47" s="12"/>
+      <c r="U47" s="12"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>50</v>
       </c>
@@ -4070,15 +4191,17 @@
         <v>0</v>
       </c>
       <c r="O48" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A48))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A48))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A48))), "Auto", "")))</f>
+        <f t="shared" si="0"/>
         <v>Buggy</v>
       </c>
       <c r="P48" s="12"/>
       <c r="Q48" s="12"/>
       <c r="R48" s="12"/>
       <c r="S48" s="12"/>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T48" s="12"/>
+      <c r="U48" s="12"/>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>35</v>
       </c>
@@ -4122,15 +4245,17 @@
         <v>0</v>
       </c>
       <c r="O49" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A49))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A49))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A49))), "Auto", "")))</f>
+        <f t="shared" si="0"/>
         <v>Buggy</v>
       </c>
       <c r="P49" s="12"/>
       <c r="Q49" s="12"/>
       <c r="R49" s="12"/>
       <c r="S49" s="12"/>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T49" s="12"/>
+      <c r="U49" s="12"/>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
         <v>25</v>
       </c>
@@ -4174,15 +4299,17 @@
         <v>1.69</v>
       </c>
       <c r="O50" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A50))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A50))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A50))), "Auto", "")))</f>
+        <f t="shared" si="0"/>
         <v>Buggy</v>
       </c>
       <c r="P50" s="12"/>
       <c r="Q50" s="12"/>
       <c r="R50" s="12"/>
       <c r="S50" s="12"/>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T50" s="12"/>
+      <c r="U50" s="12"/>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>47</v>
       </c>
@@ -4226,15 +4353,17 @@
         <v>1.69</v>
       </c>
       <c r="O51" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A51))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A51))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A51))), "Auto", "")))</f>
+        <f t="shared" si="0"/>
         <v>Buggy</v>
       </c>
       <c r="P51" s="12"/>
       <c r="Q51" s="12"/>
       <c r="R51" s="12"/>
       <c r="S51" s="12"/>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T51" s="12"/>
+      <c r="U51" s="12"/>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>26</v>
       </c>
@@ -4278,15 +4407,17 @@
         <v>1.69</v>
       </c>
       <c r="O52" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A52))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A52))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A52))), "Auto", "")))</f>
+        <f t="shared" si="0"/>
         <v>Buggy</v>
       </c>
       <c r="P52" s="12"/>
       <c r="Q52" s="12"/>
       <c r="R52" s="12"/>
       <c r="S52" s="12"/>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T52" s="12"/>
+      <c r="U52" s="12"/>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>59</v>
       </c>
@@ -4330,15 +4461,17 @@
         <v>1.69</v>
       </c>
       <c r="O53" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A53))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A53))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A53))), "Auto", "")))</f>
+        <f t="shared" si="0"/>
         <v>Buggy</v>
       </c>
       <c r="P53" s="12"/>
       <c r="Q53" s="12"/>
       <c r="R53" s="12"/>
       <c r="S53" s="12"/>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T53" s="12"/>
+      <c r="U53" s="12"/>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
         <v>36</v>
       </c>
@@ -4382,15 +4515,17 @@
         <v>1.69</v>
       </c>
       <c r="O54" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A54))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A54))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A54))), "Auto", "")))</f>
+        <f t="shared" si="0"/>
         <v>Buggy</v>
       </c>
       <c r="P54" s="12"/>
       <c r="Q54" s="12"/>
       <c r="R54" s="12"/>
       <c r="S54" s="12"/>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T54" s="12"/>
+      <c r="U54" s="12"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
         <v>54</v>
       </c>
@@ -4434,15 +4569,17 @@
         <v>0.75</v>
       </c>
       <c r="O55" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A55))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A55))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A55))), "Auto", "")))</f>
+        <f t="shared" si="0"/>
         <v>Buggy</v>
       </c>
       <c r="P55" s="12"/>
       <c r="Q55" s="12"/>
       <c r="R55" s="12"/>
       <c r="S55" s="12"/>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T55" s="12"/>
+      <c r="U55" s="12"/>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
         <v>28</v>
       </c>
@@ -4486,15 +4623,17 @@
         <v>0</v>
       </c>
       <c r="O56" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A56))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A56))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A56))), "Auto", "")))</f>
+        <f t="shared" ref="O56:O87" si="1">IF(NOT(ISERR(SEARCH("*_Buggy",$A56))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A56))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A56))), "Auto", "")))</f>
         <v>Buggy</v>
       </c>
       <c r="P56" s="12"/>
       <c r="Q56" s="12"/>
       <c r="R56" s="12"/>
       <c r="S56" s="12"/>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T56" s="12"/>
+      <c r="U56" s="12"/>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
         <v>57</v>
       </c>
@@ -4538,15 +4677,17 @@
         <v>0</v>
       </c>
       <c r="O57" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A57))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A57))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A57))), "Auto", "")))</f>
+        <f t="shared" si="1"/>
         <v>Buggy</v>
       </c>
       <c r="P57" s="12"/>
       <c r="Q57" s="12"/>
       <c r="R57" s="12"/>
       <c r="S57" s="12"/>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T57" s="12"/>
+      <c r="U57" s="12"/>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
         <v>30</v>
       </c>
@@ -4590,15 +4731,17 @@
         <v>1.69</v>
       </c>
       <c r="O58" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A58))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A58))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A58))), "Auto", "")))</f>
+        <f t="shared" si="1"/>
         <v>Buggy</v>
       </c>
       <c r="P58" s="12"/>
       <c r="Q58" s="12"/>
       <c r="R58" s="12"/>
       <c r="S58" s="12"/>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T58" s="12"/>
+      <c r="U58" s="12"/>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
         <v>46</v>
       </c>
@@ -4642,15 +4785,17 @@
         <v>0</v>
       </c>
       <c r="O59" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A59))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A59))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A59))), "Auto", "")))</f>
+        <f t="shared" si="1"/>
         <v>Buggy</v>
       </c>
       <c r="P59" s="12"/>
       <c r="Q59" s="12"/>
       <c r="R59" s="12"/>
       <c r="S59" s="12"/>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T59" s="12"/>
+      <c r="U59" s="12"/>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
         <v>24</v>
       </c>
@@ -4694,15 +4839,17 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="O60" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A60))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A60))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A60))), "Auto", "")))</f>
+        <f t="shared" si="1"/>
         <v>Buggy</v>
       </c>
       <c r="P60" s="12"/>
       <c r="Q60" s="12"/>
       <c r="R60" s="12"/>
       <c r="S60" s="12"/>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T60" s="12"/>
+      <c r="U60" s="12"/>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
         <v>55</v>
       </c>
@@ -4746,15 +4893,17 @@
         <v>1.69</v>
       </c>
       <c r="O61" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A61))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A61))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A61))), "Auto", "")))</f>
+        <f t="shared" si="1"/>
         <v>Buggy</v>
       </c>
       <c r="P61" s="12"/>
       <c r="Q61" s="12"/>
       <c r="R61" s="12"/>
       <c r="S61" s="12"/>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T61" s="12"/>
+      <c r="U61" s="12"/>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
         <v>38</v>
       </c>
@@ -4798,15 +4947,17 @@
         <v>1.69</v>
       </c>
       <c r="O62" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A62))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A62))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A62))), "Auto", "")))</f>
+        <f t="shared" si="1"/>
         <v>Buggy</v>
       </c>
       <c r="P62" s="12"/>
       <c r="Q62" s="12"/>
       <c r="R62" s="12"/>
       <c r="S62" s="12"/>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T62" s="12"/>
+      <c r="U62" s="12"/>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
         <v>23</v>
       </c>
@@ -4850,15 +5001,17 @@
         <v>1.69</v>
       </c>
       <c r="O63" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A63))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A63))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A63))), "Auto", "")))</f>
+        <f t="shared" si="1"/>
         <v>Buggy</v>
       </c>
       <c r="P63" s="12"/>
       <c r="Q63" s="12"/>
       <c r="R63" s="12"/>
       <c r="S63" s="12"/>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T63" s="12"/>
+      <c r="U63" s="12"/>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
         <v>37</v>
       </c>
@@ -4902,15 +5055,17 @@
         <v>1.69</v>
       </c>
       <c r="O64" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A64))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A64))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A64))), "Auto", "")))</f>
+        <f t="shared" si="1"/>
         <v>Buggy</v>
       </c>
       <c r="P64" s="12"/>
       <c r="Q64" s="12"/>
       <c r="R64" s="12"/>
       <c r="S64" s="12"/>
-    </row>
-    <row r="65" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="T64" s="12"/>
+      <c r="U64" s="12"/>
+    </row>
+    <row r="65" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="21" t="s">
         <v>43</v>
       </c>
@@ -4954,15 +5109,17 @@
         <v>1.69</v>
       </c>
       <c r="O65" s="20" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A65))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A65))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A65))), "Auto", "")))</f>
+        <f t="shared" si="1"/>
         <v>Buggy</v>
       </c>
       <c r="P65" s="20"/>
       <c r="Q65" s="20"/>
       <c r="R65" s="20"/>
       <c r="S65" s="20"/>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T65" s="20"/>
+      <c r="U65" s="20"/>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A66" s="15" t="s">
         <v>107</v>
       </c>
@@ -5006,7 +5163,7 @@
         <v>1.53</v>
       </c>
       <c r="O66" s="17" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A66))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A66))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A66))), "Auto", "")))</f>
+        <f t="shared" si="1"/>
         <v>Manual</v>
       </c>
       <c r="P66" s="12">
@@ -5018,11 +5175,17 @@
       <c r="R66" s="12">
         <v>0</v>
       </c>
-      <c r="S66" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S66" s="12">
+        <v>0</v>
+      </c>
+      <c r="T66" s="12">
+        <v>0</v>
+      </c>
+      <c r="U66" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
         <v>108</v>
       </c>
@@ -5066,7 +5229,7 @@
         <v>1.53</v>
       </c>
       <c r="O67" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A67))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A67))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A67))), "Auto", "")))</f>
+        <f t="shared" si="1"/>
         <v>Manual</v>
       </c>
       <c r="P67" s="12">
@@ -5078,11 +5241,17 @@
       <c r="R67" s="12">
         <v>0</v>
       </c>
-      <c r="S67" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S67" s="12">
+        <v>0</v>
+      </c>
+      <c r="T67" s="12">
+        <v>0</v>
+      </c>
+      <c r="U67" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
         <v>109</v>
       </c>
@@ -5126,23 +5295,29 @@
         <v>0.73</v>
       </c>
       <c r="O68" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A68))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A68))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A68))), "Auto", "")))</f>
+        <f t="shared" si="1"/>
         <v>Manual</v>
       </c>
       <c r="P68" s="12">
         <v>2</v>
       </c>
       <c r="Q68" s="12">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R68" s="12">
         <v>0</v>
       </c>
-      <c r="S68" s="6">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S68" s="12">
+        <v>0</v>
+      </c>
+      <c r="T68" s="12">
+        <v>0</v>
+      </c>
+      <c r="U68" s="39">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>110</v>
       </c>
@@ -5186,7 +5361,7 @@
         <v>1.53</v>
       </c>
       <c r="O69" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A69))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A69))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A69))), "Auto", "")))</f>
+        <f t="shared" si="1"/>
         <v>Manual</v>
       </c>
       <c r="P69" s="12">
@@ -5198,11 +5373,17 @@
       <c r="R69" s="12">
         <v>0</v>
       </c>
-      <c r="S69" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S69" s="12">
+        <v>0</v>
+      </c>
+      <c r="T69" s="12">
+        <v>0</v>
+      </c>
+      <c r="U69" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>111</v>
       </c>
@@ -5246,23 +5427,29 @@
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="O70" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A70))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A70))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A70))), "Auto", "")))</f>
+        <f t="shared" si="1"/>
         <v>Manual</v>
       </c>
       <c r="P70" s="12">
         <v>1</v>
       </c>
       <c r="Q70" s="12">
+        <v>0</v>
+      </c>
+      <c r="R70" s="12">
+        <v>0</v>
+      </c>
+      <c r="S70" s="12">
+        <v>42</v>
+      </c>
+      <c r="T70" s="12">
+        <v>42</v>
+      </c>
+      <c r="U70" s="39">
         <v>52</v>
       </c>
-      <c r="R70" s="12">
-        <v>52</v>
-      </c>
-      <c r="S70" s="6">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
         <v>112</v>
       </c>
@@ -5306,23 +5493,29 @@
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="O71" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A71))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A71))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A71))), "Auto", "")))</f>
+        <f t="shared" si="1"/>
         <v>Manual</v>
       </c>
       <c r="P71" s="12">
         <v>1</v>
       </c>
       <c r="Q71" s="12">
+        <v>0</v>
+      </c>
+      <c r="R71" s="12">
+        <v>0</v>
+      </c>
+      <c r="S71" s="12">
+        <v>42</v>
+      </c>
+      <c r="T71" s="12">
+        <v>42</v>
+      </c>
+      <c r="U71" s="39">
         <v>52</v>
       </c>
-      <c r="R71" s="12">
-        <v>52</v>
-      </c>
-      <c r="S71" s="6">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
         <v>113</v>
       </c>
@@ -5366,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="O72" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A72))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A72))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A72))), "Auto", "")))</f>
+        <f t="shared" si="1"/>
         <v>Manual</v>
       </c>
       <c r="P72" s="12">
@@ -5378,11 +5571,17 @@
       <c r="R72" s="12">
         <v>0</v>
       </c>
-      <c r="S72" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S72" s="12">
+        <v>0</v>
+      </c>
+      <c r="T72" s="12">
+        <v>0</v>
+      </c>
+      <c r="U72" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
         <v>114</v>
       </c>
@@ -5426,7 +5625,7 @@
         <v>0</v>
       </c>
       <c r="O73" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A73))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A73))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A73))), "Auto", "")))</f>
+        <f t="shared" si="1"/>
         <v>Manual</v>
       </c>
       <c r="P73" s="12">
@@ -5438,11 +5637,17 @@
       <c r="R73" s="12">
         <v>0</v>
       </c>
-      <c r="S73" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S73" s="12">
+        <v>0</v>
+      </c>
+      <c r="T73" s="12">
+        <v>0</v>
+      </c>
+      <c r="U73" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
         <v>115</v>
       </c>
@@ -5486,7 +5691,7 @@
         <v>0</v>
       </c>
       <c r="O74" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A74))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A74))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A74))), "Auto", "")))</f>
+        <f t="shared" si="1"/>
         <v>Manual</v>
       </c>
       <c r="P74" s="12">
@@ -5498,11 +5703,17 @@
       <c r="R74" s="12">
         <v>0</v>
       </c>
-      <c r="S74" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S74" s="12">
+        <v>0</v>
+      </c>
+      <c r="T74" s="12">
+        <v>0</v>
+      </c>
+      <c r="U74" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A75" s="7" t="s">
         <v>116</v>
       </c>
@@ -5546,7 +5757,7 @@
         <v>0</v>
       </c>
       <c r="O75" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A75))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A75))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A75))), "Auto", "")))</f>
+        <f t="shared" si="1"/>
         <v>Manual</v>
       </c>
       <c r="P75" s="12">
@@ -5558,11 +5769,17 @@
       <c r="R75" s="12">
         <v>0</v>
       </c>
-      <c r="S75" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S75" s="12">
+        <v>0</v>
+      </c>
+      <c r="T75" s="12">
+        <v>0</v>
+      </c>
+      <c r="U75" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
         <v>117</v>
       </c>
@@ -5606,7 +5823,7 @@
         <v>0</v>
       </c>
       <c r="O76" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A76))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A76))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A76))), "Auto", "")))</f>
+        <f t="shared" si="1"/>
         <v>Manual</v>
       </c>
       <c r="P76" s="12">
@@ -5618,11 +5835,17 @@
       <c r="R76" s="12">
         <v>0</v>
       </c>
-      <c r="S76" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S76" s="12">
+        <v>0</v>
+      </c>
+      <c r="T76" s="12">
+        <v>0</v>
+      </c>
+      <c r="U76" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A77" s="7" t="s">
         <v>118</v>
       </c>
@@ -5666,23 +5889,29 @@
         <v>0</v>
       </c>
       <c r="O77" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A77))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A77))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A77))), "Auto", "")))</f>
+        <f t="shared" si="1"/>
         <v>Manual</v>
       </c>
       <c r="P77" s="12">
         <v>4</v>
       </c>
       <c r="Q77" s="12">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="R77" s="12">
+        <v>0</v>
+      </c>
+      <c r="S77" s="12">
         <v>8</v>
       </c>
-      <c r="S77" s="6">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T77" s="12">
+        <v>6</v>
+      </c>
+      <c r="U77" s="39">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A78" s="7" t="s">
         <v>119</v>
       </c>
@@ -5726,23 +5955,29 @@
         <v>0</v>
       </c>
       <c r="O78" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A78))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A78))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A78))), "Auto", "")))</f>
+        <f t="shared" si="1"/>
         <v>Manual</v>
       </c>
       <c r="P78" s="12">
         <v>4</v>
       </c>
       <c r="Q78" s="12">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="R78" s="12">
+        <v>0</v>
+      </c>
+      <c r="S78" s="12">
         <v>8</v>
       </c>
-      <c r="S78" s="6">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T78" s="12">
+        <v>6</v>
+      </c>
+      <c r="U78" s="39">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A79" s="7" t="s">
         <v>120</v>
       </c>
@@ -5786,23 +6021,29 @@
         <v>0</v>
       </c>
       <c r="O79" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A79))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A79))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A79))), "Auto", "")))</f>
+        <f t="shared" si="1"/>
         <v>Manual</v>
       </c>
       <c r="P79" s="12">
         <v>4</v>
       </c>
       <c r="Q79" s="12">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="R79" s="12">
+        <v>0</v>
+      </c>
+      <c r="S79" s="12">
         <v>8</v>
       </c>
-      <c r="S79" s="6">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T79" s="12">
+        <v>6</v>
+      </c>
+      <c r="U79" s="39">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
         <v>121</v>
       </c>
@@ -5846,23 +6087,29 @@
         <v>0</v>
       </c>
       <c r="O80" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A80))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A80))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A80))), "Auto", "")))</f>
+        <f t="shared" si="1"/>
         <v>Manual</v>
       </c>
       <c r="P80" s="12">
         <v>4</v>
       </c>
       <c r="Q80" s="12">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="R80" s="12">
+        <v>0</v>
+      </c>
+      <c r="S80" s="12">
         <v>8</v>
       </c>
-      <c r="S80" s="6">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T80" s="12">
+        <v>6</v>
+      </c>
+      <c r="U80" s="39">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
         <v>122</v>
       </c>
@@ -5906,23 +6153,29 @@
         <v>0</v>
       </c>
       <c r="O81" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A81))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A81))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A81))), "Auto", "")))</f>
+        <f t="shared" si="1"/>
         <v>Manual</v>
       </c>
       <c r="P81" s="12">
         <v>4</v>
       </c>
       <c r="Q81" s="12">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="R81" s="12">
+        <v>0</v>
+      </c>
+      <c r="S81" s="12">
         <v>8</v>
       </c>
-      <c r="S81" s="6">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T81" s="12">
+        <v>6</v>
+      </c>
+      <c r="U81" s="39">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
         <v>123</v>
       </c>
@@ -5966,23 +6219,29 @@
         <v>1.69</v>
       </c>
       <c r="O82" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A82))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A82))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A82))), "Auto", "")))</f>
+        <f t="shared" si="1"/>
         <v>Manual</v>
       </c>
       <c r="P82" s="12">
         <v>1</v>
       </c>
       <c r="Q82" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R82" s="12">
-        <v>1</v>
-      </c>
-      <c r="S82" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="S82" s="12">
+        <v>1</v>
+      </c>
+      <c r="T82" s="12">
+        <v>0</v>
+      </c>
+      <c r="U82" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
         <v>124</v>
       </c>
@@ -6026,23 +6285,29 @@
         <v>1.69</v>
       </c>
       <c r="O83" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A83))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A83))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A83))), "Auto", "")))</f>
+        <f t="shared" si="1"/>
         <v>Manual</v>
       </c>
       <c r="P83" s="12">
         <v>1</v>
       </c>
       <c r="Q83" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R83" s="12">
-        <v>1</v>
-      </c>
-      <c r="S83" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="S83" s="12">
+        <v>1</v>
+      </c>
+      <c r="T83" s="12">
+        <v>0</v>
+      </c>
+      <c r="U83" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
         <v>125</v>
       </c>
@@ -6086,23 +6351,29 @@
         <v>1.69</v>
       </c>
       <c r="O84" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A84))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A84))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A84))), "Auto", "")))</f>
+        <f t="shared" si="1"/>
         <v>Manual</v>
       </c>
       <c r="P84" s="12">
         <v>1</v>
       </c>
       <c r="Q84" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R84" s="12">
-        <v>1</v>
-      </c>
-      <c r="S84" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="S84" s="12">
+        <v>1</v>
+      </c>
+      <c r="T84" s="12">
+        <v>0</v>
+      </c>
+      <c r="U84" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A85" s="7" t="s">
         <v>126</v>
       </c>
@@ -6146,23 +6417,29 @@
         <v>1.69</v>
       </c>
       <c r="O85" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A85))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A85))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A85))), "Auto", "")))</f>
+        <f t="shared" si="1"/>
         <v>Manual</v>
       </c>
       <c r="P85" s="12">
         <v>1</v>
       </c>
       <c r="Q85" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R85" s="12">
-        <v>1</v>
-      </c>
-      <c r="S85" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="S85" s="12">
+        <v>1</v>
+      </c>
+      <c r="T85" s="12">
+        <v>0</v>
+      </c>
+      <c r="U85" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
         <v>127</v>
       </c>
@@ -6206,23 +6483,29 @@
         <v>1.69</v>
       </c>
       <c r="O86" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A86))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A86))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A86))), "Auto", "")))</f>
+        <f t="shared" si="1"/>
         <v>Manual</v>
       </c>
       <c r="P86" s="12">
         <v>1</v>
       </c>
       <c r="Q86" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R86" s="12">
-        <v>1</v>
-      </c>
-      <c r="S86" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="S86" s="12">
+        <v>1</v>
+      </c>
+      <c r="T86" s="12">
+        <v>0</v>
+      </c>
+      <c r="U86" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
         <v>128</v>
       </c>
@@ -6266,23 +6549,29 @@
         <v>0</v>
       </c>
       <c r="O87" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A87))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A87))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A87))), "Auto", "")))</f>
+        <f t="shared" si="1"/>
         <v>Manual</v>
       </c>
       <c r="P87" s="12">
         <v>1</v>
       </c>
       <c r="Q87" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R87" s="12">
-        <v>1</v>
-      </c>
-      <c r="S87" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="S87" s="12">
+        <v>1</v>
+      </c>
+      <c r="T87" s="12">
+        <v>0</v>
+      </c>
+      <c r="U87" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
         <v>129</v>
       </c>
@@ -6326,23 +6615,29 @@
         <v>0</v>
       </c>
       <c r="O88" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A88))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A88))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A88))), "Auto", "")))</f>
+        <f t="shared" ref="O88:O119" si="2">IF(NOT(ISERR(SEARCH("*_Buggy",$A88))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A88))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A88))), "Auto", "")))</f>
         <v>Manual</v>
       </c>
       <c r="P88" s="12">
         <v>1</v>
       </c>
       <c r="Q88" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R88" s="12">
-        <v>1</v>
-      </c>
-      <c r="S88" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="S88" s="12">
+        <v>1</v>
+      </c>
+      <c r="T88" s="12">
+        <v>0</v>
+      </c>
+      <c r="U88" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
         <v>130</v>
       </c>
@@ -6386,23 +6681,29 @@
         <v>0</v>
       </c>
       <c r="O89" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A89))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A89))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A89))), "Auto", "")))</f>
+        <f t="shared" si="2"/>
         <v>Manual</v>
       </c>
       <c r="P89" s="12">
         <v>1</v>
       </c>
       <c r="Q89" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R89" s="12">
-        <v>1</v>
-      </c>
-      <c r="S89" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="S89" s="12">
+        <v>1</v>
+      </c>
+      <c r="T89" s="12">
+        <v>0</v>
+      </c>
+      <c r="U89" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A90" s="7" t="s">
         <v>131</v>
       </c>
@@ -6446,23 +6747,29 @@
         <v>0</v>
       </c>
       <c r="O90" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A90))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A90))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A90))), "Auto", "")))</f>
+        <f t="shared" si="2"/>
         <v>Manual</v>
       </c>
       <c r="P90" s="12">
         <v>1</v>
       </c>
       <c r="Q90" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R90" s="12">
-        <v>1</v>
-      </c>
-      <c r="S90" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="S90" s="12">
+        <v>1</v>
+      </c>
+      <c r="T90" s="12">
+        <v>0</v>
+      </c>
+      <c r="U90" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A91" s="7" t="s">
         <v>132</v>
       </c>
@@ -6506,23 +6813,29 @@
         <v>0</v>
       </c>
       <c r="O91" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A91))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A91))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A91))), "Auto", "")))</f>
+        <f t="shared" si="2"/>
         <v>Manual</v>
       </c>
       <c r="P91" s="12">
         <v>1</v>
       </c>
       <c r="Q91" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R91" s="12">
-        <v>1</v>
-      </c>
-      <c r="S91" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="S91" s="12">
+        <v>1</v>
+      </c>
+      <c r="T91" s="12">
+        <v>0</v>
+      </c>
+      <c r="U91" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A92" s="7" t="s">
         <v>133</v>
       </c>
@@ -6566,23 +6879,29 @@
         <v>1.69</v>
       </c>
       <c r="O92" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A92))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A92))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A92))), "Auto", "")))</f>
+        <f t="shared" si="2"/>
         <v>Manual</v>
       </c>
       <c r="P92" s="12">
         <v>1</v>
       </c>
       <c r="Q92" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R92" s="12">
-        <v>1</v>
-      </c>
-      <c r="S92" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="S92" s="12">
+        <v>1</v>
+      </c>
+      <c r="T92" s="12">
+        <v>0</v>
+      </c>
+      <c r="U92" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
         <v>134</v>
       </c>
@@ -6626,23 +6945,29 @@
         <v>1.69</v>
       </c>
       <c r="O93" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A93))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A93))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A93))), "Auto", "")))</f>
+        <f t="shared" si="2"/>
         <v>Manual</v>
       </c>
       <c r="P93" s="12">
         <v>1</v>
       </c>
       <c r="Q93" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R93" s="12">
-        <v>1</v>
-      </c>
-      <c r="S93" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="S93" s="12">
+        <v>1</v>
+      </c>
+      <c r="T93" s="12">
+        <v>0</v>
+      </c>
+      <c r="U93" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A94" s="7" t="s">
         <v>135</v>
       </c>
@@ -6686,23 +7011,29 @@
         <v>1.69</v>
       </c>
       <c r="O94" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A94))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A94))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A94))), "Auto", "")))</f>
+        <f t="shared" si="2"/>
         <v>Manual</v>
       </c>
       <c r="P94" s="12">
         <v>1</v>
       </c>
       <c r="Q94" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R94" s="12">
-        <v>1</v>
-      </c>
-      <c r="S94" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="S94" s="12">
+        <v>1</v>
+      </c>
+      <c r="T94" s="12">
+        <v>0</v>
+      </c>
+      <c r="U94" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
         <v>136</v>
       </c>
@@ -6746,23 +7077,29 @@
         <v>1.69</v>
       </c>
       <c r="O95" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A95))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A95))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A95))), "Auto", "")))</f>
+        <f t="shared" si="2"/>
         <v>Manual</v>
       </c>
       <c r="P95" s="12">
         <v>1</v>
       </c>
       <c r="Q95" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R95" s="12">
-        <v>1</v>
-      </c>
-      <c r="S95" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="S95" s="12">
+        <v>1</v>
+      </c>
+      <c r="T95" s="12">
+        <v>0</v>
+      </c>
+      <c r="U95" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
         <v>137</v>
       </c>
@@ -6806,23 +7143,29 @@
         <v>1.69</v>
       </c>
       <c r="O96" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A96))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A96))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A96))), "Auto", "")))</f>
+        <f t="shared" si="2"/>
         <v>Manual</v>
       </c>
       <c r="P96" s="12">
         <v>1</v>
       </c>
       <c r="Q96" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R96" s="12">
-        <v>1</v>
-      </c>
-      <c r="S96" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="S96" s="12">
+        <v>1</v>
+      </c>
+      <c r="T96" s="12">
+        <v>0</v>
+      </c>
+      <c r="U96" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A97" s="7" t="s">
         <v>138</v>
       </c>
@@ -6866,23 +7209,29 @@
         <v>0.73</v>
       </c>
       <c r="O97" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A97))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A97))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A97))), "Auto", "")))</f>
+        <f t="shared" si="2"/>
         <v>Manual</v>
       </c>
       <c r="P97" s="12">
         <v>2</v>
       </c>
       <c r="Q97" s="12">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R97" s="12">
         <v>0</v>
       </c>
-      <c r="S97" s="6">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="S97" s="12">
+        <v>0</v>
+      </c>
+      <c r="T97" s="12">
+        <v>0</v>
+      </c>
+      <c r="U97" s="39">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="98" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
         <v>139</v>
       </c>
@@ -6926,23 +7275,29 @@
         <v>0</v>
       </c>
       <c r="O98" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A98))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A98))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A98))), "Auto", "")))</f>
+        <f t="shared" si="2"/>
         <v>Manual</v>
       </c>
       <c r="P98" s="12">
         <v>1</v>
       </c>
       <c r="Q98" s="12">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="R98" s="12">
-        <v>42</v>
-      </c>
-      <c r="S98" s="6">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="S98" s="12">
+        <v>36</v>
+      </c>
+      <c r="T98" s="12">
+        <v>36</v>
+      </c>
+      <c r="U98" s="39">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
         <v>140</v>
       </c>
@@ -6986,7 +7341,7 @@
         <v>0</v>
       </c>
       <c r="O99" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A99))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A99))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A99))), "Auto", "")))</f>
+        <f t="shared" si="2"/>
         <v>Manual</v>
       </c>
       <c r="P99" s="12">
@@ -6998,11 +7353,17 @@
       <c r="R99" s="12">
         <v>0</v>
       </c>
-      <c r="S99" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="S99" s="12">
+        <v>0</v>
+      </c>
+      <c r="T99" s="12">
+        <v>0</v>
+      </c>
+      <c r="U99" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A100" s="7" t="s">
         <v>141</v>
       </c>
@@ -7046,23 +7407,29 @@
         <v>1.69</v>
       </c>
       <c r="O100" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A100))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A100))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A100))), "Auto", "")))</f>
+        <f t="shared" si="2"/>
         <v>Manual</v>
       </c>
       <c r="P100" s="12">
         <v>1</v>
       </c>
       <c r="Q100" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R100" s="12">
-        <v>1</v>
-      </c>
-      <c r="S100" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="S100" s="12">
+        <v>1</v>
+      </c>
+      <c r="T100" s="12">
+        <v>0</v>
+      </c>
+      <c r="U100" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A101" s="7" t="s">
         <v>142</v>
       </c>
@@ -7106,23 +7473,29 @@
         <v>0</v>
       </c>
       <c r="O101" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A101))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A101))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A101))), "Auto", "")))</f>
+        <f t="shared" si="2"/>
         <v>Manual</v>
       </c>
       <c r="P101" s="12">
         <v>1</v>
       </c>
       <c r="Q101" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R101" s="12">
-        <v>1</v>
-      </c>
-      <c r="S101" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="S101" s="12">
+        <v>1</v>
+      </c>
+      <c r="T101" s="12">
+        <v>0</v>
+      </c>
+      <c r="U101" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
         <v>143</v>
       </c>
@@ -7166,7 +7539,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="O102" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A102))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A102))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A102))), "Auto", "")))</f>
+        <f t="shared" si="2"/>
         <v>Manual</v>
       </c>
       <c r="P102" s="12">
@@ -7178,11 +7551,17 @@
       <c r="R102" s="12">
         <v>0</v>
       </c>
-      <c r="S102" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="S102" s="12">
+        <v>0</v>
+      </c>
+      <c r="T102" s="12">
+        <v>0</v>
+      </c>
+      <c r="U102" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A103" s="7" t="s">
         <v>144</v>
       </c>
@@ -7226,23 +7605,29 @@
         <v>1.69</v>
       </c>
       <c r="O103" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A103))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A103))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A103))), "Auto", "")))</f>
+        <f t="shared" si="2"/>
         <v>Manual</v>
       </c>
       <c r="P103" s="12">
         <v>1</v>
       </c>
       <c r="Q103" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R103" s="12">
-        <v>1</v>
-      </c>
-      <c r="S103" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="S103" s="12">
+        <v>1</v>
+      </c>
+      <c r="T103" s="12">
+        <v>0</v>
+      </c>
+      <c r="U103" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
         <v>145</v>
       </c>
@@ -7286,23 +7671,29 @@
         <v>1.69</v>
       </c>
       <c r="O104" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A104))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A104))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A104))), "Auto", "")))</f>
+        <f t="shared" si="2"/>
         <v>Manual</v>
       </c>
       <c r="P104" s="12">
         <v>1</v>
       </c>
       <c r="Q104" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R104" s="12">
-        <v>1</v>
-      </c>
-      <c r="S104" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="S104" s="12">
+        <v>1</v>
+      </c>
+      <c r="T104" s="12">
+        <v>0</v>
+      </c>
+      <c r="U104" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
         <v>146</v>
       </c>
@@ -7346,23 +7737,29 @@
         <v>1.69</v>
       </c>
       <c r="O105" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A105))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A105))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A105))), "Auto", "")))</f>
+        <f t="shared" si="2"/>
         <v>Manual</v>
       </c>
       <c r="P105" s="12">
         <v>1</v>
       </c>
       <c r="Q105" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R105" s="12">
-        <v>1</v>
-      </c>
-      <c r="S105" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="S105" s="12">
+        <v>1</v>
+      </c>
+      <c r="T105" s="12">
+        <v>0</v>
+      </c>
+      <c r="U105" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
         <v>147</v>
       </c>
@@ -7406,23 +7803,29 @@
         <v>1.69</v>
       </c>
       <c r="O106" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A106))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A106))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A106))), "Auto", "")))</f>
+        <f t="shared" si="2"/>
         <v>Manual</v>
       </c>
       <c r="P106" s="12">
         <v>1</v>
       </c>
       <c r="Q106" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R106" s="12">
-        <v>1</v>
-      </c>
-      <c r="S106" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="S106" s="12">
+        <v>1</v>
+      </c>
+      <c r="T106" s="12">
+        <v>0</v>
+      </c>
+      <c r="U106" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:28" ht="29.4" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A107" s="18" t="s">
         <v>148</v>
       </c>
@@ -7466,40 +7869,46 @@
         <v>1.69</v>
       </c>
       <c r="O107" s="20" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A107))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A107))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A107))), "Auto", "")))</f>
+        <f t="shared" si="2"/>
         <v>Manual</v>
       </c>
       <c r="P107" s="20">
         <v>1</v>
       </c>
       <c r="Q107" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R107" s="20">
-        <v>1</v>
-      </c>
-      <c r="S107" s="19">
-        <v>1</v>
-      </c>
-      <c r="T107" s="33"/>
-      <c r="U107" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="S107" s="20">
+        <v>1</v>
+      </c>
+      <c r="T107" s="20">
+        <v>0</v>
+      </c>
+      <c r="U107" s="40">
+        <v>1</v>
+      </c>
+      <c r="V107" s="33"/>
+      <c r="W107" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="V107" s="32" t="s">
+      <c r="X107" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="W107" s="32" t="s">
+      <c r="Y107" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="X107" s="32" t="s">
+      <c r="Z107" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="Y107" s="32" t="s">
+      <c r="AA107" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="Z107"/>
-    </row>
-    <row r="108" spans="1:26" ht="15" x14ac:dyDescent="0.35">
+      <c r="AB107"/>
+    </row>
+    <row r="108" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A108" s="15" t="s">
         <v>170</v>
       </c>
@@ -7543,7 +7952,7 @@
         <v>1.31</v>
       </c>
       <c r="O108" s="17" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A108))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A108))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A108))), "Auto", "")))</f>
+        <f t="shared" si="2"/>
         <v>Auto</v>
       </c>
       <c r="P108" s="17">
@@ -7555,32 +7964,38 @@
       <c r="R108" s="17">
         <v>1</v>
       </c>
-      <c r="S108" s="16">
-        <v>1</v>
-      </c>
-      <c r="U108" t="str">
-        <f>IF(AND($P66=1,$P108=1,$S66=1,$S108=1), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="V108" t="str">
-        <f>IF(AND($P66=1,$P108=1,$S66&gt;1,$S108&gt;1), "YES", "NO")</f>
-        <v>NO</v>
+      <c r="S108" s="17">
+        <v>0</v>
+      </c>
+      <c r="T108" s="17">
+        <v>0</v>
+      </c>
+      <c r="U108" s="41">
+        <v>1</v>
       </c>
       <c r="W108" t="str">
-        <f t="shared" ref="W108:W149" si="0">IF(AND(P66&gt;1,P108&gt;1,P66=S66,P108=S108), "YES", "NO")</f>
+        <f>IF(AND($P66=1,$P108=1,$U66=1,$U108=1), "YES", "NO")</f>
         <v>NO</v>
       </c>
       <c r="X108" t="str">
-        <f t="shared" ref="X108:X149" si="1">IF(AND(P66&gt;1,P108&gt;1,P66&lt;S66,P108&lt;S108), "YES", "NO")</f>
+        <f>IF(AND($P66=1,$P108=1,$U66&gt;1,$U108&gt;1), "YES", "NO")</f>
         <v>NO</v>
       </c>
       <c r="Y108" t="str">
-        <f>IF(AND($S66&gt;5,$S108&gt;5), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="Z108"/>
-    </row>
-    <row r="109" spans="1:26" ht="15" x14ac:dyDescent="0.35">
+        <f t="shared" ref="Y108:Y149" si="3">IF(AND(P66&gt;1,P108&gt;1,P66=U66,P108=U108), "YES", "NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="Z108" t="str">
+        <f t="shared" ref="Z108:Z149" si="4">IF(AND(P66&gt;1,P108&gt;1,P66&lt;U66,P108&lt;U108), "YES", "NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="AA108" t="str">
+        <f>IF(AND($U66&gt;5,$U108&gt;5), "YES", "NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="AB108"/>
+    </row>
+    <row r="109" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
         <v>171</v>
       </c>
@@ -7624,7 +8039,7 @@
         <v>1.02</v>
       </c>
       <c r="O109" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A109))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A109))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A109))), "Auto", "")))</f>
+        <f t="shared" si="2"/>
         <v>Auto</v>
       </c>
       <c r="P109" s="12">
@@ -7636,32 +8051,38 @@
       <c r="R109" s="12">
         <v>2</v>
       </c>
-      <c r="S109" s="6">
+      <c r="S109" s="12">
+        <v>0</v>
+      </c>
+      <c r="T109" s="12">
+        <v>0</v>
+      </c>
+      <c r="U109" s="39">
         <v>2</v>
       </c>
-      <c r="U109" t="str">
-        <f t="shared" ref="U109:U149" si="2">IF(AND($P67=1,$P109=1,$S67=1,$S109=1), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="V109" t="str">
-        <f t="shared" ref="V109:V149" si="3">IF(AND($P67=1,$P109=1,$S67&gt;1,$S109&gt;1), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
       <c r="W109" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="W109:W149" si="5">IF(AND($P67=1,$P109=1,$U67=1,$U109=1), "YES", "NO")</f>
         <v>NO</v>
       </c>
       <c r="X109" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="X109:X149" si="6">IF(AND($P67=1,$P109=1,$U67&gt;1,$U109&gt;1), "YES", "NO")</f>
         <v>NO</v>
       </c>
       <c r="Y109" t="str">
-        <f t="shared" ref="Y109:Y149" si="4">IF(AND($S67&gt;5,$S109&gt;5), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
-      <c r="Z109"/>
-    </row>
-    <row r="110" spans="1:26" ht="15" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>NO</v>
+      </c>
+      <c r="Z109" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="AA109" t="str">
+        <f t="shared" ref="AA109:AA149" si="7">IF(AND($U67&gt;5,$U109&gt;5), "YES", "NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="AB109"/>
+    </row>
+    <row r="110" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A110" s="7" t="s">
         <v>172</v>
       </c>
@@ -7705,7 +8126,7 @@
         <v>0.66</v>
       </c>
       <c r="O110" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A110))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A110))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A110))), "Auto", "")))</f>
+        <f t="shared" si="2"/>
         <v>Auto</v>
       </c>
       <c r="P110" s="12">
@@ -7717,32 +8138,38 @@
       <c r="R110" s="12">
         <v>1</v>
       </c>
-      <c r="S110" s="6">
-        <v>1</v>
-      </c>
-      <c r="U110" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
-      </c>
-      <c r="V110" t="str">
+      <c r="S110" s="12">
+        <v>0</v>
+      </c>
+      <c r="T110" s="12">
+        <v>0</v>
+      </c>
+      <c r="U110" s="39">
+        <v>1</v>
+      </c>
+      <c r="W110" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="X110" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Y110" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="W110" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-      <c r="X110" t="str">
-        <f t="shared" si="1"/>
-        <v>NO</v>
-      </c>
-      <c r="Y110" t="str">
+      <c r="Z110" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="Z110"/>
-    </row>
-    <row r="111" spans="1:26" ht="15" x14ac:dyDescent="0.35">
+      <c r="AA110" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AB110"/>
+    </row>
+    <row r="111" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A111" s="7" t="s">
         <v>173</v>
       </c>
@@ -7786,7 +8213,7 @@
         <v>1.53</v>
       </c>
       <c r="O111" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A111))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A111))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A111))), "Auto", "")))</f>
+        <f t="shared" si="2"/>
         <v>Auto</v>
       </c>
       <c r="P111" s="12">
@@ -7798,32 +8225,38 @@
       <c r="R111" s="12">
         <v>6</v>
       </c>
-      <c r="S111" s="6">
+      <c r="S111" s="12">
+        <v>0</v>
+      </c>
+      <c r="T111" s="12">
+        <v>0</v>
+      </c>
+      <c r="U111" s="39">
         <v>6</v>
       </c>
-      <c r="U111" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
-      </c>
-      <c r="V111" t="str">
+      <c r="W111" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="X111" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Y111" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="W111" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-      <c r="X111" t="str">
-        <f t="shared" si="1"/>
-        <v>NO</v>
-      </c>
-      <c r="Y111" t="str">
+      <c r="Z111" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="Z111"/>
-    </row>
-    <row r="112" spans="1:26" ht="15" x14ac:dyDescent="0.35">
+      <c r="AA111" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AB111"/>
+    </row>
+    <row r="112" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
         <v>174</v>
       </c>
@@ -7867,7 +8300,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="O112" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A112))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A112))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A112))), "Auto", "")))</f>
+        <f t="shared" si="2"/>
         <v>Auto</v>
       </c>
       <c r="P112" s="12">
@@ -7879,32 +8312,38 @@
       <c r="R112" s="12">
         <v>4</v>
       </c>
-      <c r="S112" s="6">
+      <c r="S112" s="12">
+        <v>0</v>
+      </c>
+      <c r="T112" s="12">
+        <v>0</v>
+      </c>
+      <c r="U112" s="39">
         <v>4</v>
       </c>
-      <c r="U112" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
-      </c>
-      <c r="V112" t="str">
+      <c r="W112" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="X112" t="str">
+        <f t="shared" si="6"/>
+        <v>YES</v>
+      </c>
+      <c r="Y112" t="str">
         <f t="shared" si="3"/>
-        <v>YES</v>
-      </c>
-      <c r="W112" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-      <c r="X112" t="str">
-        <f t="shared" si="1"/>
-        <v>NO</v>
-      </c>
-      <c r="Y112" t="str">
+        <v>NO</v>
+      </c>
+      <c r="Z112" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="Z112"/>
-    </row>
-    <row r="113" spans="1:26" ht="15" x14ac:dyDescent="0.35">
+      <c r="AA112" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AB112"/>
+    </row>
+    <row r="113" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A113" s="7" t="s">
         <v>175</v>
       </c>
@@ -7948,7 +8387,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="O113" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A113))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A113))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A113))), "Auto", "")))</f>
+        <f t="shared" si="2"/>
         <v>Auto</v>
       </c>
       <c r="P113" s="12">
@@ -7960,32 +8399,38 @@
       <c r="R113" s="12">
         <v>4</v>
       </c>
-      <c r="S113" s="6">
+      <c r="S113" s="12">
+        <v>0</v>
+      </c>
+      <c r="T113" s="12">
+        <v>0</v>
+      </c>
+      <c r="U113" s="39">
         <v>4</v>
       </c>
-      <c r="U113" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
-      </c>
-      <c r="V113" t="str">
+      <c r="W113" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="X113" t="str">
+        <f t="shared" si="6"/>
+        <v>YES</v>
+      </c>
+      <c r="Y113" t="str">
         <f t="shared" si="3"/>
-        <v>YES</v>
-      </c>
-      <c r="W113" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-      <c r="X113" t="str">
-        <f t="shared" si="1"/>
-        <v>NO</v>
-      </c>
-      <c r="Y113" t="str">
+        <v>NO</v>
+      </c>
+      <c r="Z113" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="Z113"/>
-    </row>
-    <row r="114" spans="1:26" ht="15" x14ac:dyDescent="0.35">
+      <c r="AA113" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AB113"/>
+    </row>
+    <row r="114" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A114" s="5" t="s">
         <v>176</v>
       </c>
@@ -8029,7 +8474,7 @@
         <v>0</v>
       </c>
       <c r="O114" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A114))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A114))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A114))), "Auto", "")))</f>
+        <f t="shared" si="2"/>
         <v>Auto</v>
       </c>
       <c r="P114" s="12">
@@ -8041,32 +8486,38 @@
       <c r="R114" s="12">
         <v>1</v>
       </c>
-      <c r="S114" s="6">
-        <v>1</v>
-      </c>
-      <c r="U114" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
-      </c>
-      <c r="V114" t="str">
+      <c r="S114" s="12">
+        <v>0</v>
+      </c>
+      <c r="T114" s="12">
+        <v>0</v>
+      </c>
+      <c r="U114" s="39">
+        <v>1</v>
+      </c>
+      <c r="W114" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="X114" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Y114" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="W114" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-      <c r="X114" t="str">
-        <f t="shared" si="1"/>
-        <v>NO</v>
-      </c>
-      <c r="Y114" t="str">
+      <c r="Z114" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="Z114"/>
-    </row>
-    <row r="115" spans="1:26" ht="15" x14ac:dyDescent="0.35">
+      <c r="AA114" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AB114"/>
+    </row>
+    <row r="115" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A115" s="7" t="s">
         <v>177</v>
       </c>
@@ -8110,7 +8561,7 @@
         <v>0</v>
       </c>
       <c r="O115" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A115))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A115))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A115))), "Auto", "")))</f>
+        <f t="shared" si="2"/>
         <v>Auto</v>
       </c>
       <c r="P115" s="12">
@@ -8122,32 +8573,38 @@
       <c r="R115" s="12">
         <v>1</v>
       </c>
-      <c r="S115" s="6">
-        <v>1</v>
-      </c>
-      <c r="U115" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
-      </c>
-      <c r="V115" t="str">
+      <c r="S115" s="12">
+        <v>0</v>
+      </c>
+      <c r="T115" s="12">
+        <v>0</v>
+      </c>
+      <c r="U115" s="39">
+        <v>1</v>
+      </c>
+      <c r="W115" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="X115" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Y115" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="W115" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-      <c r="X115" t="str">
-        <f t="shared" si="1"/>
-        <v>NO</v>
-      </c>
-      <c r="Y115" t="str">
+      <c r="Z115" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="Z115"/>
-    </row>
-    <row r="116" spans="1:26" ht="15" x14ac:dyDescent="0.35">
+      <c r="AA115" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AB115"/>
+    </row>
+    <row r="116" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A116" s="7" t="s">
         <v>178</v>
       </c>
@@ -8191,7 +8648,7 @@
         <v>0</v>
       </c>
       <c r="O116" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A116))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A116))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A116))), "Auto", "")))</f>
+        <f t="shared" si="2"/>
         <v>Auto</v>
       </c>
       <c r="P116" s="12">
@@ -8203,32 +8660,38 @@
       <c r="R116" s="12">
         <v>1</v>
       </c>
-      <c r="S116" s="6">
-        <v>1</v>
-      </c>
-      <c r="U116" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
-      </c>
-      <c r="V116" t="str">
+      <c r="S116" s="12">
+        <v>0</v>
+      </c>
+      <c r="T116" s="12">
+        <v>0</v>
+      </c>
+      <c r="U116" s="39">
+        <v>1</v>
+      </c>
+      <c r="W116" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="X116" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Y116" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="W116" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-      <c r="X116" t="str">
-        <f t="shared" si="1"/>
-        <v>NO</v>
-      </c>
-      <c r="Y116" t="str">
+      <c r="Z116" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="Z116"/>
-    </row>
-    <row r="117" spans="1:26" ht="15" x14ac:dyDescent="0.35">
+      <c r="AA116" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AB116"/>
+    </row>
+    <row r="117" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A117" s="7" t="s">
         <v>179</v>
       </c>
@@ -8272,7 +8735,7 @@
         <v>0</v>
       </c>
       <c r="O117" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A117))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A117))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A117))), "Auto", "")))</f>
+        <f t="shared" si="2"/>
         <v>Auto</v>
       </c>
       <c r="P117" s="12">
@@ -8284,32 +8747,38 @@
       <c r="R117" s="12">
         <v>1</v>
       </c>
-      <c r="S117" s="6">
-        <v>1</v>
-      </c>
-      <c r="U117" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
-      </c>
-      <c r="V117" t="str">
+      <c r="S117" s="12">
+        <v>0</v>
+      </c>
+      <c r="T117" s="12">
+        <v>0</v>
+      </c>
+      <c r="U117" s="39">
+        <v>1</v>
+      </c>
+      <c r="W117" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="X117" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Y117" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="W117" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-      <c r="X117" t="str">
-        <f t="shared" si="1"/>
-        <v>NO</v>
-      </c>
-      <c r="Y117" t="str">
+      <c r="Z117" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="Z117"/>
-    </row>
-    <row r="118" spans="1:26" ht="15" x14ac:dyDescent="0.35">
+      <c r="AA117" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AB117"/>
+    </row>
+    <row r="118" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
         <v>180</v>
       </c>
@@ -8353,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="O118" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A118))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A118))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A118))), "Auto", "")))</f>
+        <f t="shared" si="2"/>
         <v>Auto</v>
       </c>
       <c r="P118" s="12">
@@ -8365,32 +8834,38 @@
       <c r="R118" s="12">
         <v>1</v>
       </c>
-      <c r="S118" s="6">
-        <v>1</v>
-      </c>
-      <c r="U118" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
-      </c>
-      <c r="V118" t="str">
+      <c r="S118" s="12">
+        <v>0</v>
+      </c>
+      <c r="T118" s="12">
+        <v>0</v>
+      </c>
+      <c r="U118" s="39">
+        <v>1</v>
+      </c>
+      <c r="W118" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="X118" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Y118" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="W118" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-      <c r="X118" t="str">
-        <f t="shared" si="1"/>
-        <v>NO</v>
-      </c>
-      <c r="Y118" t="str">
+      <c r="Z118" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="Z118"/>
-    </row>
-    <row r="119" spans="1:26" ht="15" x14ac:dyDescent="0.35">
+      <c r="AA118" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AB118"/>
+    </row>
+    <row r="119" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
         <v>181</v>
       </c>
@@ -8434,7 +8909,7 @@
         <v>0</v>
       </c>
       <c r="O119" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A119))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A119))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A119))), "Auto", "")))</f>
+        <f t="shared" si="2"/>
         <v>Auto</v>
       </c>
       <c r="P119" s="12">
@@ -8446,32 +8921,38 @@
       <c r="R119" s="12">
         <v>1</v>
       </c>
-      <c r="S119" s="6">
-        <v>1</v>
-      </c>
-      <c r="U119" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
-      </c>
-      <c r="V119" t="str">
+      <c r="S119" s="12">
+        <v>0</v>
+      </c>
+      <c r="T119" s="12">
+        <v>0</v>
+      </c>
+      <c r="U119" s="39">
+        <v>1</v>
+      </c>
+      <c r="W119" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="X119" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Y119" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="W119" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-      <c r="X119" t="str">
-        <f t="shared" si="1"/>
-        <v>NO</v>
-      </c>
-      <c r="Y119" t="str">
+      <c r="Z119" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="Z119"/>
-    </row>
-    <row r="120" spans="1:26" ht="15" x14ac:dyDescent="0.35">
+      <c r="AA119" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AB119"/>
+    </row>
+    <row r="120" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A120" s="5" t="s">
         <v>182</v>
       </c>
@@ -8515,44 +8996,50 @@
         <v>0</v>
       </c>
       <c r="O120" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A120))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A120))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A120))), "Auto", "")))</f>
+        <f t="shared" ref="O120:O149" si="8">IF(NOT(ISERR(SEARCH("*_Buggy",$A120))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A120))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A120))), "Auto", "")))</f>
         <v>Auto</v>
       </c>
       <c r="P120" s="12">
         <v>2</v>
       </c>
       <c r="Q120" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R120" s="12">
-        <v>2</v>
-      </c>
-      <c r="S120" s="6">
+        <v>1</v>
+      </c>
+      <c r="S120" s="12">
+        <v>1</v>
+      </c>
+      <c r="T120" s="12">
+        <v>0</v>
+      </c>
+      <c r="U120" s="39">
         <v>3</v>
       </c>
-      <c r="U120" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
-      </c>
-      <c r="V120" t="str">
+      <c r="W120" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="X120" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Y120" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="W120" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-      <c r="X120" t="str">
-        <f t="shared" si="1"/>
+      <c r="Z120" t="str">
+        <f t="shared" si="4"/>
         <v>YES</v>
       </c>
-      <c r="Y120" t="str">
-        <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-      <c r="Z120"/>
-    </row>
-    <row r="121" spans="1:26" ht="15" x14ac:dyDescent="0.35">
+      <c r="AA120" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AB120"/>
+    </row>
+    <row r="121" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A121" s="7" t="s">
         <v>183</v>
       </c>
@@ -8596,7 +9083,7 @@
         <v>0</v>
       </c>
       <c r="O121" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A121))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A121))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A121))), "Auto", "")))</f>
+        <f t="shared" si="8"/>
         <v>Auto</v>
       </c>
       <c r="P121" s="12">
@@ -8608,32 +9095,38 @@
       <c r="R121" s="12">
         <v>6</v>
       </c>
-      <c r="S121" s="6">
+      <c r="S121" s="12">
+        <v>0</v>
+      </c>
+      <c r="T121" s="12">
+        <v>0</v>
+      </c>
+      <c r="U121" s="39">
         <v>6</v>
       </c>
-      <c r="U121" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
-      </c>
-      <c r="V121" t="str">
+      <c r="W121" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="X121" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Y121" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="W121" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-      <c r="X121" t="str">
-        <f t="shared" si="1"/>
-        <v>YES</v>
-      </c>
-      <c r="Y121" t="str">
+      <c r="Z121" t="str">
         <f t="shared" si="4"/>
         <v>YES</v>
       </c>
-      <c r="Z121"/>
-    </row>
-    <row r="122" spans="1:26" ht="15" x14ac:dyDescent="0.35">
+      <c r="AA121" t="str">
+        <f t="shared" si="7"/>
+        <v>YES</v>
+      </c>
+      <c r="AB121"/>
+    </row>
+    <row r="122" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A122" s="7" t="s">
         <v>184</v>
       </c>
@@ -8677,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="O122" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A122))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A122))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A122))), "Auto", "")))</f>
+        <f t="shared" si="8"/>
         <v>Auto</v>
       </c>
       <c r="P122" s="12">
@@ -8689,32 +9182,38 @@
       <c r="R122" s="12">
         <v>2</v>
       </c>
-      <c r="S122" s="6">
+      <c r="S122" s="12">
+        <v>0</v>
+      </c>
+      <c r="T122" s="12">
+        <v>0</v>
+      </c>
+      <c r="U122" s="39">
         <v>2</v>
       </c>
-      <c r="U122" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
-      </c>
-      <c r="V122" t="str">
+      <c r="W122" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="X122" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Y122" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="W122" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-      <c r="X122" t="str">
-        <f t="shared" si="1"/>
-        <v>NO</v>
-      </c>
-      <c r="Y122" t="str">
+      <c r="Z122" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="Z122"/>
-    </row>
-    <row r="123" spans="1:26" ht="15" x14ac:dyDescent="0.35">
+      <c r="AA122" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AB122"/>
+    </row>
+    <row r="123" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A123" s="7" t="s">
         <v>185</v>
       </c>
@@ -8758,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="O123" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A123))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A123))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A123))), "Auto", "")))</f>
+        <f t="shared" si="8"/>
         <v>Auto</v>
       </c>
       <c r="P123" s="12">
@@ -8770,32 +9269,38 @@
       <c r="R123" s="12">
         <v>5</v>
       </c>
-      <c r="S123" s="6">
+      <c r="S123" s="12">
+        <v>0</v>
+      </c>
+      <c r="T123" s="12">
+        <v>0</v>
+      </c>
+      <c r="U123" s="39">
         <v>5</v>
       </c>
-      <c r="U123" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
-      </c>
-      <c r="V123" t="str">
+      <c r="W123" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="X123" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Y123" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="W123" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-      <c r="X123" t="str">
-        <f t="shared" si="1"/>
+      <c r="Z123" t="str">
+        <f t="shared" si="4"/>
         <v>YES</v>
       </c>
-      <c r="Y123" t="str">
-        <f t="shared" si="4"/>
-        <v>NO</v>
-      </c>
-      <c r="Z123"/>
-    </row>
-    <row r="124" spans="1:26" ht="15" x14ac:dyDescent="0.35">
+      <c r="AA123" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AB123"/>
+    </row>
+    <row r="124" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A124" s="5" t="s">
         <v>186</v>
       </c>
@@ -8839,44 +9344,50 @@
         <v>1.69</v>
       </c>
       <c r="O124" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A124))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A124))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A124))), "Auto", "")))</f>
+        <f t="shared" si="8"/>
         <v>Auto</v>
       </c>
       <c r="P124" s="12">
         <v>2</v>
       </c>
       <c r="Q124" s="12">
+        <v>0</v>
+      </c>
+      <c r="R124" s="12">
+        <v>0</v>
+      </c>
+      <c r="S124" s="12">
+        <v>2</v>
+      </c>
+      <c r="T124" s="12">
+        <v>1</v>
+      </c>
+      <c r="U124" s="39">
         <v>3</v>
       </c>
-      <c r="R124" s="12">
-        <v>2</v>
-      </c>
-      <c r="S124" s="6">
-        <v>3</v>
-      </c>
-      <c r="U124" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
-      </c>
-      <c r="V124" t="str">
+      <c r="W124" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="X124" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Y124" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="W124" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-      <c r="X124" t="str">
-        <f t="shared" si="1"/>
-        <v>NO</v>
-      </c>
-      <c r="Y124" t="str">
+      <c r="Z124" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="Z124"/>
-    </row>
-    <row r="125" spans="1:26" ht="15" x14ac:dyDescent="0.35">
+      <c r="AA124" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AB124"/>
+    </row>
+    <row r="125" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A125" s="5" t="s">
         <v>187</v>
       </c>
@@ -8920,44 +9431,50 @@
         <v>2.4</v>
       </c>
       <c r="O125" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A125))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A125))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A125))), "Auto", "")))</f>
+        <f t="shared" si="8"/>
         <v>Auto</v>
       </c>
       <c r="P125" s="12">
         <v>3</v>
       </c>
       <c r="Q125" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R125" s="12">
-        <v>3</v>
-      </c>
-      <c r="S125" s="6">
+        <v>1</v>
+      </c>
+      <c r="S125" s="12">
+        <v>2</v>
+      </c>
+      <c r="T125" s="12">
+        <v>1</v>
+      </c>
+      <c r="U125" s="39">
         <v>4</v>
       </c>
-      <c r="U125" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
-      </c>
-      <c r="V125" t="str">
+      <c r="W125" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="X125" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Y125" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="W125" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-      <c r="X125" t="str">
-        <f t="shared" si="1"/>
-        <v>NO</v>
-      </c>
-      <c r="Y125" t="str">
+      <c r="Z125" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="Z125"/>
-    </row>
-    <row r="126" spans="1:26" ht="15" x14ac:dyDescent="0.35">
+      <c r="AA125" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AB125"/>
+    </row>
+    <row r="126" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A126" s="5" t="s">
         <v>188</v>
       </c>
@@ -9001,44 +9518,50 @@
         <v>1.6</v>
       </c>
       <c r="O126" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A126))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A126))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A126))), "Auto", "")))</f>
+        <f t="shared" si="8"/>
         <v>Auto</v>
       </c>
       <c r="P126" s="12">
         <v>2</v>
       </c>
       <c r="Q126" s="12">
+        <v>0</v>
+      </c>
+      <c r="R126" s="12">
+        <v>0</v>
+      </c>
+      <c r="S126" s="12">
+        <v>2</v>
+      </c>
+      <c r="T126" s="12">
+        <v>1</v>
+      </c>
+      <c r="U126" s="39">
         <v>3</v>
       </c>
-      <c r="R126" s="12">
-        <v>2</v>
-      </c>
-      <c r="S126" s="6">
-        <v>3</v>
-      </c>
-      <c r="U126" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
-      </c>
-      <c r="V126" t="str">
+      <c r="W126" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="X126" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Y126" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="W126" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-      <c r="X126" t="str">
-        <f t="shared" si="1"/>
-        <v>NO</v>
-      </c>
-      <c r="Y126" t="str">
+      <c r="Z126" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="Z126"/>
-    </row>
-    <row r="127" spans="1:26" ht="15" x14ac:dyDescent="0.35">
+      <c r="AA126" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AB126"/>
+    </row>
+    <row r="127" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A127" s="5" t="s">
         <v>189</v>
       </c>
@@ -9082,44 +9605,50 @@
         <v>1.69</v>
       </c>
       <c r="O127" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A127))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A127))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A127))), "Auto", "")))</f>
+        <f t="shared" si="8"/>
         <v>Auto</v>
       </c>
       <c r="P127" s="12">
         <v>2</v>
       </c>
       <c r="Q127" s="12">
+        <v>0</v>
+      </c>
+      <c r="R127" s="12">
+        <v>0</v>
+      </c>
+      <c r="S127" s="12">
+        <v>2</v>
+      </c>
+      <c r="T127" s="12">
+        <v>1</v>
+      </c>
+      <c r="U127" s="39">
         <v>3</v>
       </c>
-      <c r="R127" s="12">
-        <v>2</v>
-      </c>
-      <c r="S127" s="6">
-        <v>3</v>
-      </c>
-      <c r="U127" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
-      </c>
-      <c r="V127" t="str">
+      <c r="W127" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="X127" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Y127" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="W127" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-      <c r="X127" t="str">
-        <f t="shared" si="1"/>
-        <v>NO</v>
-      </c>
-      <c r="Y127" t="str">
+      <c r="Z127" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="Z127"/>
-    </row>
-    <row r="128" spans="1:26" ht="15" x14ac:dyDescent="0.35">
+      <c r="AA127" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AB127"/>
+    </row>
+    <row r="128" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A128" s="7" t="s">
         <v>190</v>
       </c>
@@ -9163,44 +9692,50 @@
         <v>2.83</v>
       </c>
       <c r="O128" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A128))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A128))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A128))), "Auto", "")))</f>
+        <f t="shared" si="8"/>
         <v>Auto</v>
       </c>
       <c r="P128" s="12">
         <v>4</v>
       </c>
       <c r="Q128" s="12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R128" s="12">
-        <v>4</v>
-      </c>
-      <c r="S128" s="6">
+        <v>1</v>
+      </c>
+      <c r="S128" s="12">
+        <v>3</v>
+      </c>
+      <c r="T128" s="12">
+        <v>2</v>
+      </c>
+      <c r="U128" s="39">
         <v>6</v>
       </c>
-      <c r="U128" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
-      </c>
-      <c r="V128" t="str">
+      <c r="W128" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="X128" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Y128" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="W128" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-      <c r="X128" t="str">
-        <f t="shared" si="1"/>
-        <v>NO</v>
-      </c>
-      <c r="Y128" t="str">
+      <c r="Z128" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="Z128"/>
-    </row>
-    <row r="129" spans="1:26" ht="15" x14ac:dyDescent="0.35">
+      <c r="AA128" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AB128"/>
+    </row>
+    <row r="129" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A129" s="7" t="s">
         <v>191</v>
       </c>
@@ -9244,7 +9779,7 @@
         <v>0</v>
       </c>
       <c r="O129" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A129))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A129))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A129))), "Auto", "")))</f>
+        <f t="shared" si="8"/>
         <v>Auto</v>
       </c>
       <c r="P129" s="12">
@@ -9256,32 +9791,38 @@
       <c r="R129" s="12">
         <v>12</v>
       </c>
-      <c r="S129" s="6">
+      <c r="S129" s="12">
+        <v>0</v>
+      </c>
+      <c r="T129" s="12">
+        <v>0</v>
+      </c>
+      <c r="U129" s="39">
         <v>12</v>
       </c>
-      <c r="U129" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
-      </c>
-      <c r="V129" t="str">
+      <c r="W129" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="X129" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Y129" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="W129" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-      <c r="X129" t="str">
-        <f t="shared" si="1"/>
-        <v>NO</v>
-      </c>
-      <c r="Y129" t="str">
+      <c r="Z129" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="Z129"/>
-    </row>
-    <row r="130" spans="1:26" ht="15" x14ac:dyDescent="0.35">
+      <c r="AA129" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AB129"/>
+    </row>
+    <row r="130" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A130" s="7" t="s">
         <v>192</v>
       </c>
@@ -9325,7 +9866,7 @@
         <v>0</v>
       </c>
       <c r="O130" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A130))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A130))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A130))), "Auto", "")))</f>
+        <f t="shared" si="8"/>
         <v>Auto</v>
       </c>
       <c r="P130" s="12">
@@ -9337,32 +9878,38 @@
       <c r="R130" s="12">
         <v>12</v>
       </c>
-      <c r="S130" s="6">
+      <c r="S130" s="12">
+        <v>0</v>
+      </c>
+      <c r="T130" s="12">
+        <v>0</v>
+      </c>
+      <c r="U130" s="39">
         <v>12</v>
       </c>
-      <c r="U130" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
-      </c>
-      <c r="V130" t="str">
+      <c r="W130" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="X130" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Y130" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="W130" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-      <c r="X130" t="str">
-        <f t="shared" si="1"/>
-        <v>NO</v>
-      </c>
-      <c r="Y130" t="str">
+      <c r="Z130" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="Z130"/>
-    </row>
-    <row r="131" spans="1:26" ht="15" x14ac:dyDescent="0.35">
+      <c r="AA130" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AB130"/>
+    </row>
+    <row r="131" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A131" s="7" t="s">
         <v>193</v>
       </c>
@@ -9406,7 +9953,7 @@
         <v>0</v>
       </c>
       <c r="O131" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A131))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A131))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A131))), "Auto", "")))</f>
+        <f t="shared" si="8"/>
         <v>Auto</v>
       </c>
       <c r="P131" s="12">
@@ -9418,32 +9965,38 @@
       <c r="R131" s="12">
         <v>12</v>
       </c>
-      <c r="S131" s="6">
+      <c r="S131" s="12">
+        <v>0</v>
+      </c>
+      <c r="T131" s="12">
+        <v>0</v>
+      </c>
+      <c r="U131" s="39">
         <v>12</v>
       </c>
-      <c r="U131" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
-      </c>
-      <c r="V131" t="str">
+      <c r="W131" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="X131" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Y131" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="W131" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-      <c r="X131" t="str">
-        <f t="shared" si="1"/>
-        <v>NO</v>
-      </c>
-      <c r="Y131" t="str">
+      <c r="Z131" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="Z131"/>
-    </row>
-    <row r="132" spans="1:26" ht="15" x14ac:dyDescent="0.35">
+      <c r="AA131" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AB131"/>
+    </row>
+    <row r="132" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A132" s="7" t="s">
         <v>194</v>
       </c>
@@ -9487,7 +10040,7 @@
         <v>0</v>
       </c>
       <c r="O132" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A132))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A132))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A132))), "Auto", "")))</f>
+        <f t="shared" si="8"/>
         <v>Auto</v>
       </c>
       <c r="P132" s="12">
@@ -9499,32 +10052,38 @@
       <c r="R132" s="12">
         <v>12</v>
       </c>
-      <c r="S132" s="6">
+      <c r="S132" s="12">
+        <v>0</v>
+      </c>
+      <c r="T132" s="12">
+        <v>0</v>
+      </c>
+      <c r="U132" s="39">
         <v>12</v>
       </c>
-      <c r="U132" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
-      </c>
-      <c r="V132" t="str">
+      <c r="W132" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="X132" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Y132" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="W132" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-      <c r="X132" t="str">
-        <f t="shared" si="1"/>
-        <v>NO</v>
-      </c>
-      <c r="Y132" t="str">
+      <c r="Z132" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="Z132"/>
-    </row>
-    <row r="133" spans="1:26" ht="15" x14ac:dyDescent="0.35">
+      <c r="AA132" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AB132"/>
+    </row>
+    <row r="133" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A133" s="7" t="s">
         <v>195</v>
       </c>
@@ -9568,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="O133" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A133))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A133))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A133))), "Auto", "")))</f>
+        <f t="shared" si="8"/>
         <v>Auto</v>
       </c>
       <c r="P133" s="12">
@@ -9580,32 +10139,38 @@
       <c r="R133" s="12">
         <v>12</v>
       </c>
-      <c r="S133" s="6">
+      <c r="S133" s="12">
+        <v>0</v>
+      </c>
+      <c r="T133" s="12">
+        <v>0</v>
+      </c>
+      <c r="U133" s="39">
         <v>12</v>
       </c>
-      <c r="U133" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
-      </c>
-      <c r="V133" t="str">
+      <c r="W133" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="X133" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Y133" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="W133" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-      <c r="X133" t="str">
-        <f t="shared" si="1"/>
-        <v>NO</v>
-      </c>
-      <c r="Y133" t="str">
+      <c r="Z133" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="Z133"/>
-    </row>
-    <row r="134" spans="1:26" ht="15" x14ac:dyDescent="0.35">
+      <c r="AA133" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AB133"/>
+    </row>
+    <row r="134" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A134" s="7" t="s">
         <v>196</v>
       </c>
@@ -9649,44 +10214,50 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="O134" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A134))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A134))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A134))), "Auto", "")))</f>
+        <f t="shared" si="8"/>
         <v>Auto</v>
       </c>
       <c r="P134" s="12">
         <v>8</v>
       </c>
       <c r="Q134" s="12">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="R134" s="12">
-        <v>12</v>
-      </c>
-      <c r="S134" s="6">
+        <v>1</v>
+      </c>
+      <c r="S134" s="12">
+        <v>11</v>
+      </c>
+      <c r="T134" s="12">
+        <v>6</v>
+      </c>
+      <c r="U134" s="39">
         <v>16</v>
       </c>
-      <c r="U134" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
-      </c>
-      <c r="V134" t="str">
+      <c r="W134" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="X134" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Y134" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="W134" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-      <c r="X134" t="str">
-        <f t="shared" si="1"/>
-        <v>NO</v>
-      </c>
-      <c r="Y134" t="str">
+      <c r="Z134" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="Z134"/>
-    </row>
-    <row r="135" spans="1:26" ht="15" x14ac:dyDescent="0.35">
+      <c r="AA134" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AB134"/>
+    </row>
+    <row r="135" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A135" s="5" t="s">
         <v>197</v>
       </c>
@@ -9730,44 +10301,50 @@
         <v>1.39</v>
       </c>
       <c r="O135" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A135))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A135))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A135))), "Auto", "")))</f>
+        <f t="shared" si="8"/>
         <v>Auto</v>
       </c>
       <c r="P135" s="12">
         <v>11</v>
       </c>
       <c r="Q135" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="R135" s="12">
-        <v>19</v>
-      </c>
-      <c r="S135" s="6">
+        <v>9</v>
+      </c>
+      <c r="S135" s="12">
+        <v>9</v>
+      </c>
+      <c r="T135" s="12">
+        <v>9</v>
+      </c>
+      <c r="U135" s="39">
         <v>39</v>
       </c>
-      <c r="U135" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
-      </c>
-      <c r="V135" t="str">
+      <c r="W135" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="X135" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Y135" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="W135" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-      <c r="X135" t="str">
-        <f t="shared" si="1"/>
-        <v>NO</v>
-      </c>
-      <c r="Y135" t="str">
+      <c r="Z135" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="Z135"/>
-    </row>
-    <row r="136" spans="1:26" ht="15" x14ac:dyDescent="0.35">
+      <c r="AA135" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AB135"/>
+    </row>
+    <row r="136" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A136" s="5" t="s">
         <v>198</v>
       </c>
@@ -9811,44 +10388,50 @@
         <v>2.16</v>
       </c>
       <c r="O136" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A136))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A136))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A136))), "Auto", "")))</f>
+        <f t="shared" si="8"/>
         <v>Auto</v>
       </c>
       <c r="P136" s="12">
         <v>8</v>
       </c>
       <c r="Q136" s="12">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="R136" s="12">
-        <v>9</v>
-      </c>
-      <c r="S136" s="6">
+        <v>2</v>
+      </c>
+      <c r="S136" s="12">
+        <v>7</v>
+      </c>
+      <c r="T136" s="12">
+        <v>3</v>
+      </c>
+      <c r="U136" s="39">
         <v>13</v>
       </c>
-      <c r="U136" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
-      </c>
-      <c r="V136" t="str">
+      <c r="W136" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="X136" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Y136" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="W136" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-      <c r="X136" t="str">
-        <f t="shared" si="1"/>
-        <v>NO</v>
-      </c>
-      <c r="Y136" t="str">
+      <c r="Z136" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="Z136"/>
-    </row>
-    <row r="137" spans="1:26" ht="15" x14ac:dyDescent="0.35">
+      <c r="AA136" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AB136"/>
+    </row>
+    <row r="137" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A137" s="7" t="s">
         <v>199</v>
       </c>
@@ -9892,44 +10475,50 @@
         <v>0.79</v>
       </c>
       <c r="O137" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A137))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A137))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A137))), "Auto", "")))</f>
+        <f t="shared" si="8"/>
         <v>Auto</v>
       </c>
       <c r="P137" s="12">
         <v>6</v>
       </c>
       <c r="Q137" s="12">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R137" s="12">
-        <v>6</v>
-      </c>
-      <c r="S137" s="6">
+        <v>2</v>
+      </c>
+      <c r="S137" s="12">
+        <v>4</v>
+      </c>
+      <c r="T137" s="12">
+        <v>3</v>
+      </c>
+      <c r="U137" s="39">
         <v>9</v>
       </c>
-      <c r="U137" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
-      </c>
-      <c r="V137" t="str">
+      <c r="W137" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="X137" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Y137" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="W137" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-      <c r="X137" t="str">
-        <f t="shared" si="1"/>
-        <v>NO</v>
-      </c>
-      <c r="Y137" t="str">
+      <c r="Z137" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="Z137"/>
-    </row>
-    <row r="138" spans="1:26" ht="15" x14ac:dyDescent="0.35">
+      <c r="AA137" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AB137"/>
+    </row>
+    <row r="138" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A138" s="7" t="s">
         <v>200</v>
       </c>
@@ -9973,44 +10562,50 @@
         <v>3.38</v>
       </c>
       <c r="O138" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A138))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A138))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A138))), "Auto", "")))</f>
+        <f t="shared" si="8"/>
         <v>Auto</v>
       </c>
       <c r="P138" s="12">
         <v>7</v>
       </c>
       <c r="Q138" s="12">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="R138" s="12">
-        <v>12</v>
-      </c>
-      <c r="S138" s="6">
+        <v>2</v>
+      </c>
+      <c r="S138" s="12">
+        <v>9</v>
+      </c>
+      <c r="T138" s="12">
+        <v>5</v>
+      </c>
+      <c r="U138" s="39">
         <v>20</v>
       </c>
-      <c r="U138" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
-      </c>
-      <c r="V138" t="str">
+      <c r="W138" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="X138" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Y138" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="W138" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-      <c r="X138" t="str">
-        <f t="shared" si="1"/>
-        <v>NO</v>
-      </c>
-      <c r="Y138" t="str">
+      <c r="Z138" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="Z138"/>
-    </row>
-    <row r="139" spans="1:26" ht="15" x14ac:dyDescent="0.35">
+      <c r="AA138" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AB138"/>
+    </row>
+    <row r="139" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A139" s="7" t="s">
         <v>201</v>
       </c>
@@ -10054,44 +10649,50 @@
         <v>0.71</v>
       </c>
       <c r="O139" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A139))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A139))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A139))), "Auto", "")))</f>
+        <f t="shared" si="8"/>
         <v>Auto</v>
       </c>
       <c r="P139" s="12">
         <v>1</v>
       </c>
       <c r="Q139" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R139" s="12">
-        <v>1</v>
-      </c>
-      <c r="S139" s="6">
-        <v>1</v>
-      </c>
-      <c r="U139" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
-      </c>
-      <c r="V139" t="str">
+        <v>0</v>
+      </c>
+      <c r="S139" s="12">
+        <v>1</v>
+      </c>
+      <c r="T139" s="12">
+        <v>0</v>
+      </c>
+      <c r="U139" s="39">
+        <v>1</v>
+      </c>
+      <c r="W139" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="X139" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Y139" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="W139" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-      <c r="X139" t="str">
-        <f t="shared" si="1"/>
-        <v>NO</v>
-      </c>
-      <c r="Y139" t="str">
+      <c r="Z139" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="Z139"/>
-    </row>
-    <row r="140" spans="1:26" ht="15" x14ac:dyDescent="0.35">
+      <c r="AA139" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AB139"/>
+    </row>
+    <row r="140" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A140" s="7" t="s">
         <v>202</v>
       </c>
@@ -10135,44 +10736,50 @@
         <v>0</v>
       </c>
       <c r="O140" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A140))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A140))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A140))), "Auto", "")))</f>
+        <f t="shared" si="8"/>
         <v>Auto</v>
       </c>
       <c r="P140" s="12">
         <v>1</v>
       </c>
       <c r="Q140" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R140" s="12">
-        <v>1</v>
-      </c>
-      <c r="S140" s="6">
-        <v>1</v>
-      </c>
-      <c r="U140" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
-      </c>
-      <c r="V140" t="str">
+        <v>0</v>
+      </c>
+      <c r="S140" s="12">
+        <v>1</v>
+      </c>
+      <c r="T140" s="12">
+        <v>0</v>
+      </c>
+      <c r="U140" s="39">
+        <v>1</v>
+      </c>
+      <c r="W140" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="X140" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Y140" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="W140" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-      <c r="X140" t="str">
-        <f t="shared" si="1"/>
-        <v>NO</v>
-      </c>
-      <c r="Y140" t="str">
+      <c r="Z140" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="Z140"/>
-    </row>
-    <row r="141" spans="1:26" ht="15" x14ac:dyDescent="0.35">
+      <c r="AA140" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AB140"/>
+    </row>
+    <row r="141" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A141" s="7" t="s">
         <v>203</v>
       </c>
@@ -10216,7 +10823,7 @@
         <v>2.4700000000000002</v>
       </c>
       <c r="O141" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A141))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A141))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A141))), "Auto", "")))</f>
+        <f t="shared" si="8"/>
         <v>Auto</v>
       </c>
       <c r="P141" s="12">
@@ -10228,32 +10835,38 @@
       <c r="R141" s="12">
         <v>0</v>
       </c>
-      <c r="S141" s="6">
+      <c r="S141" s="12">
+        <v>0</v>
+      </c>
+      <c r="T141" s="12">
+        <v>0</v>
+      </c>
+      <c r="U141" s="39">
         <v>2</v>
       </c>
-      <c r="U141" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
-      </c>
-      <c r="V141" t="str">
+      <c r="W141" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="X141" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Y141" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="W141" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-      <c r="X141" t="str">
-        <f t="shared" si="1"/>
-        <v>NO</v>
-      </c>
-      <c r="Y141" t="str">
+      <c r="Z141" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="Z141"/>
-    </row>
-    <row r="142" spans="1:26" ht="15" x14ac:dyDescent="0.35">
+      <c r="AA141" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AB141"/>
+    </row>
+    <row r="142" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A142" s="7" t="s">
         <v>204</v>
       </c>
@@ -10297,44 +10910,50 @@
         <v>1.69</v>
       </c>
       <c r="O142" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A142))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A142))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A142))), "Auto", "")))</f>
+        <f t="shared" si="8"/>
         <v>Auto</v>
       </c>
       <c r="P142" s="12">
         <v>1</v>
       </c>
       <c r="Q142" s="12">
+        <v>1</v>
+      </c>
+      <c r="R142" s="12">
+        <v>0</v>
+      </c>
+      <c r="S142" s="12">
+        <v>1</v>
+      </c>
+      <c r="T142" s="12">
+        <v>1</v>
+      </c>
+      <c r="U142" s="39">
         <v>3</v>
       </c>
-      <c r="R142" s="12">
-        <v>1</v>
-      </c>
-      <c r="S142" s="6">
-        <v>3</v>
-      </c>
-      <c r="U142" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
-      </c>
-      <c r="V142" t="str">
+      <c r="W142" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="X142" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Y142" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="W142" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-      <c r="X142" t="str">
-        <f t="shared" si="1"/>
-        <v>NO</v>
-      </c>
-      <c r="Y142" t="str">
+      <c r="Z142" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="Z142"/>
-    </row>
-    <row r="143" spans="1:26" ht="15" x14ac:dyDescent="0.35">
+      <c r="AA142" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AB142"/>
+    </row>
+    <row r="143" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A143" s="5" t="s">
         <v>205</v>
       </c>
@@ -10378,44 +10997,50 @@
         <v>0</v>
       </c>
       <c r="O143" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A143))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A143))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A143))), "Auto", "")))</f>
+        <f t="shared" si="8"/>
         <v>Auto</v>
       </c>
       <c r="P143" s="12">
         <v>1</v>
       </c>
       <c r="Q143" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R143" s="12">
+        <v>1</v>
+      </c>
+      <c r="S143" s="12">
+        <v>1</v>
+      </c>
+      <c r="T143" s="12">
+        <v>0</v>
+      </c>
+      <c r="U143" s="39">
         <v>2</v>
       </c>
-      <c r="S143" s="6">
-        <v>2</v>
-      </c>
-      <c r="U143" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
-      </c>
-      <c r="V143" t="str">
+      <c r="W143" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="X143" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Y143" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="W143" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-      <c r="X143" t="str">
-        <f t="shared" si="1"/>
-        <v>NO</v>
-      </c>
-      <c r="Y143" t="str">
+      <c r="Z143" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="Z143"/>
-    </row>
-    <row r="144" spans="1:26" ht="15" x14ac:dyDescent="0.35">
+      <c r="AA143" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AB143"/>
+    </row>
+    <row r="144" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A144" s="5" t="s">
         <v>206</v>
       </c>
@@ -10459,44 +11084,50 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="O144" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A144))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A144))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A144))), "Auto", "")))</f>
+        <f t="shared" si="8"/>
         <v>Auto</v>
       </c>
       <c r="P144" s="12">
         <v>1</v>
       </c>
       <c r="Q144" s="12">
+        <v>1</v>
+      </c>
+      <c r="R144" s="12">
+        <v>0</v>
+      </c>
+      <c r="S144" s="12">
+        <v>2</v>
+      </c>
+      <c r="T144" s="12">
+        <v>2</v>
+      </c>
+      <c r="U144" s="39">
         <v>4</v>
       </c>
-      <c r="R144" s="12">
-        <v>2</v>
-      </c>
-      <c r="S144" s="6">
-        <v>4</v>
-      </c>
-      <c r="U144" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
-      </c>
-      <c r="V144" t="str">
+      <c r="W144" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="X144" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Y144" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="W144" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-      <c r="X144" t="str">
-        <f t="shared" si="1"/>
-        <v>NO</v>
-      </c>
-      <c r="Y144" t="str">
+      <c r="Z144" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="Z144"/>
-    </row>
-    <row r="145" spans="1:26" ht="15" x14ac:dyDescent="0.35">
+      <c r="AA144" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AB144"/>
+    </row>
+    <row r="145" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A145" s="5" t="s">
         <v>207</v>
       </c>
@@ -10540,44 +11171,50 @@
         <v>1.69</v>
       </c>
       <c r="O145" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A145))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A145))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A145))), "Auto", "")))</f>
+        <f t="shared" si="8"/>
         <v>Auto</v>
       </c>
       <c r="P145" s="12">
         <v>3</v>
       </c>
       <c r="Q145" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R145" s="12">
+        <v>2</v>
+      </c>
+      <c r="S145" s="12">
+        <v>1</v>
+      </c>
+      <c r="T145" s="12">
+        <v>0</v>
+      </c>
+      <c r="U145" s="39">
         <v>3</v>
       </c>
-      <c r="S145" s="6">
-        <v>3</v>
-      </c>
-      <c r="U145" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
-      </c>
-      <c r="V145" t="str">
+      <c r="W145" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="X145" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Y145" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="W145" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-      <c r="X145" t="str">
-        <f t="shared" si="1"/>
-        <v>NO</v>
-      </c>
-      <c r="Y145" t="str">
+      <c r="Z145" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="Z145"/>
-    </row>
-    <row r="146" spans="1:26" ht="15" x14ac:dyDescent="0.35">
+      <c r="AA145" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AB145"/>
+    </row>
+    <row r="146" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A146" s="7" t="s">
         <v>208</v>
       </c>
@@ -10621,44 +11258,50 @@
         <v>1.69</v>
       </c>
       <c r="O146" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A146))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A146))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A146))), "Auto", "")))</f>
+        <f t="shared" si="8"/>
         <v>Auto</v>
       </c>
       <c r="P146" s="12">
         <v>3</v>
       </c>
       <c r="Q146" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R146" s="12">
-        <v>2</v>
-      </c>
-      <c r="S146" s="6">
+        <v>1</v>
+      </c>
+      <c r="S146" s="12">
+        <v>1</v>
+      </c>
+      <c r="T146" s="12">
+        <v>0</v>
+      </c>
+      <c r="U146" s="39">
         <v>3</v>
       </c>
-      <c r="U146" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
-      </c>
-      <c r="V146" t="str">
+      <c r="W146" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="X146" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Y146" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="W146" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-      <c r="X146" t="str">
-        <f t="shared" si="1"/>
-        <v>NO</v>
-      </c>
-      <c r="Y146" t="str">
+      <c r="Z146" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="Z146"/>
-    </row>
-    <row r="147" spans="1:26" ht="15" x14ac:dyDescent="0.35">
+      <c r="AA146" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AB146"/>
+    </row>
+    <row r="147" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A147" s="5" t="s">
         <v>209</v>
       </c>
@@ -10702,44 +11345,50 @@
         <v>1.69</v>
       </c>
       <c r="O147" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A147))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A147))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A147))), "Auto", "")))</f>
+        <f t="shared" si="8"/>
         <v>Auto</v>
       </c>
       <c r="P147" s="12">
         <v>2</v>
       </c>
       <c r="Q147" s="12">
+        <v>0</v>
+      </c>
+      <c r="R147" s="12">
+        <v>0</v>
+      </c>
+      <c r="S147" s="12">
+        <v>2</v>
+      </c>
+      <c r="T147" s="12">
+        <v>1</v>
+      </c>
+      <c r="U147" s="39">
         <v>3</v>
       </c>
-      <c r="R147" s="12">
-        <v>2</v>
-      </c>
-      <c r="S147" s="6">
-        <v>3</v>
-      </c>
-      <c r="U147" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
-      </c>
-      <c r="V147" t="str">
+      <c r="W147" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="X147" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Y147" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="W147" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-      <c r="X147" t="str">
-        <f t="shared" si="1"/>
-        <v>NO</v>
-      </c>
-      <c r="Y147" t="str">
+      <c r="Z147" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="Z147"/>
-    </row>
-    <row r="148" spans="1:26" ht="15" x14ac:dyDescent="0.35">
+      <c r="AA147" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AB147"/>
+    </row>
+    <row r="148" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A148" s="5" t="s">
         <v>210</v>
       </c>
@@ -10783,44 +11432,50 @@
         <v>1.69</v>
       </c>
       <c r="O148" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A148))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A148))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A148))), "Auto", "")))</f>
+        <f t="shared" si="8"/>
         <v>Auto</v>
       </c>
       <c r="P148" s="12">
         <v>3</v>
       </c>
       <c r="Q148" s="12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R148" s="12">
-        <v>3</v>
-      </c>
-      <c r="S148" s="6">
+        <v>1</v>
+      </c>
+      <c r="S148" s="12">
+        <v>2</v>
+      </c>
+      <c r="T148" s="12">
+        <v>2</v>
+      </c>
+      <c r="U148" s="39">
         <v>5</v>
       </c>
-      <c r="U148" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
-      </c>
-      <c r="V148" t="str">
+      <c r="W148" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="X148" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Y148" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="W148" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-      <c r="X148" t="str">
-        <f t="shared" si="1"/>
-        <v>NO</v>
-      </c>
-      <c r="Y148" t="str">
+      <c r="Z148" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="Z148"/>
-    </row>
-    <row r="149" spans="1:26" ht="15" x14ac:dyDescent="0.35">
+      <c r="AA148" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AB148"/>
+    </row>
+    <row r="149" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A149" s="7" t="s">
         <v>211</v>
       </c>
@@ -10864,44 +11519,50 @@
         <v>1.28</v>
       </c>
       <c r="O149" s="12" t="str">
-        <f>IF(NOT(ISERR(SEARCH("*_Buggy",$A149))), "Buggy", IF(NOT(ISERR(SEARCH("*_Manual",$A149))), "Manual", IF(NOT(ISERR(SEARCH("*_Auto",$A149))), "Auto", "")))</f>
+        <f t="shared" si="8"/>
         <v>Auto</v>
       </c>
       <c r="P149" s="12">
         <v>2</v>
       </c>
       <c r="Q149" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R149" s="12">
+        <v>1</v>
+      </c>
+      <c r="S149" s="12">
+        <v>1</v>
+      </c>
+      <c r="T149" s="12">
+        <v>0</v>
+      </c>
+      <c r="U149" s="39">
         <v>2</v>
       </c>
-      <c r="S149" s="6">
-        <v>2</v>
-      </c>
-      <c r="U149" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
-      </c>
-      <c r="V149" t="str">
+      <c r="W149" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="X149" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="Y149" s="34" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
-      <c r="W149" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
-      </c>
-      <c r="X149" s="34" t="str">
-        <f t="shared" si="1"/>
-        <v>NO</v>
-      </c>
-      <c r="Y149" t="str">
+      <c r="Z149" s="34" t="str">
         <f t="shared" si="4"/>
         <v>NO</v>
       </c>
-      <c r="Z149"/>
-    </row>
-    <row r="150" spans="1:26" ht="28.8" x14ac:dyDescent="0.35">
+      <c r="AA149" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+      <c r="AB149"/>
+    </row>
+    <row r="150" spans="1:28" ht="28.8" x14ac:dyDescent="0.35">
       <c r="A150" s="13" t="s">
         <v>86</v>
       </c>
@@ -10957,26 +11618,32 @@
         <v>85</v>
       </c>
       <c r="S150" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="T150" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="U150" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="U150" s="32" t="s">
+      <c r="W150" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="V150" s="32" t="s">
+      <c r="X150" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="W150" s="32" t="s">
+      <c r="Y150" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="X150" s="32" t="s">
+      <c r="Z150" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="Y150" s="32" t="s">
+      <c r="AA150" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="Z150"/>
-    </row>
-    <row r="151" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AB150"/>
+    </row>
+    <row r="151" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A151" s="9" t="s">
         <v>65</v>
       </c>
@@ -10985,56 +11652,56 @@
         <v>276.41999999999996</v>
       </c>
       <c r="C151" s="30">
-        <f t="shared" ref="C151:N151" si="5">SUM(C24:C149)</f>
+        <f t="shared" ref="C151:N151" si="9">SUM(C24:C149)</f>
         <v>9906.2599999999929</v>
       </c>
       <c r="D151" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1378.93</v>
       </c>
       <c r="E151" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>907.77000000000044</v>
       </c>
       <c r="F151" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1059.2000000000003</v>
       </c>
       <c r="G151" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>313.62999999999994</v>
       </c>
       <c r="H151" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1221.420000000001</v>
       </c>
       <c r="I151" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2438.2200000000003</v>
       </c>
       <c r="J151" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5431.3700000000026</v>
       </c>
       <c r="K151" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>109.44000000000003</v>
       </c>
       <c r="L151" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>6.7965999999999962</v>
       </c>
       <c r="M151" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1884.7400000000007</v>
       </c>
       <c r="N151" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>104.78599999999993</v>
       </c>
       <c r="O151" s="10"/>
     </row>
-    <row r="152" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A152" s="11" t="s">
         <v>66</v>
       </c>
@@ -11043,56 +11710,80 @@
         <v>2.1938095238095237</v>
       </c>
       <c r="C152" s="31">
-        <f t="shared" ref="C152:N152" si="6">AVERAGE(C24:C149)</f>
+        <f t="shared" ref="C152:N152" si="10">AVERAGE(C24:C149)</f>
         <v>78.621111111111048</v>
       </c>
       <c r="D152" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>10.943888888888889</v>
       </c>
       <c r="E152" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>7.2045238095238133</v>
       </c>
       <c r="F152" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>8.4063492063492085</v>
       </c>
       <c r="G152" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.4891269841269836</v>
       </c>
       <c r="H152" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>9.6938095238095308</v>
       </c>
       <c r="I152" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>19.350952380952382</v>
       </c>
       <c r="J152" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>43.106111111111133</v>
       </c>
       <c r="K152" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.86857142857142877</v>
       </c>
       <c r="L152" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5.3941269841269811E-2</v>
       </c>
       <c r="M152" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>14.958253968253974</v>
       </c>
       <c r="N152" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.83163492063492006</v>
       </c>
       <c r="O152" s="10"/>
-    </row>
-    <row r="153" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="P152" s="37">
+        <f>AVERAGE(P66:P107)</f>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="Q152" s="37">
+        <f t="shared" ref="Q152:U152" si="11">AVERAGE(Q66:Q107)</f>
+        <v>2</v>
+      </c>
+      <c r="R152" s="37">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S152" s="37">
+        <f t="shared" si="11"/>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="T152" s="37">
+        <f t="shared" si="11"/>
+        <v>3.5714285714285716</v>
+      </c>
+      <c r="U152" s="37">
+        <f t="shared" si="11"/>
+        <v>7.2380952380952381</v>
+      </c>
+    </row>
+    <row r="153" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A153" s="9" t="s">
         <v>67</v>
       </c>
@@ -11101,56 +11792,80 @@
         <v>1</v>
       </c>
       <c r="C153" s="30">
-        <f t="shared" ref="C153:N153" si="7">MIN(C24:C149)</f>
+        <f t="shared" ref="C153:N153" si="12">MIN(C24:C149)</f>
         <v>68.5</v>
       </c>
       <c r="D153" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2.67</v>
       </c>
       <c r="E153" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2.17</v>
       </c>
       <c r="F153" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G153" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H153" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="I153" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="J153" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>6.34</v>
       </c>
       <c r="K153" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L153" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M153" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N153" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O153" s="10"/>
-    </row>
-    <row r="154" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="P153" s="37">
+        <f>AVERAGE(P108:P149)</f>
+        <v>2.3571428571428572</v>
+      </c>
+      <c r="Q153" s="37">
+        <f t="shared" ref="Q153:U153" si="13">AVERAGE(Q108:Q149)</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="R153" s="37">
+        <f t="shared" si="13"/>
+        <v>2.9047619047619047</v>
+      </c>
+      <c r="S153" s="37">
+        <f t="shared" si="13"/>
+        <v>1.5476190476190477</v>
+      </c>
+      <c r="T153" s="37">
+        <f t="shared" si="13"/>
+        <v>0.90476190476190477</v>
+      </c>
+      <c r="U153" s="37">
+        <f t="shared" si="13"/>
+        <v>5.833333333333333</v>
+      </c>
+    </row>
+    <row r="154" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A154" s="11" t="s">
         <v>68</v>
       </c>
@@ -11159,56 +11874,56 @@
         <v>5.88</v>
       </c>
       <c r="C154" s="31">
-        <f t="shared" ref="C154:N154" si="8">MAX(C24:C149)</f>
+        <f t="shared" ref="C154:N154" si="14">MAX(C24:C149)</f>
         <v>100</v>
       </c>
       <c r="D154" s="31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>22.5</v>
       </c>
       <c r="E154" s="31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>10.71</v>
       </c>
       <c r="F154" s="31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>22</v>
       </c>
       <c r="G154" s="31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>4.63</v>
       </c>
       <c r="H154" s="31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>12.86</v>
       </c>
       <c r="I154" s="31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>44.5</v>
       </c>
       <c r="J154" s="31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>67.08</v>
       </c>
       <c r="K154" s="31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>3.14</v>
       </c>
       <c r="L154" s="31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
       <c r="M154" s="31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>60.82</v>
       </c>
       <c r="N154" s="31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>3.38</v>
       </c>
       <c r="O154" s="10"/>
     </row>
-    <row r="155" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A155" s="9" t="s">
         <v>69</v>
       </c>
@@ -11217,56 +11932,56 @@
         <v>1.6743924783122304</v>
       </c>
       <c r="C155" s="30">
-        <f t="shared" ref="C155:N155" si="9">_xlfn.STDEV.S(C24:C149)</f>
+        <f t="shared" ref="C155:N155" si="15">_xlfn.STDEV.S(C24:C149)</f>
         <v>8.403984599912345</v>
       </c>
       <c r="D155" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>5.4370625852159886</v>
       </c>
       <c r="E155" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>2.5467597003699698</v>
       </c>
       <c r="F155" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>5.9789503564655355</v>
       </c>
       <c r="G155" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1.2243045502431305</v>
       </c>
       <c r="H155" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>3.042608317123396</v>
       </c>
       <c r="I155" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>11.341977988239703</v>
       </c>
       <c r="J155" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>18.678845573416833</v>
       </c>
       <c r="K155" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.93866519209840837</v>
       </c>
       <c r="L155" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>7.9573117339806404E-2</v>
       </c>
       <c r="M155" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>15.708798863279913</v>
       </c>
       <c r="N155" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.87321025741272273</v>
       </c>
       <c r="O155" s="10"/>
     </row>
-    <row r="156" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A156" s="11" t="s">
         <v>70</v>
       </c>
@@ -11275,56 +11990,56 @@
         <v>2.8035901714285729</v>
       </c>
       <c r="C156" s="31">
-        <f t="shared" ref="C156:N156" si="10">_xlfn.VAR.S(C24:C149)</f>
+        <f t="shared" ref="C156:N156" si="16">_xlfn.VAR.S(C24:C149)</f>
         <v>70.626957155563872</v>
       </c>
       <c r="D156" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>29.561649555555572</v>
       </c>
       <c r="E156" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>6.4859849714285378</v>
       </c>
       <c r="F156" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>35.747847365079359</v>
       </c>
       <c r="G156" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>1.4989216317460341</v>
       </c>
       <c r="H156" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>9.2574653714284647</v>
       </c>
       <c r="I156" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>128.64046468571394</v>
       </c>
       <c r="J156" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>348.89927195555367</v>
       </c>
       <c r="K156" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0.881092342857142</v>
       </c>
       <c r="L156" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>6.3318810031745979E-3</v>
       </c>
       <c r="M156" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>246.76636172698431</v>
       </c>
       <c r="N156" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0.7624961536507936</v>
       </c>
       <c r="O156" s="10"/>
     </row>
-    <row r="160" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A160" s="23" t="s">
         <v>88</v>
       </c>
@@ -11343,7 +12058,7 @@
       <c r="N160" s="24"/>
       <c r="O160" s="24"/>
     </row>
-    <row r="162" spans="1:32" ht="28.8" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:34" ht="28.8" x14ac:dyDescent="0.35">
       <c r="B162" s="13" t="s">
         <v>87</v>
       </c>
@@ -11387,7 +12102,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="163" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <f>COUNTIF($A$24:$A$149, "*Buggy")</f>
         <v>42</v>
@@ -11396,59 +12111,59 @@
         <v>72</v>
       </c>
       <c r="C163" s="14">
-        <f t="shared" ref="C163:O163" si="11" xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Buggy",B$24:B$149)</f>
+        <f t="shared" ref="C163:O163" si="17" xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Buggy",B$24:B$149)</f>
         <v>2.2026190476190473</v>
       </c>
       <c r="D163" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>78.397142857142882</v>
       </c>
       <c r="E163" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>11.101190476190476</v>
       </c>
       <c r="F163" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>7.1707142857142898</v>
       </c>
       <c r="G163" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>8.627380952380955</v>
       </c>
       <c r="H163" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>2.5138095238095235</v>
       </c>
       <c r="I163" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>9.6845238095238155</v>
       </c>
       <c r="J163" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>19.731190476190481</v>
       </c>
       <c r="K163" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>43.330952380952354</v>
       </c>
       <c r="L163" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.86357142857142843</v>
       </c>
       <c r="M163" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>4.761904761904763E-2</v>
       </c>
       <c r="N163" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>14.291904761904764</v>
       </c>
       <c r="O163" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.79480952380952397</v>
       </c>
     </row>
-    <row r="164" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <f>COUNTIF($A$24:$A$149, "*Manual")</f>
         <v>42</v>
@@ -11457,59 +12172,59 @@
         <v>149</v>
       </c>
       <c r="C164" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Manual",B$24:B$149)</f>
+        <f t="shared" ref="C164:O164" si="18" xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Manual",B$24:B$149)</f>
         <v>2.2321428571428572</v>
       </c>
       <c r="D164" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Manual",C$24:C$149)</f>
+        <f t="shared" si="18"/>
         <v>78.414047619047636</v>
       </c>
       <c r="E164" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Manual",D$24:D$149)</f>
+        <f t="shared" si="18"/>
         <v>11.115</v>
       </c>
       <c r="F164" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Manual",E$24:E$149)</f>
+        <f t="shared" si="18"/>
         <v>7.1685714285714326</v>
       </c>
       <c r="G164" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Manual",F$24:F$149)</f>
+        <f t="shared" si="18"/>
         <v>8.6342857142857099</v>
       </c>
       <c r="H164" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Manual",G$24:G$149)</f>
+        <f t="shared" si="18"/>
         <v>2.5192857142857141</v>
       </c>
       <c r="I164" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Manual",H$24:H$149)</f>
+        <f t="shared" si="18"/>
         <v>9.6876190476190533</v>
       </c>
       <c r="J164" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Manual",I$24:I$149)</f>
+        <f t="shared" si="18"/>
         <v>19.749047619047627</v>
       </c>
       <c r="K164" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Manual",J$24:J$149)</f>
+        <f t="shared" si="18"/>
         <v>43.343333333333327</v>
       </c>
       <c r="L164" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Manual",K$24:K$149)</f>
+        <f t="shared" si="18"/>
         <v>0.86309523809523814</v>
       </c>
       <c r="M164" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Manual",L$24:L$149)</f>
+        <f t="shared" si="18"/>
         <v>4.761904761904763E-2</v>
       </c>
       <c r="N164" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Manual",M$24:M$149)</f>
+        <f t="shared" si="18"/>
         <v>14.280000000000003</v>
       </c>
       <c r="O164" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Manual",N$24:N$149)</f>
+        <f t="shared" si="18"/>
         <v>0.79385714285714304</v>
       </c>
     </row>
-    <row r="165" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <f>COUNTIF($A$24:$A$149, "*Auto")</f>
         <v>42</v>
@@ -11518,59 +12233,59 @@
         <v>212</v>
       </c>
       <c r="C165" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Auto",B$24:B$149)</f>
+        <f t="shared" ref="C165:O165" si="19" xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Auto",B$24:B$149)</f>
         <v>2.1466666666666669</v>
       </c>
       <c r="D165" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Auto",C$24:C$149)</f>
+        <f t="shared" si="19"/>
         <v>79.052142857142854</v>
       </c>
       <c r="E165" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Auto",D$24:D$149)</f>
+        <f t="shared" si="19"/>
         <v>10.615476190476189</v>
       </c>
       <c r="F165" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Auto",E$24:E$149)</f>
+        <f t="shared" si="19"/>
         <v>7.274285714285714</v>
       </c>
       <c r="G165" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Auto",F$24:F$149)</f>
+        <f t="shared" si="19"/>
         <v>7.9573809523809516</v>
       </c>
       <c r="H165" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Auto",G$24:G$149)</f>
+        <f t="shared" si="19"/>
         <v>2.4342857142857151</v>
       </c>
       <c r="I165" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Auto",H$24:H$149)</f>
+        <f t="shared" si="19"/>
         <v>9.7092857142857127</v>
       </c>
       <c r="J165" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Auto",I$24:I$149)</f>
+        <f t="shared" si="19"/>
         <v>18.572619047619046</v>
       </c>
       <c r="K165" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Auto",J$24:J$149)</f>
+        <f t="shared" si="19"/>
         <v>42.644047619047626</v>
       </c>
       <c r="L165" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Auto",K$24:K$149)</f>
+        <f t="shared" si="19"/>
         <v>0.87904761904761897</v>
       </c>
       <c r="M165" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Auto",L$24:L$149)</f>
+        <f t="shared" si="19"/>
         <v>6.6585714285714276E-2</v>
       </c>
       <c r="N165" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Auto",M$24:M$149)</f>
+        <f t="shared" si="19"/>
         <v>16.302857142857142</v>
       </c>
       <c r="O165" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$149, "*Auto",N$24:N$149)</f>
+        <f t="shared" si="19"/>
         <v>0.90623809523809518</v>
       </c>
     </row>
-    <row r="168" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:34" ht="15" x14ac:dyDescent="0.35">
       <c r="A168" s="23" t="s">
         <v>106</v>
       </c>
@@ -11588,14 +12303,14 @@
       <c r="M168" s="24"/>
       <c r="N168" s="24"/>
       <c r="O168" s="24"/>
-      <c r="R168" s="36" t="s">
+      <c r="R168" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="S168" s="36"/>
-      <c r="T168" s="36"/>
+      <c r="S168" s="38"/>
+      <c r="T168" s="38"/>
       <c r="U168" s="36"/>
-      <c r="V168" s="24"/>
-      <c r="W168" s="24"/>
+      <c r="V168" s="36"/>
+      <c r="W168" s="36"/>
       <c r="X168" s="24"/>
       <c r="Y168" s="24"/>
       <c r="Z168" s="24"/>
@@ -11605,8 +12320,10 @@
       <c r="AD168" s="24"/>
       <c r="AE168" s="24"/>
       <c r="AF168" s="24"/>
-    </row>
-    <row r="170" spans="1:32" ht="33.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AG168"/>
+      <c r="AH168"/>
+    </row>
+    <row r="170" spans="1:34" ht="33.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B170" s="13" t="s">
         <v>87</v>
       </c>
@@ -11692,7 +12409,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="171" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <f>COUNTIFS($P$66:$P$107, "=1", $P$108:$P$149, "=1")</f>
         <v>10</v>
@@ -11705,114 +12422,114 @@
         <v>4.2279999999999998</v>
       </c>
       <c r="D171" s="25">
-        <f t="shared" ref="D171:O171" si="12">AVERAGEIFS(C$66:C$107, $P$66:$P$107, "=1", $P$108:$P$149, "=1")</f>
+        <f t="shared" ref="D171:O171" si="20">AVERAGEIFS(C$66:C$107, $P$66:$P$107, "=1", $P$108:$P$149, "=1")</f>
         <v>75.155999999999992</v>
       </c>
       <c r="E171" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>15.967000000000002</v>
       </c>
       <c r="F171" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>6.4590000000000005</v>
       </c>
       <c r="G171" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>14.870999999999999</v>
       </c>
       <c r="H171" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>3.2610000000000001</v>
       </c>
       <c r="I171" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>9.7200000000000006</v>
       </c>
       <c r="J171" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>30.838000000000001</v>
       </c>
       <c r="K171" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>49.914000000000001</v>
       </c>
       <c r="L171" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.23399999999999999</v>
       </c>
       <c r="M171" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>3.9E-2</v>
       </c>
       <c r="N171" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>3.2409999999999997</v>
       </c>
       <c r="O171" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.1802</v>
       </c>
       <c r="R171" s="1">
-        <f>COUNTIFS($U$108:$U$149, "YES")</f>
+        <f>COUNTIFS($W$108:$W$149, "YES")</f>
         <v>0</v>
       </c>
       <c r="S171" s="1" t="s">
         <v>151</v>
       </c>
       <c r="T171" s="25" t="e">
-        <f t="shared" ref="T171:AF171" si="13">AVERAGEIFS(B$66:B$107, $U$108:$U$149, "YES")</f>
+        <f t="shared" ref="T171:AF171" si="21">AVERAGEIFS(B$66:B$107, $W$108:$W$149, "YES")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U171" s="25" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V171" s="25" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W171" s="25" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X171" s="25" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y171" s="25" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z171" s="25" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA171" s="25" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB171" s="25" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC171" s="25" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD171" s="25" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE171" s="25" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF171" s="25" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="172" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <f>COUNTIFS($P$66:$P$107, "=1", $P$108:$P$149, "=1")</f>
         <v>10</v>
@@ -11825,117 +12542,117 @@
         <v>3.8</v>
       </c>
       <c r="D172" s="25">
-        <f t="shared" ref="D172:O172" si="14">AVERAGEIFS(C$108:C$149, $P$66:$P$107, "=1", $P$108:$P$149, "=1")</f>
+        <f t="shared" ref="D172:O172" si="22">AVERAGEIFS(C$108:C$149, $P$66:$P$107, "=1", $P$108:$P$149, "=1")</f>
         <v>75.637</v>
       </c>
       <c r="E172" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>14.617000000000001</v>
       </c>
       <c r="F172" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>6.3789999999999996</v>
       </c>
       <c r="G172" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>13.252000000000001</v>
       </c>
       <c r="H172" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>3.2410000000000005</v>
       </c>
       <c r="I172" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>9.6210000000000004</v>
       </c>
       <c r="J172" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>27.868000000000002</v>
       </c>
       <c r="K172" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>48.195999999999998</v>
       </c>
       <c r="L172" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0.23399999999999999</v>
       </c>
       <c r="M172" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>3.9E-2</v>
       </c>
       <c r="N172" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>3.2409999999999997</v>
       </c>
       <c r="O172" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0.1802</v>
       </c>
       <c r="R172" s="1">
-        <f>COUNTIFS($U$108:$U$149, "YES")</f>
+        <f>COUNTIFS($W$108:$W$149, "YES")</f>
         <v>0</v>
       </c>
       <c r="S172" s="1" t="s">
         <v>214</v>
       </c>
       <c r="T172" s="25" t="e">
-        <f>AVERAGEIFS(B$108:B$149, $U$108:$U$149, "YES")</f>
+        <f t="shared" ref="T172:AF172" si="23">AVERAGEIFS(B$108:B$149, $W$108:$W$149, "YES")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U172" s="25" t="e">
-        <f t="shared" ref="U172:AF172" si="15">AVERAGEIFS(C$108:C$149, $U$108:$U$149, "YES")</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V172" s="25" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W172" s="25" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X172" s="25" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y172" s="25" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z172" s="25" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA172" s="25" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB172" s="25" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC172" s="25" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD172" s="25" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE172" s="25" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF172" s="25" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="173" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:34" x14ac:dyDescent="0.35">
       <c r="R173" s="35"/>
     </row>
-    <row r="174" spans="1:32" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:34" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B174" s="13" t="s">
         <v>87</v>
       </c>
@@ -12021,7 +12738,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="175" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <f>COUNTIFS($P$66:$P$107, "&gt;1", $P$108:$P$149, "&gt;1")</f>
         <v>4</v>
@@ -12034,114 +12751,114 @@
         <v>2.57</v>
       </c>
       <c r="D175" s="25">
-        <f t="shared" ref="D175:O175" si="16">AVERAGEIFS(C$66:C$107, $P$66:$P$107, "&gt;1", $P$108:$P$149, "&gt;1")</f>
+        <f t="shared" ref="D175:O175" si="24">AVERAGEIFS(C$66:C$107, $P$66:$P$107, "&gt;1", $P$108:$P$149, "&gt;1")</f>
         <v>80.36</v>
       </c>
       <c r="E175" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>9.7899999999999991</v>
       </c>
       <c r="F175" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>5.43</v>
       </c>
       <c r="G175" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>8.43</v>
       </c>
       <c r="H175" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>3.36</v>
       </c>
       <c r="I175" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>8.7899999999999991</v>
       </c>
       <c r="J175" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>18.21</v>
       </c>
       <c r="K175" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>36.97</v>
       </c>
       <c r="L175" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M175" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N175" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="O175" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R175" s="1">
-        <f>COUNTIFS($V$108:$V$149, "YES")</f>
+        <f>COUNTIFS($X$108:$X$149, "YES")</f>
         <v>2</v>
       </c>
       <c r="S175" s="1" t="s">
         <v>153</v>
       </c>
       <c r="T175" s="25">
-        <f t="shared" ref="T175:AF175" si="17">AVERAGEIFS(B$66:B$107, $V$108:$V$149, "YES")</f>
+        <f t="shared" ref="T175:AF175" si="25">AVERAGEIFS(B$66:B$107, $X$108:$X$149, "YES")</f>
         <v>1.5</v>
       </c>
       <c r="U175" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>91.33</v>
       </c>
       <c r="V175" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>3.5</v>
       </c>
       <c r="W175" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>2.17</v>
       </c>
       <c r="X175" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
       <c r="Y175" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="Z175" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>3.17</v>
       </c>
       <c r="AA175" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>5.5</v>
       </c>
       <c r="AB175" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>8.91</v>
       </c>
       <c r="AC175" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0.17</v>
       </c>
       <c r="AD175" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0.17</v>
       </c>
       <c r="AE175" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="AF175" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <f>COUNTIFS($P$66:$P$107, "&gt;1", $P$108:$P$149, "&gt;1")</f>
         <v>4</v>
@@ -12154,110 +12871,110 @@
         <v>2.52</v>
       </c>
       <c r="D176" s="25">
-        <f t="shared" ref="D176:O176" si="18">AVERAGEIFS(C$108:C$149, $P$66:$P$107, "&gt;1", $P$108:$P$149, "&gt;1")</f>
+        <f t="shared" ref="D176:O176" si="26">AVERAGEIFS(C$108:C$149, $P$66:$P$107, "&gt;1", $P$108:$P$149, "&gt;1")</f>
         <v>80.17</v>
       </c>
       <c r="E176" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>10.0175</v>
       </c>
       <c r="F176" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>5.52</v>
       </c>
       <c r="G176" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>8.27</v>
       </c>
       <c r="H176" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>3.1150000000000002</v>
       </c>
       <c r="I176" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>8.6374999999999993</v>
       </c>
       <c r="J176" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>18.287500000000001</v>
       </c>
       <c r="K176" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>36.277499999999996</v>
       </c>
       <c r="L176" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="M176" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="N176" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O176" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R176" s="1">
-        <f>COUNTIFS($V$108:$V$149, "YES")</f>
+        <f>COUNTIFS($X$108:$X$149, "YES")</f>
         <v>2</v>
       </c>
       <c r="S176" s="1" t="s">
         <v>216</v>
       </c>
       <c r="T176" s="25">
-        <f>AVERAGEIFS(B$108:B$149, $V$108:$V$149, "YES")</f>
+        <f t="shared" ref="T176:AF176" si="27">AVERAGEIFS(B$108:B$149, $X$108:$X$149, "YES")</f>
         <v>1.33</v>
       </c>
       <c r="U176" s="25">
-        <f t="shared" ref="U176:AF176" si="19">AVERAGEIFS(C$108:C$149, $V$108:$V$149, "YES")</f>
+        <f t="shared" si="27"/>
         <v>92.17</v>
       </c>
       <c r="V176" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>2.67</v>
       </c>
       <c r="W176" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>2.17</v>
       </c>
       <c r="X176" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>1.17</v>
       </c>
       <c r="Y176" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0.83</v>
       </c>
       <c r="Z176" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>3</v>
       </c>
       <c r="AA176" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>3.83</v>
       </c>
       <c r="AB176" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>6.93</v>
       </c>
       <c r="AC176" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0.17</v>
       </c>
       <c r="AD176" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0.17</v>
       </c>
       <c r="AE176" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="AF176" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
@@ -12378,241 +13095,241 @@
     </row>
     <row r="179" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
-        <f>COUNTIFS($S$66:$S$107, "=1", $S$108:$S$149, "=1")</f>
+        <f>COUNTIFS($U$66:$U$107, "=1", $U$108:$U$149, "=1")</f>
         <v>0</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>154</v>
       </c>
       <c r="C179" s="25" t="e">
-        <f>AVERAGEIFS(B$66:B$107, $S$66:$S$107, "=1", $S$108:$S$149, "=1")</f>
+        <f t="shared" ref="C179:O179" si="28">AVERAGEIFS(B$66:B$107, $U$66:$U$107, "=1", $U$108:$U$149, "=1")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D179" s="25" t="e">
-        <f t="shared" ref="D179:O179" si="20">AVERAGEIFS(C$66:C$107, $S$66:$S$107, "=1", $S$108:$S$149, "=1")</f>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E179" s="25" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F179" s="25" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G179" s="25" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H179" s="25" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I179" s="25" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J179" s="25" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K179" s="25" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L179" s="25" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M179" s="25" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N179" s="25" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O179" s="25" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R179" s="1">
-        <f>COUNTIFS($W$108:$W$149, "YES")</f>
+        <f>COUNTIFS($Y$108:$Y$149, "YES")</f>
         <v>0</v>
       </c>
       <c r="S179" s="1" t="s">
         <v>155</v>
       </c>
       <c r="T179" s="25" t="e">
-        <f t="shared" ref="T179:AF179" si="21">AVERAGEIFS(B$66:B$107, $W$108:$W$149, "YES")</f>
+        <f t="shared" ref="T179:AF179" si="29">AVERAGEIFS(B$66:B$107, $Y$108:$Y$149, "YES")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U179" s="25" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V179" s="25" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W179" s="25" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X179" s="25" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y179" s="25" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z179" s="25" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA179" s="25" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB179" s="25" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC179" s="25" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD179" s="25" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE179" s="25" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF179" s="25" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="180" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
-        <f>COUNTIFS($S$66:$S$107, "=1", $S$108:$S$149, "=1")</f>
+        <f>COUNTIFS($U$66:$U$107, "=1", $U$108:$U$149, "=1")</f>
         <v>0</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>217</v>
       </c>
       <c r="C180" s="25" t="e">
-        <f>AVERAGEIFS(B$108:B$149, $S$66:$S$107, "=1", $S$108:$S$149, "=1")</f>
+        <f t="shared" ref="C180:O180" si="30">AVERAGEIFS(B$108:B$149, $U$66:$U$107, "=1", $U$108:$U$149, "=1")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D180" s="25" t="e">
-        <f t="shared" ref="D180:O180" si="22">AVERAGEIFS(C$108:C$149, $S$66:$S$107, "=1", $S$108:$S$149, "=1")</f>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E180" s="25" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F180" s="25" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G180" s="25" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H180" s="25" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I180" s="25" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J180" s="25" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K180" s="25" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L180" s="25" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M180" s="25" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N180" s="25" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O180" s="25" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R180" s="1">
-        <f>COUNTIFS($W$108:$W$149, "YES")</f>
+        <f>COUNTIFS($Y$108:$Y$149, "YES")</f>
         <v>0</v>
       </c>
       <c r="S180" s="1" t="s">
         <v>218</v>
       </c>
       <c r="T180" s="25" t="e">
-        <f>AVERAGEIFS(B$108:B$149, $W$108:$W$149, "YES")</f>
+        <f t="shared" ref="T180:AF180" si="31">AVERAGEIFS(B$108:B$149, $Y$108:$Y$149, "YES")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U180" s="25" t="e">
-        <f t="shared" ref="U180:AF180" si="23">AVERAGEIFS(C$108:C$149, $W$108:$W$149, "YES")</f>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V180" s="25" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W180" s="25" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X180" s="25" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y180" s="25" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z180" s="25" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA180" s="25" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB180" s="25" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC180" s="25" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD180" s="25" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE180" s="25" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF180" s="25" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12733,241 +13450,241 @@
     </row>
     <row r="183" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
-        <f>COUNTIFS($S$66:$S$107, "&gt;1", $S$108:$S$149, "&gt;1")</f>
+        <f>COUNTIFS($U$66:$U$107, "&gt;1", $U$108:$U$149, "&gt;1")</f>
         <v>6</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C183" s="25">
-        <f>AVERAGEIFS(B$66:B$107, $S$66:$S$107, "&gt;1", $S$108:$S$149, "&gt;1")</f>
+        <f t="shared" ref="C183:O183" si="32">AVERAGEIFS(B$66:B$107, $U$66:$U$107, "&gt;1", $U$108:$U$149, "&gt;1")</f>
         <v>2.2133333333333334</v>
       </c>
       <c r="D183" s="25">
-        <f t="shared" ref="D183:O183" si="24">AVERAGEIFS(C$66:C$107, $S$66:$S$107, "&gt;1", $S$108:$S$149, "&gt;1")</f>
+        <f t="shared" si="32"/>
         <v>84.016666666666666</v>
       </c>
       <c r="E183" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>7.6933333333333325</v>
       </c>
       <c r="F183" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>4.3433333333333328</v>
       </c>
       <c r="G183" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>6.2866666666666662</v>
       </c>
       <c r="H183" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>2.5733333333333328</v>
       </c>
       <c r="I183" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>6.9166666666666652</v>
       </c>
       <c r="J183" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>13.973333333333334</v>
       </c>
       <c r="K183" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>27.616666666666664</v>
       </c>
       <c r="L183" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>5.6666666666666671E-2</v>
       </c>
       <c r="M183" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>5.6666666666666671E-2</v>
       </c>
       <c r="N183" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="O183" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>1.8666666666666668E-2</v>
       </c>
       <c r="R183" s="1">
-        <f>COUNTIFS($X$108:$X$149, "YES")</f>
+        <f>COUNTIFS($Z$108:$Z$149, "YES")</f>
         <v>3</v>
       </c>
       <c r="S183" s="1" t="s">
         <v>157</v>
       </c>
       <c r="T183" s="25">
-        <f t="shared" ref="T183:AF183" si="25">AVERAGEIFS(B$66:B$107, $X$108:$X$149, "YES")</f>
+        <f t="shared" ref="T183:AF183" si="33">AVERAGEIFS(B$66:B$107, $Z$108:$Z$149, "YES")</f>
         <v>2.57</v>
       </c>
       <c r="U183" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>80.36</v>
       </c>
       <c r="V183" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>9.7899999999999991</v>
       </c>
       <c r="W183" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>5.43</v>
       </c>
       <c r="X183" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>8.43</v>
       </c>
       <c r="Y183" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>3.36</v>
       </c>
       <c r="Z183" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>8.7899999999999991</v>
       </c>
       <c r="AA183" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>18.21</v>
       </c>
       <c r="AB183" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>36.97</v>
       </c>
       <c r="AC183" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AD183" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AE183" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AF183" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
-        <f>COUNTIFS($S$66:$S$107, "&gt;1", $S$108:$S$149, "&gt;1")</f>
+        <f>COUNTIFS($U$66:$U$107, "&gt;1", $U$108:$U$149, "&gt;1")</f>
         <v>6</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>219</v>
       </c>
       <c r="C184" s="25">
-        <f>AVERAGEIFS(B$108:B$149, $S$66:$S$107, "&gt;1", $S$108:$S$149, "&gt;1")</f>
+        <f t="shared" ref="C184:O184" si="34">AVERAGEIFS(B$108:B$149, $U$66:$U$107, "&gt;1", $U$108:$U$149, "&gt;1")</f>
         <v>2.1233333333333335</v>
       </c>
       <c r="D184" s="25">
-        <f t="shared" ref="D184:O184" si="26">AVERAGEIFS(C$108:C$149, $S$66:$S$107, "&gt;1", $S$108:$S$149, "&gt;1")</f>
+        <f t="shared" si="34"/>
         <v>84.17</v>
       </c>
       <c r="E184" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>7.5683333333333342</v>
       </c>
       <c r="F184" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>4.4033333333333333</v>
       </c>
       <c r="G184" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>5.9033333333333333</v>
       </c>
       <c r="H184" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>2.3533333333333331</v>
       </c>
       <c r="I184" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>6.7583333333333329</v>
       </c>
       <c r="J184" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>13.468333333333334</v>
       </c>
       <c r="K184" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>26.495000000000001</v>
       </c>
       <c r="L184" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>5.6666666666666671E-2</v>
       </c>
       <c r="M184" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>5.6666666666666671E-2</v>
       </c>
       <c r="N184" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="O184" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>1.8666666666666668E-2</v>
       </c>
       <c r="R184" s="1">
-        <f>COUNTIFS($X$108:$X$149, "YES")</f>
+        <f>COUNTIFS($Z$108:$Z$149, "YES")</f>
         <v>3</v>
       </c>
       <c r="S184" s="1" t="s">
         <v>220</v>
       </c>
       <c r="T184" s="25">
-        <f>AVERAGEIFS(B$108:B$149, $X$108:$X$149, "YES")</f>
+        <f t="shared" ref="T184:AF184" si="35">AVERAGEIFS(B$108:B$149, $Z$108:$Z$149, "YES")</f>
         <v>2.5133333333333332</v>
       </c>
       <c r="U184" s="25">
-        <f t="shared" ref="U184:AF184" si="27">AVERAGEIFS(C$108:C$149, $X$108:$X$149, "YES")</f>
+        <f t="shared" si="35"/>
         <v>80.100000000000009</v>
       </c>
       <c r="V184" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>9.9966666666666679</v>
       </c>
       <c r="W184" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>5.54</v>
       </c>
       <c r="X184" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>8.2333333333333325</v>
       </c>
       <c r="Y184" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>3.1033333333333335</v>
       </c>
       <c r="Z184" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>8.6433333333333326</v>
       </c>
       <c r="AA184" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>18.23</v>
       </c>
       <c r="AB184" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>36.206666666666671</v>
       </c>
       <c r="AC184" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AD184" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AE184" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AF184" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
@@ -13018,123 +13735,123 @@
     </row>
     <row r="187" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
-        <f>COUNTIFS($Y$108:$Y$149, "YES")</f>
+        <f>COUNTIFS($AA$108:$AA$149, "YES")</f>
         <v>1</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>158</v>
       </c>
       <c r="C187" s="25">
-        <f t="shared" ref="C187:O187" si="28">AVERAGEIFS(B$66:B$107, $Y$108:$Y$149, "YES")</f>
+        <f t="shared" ref="C187:O187" si="36">AVERAGEIFS(B$66:B$107, $AA$108:$AA$149, "YES")</f>
         <v>2.57</v>
       </c>
       <c r="D187" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>80.36</v>
       </c>
       <c r="E187" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>9.7899999999999991</v>
       </c>
       <c r="F187" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>5.43</v>
       </c>
       <c r="G187" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>8.43</v>
       </c>
       <c r="H187" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>3.36</v>
       </c>
       <c r="I187" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>8.7899999999999991</v>
       </c>
       <c r="J187" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>18.21</v>
       </c>
       <c r="K187" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>36.97</v>
       </c>
       <c r="L187" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="M187" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="N187" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O187" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
-        <f>COUNTIFS($Y$108:$Y$149, "YES")</f>
+        <f>COUNTIFS($AA$108:$AA$149, "YES")</f>
         <v>1</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>221</v>
       </c>
       <c r="C188" s="25">
-        <f t="shared" ref="C188:O188" si="29">AVERAGEIFS(B$108:B$149, $Y$108:$Y$149, "YES")</f>
+        <f t="shared" ref="C188:O188" si="37">AVERAGEIFS(B$108:B$149, $AA$108:$AA$149, "YES")</f>
         <v>2.46</v>
       </c>
       <c r="D188" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>80.23</v>
       </c>
       <c r="E188" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>9.92</v>
       </c>
       <c r="F188" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>5.54</v>
       </c>
       <c r="G188" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>8.08</v>
       </c>
       <c r="H188" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>3</v>
       </c>
       <c r="I188" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>8.5399999999999991</v>
       </c>
       <c r="J188" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>18</v>
       </c>
       <c r="K188" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>35.54</v>
       </c>
       <c r="L188" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="M188" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N188" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="O188" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
     </row>
@@ -13231,55 +13948,55 @@
         <v>93</v>
       </c>
       <c r="C194" s="25">
-        <f t="shared" ref="C194:O194" si="30">AVERAGEIF($A$24:$A$149, "*albfernandez-GDS-PMD-Security*_Buggy", B$24:B$149)</f>
+        <f t="shared" ref="C194:O194" si="38">AVERAGEIF($A$24:$A$149, "*albfernandez-GDS-PMD-Security*_Buggy", B$24:B$149)</f>
         <v>3.218</v>
       </c>
       <c r="D194" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>76.114000000000004</v>
       </c>
       <c r="E194" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>11.389999999999999</v>
       </c>
       <c r="F194" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>6.8020000000000014</v>
       </c>
       <c r="G194" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>9.8800000000000008</v>
       </c>
       <c r="H194" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>3.7</v>
       </c>
       <c r="I194" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>10.5</v>
       </c>
       <c r="J194" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>21.276</v>
       </c>
       <c r="K194" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>46.86</v>
       </c>
       <c r="L194" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0.74199999999999999</v>
       </c>
       <c r="M194" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0.15</v>
       </c>
       <c r="N194" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>21.845999999999997</v>
       </c>
       <c r="O194" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>1.218</v>
       </c>
     </row>
@@ -13292,55 +14009,55 @@
         <v>159</v>
       </c>
       <c r="C195" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*albfernandez-GDS-PMD-Security*_Manual", B$24:B$149)</f>
+        <f t="shared" ref="C195:O195" si="39">AVERAGEIF($A$24:$A$149, "*albfernandez-GDS-PMD-Security*_Manual", B$24:B$149)</f>
         <v>3.226</v>
       </c>
       <c r="D195" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*albfernandez-GDS-PMD-Security*_Manual", C$24:C$149)</f>
+        <f t="shared" si="39"/>
         <v>76.013999999999996</v>
       </c>
       <c r="E195" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*albfernandez-GDS-PMD-Security*_Manual", D$24:D$149)</f>
+        <f t="shared" si="39"/>
         <v>11.458</v>
       </c>
       <c r="F195" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*albfernandez-GDS-PMD-Security*_Manual", E$24:E$149)</f>
+        <f t="shared" si="39"/>
         <v>6.8259999999999987</v>
       </c>
       <c r="G195" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*albfernandez-GDS-PMD-Security*_Manual", F$24:F$149)</f>
+        <f t="shared" si="39"/>
         <v>9.8879999999999999</v>
       </c>
       <c r="H195" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*albfernandez-GDS-PMD-Security*_Manual", G$24:G$149)</f>
+        <f t="shared" si="39"/>
         <v>3.6960000000000002</v>
       </c>
       <c r="I195" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*albfernandez-GDS-PMD-Security*_Manual", H$24:H$149)</f>
+        <f t="shared" si="39"/>
         <v>10.52</v>
       </c>
       <c r="J195" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*albfernandez-GDS-PMD-Security*_Manual", I$24:I$149)</f>
+        <f t="shared" si="39"/>
         <v>21.351999999999997</v>
       </c>
       <c r="K195" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*albfernandez-GDS-PMD-Security*_Manual", J$24:J$149)</f>
+        <f t="shared" si="39"/>
         <v>47.007999999999996</v>
       </c>
       <c r="L195" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*albfernandez-GDS-PMD-Security*_Manual", K$24:K$149)</f>
+        <f t="shared" si="39"/>
         <v>0.73799999999999999</v>
       </c>
       <c r="M195" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*albfernandez-GDS-PMD-Security*_Manual", L$24:L$149)</f>
+        <f t="shared" si="39"/>
         <v>0.15</v>
       </c>
       <c r="N195" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*albfernandez-GDS-PMD-Security*_Manual", M$24:M$149)</f>
+        <f t="shared" si="39"/>
         <v>21.745999999999999</v>
       </c>
       <c r="O195" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*albfernandez-GDS-PMD-Security*_Manual", N$24:N$149)</f>
+        <f t="shared" si="39"/>
         <v>1.2100000000000002</v>
       </c>
     </row>
@@ -13353,55 +14070,55 @@
         <v>222</v>
       </c>
       <c r="C196" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*albfernandez-GDS-PMD-Security*_Auto", B$24:B$149)</f>
+        <f t="shared" ref="C196:O196" si="40">AVERAGEIF($A$24:$A$149, "*albfernandez-GDS-PMD-Security*_Auto", B$24:B$149)</f>
         <v>3.1859999999999999</v>
       </c>
       <c r="D196" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*albfernandez-GDS-PMD-Security*_Auto", C$24:C$149)</f>
+        <f t="shared" si="40"/>
         <v>76.397999999999996</v>
       </c>
       <c r="E196" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*albfernandez-GDS-PMD-Security*_Auto", D$24:D$149)</f>
+        <f t="shared" si="40"/>
         <v>11.363999999999999</v>
       </c>
       <c r="F196" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*albfernandez-GDS-PMD-Security*_Auto", E$24:E$149)</f>
+        <f t="shared" si="40"/>
         <v>6.7860000000000014</v>
       </c>
       <c r="G196" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*albfernandez-GDS-PMD-Security*_Auto", F$24:F$149)</f>
+        <f t="shared" si="40"/>
         <v>9.7039999999999988</v>
       </c>
       <c r="H196" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*albfernandez-GDS-PMD-Security*_Auto", G$24:G$149)</f>
+        <f t="shared" si="40"/>
         <v>3.6519999999999997</v>
       </c>
       <c r="I196" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*albfernandez-GDS-PMD-Security*_Auto", H$24:H$149)</f>
+        <f t="shared" si="40"/>
         <v>10.436</v>
       </c>
       <c r="J196" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*albfernandez-GDS-PMD-Security*_Auto", I$24:I$149)</f>
+        <f t="shared" si="40"/>
         <v>21.068000000000001</v>
       </c>
       <c r="K196" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*albfernandez-GDS-PMD-Security*_Auto", J$24:J$149)</f>
+        <f t="shared" si="40"/>
         <v>46.462000000000003</v>
       </c>
       <c r="L196" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*albfernandez-GDS-PMD-Security*_Auto", K$24:K$149)</f>
+        <f t="shared" si="40"/>
         <v>0.61199999999999999</v>
       </c>
       <c r="M196" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*albfernandez-GDS-PMD-Security*_Auto", L$24:L$149)</f>
+        <f t="shared" si="40"/>
         <v>0.15212000000000001</v>
       </c>
       <c r="N196" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*albfernandez-GDS-PMD-Security*_Auto", M$24:M$149)</f>
+        <f t="shared" si="40"/>
         <v>18.821999999999996</v>
       </c>
       <c r="O196" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*albfernandez-GDS-PMD-Security*_Auto", N$24:N$149)</f>
+        <f t="shared" si="40"/>
         <v>1.046</v>
       </c>
     </row>
@@ -13458,55 +14175,55 @@
         <v>94</v>
       </c>
       <c r="C199" s="25">
-        <f t="shared" ref="C199:O199" si="31">AVERAGEIF($A$24:$A$149, "*dungba88-libra*_Buggy", B$24:B$149)</f>
+        <f t="shared" ref="C199:O199" si="41">AVERAGEIF($A$24:$A$149, "*dungba88-libra*_Buggy", B$24:B$149)</f>
         <v>1.7766666666666666</v>
       </c>
       <c r="D199" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>89.11</v>
       </c>
       <c r="E199" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>4.1100000000000003</v>
       </c>
       <c r="F199" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>2.89</v>
       </c>
       <c r="G199" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>2.7766666666666668</v>
       </c>
       <c r="H199" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>1.4433333333333334</v>
       </c>
       <c r="I199" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>4.3366666666666669</v>
       </c>
       <c r="J199" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>6.8900000000000006</v>
       </c>
       <c r="K199" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>13.39</v>
       </c>
       <c r="L199" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>0.11333333333333334</v>
       </c>
       <c r="M199" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>0.11333333333333334</v>
       </c>
       <c r="N199" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="O199" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>3.7333333333333336E-2</v>
       </c>
     </row>
@@ -13519,55 +14236,55 @@
         <v>160</v>
       </c>
       <c r="C200" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*dungba88-libra*_Manual", B$24:B$149)</f>
+        <f t="shared" ref="C200:O200" si="42">AVERAGEIF($A$24:$A$149, "*dungba88-libra*_Manual", B$24:B$149)</f>
         <v>2</v>
       </c>
       <c r="D200" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*dungba88-libra*_Manual", C$24:C$149)</f>
+        <f t="shared" si="42"/>
         <v>88.663333333333341</v>
       </c>
       <c r="E200" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*dungba88-libra*_Manual", D$24:D$149)</f>
+        <f t="shared" si="42"/>
         <v>4.5566666666666666</v>
       </c>
       <c r="F200" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*dungba88-libra*_Manual", E$24:E$149)</f>
+        <f t="shared" si="42"/>
         <v>3.0033333333333334</v>
       </c>
       <c r="G200" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*dungba88-libra*_Manual", F$24:F$149)</f>
+        <f t="shared" si="42"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="H200" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*dungba88-libra*_Manual", G$24:G$149)</f>
+        <f t="shared" si="42"/>
         <v>1.4433333333333334</v>
       </c>
       <c r="I200" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*dungba88-libra*_Manual", H$24:H$149)</f>
+        <f t="shared" si="42"/>
         <v>4.4466666666666663</v>
       </c>
       <c r="J200" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*dungba88-libra*_Manual", I$24:I$149)</f>
+        <f t="shared" si="42"/>
         <v>7.8900000000000006</v>
       </c>
       <c r="K200" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*dungba88-libra*_Manual", J$24:J$149)</f>
+        <f t="shared" si="42"/>
         <v>14.62</v>
       </c>
       <c r="L200" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*dungba88-libra*_Manual", K$24:K$149)</f>
+        <f t="shared" si="42"/>
         <v>0.11333333333333334</v>
       </c>
       <c r="M200" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*dungba88-libra*_Manual", L$24:L$149)</f>
+        <f t="shared" si="42"/>
         <v>0.11333333333333334</v>
       </c>
       <c r="N200" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*dungba88-libra*_Manual", M$24:M$149)</f>
+        <f t="shared" si="42"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="O200" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*dungba88-libra*_Manual", N$24:N$149)</f>
+        <f t="shared" si="42"/>
         <v>3.7333333333333336E-2</v>
       </c>
     </row>
@@ -13580,55 +14297,55 @@
         <v>223</v>
       </c>
       <c r="C201" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*dungba88-libra*_Auto", B$24:B$149)</f>
+        <f t="shared" ref="C201:O201" si="43">AVERAGEIF($A$24:$A$149, "*dungba88-libra*_Auto", B$24:B$149)</f>
         <v>1.6633333333333333</v>
       </c>
       <c r="D201" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*dungba88-libra*_Auto", C$24:C$149)</f>
+        <f t="shared" si="43"/>
         <v>89.67</v>
       </c>
       <c r="E201" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*dungba88-libra*_Auto", D$24:D$149)</f>
+        <f t="shared" si="43"/>
         <v>3.5566666666666666</v>
       </c>
       <c r="F201" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*dungba88-libra*_Auto", E$24:E$149)</f>
+        <f t="shared" si="43"/>
         <v>2.89</v>
       </c>
       <c r="G201" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*dungba88-libra*_Auto", F$24:F$149)</f>
+        <f t="shared" si="43"/>
         <v>2.2233333333333332</v>
       </c>
       <c r="H201" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*dungba88-libra*_Auto", G$24:G$149)</f>
+        <f t="shared" si="43"/>
         <v>1.33</v>
       </c>
       <c r="I201" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*dungba88-libra*_Auto", H$24:H$149)</f>
+        <f t="shared" si="43"/>
         <v>4.2233333333333336</v>
       </c>
       <c r="J201" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*dungba88-libra*_Auto", I$24:I$149)</f>
+        <f t="shared" si="43"/>
         <v>5.7766666666666664</v>
       </c>
       <c r="K201" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*dungba88-libra*_Auto", J$24:J$149)</f>
+        <f t="shared" si="43"/>
         <v>12.07</v>
       </c>
       <c r="L201" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*dungba88-libra*_Auto", K$24:K$149)</f>
+        <f t="shared" si="43"/>
         <v>0.11333333333333334</v>
       </c>
       <c r="M201" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*dungba88-libra*_Auto", L$24:L$149)</f>
+        <f t="shared" si="43"/>
         <v>0.11333333333333334</v>
       </c>
       <c r="N201" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*dungba88-libra*_Auto", M$24:M$149)</f>
+        <f t="shared" si="43"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="O201" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*dungba88-libra*_Auto", N$24:N$149)</f>
+        <f t="shared" si="43"/>
         <v>3.7333333333333336E-2</v>
       </c>
     </row>
@@ -13685,55 +14402,55 @@
         <v>95</v>
       </c>
       <c r="C204" s="25">
-        <f t="shared" ref="C204:O204" si="32">AVERAGEIF($A$24:$A$149, "*julianps-modelmapper-module*_Buggy", B$24:B$149)</f>
+        <f t="shared" ref="C204:O204" si="44">AVERAGEIF($A$24:$A$149, "*julianps-modelmapper-module*_Buggy", B$24:B$149)</f>
         <v>1</v>
       </c>
       <c r="D204" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>92</v>
       </c>
       <c r="E204" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>5</v>
       </c>
       <c r="F204" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>4</v>
       </c>
       <c r="G204" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>3</v>
       </c>
       <c r="H204" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="I204" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>5</v>
       </c>
       <c r="J204" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>8</v>
       </c>
       <c r="K204" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>15</v>
       </c>
       <c r="L204" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="M204" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="N204" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="O204" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
@@ -13746,55 +14463,55 @@
         <v>161</v>
       </c>
       <c r="C205" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*julianps-modelmapper-module*_Manual", B$24:B$149)</f>
+        <f t="shared" ref="C205:O205" si="45">AVERAGEIF($A$24:$A$149, "*julianps-modelmapper-module*_Manual", B$24:B$149)</f>
         <v>1</v>
       </c>
       <c r="D205" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*julianps-modelmapper-module*_Manual", C$24:C$149)</f>
+        <f t="shared" si="45"/>
         <v>92</v>
       </c>
       <c r="E205" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*julianps-modelmapper-module*_Manual", D$24:D$149)</f>
+        <f t="shared" si="45"/>
         <v>5</v>
       </c>
       <c r="F205" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*julianps-modelmapper-module*_Manual", E$24:E$149)</f>
+        <f t="shared" si="45"/>
         <v>4</v>
       </c>
       <c r="G205" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*julianps-modelmapper-module*_Manual", F$24:F$149)</f>
+        <f t="shared" si="45"/>
         <v>3</v>
       </c>
       <c r="H205" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*julianps-modelmapper-module*_Manual", G$24:G$149)</f>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="I205" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*julianps-modelmapper-module*_Manual", H$24:H$149)</f>
+        <f t="shared" si="45"/>
         <v>5</v>
       </c>
       <c r="J205" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*julianps-modelmapper-module*_Manual", I$24:I$149)</f>
+        <f t="shared" si="45"/>
         <v>8</v>
       </c>
       <c r="K205" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*julianps-modelmapper-module*_Manual", J$24:J$149)</f>
+        <f t="shared" si="45"/>
         <v>15</v>
       </c>
       <c r="L205" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*julianps-modelmapper-module*_Manual", K$24:K$149)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="M205" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*julianps-modelmapper-module*_Manual", L$24:L$149)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="N205" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*julianps-modelmapper-module*_Manual", M$24:M$149)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="O205" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*julianps-modelmapper-module*_Manual", N$24:N$149)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
@@ -13807,55 +14524,55 @@
         <v>224</v>
       </c>
       <c r="C206" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*julianps-modelmapper-module*_Auto", B$24:B$149)</f>
+        <f t="shared" ref="C206:O206" si="46">AVERAGEIF($A$24:$A$149, "*julianps-modelmapper-module*_Auto", B$24:B$149)</f>
         <v>1.1666666666666667</v>
       </c>
       <c r="D206" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*julianps-modelmapper-module*_Auto", C$24:C$149)</f>
+        <f t="shared" si="46"/>
         <v>96.666666666666671</v>
       </c>
       <c r="E206" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*julianps-modelmapper-module*_Auto", D$24:D$149)</f>
+        <f t="shared" si="46"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="F206" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*julianps-modelmapper-module*_Auto", E$24:E$149)</f>
+        <f t="shared" si="46"/>
         <v>4.166666666666667</v>
       </c>
       <c r="G206" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*julianps-modelmapper-module*_Auto", F$24:F$149)</f>
+        <f t="shared" si="46"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="H206" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*julianps-modelmapper-module*_Auto", G$24:G$149)</f>
+        <f t="shared" si="46"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="I206" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*julianps-modelmapper-module*_Auto", H$24:H$149)</f>
+        <f t="shared" si="46"/>
         <v>4.5</v>
       </c>
       <c r="J206" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*julianps-modelmapper-module*_Auto", I$24:I$149)</f>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="K206" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*julianps-modelmapper-module*_Auto", J$24:J$149)</f>
+        <f t="shared" si="46"/>
         <v>8.9816666666666674</v>
       </c>
       <c r="L206" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*julianps-modelmapper-module*_Auto", K$24:K$149)</f>
+        <f t="shared" si="46"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="M206" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*julianps-modelmapper-module*_Auto", L$24:L$149)</f>
+        <f t="shared" si="46"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="N206" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*julianps-modelmapper-module*_Auto", M$24:M$149)</f>
+        <f t="shared" si="46"/>
         <v>7.3966666666666674</v>
       </c>
       <c r="O206" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*julianps-modelmapper-module*_Auto", N$24:N$149)</f>
+        <f t="shared" si="46"/>
         <v>0.41166666666666668</v>
       </c>
     </row>
@@ -13912,55 +14629,55 @@
         <v>96</v>
       </c>
       <c r="C209" s="25">
-        <f t="shared" ref="C209:O209" si="33">AVERAGEIF($A$24:$A$149, "*opentracing-contrib-java-p6sp*_Buggy", B$24:B$149)</f>
+        <f t="shared" ref="C209:O209" si="47">AVERAGEIF($A$24:$A$149, "*opentracing-contrib-java-p6sp*_Buggy", B$24:B$149)</f>
         <v>2.62</v>
       </c>
       <c r="D209" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="47"/>
         <v>79.849999999999994</v>
       </c>
       <c r="E209" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="47"/>
         <v>10.31</v>
       </c>
       <c r="F209" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="47"/>
         <v>5.54</v>
       </c>
       <c r="G209" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="47"/>
         <v>8.69</v>
       </c>
       <c r="H209" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="47"/>
         <v>3.31</v>
       </c>
       <c r="I209" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="47"/>
         <v>8.85</v>
       </c>
       <c r="J209" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="47"/>
         <v>19</v>
       </c>
       <c r="K209" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="47"/>
         <v>37.72</v>
       </c>
       <c r="L209" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="M209" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="N209" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="O209" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
     </row>
@@ -13973,55 +14690,55 @@
         <v>162</v>
       </c>
       <c r="C210" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*opentracing-contrib-java-p6sp*_Manual", B$24:B$149)</f>
+        <f t="shared" ref="C210:O210" si="48">AVERAGEIF($A$24:$A$149, "*opentracing-contrib-java-p6sp*_Manual", B$24:B$149)</f>
         <v>2.57</v>
       </c>
       <c r="D210" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*opentracing-contrib-java-p6sp*_Manual", C$24:C$149)</f>
+        <f t="shared" si="48"/>
         <v>80.36</v>
       </c>
       <c r="E210" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*opentracing-contrib-java-p6sp*_Manual", D$24:D$149)</f>
+        <f t="shared" si="48"/>
         <v>9.7899999999999991</v>
       </c>
       <c r="F210" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*opentracing-contrib-java-p6sp*_Manual", E$24:E$149)</f>
+        <f t="shared" si="48"/>
         <v>5.43</v>
       </c>
       <c r="G210" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*opentracing-contrib-java-p6sp*_Manual", F$24:F$149)</f>
+        <f t="shared" si="48"/>
         <v>8.43</v>
       </c>
       <c r="H210" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*opentracing-contrib-java-p6sp*_Manual", G$24:G$149)</f>
+        <f t="shared" si="48"/>
         <v>3.3600000000000003</v>
       </c>
       <c r="I210" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*opentracing-contrib-java-p6sp*_Manual", H$24:H$149)</f>
+        <f t="shared" si="48"/>
         <v>8.7899999999999991</v>
       </c>
       <c r="J210" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*opentracing-contrib-java-p6sp*_Manual", I$24:I$149)</f>
+        <f t="shared" si="48"/>
         <v>18.21</v>
       </c>
       <c r="K210" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*opentracing-contrib-java-p6sp*_Manual", J$24:J$149)</f>
+        <f t="shared" si="48"/>
         <v>36.97</v>
       </c>
       <c r="L210" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*opentracing-contrib-java-p6sp*_Manual", K$24:K$149)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="M210" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*opentracing-contrib-java-p6sp*_Manual", L$24:L$149)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="N210" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*opentracing-contrib-java-p6sp*_Manual", M$24:M$149)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="O210" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*opentracing-contrib-java-p6sp*_Manual", N$24:N$149)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -14034,55 +14751,55 @@
         <v>225</v>
       </c>
       <c r="C211" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*opentracing-contrib-java-p6sp*_Auto", B$24:B$149)</f>
+        <f t="shared" ref="C211:O211" si="49">AVERAGEIF($A$24:$A$149, "*opentracing-contrib-java-p6sp*_Auto", B$24:B$149)</f>
         <v>2.54</v>
       </c>
       <c r="D211" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*opentracing-contrib-java-p6sp*_Auto", C$24:C$149)</f>
+        <f t="shared" si="49"/>
         <v>80.12</v>
       </c>
       <c r="E211" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*opentracing-contrib-java-p6sp*_Auto", D$24:D$149)</f>
+        <f t="shared" si="49"/>
         <v>10.044</v>
       </c>
       <c r="F211" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*opentracing-contrib-java-p6sp*_Auto", E$24:E$149)</f>
+        <f t="shared" si="49"/>
         <v>5.524</v>
       </c>
       <c r="G211" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*opentracing-contrib-java-p6sp*_Auto", F$24:F$149)</f>
+        <f t="shared" si="49"/>
         <v>8.3239999999999998</v>
       </c>
       <c r="H211" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*opentracing-contrib-java-p6sp*_Auto", G$24:G$149)</f>
+        <f t="shared" si="49"/>
         <v>3.1540000000000004</v>
       </c>
       <c r="I211" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*opentracing-contrib-java-p6sp*_Auto", H$24:H$149)</f>
+        <f t="shared" si="49"/>
         <v>8.68</v>
       </c>
       <c r="J211" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*opentracing-contrib-java-p6sp*_Auto", I$24:I$149)</f>
+        <f t="shared" si="49"/>
         <v>18.368000000000002</v>
       </c>
       <c r="K211" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*opentracing-contrib-java-p6sp*_Auto", J$24:J$149)</f>
+        <f t="shared" si="49"/>
         <v>36.53</v>
       </c>
       <c r="L211" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*opentracing-contrib-java-p6sp*_Auto", K$24:K$149)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="M211" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*opentracing-contrib-java-p6sp*_Auto", L$24:L$149)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="N211" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*opentracing-contrib-java-p6sp*_Auto", M$24:M$149)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="O211" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "*opentracing-contrib-java-p6sp*_Auto", N$24:N$149)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
@@ -14139,55 +14856,55 @@
         <v>97</v>
       </c>
       <c r="C214" s="25">
-        <f t="shared" ref="C214:O214" si="34">AVERAGEIF($A$24:$A$149, "*SzFMV2018-Tavasz-AutomatedCar*_Buggy", B$24:B$149)</f>
+        <f t="shared" ref="C214:O214" si="50">AVERAGEIF($A$24:$A$149, "*SzFMV2018-Tavasz-AutomatedCar*_Buggy", B$24:B$149)</f>
         <v>1</v>
       </c>
       <c r="D214" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>74.569999999999993</v>
       </c>
       <c r="E214" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>11</v>
       </c>
       <c r="F214" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>9.86</v>
       </c>
       <c r="G214" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>6.86</v>
       </c>
       <c r="H214" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>2</v>
       </c>
       <c r="I214" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>11.86</v>
       </c>
       <c r="J214" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>17.86</v>
       </c>
       <c r="K214" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>52.87</v>
       </c>
       <c r="L214" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>2</v>
       </c>
       <c r="M214" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>4.9999999999999996E-2</v>
       </c>
       <c r="N214" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>30.41</v>
       </c>
       <c r="O214" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>1.6899999999999997</v>
       </c>
     </row>
@@ -14200,55 +14917,55 @@
         <v>163</v>
       </c>
       <c r="C215" s="26">
-        <f>AVERAGEIF($A$24:$A$149, "*SzFMV2018-Tavasz-AutomatedCar*_Manual", B$24:B$149)</f>
+        <f t="shared" ref="C215:O215" si="51">AVERAGEIF($A$24:$A$149, "*SzFMV2018-Tavasz-AutomatedCar*_Manual", B$24:B$149)</f>
         <v>1</v>
       </c>
       <c r="D215" s="26">
-        <f>AVERAGEIF($A$24:$A$149, "*SzFMV2018-Tavasz-AutomatedCar*_Manual", C$24:C$149)</f>
+        <f t="shared" si="51"/>
         <v>74.569999999999993</v>
       </c>
       <c r="E215" s="26">
-        <f>AVERAGEIF($A$24:$A$149, "*SzFMV2018-Tavasz-AutomatedCar*_Manual", D$24:D$149)</f>
+        <f t="shared" si="51"/>
         <v>11</v>
       </c>
       <c r="F215" s="26">
-        <f>AVERAGEIF($A$24:$A$149, "*SzFMV2018-Tavasz-AutomatedCar*_Manual", E$24:E$149)</f>
+        <f t="shared" si="51"/>
         <v>9.86</v>
       </c>
       <c r="G215" s="26">
-        <f>AVERAGEIF($A$24:$A$149, "*SzFMV2018-Tavasz-AutomatedCar*_Manual", F$24:F$149)</f>
+        <f t="shared" si="51"/>
         <v>6.71</v>
       </c>
       <c r="H215" s="26">
-        <f>AVERAGEIF($A$24:$A$149, "*SzFMV2018-Tavasz-AutomatedCar*_Manual", G$24:G$149)</f>
+        <f t="shared" si="51"/>
         <v>2</v>
       </c>
       <c r="I215" s="26">
-        <f>AVERAGEIF($A$24:$A$149, "*SzFMV2018-Tavasz-AutomatedCar*_Manual", H$24:H$149)</f>
+        <f t="shared" si="51"/>
         <v>11.86</v>
       </c>
       <c r="J215" s="26">
-        <f>AVERAGEIF($A$24:$A$149, "*SzFMV2018-Tavasz-AutomatedCar*_Manual", I$24:I$149)</f>
+        <f t="shared" si="51"/>
         <v>17.710000000000004</v>
       </c>
       <c r="K215" s="26">
-        <f>AVERAGEIF($A$24:$A$149, "*SzFMV2018-Tavasz-AutomatedCar*_Manual", J$24:J$149)</f>
+        <f t="shared" si="51"/>
         <v>52.800000000000004</v>
       </c>
       <c r="L215" s="26">
-        <f>AVERAGEIF($A$24:$A$149, "*SzFMV2018-Tavasz-AutomatedCar*_Manual", K$24:K$149)</f>
+        <f t="shared" si="51"/>
         <v>2</v>
       </c>
       <c r="M215" s="26">
-        <f>AVERAGEIF($A$24:$A$149, "*SzFMV2018-Tavasz-AutomatedCar*_Manual", L$24:L$149)</f>
+        <f t="shared" si="51"/>
         <v>4.9999999999999996E-2</v>
       </c>
       <c r="N215" s="26">
-        <f>AVERAGEIF($A$24:$A$149, "*SzFMV2018-Tavasz-AutomatedCar*_Manual", M$24:M$149)</f>
+        <f t="shared" si="51"/>
         <v>30.41</v>
       </c>
       <c r="O215" s="26">
-        <f>AVERAGEIF($A$24:$A$149, "*SzFMV2018-Tavasz-AutomatedCar*_Manual", N$24:N$149)</f>
+        <f t="shared" si="51"/>
         <v>1.6899999999999997</v>
       </c>
     </row>
@@ -14261,55 +14978,55 @@
         <v>226</v>
       </c>
       <c r="C216" s="26">
-        <f>AVERAGEIF($A$24:$A$149, "*SzFMV2018-Tavasz-AutomatedCar*_Auto", B$24:B$149)</f>
+        <f t="shared" ref="C216:O216" si="52">AVERAGEIF($A$24:$A$149, "*SzFMV2018-Tavasz-AutomatedCar*_Auto", B$24:B$149)</f>
         <v>1.0233333333333332</v>
       </c>
       <c r="D216" s="26">
-        <f>AVERAGEIF($A$24:$A$149, "*SzFMV2018-Tavasz-AutomatedCar*_Auto", C$24:C$149)</f>
+        <f t="shared" si="52"/>
         <v>74.263333333333335</v>
       </c>
       <c r="E216" s="26">
-        <f>AVERAGEIF($A$24:$A$149, "*SzFMV2018-Tavasz-AutomatedCar*_Auto", D$24:D$149)</f>
+        <f t="shared" si="52"/>
         <v>10.998333333333335</v>
       </c>
       <c r="F216" s="26">
-        <f>AVERAGEIF($A$24:$A$149, "*SzFMV2018-Tavasz-AutomatedCar*_Auto", E$24:E$149)</f>
+        <f t="shared" si="52"/>
         <v>9.9533333333333331</v>
       </c>
       <c r="G216" s="26">
-        <f>AVERAGEIF($A$24:$A$149, "*SzFMV2018-Tavasz-AutomatedCar*_Auto", F$24:F$149)</f>
+        <f t="shared" si="52"/>
         <v>6.93</v>
       </c>
       <c r="H216" s="26">
-        <f>AVERAGEIF($A$24:$A$149, "*SzFMV2018-Tavasz-AutomatedCar*_Auto", G$24:G$149)</f>
+        <f t="shared" si="52"/>
         <v>2.0950000000000002</v>
       </c>
       <c r="I216" s="26">
-        <f>AVERAGEIF($A$24:$A$149, "*SzFMV2018-Tavasz-AutomatedCar*_Auto", H$24:H$149)</f>
+        <f t="shared" si="52"/>
         <v>12.048333333333332</v>
       </c>
       <c r="J216" s="26">
-        <f>AVERAGEIF($A$24:$A$149, "*SzFMV2018-Tavasz-AutomatedCar*_Auto", I$24:I$149)</f>
+        <f t="shared" si="52"/>
         <v>17.928333333333331</v>
       </c>
       <c r="K216" s="26">
-        <f>AVERAGEIF($A$24:$A$149, "*SzFMV2018-Tavasz-AutomatedCar*_Auto", J$24:J$149)</f>
+        <f t="shared" si="52"/>
         <v>53.723333333333329</v>
       </c>
       <c r="L216" s="26">
-        <f>AVERAGEIF($A$24:$A$149, "*SzFMV2018-Tavasz-AutomatedCar*_Auto", K$24:K$149)</f>
+        <f t="shared" si="52"/>
         <v>2.0483333333333333</v>
       </c>
       <c r="M216" s="26">
-        <f>AVERAGEIF($A$24:$A$149, "*SzFMV2018-Tavasz-AutomatedCar*_Auto", L$24:L$149)</f>
+        <f t="shared" si="52"/>
         <v>5.5333333333333325E-2</v>
       </c>
       <c r="N216" s="26">
-        <f>AVERAGEIF($A$24:$A$149, "*SzFMV2018-Tavasz-AutomatedCar*_Auto", M$24:M$149)</f>
+        <f t="shared" si="52"/>
         <v>35.678333333333335</v>
       </c>
       <c r="O216" s="26">
-        <f>AVERAGEIF($A$24:$A$149, "*SzFMV2018-Tavasz-AutomatedCar*_Auto", N$24:N$149)</f>
+        <f t="shared" si="52"/>
         <v>1.9833333333333332</v>
       </c>
     </row>
@@ -14366,55 +15083,55 @@
         <v>98</v>
       </c>
       <c r="C219" s="25">
-        <f t="shared" ref="C219:O219" si="35">AVERAGEIF($A$24:$A$149, "*traccar-traccar*_Buggy", B$24:B$149)</f>
+        <f t="shared" ref="C219:O219" si="53">AVERAGEIF($A$24:$A$149, "*traccar-traccar*_Buggy", B$24:B$149)</f>
         <v>5.75</v>
       </c>
       <c r="D219" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="53"/>
         <v>68.5</v>
       </c>
       <c r="E219" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="53"/>
         <v>22.25</v>
       </c>
       <c r="F219" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="53"/>
         <v>7.62</v>
       </c>
       <c r="G219" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="53"/>
         <v>21.62</v>
       </c>
       <c r="H219" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="53"/>
         <v>4.38</v>
       </c>
       <c r="I219" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="53"/>
         <v>12</v>
       </c>
       <c r="J219" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="53"/>
         <v>43.88</v>
       </c>
       <c r="K219" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="53"/>
         <v>66.92</v>
       </c>
       <c r="L219" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="M219" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="N219" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="O219" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
     </row>
@@ -14427,55 +15144,55 @@
         <v>164</v>
       </c>
       <c r="C220" s="26">
-        <f>AVERAGEIF($A$24:$A$149, "*traccar-traccar*_Manual", B$24:B$149)</f>
+        <f t="shared" ref="C220:O220" si="54">AVERAGEIF($A$24:$A$149, "*traccar-traccar*_Manual", B$24:B$149)</f>
         <v>5.88</v>
       </c>
       <c r="D220" s="26">
-        <f>AVERAGEIF($A$24:$A$149, "*traccar-traccar*_Manual", C$24:C$149)</f>
+        <f t="shared" si="54"/>
         <v>68.5</v>
       </c>
       <c r="E220" s="26">
-        <f>AVERAGEIF($A$24:$A$149, "*traccar-traccar*_Manual", D$24:D$149)</f>
+        <f t="shared" si="54"/>
         <v>22.5</v>
       </c>
       <c r="F220" s="26">
-        <f>AVERAGEIF($A$24:$A$149, "*traccar-traccar*_Manual", E$24:E$149)</f>
+        <f t="shared" si="54"/>
         <v>7.62</v>
       </c>
       <c r="G220" s="26">
-        <f>AVERAGEIF($A$24:$A$149, "*traccar-traccar*_Manual", F$24:F$149)</f>
+        <f t="shared" si="54"/>
         <v>22</v>
       </c>
       <c r="H220" s="26">
-        <f>AVERAGEIF($A$24:$A$149, "*traccar-traccar*_Manual", G$24:G$149)</f>
+        <f t="shared" si="54"/>
         <v>4.38</v>
       </c>
       <c r="I220" s="26">
-        <f>AVERAGEIF($A$24:$A$149, "*traccar-traccar*_Manual", H$24:H$149)</f>
+        <f t="shared" si="54"/>
         <v>12</v>
       </c>
       <c r="J220" s="26">
-        <f>AVERAGEIF($A$24:$A$149, "*traccar-traccar*_Manual", I$24:I$149)</f>
+        <f t="shared" si="54"/>
         <v>44.5</v>
       </c>
       <c r="K220" s="26">
-        <f>AVERAGEIF($A$24:$A$149, "*traccar-traccar*_Manual", J$24:J$149)</f>
+        <f t="shared" si="54"/>
         <v>67.08</v>
       </c>
       <c r="L220" s="26">
-        <f>AVERAGEIF($A$24:$A$149, "*traccar-traccar*_Manual", K$24:K$149)</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="M220" s="26">
-        <f>AVERAGEIF($A$24:$A$149, "*traccar-traccar*_Manual", L$24:L$149)</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="N220" s="26">
-        <f>AVERAGEIF($A$24:$A$149, "*traccar-traccar*_Manual", M$24:M$149)</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="O220" s="26">
-        <f>AVERAGEIF($A$24:$A$149, "*traccar-traccar*_Manual", N$24:N$149)</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
     </row>
@@ -14488,55 +15205,55 @@
         <v>227</v>
       </c>
       <c r="C221" s="26">
-        <f>AVERAGEIF($A$24:$A$149, "*traccar-traccar*_Auto", B$24:B$149)</f>
+        <f t="shared" ref="C221:O221" si="55">AVERAGEIF($A$24:$A$149, "*traccar-traccar*_Auto", B$24:B$149)</f>
         <v>5.3116666666666665</v>
       </c>
       <c r="D221" s="26">
-        <f>AVERAGEIF($A$24:$A$149, "*traccar-traccar*_Auto", C$24:C$149)</f>
+        <f t="shared" si="55"/>
         <v>68.916666666666671</v>
       </c>
       <c r="E221" s="26">
-        <f>AVERAGEIF($A$24:$A$149, "*traccar-traccar*_Auto", D$24:D$149)</f>
+        <f t="shared" si="55"/>
         <v>20.75</v>
       </c>
       <c r="F221" s="26">
-        <f>AVERAGEIF($A$24:$A$149, "*traccar-traccar*_Auto", E$24:E$149)</f>
+        <f t="shared" si="55"/>
         <v>7.52</v>
       </c>
       <c r="G221" s="26">
-        <f>AVERAGEIF($A$24:$A$149, "*traccar-traccar*_Auto", F$24:F$149)</f>
+        <f t="shared" si="55"/>
         <v>19.808333333333334</v>
       </c>
       <c r="H221" s="26">
-        <f>AVERAGEIF($A$24:$A$149, "*traccar-traccar*_Auto", G$24:G$149)</f>
+        <f t="shared" si="55"/>
         <v>4.38</v>
       </c>
       <c r="I221" s="26">
-        <f>AVERAGEIF($A$24:$A$149, "*traccar-traccar*_Auto", H$24:H$149)</f>
+        <f t="shared" si="55"/>
         <v>11.9</v>
       </c>
       <c r="J221" s="26">
-        <f>AVERAGEIF($A$24:$A$149, "*traccar-traccar*_Auto", I$24:I$149)</f>
+        <f t="shared" si="55"/>
         <v>40.55833333333333</v>
       </c>
       <c r="K221" s="26">
-        <f>AVERAGEIF($A$24:$A$149, "*traccar-traccar*_Auto", J$24:J$149)</f>
+        <f t="shared" si="55"/>
         <v>65.278333333333336</v>
       </c>
       <c r="L221" s="26">
-        <f>AVERAGEIF($A$24:$A$149, "*traccar-traccar*_Auto", K$24:K$149)</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="M221" s="26">
-        <f>AVERAGEIF($A$24:$A$149, "*traccar-traccar*_Auto", L$24:L$149)</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="N221" s="26">
-        <f>AVERAGEIF($A$24:$A$149, "*traccar-traccar*_Auto", M$24:M$149)</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="O221" s="26">
-        <f>AVERAGEIF($A$24:$A$149, "*traccar-traccar*_Auto", N$24:N$149)</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
     </row>
@@ -14632,55 +15349,55 @@
         <v>165</v>
       </c>
       <c r="C227" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "Arja*Manual", B$24:B$149)</f>
+        <f t="shared" ref="C227:O227" si="56">AVERAGEIF($A$24:$A$149, "Arja*Manual", B$24:B$149)</f>
         <v>2.568461538461539</v>
       </c>
       <c r="D227" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "Arja*Manual", C$24:C$149)</f>
+        <f t="shared" si="56"/>
         <v>79.533846153846127</v>
       </c>
       <c r="E227" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "Arja*Manual", D$24:D$149)</f>
+        <f t="shared" si="56"/>
         <v>11.127692307692305</v>
       </c>
       <c r="F227" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "Arja*Manual", E$24:E$149)</f>
+        <f t="shared" si="56"/>
         <v>6.3934615384615388</v>
       </c>
       <c r="G227" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "Arja*Manual", F$24:F$149)</f>
+        <f t="shared" si="56"/>
         <v>9.1919230769230769</v>
       </c>
       <c r="H227" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "Arja*Manual", G$24:G$149)</f>
+        <f t="shared" si="56"/>
         <v>2.6753846153846155</v>
       </c>
       <c r="I227" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "Arja*Manual", H$24:H$149)</f>
+        <f t="shared" si="56"/>
         <v>9.0680769230769247</v>
       </c>
       <c r="J227" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "Arja*Manual", I$24:I$149)</f>
+        <f t="shared" si="56"/>
         <v>20.318846153846152</v>
       </c>
       <c r="K227" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "Arja*Manual", J$24:J$149)</f>
+        <f t="shared" si="56"/>
         <v>40.56807692307693</v>
       </c>
       <c r="L227" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "Arja*Manual", K$24:K$149)</f>
+        <f t="shared" si="56"/>
         <v>0.51769230769230767</v>
       </c>
       <c r="M227" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "Arja*Manual", L$24:L$149)</f>
+        <f t="shared" si="56"/>
         <v>5.0961538461538468E-2</v>
       </c>
       <c r="N227" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "Arja*Manual", M$24:M$149)</f>
+        <f t="shared" si="56"/>
         <v>9.6007692307692292</v>
       </c>
       <c r="O227" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "Arja*Manual", N$24:N$149)</f>
+        <f t="shared" si="56"/>
         <v>0.53392307692307683</v>
       </c>
     </row>
@@ -14693,55 +15410,55 @@
         <v>228</v>
       </c>
       <c r="C228" s="29">
-        <f>AVERAGEIF($A$24:$A$149, "Arja*Auto", B$24:B$149)</f>
+        <f t="shared" ref="C228:O228" si="57">AVERAGEIF($A$24:$A$149, "Arja*Auto", B$24:B$149)</f>
         <v>2.4215384615384616</v>
       </c>
       <c r="D228" s="29">
-        <f>AVERAGEIF($A$24:$A$149, "Arja*Auto", C$24:C$149)</f>
+        <f t="shared" si="57"/>
         <v>81.206923076923076</v>
       </c>
       <c r="E228" s="29">
-        <f>AVERAGEIF($A$24:$A$149, "Arja*Auto", D$24:D$149)</f>
+        <f t="shared" si="57"/>
         <v>10.330769230769231</v>
       </c>
       <c r="F228" s="29">
-        <f>AVERAGEIF($A$24:$A$149, "Arja*Auto", E$24:E$149)</f>
+        <f t="shared" si="57"/>
         <v>6.3992307692307691</v>
       </c>
       <c r="G228" s="29">
-        <f>AVERAGEIF($A$24:$A$149, "Arja*Auto", F$24:F$149)</f>
+        <f t="shared" si="57"/>
         <v>8.0784615384615392</v>
       </c>
       <c r="H228" s="29">
-        <f>AVERAGEIF($A$24:$A$149, "Arja*Auto", G$24:G$149)</f>
+        <f t="shared" si="57"/>
         <v>2.4384615384615387</v>
       </c>
       <c r="I228" s="29">
-        <f>AVERAGEIF($A$24:$A$149, "Arja*Auto", H$24:H$149)</f>
+        <f t="shared" si="57"/>
         <v>8.837692307692306</v>
       </c>
       <c r="J228" s="29">
-        <f>AVERAGEIF($A$24:$A$149, "Arja*Auto", I$24:I$149)</f>
+        <f t="shared" si="57"/>
         <v>18.408846153846152</v>
       </c>
       <c r="K228" s="29">
-        <f>AVERAGEIF($A$24:$A$149, "Arja*Auto", J$24:J$149)</f>
+        <f t="shared" si="57"/>
         <v>38.34269230769231</v>
       </c>
       <c r="L228" s="29">
-        <f>AVERAGEIF($A$24:$A$149, "Arja*Auto", K$24:K$149)</f>
+        <f t="shared" si="57"/>
         <v>0.50576923076923075</v>
       </c>
       <c r="M228" s="29">
-        <f>AVERAGEIF($A$24:$A$149, "Arja*Auto", L$24:L$149)</f>
+        <f t="shared" si="57"/>
         <v>5.296153846153847E-2</v>
       </c>
       <c r="N228" s="29">
-        <f>AVERAGEIF($A$24:$A$149, "Arja*Auto", M$24:M$149)</f>
+        <f t="shared" si="57"/>
         <v>10.267307692307693</v>
       </c>
       <c r="O228" s="29">
-        <f>AVERAGEIF($A$24:$A$149, "Arja*Auto", N$24:N$149)</f>
+        <f t="shared" si="57"/>
         <v>0.57084615384615389</v>
       </c>
     </row>
@@ -14754,55 +15471,55 @@
         <v>166</v>
       </c>
       <c r="C229" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "GenProg*Manual", B$24:B$149)</f>
+        <f t="shared" ref="C229:O229" si="58">AVERAGEIF($A$24:$A$149, "GenProg*Manual", B$24:B$149)</f>
         <v>1</v>
       </c>
       <c r="D229" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "GenProg*Manual", C$24:C$149)</f>
+        <f t="shared" si="58"/>
         <v>74.569999999999993</v>
       </c>
       <c r="E229" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "GenProg*Manual", D$24:D$149)</f>
+        <f t="shared" si="58"/>
         <v>11</v>
       </c>
       <c r="F229" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "GenProg*Manual", E$24:E$149)</f>
+        <f t="shared" si="58"/>
         <v>9.86</v>
       </c>
       <c r="G229" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "GenProg*Manual", F$24:F$149)</f>
+        <f t="shared" si="58"/>
         <v>6.7099999999999991</v>
       </c>
       <c r="H229" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "GenProg*Manual", G$24:G$149)</f>
+        <f t="shared" si="58"/>
         <v>2</v>
       </c>
       <c r="I229" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "GenProg*Manual", H$24:H$149)</f>
+        <f t="shared" si="58"/>
         <v>11.86</v>
       </c>
       <c r="J229" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "GenProg*Manual", I$24:I$149)</f>
+        <f t="shared" si="58"/>
         <v>17.71</v>
       </c>
       <c r="K229" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "GenProg*Manual", J$24:J$149)</f>
+        <f t="shared" si="58"/>
         <v>52.8</v>
       </c>
       <c r="L229" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "GenProg*Manual", K$24:K$149)</f>
+        <f t="shared" si="58"/>
         <v>2</v>
       </c>
       <c r="M229" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "GenProg*Manual", L$24:L$149)</f>
+        <f t="shared" si="58"/>
         <v>0.05</v>
       </c>
       <c r="N229" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "GenProg*Manual", M$24:M$149)</f>
+        <f t="shared" si="58"/>
         <v>30.410000000000004</v>
       </c>
       <c r="O229" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "GenProg*Manual", N$24:N$149)</f>
+        <f t="shared" si="58"/>
         <v>1.69</v>
       </c>
     </row>
@@ -14815,55 +15532,55 @@
         <v>229</v>
       </c>
       <c r="C230" s="29">
-        <f>AVERAGEIF($A$24:$A$149, "GenProg*Auto", B$24:B$149)</f>
+        <f t="shared" ref="C230:O230" si="59">AVERAGEIF($A$24:$A$149, "GenProg*Auto", B$24:B$149)</f>
         <v>1</v>
       </c>
       <c r="D230" s="29">
-        <f>AVERAGEIF($A$24:$A$149, "GenProg*Auto", C$24:C$149)</f>
+        <f t="shared" si="59"/>
         <v>73.486000000000004</v>
       </c>
       <c r="E230" s="29">
-        <f>AVERAGEIF($A$24:$A$149, "GenProg*Auto", D$24:D$149)</f>
+        <f t="shared" si="59"/>
         <v>11.2</v>
       </c>
       <c r="F230" s="29">
-        <f>AVERAGEIF($A$24:$A$149, "GenProg*Auto", E$24:E$149)</f>
+        <f t="shared" si="59"/>
         <v>10.370000000000001</v>
       </c>
       <c r="G230" s="29">
-        <f>AVERAGEIF($A$24:$A$149, "GenProg*Auto", F$24:F$149)</f>
+        <f t="shared" si="59"/>
         <v>7.202</v>
       </c>
       <c r="H230" s="29">
-        <f>AVERAGEIF($A$24:$A$149, "GenProg*Auto", G$24:G$149)</f>
+        <f t="shared" si="59"/>
         <v>2.2280000000000002</v>
       </c>
       <c r="I230" s="29">
-        <f>AVERAGEIF($A$24:$A$149, "GenProg*Auto", H$24:H$149)</f>
+        <f t="shared" si="59"/>
         <v>12.6</v>
       </c>
       <c r="J230" s="29">
-        <f>AVERAGEIF($A$24:$A$149, "GenProg*Auto", I$24:I$149)</f>
+        <f t="shared" si="59"/>
         <v>18.398000000000003</v>
       </c>
       <c r="K230" s="29">
-        <f>AVERAGEIF($A$24:$A$149, "GenProg*Auto", J$24:J$149)</f>
+        <f t="shared" si="59"/>
         <v>56.54</v>
       </c>
       <c r="L230" s="29">
-        <f>AVERAGEIF($A$24:$A$149, "GenProg*Auto", K$24:K$149)</f>
+        <f t="shared" si="59"/>
         <v>1.9440000000000002</v>
       </c>
       <c r="M230" s="29">
-        <f>AVERAGEIF($A$24:$A$149, "GenProg*Auto", L$24:L$149)</f>
+        <f t="shared" si="59"/>
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="N230" s="29">
-        <f>AVERAGEIF($A$24:$A$149, "GenProg*Auto", M$24:M$149)</f>
+        <f t="shared" si="59"/>
         <v>36.606000000000002</v>
       </c>
       <c r="O230" s="29">
-        <f>AVERAGEIF($A$24:$A$149, "GenProg*Auto", N$24:N$149)</f>
+        <f t="shared" si="59"/>
         <v>2.0339999999999998</v>
       </c>
     </row>
@@ -14876,55 +15593,55 @@
         <v>167</v>
       </c>
       <c r="C231" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "Kali*Manual", B$24:B$149)</f>
+        <f t="shared" ref="C231:O231" si="60">AVERAGEIF($A$24:$A$149, "Kali*Manual", B$24:B$149)</f>
         <v>3.0960000000000001</v>
       </c>
       <c r="D231" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "Kali*Manual", C$24:C$149)</f>
+        <f t="shared" si="60"/>
         <v>78.08</v>
       </c>
       <c r="E231" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "Kali*Manual", D$24:D$149)</f>
+        <f t="shared" si="60"/>
         <v>12.318000000000001</v>
       </c>
       <c r="F231" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "Kali*Manual", E$24:E$149)</f>
+        <f t="shared" si="60"/>
         <v>6.5879999999999992</v>
       </c>
       <c r="G231" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "Kali*Manual", F$24:F$149)</f>
+        <f t="shared" si="60"/>
         <v>10.571999999999999</v>
       </c>
       <c r="H231" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "Kali*Manual", G$24:G$149)</f>
+        <f t="shared" si="60"/>
         <v>2.8659999999999997</v>
       </c>
       <c r="I231" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "Kali*Manual", H$24:H$149)</f>
+        <f t="shared" si="60"/>
         <v>9.4559999999999995</v>
       </c>
       <c r="J231" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "Kali*Manual", I$24:I$149)</f>
+        <f t="shared" si="60"/>
         <v>22.89</v>
       </c>
       <c r="K231" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "Kali*Manual", J$24:J$149)</f>
+        <f t="shared" si="60"/>
         <v>43.652000000000001</v>
       </c>
       <c r="L231" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "Kali*Manual", K$24:K$149)</f>
+        <f t="shared" si="60"/>
         <v>0.51400000000000001</v>
       </c>
       <c r="M231" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "Kali*Manual", L$24:L$149)</f>
+        <f t="shared" si="60"/>
         <v>1.3000000000000001E-2</v>
       </c>
       <c r="N231" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "Kali*Manual", M$24:M$149)</f>
+        <f t="shared" si="60"/>
         <v>8.7140000000000004</v>
       </c>
       <c r="O231" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "Kali*Manual", N$24:N$149)</f>
+        <f t="shared" si="60"/>
         <v>0.48399999999999999</v>
       </c>
     </row>
@@ -14937,55 +15654,55 @@
         <v>230</v>
       </c>
       <c r="C232" s="29">
-        <f>AVERAGEIF($A$24:$A$149, "Kali*Auto", B$24:B$149)</f>
+        <f t="shared" ref="C232:O232" si="61">AVERAGEIF($A$24:$A$149, "Kali*Auto", B$24:B$149)</f>
         <v>3.1340000000000003</v>
       </c>
       <c r="D232" s="29">
-        <f>AVERAGEIF($A$24:$A$149, "Kali*Auto", C$24:C$149)</f>
+        <f t="shared" si="61"/>
         <v>75.86</v>
       </c>
       <c r="E232" s="29">
-        <f>AVERAGEIF($A$24:$A$149, "Kali*Auto", D$24:D$149)</f>
+        <f t="shared" si="61"/>
         <v>11.92</v>
       </c>
       <c r="F232" s="29">
-        <f>AVERAGEIF($A$24:$A$149, "Kali*Auto", E$24:E$149)</f>
+        <f t="shared" si="61"/>
         <v>6.7359999999999998</v>
       </c>
       <c r="G232" s="29">
-        <f>AVERAGEIF($A$24:$A$149, "Kali*Auto", F$24:F$149)</f>
+        <f t="shared" si="61"/>
         <v>10.24</v>
       </c>
       <c r="H232" s="29">
-        <f>AVERAGEIF($A$24:$A$149, "Kali*Auto", G$24:G$149)</f>
+        <f t="shared" si="61"/>
         <v>3.0939999999999999</v>
       </c>
       <c r="I232" s="29">
-        <f>AVERAGEIF($A$24:$A$149, "Kali*Auto", H$24:H$149)</f>
+        <f t="shared" si="61"/>
         <v>9.831999999999999</v>
       </c>
       <c r="J232" s="29">
-        <f>AVERAGEIF($A$24:$A$149, "Kali*Auto", I$24:I$149)</f>
+        <f t="shared" si="61"/>
         <v>22.16</v>
       </c>
       <c r="K232" s="29">
-        <f>AVERAGEIF($A$24:$A$149, "Kali*Auto", J$24:J$149)</f>
+        <f t="shared" si="61"/>
         <v>44.432000000000002</v>
       </c>
       <c r="L232" s="29">
-        <f>AVERAGEIF($A$24:$A$149, "Kali*Auto", K$24:K$149)</f>
+        <f t="shared" si="61"/>
         <v>0.90800000000000003</v>
       </c>
       <c r="M232" s="29">
-        <f>AVERAGEIF($A$24:$A$149, "Kali*Auto", L$24:L$149)</f>
+        <f t="shared" si="61"/>
         <v>0.11112000000000002</v>
       </c>
       <c r="N232" s="29">
-        <f>AVERAGEIF($A$24:$A$149, "Kali*Auto", M$24:M$149)</f>
+        <f t="shared" si="61"/>
         <v>17.521999999999998</v>
       </c>
       <c r="O232" s="29">
-        <f>AVERAGEIF($A$24:$A$149, "Kali*Auto", N$24:N$149)</f>
+        <f t="shared" si="61"/>
         <v>0.97399999999999998</v>
       </c>
     </row>
@@ -14998,55 +15715,55 @@
         <v>168</v>
       </c>
       <c r="C233" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "Nopol*Manual", B$24:B$149)</f>
+        <f t="shared" ref="C233:O233" si="62">AVERAGEIF($A$24:$A$149, "Nopol*Manual", B$24:B$149)</f>
         <v>1.49</v>
       </c>
       <c r="D233" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "Nopol*Manual", C$24:C$149)</f>
+        <f t="shared" si="62"/>
         <v>89.41</v>
       </c>
       <c r="E233" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "Nopol*Manual", D$24:D$149)</f>
+        <f t="shared" si="62"/>
         <v>5.92</v>
       </c>
       <c r="F233" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "Nopol*Manual", E$24:E$149)</f>
+        <f t="shared" si="62"/>
         <v>3.31</v>
       </c>
       <c r="G233" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "Nopol*Manual", F$24:F$149)</f>
+        <f t="shared" si="62"/>
         <v>3.69</v>
       </c>
       <c r="H233" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "Nopol*Manual", G$24:G$149)</f>
+        <f t="shared" si="62"/>
         <v>1.92</v>
       </c>
       <c r="I233" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "Nopol*Manual", H$24:H$149)</f>
+        <f t="shared" si="62"/>
         <v>5.23</v>
       </c>
       <c r="J233" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "Nopol*Manual", I$24:I$149)</f>
+        <f t="shared" si="62"/>
         <v>9.6199999999999992</v>
       </c>
       <c r="K233" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "Nopol*Manual", J$24:J$149)</f>
+        <f t="shared" si="62"/>
         <v>19.39</v>
       </c>
       <c r="L233" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "Nopol*Manual", K$24:K$149)</f>
+        <f t="shared" si="62"/>
         <v>0.22</v>
       </c>
       <c r="M233" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "Nopol*Manual", L$24:L$149)</f>
+        <f t="shared" si="62"/>
         <v>0.11</v>
       </c>
       <c r="N233" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "Nopol*Manual", M$24:M$149)</f>
+        <f t="shared" si="62"/>
         <v>2.4700000000000002</v>
       </c>
       <c r="O233" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "Nopol*Manual", N$24:N$149)</f>
+        <f t="shared" si="62"/>
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -15059,55 +15776,55 @@
         <v>231</v>
       </c>
       <c r="C234" s="29">
-        <f>AVERAGEIF($A$24:$A$149, "Nopol*Auto", B$24:B$149)</f>
+        <f t="shared" ref="C234:O234" si="63">AVERAGEIF($A$24:$A$149, "Nopol*Auto", B$24:B$149)</f>
         <v>1.53</v>
       </c>
       <c r="D234" s="29">
-        <f>AVERAGEIF($A$24:$A$149, "Nopol*Auto", C$24:C$149)</f>
+        <f t="shared" si="63"/>
         <v>89.38</v>
       </c>
       <c r="E234" s="29">
-        <f>AVERAGEIF($A$24:$A$149, "Nopol*Auto", D$24:D$149)</f>
+        <f t="shared" si="63"/>
         <v>5.95</v>
       </c>
       <c r="F234" s="29">
-        <f>AVERAGEIF($A$24:$A$149, "Nopol*Auto", E$24:E$149)</f>
+        <f t="shared" si="63"/>
         <v>3.33</v>
       </c>
       <c r="G234" s="29">
-        <f>AVERAGEIF($A$24:$A$149, "Nopol*Auto", F$24:F$149)</f>
+        <f t="shared" si="63"/>
         <v>3.82</v>
       </c>
       <c r="H234" s="29">
-        <f>AVERAGEIF($A$24:$A$149, "Nopol*Auto", G$24:G$149)</f>
+        <f t="shared" si="63"/>
         <v>1.95</v>
       </c>
       <c r="I234" s="29">
-        <f>AVERAGEIF($A$24:$A$149, "Nopol*Auto", H$24:H$149)</f>
+        <f t="shared" si="63"/>
         <v>5.28</v>
       </c>
       <c r="J234" s="29">
-        <f>AVERAGEIF($A$24:$A$149, "Nopol*Auto", I$24:I$149)</f>
+        <f t="shared" si="63"/>
         <v>9.77</v>
       </c>
       <c r="K234" s="29">
-        <f>AVERAGEIF($A$24:$A$149, "Nopol*Auto", J$24:J$149)</f>
+        <f t="shared" si="63"/>
         <v>19.79</v>
       </c>
       <c r="L234" s="29">
-        <f>AVERAGEIF($A$24:$A$149, "Nopol*Auto", K$24:K$149)</f>
+        <f t="shared" si="63"/>
         <v>0.22</v>
       </c>
       <c r="M234" s="29">
-        <f>AVERAGEIF($A$24:$A$149, "Nopol*Auto", L$24:L$149)</f>
+        <f t="shared" si="63"/>
         <v>0.11</v>
       </c>
       <c r="N234" s="29">
-        <f>AVERAGEIF($A$24:$A$149, "Nopol*Auto", M$24:M$149)</f>
+        <f t="shared" si="63"/>
         <v>2.4700000000000002</v>
       </c>
       <c r="O234" s="29">
-        <f>AVERAGEIF($A$24:$A$149, "Nopol*Auto", N$24:N$149)</f>
+        <f t="shared" si="63"/>
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -15120,55 +15837,55 @@
         <v>169</v>
       </c>
       <c r="C235" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "RSRepair*Manual", B$24:B$149)</f>
+        <f t="shared" ref="C235:O235" si="64">AVERAGEIF($A$24:$A$149, "RSRepair*Manual", B$24:B$149)</f>
         <v>1</v>
       </c>
       <c r="D235" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "RSRepair*Manual", C$24:C$149)</f>
+        <f t="shared" si="64"/>
         <v>74.569999999999993</v>
       </c>
       <c r="E235" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "RSRepair*Manual", D$24:D$149)</f>
+        <f t="shared" si="64"/>
         <v>11</v>
       </c>
       <c r="F235" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "RSRepair*Manual", E$24:E$149)</f>
+        <f t="shared" si="64"/>
         <v>9.86</v>
       </c>
       <c r="G235" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "RSRepair*Manual", F$24:F$149)</f>
+        <f t="shared" si="64"/>
         <v>6.7099999999999991</v>
       </c>
       <c r="H235" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "RSRepair*Manual", G$24:G$149)</f>
+        <f t="shared" si="64"/>
         <v>2</v>
       </c>
       <c r="I235" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "RSRepair*Manual", H$24:H$149)</f>
+        <f t="shared" si="64"/>
         <v>11.86</v>
       </c>
       <c r="J235" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "RSRepair*Manual", I$24:I$149)</f>
+        <f t="shared" si="64"/>
         <v>17.71</v>
       </c>
       <c r="K235" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "RSRepair*Manual", J$24:J$149)</f>
+        <f t="shared" si="64"/>
         <v>52.8</v>
       </c>
       <c r="L235" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "RSRepair*Manual", K$24:K$149)</f>
+        <f t="shared" si="64"/>
         <v>2</v>
       </c>
       <c r="M235" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "RSRepair*Manual", L$24:L$149)</f>
+        <f t="shared" si="64"/>
         <v>0.05</v>
       </c>
       <c r="N235" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "RSRepair*Manual", M$24:M$149)</f>
+        <f t="shared" si="64"/>
         <v>30.410000000000004</v>
       </c>
       <c r="O235" s="25">
-        <f>AVERAGEIF($A$24:$A$149, "RSRepair*Manual", N$24:N$149)</f>
+        <f t="shared" si="64"/>
         <v>1.69</v>
       </c>
     </row>
@@ -15181,55 +15898,55 @@
         <v>232</v>
       </c>
       <c r="C236" s="29">
-        <f>AVERAGEIF($A$24:$A$149, "RSRepair*Auto", B$24:B$149)</f>
+        <f t="shared" ref="C236:O236" si="65">AVERAGEIF($A$24:$A$149, "RSRepair*Auto", B$24:B$149)</f>
         <v>1</v>
       </c>
       <c r="D236" s="29">
-        <f>AVERAGEIF($A$24:$A$149, "RSRepair*Auto", C$24:C$149)</f>
+        <f t="shared" si="65"/>
         <v>74.539999999999992</v>
       </c>
       <c r="E236" s="29">
-        <f>AVERAGEIF($A$24:$A$149, "RSRepair*Auto", D$24:D$149)</f>
+        <f t="shared" si="65"/>
         <v>11.14</v>
       </c>
       <c r="F236" s="29">
-        <f>AVERAGEIF($A$24:$A$149, "RSRepair*Auto", E$24:E$149)</f>
+        <f t="shared" si="65"/>
         <v>10.056000000000001</v>
       </c>
       <c r="G236" s="29">
-        <f>AVERAGEIF($A$24:$A$149, "RSRepair*Auto", F$24:F$149)</f>
+        <f t="shared" si="65"/>
         <v>6.6280000000000001</v>
       </c>
       <c r="H236" s="29">
-        <f>AVERAGEIF($A$24:$A$149, "RSRepair*Auto", G$24:G$149)</f>
+        <f t="shared" si="65"/>
         <v>2.056</v>
       </c>
       <c r="I236" s="29">
-        <f>AVERAGEIF($A$24:$A$149, "RSRepair*Auto", H$24:H$149)</f>
+        <f t="shared" si="65"/>
         <v>12.114000000000001</v>
       </c>
       <c r="J236" s="29">
-        <f>AVERAGEIF($A$24:$A$149, "RSRepair*Auto", I$24:I$149)</f>
+        <f t="shared" si="65"/>
         <v>17.772000000000002</v>
       </c>
       <c r="K236" s="29">
-        <f>AVERAGEIF($A$24:$A$149, "RSRepair*Auto", J$24:J$149)</f>
+        <f t="shared" si="65"/>
         <v>53.898000000000003</v>
       </c>
       <c r="L236" s="29">
-        <f>AVERAGEIF($A$24:$A$149, "RSRepair*Auto", K$24:K$149)</f>
+        <f t="shared" si="65"/>
         <v>1.8579999999999999</v>
       </c>
       <c r="M236" s="29">
-        <f>AVERAGEIF($A$24:$A$149, "RSRepair*Auto", L$24:L$149)</f>
+        <f t="shared" si="65"/>
         <v>5.28E-2</v>
       </c>
       <c r="N236" s="29">
-        <f>AVERAGEIF($A$24:$A$149, "RSRepair*Auto", M$24:M$149)</f>
+        <f t="shared" si="65"/>
         <v>28.931999999999999</v>
       </c>
       <c r="O236" s="29">
-        <f>AVERAGEIF($A$24:$A$149, "RSRepair*Auto", N$24:N$149)</f>
+        <f t="shared" si="65"/>
         <v>1.6079999999999999</v>
       </c>
     </row>
@@ -15477,36 +16194,26 @@
     <sortCondition ref="A25:A150"/>
   </sortState>
   <mergeCells count="1">
-    <mergeCell ref="R168:U168"/>
+    <mergeCell ref="R168:T168"/>
   </mergeCells>
-  <conditionalFormatting sqref="P66:P149">
-    <cfRule type="cellIs" dxfId="6" priority="93" operator="greaterThan">
-      <formula>$P$70</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q66:Q149">
-    <cfRule type="cellIs" dxfId="5" priority="92" operator="greaterThan">
-      <formula>$P$70</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R66:R149">
-    <cfRule type="cellIs" dxfId="4" priority="91" operator="greaterThan">
+  <conditionalFormatting sqref="P66:U149">
+    <cfRule type="cellIs" dxfId="11" priority="91" operator="greaterThan">
       <formula>$P$70</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C195:O195 C200:O200 C205:O205 C210:O210 C215:O215 C220:O220 C164:O164 C171:O171 C175:O175 C179:O179 C183:O183 T171:AF171 T175:AF175 T179:AF179 T183:AF183 C187:O187 C227:O227 C229:O229 C231:O231 C233:O233 C235:O235">
-    <cfRule type="cellIs" dxfId="3" priority="83" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="83" operator="greaterThan">
       <formula>C165</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="85" operator="equal">
       <formula>C165</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C196:O196 C201:O201 C206:O206 C211:O211 C216:O216 C221:O221 C165:O165 C172:O172 C176:O176 C180:O180 C184:O184 T172:AF172 T176:AF176 T180:AF180 T184:AF184 C188:O188 C228:O228 C230:O230 C232:O232 C234:O234 C236:O236">
-    <cfRule type="cellIs" dxfId="1" priority="84" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="84" operator="greaterThan">
       <formula>C164</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="86" operator="equal">
       <formula>C164</formula>
     </cfRule>
   </conditionalFormatting>
